--- a/mergedT20.xlsx
+++ b/mergedT20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,25 +631,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moeen Ali</t>
+          <t>Hasan Murad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_416</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>109.5</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -658,25 +658,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.1</v>
+        <v>60</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -688,67 +688,67 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVFRUVFxUVFxUVFRUXFhUXFRUXFhUVFhUYHSggGBolHhUVITEhJSkrLi4uFx8zODMtNygtLi0BCgoKDg0OGhAQGi0fHx8tLS0tLS0tLS0tLS4vLS0tLSstLS0tLS0tLS0tLS0vLSstLS0tLS0tLS0tLS0tLS0tLf/AABEIAMABBgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQADBgIBBwj/xABFEAABBAAEAwUEBwQIBQUAAAABAAIDEQQSITEFQVEGEyJhcTKBkaEHFFKTsdHSQlSSwRcjM0Ri4fDxJDRDcoIVFlN0sv/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAAEEBQb/xAAyEQACAQIEAwcDBAIDAAAAAAAAAQIDEQQSITFBUfAFEyJhcZGhgcHRFDKx4QbxI1KC/9oADAMBAAIRAxEAPwBE5irLUU9cFMBKGsXTItVewK7DDVQg24Rw66vnsnf1PKSCNRoh+HvyhpG4opmXE6ncphBPj2UkOPfS0PEiszxOTkrikQDMy971VWvQUWRELDIq3SL1eUp3aLLGQuLHSCsrSAdRYuhtvWoUaV1HinCMxisrjZ01vTn/AOIUjSpR0IWMamPD5Cx18kJEQi4uiyybi7rgHZNWY/jkBFgqxzwNyl8fDZcmcNOXfQj8LtCOde5R/rXb9op4Zp6nnFJ85obBLnNRzwhnbpDm5O7GqKirI4mwrmOyu30Ohsa6jULpkavlnMjszqvQaabK6JgS5SsWgV0aryJkYwqHRoVIs4hYmmGgQ2FYneEjCVVqNFxPIMJsV9A4Y62BZSCMJxw7F5NDsrwuItJqXEucNNB9lWW7dRjux1JC0DMa2t1k+0uK712nst0H5rppidzBYmKkE5PMa0JRM1bI000CwYvXq9c1eq3SRQU7BqDBp6IAocOFgzMZYRfVFZHh6KamFeiBTMyrHeBdyTLPogcLBqmLYlHULURbio7WexOFslbGWLRKX4YKKoyZTOnBKDBp26BcGNH3rJlFH1JQ4JOmRrvuQp3rJlEH1JQYZPjhwuThgp3jKyivDYazXvPkBuUzztYKaPfzPqVY5ojjJ+3Ys/ZG4/15JTieJMhZmd4nf9OMaud0c6tv9c9smIu7He7JjSgpVKi1Wt+XXvyCcX2ifhGkaFz9Wxncf4if2QdvNY7F9rMVmLixgF3QGg8rBuveq3vMjy6YuD366kD3AXa7xGEjANuvlQP5lDFKOj1E4nEyrSco6J8LLXzd07jvgXHG4jwkZXgXV2COrT/JM3QrGdl+FSfW2lopjfHZ0tuxrrqa06r6MIkeVLY5kuuuvsLWQImONECJdUhlG5RSWKt0avJXCFQIeQMTbCuS5iLhehnTuWnYdQSItsiSMnXf1ylm7hphZkNpJEpx84XEmNQUxtdDDRy6sCbF2JdaCfEmzolQ6JdHv1awqwsOHUTAtUQ9+TKMWzhXY7Htdlq9BWvrazTccuZMakKJLj3vwu2ShZ1mNRkGKVqmC5D/AAz9UyaVn8BPZTcP0QyjZhxZbM7RK5JAisQ/QpHLOooXI3qMcLjGsJJs2CNPdul7pggJ8Sg34kqnEYh82YKxswWb+uFXRYxVYhohIF4ZAk7MYvTildmUG4uM4hzcPmIjaM8lb07whjfN2U68gCmZ7PYZ40jDNKzM8NdPK/cueBnwZ2jMXZWEAN+07MXEizQIoefmqJ+PtikkjeNMzq01odfisNS8pNcjoJKMYt8V9uvqK+O9l3yNiZCbEVgZ3U51hux6eEnluiOFcCwjg2J0jZJbeSW0AdKcy93gVzRsnaKNsbHNaZHuJDWjX30NShG4zERN78tNMtxaY6BB0oFuooGhppStuT3LSjrlQdi+ExwOa5mgyuZl5Nt2c16k7eSrDwq+IcYjlZbXag5qPmNR66/JLfra00k3Ew1rKY3LwqnvCWHFqt+KR5QEMnSBd4HFhjw42avY+SSyYlcidVYsePmBJPUk/NXQuSFuKRkGJUylNjklDyOQ7MTaoxE6LKBmCjIrmSBJziFYydTKy2xq94Xr8YO7Eeth13y57fH5JS7EKgzaqrFphksmqiED7UV2YQqaCvXKwtXhCchTRQDSJglVLmq7hwuWMeHVzfaFt35jn6Jl7CnEccJcSc1Grq+V71fVaKPZecMDb0y/suNht3ko1XhDvluncQbtTavoObnj8AFnm7sdBWM9jHeErNyP3Wy4+0d3YrU8q+w3/NYaZ6OnsRlUxQzyrn6qssVtEuDkL0FWFq8IVFXOmuK6MhREIj7h5JHeZhl1Oarbel0RRdy5INpULuH8P4jJC7MxxANZhoQQPXnvqk/aSCc4iQyHZ7mgA6CrLbHmDaPa29OunxWn7ccC7w94y8wPiaP2qGW/UUkVXGMk3xG080otLgfO8NxN8RZkNuadD02B+aZy9o5dT3pdmafASa10rfVJX4ctfl9TtrpqbQkrqs67+nX8lTgnuRTkkNODS2arY7j+Y6eadGQrOcNlIfQ0v5/5fmtDYzdBfPpfkmw3FyLGOVlq7iLYxIRFWWhsbF1rWp5qgIwU7FciqL1fIEM8KrBZjoSIqOVBtarIlLAtjGGQkgDUnQAaknyC4klTzgjG900nL7YI0FgiVg1J1uj6Uiu7aBZEZIDqIDa1aD53rzPO0Ny7GWzK0FaqOJhOjWaOOwaNA+QfksoXI0ijkldNClqMeh4hssaFF4169RAC+10rDhyF42EqrhtFZCoeEw7goaWFQGwX2fHiK1bNlmuAxalaeNuiTJ6hpWBeK4pxZROgGgoD8Fj3PsrWcUZ4Ssr3SbTlYGSI0L0qxrV0GI7glDmKtzUYIkbBwguGd3gZ1O59AgclFXbDp0p1JZYK7EWQnQCz0CZYXhDt5CIx56u/h/NFh7IycnuJ1Pr6oKXFE/zPRZJ4pvSC69D0OG7Cilmry+i293r67LfW2o34I2IYqLLZGU1nrWbQi68g4DlYHNarEnr6r5tBxItdYY8aghw11vQ+Wy0B7VaDvGF/UsAzacyw/wAldXA4rMlKLbl+LtPk7Lb2MlXEYKUZVMPNZYaPhbWya/7Rba1V9ddmD9sOANI76Kg4jUddRqFncH2RkkAc8UNKHM6jXyG6ecT7RMkqiQ3zBB+aOZ2la6hGx2g9p4ytH8yp3OLjF+B6Ldp6Ja8TFGWHqVIxjJNyaSSa1b04GU4fwItke15osIArqWh1H+KldNhnt8RBI+0NR8eXoUYMcS8upz7cXOcBoSdzf8lcZ3Mf3kZsH2hyP+aJ9/RSlOOktuuB04YDCYhOnSqeOO9tU/O3FcLrTnwFkZRTCjnRRy+JngdzHL4cv9e4XEYVzDThR/EdQeYTqdWM9jlYrBVcM/GtHs+HXqVPQ7mogBTIjZmSKmMVrY1a2NWBqtMjRRlXuRWuC7jakyeoa0PMNM+O8hy3voD8yNN+SFcEwLEO+JOjLQW1qUtJVjY10IUQGoGtSALl6rpGqIihy/BrvE8LEZaLuxe1VqRXyTAN0VbjZ1JNdUq44DZgwq8RgAnEMVr18Csgn4XhKKeMj0XGEhpHNYhlEtCrHx+ErOPw4Wsx0WhSCaNVHQtg2C4f3jiLqgTdX0Guum6Ga1E2RsSOWhI9y8wWFMkjWN3J35Abkn0FpmawCTuM+D8PblM0o8A0a37Z/IfNVcSxpedduQV3Fse01HH7EYDR51paQYjFLnVJub8j13Z+CWHp3l+5nMsdndLJXZjTH1WljXXzvUIp8/gNmtavpY5e4/JDQYKPdkg9+u45rsdlUoK9WSu72iv5f4+pyP8AIcRVqWw1N2i1eb5rhH4d+enC6fkWDkJ0lPw9VtcN2fja3xd44ubVOLXOBzM1HJrjmPPmrsB2aZl1m/rANbY8NBIBoaajxN1878kBPicXnIc8DKa8IBOhF6keQXQlN1XeL29V5L7nCpQp01lXXFnZ4DG3M5uYiiRTmf8Ax5/aLTfPXzVuJ7Pxta4nM4t1AJsayFuunSlW2eWrc+xVVoLFEdOi7l4rI6NzALcTqSfPNoK/mgU6j43t5u3r15Df01OL2Sb3slf069BZNgWknQV8efmgMZNlIAbYF8xsn/DY3TOyZQ11HUnf0r/WiA7U8IdE8NDc5dqN9Bf7SJzhPw1NfLh1xLtOlL/g8L0vLeXnq9N1a1vIX4Q5vG3T1/1qneHka9vdP5+y77BPP06hZnBhzZKe8Eu0yjlWor4ke9HRT+IjpXz/ANl5/F0Hh6nh0W6660setwVeGOw1qlm9pW58166P3LJ8PlJBGoNFe4HC948MurvWrqhe1hHTHO0PG+gPqNvl+CHZGQbBIPUaFPhPNG55rEUHRqOD4HAhokdCR8DShiRcMaudEiECl7ETh49Fe/Dq/D4fRZ5SsxqiD9yuhCjfq65fEVohJWFSQP3AVr8FUYkvc1Veut35FXCM0qXh21mt6vT4Jl0BlAZIl4iTCVFd0VlHTWqos1VvJUg6rK1qPQxw+y9kVMZXT26JiAPYSjWhLsLd15pkNNDuFLkBcWNEknhT/EjRKcSEISQnexHM4bKI7jyl8gFNzDvBG5wGYN6E1r09VRIQ0OcdQ0XXXoB6kge9dYPjBFOljaZI2kMc0nM05SGBwujlzX10CXWmksp0uz8LUk+9ir5Xpfi7eq0XHinsnZiHHSFnhO+fIfUWN/VIMTizQHOnfxMN/wAgtL27mBMbmuDnhjczxVPkAzk2N60bf+FY7FyA69Tm9DsfwCzxid2dZuCb0bXXXwi3E4sGMXzLjXXL/ujuB8Ll7xnhe0ki6zChu7bXa9Up4dg5JA6RoOWPTONcpJBJDQc25bqAaRwxZiHhle9x/wARA6c13sFPJBJR15+revmeS7Qp9/UlUnNqPLTgkrfU+stxDmHXK4kAtLmMzNAysIzHUmi42ReiUcRkY19skL8xJOosEnXMGgAenLyWJ/8AcWJy6yBrW+EZXEEGtBpXJCv7x4zOkNnkdT11K0wo934qnsvvt+Wc9V5Sk40PTN86f38G1ErbNuHxXrcu4IB02PuWAEMl+0fW0zw/CnH/AK1n7IOqF1HLRLrka6UHBX46v+/p8m/4DIBM3UagjrtrsN9lX2uxLA2O5Gt9oHKJA4gEaAO9+vmsXFLJAQ4PIcNqOvQ6qriHEcRNTJZHPbdtGh1O3nzTqeHk6iqcOPz9DDisUl4Y78OvdnsmLYZGiNgAzDxHc+9VwYrV7+Vucf8AtGjR8G2gsfA+M04EVvqObbGosbFeRm2CMbyuGnRtj+Q+a5fa8lKpH0+53/8AGs0KM78ZX+LI2PZl1xEO3dG0+hc4O/NMmQpPwLGMMzogbNe4FteH1rVamOFYKN1HUPtWUJ4jwu9kk/VA0eDXbsMmTGUuZAnM5vEVuhRMES9lReGhJBIG26yzjdj4vQoMa5MaLIVL90cboXLUocxcBiIcqwjzMGxX3YUVqirMyaHcYsKt8eqJji0Vhi0RNkTKISrXnReMjoq0sRLYpgkLqNjkb1RRmJNnmuCxeWqZR3LLolmJCPeqTDmIHXRWkXcVYzwxgndxJH/iKHzJ+CQYWeowXbmy71O6adpe6Y/xSjNt7RcPJoZy9yy/EZRlPdlxJ6tfp11r5rDLxybPY4SMaFCMb3sgXiuOzO02boPfuUlx8bw0EAgENN+Try165T8Ey4NgxLLkfYABcfOiBV+9G9tI62FC2UBsAwOaAn04pSSMeMzToyne2/wLuz2OLY5ISBkeQTV5+RBDr5ZRy69UVJg4gc5xBPll8Xpap4UGNjLnj2z4TzFLiQsJ2F/Ir0lHPGnFRiuerPGVKdJzcpyb8kv6NLhsFAY4XtEwLwMpppjzd5ldbqvNoUQeEs71zHPdTZiwuNUImx96Xnzy0mWAE0kGFZHNE3D3AJIwWl4f3+Y2KsWS3ny2VsGF7yKIX48RHimXy70RtjZZ5WG/NYpOtd+K9vi12tP/AD/Y+NSnBJRVul+ffQWz8Kge2R8MhfH3TZG6DOHd4Iy12ljqh2dnGDDS4gOIfGW1Zq7cMwPoHNPvWolwwjhcwRwxTmKNrog5oAJlzAudsXZY796U4eHPG7DOLjIO77wgt7s9/NCZMvMlrQ1vuKLPGEb/ALmmvbS7uufPlqRzqVdFomtXxvtt5fyKcV2aPeeOVwDhAQaFjvI3vfp/h7ty7lDcPkyFk7XMzxyObl0siiPIgrQs/wCIjZIBdx4px1A1Y0xtFnTaQ+lrO4bDiSRjf2IYwOt0S4/Fzne4KqVSpJtyei3/AI929vX1HU6MVNRiryfXstbvyfHQzvGsbicTmmkYGsvK4tFNGU1qSSbSk8Syu8B1qs32L00860X093Cqwjo6txY4mubjbz8SSvmTY2NN5RY6/kuZOWaV3qdShGo4ZackrbvW/rp1yHnZTAuzmay0FtA3RzUacPS/kF9OwUmZjXdQCvnXCsVmHhZXInvHOH8NX8/etvwiVxiGb9nwjQDQAVslQm3U1NOLwVOjg4uHB6vjrp+OmNi9UySKp0qpfJa0nETPC+ymMGILWkCvEK/H80Fh4keItEp7jlsUd8g8RiNUTOxD/V7Q7AT3KDi1X9bRgwK6bw5VmiLcWBDFqI//ANNURZolZWNo4HUdDuBVG9ddvcve7d9k/Aog4xn2unJ3LNvz5hdDGsvfnex+3f4JriUrgTmEakH4e9VlyYY1wyA9SOVfs0lz1FuFbQ8c5VELkld2mOKF5j0LzGwAsdYJFXQJGauWnLyUY7VGtYCKOxFH3pco+GwyjUyTjLk0/ZmDw7gS55DWgEgEbab5f8I2vnRO1K4Ozen4pq/g0kbia72PKRlbQeRY8JDiBVXdHXpySQ4sB2R4cx32XDKfmudKDjuj2WHxlOp+17W+v04BAockl7RcLknyCOrBcTmJG5JHLzKMk4h4skeUu3Ju2sHMudt7h8kXDLQAuzQN+VXZ+KkJyg7oZVpU68XGWxksPwjFMaGuisAmq8QPOtNkWzDsaM/1WXMNaLSGg+tLTCY/Fe99V62a+dWurS7ZnCKj3cXb1OHU/wAbpzk3300nwurfwY6PCyYlwGx5Mhjuh1c7RGngWIiNMixUjhzcJO7HuG6+o4OJsbaAF6ZiALcepO5QWL4hGS5jZhG8cyLAPpYv4ps+2pv9kberu/sl7HCj2TSvq7pbWVvfd/J85/8ATcSHd5IySzZc57Hbc7JCvwuHa+3uOVjd+WvT8PiFv55JXNjEcrHFtl1jLnNDQb6XfTdZbtBimlvijMcwdqzKWtc3W37AHlR8yqo41zfjWnO97fTc2woWVo9dfAvnnvbwMFhrBzv7Xr0RvCm7MG7iC49L2Hw//SVRS5jQAqrJPIfmnPBf7UEjnr0B+z7hX8JW5PMtttUubs9X9l7lVIKnfI9Xo3yWnhj66XfsaqlkuI9ko3Oke8iJl+AMPtXqS7NtvVDotgY3fZd8CgMX2ZkmcZnkFrRTIsx0G5JA0LifPouFUWVaMfgJpVHnaSa4+pn8Bw/K2mAuDdyBenU0tDhcLI22lpOoogEgk8rXPDXxta6yWnkNfskcueta9U6jxsYAt3McjyI2S6EbyudLtbEOFJ07WvZe1n8W19RU/DP+y74FRkBuiKPnum0OKa/wgkkitif2aPzQ2II7x/8A3Fa5aI83FlsECI7tew7K5AkMzsXyw6qyPDK5w1VzUiqHHUpbArWwr3MiRIMoHO7/ABS4ahSBe5URNrxNsLEbV01WtAVrcMTsFcqtzYsG47sHtcuKL+rO6Lh2HPRRTa4BPC34oCC6KKbhD0VrcIeid3ra2ESwbT3QFG1Gxrr6qeisbCeirP5APCtcUeNS7i+Bjkble0OHmNvQ8k1DKQ2IpBUkOo0Zp6HzvGcGbG8ZCQCR4T4m9BY515pVi+IGF7opLcSQ4uGl5mtdXkNa9y2XGorII5EH5rI9suDSd+ZGgkENGmp8IA26aIacIzZujUxFOMuLurej3KcT2gNOaMrTtfi0Hka+asi4zEHuJPtZaPTQWNfRITEXaG7Hlr6LkwcnNKa8PS4Ni1j8W/3KPyfWIuLsJFSMo6h2bQ/msrxfFZ3u7wNk5B7QWg9DpvVrHOEkZ0Lm89QR/uiQHlrnF7trrMSXe/khp4Kcn4djDVrxpq0t+Ro8PPGx7ckx3AIzEOAO+pGmmqI4hjziR3Qla5rJHlrnAiQtAIuqqiNfcl/DOFtyNe4jUA6c7F6n+SvmfE32crK1Lr8X/iOq308JGk8zd3brpgQqSktVZX/2RhawZW6uGw8/tOPUdOSO4Dxp7JY8Mwg5i92Uix7N2ed+E0kHEuKNDQIt6ob03qT1cVpeEYV0UbDhoWsc9jXPxEzmh7s4s0dSBzoBTF1aahaSzXCi5N+F258fL5sbDCyPbnfOWj7LW34WDmSeZ3PuR8GLDgHDy+BWYwjoycveGZzeR2vr0PleyZNs5mE+0P2T7Poeq4ybvoaJQzAU7AZpCKy53VXW/wAPyXpCOiwIAAaNBsvfqnkunRUKccvuLxVGvXnd7JJL0S/l7v8AAExqJiarm4TyVrcMrbgzP+jql8WyuBXLItF22NKdkV3FQrI1XTjorO6XjmJEoqQapzQG6REROVL4lexqCKUWMlSnyLC5RVEL1FoB3M+R3LgtdkfDAs7L9JPCD/fG/dzfoXsX0mcJH98b93N+hOVNJjpYnNHc1DcMuBhNUib9J/CK/wCcb93N+heD6T+Efvjfu5v0JlhHfs0LMJqvX4Xos+fpQ4R++N+7m/QofpR4R++N+7m/Qrsge+ZoBh16MKs7/Shwj98b93N+hej6UeEfvjfupv0K9CnVHcuGSzG4awhJPpO4Qf7437ub9CBxH0kcKO2Lb93N+hKnFM00cRbdguMi3BSrFuzFzb8WpbrfuXON7ccOJOXEj+CX9KzPEe1OF7wlkwI0OjH+/cK+z6a7xqbyq2/1N2Mx0YUlKnabvsmvfRmkb3T4HPc1hkaaGoBOrRsQdNTqOiQYrHvHhZGIj9qrv0eF43tVhCP7QAka+BwNn9oHLquT2jwpaWGZmU6kZZfh7O18vNdhLDx2d39Dj1MRiq2l1BeT1AmcPLv6yUl5PstG7idrK8PBZwMwaQN6sDfXTVdS8TwV+DEFteTyPiAh8RxyFwyNnygbmnm/klVJRltp9ULhTpw1bu+tvv8ABSZXNttuHIhUSO816/EYYCxiWk/9kn40lkuNjO7wQNg1rqPrYCzOPNr3T/hkdVW/2WOfZ/AdfM+S2fZxneH6szPPIQHUXZRG1tAgEuoN12rRY7h+Ngvxvy3epBJ8th8lo+AdqMPh5I5GyBpa63ANdRFEEbcwfkgajONnYqNXJI3j+ASxSUyN+UAFuR7azVrmJOo9VouH4JwYM7cpra81dbPMoD+krhRAP1oAkA13c2nl7C6b9JHCf3tv3c36Fk7mKdzoQrxiPosMiBhFnWfSTwm/+cb93N+hXH6TeEfvjfu5v0JyQM8Td7jxuE8l23B+SRN+k7hH7437ub9C6H0ocI/fG/dTfoVqwp4hmg+qrpmGGqzrvpQ4R++N+6m/QvP6UOEfvjfupv0KWQPemiGHVckCRf0ocI/fG/dzfoVMv0n8JP8Ae2/dzfoVNIuNXUPxbaKqMiz+N+kThjjpim/dy/oQ47fcNv8A5ofwS/pWScXd6HTjVp5VeS90bCGDNqokmG+kbhIGuLb93N+hRNVJWM0sSr7n5oX1L6OuwOGxUEeJnMjvG7NE7wRvYHd3TXBwe4gua4vb4R7O9r5atJwntzj8NE2CCfJGyw1vdQuIDn94RmcwurNrV8ynHLN/hPolwrmxudiMQM4jaQWRteHvcxtlhNsae8acjvEANd0l4t2Aw8eH+sRyzEOwkmLaHhgPhbgnNa6v/tuuvshJHfSRxI1/xOzg7+xw/tAtcHH+r1Nsadd613Kuw/0gS/UZcHK0yl8fcskLo2tiiDYWBoY2LMTUDReejoSCRZhDFqKKKEIooooQiiiihCKKKKEIooooQlqKKKEIooooQiiiihCKKKKEIooooQiiiihCKKKKEG2Ggwrg0OlkaTlzeAEAnfX1+S4dBhsr6keXAgNOWmnQXYo1rm58kbF2vxjWta2RtNa1o/qojozbUt1JGhPMbryPtdimggOYAXPf/Yxe0+8zvZ3OY/FQhV3WCv8AtZq65R8tNvz201Cx7IRXcuc7e8w22rkPP/W7R/a/FEtdmZmaXHN3bLOYtNHTYZBQ83DYkIDivGpsTk75wdksNprW1mq/ZA+yFCC1RRRQh//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFhYYGRgZGRgaGBoYGBgaGBoYGhgZGRoaGBgcIS4lHB4sIRgYJjgnKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzQrJCw0NjE0NDQ1NDQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAPsAyQMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAEDBAYCBwj/xAA9EAACAQIEBAQDBQYHAQADAAABAhEAAwQSITEFQVFhBiJxgRORoQcyscHRFEJSYuHwFSNykqKy8YIkM1P/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIDBAX/xAApEQACAgEDBQABAwUAAAAAAAAAAQIRAxIhMQQTIkFRgTJxkQUUI2Gh/9oADAMBAAIRAxEAPwD0ClXM09amI9Kmp6AFT01KgB6VNT0AKmuOqKWZgqjUliAAO5O1M7hVLMYCgknoAJJ+VeWcf8StfAZiUSSyoxjKskLIH75Ak7nzEDTSonPTXts6+k6X+4nWpJJW2/hur3ivDKSAzvG5VDA92ifaalseI7DR99Z2zJJjrCSYrxa54iC6IpYaTJgGDtA1ims+JzpmWQNiGII+e/0o3rlX+x2vB/T9ejU6rn1Z9AWriuoZGDKdipBB9CKc15v4b8Ssyl0IYpLOuod7arL+UHV1VcwMHQEDv6PPSnGVnn9Tg7UtKaa5TXtCpUqaqOcemmlSoAVKaanoAalT01ACpUqVACpTSpqAFSpUqBj0qanoAVPTU9ACpUqekBU4taD4e8hmGtXAY3gow0r51x2Ja67E7s7MY2zOxZoHISxgV9HY9iLVwjUhHj1yGK8J4NhEWwLrgkM0eVZbTkPrWeR0rNsSvYr8N4A12peJeF3trmBkVsPD3iPDIwQI4J5soGvczvV3jPibDKTae07MdNANNu4P0rh72TVVfg9Ds4tF/wDTyrDYh7L5hIMMDykMpVh20Yj3r6VsXAyIy/dZVK+hAI+leP8AEOG2rlh7i22GTKfMoBgsAYPPnXrXDbJSzaRjLJbRSepVAD9RXbilqVnBmi4uvRZpqelWpgNTV1TUwoalT01AUKlSpUgoanpUqAoalT0ooChqempxQMVKlSoAelTTSmgB6emp6AIsShZHUGCUYA9CVIBrzfgHB7d22bbSgDvAB1Gscvwr02sbxPCLhXVg3luExpAXLECZ6MNf5awzRbVo6enlFNpkVvwlZtZSMpOcMDlCwZBmdydBz5UXx3hjD32LMBmO5hWnbQhgQdh8qyvGL93EuqBHUK3kdXQFu65iIPtRXhz3LGi2mdmgMztbzsBMElWmI7GuN/T0Em47LYJ4rhVq3bKIojTTQZjmB5DejuGt5URZJyqqydzAAk0GsYpbl0Wxylm9tY+cCjs109NFq2cPVTTqI9KmmlNdRyCpUqaaAHpU1KgBUqVKgBUqVKgBU0U9NNAGd/xNqs4biDHcUDDTV22xA1rKTaWxCDljGTvUlzFKAdaB/Eio7lw0ozZVll+ItJrv/EjFCy1clqoVh/C4+d67u8TUaVnvikU4M07YWG04rrQPxzikezbX97PnX/Sgyv7edR/5RrBcFaAzyJ1C847nl6UK8dcKZraXkE/BDh1H/wDN8pLAc8pRSe0nlRKL0tmuL9SsztriNhkCO5UgaT06/wB9KK2ON4a2mVHLECNOZPSsQ9tXEMJ6Eb/OivA+HomoGvVtx6dK4ZOCVs9KCm3S4N/4XwqkPeAOYnLHMKfNPuQf9tHCaF+C2n4zD7o+Gg/1DMzfR1rUXMMrHb5V14XcEzi6iNZGgXNcXrwUSatXsIw21H1oJxEGYOnrWjZg9ju7xIRpVF8e9Ruigb1XNwVFsmwlhuIn96itq+G2rM5qmwOJytqaFIEzS001HbvBqkq7GKlSArsWzRY6OKVPcQjauMp6UtSDSzHbNpVi7Ohqezwl9JFS4jh76ACpbBJVuVFeorzyKv8A+F3CNhUQ4Ld7VKQqZRUV1cSIq+OC3O1TYHAXbTrcicpkjqOf0mqQaWLA8Cd4JAUH+Lf5VoOH8HS0ZAzN/EeXoOVFB+NIGrLUUiG7bmqb24NEWqC7ESeW/pz/AF9qFIbR53x7wbDG7hllSZe0N0PW2Oa/y8uWmgFcMwNxmyKpn0M/KvWHQA+Xf12/X0qG3hiZzMWnroY6GK5svTqbtOjrxdTKEaas54Nw4Ye0tsanVnPVjufyHYCic61Rs4UofK3l5qdvboatBq3SSVI55NybbOqZrancA+oBpi1OzVRJ5zfaWPqdOlQKwmtTxXgoZy40D6kD+Ln+vvQ5+BRzNQYuLBqXa7O9XhwuK7tcNHOkxqIsBdg0UGIFV7eAAq0LagRQm0iqJMLdBaKvVQw1sKZqZrlKW7KWw2JxQTeqX+Iipb+GD71X/wAPWjSLUE8/aohdBNR37uUTQ2xxAM8AVk8lSSNY4003ZpLR0qQEdKqpdAFdftIre0QTmuL58p7wPnUTYpa4bEAxHIg/I/1pxasT4LOCuSg7aH20/SrJobOR2HI6j+/lV9GkVTGjpqGY7jNq2/w3z5oQnKhICu+RCT3bTSTRNtqxHim2r4oK8IhsqucoztcBdiyWsokOP5fN5um940m9yZNpbGyCRoKZG1g13zqJ9DUFliaAcadxdSDAI0iAZUmfMfUfWjynShXEsKhOd2EaRmzQD/KVIInp/SondbKwTaTp0EGfn2pK3zqujgopWSMojcExps2s6c6nReunbr6mrQMjxqSoI/d/Chr3Jo2QI11n8Kylp9T6mPSs519M3KvRdkU81T+J3pnuGNKnb6LuP4y4Gmo8QhkQarYa4RvXTXz1p3H6LW2uAgHCiKWehty6TzplvNFQ5wW7Y4uUtqCbPXPxKHi8af45o70PpWl/Dh8Rm0NRKVGoFcZTTxXlucjoLH7Qetc/HNQzTFqO5ICc3TV3hZnP6L9WH6UKLUW4IPI5/wBP5mujpZN5UTLgMXUDKAdxse45fKoMLiIYodxyq0UmR11HrQDxDiGtqtxd1ZJ01yZ1zD3E16pmaVTQ3iXD2uNbZLhtvbZiCEDyHQoykEgcwee1RW+PWReXDs8XWAIXK0ebNlGeMoY5WgEyYqqvihDaN82ryWgbYzugRWW44TOupJUSDy02qkndpEtx9h1AQACZIABMASY1MDQTTXRpQHiHFMTmAspZj4xslrjuYfMchhRsVyH1cDXeo8Jxe7+0i272WV7162LaAi6iorujt5jKlUAOg1cUaHVhqV0aO01c33VRmYqAObEAA+prJcK4tcZbRd/MuITNsBcsYlXWySB0dlT1tmiPi/h1u9aQMis7PbtIxmVFy4gcjuEDn2o0U0mPVtaCOOxa6qGBZXRW11VmKkKRyMMpHqKltug1JPoSKEFUjEoQMy3xcI2LKwtujdSu6T1Q9KL4e5/KPUfnUtUO7RaVuenyP061lOJZVuMFmNNDyJ3FawdwZ7VlfEFrLdkTDAHXrsfw+tcnVJ6LX0qPJTzml8SoATXUGvN8jWib4hps5rgClBo8go7zmmzmuQp6V3kPSlUhUIXKb4lOUPSl8M9KNMh0SwaXw+9V85605c0al8ES/C70vg96gDnrXQnrRcfgEpt96NcGSLb9z+X9azzE1o+EkLbUEwTJ+Zrr6RJztL0RPgJ9DQ3jWFzp2/WiSbbxVPHP5Yk6sg/5D9K9EgAXsYmGIe6uZG+GoGUH/Otv/lxP75DCD1t8iaF4S/byYiw129cvIb4GHKs9pVsXmuIEASJZLawMxJzRFaxk1/vcairthzFaKVEuNmdw/CrqJiLUM2W/Yu2G2zonwiqyTqwW0EM7786uXeCut+5iLYQXPjI6sdM9s20S7aYgE5fIWHRoPWjk04NDyMFFGPwvgwW7aKj5Lhtqt1/NcVriOlxLiqxhcjoSAIEMdKNPwb4lpbd+9cdlf4guLltvMFQBkGghjtrrRRxSU1Lm37GoxQNfhFtEGRPMiFFdiWfIzh2UuxJIza61NhLoKKWg6cj5jGkEAa7VcImR1EULwxA8vMcpiRM79KW7dlUkFrTk7KB/q3+VBvEjEBM3Uxp1A/T60Xw6GNT9BH1BND/EyD4Unkykeu34E1lnXgwjyZpbwrv446VUBpw1eRqZqXP2jtS/au1Ui5p1ak5sC4cV2pDFdqqTTqlLXL6BaOL7U37Z6VWy02RaO5L6B2TS1NSZAK6RJqAIlQ0spqQpXGU0OwOc0VrsEVyIAsnIupXSYHzrKFK1HCrha2u2giZ10057cq7uhfk1/ozkXEtsNQqxzAJ+gI/OqPEgzMh5BvMpEEGPKe431oqnt76/Waq8UaELQNCvsMw/8969Fq9iUzm9akSPeo7TQasYa4CO1cX7HNasCRTTzUaNpXU1JR0WpppTXJJqXKgSHY8xVEW4uSBodfnM1Yv3AoJOg+lUsJdzPmnTl07x9PlVxYpLYNW6H+J7c2G7FT9Y/OiNuqHiH/8AQw6lf+wrPL+h/swXJiQtdACpRbFL4VeGa0VyaRM1Y/Ztd66+ABSphRWCV3FSm2KYJSoCKOdR1Z+HS+HRQiVzXdtxXGWuKrewJi4NciK4CU4EUwscxRrw9cHmT0YfgfyoHAq3wu6VuiI80rB2M7fUCt+nnpyL+CZcGwUdvx/IVFj1zW2HY1zaudQR2Pm+u9TuoKkRy1gV7HszAvD3jyPtyq86Mmxkf3yqtdwo3BHvprU+GxBHlaql9Q0RF29acXquHIexqG5bTfMKkoibFDpXDXnYHLp10/En8BrU2RT1I/2j9TTrr93QDnEAf6RtUtDQMu8PB1eXI8wRjpI1DPyCjkPxrhbTZ0MnRgdNBG2q7R2P40Xyb9OfUnvQ3GOQrRoQCWPQAbDv+FJJsbfoNJfQHKXQHoWEjtBM1JfURrsfeawnDxCijnCGKhjJgkQJ0EcwORM6+grHFmc5aaNcvTqEdVlq9we22wKnsfyNC8Vwe4mq+cdtG/2/pWhR6TZuVVlwY3yv4OeLf0xjTPfnXLOa2V/h6XR51huTDf8ArWXxWFNtyjDbn1HIivPy4HBXyjVO9iqZNcopFWR2rsrPKsKTHRWAjem+IKs5aXw17UUFEAtnqakFvSuncTFc/E5U9iRmEVGBUoWd6Qt0mBEU070wQiCORqYmK5Yx6UIDV4fFFlVssyBrOveaIW3n+oisvwnFkeTNpMj8xWjUqFzMRHUwBXtYp64JmTVOimtlkZhoVJMgkfMdKa5ajZxHfUj0NTXLiORlYE7QDrHapEtKOQ96u/hVfSpkXqzemn612lo/uqB3O/zOtW5A2H5VC6u2hbKOeXf/AHfpTFYyWdYJk9OXv/Wuo1n5DkO9dooAgCAP7+dR4i4ACSYABLE7ADegLbI3f5D6nrQjilzLaeN8p/5aSfnUA4j8QlhoNl6hevqd6q4+8Wyou0yZ5xt9T9Kmb0wbKxx1TSIcMNAewH4UYwTgD5+g1oZbWNOm/vXdm4076Dl3ri6Z1M7uqVwNAlyp0xAG/wDc7D1oVYxII2JMmI+7poT8xUpEQ7tA5DmfQfnXe2eaG0ehPiRUyBz98EBT11kg+0mrWHvSKF+IroIROclvpA/E1z56WNlx5A4v9a6/aZHSoSunSoyJ515Ts1ssFwaj+KKgyba0+nWkK2XgJApykzNP8QAjoa7AiTrqY9qdIDgW+9MVNSJr16UwUDcnpFFfAOQm869Kb4Y5c66NuOdQm0N+fanpAkTywy7g1xi+JM7hCYkNkE7FQPYtrr/SuysdqBcfXIFvICSrhmA32y5h7GD7HrW0JyScV7NcWlSthbD47MiPyLZGnQhtRr7iPUitjgLmZFPOIPqNCT8pryhuLliypolwO6+UHz6HXoc+p/8Amt94OxpuWp32ef8AUBCx7HWujp5aZV9NOpWqF/DR7fqajGvpT5SadugruTOA5dqzHH7ucm3mIGhaOZ5A9hvWhxD5QSdgCT7VjrkOxYgyTJ965uoyOKSXJUVZXRCv3Wmq1644uoDzGkHnP6fjRBlA5afWg/HMQVe2yxs+/TQ/lXI8s5JxbOjDFKaZLh7zlXZ9DngR/AWAU/Jp96tYQOzEZoEnUzEa9KD3sYdUXL99EGmpYEE6f/MVp+F4URPQRMRvvpPU08Cl3FRv1M/8aX0t4R1RcttFkkk5RCBjqSBAnXmauJbjzuczd/yFJGCjyjT8aZAXOxivTPNLWGc6sduVZ3iV7O5J22B9P7Jo1j7uS2Y3O35ms86jv7VwdVPfSi4r2Nl2jUflXJbXSpQh3125U8QfauKjQiCGaWRutds2h320qv8AHbpRSEElcRBjvO496SXRtr6fpVdFidY3mRO9JbaGPNpyq9Aai3I5TttVfGXMgkCTIiuLd0qTEHl+lQ47FFkAiDm15cjVRjukNO2V3xzj94zryWPwqu3ErvmyuOkZVjkZkjvVHE3ozSJgQAJntsZ1/Wq1i6SJAOpgDvykDnvXasMWuCHkphxsVeyArcDMToqqCf77VTxWPvhCGLg6qRkEtOkAFduVb3wxwb4KB3H+aywdvKsyF9dpqv49ScMDrK3EIjcbgkexrPtpMvuWuDzDDQj5kXzKToygjnmlJIkwIOnoaLYLOES3CgICMylgzjkXnciI9e1QYryxkXQRGxMTr23J+YqzbOdkVQS7wqj1J36aDWiUdLs0U3KNHdqzedwlsuWZoADkeUTtryETMbHWtxwvgDKAbzsx/hVmC+53J9Km4FwpbK5ol2AknltKr0E/P5USxuMSyhe4wRRuT16ADUnsKanqMmmiJeGWzIKDLG0mfnv9aBcV8MMJew7afuMfoGP51Yt+MMMzQS6rycrKnt5SWnTpR+26uoZWDAjQgyCOxG9UxbnkV/iZR/PmBGmxgMN5/CDVS7b+I6uWBOqkOGI1mIhgR7aVqPtD4IMwxCAQ5CuO50VuuokHvFA+F8Oe8+RB5iZJj7qz94n3HzqfFpMqNpsi4Xw1iwVQzvvKhiSebEk6EzqdK0eG8M4liC6ZRuVa6ATp/LmA5Vs+FcOt2EyIB/M37zNzJP5bCo8bx2xacI91A8TkBJcCJkqskCNdY2pbcg5swWP8LY5BKKHA2yvLdyQ/4CTWfS7dDlXRkYEgqQyEQNyrR2/8r2XAcRt31zW3VxzykEjsw3B9ah4rwq3iFh18wnI/7y+h6dtjVqaqqFbvk844dfYMoM6iIn72nTrpRtXaJER0NCWwj2sRkcao2/UGdRPIgzRVYzAH9a5M2zKbG+OQY2A396QeTMHtOtSOkEiO/wDYpJA1iB9T1g1jpftkjqM25jeoslSZ1J5x+Ap9O9FAdsEOpmDFQ4jKIyiJPP8AKlirZAzd9tyNtD1rhbsnNoAB7/hvWvPsgZrpMiB7fQ1RxT5dDzB30iB/7RCCq6xEyJ0I6+21BfETHKWGUCInoTpy22PzrXGvJADL98EhSFAL+eI6CdhyB3it54S8O5SMRcBA3tWyZAna40geaNBIGmsA7Z77P+DJfuPduNmWy4C29DLkTLSNgCNtyCNhB9MxuNS0jXLjhEUSzMYA/r2612Skr0olR9kzVk/tBcjDJBGt1QZ2jI5257fSjfBOJjE2FvqCFcvlB3yh2UT3OWY5TWZ+0y5FmysxNwmdNwjCdf8AV9azW8kivRjEcsoEDc7NyHP5itH4Sw5OLEjRLTnsGJT6+Y/WsiHcADzHyTm3A+7tpI1In3rd+CSTcunfyJB9dTSzM0x8G1A0Fef+O8Uz3sgYhLeUaZYzHzMxkjllGmulehLyrzDjt9fj3cx3uOCTMCDEa7aDbsetECWAnvZcwEfdJUGCdeUjuRWv+zrHuhbDOd0+IgAMKQ2VwDtrKmOoJ51lHtAmVkyYA1lSVY7R1IgzpHUzRrwPYVcVbiScjrOsZTmYiemZU+Qq5cEo3/G8L8Sy6EwCNzyIIIPsQDWY8B2BFxzuXCSd/KoYx7sPl2raXllWB2gj6UG8JYYDDJsZzsfUuY+kCuXT5NJ80ap+O5L4pxxw+Ev3VbKy2zlbo7eRCO+ZhXjCJnZXAgknN5jmYmASSSTmJO/evRPtVxRGGSyN7twEx/DbGf8A7FD7V53gMTBDEQ4eCwjYkDLBB/i7muuCqNoxluw3gcW1t/i2mh106zmbVGPMGDPpyivWeE41cRaS6sgOASDup5qfQiK8VxOVCHXVmLanLEQeYExty0jvI3f2aYsFLyLmjMlwAjQZ1KnKY/kWekiokklqY93sXfG+Gh7N4fxfDcxyMsh7QQ/+6hqRC6BtfvRv1rR+LVJw4OnluW2/5R+YoCqSD16yQPbvNcuXyZolscqQJOzTrPPpqamS5mEbDsdaqlGmQsiRu2nqAQdamY+b7pHqIJnmCeVZU0IUxPPnqND29ajzP/CvzrpLcEbiOR/OKs/DPQ/X9KB0TBNdW+ogVXeyvPXvI9vepGECCdDA0A016g6+lQHEIgOchcp0kjU8jodqdBSIL1kAac9lOrbSQRP9xQDiuHe5lw8orO0BrjFUGmgZwDEnlBkxWla6hMl4OnPtoZk96zPim4TEKHgBtdToRI09R8+Va4b1IhrZgXg/Er/Dr+YFZ1V0zZkuAHQSs6qc/m3B06irPibxVdxjAHKqI2dFAOUkbM8/eYfLUiKEXLTOjXX1ysdDIDyVDBAvJSdTI3XmdXxtrKwKDyDKA0llLQCdSAR5jse9d9Ru3yZb1R7F4BBGBsA7kOx/+rrsPxod9pyBrdlSJ/zHJ7gIwj5sp9qL+EDGCw8nX4ST3OWs99pXERbbDggE+d4bYgFV0g9+fauWOS5Ot92bOO25i0wJSGDtA8u2hGzAxyiBFbjwMw+LcQfwCN+RUenOsal5mZQwkgBYBB1ErA6zB113FabwniwuKg6Z1Zff7wH/AB3pzk5OmXGKUXR6MorzzxNZVcRcBA8xDe5AP5GvQwawfjqwVvo+WVdAJ/mVmLT7FYqkZmZURvBG+vT89/75nvBoDYtCBoqOw3gBgFhen3h6wOlZvEYiZ576a9CNT6gb1uPs/wACcj4gjRiypG2WRmYerD6GqbA198wrHsefah/BLYFi2FkAIsew71D4pxfwsLdeYlcgjq/kH/aq/g/Fh8LbbSQMh9V8uv0+YrBryv8ABa4Mn9rOJKPhWyhgvxTBEje0CCe9ZtrqPbZ0Qj7pKmIAGrEgA5tNduXz9B8eWAVsljlBdrZaJgOsyRBB+5z615PwvEG27IozoxMbrKElVbUGJ1XX+tbx3jtyjN7P9wxhMZbcwgGgPKC8bxrtWp+zTFK9y7lGXyI2zD7zvGhOswTPfnXnj2cjtkBygTydyHBEiNCVzcoiAe9eifZRgmUXnJlStlBpIJGdzD8x5120/EkopIFJs1fieP2a5mO2QyAdIdSNB3rP3LhGnlgHnI9xIo340T/8VwNy1se3xEJ+gNAC0bNIOuv3gJjSPSuTIqZp6JldtdNOUCNPc+nzprinTbkRm5DnE8/eovPpCiCNekc5G9WbCEfeXKpPPUxO4A67x0+VZJ2AlZjOqk8jkHPQSAfSuPgv/GP9r/rXNzMCYDak6rrqSsTroY7U0v8AwH5inQ6O3Qk67AiYMHSZkHWIj3qhiLWWWVZG/PKJ6tH1/Witzcep+s1HibS5QYHLkKIutyWrADuXOdVXTVgCDvvBYLHL+tVcfhfjAlwCAy/d32JMQCSCJ15SDyoliFy3Ao0GmlCVP+afUfRa2ut0GNW2mZNyQSuUbnYGAQNYk6CY5+3Ko72IdQBLRIMzpIkSPkfka274ZH+HmUHOCH5ZhmGhjesnibC/DtGBJV5PX/MiuqGRS9ETxuPs9v8AClorg8KDqfg2yT3ZAT+NY/7UEX4thiYhLnKY1WTroekHrW54EsYawBys2++yDrXnv2kebFQdQLKwOmYYmfwHyFZRik7RTbewBtNL5Y+6TAXYkAQVgEaqZj9a6/arlu8jqpJR0cagAkMMyyRoNDPrUXA9XAOvmXffYc966fW4Z10P1zVSXl+Cm/E9owWJS4iXEMq6hlPYjYjkf0qtx/hdvE2Wt3DlESH0lGGzidNOh0IJoJ4Ec/BInQO0DpIzH6maDfaVjbge1bDkIVJKg6EydTSujXp8HfyKF1YP4Z4IxD3Y/abD2c8s6MWbLIkBAsKzDT72kk616nh7aoqooCqoCqBsABAA9hXn2EHwb9r4crLEHUkkF4gkyf8AwdBXoDfnUyyOh5+n7Tq7Ri/H3FQxXDKRJh7mvIEZV9ZIb2XrQn7O+NKrPYcwX86ajUjylZOxIAI9KE4i4XuXGYyxaSTvOU/TQabaCgNpArSNDm3kzpT02mZL0e38d4amJsPaf7rAEMJlWXVWEb6x6jSvMMf4R4kqkW1DgPpkdBnQGVJzFSDtpod9TXo3hfFPdwtm45zOy+ZiBJ1I1+VEmOg9fyNZxyNOhOOx5XgfDOPuIFewFcQrNcZFRhnHmIQ5jAUchzia9L4FwtcNh0sqfuKMzfxOdWb57DkIHKrtwTHv/wBTSbc94/KreTaqFV7mH+0TiJmzh0P7xuOeihWVFPQk5z/8Cd6azalQw3IBOsAfL7wkRv8AOshxDFO+ILOcxd7gYkDUK2VR2ACgadK22HQFV0GqLPfQfpWORXRSWxBIUiSSD/D+cGR07da6W5ocxjbzLouux1HM6c+etNm1jl5tPcVJhuQ5SuntFYpIYkkCQ3IRIGxI5g6ch8qX7S/RPr+tTYSypzyJgiJJMaTz9KofBT+BP9ifpVUgP//Z</t>
         </is>
       </c>
     </row>
@@ -758,25 +758,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harry Brook</t>
+          <t>Hasan Mahmud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_095</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>116.7</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -815,67 +815,67 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoGBxMUExYREBAWFw8QEBAZEA4ZDhAQERoQGRgYGRYSFxgZHyoiGhwnHhYWJDQjJysuMTExGSE2OzYwOiowMS4BCwsLDw4PHBERHDAnIScwMDAwMDAyMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMP/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAYDBQcBAgj/xABCEAACAQIDAwgHBgUDBAMAAAABAgADEQQSIQUxQQYTIjJRYXGRB0JScoGh8COCkrHB0RQzU2KiJOHxFWOy0kOz4v/EABsBAQACAwEBAAAAAAAAAAAAAAADBAECBQYH/8QAMREAAgIBAgMFCQACAwEAAAAAAAECEQMhMQQSQQVRYXHwEyIygZGhscHRovEkQmIU/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBERAETVbb29hsMubFYinSB1UO4Dtb2V3t8AZScb6bsErWpUa1Rf6h5ukD4BjfzAgHS4lA2P6XsBVIWtzmHZjYNUVGp/iQm3xAl4oVldVem4ZGAKOrBlKncQRoRAM8REAREQBERAEREAREQBERAEREAREQBERAEREAREQDyUb0lcujgVWhhlD46qLqpGYIm7ORfVjrYdxJ7DeZyLZtLn8ZiMdU6ZqV3WjfpBaKHIthu3AfRms5cqs3xw5pUcw2z/EVajVcQXepULFqj9ctvy9w10A07JGp4AkXn6AXYNKsoFWmrDfqsiYnkFhnqB8mUW6Sj5fr5yFZvAsPAk9zh9PCFeJCAXbs38bD60ll5E8t8RgnVaJaphr9LCu1kN9WZDrka2umnaJ0+vyRw1OxFAEg3zH2vozT8pdiUa1Jl5pQQjZGChSGtHtdQ8Glo6Dyf21SxdFMRRN0cdU9ZXGjIw4MDpNpOPegLHOlbE4SoTZkSpTU8ChyN5hqf4Z2CWCq1R7ERBgREQBERAEREAREQBERAEREAREQBERAEREAhbZxPNUK1X+nRqt5KTOd8lMNkpotuoF/KW/l5jBTwdUEEmqjILW6xUm+p3WBlExPWBbENRp5FC5LXz91+PC0iyq1RY4fR2X3C3tM+s51sXbNem4NPEHEYa6h81Eo63v279x3dhlz2ztJqVO6WzuOjeQtVuWVrsS8be0r21hw+M0f/AFKqWDYjaRRTmyqKOVN+Xfft01kimamcfa85TOmbLqGmribRdaEHkAea2spOnPpXT/HnB/8AVOxCcj2QMmOWuwJWgXZrb+oyj5tOq4eqHVWF7OARffqLyzjlaKOWDTvoSIiJIRCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFT9JI/wBPTNrkV1y+8VZfyJmpw2yqdQKWHTR2yt2ay1cqMEatBlUZnBUqOOmht32Jlc2cWpuVqghwqEqbXF1F7277yDKqd+Rd4dpxS8z5x2BWkhyWAd+qFRbsdCxsNTbjM+NP2ijfYL2TX8odrEgFabNRT1lsbsCPMDWY8RtLnWBpU3t0Rm0Wze0c1tPC8ibb1LUEtjZvsRHys2VsmbJemLre5OU8JGq4Cjh6dqaBQPrdwk7DbQdehVAOnQqBbBv2PdNRtyvcWHGYcrMKNWzHspL56t7Avk8ejqfgT850LZw+ypg7+bX8hKpyV2WXpISPs2diW06obd8bS6CTYk9SpxORNKK8z6iIk5UEREAREQBERAEREAREQBERAEREAREQBERAPJUeUOEH8XroMRRsG/7i6flaW6avb+zefpWGlVDmpN2OOHgd00lHmjRvjnySTKTtGniadRRTNMYc6ZuaJdGG5St7Ed47tOMm1A+W/wDEhj7KYY3zW4377TJhyKoKt0aiGzU+MkU8ARe7NaVV3UdRU9b/AB+0yDszDVqlzWcZL3pKKeR/ebUjy75C284vYdYmy/lNtjMctMEA7hNThaBqPzxHQTVF7W4eZ3eBmjlTs2S0LtyWW2GpqPVzr5Ow/Sbac6f0hYfZ4p4bEUq7M5crVRKbpq5vvcNcXudOMv8ARqhlV1N0ZQQ3apFwZegnyROTl0ySXiZ4iJsaCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAc45Y1Xo4hjSHTBUr3qwv8Re4+E1KbextTRKQX+47pYOW+RsQvNupqpSU1KQbULmYqzDhfpW8J8YdgwGlpWybnQwN8qNZs3ZTub1iWPrdnlLAaQCAD67PKfVCnK/y12rYfwtI6sL4hhwpH/4r8Gb5L4gyvy2y5CM8k1COre39+RXNtY0V6wqAA0aJYYdvabcat+zSw8+InQvR3twVKIoO32tPQAnVqYAtbttu8LTmjmfWExLUmFSm5VgbhhvBiGVqV9Nq8DvZuyYZOF9gnrvzVu+9+HQ71FpR+TXL1HATFEK+4VR1D7w9U9+7wlyo1QwDKwZW1DAggjuI3y/CalseN4nhcvDT5csa7n0fkzPERNiuIiIAiIgCIiAIiIAiIgCIiAIiIB5PBE0vK3bQwlBqtgW0Wkp3God1+4AEnuEXStm2OEpyUIq23SJm1Np0qCZ6tRUHC7ak+yoGrHuE51ys9I7sDSwn2anTnT/ADGubDLbRR5nwlX2ptOrXfnatVsx7SbDuAGg8BIdUqwGYWuF6Q9sN0bA/WXNKsszk6Wx63h+xMeCPPk9+X+K/vm/oS+R2Kb/AKkRUct/E0iLFiSGU63J3+t5zoopFDacw2TQyV6NapUF6NQlnCnKEOj6dnH4S5cpuWVMArhXV2QoKjgZ1W5GbL2m3w8d00k72KnE8Jl9u0o/FctfK3fdT6d1UbLbm2xRXKtmruOgOC/3t3d3GUXEVrXYlmGZi7auSx3s1pHqYuoWauzs6u5GVuiSh0Qn2ekAPA6zIMWRpVBJS/PZb2T2W7bHu3SJ8z0OrwuHFw6/9Pq/HavD7urZ5zhLXA+yt/MOdD5Mv18oLT2pixbo3t7bAhOzKB6x/tE+qVPQb+++h8PGaNeB0sU1rbv108D2kJt9j7fr4c3p1GtxQ60z4qdPiLGaykkykTCk1qjGWEMq5Jq13M6tyZ5S08Su7LVQdKn2j2l7R+U384ZhcU9N1em5UqbgjePrsnTOR/KlcSuR7DEqLkDcw3Z1/UcJew5ubR7nke1OyXgvLi1h1XWP9X46loiIlg4YiIgCIiAIiIAiIgCIiAIiIB5Ob+mHF2bD0eBZiy9tzZf/ABPnOkTj3pirZsWlO9rU6I79Wf8A9/lIs3wnV7GX/Li+5N/av2V3Z2FqVajUKBDVwwIXKxADEHMTxAL793hPMXgmpVSrqVqIoFzwZs192l+j850PkTgXoolYBT/ENd2Sg1aoVumUFgQKdumCLHcLnSVflxtA1MSQqdJVRHL6DOoNwLC7W7gBv1lZwqPMegwcc8nFPFy+6r11vR92q3aX81NGF0t2+X/H1xkY4jJoWVx0bMrpntwzL4aX/efZoX/mEv3bk7erx4780z07Dq2X3fr+760kdpb6nTmpzdr3fu/pt9z5w2OB0CuzdLo5MxNhroDruJ+E3WL2NXSnzho5cnO5i+hREIud1jc5rAEk5GPfNnyDwrPU5zKGCKcysSqHOpspOU7gTpv+c2vLjatQUlpmiKbVmuxVwbrvyEgDi4JPeRx13jCPI5NP9erOVm4rP/8ATHh4OL2t6Jrfpd6JXoUGmWJzAF3/AKzjm6a+6nW3f8zPSYW64Yg6sPaP/MyKtgOH6f7Tyofr8pA3Z1oQp7+vXfZ52Dt+v3kgCRVNmJ7Bbz+vnJKmas3kY6iz4wGOejUSonXR1Yd636SeRI+MzVJDrLN4hRjOLjLZndMFilq00qobpUUMp7iLiSgZUPRhtDnMMaZ30XI+4dR88w8AJb51Iy5opnzrisHsM08Xc/8AX1PqIiZIBERAEREAREQBERAEREA+TOS+lLZxO0KR3LWp0Bm10YVcvDXQZTOtSmekrD5UoYsXvhay7rA5HIvYkHW6qN2l5pkVxLXAzcMyrd2vm1S+55UzUxkVmFJ+iyseYorSysMiX6dPXKb9ra6AW59t9k5+pzZBphmta+XKD6pOpG8X47+Mytyzq1QWRFTNnVWs1SpzR4c5UudbHq23CaqpVyjMfC3tMdB5yplldJHq+yeDnhUs2R/El16Lq60vyb0fQ+K9QL73qIPWsf2Os9pHMqkeug3cN/62mJSwbogGuf5l/wCXTUjop9b9/ZMdHMmmapT7EFDn14Hom3V8d005dPX+zoPLUra0+lbdXSvv1Ol8mMKow656VQ87U6yBLlNH1N7kWpW3aFmF9ZWOWGP/ANRanSfJZRzbhy4fewuLhfLhfWfWy+UmNQBBWYUUTKimmlNhoBuUdgsCelI1fEs7s7G7u5JY8SSSfCJSikluc/h+FzPNPJN1d1Tbq33NVqlRAbHkWvRdeGvRH4jPadSoWsygC3VzZ23jUmfFcK9QAm6cyrZb6Xzjf23vaR6tQ57LpYdP3rXFP4by0xo9kdCNp+871pbevuTFe5HiW/QTOz7h2n8tf2kagtr9wA8plpG7eAt5yNluSJF9JirUrjwmYE5h4eMvOI2DQxeHSpRRablLXUZKfOAaowAA3m1wOF9QLTeMHK66FDieMhwvI5p1J1e9d1+f6IPolqWqVV4NTB/CwF/nOkym8jsCtBEDras2IqI/RykWVmCd4+zBHDW433lyEvYb5NTx/a2WOXi5zjtp860vy0PqIiSnOEREAREQBERAEREAREQDyV70iYc1Nn4hRvyKfwurH5AywyBtnDipQq0ycoqUaqluy6npfCY6G+OXLOL7mvycBp9EMX6NMH6+9e3zn1lJtUZbf06Xs+9/c3+PnLMeR1iWWoapLUWokqMt67uOiAbLuvfXfJW1uRBVkFOsrqUr3PBatJCWSw7bEd1zKMovWj3UeP4eXLctNWlr0Sbb8lsv9FNQEM5vmp/Z+Gew8zlt5r7MlrXWna7a8F3sd/Aa8Yo7GcrUxIYFUrU6diShL1DlBXQixIBPwE2WG5L4hWcZQaorik1mAGdr5Ka5rdHo7++81atWSriIRcsbaTTd29rd/fmWhDoYhX6rgt+E/h3yHUrVDZ11GdwKY9kZlzufemz2/sLE0WRnTmyM+V2XODfQKGuRfXdea3EVeaVQqEjUHt6IJJOmvEzVJJ7a9w5+ePNze6v+yej2qqvbZn1hKJQEuRmsgzcFpLukGvTIq589qbNbL4kf7Hum0v8AP59/hrIOKW6NYZiBmFuPEsPKE3dk7xRjCl01W/T8mfPYHvP+MlYYWXXedfOQKdS7HsGT43uf/WT0M1lsTtqW3qjNRGpM3nJvEVaYNSnWRULlGpO9rsFYgsDYWNrA338LC80imwnrE2mE6doqZ8XtYuOlPe1aryLoNqM+JoBsTSbm61LLlBUMrhALEsbsM5Wx10Mv35TheG2qlJ0qc6pNNkYAdPqsGscvhO4UKgZVYaqyqw8CLiX8HNXvJ/OzyHa+LHjeNQkno1pWmt9O+zPERJzkiIiAIiIAiIgCIiAIiIAmDE0s6Mp3OjDzFpniAUfYeHpinTs+ZKVTD0gx1u1CrUpi/wDdeos0mBw2ITDiu9ZTh6iY5kQFs/OmhV1a69iHS+8yQ206WFbG0ueARcR/EICyALXSstR6QvxYZSB4ycuzqJVqVDEqwxprVKSm1kRqbpawOmtUjh1e0GV5JOSrp/Tr48k8WOSkqUqauN6cr69HT361Rqdh4cHAgEC9XF06i9uVK2GQfN2PxlmxNEDErqPtdoUmXvK4d7/5KZCprzS0sAaatWUUnaqG4fxaEqLi9my33+qNJI2bis9agvWKY/aSu+mmXnit/hUURFKkn4GeIzylmnKOzcmn3ro/8SvY7bv8TgcXzh5xsJiKWWyWbK7GkqbrH1te+UxSb87WOVEDCnTOp19o8W4Wlwq0qlDZ+KbEUqlN8RXoqqNlZuic5YBb9HreRlLOKLWFIq6tl3pUOXhrwIkE03V92v3O7wTxqM+RqubRJaXyx1S7r6bXqeYCqMqoDdkUG2vkDxmdL3NiPen3Tw+W5LlnbfU3eFuwd09DBbk6m/VEhdN6HWxKSgk/Xd1IRp2raHrUgfwnX85nTEpwu7bsq67+1uqsxbXwgemWK6pY27uKyzcnOTDYhFbOqUWAKDrHKd1lGg+J+EkjTW1v7FfPnjivnmox+rfekvDXXXfY0qrVbiFHYn2j/ibT5TLR2YHP8s1Dfir1iPgL2nRMDyTw6WJHOd72Py3fKbF6QUWAAX2QuUTZcy2deX7e7+ZxsnaeJv3Ic3jLX6Lp9vI5qdnYhd2HqcPYT5Fp2XCXyJdcpyLdNNDbVdNNN0pu06lhLyJNw9K6OT2nxeXPye0rS6pd9eZ9xESycsREQBERAEREAREQBERAEREA4z6UcIUxdVl31FpsPErkPjuJlTwg6RKmynTono5lGrW3b24dhlr9LOIDY1srE8xSpqyerdw5J8ctxKtgBvPYTb8UpT3l5nuuzpPJhw30j+NP6vkSRjai1EIds4uQwaopAsxC6G9rqPiJ97G5RYmkc6VOkhLuhAdzUqErUqDNe7EgXvvkNl6Qfm8+Xs6y2PWX8Wqz6wdRSxYEBvW9Rr2PqnXT8rTT4Vp6+hPkxQyTqddd1uqS6rX+bmz23yrrYm3PVSaa5ubqDLkZgoO4AAG3bv1GkwYLEq6iz/d4/wC3hMFVFswNrPbPT5xcp01YD1TMGGqYfQWWoRp1Occ/tMNKXeZxr2S5U4pa6bddkl/L7ye+LW9h029lNfxHcsYcMdXVQeCjUjxPbPnJUP8ALUU071Bb8C9EfGfNJERuveseJe7n7vAfDhNGlXpk0XLd/wAX9bJNdgdO8SyejXH5sOqk60ej5HT5WlWq9kkcisbzWIqUT1XysvvDQ/p5TMCj2vi5sKa6P8nWUqaSPiW0nzg62YCe4rdEmeaitTT7WPRMvtM3APaBKBjjdWl22RWz0KTe1Spn/EXljhnd/Ig4xfC/MmxES2URERAEREAREQBERAEREA8kfG4kUqb1G6tNGY+6ovJErfpFxfN4JwN9V0QfE3PyUzDdKzKVtI4/ykxLVHNZnOapVuyi1rm50426I4yFRdsgC0tNetVyDUtew1Zh5T626zZwL/Z5VP3+l+kVm3DslKWh7js5OWNNNqo10/d6HlGkTqa7+8uVF4nTefnxnlLAqzG6MfeqMPoyTT3b57hiDuOb649m6R8zOk+HxtVJX56/ls+f+l0rfyx73OP29U9LSeChlOlWqNf6hHHdrNhv+vzEiV9OH7D9xMKTe4hgxraKXkq/AbCKd5ZveqP29n6zwoF6tNU37k32Iv8AIyRS6QuNf7uz9xMeJQ2GntDzHCa2+rMxxxTtLX113MkhY4mn9snWpi/jY6j4iSqDgqLEHwkbarDm290xHRjNFTxyXSn+Do/I/Hc7TDX06OVu1SAf1m+raiVb0cUCuDo5t7Lf7p6vytLHjq2RCfwzaW9HipLXQ0G0HvVNMfel05Jj/S0x2Zx5O0pOGOj1TvJ6Pu8P3l45MJbDUr8VZvxMW/WT8P8AEytxb9xeZtYiJcKIiIgCIiAIiIAiIgCIiAeSieliv0aFL2ndz90BR/5GXucx9KOIzYpV4UaCfiZmJ+WWaTehJiVzRz7bvXT4fI3nwNWPlMm1RdkYcM4b4jT675Fo1eiMnWqmy9393wHz8ZVkj2PZmRRxK/Vd3zdEonPdRoo/m20Lf9sfqZ8Yeqii26jfo1V6a96tbdvPwyzzG2CKoBNMNYjjlsd/3tT2zNVwwJzC6vu55N//AOt010quh0eWbk2q5l++i8PmretrrmTaVKw+1Hk3z7RPRUVhdTcflY2/WY6VOodOeYjXdSpofaAv3zMKIUWHG+/pXuL3MiaitvX4JMbyc3vL+/aUiBTwKZiQ5QOfVtxNj0p9vg1z5btVAtzoepcAEm1vKZHxADBb9N9NOF7db2dZ5h6q1GNQHQJTvb2jdsvwMk5mQzx4uZRVavX8vR2iUpCjILBh6o4Lcj9pCxSc5an/AFGRfMgQlUiobpck/aP2JuXxWSdgJnxSf2ZmH5frNKoZsyWCb8169b6HUtjUwqKBYABQs+NuE7pm2cNB4eekj7ROZ/CYWx5N/EQagyoZfNmU8lKmvs00HkovKFjBdkp+26L5kD9Z0gS1w63ZT4t7I9iIlopiIiAf/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBMQEhMVFRUVFQ8VFRUVEBUVFRUQFRUXFhUVFRUYHSggGBolHRUVIjEhJSkuLi4uFx81OD8sNygtLisBCgoKDg0OGhAQGi0lHR0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABCEAACAQIEAwUGAgkDAgcBAAABAgADEQQSITEFQVEGEyJhcRQygZGh8ELBBxUWI1JysdHhYoKSM7JDU2NzovHyJP/EABoBAAIDAQEAAAAAAAAAAAAAAAABAgMEBQb/xAAzEQABAwIFAQUHBAMBAAAAAAABAAIRAxIEEyExUUEUYXGB8AUiUpGhscEV0eHxIzJyQv/aAAwDAQACEQMRAD8AysOSRgW6QexN0neuHKeU/hRrQwJJ9kbpB7I3SO4coyn8Ji0FpI9lbpB7K3SFw5RlP4TAio77M3SH7M3SFwSyn8JiHH/Zm6QvZm6QuHKeU/gpqCPezN0g9nbpC4coyn8H5J7CYm2hk5mLCVow7dJJw5YEAiF45SNF/Cn4WjF4mgCItGsIw9RiY7go5T+FFCWhVql5OOHuLyA+EOaFwTFN56JFCoQZLds0CYaEEIMLgjKeeiaeibSBUpkGaFEuJBq4c3iuHKBTfwqgiCTK+FMELhypZT+FoRQWKOHWKgnPXq7AmzhxEeziSImEotCZ7gQeziPXhXhKdoTPs4g7kR6CNO0JvuBB3AjsKCVg4Tfs4lHxnjVKgSijM43/AIV9ep8peYioVpuw1Kq5A6kAkTjb12drm5LHN5Esb3PzlbnkLne0K5otDWbunX9loX7Q1b3z33NtrnmBbT4TQcI7R067KmWxNr7Cx2/t85g8j6i2vIdI5h6eRg5JH5kdZUHnouOytUY64H8rrZp8okUhIXYzEVMZRdiPcfKD1GUED4X+s0q8Fcj/ABLxUBXoKWJouYHGBPRVYMSVlt+pX+xGm4Yw3hepZ2H5CrwIRQR+vTy+UGGw5c6R3K0Zdt3RMqLQmQS1HBX+xD/Uz/YivCqz6HIVOaQhy3bgziCFwTzqPIVfBE3gvGr0d4IUEEIEQocBgmivBCgghKgiYIJpNc2RtL+FtL2vp15TB9nuAHvHYHOEt3YI98WuD8rTfmUWKTu3NrDXS2mg2HymXEkgA9FzcfTuLXcKiFR1rin7IATppfQk7a6flrELhUxLVaQRkqANkJsEDDQ59dNml3X4oaRDgoxH4WbLzHiJ59Nes2HZWq1Wt7tMB8rv3dmU5bNoxAJ8Wl+h5zODJXKe0RC0PC+EUsFh6dBFACqMxAAzPbxOfMmTqWIS3KM8aaymZXC4hi6i53mwCVZhsLnUy6dluQARIGKZdtJKw/uTK8cqsH0JgBJhU4bD51S2Uxxe3KPcBqKN+sqHcneGjkbSy3SF3+y/4cuVvqVdDYSQwFrzGcGrM1TUma2v7nwlZELg4rDZLw2UipiEtaCY3HV2FQ2Jgkgxbm+zJaDcocAMTeAmWrtJyCNgw7wRCVeC8KAGJJGYUOFBNHBAiltheM18UiOtMm7HWwPuruWYkeEfWBIG6qr4ilQbdUdA+p8BufUpdSoEUsxsBqTMvxrEd4RUS4BVSAwsbEcxyMmcRxZqAG4yG4UZMvgI3bzP0vM9UquBlb8NxfrbnMuIdLAehXnne1Bi6z6TRDWRG0neTIJEaiIPVN0cWS6gBw17eFiD8xOu9gcH3dPMSSza3PTffqTrOQUqyq2bn6TonYjj5KqCNGKqmtrLYgfMrf8A3CUURJ8FVWqtZAcf9zaPH0I8YW3477h9Jk8D/wBRfWXHFeJBhb8iD8jKShUysDNrdiux7PYRQPf+y3uH9z4TI8fHj+ctaPF1yWvKLiWJzteJo1VGAoPZVJIUAwRRiZau2rLgQ/eTYYj/AKfwmG4biMj3mhrcWUpa8qcNVxfaFB76oICp+4z1mEEPC40ByesEDKuqurNIDdgAqnNCzTJDtCOsX+0I6yeY1ae20fiWrvDBmT/aEdYP2iHWGY1PttH4lrbw5kh2jHWH+0Q6wval22j8QWtBhMwsSTYDU+kyg7RDrI3EeN95TKA77+gt/mF7VTifaVKlSc9upA0HJ6fX6SrHiPaC/uaAEXsdTyIihiqa0xfxNU8TOTqyWGnxuFtMa9ffT7EssJicwFzYISeWw/ou/wDylb2h5ErxTcVUpmrWebnvjUidjpHEAmI20AjcWmOxDkZjubk9fS/O0rKPaAUzkqUi6X1OzW6rff00mk4hgaa4Zamdy96oNwEpjJ7y3bxA3sL2sSygb3mVqPfZQSetyPn4f6STmtItGyzUalZlXNqSXnrP3n8/haStTw1NS91yul0N9LNsxJ2+/UL4VjU7tUS1tACp0YWsrBhzGkzJo3K391fdXkD/AHmtwHBqhTvlFwviYi2g31+FomtYwQeqniKtfEvD6Y1ZBA06a9f9pjUaiNACr8cbXU2BUs5IOosbtqPifnEvUWopqIPCCF02zWJ+Fx/QzHYvHslivW1vUjlboI/wTiZyVUvyapboaaG3zGkTKdhMbLo4H2w5rqLyAASQ+BAgwAdDG5nUTI71ps0GaZP9oR1h/tCOsszGr2HbaXxLVZoDMn+0I6xX7QjrC9qO20fiWovCvMx+0A6wv1+OsMxql22j8S1F4Jl/1+OsEMxqO20fiWMzw+8keCUWryVykd5CLxiHC1FyfDxWeRrw7wtRcpOeSEFkzX6j5W1ldeXmDwgfDoed332946+W0RhupUKjHVW2tVLianSWXCEqmn3oplkUqCcpZQzaKDbYnlf0lXxOgyGxINzyM1/ZHE4ajTda9XLmaiQO7LXWnmYgMPdJOXfewHmG0zqFnfSDQGuTdbiFTJ3brfLmUZ6eqZbKwUn3baA+Z6yEMQAbTZUsTRe+V1Zi1KomYqMzYitRqMrAEgHPSQEeZkTiGBq4g4dKmZ3ar+/c0wjKFo0WIqsCQHCs+pIvbylwJWd2GBEzKoMPVUOCwzLcFhe2l9RflfrNlh+0FNcOaAxSCkwK5TSc18uhykBSp5ahgPTaQa3C6FSrUpGiiZneuCHKhKQq0FNJSDly5TX+VxtKn9TU6tM1aQK2Z8wTEJVp00p2VvGQCTmZXv8Awk2BIlVRofGpHh/II+UKykx9KQIPj/H22VJxXEt73McujHbb70mw/Rpwxane4iqVyIEBVqgRvEb3Um2vgy2Jsc/lOa1mJew8QDHqLgn7+c1vZrhdR2VhT1upsx0PxvofPeSukqvIcxgtbd4A+W06eSo8TT7uo9M6FHdCL7FWKkfSN5pcdv8ACvR4hVDjKXFOrbT8aC50094NtM7nlcLqNdIUnNDDSKXMMOYQglS80GaRc8PPC0ouCk5oJG7yFC0ouCZgk32QwexmTlRDSocElNhTLLhfCw5F5Fzw0SUiIVHBNz+zyW2kWr2dXeQz2pLITT1B3dKmmxCLf+Yi5+pMj4bgwNdQw8C3Zh1VeXxNh8YnimKzOxv1karg4CFow4Il3kqXGDPUHQGSWQXyw8HR1uw08J+BO/ytJlbBqbkG+jaeXp6WltMQAFjxRuJdI0nTr01jjVQG2vyB938x0jy42oqnu3dAb50VyAwIsSQDZgYirhmFh058j99Y2VBsF6/X8vveTWZsHUeh3q2pcfxJVf3t6YJurIjKGyshuCPEMrtob7wsT2grPT7r92BZlzLTC51YMoU200DWGn4V+NVoL66dOXkfX+8dVAwF7rf3SBf89upG2vS0CpBzge5Q0GW3X+02nAeJFQCDtaZxuGsZY8Jw7Bgh8pQ+DEbro4aQIPVaH9JtH2mjhMco1AbDVfUXqUT8jV+QnPzRInoDhPBUxPDatAgeJSVPSoniQ/MfImcd4lhgNoXwFrpYbOmNws8RBH8QlpHlrTIWGrTLHWlHDtEiKCmSlVwUdoIApghKUK2CmGEM2Sdm6hHuyLX4QybraZXPeOi2Wt5WWq6Sw4TWItaTa3CS3KSsLwdhylbqpLdUjTkqQuMO0lJqLyE+AcSbQVguulhr6TO0lBpqm4k4pqT+JvovL+/ymSYZ2PxuegG8uOP4zOxiuDcJZqLVCPf0H8o/z/SaphWRaICjcPVXLg6aZRvpoQu33pHmT3WGoIuDaxuB4h6/3llg+F2LAkLtfw3OuwH/ANSBxHhjIxCg3PiBB0JvdzblYn6y9r4i10Hj165XPfSLg5z6RLZAD27gnTUayDBaDA1GhMEKBUUsbG1uXMDyjHcKx00+pHkRzEcIsLG4B0YH8L8v9sbS6XJBI6je39x15y+Vg1aSBpHT11Rmiq/zdCbg+aNyHx+cXw+oFcZrmm7AMmnhJ07xduWnK4JB8oTo17+8Drfy5/CW+B4Yajh1qJ3YUEkuA6i9ipXfNyGljIlT2butQlJALGKwmCpM5qO5SnTF3YLc6myqOhJ6ysxlR2rHLexZjrvbz85LFFgrEjW3hJBJBBB0G1yNLnaYy2F2qTpjvXR+yHGaQosEQgDMq5m8dV2vlKodQLDp6XsZxapWL6nnNbwbihw9Q1KhYXUB9Q1V1OoCXFkB0v5fCZOrTY623ubDlIOdMLs4CmWio7wg/NQsWsr8ss6tInlIb0TfaaWbLj4gy8lN0qdzaXVPhTBcxEY4Dhi1ZQROh43h4FE6coE6qiFzg0wGglovDiWOkOVGqAphi9DewoBsJUcR4UjgiwlljcVZdJXYeuxOs0l0D3lWATsqgdnwLnlE+wKNLTQVKmkrXBzXlDmtOxVjZG6q8RgRKntMooYcnmxsP6n8vnNU4AuxIAG5JsPmZzrtxxZalQoputPw+RPMiVgEKbYJhZ7gXCGx2KFPXIvjqnol9r9SdPn0nTBw5RZQAALAC2wGgET2A4WuHwIqtYNX/eux0sn/AIYueQXX1YydR4rh3qZFe7XAsKbm5JsNl+sYB3CjUqNDg0mCdhz4crE9r8MKVZbqSpVTmW+YPmYXI9LSkXEF7ZWJyk2IykqD+IX8tCvzm67Z0B3yZv8AyyBrbXMdfW15iauCKE1EqddGTS/RiBYj/UVmputMaBcSpUFPGOJcQCRMHXof5HTz1VfUcmwYKzEbggJUXp5Nt/nW0JFAuAGambgi3jpt6S9aulRStanmG/e0TnB8yAcym/w8pX1e61dK4uLC7Ai66XVydCd+Q35byDHBp2I+3l/QWyuypVY1wqseNgSQ18D4pPTYEudG+oOtW9HuiLm6HYjf1HI+knYLD0kYOzAgkFbq2tzbQgWYc9NRbYQ0oFgcvkSL5h8Rz9d4nBd4jDuS6nmEZrXG5NPraWrDmXCD4H1+y2/DVWp47W8VS1xbwh2C6W08NvlL5sKpX4SBwWiz00ZzrbTW9l3sTc31JPxtylyKIyyLmrqUD/iae4LOYvBJfYRn2FPKWeKwQJ3jPsQHOMUgtoxzg2FX/q1TfQf4jdThKXOg/wAS4XCjrHVwQPOWRCyl12qreFcMVaqmw/xNRisMClpX4bCBXBvL6lSuJTU5Tas0vDAOUE1HssEonuVsJYxwewklfCL2kOphbPpLalSusVatTc0FFOm5pKr/AGjW1pGx9bKLy2OEG8z3H6gGnUzN7rnANV0kDVI4ngFxOFYk2NO9RT5oCSp8iLj4zkPGqhZyetyZ3PhFMNTKnZlIPoRYzjfabglXC4h6Tg5RYq9iVamT797ab69DpHTfqWk7IDGg3AamJ8tla8V7cVRQo0UFiaaC1gAtvBYWGouhOt95e/ohw1RqmJq1SSctPfkWLE/Gw+sp+y/YmrXVK1VlpIbjMbvWZQSPAGGVFO4OuhnVuBcOo4WkKVFbLckkm7Mx3ZmO5k69YZdg3Pr5rBRwru0GqRAHOp/gLIfpWwpNOiyWDgsPEbDKbWN/W85sruhv7SL/AOlWP9BrOx9t+GrUw9Src5kVdPwlQ2unWxM5Y+IW5Cso9F1uNLFml+DdNOJ2WH2nTLat8aGNY666bHhQRXa+bNTZv4hRq0X/AOSj+oMkN3VUXZUZhuUYCqP9RUaleu3pHgAD4qgPrVZvoDpJlOlhqwCs6q41RhVXMrcipJBv5Wmk6Lns13B9fJZKgFDBSB52AB338OWPcND1GyNVfLmAK5zYj0vBxWiaVdlbR0uHtsToQyjkGWzW5Xtykjs7Sz4hV87n+UG9/gLyueVsLDEDcwFtqGIamMi7LcDUmwvprHzxJrSGGv8Ae0aqmMFdo0w1scJ1+JtfaMVOJPGwLn71hlJsDQsZKQOKOOUeTjL9PrIFYRNEa/f1kDupNWh4fxBmcAibfhy3W8wfC6fjUTpPDKIyCYMY4tGi1UQCgaUOTO6hzmXVFqgKI9AXj60tJEqViHk+m+kRGwTTfdmZjjeGu49ZrHfSZTidYmsBLqIh2ig7UK44dh7LJJp30Oo5jl8ojB1PCI+aglBaCZU0zWw94unTsIk4kXjyvpAjohMV6AdWRhcMCpHkRYzi2NpvTc03tnVqittYlGy3K8rixnZ+JYjJRquLErTqMAdrhSdZyHiVKpVVMS1NaavemAt7+Bb5tSSLqLeeW/md2EYQHVJ0BAPnP9rFjKecw0wJc4aeMiPnEd0qCjy+4HSR2AYAjoRv69Zm6dSWnC8UwYZdNRra5HoNr+t503aheTpEBwKqe3uCShiiqWCmmpCrsgAK2ty1LaCF2Xpnvyw5d58tvzkv9JVJRiKLr+Oglxrurst7+gEl9icGTTq1bbkAf1P5TPuV12i5zR5/lT0XlG64kruGvtG69BuhkhuuyTLVDpC5+/pH6qaRNLDMDex++kl1UOXaaS+FjtVK2p+/rH8PT1+/rEtRN9jJeGQjkfvrFupK64HhruDN7gxZZk+zNPW5myQaTmYx3vwtVEe6l54Ikm0ExElXgJo0gTePZZEpsbyWHkzRKL0Cukoa2HDVZdVn0lRT1q3llOiRKg54VtTwtgIoUI7TqaRRqSvJU7lF9k1jpoxC1tZJzxGgUXqp47TthMQf/Rrf9hnP8HQNbhNUhLCm1NlOcNmJJRm6gaEWPITonaSp/wDx4n/2a3/YZluxOH7zhz0z+NKgHqXrAeus30KdmFf/ANNWeqSXi0wYMdx6H5rl9WoFIU9FB9ef1k3B4q5G9vIAj5tf6WkHiS2a+UkAZzbcEn+9/nH8J3YF8vzoFT/yUgTS0nYrzdZjRDmbOEjz6eRlvkrLtwq1KGEqLrZqqE5rnUIwFrbaNOg9juCingqIYWLLnP8Au1F/haYanwv2j2eit8tSspOp8IVW7y2n8Jvudp15AALDl/SQJgro4Ntwu40UP9VL0jb8HU8pZXh5or1vgqtHBl6Rt+Cr0ltmgJizEWlUbcBTpGzwRekvzEFY8wIgqHw7h+TaWOUxdGOEiYazS90rSwwIUeohIgh1KvKHKhTfwp3BQ/aVvvFe1r1mB9pqfxGLXFVP4p1v0h/xLJ2xvC3NXErlOsqcPigKm8zoxlT+KDDpVdrrqYx7KeAffR2tp6LeLil6xYxKnnMPWaunvaRkY+qPxSH6TUI0cn2tnC3QrLfePe0r1mGw9avUNljmKOIp6mR/S6kwX/VPtbOFpuP1A+ErqDqaVQD4qRylZ2Ep91haV2U5kVxbkGeobHz1lC2OqFSpOhDX1ty68pX8Lxhw+GV0soNPO1ltdgzi56mygfCXtwFVtJ1Iu1JB+/7KBxDLg/oFU4vDk3VSBe+6gmym+l9jYGV2Josw1YIFFz4HsfPS9vSW2Fb9yrMRmswBN7ZhpuNbyBharuQ5NTTTSoLdAAljqdheRbufL19AuJWg06ZkaXCN4EyJ75JPhC2XYBSisWtluGpkghlLKAwN/K316zbLiF6zDp3lOlTJPibU63A00A66W157we31esvp4Zz23BbsO+2mAtz7QvWAV16zC+31esMcQq9ZPsT1dnBbg1x1g9oHWYf9YVYX6xqw7E9GcFu+/HWNnEi+8w54lV+zGzxCreI4Kp0QKwXQFrjrFDEDrMOnFqltvrFfrep0+swn2diZ3+y0jE0oWzdwTDmMHGX6fWCP9PxPqE+0UlBAvJCYKodlM0nAuBAHM41mlXDIulhOrVxYaYAlYRTlc0q0GXcETQ9kKIa9+s0mM4YlRToJXcDwPc1GXleVuxIqUz0KdkFOdocGvdk25TCrRY7An4To/F6JdcvWNYHhaIg0kKOIFNmqbmSVRdlUAuGFjfmJadoFTuz6Ryhhl7w2jnEcCGtfaRc8GqHFEG1c8qUyASRYWbUrcbSkx9W2Cpeaqvxzu39LGdL7W8PVeH4hrain+YE5f2oxrtgcGrlLotYKFDX7kJSFPNfdrmpqNPCZdUrXMLx4fQ/uqqoIpkeuigcH4ucrEC5SoQANB3bKLA9dVJ9bSTgHFWtSU2UBico5tY2a/UDlMzwOtlqW5P4fjuv1A+c2GA4cVrU6vJCGt18vSYGrBWuDg3/zv5mAfnAV7h9aQXc5mt/IoCn6kROQ9D8pM7EOHxIpnYLWBHmSn5rN4/CKdjYCbKWKFNtpWrCtLqUrmtocteP4QU3sIxwvAGs9uXOdAVAW3dFbHRQwCdoGpkbg/KdAwPA6aAaCSKvCqbC1hMpxzZ2UxTK5pAoJmnxXZ69Ww25y9wfA6aDYSx+LY0A8pBhK58VPSItOkV+D02GwmffgAFUdOkTMWxyCwrL2gnQD2fpsBcQRdtpp5ZU2nWC7QqzBo17OekHcnpPOZ71v934VIo1sotCDi94x3Rg7s+cM96IbwpZq3hvVuLSJkPnCKGPPciGcJVFArFo9UqBpFyGAKYdpfyginwo3a2qDgMQp5oB/8lnAuPYosVF/dp0kA+H9y3/Kdw7X1+7wNdybAKNzbdlE8/u+di3mSfM7D78pppVbqdp5n6LFiokRsl8Kw7PUCqLtrb+a1h9SJ0PiTGhUqYdde6YISTqfCpNj8Zm/0fYXPjaS/wCoH/gwqH6IZpuNUQ+Jx3iXvBXVkW/jKpSY1Tl5rbL/AMZZT1Lu4T9YWV9K+k4jcH8fmQoXDq3s+JNRQ4ZGZiUbKChIPiH4h5TtGHxYdAy6hgCCOhnGKeKy1abmmKi1aYUpmsSTYHKdrgjnOi9lMSrYcCmRZSVspBA2JGhI3J2NpGu61shHs5wuLXev7Cf4pwfvmzSRwjhwoST3jQd40pONqEWzoutl0+FIxNQkeGR8Mag94wd60V37SIxJ20Ty6adpaHWHi6rW8O8Z78wd+YdpO6WWxDB1XHvx+qykgxgVz0hCv5R9pMzonlM5U7vxbeCQO9hxZ6eU3lTRXEPvxI4oP0iTSfoZVc7hEqV34h96JDCt/CflFd23SK5yJUvvRB3iyJZuh+UTY9D8oXFEqbnX7ETdfsSJc9DBmheiVzn9M+LF6FG3hy1HA3Ga4GbLezHcDpdrWnLu6YnKAvponpodZ6G4phUq1FzKCRbUqCQBfY8tzK2l2UwRq3NEnNuC5CZjfRU2HXQch1m1hgLFVw7nvLgRrzPr7LN/og4Kqu2JdT/02RSbAZ8wz2HwIuf9UsuA01bi+NBF179SdDa3dV1IJ2F7iaPhvBEwdRxTzZHuwza2ufcDdAALX1t6TOdnGH6xxp5+0i++3d17c/XlJMOlT/j8hW022Na3vWT4qi0Kr4bZqNaqaJGt17wkL1JsRpOqdkuHClhgpoLRZiajqoAsx5NyJAsPK1uUg1OEUPbfbKmrjKEBtZWy2zDq1l3O0Y7U9rxhx3SDNUbkNkXq1uduUqdVBYCVChhRTe53O3cPX4WqHdk2BF/Ub+UX7Ms4tU4o5YNmblYE2AN99fvSdawrN3aZ/eyrm/msL/W8xMqh3RbXNtU44UQvZBI4eH3pk7m8KGieOEEL2MdYz3p6mDvj1hLUaJ04PzhexecR37dYO/brF7qeiV7F5wQvaG6/SHD3EacJYxS9T9YYxi9T9byoGXzhKFGuv1kryhWwxYIOpHle/wAdIpcWNr/Xl8pThR8PjFMo9YXolXAxA/i+sUtYb5vrKXIOn+YS0x0PzMWYi5XftA6j5iFUxSgHqBfS0p+6BOx+cIUl89I8xKVBxWOpMcy1lB5eKWHDMYyreoM1y2VlGa6n06bRtsFTO6g+qg6fKGuGUCw0HQC30km1iJnVRITuP7QimFC0i1yL5wVAXnfTeV/DeFoMU2LoVQadRnqVaLCmf37KVDLUGoWxPh/vH6vDke+cBul1BsPjF0sIFHhJX0A5bco+0OkxsU4HVM9q8UlFO+fKAguouDeoNv6zjDY01GZ3a7MSSS19fQ6Cdb4/2ZpY0IKzVLJqArhd7aMLa7SDw/sFgaOU5C+U3HeHNr59fQ3Epf74iVNrgE/2P7I4VKVHE1P3tRkSouawRCwDDKp1uNNSflNee7P/AOh/eVqqRz05Cw29BFFR9OUbXNAgBRLpKsQqHy+Igyp1+okAADnE6DmPlHcOElZd2h/FEiiv8Urwut7j5f5ij96xXDhEqaKK/wAUJqQ3Bv8AlINQgA7D/PlEo4OxB1IOvTfSEt4QrEUgdmEEhKOenPaFHI4QoiRwQQSoqCUIcEESaIQzBBBCVCEEEE0qHBBEhCEYIIJICGIIIIRNvDMEEEimxHVQdIUEaEWQdIAsEEEyiCw2WCCCSBWCCCJNf//Z</t>
         </is>
       </c>
     </row>
@@ -885,25 +885,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jos Buttler </t>
+          <t>Litton Das</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_030</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -995,8 +995,16 @@
       <c r="AK4" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Wicketkeeper</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgVFRYYGRUaHBoZGhgYGBgaGBoZGRoZGRkYGRgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzErJSQ0MTQ9MTQ0NDQ0NDQ0NDQ0NDQ0NjQ0NDQ2NDQ0NDQ0ND80NDQ0NDY0NDQ0NDY0NjQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABCEAACAQIEAwUFBAcIAQUAAAABAgADEQQSITEFQVEiYXGBkQYTMqGxB0JywRQVM1KC0fAjYpKissLh8XM0VKO00v/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMEBQb/xAApEQEBAAIBAwMDAwUAAAAAAAAAAQIRAxIhMQRBURMyYRQicQUzgaHR/9oADAMBAAIRAxEAPwDs0REBERAREQEREBERAREQEShnAFyQB1OgkVifaXB0zlfE0VPQ1F+eukCYiQ1L2nwTGy4miT/5F5+clKNdWF0ZWHVSCPlAuxEQEREBERAREQEREBERAREQEREBERAREQEREBERATTPaX7QcJhg6o4q1l0CLqM1tMzjQAc7XM1r7S/bggthMK/VazrbfY01bl3keHWclcEfygS/FfaPFYhmatWdgxvkzEIBe4AQdmw79ZDs5nqq39WlJNtzrA894esysDxGpSYPTd0YahkZlPnY6zEZhLcDr3sh9pxH9njiSCezWVdRc7OBuO8DT5zq9GqrqGUhlYAgg3BB1BBnycrkeE6B7D+3tTDZaVQ58MLCx+KmCdShG4B1se+B3aJbpVAyhlNwQCD1B1BlyAiIgIiICIiAiIgIiICIiAiIgIiICIiAkD7Z8YOFwlSsvx2CJ+NzlB8rk+Unpzr7YqlsPRF96hNtLGyHf1HrA43Ue5JY3JNyTqSep8bywpJOm0vJhi7WF7dZL0OCpzuZTLOY+V8cMsvCDy72v6aekoakf+puFHhitoBoOf8AKSFLhKAfCJS80+Gk4L8ufe4Y8j6Q2FcbqROhnBgchMDiGEGU6dZH1vwteDt5aQiGVobbaGTmG4eANRMLiGFy9oTSZy3TLLjsm3XPsf461Wi+Hdiz0jmW5JPu20tc8gfrOkT51+zjHtRx9HKbB292wJ0Ktpr52PiJ9FS7MiIgIiICIiAiIgIiICIiAiIgIiICIiAnL/tqfsYZL7tUa3PQIL/5p1Ccy+2RexhjbW9QX7rIfygc94Vh7LeS6CWKVDIgHcJR+lIDvOXPdrs49TFOYVBaZgtMDBOGXTyme1JgNZXVa7lY1WYOJtY3kjXp2GugkLjMUg5j1jptLlJO6jJpI/FUbgy4vEFBsfWVhs00xljHLKZTsheEjJisOeleif8A5Un0/Pml6eWvTtvnpkeOdSPnPpabxy3y9iIkoIiICIiAiIgIiICIiAiIgIiICIiB5ONfaLxipXbIVUUqbsFIBz/ukk7WuOk7LOSe0WCb39ZCNMzW7w/aHyMpnlZqteLGZbiA4wGyqE5hfMESK/VgPZ94FPS1z52mwY1OxT65QNtdBb6yHPB1LHOzgNfa9tegHOU6tXS8x3NsTD4N6T9lwe4XU+QM2/hWMcoAd5rv6mym6FyL3u38ryUwDFGsT/3K5ZNePH8POP4hzoCRflNYHDgWzO9rb2t82Oknce+d7Em2/wDXWeLw1CuqsejCwtoRpbbc6Rjfyrnjv2RSUKBFlYnobgi/isuYakUNrkjlMhuEqdlOn3jfTzl1KWoXp49ZPVtTp0icSz++BTRlZSD0IsQdelrzrP2bcXrVTVpVXZ8oVlZjc9q9xfe205fiBldiAPjsf68p1D7McCQtWsdmKqvgAGb5kekvMr1aiLjJjbW/xETRgREQEREBERAREQEREBERAREQEREDyc39s65TFkqPuqT6Wv37TpE0X2+wL5krqLjLlbTYg3F+l7keUpyTcacV1k0p6mcKL3yllv17ba+klFw4KDTWQOEcDMOjN8zeZ9TioQZQRfx0HjML5dWF1GVWRkXTT6yPw63Y6SitjFIsXuTub6S9gMQitci62OmYeG4lbK0mURuI7L6iTWEpE6gyExuKQuQAT6WHmZXgeIBAbuND15HYSem6R1zaexA0tIKqcr6zPo8TVwSDr0uJEYutdj05ScZ3Z8lnSjS5dt7XJYnuH5zt/wBnlMjA0yfvF2HhnIF/Sck4N7PYisUFOk+R9nytktcgsXtawsec7twvBijRp0hqEVVv1sNT6zfGd7XPnl+2RmxES7IiIgIiICIiAiIgIiICIiAiIgIiICUMoIsQCOh2lcQONe2uH93jqigWVwjjp2gBoBtqpmm8aoOHvc2Iv+RE6N9rWFKPQxNuwf7Jz0YEvTJPm80Xi9UGmgtckg78tdCehmeU1dtcbvGxHYbh1ap8CsbWvtcXmV+qMSnZXMLEmxVgbDfTXbaSOExVrOrZWAAJHToes2PA+0LoP2qE2t2gL667raRtp0TTRRwTEOSSHt8V1VzpzO3zljEcMdGyMGudr6HYH8xpN9xntK5GU1kGhBy2Gh8bzWamKUsWzZm6k/zjdPpyeUbwbCOKo7XZGYtY8gvzvpMnFvrcd8cNxYAdSLOSfSWaSNXrJRT4qjqgtr8RsTbuFz5RJbVLZMezvHsRTC4HDAc6at5t2j9ZPyxhcOEREX4VVVHgoAH0l+asSIiAiIgIiICIiAiIgIiICIiAiIgIiICImHxPHpQpPWqGyICx/IDvJsPOBpX2qcbppQ/RWUO9XLube7BbKtTTnm222M4vVZ0JR79nS1/LTrJj2j4g+JarWb4mOYDkoX4VHcAJTxHCiquYaPa4PXuMrlda2YS5b17MPD4kZbevgPDUmXaWEV7m9tzvrfQDy1kOxIazaMNCO+XjiSNAf6/q0jp+F+r2rLfC5Tprzv8AXnLOIrKNOfjpMb9IPM6/WY7tc3Mnp+S5fC+lXW95M+z+PfDP+lKFZqYLKGvYk9k38mMhsNSubnaSGK/Zkdco/wAwi3vpEnbb6O4DxdMVQSvT+FhqL3KsPiU94OkkpxX7LvaMYeqcPUNqVVgATstU2VT4NoPHLO1Syku3sREJIiICIiAiIgIiICIiAiIgIieQESM4lxuhQ/aOA3JRcsf4RrNS4z7csRlw6lSfvvYkeC6j1hlnzYYea3urWVRdmCjqSAPUzk32n+0y1iuHouGpqczsuzP90A8wuvme6ROMx1So2aozO3LMSfQcprmOHacd5Prr+cmMMfUddsk0oTVZKcM7SAdND5f0JD4Zpn4CuEcX+FrA9x5H8pTlx6se3s6uDOY5avir/FOHqwuRz05SDfgzk9k+R0PhN69yGW3ORxwJGlr/ACtMcc7Jp258ct21L9TVb7QOHZdDqflNoro9rWPqLTHw+CJa5lvqKfSjBwuCO8oxQ1A5Lr58pNYxlRfoO+a9iX9dz4yePeV3VOazDHpnusl9xO3ewntjTr0Fp16iriEAU5mVc42V1vubWBHXxnDKepkvwodv+E/lNq4ss7jLY+kg4OoN5VOG4PH1UF6dR0/A7Aem0mcL7ZYxRYur/jQX9VtK7Ux9XjfMdZic7wv2gVLgPRVhzKsVPoQRNv4Tx2jiB2G7VrlDow8uY7xJb48uGXipaJ5PYaEREBERARE8gJYxOKRBd2VR1YgfWQ3tLx8YcBVF6jC46KNQGI56g6d053jcfUqsWZizdTv4DkB3CRtz8vqMcO3u6BxL2uoU17B943ILoPEsdhNPx/tViKlxnyg/dQZRb8XxH1Egyp5z0C0OLP1OWSl3OpN7nc7k+JmM76iZcoZBDmuW/LFYSO4vSsytyYW8x/wZKFZZxtPMhHMajxHLzF5MacWXTlK18CxmQtmFpQ4EtlCNQZd6Ke4LxHUUnPaGik/eH7p7/rJ0N1E0dWD6HRhsZL4DjeTsVt+Tjn+ID6zm5OL3xd3BzzXTkmqqiY1VwouZS2MQ6q6nQ6BgT6CQvEMdmOUXtzOx8LchM8cMsq2z5sMZ5WsXiS5vyG0iq73NpkVH6S3So9Z144zGajz887lluvcPTktwpO0zcgLfmfymFa0mcFh8iWPxHfxPKMnLz56x18rwlwJK1XWXCsq4NreWVUMQyMGVirA3BBsR4GekRlhMzsbjwj26ZRlrjN0ZbBv4hsfEWmzYD2nw9UgBijHQBxa56BrkX85yc05SGK7ekbdeHq8p2vd3WJpfsLxhnzUKjEsBmW51yiwK37tD5mbpJd+Gczm4T2Ihd5LOKxC01Z2NlAuTL00v284jYLQU79pv9o+p9IZ8mfTja1fimOavUd257Doo2EwgsN2SpPPfwMq6eY8xIeNnlcruqck8yTJAlJWFWO2GvtMd6LjbWZ6PLmaBCuHHKU+8I3Bk2QI92kDUsdRUHMux3HQ9fCYjmbq+CRhYjSYicIop92/4jfy8JaZOrDn6cdVqam5sFzHoP60mVxDBPTRHe1r/AADXvFzqCe7abG+Fp20AHhLL0A4CXuAwOutrA6iNp/UW3x2QWHxNlBK2drnbW17KTbu1/wC5lDh2fV73Ouls3h0HWSwwqLsvmdST1JlWS47pXbLPltu41qpw1weyMw9DMdgRowIPfpNwSkOUp90L66yepfH1OU8zbXuE0c7kn4U1/i5D8/STZWXUpKvwgC51sLQVvItZcnJc7tSgsJUq84IlyGbwLKwsKJUBr5QLFVdR3kCUolz4E/L/AJtK6/xJ+Mf6SYJshPNibephaRVhMS1J1qIbMpuO/uPcdp17hOPWvSWquzDUdCNCp8DecfZLC02r7PeI5aj4cnsuM6fiX4h5j/TEdvpeTV6fl0SJ5El6BOR8exfvMRUa+haw/CvZHyE6hxXEZKNR+aqxHjbT52nHW5yK4vV5akxX63aBHcR6EylHvY9bN69lvnb1lCVL38b+TC/1zDyim3Lo1vJ9R/mtDzmZR1EqKSmh94dDL14GKySkGZTLLLIb6b9Bv5QjS2TPCZO0uHIhAqBPhBYu+VszAEKFv2ALjU6k90weKcPamQbHIwBRrhgbgEjMNDbrzjS948pNo8uYzGVZYIhRjssowgvc9dvDSXqw5dfpPcMO0R0A+f8A1BB0lKG3hzmQ6S3TXl1vAMttRtPCbyqnobGHp21ECkCeAS4okjhcJQZQXdg2lwBsb68tRaVtk8r8fHlyXWKJCz1RJz9Aw1v2jeh62/dmDjaVNbZCxGt82+h00t0iZStc/TZ4Y7rEHKep8R8BPQu08pHtGWc61jF1p23L/wCxobV9PhTsjx5mXMc4VkJ+7nb/ACEfnLVIWA62LHxML+z1pVw7EGlXSoPuspPhexHoTCjUCY76ioehELYXV27X79esTkH6+r/vxG3f9f8ADo/tjWy4Vv7xC/O5+QM5g/I9Zv8A9oFe1OmnVifJVI/3TRfd3BXmD9dZLn9XlvPTDzEE23GoHVTqwHeDqPOes4uDyYWv8wR/XKCtnH9ajWWqo0JG3MfuN1/CT6Q5Kl6O9+oE9zayxgHzIOu3pMipIFxDJmkiUcOtRheo7Ap/dVGDXHp8wJAo0l+Jtmp4dh8Pu8n8SNZh9JMacd1u/hM4tA74hWCsqBaiXB2KFhexGYXGxmI/EAow3vQGDU2L3tYCoRbTpZduQ2lzAOalNmHxNQak340Nk9Vf5GQvFqmaqQuqrlRO8KAot4m585NrbPLU3Pda4tg/dVWQfDuv4W1H8vKYdpJ8fcGra9yiohPVlHa+ZPpI4CVrnzkmVkWaiaiU4de2x8B6Xl12sCZbw2ht5+fSFWRaWSLEeJl9luJj1UI9QYQu1UvrKUbkZdQ3EoK6wGWR/EaF6bvrmWoNrj+zNNLDQ8mZf8Uznqqt7na1xz7RsPnMum9PK6PZmdSmSxBAJAzhtbZfd5ttMokT7p/Fdvpsb03/AAx6XB8OQGzVrG/Iki1ibAAXUC/aPSMTTVXKImRVSmCt2JLnNdzm1uQBJirko5FzoEJyHPVOZqR3dQRlOY5Scpvrr0EPxHFL7xwGzZUDFlIKki5IW3TPYd1ttpW42Tdvu7uW43CyTvr/AGttsJbontQagKix/wCL2P0IlINjLvG1pY4o93pryJN/DQ/lLgJb+I/ISPxdTPiEA5Bj62mepsCRueyoha9tLqMBnc7AW9JirpRJO7G/zlWOayrSXdtT+EbnzM9xgsiryFvkL/mIMfZhZYlGaIbN89vMTmrqnJFHqxv9AJrjnKwPUfSZ/tPVzYusehC/4VUflMLFL2b9NYU57vO1bxlPTOORB8piYg5WDj4TuOVjLy1sjZX1Rtm6X690s4oZRbcA2/hMMV7BsFYqp03t0vymc20gsM1n7xp4jkfyk0h0hNeI0kcJXupRwxQnN2Rdla1sy8jcaEc5GoRfXbn4SZo4+koyoKosSVs2xItcC+/1tJi2P8pDg+KWitlpVXZviIQqvOwUHXY/OYb08jF6dJ1OhQOBZL31H7x00vt3zLuGC2UnMSULVXNwLlraaWHPS4tvfXzHOEFzTRgWIHaY2JUE5Taxtc6jbblJbWft89oga1NlYhgQ3MHfXXWUGZ2JxYZcoRV21G+hJ6Dr8hMO0q57Jvsx31IHTWEffxtfv5mVObXMpw66AdxPnCF8t3yiobg+E9hSbE2FoHlHYSpxPMOvZEraBYq0wTrbtKV6G52AO2vf0HO0pNM3zMFLgFS4UnskFe0psUJU87ee8vEddpaKEbHvAYZgDpsbhl2GxtMcscpl1Yu/h9Tj0TDP28X/AK8q4qq4KOKLU7k6q25ubgZhlOu/hMV8MPgQBb2L7gldbBFbkSNzoNTfSZrVrgDJZhe7Z9Dck3uBmJ1205amWKrG2p06AWHXXmdTzJkb5Mu1mv5b3l4sLve/xItMoVRa2pJ021O/nv5y0zyus2nlMarUspm2M1NPOzyueVyvm1hYVs1d+gAH5mS5qgdttFGijnryH94/ISC4K4OZ9WZmNhsoANgSdzJlaV+25uRsB8K+Akq8k/dr4e4VCzZ33OvgBsIxCs7oiC7udB4mw+Ql0NoeQtdj0X+ZjAYhVSpVYhXqFaVPW3u0c2d+6yc4a+n47yckxjJ/USf+5w/+M/yiXb4X93Cf4W//ABEjb1/0GHxTj/8A6mv/AORof4PKexJeLy/dUZjf2Q/CPpMep+y/hiJLOeVgfGJNUtoiQgEurPIkkbNR+LzP/wBenMbjPw0/Gp/riJNdWX2VFGeREq5WPifhntPceERArq84X4Z7EJe0tpU0RAoMpMRCFuY9aIipWq3PwkfivhP9coiF8WJ7KfAPFvrJvF7REHL99MZ+zfxH5TDxHwDxH0iIvh2f03+9GNEROZ9a/9k=</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1004,25 +1012,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ben Duckett</t>
+          <t>Mahedi Hasan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023_T20_378</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>116.7</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1031,25 +1039,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.300000000000001</v>
+        <v>40</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1061,67 +1069,67 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="W5" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>WK Keeper - Batter</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgVFRYYGBgaGCEcGhgaGhgcGBocGhocGRwYGBgcIS4lHB4rHxgYJzgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzQsJSs2NDQ0NDE0NDY0NDQ0NDQ0NDQ0NDQ1NDY0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xAA/EAACAQIEAwUGBQIEBQUAAAABAgADEQQSITEFQVEGImFxkRMygaGxwQdCctHwYuEUM1KCI1OissIVNENz8f/EABsBAQADAQEBAQAAAAAAAAAAAAACAwQBBQYH/8QAKxEAAgIBAwMDBAIDAQAAAAAAAAECEQMSITEEQVETMnEUYYGRIrEGM6EF/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBES1XrKouxAHjALkSLPHKVrhgR5xR47RY2DrfzE5aFErEtrUB2IlydAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAeRE1ztPxcUlsGy9fLlrynG6Bn8U45RoKSzXNjZRuSOQ9JzDtR2lrViSpyKB/tUaXJHNjyEhO0GNLlCWK3YNbpY2N+vWROMBuCT3dXY9SLBR8NNPGUuTZbGNEnQwxqAO+iW0LMQzX1vYWuSProIo11ptagpdudrkAf1NsPWY+EdXyvVYjN7qDfKb95j5X899BNgw9TDqlzooGi7lj0Vdgba7ba3tqa2WIyOG8XqixdyD0Q5reZAsJsuB49WFrOXFtiL/AN5r2BxNNxYKgPIZ1J+R+0vV6Z/028gfsZHXKLOuCZ0fh3FEqjQ2bmD9pITl+CxrIQQxB/mhvym48H48Hsr2B5HYHz8ZohlUtiiUHE2CIiWkBERAEREAREQBERAEREAREQBERAEREAREQCziKmVSbXtOQduMeW7tzckljyF9gTzB0E6txhyKLkdP4JwztE7is2ozE8r89cp6+UrmThyRgbOigj3TbXaXGwbOoG4vf4cx5aCZeGwoChuu45XEmcBS1maUqNsMWrk15eHve4B15+H+ny/tKnwD3tqTbbkOvnN6oYeZiYBG3HK2kgsjLHhijQcHiqlNsq5KajchMxOnTUsx6yX/AMWTYtVra82KKPCykg/KbOeD0xsg0/mvWYWO4ah1Ayt/qA+vWJT8oisS7MjKIY7MXXq6qf8AqTaT/D8OBYrYjQmzHu35a2H88ZrL4d1PeVWtqGAIPiNNPpL+D4wHqhDcsNFW5VV8Ra17bmdj5RVNNbM6zw0NkGY38b306TMkP2ccmnsAAbadefnJiblwY2exETpwREQBERAEREAREQBERAEREAREQBERAMDjC3ovz7t/TWcSxmHzuzgk3N9rC9msATvbWd4qoGBU7EWPxnK+KYQI7rlHdcgDpfn6HaVzLMfJFrRApKOa/fkZlcPQaXldSixTXkPmSf8A8lOA22mTKnZ6GF7E7RtM2mbTDw1OZTDSQSJsyFaRmJN5m0yLG51mHXG87JbHIqmYuHAs1xvp+01BqTLiA6aDN3iDuL6DabvhaXdZvh/PT5zAXh3/ABQo3Z7f3lmNUinM02dA4B/kqbWza+slJaoUwqhRyAEuTajzz2IiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFmtVVVLMQAASSdgBqTOe47ieHxOILUWzCy5rqV11FxmGugE27tYhODrgf8sn4DU/ITk3ZatashOtyQfAKpP2lU5U0i/Fj1Rcu6Nh4xiAiOv5muB4cryCw+KpoP+I7DT8t772vZRfeS3HQGr3tcFRb+ek8w3C0Oa4Fm3GmvgZRKS1UzXji1G0Y9DGjRqbuwPu5wwDWsSFJFiRfaTODrs63B85h44pSpKg2Q9xRoFN75tNzfrMHhNchSb6ayuTXYuhGTW5lcQxBFyVdrKWITfKNydQAJi4LidBxojrrbM2ozEXsWBIB8DJjDrn8CBbzHTxHhLycMQKFVQBe+XlfrbadVURlqUvsU8Pqm2Tle469bX85mPXWlVR2Um2pAtfQb66bzFVe+oHIxxuzOL2y5CPiNbSUZNKyqUFKSXk3jh2PSugqUzdT6gjcHxmZIDsdQCYZbADMS1gLDXT7SfmuLuKZhyJRk4rsexESRAREQBERAEREAREQBERAEREAREQBERALNamGUq2oYEEeBFjOH8Q4W2ExDKXKlHuo0syHYk+I0ndJF8U4Dh8QQ1amGYCwa5U26XUjSQnHUW4smi0+Gc44lUByFTcGx+Uy6Vbu6SM47TWnVaiu1Nso1ubbjz0Il7hlQaEmZMq3N+GX8SxxxCEBOrMdB0HMy/wAKpr7I3YDp5+PSY/aHGo1lUZmGgtLvCsLZAcmp2ve2nMiQ2ou1EnwtSTY9Lqw28jJZnsLc5BcK4iE0dchJ1/fwklicQu4NxF0Rk7ZQr98SwlM1T+YkuVUaW3y3t531kbxDG5BvqdBrOg9muFU0o0nyjOUBLHe7any3luOGpUZ8uVQdkpgMMKdNUH5VA+PP5zKiJsSowN27PYiIOCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgHFvxBBTG1L/myt8CtvsZgYOqWSwPxvbTnNh/FiiBUR7H3Re3S9v2mh4TE2BF+m/nr9pmyRtmzDOlRtD4QrbJlAIBJtc68/CZ+GwJ51W15XX6WmNQxSkLqD3R/BM6nlJDbBb36EW10HOZ03wbk6WxTUwDk2Dhh/ULn1FpZevkoX5gkW6WO33khVqICADztb5zWuLYyzuoPPa/gDfw/tCTbK5yXJapuargEe8628Lm2h8p3OhTyoqj8qgegtOIdkk9rilIHcR1NuV9lHj1+E7pNmJUYMzto9iIlpQIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIicz/F3tdUwqJhqDFalQFmce8iA2sp5FjfXkAYBX+JbKzLYq1lysAb2NybNbY2nKcTQZLm115EcrcmmR2UxoajVR2JY1M9zc3utjcnnoJLpRuLWveZpy0yZsxwuKIXB8TsRc7G5F9bDf5ydo8eAQsGFwOvz+vrMM8KVmN1HnbX1mZR7MqVsqi3m37yLcWTSmjExfGLtcvrYbHn08rfSRtP2ld+6CQT7328ZslPsmoNyB5D+8nsBwhU1tIucVwNMpcnnZnCJQZBcABgzMfA3JJnVxOUcQcIj8zkYAdSVIA9TKfwX7R1HDYSqxYKuanmJLLlNmW55aggctZdgdplHUqmjrcREvM4iIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiaZ2t/ELC4LMgPtq4GlJDoD/W9iE8tT4QDcpwD8V39pxCot9Fpog6e7mNvi0h+0X4h4/Ekg1TSQ/8Ax0iVFvFveb1kX7TMqtv3Rc89ra+MkkQkx2fOVip0vrOg8LpggTQUp37y+8JuXAcXdRfeYsyaZ6PTyTiT5wQ3khhcPlnlA3EyVa0oTNDK2QSzV2lwEmWKxhhIg+LtZWY7AX9NZqPYXHChjaFVjlX2jZj0Vwym/lm+Umu2GKypkG76Hymm09CPCbOljs2YOrlukfUdKqrAMrBlOxBBB8iJdnzFgO1OLwbt/h6zKhbNkNmQ5rE9xttelpvvA/xi1C4uhYf8ykSbeJpnX0PwmhxaMykmdgiR/CeK0cTTFWhUWop5ry8CDqp8DJCRJCIiAIiIAiIgCIiAIiIAiJicQx1OjTerUbKqKWY+AFzpzgGVNc7UdsMLgVJqvd7d2ktjUbppyHidJzbtT+KFevengVail7GqcvtG/TuEHjqfKaB/hGZi7uWYm5OpYnqWO58ZbDDKXCK5ZIx5Zsnab8SMZibojewpnTIhOcj+p9z5C3xmleJktTwCdL+cyUwqDXKPSaY9JP7L8lEuoh5b+Ea5USZuAPcKnQg3HkR+8lTh8x0X0H35TDxeAde98hvOS6aUVfPwd9eD/j/Z5Qcg2k/wnFISASEbx0U+R+xkBhaLvqo+PKSlLhRsQ2p668/p5yv6OWWN1+SS62OGW7/B0DAYqwCkjw1Gvl1klTrX3nIa2EbDVQwOVgM6NlvfWwB5HXfw18JvXAePriUv7rr76f8AkvVT8p5efp5Ymer0/VRzK/0bRnlnE1QoJYywlUnQan0A8zymL2mptTwtZzqQgUHkC7qmnjZjOYcEsm/bySz9TDFty/Bzvi2PNeqz/l/L5dZhO+UE8+XxgMBuZZrm4npQhpVI8uc3N2yzUouNxe+oI1lq3KbUvDXtpbQaa/2lsUSd1IPlrNv0j8/syLqYvtfwRPBON18JUFSg5RufNWHRl2YTrPZz8WqT2TGJ7JtvaIC1O+3eX3k+Y8Zzyphr7r6j95YbCKdMo/nlIS6OT4aZZHqY900fSeExdOqgem6up2ZSGB+ImRPmvgPEMRgqmfDVSoJ76MMyN+pefnofGdz7I9ohjKPtCuRg2Vhe6lgASVO9tecyZME4co0RyxlwzYoiJUWCIiAIiIAiIgFJM0ntdWNelXVdV9i6qOpKNrJ7jmNyjIDvv5dJrtrmx5i3qJfihvbMufJ2RyWhw9m00UDpy8ABpJGnw1B1Pmf2tJZcEVJBsLG3XbTXaXaOCLe6HbyBt47D6z19UIo8iUssns6+CMTCoLWRfQH6zyoqjkvosnaHBXKGoQgL+7mN7D0PylScAH5n+Ci31kfWj2SI+nO92/2a6F8/55y4+EDLY2H8+E2zD8HpL+Ut+ok/IWEkKWFRdkUf7RIyzMnHFvZouD4dYZV637oHPfraSNPhFRtVVww6ghT4EHSbiBLiUryv1muCfpW7bOadq+H1Fpo7plytlvcFbMNtDpqo0mJ2S4M/tFxBzJS1AIF2qE7oi9OZY6C3p0ftPwsVsOaXN6lJb87Gsgax65S0mVpIliAAAMq22AGgVfSZppTlcjXCcscEovfz4NJ4izkqUwOcp7ntXUqNb5vZK1r3F7nXaZOK/wAVicO1KvQRQxF8u/dIYaFjzAm2ZBuLG/PeWnEnHTHhFc3OXLOaYjsiQNKbjy/tIiv2XcEWzBbjMGBGnPlOvkyMxnFaKOEZ+8XVCBe6lwWUkdCB/LGTcotbpEI609m/7NNUeXrb95SAQbf3mx4Xi9CqBmyFmdwqgZiQjWB2vsVP+6SFbhNF7HIB4qbfSXx6kzS6euTU11579dPrPTTDbgHzsZsn/oC6hXYc1vY+eul56/BG97uMNiNb35EXFvnJPqF3IfTvta/JqGJ4cp/LlPhp8p0HsrR9jh6YHTMet2ObX4EekiKvCGGhRh4i9tfLSbQEAAA2AsPhpKM84zikkasCnBu238mxYWuHW/PnMiQHD6+VpPA3nmTjpZ6+OepFUREiWCIiAeSziqwVS0vSB4/ibWXpvOxVuiE5aVZB46uWfzM8BtY+Mxc93mTe4PlNkVSPPm7Yq4Wmt3yAsxvc66k8r7byrHd1Mo3IC/Fjb7y4xzez8WA+RP2lOIcGqo3sS58cugHqw9JLuQ7FOM0IUflH8Ej0x1EuKQqIahBOUMC2guTYbbc443iQis1SpRQsbD2pOTxGVSC+h2E1J8e65XpmuyKQRkpJhMMSP1As48DOOWklDFq3Ng4j2lo0HKOlRmBscqaX6AsRfpMal21pl1RqFVMzBbsVuCxAF035jnNT4bgKlQvXp+zRaFnLu5YFhdgMzXDPpfztJfsUf8Ri3qVkNRwufOx0RhZRdALXtoOmXSQ1ybLnhjFP7HQ1SXkWLSpZNsoSLWJ1CgDaoh9Kik/KZuQMdRceUxad2J6XsJcZbdPQ/vFCywvdYjkSdPGVPDLZ2HkflYylzOgopjXrNJ7RNnrFiwp5XyFbvnDILrUZUU2HfFjzsPKb5RTSc64jUpM7kqx/4rioyVMtNVD2DK7KzIxJYsLi2Ukbi8JvYnhW4PBnWoiO6MRoyBu8EJVnAZyAhbS5ve55TfcvQDyG1vCaA6YD2jZatUKEOUh1KEEDLobNUG57zazoeFpgIig5gEUK1ycy2Fjc76TkHR3Km6sIt9PQ9DLtIX0I3FviJ4yW15df3l1Rr52Mm2VJBNvl9pSTLh0v5/aWhtOEgjWM2HA1cy+U1x95KcJq6gdf5+0qyxtWX4JVKiZiImc2iIiAeGaLxTF52LDY6j4zceIVclKo3+lGPopM50j5l8kU9eQvLcStlGfaNlyjv5D7zMptMPCauV/1IbeYN/3lym81pGBsy8O/eRelT5FGYfzwni1LMz82Nh+kfuST6TFq1crqfL6lf/OUtVu1umnp/DOtbWcUt6I3iuPb2mSnWUONCtKj7bEAnlmPdpDbU/KWuL9jjVZGRkZgmV6tZqjuSPzBVIUk3N7zY8OAPdAFzc2AFz1NtzM2nKnG+S5Ta4NOwv4eURY1KruR/pVUHw3I9ZtnDeGUsOmSkgRdzuST1Zjqx85lIJXaEkg5SlyWmGtp7VNhK0XW8pKXYCdsg0XKFOyiVKt2lZHKE3J/m05ZKjGf3/MfSUVV0Mrf3lM9xA7pnbI0eqO4B1nP8cuIFRc1B3ZKjWvRSq9QFwUGdlKvlS4DXFri40nRim08p6MZGW6JxelnN6vFU9pUL4MAZXuQuVhmYZgaqt3Te4IUi99AdJ0WmgygWtYCw2IFtAR8pedQwKsAQeRFx6GeEzi2OydlNpbU2NvT7feVs0xsRUAGbpr8Of8APCSRB7Fys2h8Tb6CUF5hNibuVHIg+o/t85dzXOnW3p/e8s07Feq2Xax1+EysJUylTMGo3fPkJeqmwErkrVFkZU7NtBiWMG90B8JfmNnpJ2rPYiIOkR2mxK08LVd7lQhuBuQdLfOc07LcQNRrv+Z3U9O8c4H/AFToHbXD+0wdRLlc1hca21vt8JzzA4P2CIAblTcttc3ve0swqWq+xDPLEsLi/df/AAlKqsj6bocw8QNx6TNxSDSomqOL/uJVxJLqlVddifIzzAsATSb3H7yHodys2ryeU/Bi49LoG3ttY7gixHp85gUcRckjkf7/AHk5WpWBU7ffrNYByVCOunx5ff1kqtEE9MjYcNU+g9SLySoPoT42+QP3mvmrbLJTB1e4D1cn7faVNFyZK0j3rf03lxZiYSpd28EH1My1MiTLiieURqT1+glDvYfznpK1b9pw6e1KipqzBR1JAHlrLdPF0ydKia/1r+81LtDxH2j5FPcS48C2xP2Hx6yEqD3f1Tz8nWaZNJWj6Ppv/C9TEpTk03vXg6GXB2INjuCCLHxEuVdV+M1DgWMyOaZ2JuvnuV+I18x4zbFa4HnNmHKskU0eP13SS6XK4Pdcp+UZROspf3vh9DKHexnjvqvp6yyjHZdYy07z32lwDLWIM6kGy1Wq2IPXQ+fL9piYisMpvtYg/Qy5UW4I6yF4m5ZNOZCvrY26gcyTYfG8tjG2UylSbMvht8oc+8QAB423knTp206D6yzhaYVQeYFlHjzMydh8z/PSdk9yEFtuW6IzOT4/SXK/vCe4RLLfrPG1Y+ErZauDYOEPen5G0z5FcDbRh4yVmOaqTPSxO4oT2IkSwhe1P+Q3mJoWJ92ImnDwYeo9/wCCZT/2y/pEwz7tD9YiJoXBlfJJY7n5TS8d/mL+sREnArnySNSSuE/yl8/uZ5ErZbEzuHe+/wCkfUzOMRK+5YeNy/UPrKzsZ7EPglD3HPBtLdT8v6oifPPk/TIe1F5f82n+tf8AuE3nD8vhET0ug9rPlP8AIP8AZD4L2I3E8fl5ieRPQPmyhOfmfqZXX2iI7jsYx3kBj/eP/wBq/wDdES3HyUZfabBT3XyMrxGx8vvETj5OovUtpbHvNESDLUSvAt2kzPYmTJ7mehh9iERErLT/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRUWFRYYGBgZGRwYHBwcGhwZGBwYGhwaGRocGhgcIS4lHB4rHxgYJjgnKy8xNTY1HCQ7QDszPy40NTEBDAwMEA8QHhISGjEhISQ0NDQ0NDQ0NDQ0NDU0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQxNDQ0NDQxNDQ0PzQ0NTQ0P//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHCAH/xAA/EAACAQIEAwQHBQYFBQAAAAABAgADEQQSITEFQVEGYXGBBxMiMpGhsUJSgsHwFTNystHhFDRTc8IjJEOi8f/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACIRAQEBAQACAgICAwAAAAAAAAABAhEDMSFBEjIiURNhcf/aAAwDAQACEQMRAD8A7NERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAREQEREBERAS09QDTn+XfMf2h4mMPRaoSBqFBOwJO9udhc252mvfthqNFqrK2aobpmIzuSubROii3kCesjo2qpi1VgpYAnXX9d8r/xaXsGueg1PnbbznOa3FUwyvisV7bgZVJILu5BOSmg0CAak7ncmwAnPcd2nrYxmzu1KkSW9WjkA8vaYnXvv15aWjo73W4/h0Yoa1PMN1zAtc8rCWqnaKkpAOl9idFv0ze785wfC4hERyKgpgEAA2JPPLkt7Rta5PWYzFdoKlsq1GRb3spIB8V28hJ6jr0xR4ijfbXv9tTbxsZLRwRcEEdxvPKD8WdiGNiRzy/oTOdne3GLwzAJULKNMj6r/WR1L0tE5vwn0rUHIWtRqUzzYWZB/wAh8JtvD+1WDrkCniKZY7KWCsfBWsTJ6M3E+Xn2SEREBERAREQEREBERAREQEREBERAoZwNz+v0RInEMZkUEbsbD6k/ATF9oMZkqU7kgEFT09qxHzS34pG4/wAQUepOYZagdVN9M+XMAe7SR0YTtrjjUy+1anSrqpGmVrC1RzffKWyr3q0w3bLj6Mme10pl6a5SN2ZFY35HJnX8ZlninGaL4XFo7BCjMV01Lhy4spOt3brsZzF8YXBViQpa9t7bA+OwlRe7QcerYuoWqHTXKo0VV5KB0sBIytkt3LfzB0v1118pdKoWNtLKDb52+okfHg5r8rAj6H4EGWQj1ah23PM9/Pyl3B4cMfaNh1tfyAkXr4flL1CvYi+w5QMyzol7F77ZmYADyAufCUU61N/fBNtmyj6jU+d5imrX1OpvoDtc7kjx5d0+0sWyiy7nckX+HSBlRhxrY3HIg2YefPwMj1zltt1DDRpFw+Ke4IO3cNfEzIYmuHphiovc5gPHl4H+YQOiejTtw6uuGxNTNTItTdrllbQBWPNTrryM7NPIiYi3u6EG87B6KO3ZqsMHiG9q3/SZjqbbpc7m2o84iXXIiJIREQEREBERAREQEREBERAREQMB2o4YaqKy2zocwBNlblY/E68rzReP06gwZQgko4KtaxVrMLMOTC47jOpYrLlIY2E5J6QO0yJmwwA9YBlZ1JAtcFbAb89DsZWjl3HeJmtUZ9RnCllP3lUKfmCfOY9BpmHLfuvtKa4N7nnPtFiD16jqJKDPMhhiKi5b+1yv1/veWVwoIv7XmPzknB4DNrqCOmtz+Ui3iZOsZWpFSQRsZbtNo/YtR/s6Hn+tpHrdmay/Yv4ayv55/tf8Nf0wSJeSUS9lC3v8ZlsJwJydUPnpM3h+BFLsRdjtpIu5Fp4tVqNV3W9hk5WB2A5XlKvm0ysdCdfK9rctBMpjuE1SxJS3gZBxNFkAuNvnLZ1KrrFiDVXmNpeweJKOrocrowdXBsQw1Hzlt6l9OXfLKSyj11wjFetoUav+pTR+vvKG385Nmp+jSozcNw2a5AUhb75ASFv5WHlNskhERAREQEREBERAREQEREBERAgcWv6p7G1lJ59O7WeXOMVS9eq7m5zG/QAG1u/XSepeKOFpVGOyozHyBM8nYm5Z+V2JI77k28rmRfYsqb7y9So36z5STbTnaT8Nq2krbxOZ28TuHYMvYch5eU2zhvDUQC4F5jsAmUCZvDVBOXe7Xf4vHJGSpItpUact0qw2khGmXWvOLlOmBKXQHeXQdJQzRUIlXDA8pgeI8JVgdBvNmYraQa5XXWTNWK2SuYcU4cUfTQTFsmVhN+4xhwwJ005zUMVh+YnV49/lHF5cfjfh6K9GpH7NwluVMX56+U2ucv8AQfxANhatEtdqb3C63CMBY66WvfadQm0ZEREkIiICIiAiIgIiICIiAiIgYDtviTTwGKYXv6pgLdWGXy3nmBRuDyv36+M9RdsqYbA4kH/TY/DX8p5hqLYnxMii3TPLvmXwFG2u8x9LCk+1aTzWyALzMy1e/EbePPP5Vn8M19pmMJT2vNQwtSqfdVj4CSVrYlebDuy/mRMb4+/bonl59N7pUhL2Safw/F1hYEt4nXzm0cPxV7Bhr+ryl8fPtpPJ36XmuDvKkQ85MITlMZxHGZdE/Wsr+Cbr4SggkDHUeYmvY3H1vsZhrqZCOKxPVm8jL/4v9sr5fn0nYza01vG4cqTpvJj4upuyMBfW45w9ZaiHr9DLZlzVN/yjY/QvVKY6ogJs9Iki2nssLa8t53ecE9ES34ipvqKdQHv2/XlO9zqnpyEREsEREBERAREQEREBERAREQMV2lQthMQF0JpPbxym08u5LsL+c9ZVkDKVOxBB8CLTytjaJp13psMpR3Wx3GVmA+krontNortJWHwii7uP7T7w+jmIkriVE5SBsd7bzm78uyT4WG4uF/dDNbU9y9ZVS7Rs9lAFzYbX1JA6y5w40hRekVZc4sSACSZH4VwRg6FyCivnsNCbW5202GkvJlS3f0yqYhwTmW1jY2FrHvB1El08YFN+kk8Zr+tOcBEI5i5JHQ9ZrWIc3IGlzKak+m2befLbsNjQ2t5CxNcEkxgKfsXtykZRfl4ePfMZ7a6nETEY7LqQABzP9OcgVO0TtlCW3F7DroBvNiyr6p6bprUWxcEX7t9h3TWMPwNs6esdQicx71r5raDU36zpzM8+XLq678RMbiSuSjrlO2osb+B1Eh4jD5TmGxk3jwSs6lM1xYZrfWXKmHtS62lLyekzvPln/Qvh74nEvl91LX6Fm/sZ2icy9C2DtRxNU/bq5B4INfmxnTJ059OW+32IiWQREQEREBERAREQEREBERAsYjEIilnYKo3JIAHmZ549IyUTxA1aFVaiVfbJU3yv7rA/AEeJm5+k3Gs9dqZvkpothfTMwBLEddQPKc84ioKD7ysCD1U6fGZa388bzw/x/KpvC2tMsiZpgcC/KZ7BvtMNfDpxOr1PBLvL+VV2F59TeSqGHvqZT8q2mYxuL6nyEwoQu+nWbJxQAWRfebc9B3SJgMMEIHfJ7UclrK4TDHIfCYsCzazaKSKi6kG42vMFjKPtXSZ8sTflWKNxe2ktVMIpk3DG6gjaXCgkzVVsYgcPAN95axgsrCZapYTC499DJlU1lvHoz45RFKng/aWp7bi9iGuxY2I205HpOhTkvoy4eGxJqW/dpf8AE4yj5Zp1qdnjtuflxeSTOuR9iImjMiIgIiICIiAiIgIiICIiBzT0pcKI/wC4UXVkyP3Eao35eU51xuiq0VtvdSZ6D4lglr0npOLq6lT57Ed4Os4D2g4Y9Go9CqSGTQdHUaq3mADMN55euvxeTubm/TFYR7GZ3D1NpruGN7TL4ZzM9Rpi8Z2lUvYTLo4C3muYWpzkrE4ywy85nI1uvhTjqhL5hpy8pjUoFHzox31QkkHrvK2dmMvYehrqZeK+0p8c7Cy79+lpDoCsjXZy9/sgC1vGTKij7PT5ylCy62/+SKnt+2Uwdwvf/WV1WA1MiUcULy7iamkzT1DxVTNa/I335iYviNbTxkuo8xWIBd0QC5ZlUDqSQAPnJzFdV1z0bcP9Xh2fnUYW/hVQB8803KQuFYQUaNKmPsIqnvIGp8zeTZ3ZnJx5+td1a+xESypERAREQEREBERAREQERED5Na7Xdk6eNUEnJVT3XH8rDmPpNliRZ32mWz0848f7O1sFUVKoWzAspVswKg23sLHulvDPOtelXhPrsH60D26DZ/wHRx8LH8M49SeYbzyurxa7GUw730HUXl3Eezma1zykHC1PamSqPcCUaX5YZMW5O1jJ1J33Il9sOu/WVpUVBre0da5kntQ+JcDaWn4g67qfrJX+Mp3+18DDEPsLCLxa84j0OIByLaHpJzVDk16yzTwyi1hzveMXUsLSl59MfSPVaZf0d8MFfGq7e7RHrPFr2T5m/wCGYCo+k6P6JMBlpV65H7xwi/wpe/8A7MfhL+PPdRn5dcy6JPsROtxkREBERAREQEREBERAREQEREBERAs4iirqyMAVYFWB2KkWIPkZ5x49w84XE1sPe/q3sD1VgHXzysL989EYvHJTIDHVr2A1JtvpPPvbniKYnHVqtIMFOVfaFiSihTpfbSU1Or+PVlY+nUsbzMUqoKjumtK5k/DYkgTHWeOnOutjw5FpU1NTvMZh8VMglUW/V5TlbzS9Tw69JdakFGgkZK9oqYmVvUdg72vMXiatzrLmIxukxL15OYz1pOo03qOlNBmd2CKO8m3wnf8AgnDVw9CnRXZFAJ6tux8ySfOaB6KeCpY4p2VqhzKi31RQbMxB+0SLabDxnTzOjx55Oubyb7eR9iImrIiIgIiICIiAiIgIiICIiAiIgJbq1AqlibAC5J5AS5NR7bcTsooKdTYt4ch+fwgYZ+JNWriodAzFVHRArW+l/Ockx376p/G38xnU8MMiB/u3b5G85Ia2d3f7zM3xJMrr9VvH+w6SkErtqOkk5biW5l103P8ARSxov0MyCY0dZB9UrbgGXP2cttCR5yLxMmolNxAbX0lB4hpvIbYIDmT5ygYWOZLdK6+KLbT5Spk6mVJRudJJyWEWyTkU5b7bf2axbUqeGdSR7brp3vOz0KoZQw2IvOFYHXAm3vJVJHiSv9Z1zs7WKgUmOuUEeNvaH5/GbZ9RzX3WfiIlgiIgIiICIiAiIgIiICIiAiJExuOp0VzVGCjv3PcBuTAqxuJFNGdtlBP9B5nScurVmqu1Rt2Ytbx/tMvx7tG2ItTRctMtqT7zWBI0+yLiYmmLWkIrI0F0nKeOYH1GJqpb2c2Zf4W1+tx5TrOGItckDxmodv8ABKypWXXKcjG3I6jXxHzjXpbF5pqCGU1F1inLrrcTD1XZ9Laybh3upHORkWVopU6SKld9XKXSXVHWfG3lUPiLYShzLjiWmMIq5hOIutqCg3erTZSORDC9+6wB8p2DCkplIPtLY36nneck7H4T1uMDW0QFvPZfznW03M3npx7/AGbjh6wdVYbEXl2axw7iYo3V75Sb3+6fDpNjo1lcZlIYdRLyi7ERJCIiAiIgIiICIiB8lLOACSbAbk7SDxPitOgPaN2IuFHvHv7h3zTuI8Rq4g+0cqfdHu+Z+0YRazPFu1KrdaADttmPuDw+99JqeId6jl6jF26nkOgGwEvGntYb7CfRT1t03Pf0kI6iulsnXN/b85dKSrELuelvrLgS944koHSx2lntJw96mFqIiFmYoy2tb2SCR3G15cw51tM5hnsNfhJRLy9cRamUJVgVI0IIsR4iXE1nVO0PZ+liVzPZH+y438CPtCcx4hgXw9RqT2zCxuNiDqCJjvPHXjc1/wBW0XWTUpgiQby6le0yrVIZQJaEoNQmfA2kIHa8j4mpYWlxjaQXBdgo1zED4y2Z1GryN+9HWByoXO7nN+EaD+vnN2oa3mN4BhclFRa2gEymGGh8Zs4be1RiV0kfD4hqbXRip6ciPCSq0h4hLWgjY+H9oFay1BlP3h7vn0mbVgRcazn0k4Hib0T7JuvNW28ukmVZvcSBwziSV1JW4ItdTuL7a8xpJ8sEREBERAREQNM7X/v0/wBsfzPMS/ujyiIitVJ74/hMU9vj9Z8iCLOI91/AS8PyERCUal78zOH5xECxj/fH8M5/6QP82P8AbT6GIld+l/F+zB8hKTETnrrVrKjESBYrbS5wH/MJ5/SImmGfk9Ov4P3BJOF90xE0cal95YxG0RCYirKH3ERITWydkf8Ay/g/5TZYiXhCIiSkiIgf/9k=</t>
         </is>
       </c>
     </row>
@@ -1131,124 +1139,124 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Will Jacks</t>
+          <t>Mahmudullah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>24</v>
+      </c>
+      <c r="X6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>140</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AI6" t="n">
         <v>8</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhIVFRUVFxcWFRgVFRUVFhcVFRcWFxcXFRUYHyggGBolGxYWIjEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0dHx0vLS0rLS0tLS0tLS8tLS0tLS0tLSsrLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAgEDBAUGBwj/xAA/EAACAQIDBQUGBAMGBwAAAAAAAQIDEQQhMQUGEkFRE2FxgZEHIjKhscFCctHwFCNiUoKSsuHxFTNDc6LC0v/EABkBAQEBAQEBAAAAAAAAAAAAAAABBAMCBf/EACERAQEAAgMBAQEAAwEAAAAAAAABAhEDEiExQSITcfAE/9oADAMBAAIRAxEAPwD3EAAAAAAAAAAAAAAKSkkrvQCoNFj97sJSlwSq3l0inL6GgxPtCefBhp5c5vgv6olyj1MbXeA87XtCqaPDO9+Urq36mdR9oVNJKpRqReV2kpJd+RO0OldsDXbO25h6+VKrGT6aP0ZsT08gAAAAAAAAAAAAAAAAAAAAAAAAAAAHPbc2qvhhLxaeb8O7vJbpZNs3a+1lSVoril05Lvb5Hn29235NN1cSoU7fBSvd+dzntv7fxE6rhSbVNPRPN25t53NXitpRqXp1JQu+TbTv5rM5XLbtjhI0lTe1uTVKEVZu13Z9dSGJ3rqxedPP+rNPuuara+zowlkr3f8AZuvW+pCjhptN01J2umuTtzWefkTxfWyqb3TesaafOPvxy7n18yNHeuT0uu58vDqjU/wbecqd2+rfyTZZqNvK0Elpnnl0b18C6ibrpMDvDO/Em4taNNp38T0bdH2iVYtQrPjhnZ/i0+aPD6MpG92XjOBq7f1JuxdS/X1Lsfa9PER4qb8nr6GwPDdyt6JQdqTlk804tqX3T09D1Tdvb/bpxnZTWnSS7jpjltyyw03wAPbwAAAAAAAAAAAAAAAAAAAAANRvJjlClJJ2k16Lm2eRbwbZjwOnGbcm/elezfc2louiO29pO0eCLirp8Nllnd9Op5rsPY/aS99+P+/6nHO+u/HPGBNuouGEX35N38ZcyxDdqvJ5Qf19D17ZexKUIK0UbGOEitEeNV2kjxqhulX14XdZXvy+jMqW7leN+eWV3f1PXKlBdDEq4RPkLKskeJVtiYhyfHa3K1+XSKyfmRw+7E5tuUZNt87ZdP8AY9jnsqL5Fyhs6K5Inq9MXlNDdNrWNistiU4XvFprrax628GuhqNs7IUouw9OscRgMJwri4bWs/L+0mvqdvufjGqkXdWTzevuvr1OCxuIq4dtNXjfXobfc7HuU838L+Vz1HK/NPeEwWcHV4oRk+aLxoZQAAAAAAAAAAAAAAAAAAAAB5t7W52dFL8V/HKxod2qWisbT2yytPD55u67rXjyLmxcHwK75nDP608c8dBRnZWJdoYsZF1O5Nu2knWI9oUkkWpMLpfuW5SEWVcEERU+8t1pXuhVdtDG4ybetOQ3nwdru10/kaHdCTWIjTX4pJK3e1y+x3W2cPxwfU43c3COe0aUFk+0vf8AInJ/QYuOc0+haMFGKS0SSXkTCBpZAAAAAAAAAAAAAAAAAAAAAB5Z7bqaSws8r8c01zslFp/L5mbCfux70vmjS+02fa1KtOy4qNpX5uL7+SRtML71Cm1k+zjn/dRnystumzDG4SbQx+8FGirN8UuiaNFW3+oq+q8LfU0+16UYybkrvwzfcc9i1R/6rpU78uF1JXto3HJM8z16t07rBb+Up6u3nyN5h9rKaumn8zxWnThxe7ZruTi/Rnc7m0XJ8Kb8xa9Y3br8VtlQTbdsjncb7QKcMs5PusY+91GUFm/9jgMRQje7VkrXbTk83bTkSGXj0HD+0GlPLhkn32N1ht5qVT3W1F8v3yPMMFiKNvcksteOl7vnKOnM3ey5QqNWjFPqnl4pot8eccrf16HF8RyW51dQ2pTm07RnNO3K6kvTM6rZlK1NeHW5zW7mBl2tSsleMasVLwlOz+Q3r0s7XT3dMqQotcKa0aViZqYQAAAAAAAAAAAAAAAAFLlQABQDzHeWMYVcTUlFSlUcYK/JRzdu93+RkbLp/wAiCa0glbpbK3yMrefZ85V5OMW3GcKiXdz+hRRs2lo2365v5sza1a+hbLjjf+/HN7W2JF3k053/AAt3j4vuOWxeAgvd/h7Lpw3V+qR6fTwet87u78TGq4eK5Ikxr3/Nea0NlOS4ezcY3ulFNZ9b+h226eA4Zyla1o28zKlSiZuzVwp20LJ6ddRpt78IpSg7XOOrbKkm+GPxfEndp+PU7/HJyb4tOXgWMNGPKzQs9eujjsHgp6Kis+6y+x0OA2HCKvOKT7skje0aUeiMnsU0OqXUjEUbRt0uc/s/DzoVqdm3GrC7XK7bcrrz+Z0NWnwp93Pu5LyuWVho1JKpGV5Ri4RguV3Zt/L0PNm3nCyXb0LY9Tio03/SvlkjMMbZtDgpQhzUUn42z+ZkmqfHzsvt0AAqABRsCoI8RVMCoAAowGgwFypSwAqUKWJACjZUAaLeTBOSU4xm3kmoa2V/XU52g3FtSi4cLtaWq/asd+cXvLJRrS77PT+lfocs8f134s7f5Y1fG2Wppq+1MryST8TF2hiWrnKYnaMqs+CPJ+8+Xgu85brZjZHUYav2k1KcrQV3a+Ttpc2n/FINe60kjT4XD3p2tlaxp8TF0r8EMnys155ZCWxe83t09fbdOK95rpdtJepq8TiUpudN5NJu2jZosPQdSV5w00yyt5m7qUlw2yJbs7+s/A7WTWptKeNTPNcTVnSqXSuudu7mdTs/E3Sbdv0Y2lyldHWqcS7zpNjbvSg4ynKOSXwrOXdK5x+Bq8TjFc3b1aWvmeqnXjkvrLy5WeT9AAdmYAAApYqAKWKgAAABRkYp8yYAAAAAAAAAHG75QaqJ8pR+js/sdkaDfLDcVDj503d/ldk/s/I85zce+O6yeY4+pZ2fh4r9/Q0cdjVHGUadTgd3KElFP4m3mnrmzotpwTV3os/2zBwFW01ny/aMzZGJu5g8TJuniMQ4yjxco52Ts42Wa09ToqW7uIdn/FZOCecL+8+WuneVq008+7Tx6Mw+2jHKPaRy4VwzkrJaJZ2SLNOkwtn81k092ak4wlUxDzfvKKtZWej5u9jnN5thxUeClUlKd5L4nyaSvZ2Vle/ebV1IpcL7SSTuuOpKWfXN95dw9KNr2S6JKyF0v+Oybyycxhd3exp2nOU5PKTbb8Uk3krZG0w1W7atlkkvD9Mi/tWd7JGDsiu6lSo2rRikk+rzu/kifXK6nkdfu3R4q9KP9cX/AIc/seqHBezzA3nKs9ILhj4ytf5fU7078c1GXlu8gAHRyAAAAAAAAAAAAAAAAAAAAAAx9oJOlNPRxf0Mgxto1uGnJ9ExSPINoUGpuDV1qungalrs5Jt38uvM6/aVFN35nPY2gndaPk1+tzK3XxnYaSa4b6+GRi4vZlR5xd/M0+HxsoO2ji7PM28Ns5a89WNPUyn6s4TZNRv3repseGME1fNeRqcRtuSk81wtehp8XthtO2reXnnfxGi5yfGxq1uOrwrRZ93d9PmZUKS+FLL6vqajZMXa7zu/Rfc6bZ2HtZ6sPE9ek7l0lHCxS1u3Lxf+ljenGbqbR4a8sO3rTjUj68MvsdmjRhdxm5ceuQAD05gAAAAAAAAAAAAAAAAAAAAAa7bOdGf5WZspGPiYXi11TXqNEuq4LaatK5psSr8zeVndZ6rJro1k16mtqUupkfR1tze08JdXSu9V09TSzjONou+XR5HcVKCZrsRs271RdvFxcnJSktOvzMvZ2zE3eXL/AE5m9Wy1fQyqGEUeXm3cbTqtYPBcOdl5fY2WCjmRpR9DLoKxHSFCr2e0cLPlOnOm/FXkvv6HqFOR5NJ8eOwkVynfy4ZXPUzvxfKzf+n7P9MkFqEy6dGcAAAAAAAAAAAAAAAAAIuQErkZMg2RkyoNlGUBUcNtun2eJlHlUXaR/Mvdmv8AK/7xgSR0O/WDboqrFe9Rlxv8mk16Z/3TnKNVSV0ZeSayb+HLtghJEJStnYvTiW6iPDpVrtU8kUaHAT4QhAvRdrsjCJax9Thiw9MrcvD9rjZ1npShwr803/8AKf8AiPSEcp7P8DwYZTazqydR+Dso/wDil6nWI08c1iwc2XbOpRJKRQHtzTUiRYgTTBtcBFSJEUAAAAAAA2AKORRyIgVkyLKNpEZZlRST8kavefbbwlFVFRnWlKcacIQybnO/Cm+Sv3M2TSWZhbdpqeFqp0VWvTk1Tf45JXjHxukVF7Z1apOlCVWl2VRr36fEp8MunGsmZBzm6+JrU5/weJr069WnSjPjjL+ZyU41Y9U3G0uaeaurvpGBbrQTTTV08jzbE4J4etKl+H4qb/oei8tPI9NNPt7ZKrRy+OOcH384vuf6HPkx3Hbh5OuXvyuQauWqlMzY0HbPJrJ+RZqQMzexFEuwiT7Iv0qQNLKiYtTDOtVp0F+OVn3RWcn6Jm5WGyM7dXAe/UrNae5H6yf+X5nrHHd058mXXG10eFpKMUkrJKyXRLRF8ikSaNb5yqZodgYTsa+Ip9pO3F2kYSlxR4KrclKF842kqkbae6jdTuk2ldpOy6u2hyu6UcXKtGriquHqqWG/lypqUKslKdOT7SnpaOl+TbXMDqks3qXUy0/i8S7EgkityJTMKvJlS0pE0yKkCPEADkUKN2IZsqJORQEWwKlEUbEWEW6hdglbuLctSdMo5Hc7Z9DBS/hXQhRrWtGoruOJis7wqTbfF1pt5cro69o0eM3Wp1cTHEVK1efZyjOnSc/5UJx0lGK/epuamJhHJyV+l7v0WYtEijiYWI2ol8MJS8uFfPP5GurbXrcoRj43k/sedrplbV2ZxXlD4nquv+pz86GeljpcNN1qcXJ2nGV2otxTsnZO2aWa80TrbP7SKcrKpbNrTwfXxPGWG/Y78XN18rlXRJU6djMr0HCXDJWf1713F3B4RSfFOXDBau+r6L9TjMbtruck2ns3BdpnL4Vryu+iN/RoKKUYpJLkjUbRwGGxcIRVXhUHePZyS1Vvhfydrp5mfjXKnSSpvOPDFcXvOyyzb1feaMZJGDkzuVZTiDST2tWjrCMvBuP6laW3Jc6L8pp/VIu3jTeWOL3QnhXjsU6NOpGrOKnLtIzjKCU7VKVpZW7R8d1k+N9DoVtpc6dT0i/uX6W0oSekk++D+pdml6b94nBlp63JJlReYuUZFMguIW6EblUwJcT/AGwUuApcpcsylmXLhFWylyjYiURkyVMg9S7HQC2yUoXWrXgUWpNgYdfBqWrk1+Z/QlhcHCC91JGSkJEGLVpox50U+RmSIcJUYP8ACc02n3ZMyMLUqpZu9uqL8Yl6nEmlYeKXHG0426Nap+ZrsVSbjbRJWSMzamM4WkoSks2+G2SVryd9bX+TLkoXSa55jqva/GlpbPXQ2WGwqReUe4u00JNJbtadG5OGGV9DIURCaavF3XVZrLJ5rvKiioLoTjSXQs4hPglw34rrO7/tLTpkZPMKNEGXCE0BOOhEQIyfUCbZS4IpgS4gLMoBCoTjogAKsrEoAIIvPQACECUioAoJgAWpFEABVlyBQAaPbeq/7Vb/ANDaQ+GPgvogAhMR1AAuy/T6mHsf/kUfyABWZyfl9idT9AAK09BMACkClQoAK0iEdQAL4AIP/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFhYYGBgaHBocHBkaGBgYHBoaGhgaHhodGBocIS4lHB4rIRwYJzgnKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJCwxNDQ0NDY0MTQ0MTQ0MTQ0NDE0NDQ0NDQxNDQ0NDQ0NDQxNDQ0MTQ0NDE0NDE2NDQxNP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYCAwQBBwj/xABAEAABAwEFBQUGBAUDBAMAAAABAAIRAwQFEiExBkFRYXEigZGhsRMyUsHR8EJicuEHFCMzgpLC8RUWQ7I0c6L/xAAaAQADAQEBAQAAAAAAAAAAAAAAAgMBBAUG/8QAKhEAAwACAgIBAgYCAwAAAAAAAAECAxEhMQQSQRNRBSIyYXGRgcEUobH/2gAMAwEAAhEDEQA/APsyIiACIiACIiACIvEAEXFbbzp0vfcJ+EZu8Aq/a9qXHKm0NHFxk+AyHmldJGqWy2LRVttNvvPaOrgvmN8bWNYYq2gk/A0kx1a3TXeqhbduzJFOkI+J7zJ/xA+az2b6RvqfcH3/AGcf+SejXHziFqO0tD85/wAfqV+fLRtZaXgjHhHFjQ08oK5GX5aQMqz4kOguJEg5a6a6fRG6Dg/Ro2lofnH+P7rczaCzn8ZHVr/ovzrT2ntLXYvaFx4OEtg55t7ypGwbbVW5VGMeJ1HYP0KzdBpH6Do3hSd7tRh/yHoutfF7BtNZ6hjGGkR7/ZkmYA/NlorDZ7bUbm17m9Dl4aFZ7/dG+v2Po6KoWTaZ7cntDxxHZP0KnrDfNKpk10O+F2R7uKdUmY5aJJF5K9TChERABERABERABERABERABERAHiIoW+L6bSlrYc/hub+r6LG0uzUtkhbLayk3E90DdxPQb1Vbx2he/ssljf8A9Hqd3coq02hz3FznFxO8+g4Bc1pq4GF0TAmOPTmo1bfQ6nRz3rebKLC9+ZnJoPacTOk93iqBeu1Vas3CIY2M8H4oMiScx3arRtDeRq1ZeCCyWjcfeMEjcdFEPIOmn39U0z8sxsxfUkkzqVg4rJ2XqsmMOZ4RPecj4j0VDDDNC4rYMu6D3aArW4b92mSABJP3wCApGXgZXoHa8vFKBkVOXLtBWs8fjY6YDiZyMENO6DujgoJp8lsLzGeUZeMoaTA+o3FfrLSHYQWubGJp3TpHFSy+SXba3UajarCARxGIQciCN+S+q2O1NqMa9s4SMpEHvG5SqdDy9k5d1+VKeRONnA6jo5Wq77yZWEtOe9p1Hd81QFlSeWkOaSCNCNQtm2gcpn0tFXrnv4PhlSA7QHQO68CrDKsmn0Ta0eoiLTAiIgAiIgAiIgDxEUHf96+zbgae24a/COPXgsb0tmpbNV/X1hmnTPb0c4fh5D83oqmTOZzPNCV4oVTZVLQXFe9YspucIkSe1GGAJOLiOi7lB7ZOIslSPyDuLwCO8Zd6WezX0fMLyr43l0RJ0GQ7gtVIEHjqtgbmt9lsjnkNaM9d0Ab54K7eicy6ekaCCMyOqxYSNM58x9+im6VyueQPdEa8enJd9LZobyI7wpvNKLT49MrD4681iHRkeqtjtmQfxeP7QsmbMs3uJ7kv15G/4tFRLxM7vqvWVBnzPgrf/wBvU+f3yWitsyw+6Y8Vi8iAfi0VVzxr5deHRYVKu7l81Ya1wEfLnlx3KMrWXCCY0MQfJUWSX0TrBU8s4W1zkN27vifQL6lsZag+zCJ7BLT1yMA8IIXy1w5BXj+HVqE1aR17LhzyId6Ara6Jzwy8oiKRQKx3FfkRTqHLRridOAcfmq4i2aaZjWz6ZK9Va2dvfFFJ5z/C47x8J5qyhXl7WyTWmeoiJjAiIgAiLwlAHFedtbRYXHXQDidwVCrVXOcXOMuJklSN/wB4e1qEA9lmTeZ3n74KLULrbKytI8XqIpjBVfb+0Btmayc6jxlvIYC4noCWeIVoVD/iGSatFucYHkcBLx9B4BPPZldFWoMkq2XZZmhumpE9w+SrdlAxNHDh6niVbrGzIDSNfvcp5q+Dp8afkkKTFm9a2Z6Z8FtNInNctHYgyFmAtbaJC2Bpjd6pB0YOYFnRaCfsp7JxWp9IhbOtmM9tVDKR45ctQq/eFja4OMZx5jep3Hqo+1M85hVT0yTW5aZRK1OCpfYuuWWtg3PDmHvEj0XHb2Znv+/MLPZ4AWqiTpjHoV3LmTzKWmfXAslislIYIiIANdBBGoV3uO8RVZn7zYDueWTu9Uhdd1200qjXbtHDi2c/DVPFaZlTtH0BerWxwIBGYOYPJbFciEREAeKK2gtvs6Rgw53ZHfqe4KVKpW09px1cI0YI7zm75DuSU9IaVtkOiIucqERZIAxVG/iHTipQd8TXg9GuaR6q9qofxDs006T4MteWzwa9s/8As0J4/UZXRWrlpS5ziPdAA9VY21Axpc45eZ6KEugxTc7LN3dl03LKtZHuOOo8BoM6kDyzJ5KNr2t7OuG5ha7LFRvmhAJcQeBAXUL9s5kY28s+7RVC1Wehhkl2WvbGID4nNGbW6ZkBRbrMwOkOcQc5kHI6GNY5xCb6UtfIv1aT1tH06lVY/MFbWhqpdz4xk0yP2U/UbUAkNXLU6fB1y21ySr6zG6kDrAXO+8aGntGz1Cp961nukO7KhqdjBzxOaOgHcJIVYxJrkjkyNPgvlqtVIZh4PTP7C4bSQQHAgiNeqhWWCmGh2J44EwWnjJGTViPaUzA7TOBI36kLahfBkZK+TnvajDsW47uf3C17PUcdpotn8YcDwLe0Ce8DxXbejZpE8CCD3rLYeiXWsO+Bjj49n5uV8T/Kc2edUfSSvURYIEREAFiskQBbdl7ZiYaZObNP0nTwz8lPKg3LavZ1mO3Hsno6PnB7lfleHtEqWmeoiJxTVWeGtLjoAT4BfOary5xcdXEk95n5q7bRVsNB/F0N8SJ8pVGUcj+CkIIskUhzFZIi0CJ2ktJZRkHNz2NgEjE0u7TZGcEBV+8hUNGpTYS+k+HBriS6kQcXYJ3ZaacOc5tPSxU2GD2ajcuuWajL8vNlNjGYjiax7JDcpcO0HOmYB0yO9TdNUtHVES8XJG7OU5Y2d8nzhdt43aH5k5AZASPTRablOFjB+UKxUqAIzUqpq2y0peqRWbwsYdZm0wMDmTnTJAeHEF4qsyxe6wzJzGi56pDqFOg5rnYHAl73kuIAgMbkSxgAwgAnJW+0U2RAaJXJTsLZkjnG5P8AWrWhVhne9HDddAta1uEAjUgZefopmq8xHFGACABmTK3WpuQMLnptvZ0JaRV71oBw93Oe1nGQ4Hcoy0UmmzCi1jQ/F2n4GEvbLSA55GNpBaCI3SNCVcqtEHOMlyfybJ0VoyuURvFNdldZYG+waJmqcIxNDaYDGta0MIA/qZDMkZk5yuq77vI7JdP3uVgZY2RMc1r/AJWMwtrI6MnGp6K/etEBj2xlHoVhsyx4a/DLPaFmKpMEU2zDWEZtLi4kuncAN5Xdeo7LuhWez95Ux7Nr8wxjBhji0DETpijjxTTTUPRlRNWm/sTmz9qL2VJcXBjy1pcSXYYGpOes68VKqB2apFr7TPumoI8D8h5qeTz0cuVat6CIiYmEREAYr6FdtfHSY7eWieoyPmF8/Vt2TqzSc34XHwIB9cSfG+RLXBPIiK5Ir+11SKbBxd6A/VVJWbbB39sfqPoq2oX2WnoIiJBgiIgDRbGyx3IYv9JDvl5qi0LvFW0vY/8AB7RwHx4QSBzBgdy+gFs5HQ5dxVSr2MlxxPLH0zDHtEuEEiHcuanfD2dWB7Tk5LqMQJmOz1wkifJWSzV8o+9fJVOzEte9pOIh57UYZxdqQN0z5qbpv0hSpc7LzyiVqEa/fguXFmsX1cl7Zvi8Eox32GmMYD3BuuZ6GPPJdFSHMfnBBEDjMyqc5toxue6uwNxZMImR+U8e9dBtjnAtDgzFljLS4Dm1uWL903p0J79kzhMSdNJC0U3Zrguf2jcTXVfatnsuIgnjlJXXUEPy0KVzp6HVbRIZBaX1N32Fqe8FsHPlzlc735LGBE3u+GugTkYHEnRct43e2jVbgM4miRwcCWmI4xPesrfUJe0AiS5gE6SHTmpBllc17XuLX1DkI7TaYGkDQunTnCqnqdGLltlmu5kMne4kn/GGf7F1rXRp4WtbrAAniYzPeZK2Ky6PPp7psIiLRQiIgArFsg/tVG8mnwJ+qrqnNlHf1nDi0+RCaP1GX0XBF4iuRKvtgO1T6P8AVqritG2Deyw83DxA+iq6jfZWegiIkGCIiAC4rXZZOMAmdQNeoG+Rku1FjlUtMaacvaKHb6ZbaHgtc3G1jhiyJyw4o3ZtPgV20XwOf38wV0bXswvoVOOKmfEPbPg7xUc1/wAu6c/BSudHViv2W2dla04Wk5b48M1xUr0e4wByGQn7GfitdvcSwYdcxHEn7C02C7HlpL6rmk6tEepRKnXI1ezrSOl1ie4nG9jT72Zzk7o3BbGWGCMb24R7pL511wgei207lZhJ9s6eBwgnTTsme9GXRTj+8Z/w66wtNUI1U7M9kYC1wBE4SCQJjIGIngQtH/WH4sLtYGoznkum0XQwEEVy/wDTGR4Yi0Z9FDXpdjpDmPLo1mIjqNVqSb0xLTS3JP8A81iAI3+vBePflquSjUAY0Tnkfvmva24g6T+59VFrkqq4OWztmuyQSG4nOwguIABBcQN2JzZKt1gsgJDhOEQZIgGDIAHVROyNEmrUqaYQGDqTiMeAVrKv6J6ZzVma3KCIic5wiIgAiIgAprZX++f0u9WqFU9sk3+o48G+rk0fqMvotqL1FciQe1NOaOL4XNPccvUhU4L6BelDHRe3i0x1GY8wFQFLIuSkPgIiKY4REQAREQBF7RWI1bO9rRL2w9giZcySR3tLh3qlWa0hwkHVo9DBPj5hfSQvnu1V3mhWL6bew9ge5o/CcbgS0D8MiY3ShpUtDxTT4NuIGDI+9VIhkgeSp9G2TAG868idBwCkbFfGFvHh170lY2i6zSb71u9/4XxrlJzjPJQ//T3wHF0A/nOZ3rutt44jmdD1BBMg9YjwXFUtk5DeYzKeZpInVpvZNXXdxEEvxb9+g6nPXNbrc/CyAPs/LXwXBZrc4BoB7TjHAjiema5rbeGNoJ96QZGhB5dc+9L6N0P9RKTuaCDOgz1++q12i1w0iZOnUz6SuD+cJ1O//j76rOw0y9+I+6DPUz/z5I9NcsPf24Rf9l7LgszCfeqTUP8An7o7mhviVLLkun+xR/8Arp/+oXWmOd9hERBgREQAREQAVn2Qp9l7uYb4CT6hVhXbZ2jgoN4ulx79PIBPC5Ft8EqiIrkgV8/vSzezqvbukkdDmF9AVa2rsmTaoGnZd0/CfXxCS1tDS9MrKIigVCIiACIvHOABJIAAkk5AAakncEAeqv7Tt7dJ35Xt8HNd/uKytG2FkY8sc98jUtYS3xmfJcN533Z7QGCi/EWucSCxzSA5oEnEOIAWVL9dj4WvZFVve64OOnlOrfOW950UEajuh5blfK1PEB99yg7Tdwl3Zmc8hpy6a+KMeTjTKZcO3uSvmqZO6e5eY+5TD7lJAw6xJXMbnfMSPVVVyyLxV9jkbaDmJOaB5P34KSZcnxPHoumjdgygd5WPJKNWGmcFlsxc4DPOJ5Kz0aIYwAbl7ZLM1ucCfvNbqglc15PY7MeNSi1XN/8AHo/oaPAR8l2L51adsa1ACixlOGDJzg5xILi7SQBEwpfZval1X+/gA3Oa3CG9cz2ePBX9XrZwZKU09/ctyL1Fhp4i9RAHiL1EAbKFIvc1g1cQPH78l9Dp0w0ADQAAdAqpstZMTzUOjBA/UfoJ8QrcrY1xslT5C9RFQULntVAPa5jtHAj9xzXQiAPm9ooljnNdq0wfl5QtatO0934h7Vozbk7m3j3feiqy56nTLS9oBERKaFA7R2+P6LeReeWrW/M9w3qTvO2+yYXCC85MB3mdTyGvPIKm1XEkkmSSSTxJOZPehPnRy+ZVRjWumQe0dk/8jeju/euXZo/1Hfp/3BWRzA5sHPd9+Sg7HRFC0BrvdcDB8InwWqm5cs7Ycucdr5Wv8otDStNRkGQto0WW5ciejv1s5w4DUfRbWNac+GmaxcxcrgQclpqR0PAJ08fovcHBZUo4ZrM65LNgke02pVC2MCxqOgSdFhpTNpKUVGu4tjvBP1C7tnaZAJ3GFxX1V9pUa1u7IdSVYaVLBTMagecbu+F3KvyJM8PzXraXyyy7N3jjHsnatDiw8WA5t6tkRyngp1UGzywNwmHtILTwdxPLir+4dI4jMdx3hSmtna8Lx45/p/zo8RETEgvWtJIAzJIAHEkwF4rBszd+I+1cMh7vM7z3LZW2Y3pE7ddjFKm1u/Vx4uOv0XagXq6FwRCIi0AiIgDEiVSb7uw0nS0dh2nI/CVd1otVBr2lrhIOv3uS0toaXo+d+gzJ3AcSdwUPbtpbPTMBxqO4U4j/AFnLwlc+193Wmk9zaji5hJLCIawjhhGWIZTM9VUbJAxOOoGXUrjq2nrR7vjfh0XM3VbT+xOW+3Gq8ucIyADQZDROgMZ5mSYC43arGmCAAdYCycMksVzycP4x4i9XMLr8y/hcNHjXZrC8rCKzIGT25tPPeD1WTGLntt4tojPNx0aN/M8AquXvc9nj+B5E6+jk3pvaf2Zouq9CBgfqMs9RGUFTTTIkHJVW01vazWwhrpAdhmPyuPA7ueS6rvt5GRKTJHyj3cbelsni9czqgWRqSFzvbKiizR0NrLqa9R9Jq6RUhGjDqdUACgb4vLLCEt9uOkqHLC9waNSYEqsRztksjetI7Nn7LieahzDch+o/t68lYrQRh1kSJjPeMvRVW33gAwUaWJrRqcpdxmOJz8lt2doOzfuOUTqeJHDXPkV0Wvyts8usP1My50l/X7snS8xOp1j1WFO0VaQx0Hua3UtBlv8Ak05Edywe+Dl4/ei22ZwzG4/h17wuVzU8n0Hi+f4mZfR611v5/cm7p2uY6GVmhjvjbm0n8zdW9RPRWdjw4BzSHNOjgQQRyIXyG0dl5jjkrfshTtFV4ZQMOObpzaG/E5ukcxnwKpt8EsviY2qaemv60X267A6s8NGTRm53AfUq80aQa0NaIAAAHILRd9jbSYGtHMnieK611StI8SntnqIicUIiIAIiIAIiIA4byu6nXYadRuIHxB4jgV8P2v2Zr2Gpj9+g49mphBjk8D3Tz0Pkvvi1WmzsqNcyo0Oa4QWuALSDuIOqSoVdlIzZYWopo/ObHlwkZnidT1W2jaZMEQeB38fvmrvtF/Dp1MmpY5czU0SZc3jgcfeH5TnzKotqs5BIc0tcNQQWuaeYOYK56xk48zJianJyt/8AvZleFsbSbiPcPiPD70VKr1nPcS4yT9wOSmL6pOeMRJ7MDDug7xznVRNGzkuAgxxV8elO2J9PHjbqXtPlP9iSuG8G03w+cJ3jMb8nN/E07xkpmrdtOqZoODTvaZI6tykDqo6rc5oFr3APpugOy92ePDXVS9nuzCQGu7JEscciOLXEbxIIO8ZqObj80nr/AIb5cZaWC+U+n/o6LNYntbDm9CCCD03+S9czdC0OsoLu2XSN8lxHPmOYUg6gQycWKPxcRz6LkdHr5fD9U3PwczGclotZIaumhUkwVz3tLjgaJJ71qfJwab6ICC9yk22A0xifDAQQSSCW5jLCMyTly4kbumwWc0muc1jalQNxAEkYADBLeJzBnllGZWq+J9gazyMTyGNa2IbIJdpvAEcpAXTC3/Bw+ZmrA1GuXz/CKk4YnQ0HM5cVbrrs/sqRBOeQ/wBQkx6Lnua5sDfaPHa1A4dea3uqFzoP3H7Ktc8HkX5Hcr5XZiDKxc+M+C6RRO4GT19N6uGzf8PalctfaJpU9cEQ94/2DrnyGqxLZDGm3+Upuz+z1ot1fDSaQwEY6h91jTxOrnRoBn01X3u4LjpWSkKVME8XOzc48XH0G5dV3XfToMbSpMaxjdGtEd54k7ycyuxVmEj0fqW1qm2ZIiJjAiIgAiIgAiIgAiIgAiIgDGFDX5s3QtQ/qM7Q0e3suHfvHIyppEGOU1pnyG/f4d1mgmnhrN4DsvHVpyPce5Uz+SdTcWPYWxqHDCR1BzX6QXJbbupVRFSm14/M0HwOoSOfsc9ePvpnwyzNGE0njEwiB04Tx4LC76Ps3+wcSWuBNN0ZAiSD6tI3Sdy+q2vYazu9wuZykOb4Oz81CXlsBVc0tbUaSDiY4y1zXjQ7xB3qdQ9aJ44y4rVL4aZTaw7QLg7AWgHC2S3MyS0ZndpmCN0ysLPRLXODcRp5RiBBIjtZHT/lWX/ti2AdqiJ34XsI5x2p8loqXHaW5ewqHo2Y6xuXHU2lr1/6PuMNYKv63vy102tL/BUA1wr4G5kHygEE8oIU2yiG55Fx1J16DgpJmz9oBJFB8uiThiYEAZ7ltOzNs/DZ3O/zpNjqXPHkClcW+EmNjfj4m6dr+0Vm1NNOqyq1sg9lzfiDuy5p5OaSOSzp2NtWsQSXMoRAOjnuzk8cLcIPOeCt1HYW1vjE+jSHLFUcOmQAPNWO69iKNIQXufyyaDnJJ3kzzXVhx0lyfP8A4xmx+Ra+iuV2z5xaKDnnAxpz8T+6mLn2ErvLXOAptBBxOnERyb9YX1GyXdSp+4xreYAnx1XWrzGuzx48VL9TIG59mLPZziawOf8AG7Mj9I0b3ZqfhETpa6OmZUrSAXqItGCIiACIiACIiACIiACIiACIiAPF6iIA8REQAREQYYBGoiKGPUCIlkGF6iJhUeoiIA9REQaEREAEREAEREAEREAf/9k=</t>
         </is>
       </c>
     </row>
@@ -1258,124 +1266,124 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Mehidy Hasan Miraz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_094</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>50</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
         <v>28</v>
       </c>
-      <c r="E7" t="n">
-        <v>29</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>20</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgWFhYWGBgaGhoaHBoaGRkaHhwaGhwaGhgYGhgcIS4lHB4rHxgYJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHhISHjQrJCs0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgECAwQFBwj/xABAEAACAQIEAgYIBQIEBgMAAAABAgADEQQSITEFQQZRYXGBkRMiMkJSobHBB3KS0fAUomKC4fEVIyRTc9IzY7L/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIEAwUG/8QALBEBAQACAQMCBAUFAQAAAAAAAAECEQMSITFBkQQTUWEFInGBoTIzNEKxFP/aAAwDAQACEQMRAD8A9miIgIiICIiAiIgIiICIiAiJazAbkDvgXRLEcHYg9xvL4CIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIFJxuPdJMPhFvWezHZV1Y/5eQ7TOZ036WpgqeVSpruPVUn2RqM7DqvsOZ8Z4XicY9Vy7sXdjcsxuSeu/LulbdLY47Tvjn4n13JXDqKa6g3F3PaGvYeUh2J4vXrEtUq1GJ63Y/InaYaWBdtQG+c3E4W59037pyuTrMGHDYurTN0d1/wASMVv+Yfv5yU8F6fYuibO4rJ8L+0PyvuPG84qcHe3snnNepw9xoUbyMTP7puH2e4dH+lWHxYsjZX5o2jdtvi8JIJ800nZGDKSGUhgRoQRzB7J7D0E6Yril9FVIWuo5kD0g19ZR12GonTHLbjljpNYiJdUiIgIiICIiAiIgIiICIiAiIgIiICIiAmKvVCKzHZQSe4C5mWcjpSL4PEAf9tvpA8A4zjqmJr1KrE5ncmx91QbIg6gFm1w/h62Fxc9ZlvDcJdcx03+c7WDpi9htM+eTTx4x0MHhwALTfpUpTDU7CbyJODQ1jTlj0Lzo5B1y1wI0jaN4/hiODplbkwFvORvO+GrLVS4dDfxHcdjrJ3iUnH4/hA1Emwl+PKyufJjLHsHD8UKtJKg2dVbzF5tTi9EB/wBFhweVNR5TtTYxkREBERAREQEREBERAREQEREBERAREQE0uL0M9CqnxU3Hmpm7NHifEaVBM9ZwiEhcxBtdtANBA8bwGHvStbUGxt+/82laHqtbXsnVwQTJVyEGzkBhqCMxF785yOL4jJWKIpZgF25EgEjt3mfPHbRx5adzDKZ0USRFcbihrkQDtbXynW4VxdnbK4AJGlpz6dO3Vt2QhJipT6jNHimJdE9QDN27WkeHGcTnsfR/qCn+614klLdJJXN9JTiGHJpHYbDzM5uG4g5ZVqLbUa8xO7xKqopEHa9/DkZOGOqpneyZ9HqZXDUgd8g+es6c4XB+MUnK0EzErTBzWsugAIF9b69U7k1Sy+GWyzyrERJQREQEREBERAREQEREBERAREQERECkj/TbBCrhHB90q/grDN/bmkgmtxCjnpVE+JWXzBEi94mdq8n4DTy0HI2zi36QZzMXh2fOVJDMbkjc35X5aTe4A7BPRv7Qc5rbHTQ+VpkWyuwGwOk4Z71GrCTdc3B8LVWz5F68pFwTawvflz8ZgpkiuoXkf9bDukjc6ECRrasFHJhOe7l5dJjJ4SbEsWIv1TnvwXPuORFxYEg3BBNrnQkeM3q7WOvUJ1sNbKLiRjbL2TlJru42H4QEzEGwY+wNFH5Ry8J0HpF6Ti+yjX8pH2mau41lSQE30ItLY+VMvDd6FU713e21PL5sD9vlJxIv0Lw5VajHm1vlmt/cJKJo45qM3Ld5VWIiXcyIiAiIgIiICIiAiIgIiICIiAiIgJSViB5Li8BVoYphUVgj1CEa3qsDcr6217AaTn4i4qHvnp3SzDZ8OxA1Qhx/l3/tLTys1QX8Zwzmo0ceW7t2UQimzc7aSMYStlqrmUtqSbczO7WxWZLXyqOf0nKwNWlnuS57QpIv1zli0d3arVS7J6oCkWJJ1HVpO5RAy6cpGjWp29pr3JuENvpebOBxy+697ctZFTZdOhU1JmZcO75EQZmsWtoNBpz8Jp1awkj6GUSWdz7qhB3kkm3kPOW45u6ceTLU27nAsI1Kiqt7VyTztc7X7rTpRKzVJqaZbd3ZERJQREQEREBERAREQEREBERAREQEREBERA8//Ejp2mCX0CKtSu63Kt7Kqbi7jmTrYTz7DYvOiuBbMBOF+JtQtxTFXN7OFHcqLpLeGuwRbdQ0/nOUzjpx+Urw+LRrqbdQ7+Zm7SQAEjJeQsV/WNjrubaHtkl4TWQjU3t3HuEz5Y6acM9uxhmLCxyeQl9fIBoASNQerr8JpV8WgW4Gtv5/vI5i+J7gEgXBt+1tuciY3JbLORLHxA0Olvl4zH0d6dHD47+nq2/p6mUBtsjm4DflOgI5aHrnH4dnqrmfRRsu17czIl0sT/qe9R9504u2WnDk747fVMTl9GsX6XCYep8VJCe/KL/O86k0M5ERAREQEREBERAREQEREBERAREQERMdRwoJJAA1JJsAO0wMkSF8b/Evh+HuoqGs492kM3m/sjzkB4z+MeIe64eilJToHcl27wBZQfOBFvxCUNjsUw/7r/L1T9Jh4W10FuQtNZ6he7sSzN6zE7knUk+N5n4SMpK8ryvLO21+K/m0y18MC/UTz7ZlpYesvsG86L4W9iLzo4OgRYjf+aTh1O/S4bYLFPobgdpAE3sBwDKwL+serl39slircbWmGnSuZW5VMxi1aQRbbTz/AKSa4i/wr9Z6JVNh87zzTiFTPUdutvkNpbgm8kc11i90/CjF5+HUx8DPT/S1x8mEmc+bei/SvEYElqRDISc1N75GuB61gfVbTcfOel8C/FfDVLLiFbDsfe1dL/mAuviLTVZWTb0iJgwuISooemyup1DKQQfETPISREQEREBERAREQEREBETXxWKSmpd2CqBckwM81MfxClQUvWqJTQe8zBR89zPKOk34tMSyYNAq7Cq4ux7UpkWA/N5TzXH4+tiHz1qj1G63JPlyA7BLdKN/R650j/FmkgK4NDVbbO4K0x2ge03yE8s470ixWLN8RWZxe4TRUHcg089Zzip6jKFJaRW7a7CW85lYSjUjuAZGkxs4WpYWP87J0MO1jOPTQkaCbVGuV0cHvizc0TeN2n3DKYdO3S06OFS3Lskd6O8RU2QsM3L/ABdl+uSik/I6TDnjcbqt2OUym42TqNiYSlveXU6inTSbBXSVS4XH6wSkx52sPGeasZMemeK2Qfz+CRKlRLHsG5mrgx1Ns/PluyRYvsk/zb/eYlFyT5TO9J3NlU2H885a4tpNOma7bvBeO4jCNmw9RkJ3XQq35kOh7956x0b/ABWw9QBcUpovzcetTPbfdfHTtnixEtkWSkun1bhsUlRQ6MrqdQykMD3ETPPlzhPGcThnz4eq6HcgG6t+ZDofKeodGvxZpvZMYnozt6Rbsp7WW118LjulLjYtK9UiYMLiUqKHpsrqdQykEHxEzyqxERAREQERLHYAEnYawNXiGOSiuZu4AbkyF4+q2ILek1VlZQnuhWBBAHWQd5XiuNNWqSdtlHUsJynfjw13ZuTPfaPHv6YKbWFxpy5TKFEnGJpoHcZkFmYWuOszBnX4l8xPRx6Z4kZMssr9fdEQsOkmAqJ8S+YlfSp8a/qEtufZHf7+6DPh+YF/CUSnfSxPcCZNyyH3x5/tKDDLe4LHuVv2kfkl329k9WVmrv3Q0cJqj1kRivMbeQOsrToF/Vy6/CQfpJqlEjYNbumOrhjfMiurf5dfnE6Z22XK3vZ/PdFDwCpYn0brobG5AB5Eg6zEOM4oDIXf1BrdVzADQ3JF9NJNaeOPsupzdRG/cdpGel+GAcMgIDrZgRb1l5i4vqGHkJk+I4sdb1Gjg5st67pPwrFB6SVRb1h61uTDRh5idXE4tVQnnyA1J8J5/wBGKtS7ogOUgMxOioR7zHlcedpL/TuGFOlfMAC9UgeqOoXBA7AB4mefj8Llllddp9W/L4rHHGb71E+JYCtVrupFvR+2SbBSQCRc7kbW6wZaOHVCuREsvWSAW79dB2SW1MOzHVdLlrZtSx3ZjbUmXJTt7h8CD9bT1eHjw452vd5nLyZ8l3Z/KKHAvSFsjX5kC/zE0mpBjdgJOi4G9x2kaeY0E18RRR91Vu3QnzE77mU1ZK4zeN3uz9EKGEQ+7Mb4Fe0eMmA4VS+A/qb95aeDUz8XnIvFx+uPstOXP0y94hZwI5MfKUPD+pte6TNuAIfef+39pjPR9eTt+kH7yl4eP6X3XnPn9Z7MH4e4nFUcSiUqlqbG9RDcqUFySF5NyBHXznu+Hrh1DDn8j1Ty/onwgU2d73JAUaWtzPPukw4diijf4TuPvMfPx4y/laOLlt/q/hKIloN5dMrSREQKTldIMTkpEDdtPDn/ADtnVkP6V4q75eSj5nU/aWxm6pndRwUb1rzdvacxvZbrsT5azp4jVAw+G/yvNUjJWjieHMzswZQCb7HnMf8Aw1vjHkZ1l1UHrA+ggLLdVV043/CT8Y/T/rKjg5+MfpP/ALTrlZQm25HnaT1VGnIHBz8f9p/9plThP+M/p/1nReoi+2yr1ZmC/Uy0Y6hzq0r9XpE/eLnUzFrJw8D328lmZMGn+M+I+wm+tuq0u9Ko5XlblSSNNuH03Fil+8mcLpH0aV/QJT9QvWAY3JypkqF216got22krFR22UAdZ/aaatfEfFlpMRyGYuq6eF/OR3vZaXV2w0OBYdECKuVBsLkFj8bdZ7TMtPhqAWVTqbsxJBY9ek26mFvcnc6/sJhSmp0uwPUTLb7dle++6gwFMcv7m/eUfh6HkR4n7zP6AjaLkbyu/un9XNr8LHuuw77H6WnPqcFa17oe8WP0MdIeLVKLoAUCFqb3Ia+QMRVXTQ2GVus37JysFxuouRCFJJqEgZhmepUBRQWG5zE2HxdlpPzNdk/Ltm43W4c42X9L2+4lv9JVHuv+oH7mS6lhF56nnMooqPdlvmqdFQ0YaqNw48AfsZkVWG7eYH+kmAReUr6OPm1PRHN4UhCa2NyTtbs+02mOsqg6try1uZ8P585S3d2tOyT8Lq5kHZp+03ZwuBVvWK9Y+Yt+87sy5TVa8LuKxESq7FVcKCx2AJPcNZ5zxTE53JPM3+cmvSF/+SVvbNp4DU/S3jPO8S5Jbx+un2nXindx5r2jadN175tYJs1Bey6HwuPpaYarC9N+Thb+IsftGEbIz0z+ceGh+xmiM1bmCb/lDrU5T3rpMibTWwT+q6//AGX8wPvMivrcG8ipi7E10RWd2VVHNttdBtrvbaQriOIpuS2fCszc/wChrOT/AJnNj5SRcZquSEQYkFdWNFKZvcAgZ6mgt2dc0+J8HrNSQI+Ld7kspxCU7BgDZyFynLa1lHM7yuS+MkRfjePeu4AJfQBU/pwDsM7Bmu2pBOn2llLA0cTWp0aK+g9UqzVGzM7AXZgo0DWB9UHr6p2MB0fx9Fy6ejVmGXM7rUYA72JXfTe07HR3oqaL+mrOHqa2AuQpa4ZiTqzWJ6tzK6t8r2yTskNGiqqqi5CgKL9QAA+kzEqoubSx36pYmGLG7Tp+rj+i1qzucqjSZaeHCtcatlIvbkSDt3rNlVCjSVprp3yOpPSoCdj9DNdqd+8TYdpY+hB8I2aY0cjfzmQt1jylxWYxcaDbl+0eTwiPSAN6RyKZb1lKsyFvVCWyKUI0LkaEhhY2BuJpNUppUFsNUUIM9y7KQVUMWf1yKdr5tTtabvHqb53YOiL6VQRmNP8A5nowBmY2uchzZwSDYeqcsy1DjvSb0z6hsqPcGyAj0aM+Z7jS7W1uecpfLpPCQ0LsiOAQHVXsdxmANj26zIqnkTMmFD5EL2z5VzgaAPYZrA7C95kycxL7c9MYZveF+0bzOraX7LyxheYvSeqwO+3npePJ4UTRfC8t92Vqn1beEPsO0yUM2Bq5XB6pLAZDU9o9kk/C62amp5gWPhOHJPV34b6N2JSVnJ3RXpPeoxTOEVaZLNlzHMx0UC9tQPmJFqtL12HWAflrOzxquWdrXILXNtgBoLzQqJ6ynstO/FNM/NlvUYMKuegye8jG3duPv5TLUUui1F9tdCO0aEHsI+ssonJW19l9PHl/O2bKr6Nz8DaN2dTTvGetdagUM2tnUEeG4PbqR4SmDqHW/NvsJdxWgVRwuzesv5xrbuYaTTw9Tyk3wjHy7aNebCzRoPN1DOboyCCIWX2kCxEvsPGbCi0tHylZFTAi5lwgSphLDVOolWFwZZV3EqDrJVZEMWlEErIWcXiPR4VXL+kZS1t1DW0scpuNLcjcb6G81K/RmqWdlxLm6kZXF8xsApdteY1sNrSUCWtBurcPTKoguWKqqkndrADMe2XmXTGzQLHMwVWANz2Hyl1V5r1G9ZR4+UvjFMqvYm6jxP8AO8/KZGHrKOoEyygLnN5dw2895cG0ZvAeGn1iqwHsseszs8Bq6svYCPoftOOy2CrNzh9TLVTt0PjpKck3HXC6ySiJSJma3mtfEObDlfy5623mcC4kKwHTNDYVUZe1fXHloR85KeG8WoVtEqIx+G9m/SdflNc16MeUy9W1i8PnW3Pke2ZMNVzqM3tD1WHb/qJmC3FpiekQc677MOsfuJaOdY8WhCFdxuvZb3f2kfwrDKLG9ifK9wPnaSeqQyHu/wBjIlhkIeovLNmHYGGv9waX9ETy7uEqzpo8j+GexnVw9YEgXnOujqLL1Ew03mUGVGSXiWAzJIWLzUr8RooSr1EVhuCducrxDFilTZzyGg62PsjznnlaoWJZjckkk9ZO8z8/N8vUnl6PwPwP/olyyupP+pw/FaBIAqpe9hr1zcY6zzGsJOuAcQ9NSUk+unqP3jZvEfeRw8/XdVb478PnBjMsbbPXbtKYWWU23EuQ6TS8xlEpUlucSrnSBbm0Ew1Hgvv2EzBVeTIjbDiKn0MojZztr7JP+EWLW8TbwmviqlgO+3na3ztNzCpYX/lv9dT4zpJqbcrd3TMxsNNzoPHaVK6qvIanw2lE1JJ2H15+W0vTYk89fDlK1aKbt3CXZrMp/m8pSG565ax1kVaJB/XHs84nEzxOfS6dVeALMlL20/MIiRHSvacH7FP/AMYm4sRO7K0vd/V9RI5S9qp+Y/VoiX9FJ5ZUm3Q3HfETm6O3RmzEStSyJMpiJFWcDpd/8Sf+Qf8A5aQ9oieb8V/W+l/Cv7H7sFWSLoV7VXuT6tESvw39x2/E/wDGy/ZK6e5mXlET1XyTGZlO0RCWq27fzlNd95WJZDnY33PzzrUtvL7SkS/+scv9quX2PP6zLU28JWJSrwTaYzuYiQsrERIS/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVEhgSEhIYEhgSGBgYGBIYGBISGBgYGBgZHBgYGhgcIS4lHB4rHxgYJzgmLDAxNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzokJCs0NDQ2NjQ0NDQ0NDQ1NDE0NDQ0NDQ0NDUxNzQ0NDQ0NDQ0NDQ0NDExNDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAgEFAwQGBwj/xABCEAACAQIEAwUFBQUHAwUAAAABAgADEQQSITEFQVEGImFxgRMykaGxI0JSYsEHFJLR8DNygqKywuEkQ3MVNGPS8f/EABsBAQADAQEBAQAAAAAAAAAAAAABAgQDBQYH/8QAKxEAAgIBAwMDBAEFAAAAAAAAAAECEQMEEiExQVEFE2EiMnGB0RQVQlKh/9oADAMBAAIRAxEAPwD0iEJNp0IFkwhAAyBC8iATCRCATeEiQYAEyLyYskDRa1dEXNUcIo+8xCj4mcV2z7cjCv7CgFer95m1VL7CwOrTzTivHMRiWzVqrVOi6KoHgBpIciaPZMX2wwSNkOIUn8t3HxGk2sBxqhWF6dVWvyBF/h/W4nz+HudwTNrDO6NmVypWx0Nj/wAyNxNH0OjAjSE8s7O9sHSoq1WujkBrn3TtmHwE9LwmLSouem4ddrjUSydkUbMJEIICEIQCGkERiJBEAQwgYSQxTEaMYrQBbwhaEAsRJkSZUESYSIAWkSYQCAZMIQBTAyTIIgBOZ7bcfGEwxyMBVqXWmNDb8TkdAPmROlM8R/aViWfiNRWOlMIijXRcgc+t3MN0iUcvUql2LEkljcsdSSdyWMgJpufr9YmXq1unOZVUnS9r7cxKFqNaup5+YuLH10ie2a411E6DhXA6mIbW2VfvW+UvqnZCnu2bTxnN5YxdHWOGUlaOF/eDbXznpv7Pu0KsopZGJXQnUjbW3id9JxXaDgPsbMmqHruDLX9lddlx/s79yojXXSxZNVPnv8Z0hJPlHOUXF0z21GuLjnCCiE6HMIQhACQZMDAEMgxiIskCmI0dojQBYSYQCwkwhKgIQhACBkQgBCEIAGLGiwCDPCO3IY8SxGYffFvLItvkJ7xPHf2kIh4iGU3DhEe3J0NmX+Er85E3SLRVlJgeACqqsHKjX4+EtuH9k7sPaVAVU7KCCfPpN7GpUARKKqoA1YkAKOgjYfiGJokZqSVAbXYOp+Myycn0ZsjGK6o6jBYFEQBFsB5SMXbKdLTZw2KRqYc3F1vl0PpOcxXHnqMadPDNpfvl6ajz1nFRbNDnFI0O0KXoPzAlN+z2mf8A1SkVFgoe/lkN5dYZ6jM1OtT7rA690jyNj8/CP+y/DJ+91Xza01KIp3NySbHwVR8Zqw8cGLPy7PUYSRCaDMRCTCARCEkwRYpimMYpgkQxWjmI0kCwkwggsIQEJUkBCAgYASIQgBIkyIAEQkxTAAzzTtNQzVKqsBo7VD4AMMpHjPS5xnabhrtUqsiE5kZr67ZLML7W0J9Os45lwq8mjA1bT8FRjuHmqMqkg+F/nMdDhPs2qOUBNRRpYgJY3OUA638bgbbS84BXQpnY27oJPpMfEuKUrWV1y/eIKlj5AmZbkro2JRaTZpYMOMO6i2pOnTwBle3CPaZLrlyOWuBfNt3SCbW03FjvrLfDYyiaR+0A1/L4bm9ptYLiNMLYuGW97nKD4nfaRFyRaSi1TKnCcOanfNs5JC6WW/IdB4Tc7JYUI9IKoBBZjYanOjd4yy4piKZp5kOy3k9m8IVqBiCCqC/wVVFuVu9850hbkvycp0ov8HTCNJkTcecLCNFgBAyJJgqKYpEYyDBYQxGjtEaSBYQtCAWMICF5UBIkyIAXhC0IASDJkGAQTC8m0i0kBEdLqVP3gR8RaPCGgeQ06pFKrhmJDrmQ8iGQ2187fOZMJwWmMhYqVdV7zgmzHe9mGn8jI/aTh/Y4z21OwFRELgcnFwCR4qF/ozHwnHo6IpYLbe+o0mWUdt0bMck6s6xOytGwObDlbXtdxY+V/H5SgxvAkzlVyBFGZ3TOOROVATvfnt+ljTV84C4pchG1jcAevSa3GMaiU2s4NwQLbdPjK/g6vbTs08A5C0sOWLNUKICdfffQegI+BnqYA5CeUfs7pe2xvtWF0oI5S+ozmy39Ax+PhPVpoxxpGPJJtjiTIkXnQ5AZEJEAIQgYArRTJMgwBWitGMVjJAmaEi0IoFlCLeTKgmTFkwAvCQZEAkSLwvCABMJp8Q4jSoLmrVFpjkDqx8lGp9JzlXt9hwbJTqP0NkUH4m8ki0ddNfH4paVJ6r+7TUsfHoB4k2HrOEx/bLFOhWjh/ZXP9prUa3K11AB8dZyvEKtf2jCtWepcI1md2XXX3Sbbj5Su+N1fJMlNQctrpd64NrF567u1UXNVi58b6WHloB6Skq8Hqoc1M+kvUq2QN+A3P93Y/LX0l8lBXUHfTQjpOOZuMvhnXR1lx13RxIGM0PsyQARcMOfrMKYGvVYCpdVGpF/qes79MBuAbA76SV4cq62v9Jy901LD8lXwbFjCVEZR3V0ZR95PveZ1v5gT0+lUV1DoQysAVYagg7EGeTY5w1Z1H/bTXzc7fBfnIwHabE4ZVSmwdA39k65hZjrYizDU8jbXaa8a+hNnmZcyjmcfweuQnO8K7YYaqqrUqLQq+61J8y2YdHItY7jXnL9KqsLqwYdQQ30li9jQk3kGCSLwkyLQBWkSWimSBSYhMdhMZgC3hCEkg37yQYsm8oSNeTeKIXkAmBkXkEyQBnnvaztm+c0cI+VV0esLEseaoeQ/NueXjcdv+LmjhxSpmz17i43CD37edwPUzzOkwGhElI4Zcm3hEviWdszkszWuxJYnrqZ0WAwa01swBZT3nt8beEokpi4a17EG3XXUes6jD1FZM4NwQD6bH6TJq5SSSXQ9j0GGOcpSkraqvgyFQb2B2/nKDiyfaA/iQD1Vj/8AYS/LEEi97AazR4ph8yKQLlGOnUETLhlU02e36jheXSyjHr1X6K3Bnu2lxwGuQppNrkPd8uko6SkagGxNr2Ot+nWZquKqU7vTplst8xuFFlIvpz38J6GbZKNN8nyOixZ4Tc1F7e/8nZID0sRDFd1CzaBQSfICU/Bu0aVRmIylTYjcgdZh7S8fUpkpsDmIA5313NuUxbJbqPVeaOzdZQ4VyVeo3vVXJPgNlHoAIjpcGC4op9mUNgAdjpfS99t42bwIv1nppw20mfOSx51l3OL5d9CyODpvlqPTUlwMx8QMp19BNapwXLdqblSAbcjp+YS0pr3Cttu8AOhGsyg3TbVgNfE6GeQs04vhn3uXQYM0fqir8rhlFS7SY6gwT273UKxVytUAHUA5r7jxne9ku1S4pfZ1MqVlucouFdfxJcnUcxfxnmfErGtUN/vEei90fICayVSrB6bFGQgqw0KkbEGetC3FN9T4nJkUMrjG2k2lZ75eTeUXZLjoxeHDtYVKfdqKOvJwOjDXzuOUu4O6aatA0W8kyDJLCmI0czG0lASEWEAsAYRAY95QDAyYoMIAQhCSgeV9vsVnxjIDpSVUHnbM3za3pKCiLjKdx/XrHx2Jz4io975qjm/m5t6WtM1KnrvqNuXpeWSPPyy5Joi6+K6efSXvB1+yOlxdlPhoD/uJ9ZRoMj6+62l9reB/rr4To+zWIVQzEEqtdSwtuAi3t/DM+qjcP2ej6NNw1FrwzLSBtdgVzKrC4sbFRqL8r3mN6ehAPiPMazraPEaZQBHDEoGBcMisw0INrkAg3sOYi4jiNAnRF0YKcqISwGYsVzDY2UXP4pgeKPk+mWtn02M5mphDlBVlYDQhWBK32uOl+c1Wo+9p+bzBFmH1l7iq6BlyKoVQMwVQtw3vBtz7pA30IlYRZxruSvx1H0Mo1T4O+PI5RqS6nn64dzV9kl8xGU9CoPytY/OW68LHdA+0bMt2uFQaXAta7ADxF/CWXDuH3qVSN3cqD0QWza+LX+EtFoAHb3dQR5TRlzvpE8zRenw27svPPC7FZSwoFR2Y3JCD/MxMu8HwtqiBkphrXF7qNfImaWXvN/gH+ozdpYJ3QGnnOUoWVCQSgcq4AGpJDofDIZwxxc5UzdrtStNh3xV8mTEcLqoMzqAANTmU6EgbA33Imng6N1S+9zceTToMdw1EpkoGJLKO9UqOQMwzd1tBpp5EEWnOYevlYr41vkb/AO6JY9rKaXWPNjk5cNeDiayXJb8RJ+JvB6YC7TMq6DXQf19R8hM1Sn3bn/me1FHwmSbcjf7CY80caiX7lcFG89Sh88wt/iM9bng+HrFKqON6bq38LA/pPeJVm3TyuNBIMmKYNApMxsZkaYmkoCXhCEA3JN4gjSgGjiYwY4gEmQT1hNfiNcJRqVG92mjsfJVJI+UlA8IRhm01FzlOxI5Hzm9Rq2FjqvUXNvTcf1tK1E+6T69Jt0nI0bfruD08/TXzlkedPk3jWDDU5gdzvtsQeo6/0bLs++WlUubg1gBboaY/nKV8vJWDEctQR1Dc/Wb2AYjDuBe5qj45ABOOdXGjZ6bLbmv4Z03DnvTTqpZD6EWmeroZU8FxYZip0z2byYaMPDaXNfKdje0wOB9HHUWjDbcdZgxJNrjpmt4oQfpebKoSRaYqiWYedvirCRsLf1A/Ck+zFgc1QFr6aAsT+shiQcp31mThy5aSXvoALBjp6fpIxCd9T1JHyMOBMc9KjTKnUnqpNtNjLnC50Iam7FVJK5G0a5Ng4sTpc/rK9U0Yf1pGoBhqCV8QSJEVKLuJx1FZo7ZdDexTVK1y2ZQSrGmrBkZkIyEkoCNhoDy5TncQ2SqveuGXEG+97AC/+WXOMxDOArOzlzY6hRbn3VsD6jnOWxle+LyjanTqD1yi/wA2nS5SlcjhihHBF7e5V8PdbqW1uRlTrtv6WE71MKjO16KIqsQmZAl+4c1iTd/MgDwO88uw9SxBPeIt11bwA5A8pZsjt3n9AdT/ACE9LqfNNKL5OjxOFV1+2RmOi0s5pI7ZhZ/csGVRZr76Gei4Omy00V2zsqKGc2uzBQCx8zPDq6sNbWsbgg/Preey9n8Z7bCUahcOzU0zsLe+FAcEcjmBhnfA07LKI0a8UwahWMxNMrzA8lAiEi8JYG0DMkQSRORI4kxRGBggYSi7a4nJga3/AMihB/jIB+V5eznO2+FL0UH3FqhnX8QyOFHlmI+EN0rG1y+ldzyWkgJ1m0UWwBv4aidxgaSBRZFFuVhN1sPTb3qaN5qp/ScFq14Il6XJ8qX/AA87dbC2a4PXQ+dxz8ZscIrWUj8NVD/lXXSdVxDgmHcXCezPVDb5bTiAwpVno5sxvpYG5IAtYDnrLPLGa4IhpsmCVvn8HftxLLilw9SnfPqHa7HUNcWdHYbcgD4CdE9FKNM1GpZlXW5RibE/ibDjrzInMVmrMVOGCBCMz03z0tTlJComUH729/SWWCxSCi5KI7UszMhWgHFzmsR7N8u+l22tK/S+h3bmlbVFjhOI4diAKQTPpmK0rXO3upeTU4P9uGCHJmDFcr2vrpbJtfXaUa8TGJQU6NH2b5129k3UHRKSt4+m06TE4MtT9mo7+UahGuNwG0w4OtjzHnG0j3H2NIUabOgUIEysTbIoOwH315nqvlJfhqtiAoBK5M9lLHW9t1z8/OPwq6IS5ZDTUrqxUizvfT2iHkPhLBaiMM5YN3dTdG7u+t3eTtQWVruUmI4W/tvZ01IBXMCRUaw5k9wG1x+HmJlxGCoJ3alUo1tiVQnyDgS29iPeFMG4/Ap8tBhzPOsNiPaYxVbU5mJWx3UM1rKj6abZT6SuxFvel5LutgQhJaqKeYstO3sXY30BsXHetyF5xOHpOaz0x3nZig8WLHMT0FlEjtBxZ2xLBiTkfKqXJtlNiACF3t0X0l5wbhzOWqVDY1O87m/dHS7E/U7SJKMUXhKU3RTcM7L1HxTYemwdads1cjKo0BbztflLh+zFqjo1UdxrXUXvoCDrtvOk4ciqcyjLSS7XbTOebE9L667zQqYrPVdwModrgbaAAX9bX9ZDzyS4C0GKUrkr/ZV4nsumX+0e/wDhl12GDUc+Fc5gx9ojegDqRyPunx16QWpcWk8HqZcSn5iV+IMY8snJJuy2TS44RuKpnWwMDFmwyCsZiczIxmJjLIEQkQgG4sYREMySgARhFBjiASJTdqj/ANP5uv0MurSi7Wt9gvi4/wBLSk/tZ0x/cjn8MbCbBrWmrR2EzmjpPOo9VcIxVMUDfWUvA8OoericwLVHdcqgEhVaw166CW9fAhuqnqJqUMO9EIiqCiaEjVyDzPXnLrpwUad2y/CE0wrINBoRa9vPrKxs9OoKi7jkdm/K38+Uu1ZHUeze48LyHwgYW1Pn/PlCbTtESSkqZSUO1ozsj4UKxUkqWp7jxNI3HjIocV+1SplVw3vJamNCulroVGw1C8vGZMbwa+m+oIve4Ivbz3Pxm1xPiNSqqo9FGNFgQ6JkIAFstw9rEcvKaY5o1yedk0s7+l2icTx9WzU1RqZqIbWKFdGAa+QJrY/hPnyj1uNr+7GnnYvkCWtUtyB7xqEbflHkJWvWLYv95OGUrcn2N1VbELdb+ag7TLhHpiuz1qGam2YiirkFbm6jMLbbS3uQ8nL2M3g3a3aGmmHUmzuoUMmUa8j3ipHj6WnO8Q4pggzV6a5qgBZQUdVLWtqAQo/hm/xanhXq03Sg601J9rRZyc4t3crA5lN99ZU8W4fRqOhp4YUUQMGp53qF2JFizNqAADp4yHkhXUtHBlbpoXhmGXGVWxjKKSEDXvAhV0JN2I15eU6Gm6vZQpCC2VPvPbYnoPOVlPOVCKBTVbWUCw020mRsCzalm131MzSluZ6MMe2NItqnGEo3aoFqP7qUV7wXxPpuT6ePM08UxNgp89vlLJOEgcpsJg1B2kWjptZr0XNtZtcPP29M/nH8pm9gtuk1aL2qIdrOn+oS0PuRTIvpZ3BiNHMRhPQPMMZiMdIzTGxkgTPCEIBuiMsgGTKkjiMDFkiCBwZRdrx/04P4XW/qGH6y7mnxfDe0oPT5lSV/vDVfmBKzVxaLwdSTOR4Uue/5ZvutpSYDFZNRzm+2M5kzz0j1E7MrPFaoLTX/AH9fC3WZRVRtiPlBJhzFWzp3WG/4W8x+su+H8dpN3XOR+an6jqJVFB1ivQU+8A3gQDBElZ0lXH0gL5l9bSuXiaC4CaHmLWlDieHZ9mdfJ3H66SvPC66a06r/AN171AfU6/OOCKaOpDoxNhbyjAJzuPOcxTx2JT+0w5YfiQ3+R1m7Q7RIdCCp/C4K/OKJTLh1SJlp9ZrpxKk3vLbxFmEyhKLjukX8DY/CKFmcInIiFrbTVfDoPvMCOYmlVFvcqG/Ro4JLfLeQVnO1Mc6e8D5g3mFeMfm+MlIq5HUvS0lUBesijm6gfxCatHiLvoraS47N4TPVNVvdp6Dxcjf0H1E6Rjckkcsk6i2dXeIxjCI03o84RpjeO0xtAEvCRaEAsAJKiQI0qBpIiiSDAGgICEA5jiHZZmdjSdUViTkZScpO9iNx4cpQcV7MYmlTeoKqVEpqzsO+jZVFzYWIOg6z0aYcSgam6kXDKwI8CCDKPHHwdPdlXU8Rp8TUmxqWMscPVDbVG9Jy9GmufKw0f6zOmD1yksBysTOTw30KrW7fuR16Fx/3Piv/ADNmkz/jB+N5xPs6iGyVWHgf+JsnFYgW+0z3FwO8LjmBruOko8MjrHXYmdzTzi2Z1X1m5SqsdF/i/kJwdDG1dwUXxYPb4/zljRrYvqluouwlfZkWl6lgj9zo7RUbm/yjhEt3spB3BCzia1XGfjUDwQ3+s1HSuRmqu9uuqgeYFtI9l3zwV/uOOabgm68I6nH8MwtyUqCk+9lbT4cpy2Px3sTYVUq+R7w87TBWwbMLlly9Ra/wM1BhaY0Fj18es7LB5Zlfqa7RNrDcfdzlRXB5WOnwjrxGu7+zym5Nu8B8dJn7P0B7bba/wsZf18MqvTYAA3bpqMp+n6zlNRjLb8Wejp3LNp/dvnclXlcFV2aw373XehUdqeVWYFNblWAI1852+H7HYRRZqbVDzZ3e59FIA+E5Xslh2XiIC/cFQueqEW+bFJ6VNMYxS4Ri92bbvjllIOy+GBuivT8Fd7fBiZa4bDpTQIi5QOW/mSTuZmvAy6il0Qcm1TYsVo0Qy6KoRpiaZHMxtIJEhCEsCwEYRBGE5geEIQCYXkQtAJkQheAeS9uuzCYZxWpuWWu7WpEWKGxY5XB1UcgR6zmUrWHdJuP8Q9QdR9J6R+1DEp7CnR0Ls+cdVVVdS1+VywHjY9J5kunvre33hoRBnyJWbSYlKnda1Nhpr7p9eUyP3e66sBoQw3U9RNI4ZW1RrnxOv/5MtGvWQZWXOvQ628jyizi8f+paYOsGPe73LOvdbX8SneW9GhbvUGysPuEEBvMcj4iVXDcfQFhURl0OhW4B8xLRK63BptTcDkHKH+Fr/pIk6VmF4pZM6x01bS56G3RbObPmo1hyubH+7yYeUzjC4nlkqD8LG1/W0xLj0YZaiMv97K1vEFT5ajqIzcURO61QOvJrjMvgevnPLk5ylb5P0TBiwabGoY6SRpijhzUyVKZoOfun3T5HYzX4nwlEs1MbkXA2IJ3EfH8XouuRhnHgpJHiPGaQ4kiBUDOyC12dSLDdrenKdMfuJp0zNq/6LLBxbV/FXZY4XDZMULCwe5HTYzZ4lWHtlF9KSMx8zoPoZU43tMhZfY0yxXNdz3RqLaSx7E8RpnFN+85S9TIKRI7qsC3dHibixPPpfXqscptSfHFGGObDp1LHF2t1qvFfydf2a4X7PPXZcr1yu+hCKoyi3K5LH1EvIXhNcY7YpGHJLfJyqrbYQMLyCZYoKYpk3ikyQI0xPMrTC8AWEiEAsxJhCVA0IQgAJMIQCIQhAPL/ANoP/vD/AONPrOVb3V/rpCEGafUrx75lrR90en1EISCrDF7nzP0muu59PrCEPoR/kjZPuL6/Wax5ekITlE2y7m5S/wBq/rNDie/r+kITsY19wtLl/XObeC9+l/5E/wBawhCLdz3MwhCSaexBimEJIFkNCEkCNMLQhIAkIQgqf//Z</t>
         </is>
       </c>
     </row>
@@ -1385,25 +1393,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tymal Mills</t>
+          <t>Jaker Ali</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023_T20_380</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1418,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1442,67 +1450,67 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Wicketkeeper</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgSEhIYGBgYGBgYGBgYGhgZGBgYGBgaGRgaGBkcIS4lHB4rHxgYJjgnKy8xNzU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJCs2NDQxMTQ0NDQ1NDQ0NDQ0NDQ2NjQ0NDQ0NDQ0NDQ0NDQ2NDQ0NDQ0NDQ0ND00NDQ0NP/AABEIANcA6wMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQIEBQMGB//EADoQAAIBAgQEAwYEBQQDAQAAAAECAAMRBBIhMQVBUWEicYEykaGx0fAGE0LBUmKS4fEUI3KCFrLCFf/EABoBAQADAQEBAAAAAAAAAAAAAAABAgQDBQb/xAApEQACAgICAgECBgMAAAAAAAAAAQIRAyESMQRBBVFhEzJxgaHBIlKR/9oADAMBAAIRAxEAPwCEcQjljkEICEAIRwgBC0IQAjEIQBxQhAHFHHaSCMI7QtAFC0cJAC0IQgBCEJICEISAKKOEAUIQkgUI4QBCEQjkAI4QgBCEcAUI4QAhCJ3CgsxAAFyTsIAwJSxfE6aaE5mH6V1t5nYTMx3FGe607qvXZm9eQ7f4lBKU4zzKPRohgctsv1uOVDoiqo8sze86fCU3xdZt6j+ht8BaWaOGHMS5/pBbaZ3nbO6wJGSmLqrqKj/1E/Ay9h+NOPbAYf0n3jT4Sb4MdJXfDDlCzNEvAn6NvCcQSpops38LaH05H0lqeTelbWaeB4sRZamo5PuR/wAuvnv5zRDMpdmaeFx2jZhAG+oNwdQRsR2jnc4BFHCAKEIQBQhCAKEIQBQjhAFHEJKQBQjtCAEIQgBCEJIC08/xbF53/LU+BD/Uw0J8hsPWa/Eq+SmzDe1l82Nr+mp9J5uimk4ZpcVSNGCHJ2wp05do0YqVPWaWGo3mJs3xRCjTMtLR0l+hhdNBOxw/lKFtGO9EyrUodp6JsOJXqYUdPhvBJ5t6XaVnpTdxOFtraU2p6S6ZRpHPg+KKN+Ux8LHw9m3t5H526zdnl8QltRodxbkRtPS0amdVcfqAPvE3YZ8lTPPzx4ytE4QhOxwFCOKAERhCAKEIQAhCEABHIyQgBCOEAIo4SAEIRwDG/ElTwovVi39It/8AUzKLbCXPxM3jpj+Vj7yPpM6l1mTP2bMHRqU+U08E/aYdOsARmO/vno8DTWwuQL8ybTPxZp5I1KFQWE7k9vvnI06KaWYH1B+9ZYamBsY4slNHFtpWepLzUQRK70UGpI9Y4styXszMW1xM6oomjxE01FzUUDzFz8ZiPiVb2Gvbl26yeMinKP1KuLW01uDtekvYsPcx+sxsS95p/h9vAw6Ofio+k04OzL5HRpwjvFNRkCEIQCJhHFAFCEIAo4oQBxxRyAEcUcAIQhJACc8RXVFzN5ADcntOglDi1HOEXW1zt/1/YGUk+MWy8I8pJMyOP4gOyMtxZOYsdWPoeW3WUkNheafGsIEwwZSbjXKdQNNbHe2m0pYRL79JklK1bNqjxdI40MB+a4ZmYX32FhytNH/x1R4hiCthsSPrKuJRycqWXqx2/vJVOAVWUFKg1Rlcu2gJNw6AGynl/mWi790VlGvVmjgaLUzdKha3Q5h7uU9JgOIF1tz+9p5c4VQyFCAcoD5HJBbdilx4RrbJcjQec1uFNZ/CfD3nOb+50hE18diWVdJ5fiFN3N3qZRy2FvvSek4lUva+3O081juH3LZnK5lIRrkFSRoxYDQX5Ai/WRB7JnGyWD4FSIOeuXJFgLhVHkvM9zecMXw5KZ8BPY6m3UDtHhOCVPEWxKAEHKULKLnILsCxDABD4SN3YzphKVQHKzKyjZluo9FN7ehnSTa92coxv1Rn1PZPvljheKZEawXLoxZr5QbajTc27x8Tp2v3uPhLnBchw+QEMyrY+g8XqdbmRGVK0XcE3TL2ErB1zi3pt6e+d5V4ZSyU1X+Vflp8LS1NcHcU2YckVGTSAwhCXKCigYQBQhFACEIrQCQjijkABHFeMSQOEBCAE54j2T2BPw1+F50hKyVqiYunZR4nglenUIa5CeAcgWFgdPP4Tz3DXzWPlN9LXdDckAWPS3LuDp755nhNTxMu1mYW6WJExVpr6Ho8tp/U9JhsOCbEbzQXhNPcqP2v5Srg6k0xV5k/Z1nNHQo4+mqL4RY7AyvgWNxl5SXEGzsqA6akn78534UaauA72BsL/O0mrFpHfFM1rkaS1gyrpqLjYH6zviDSCtc+XX19JkUKyoQUqAqxsQCCRfbTlHFi1ZorgkBvkW/W1pyxVEAfIy7RxCnQmV8cba3kEtHmeNC1ifOcOE08jnLfKE8R5E5dQD53kfxDV8Jt0M0MGAxVVHhVff1J++c6RV0jk5VbNGktlA7D5SUZim5KlR5zduwijikkBEYGKAEUDCAEIRQCUIQgDEYkZIQBwgIQAhGYoBxqUzfMoBvuCbbcwZ4utSNLEuh3LZtNvFrp1G/unup438XYbJVWoNnW1uhXbXv+04ygtteztHJLSfo2eH1STLOIqF2yKdB7R+QHWef4VjPHlJ1FvlHjsc6BUHPMzHzmTi+VG1SSjZq44qVsWIFtxuOsyAlNLBBY29sXHS2YXsd5HD1gQGaouvLpcjWamGXDi5ZwQRrawtrpzPU+4S6XEq3y6Kj4lz4Kt2GnhF7G+0vcMWioypdbakHQXOug0tEi4a9zUZtLAEroOgPOU8f+UATdgNSGsLbge0NOdvWWe9Da2z0X+qRiAHseR1t69osRiyUYNoVNj56f2nj1FyKlMsV2vawY9LnfzmrxKqwTK3tFEDa87a/tObjTLc7TKOOf8yyDmyrrtcm3Oerw9DJuQTtoLAek8lgEvWpoTpe5BvfQm37T2hmrFFJWY8s3dChCE7HAIo4oAjFGYjAFEY4jACRkpGAdIQMIApIRRiASEICEAZihAwAmV+JMJ+Zh36oM4018OpsfKasi63Ur1BHvFpD6C7PmuHrkeyNRv9Z6JHVwmouNz1GhAHxnm8dQKEMPZbftedMFiMpG5vbQbTNKNq0a4yp0z0NXh6LUFZEFwQWX9JO97d56rhXGaKlS2EW4z2Iy38e41Hlznm1bMLjt/iOnVdL5EfyG3ec1K9M78Y+0e1fjdFQv5eGBKuWF/DY62I8O/iJnm+KVTiCFdVVBbwAaWBuL9dflKVLHOxtle1xcDQa7ctZeQHpbrfcnvJcqJSiukccWihV8IGUgqvKw5W++c8/jsVndmGmp36chNLi+NIuulx2OxHnPMA52y99ennJhG9s5Tlukel/DGHDu9W97eEAg+uv16T05nHB0FRERRYBR77a/G87Ga4qkYpO2RgYQkkBCEIAjEYzEYAojGYjAImKMxQDpCEIASQijEAYjijgBGYoQAkllbHYxKKGpUayj1JJ2AHMzzn/l7MbUKGg3ZzoPML8rxWrYSbeiuKAdMp5iYT0DTexueluvKeowY8IjxuBVxtrv9ZiU+L+xucLRQ4VxIeyR6H73m9gsQo52F7a9fsTx+Jwbo2ZMxOlwd9O/pIpxSoPCwOl7XB0vvLSgpbREcjjpnvKWKUDUqDc62BFgfKccXj1CljYjYG9rd54z/wDSc3sDzOxO5nRaNWoBfwr3189PrI/CXsn8V+jpi6zVnyL/ANjy7Xt5y7RwiollGttTzJ7zpg8AqAKvqTzMu/l2Ehy9IKPtm/Rro4GR1Og0DAnba0kZ834jwsNmdNGF2I5Hr5Gem4b+IFCItUNfKPGPED0uN77dZuxReSLcd0Ysi4Pfs9BCRRwwDKQQdiNozDVFQhCKQSERMIjAHFCRgAYoGEA6QhCAEYhGIAxHETYXJsBuToBMrFcdpr4afjPbRB5sd/SWjjlN1FFZSUezXEyuIcdp07qpzvrovsg/zN+wmFi+I1KlwWsD+lfCv1PqZQ/LtN+LwX3I4Sz+kS4njalc5ajaaWAACi7C9u8u1sIqKEUWHaUBTuRNbB1A9wT4l+IHOZfkcEopSitLRq8PLFtp9nXDLpaW1nNaRnan0M8Zs9JFWvS11FpH/QIxufv3TWbDi1/8RJRHQHytJUiHEyDw5QdAPSWEwxOwsJrrSAGlhO1HDi8OTI4mYuGtJPS0mo9HoJF8PpcytlmeaxdDKjtbZSfeJlClYWPJQPhNvjWJQ/7aa6jNbtrlHXW1/KZdQchz0+s+m+K8eUMbnNVdV+h4vnZlKSjH0Rw7smqMV8iRfz6zQocYqL7VnHfwn3j6SisllE9Kfjwl2jCssovTPQYbitN9Cch6N+x2MvTyBUTvhcY9PRTdf4W1Hp0nnZvj63B/szTDyv8AY9MYSlheIo+l8rdDz8jsZbvPNnCUHUlRqjJSVpgYoyYpUsBigYoB2hCVMZxBKQ8ba8lGrH05esmMXJ0iG0uy5MzHcZRPCnjfoD4Qe7fSZePxlaoubIyUybCwNm8257HbSUUpTfg8Jy3IzZPIroljMZUqn/cYkckGij05+t5zWn6DpO+QSJHWepDDGCpGSWRyIjtIsmmp9eUecDf0H3ylWtVJ39B0kykkTGLZMuNgfXnJodiDYjYiUwTO1Nus56lprR0praN/A8VUeGqh/wCS6/CWXrUyQyVAfO4+cwqbHsZK38pHlMmT4nDkdxtfp0d4eflhp7PXYVM63H1Hwkmwuu88mhZdQSp6i4+MtJxWuu1Qnzs3/teYp/BzX5JL9zVH5OL/ADL/AIemGG13l3D0e3vnj243iNhUt5Kv0letiKr+3Udh0JNvcdJWPwmVv/JpfyWl8njXSZ6/E4+jTuXqAkcl1P8Ab1nneJ8der4Ka5F2vzI7n9h75klPX4yL38vn/aej4/xeLC+Utv7mLL52TJpaRIsF7sfv0E5GrY67nfsOki1+Xv5mQFM9J6Db6SMtL2d6dVdibfL+0t1KTKbMpBtfUbjqOo7ygtGWkUqLA6b25dL2loqXspJR9AZbw+Ad/wBOUfxNoPTmZ24NiED+MDXQE/pPy168p6VgPWH9ij0YVTgaFRlc5uZIuD6cpcoUGRQCxaw5m/uO9vOX8ohlnHJhhNVJCOSUXaZTzR3nZkBlfEKUGaxZedvaHe3MeU8rP4Mobjtfyb8XlRlqWmO8V5BHDC6m46iO8wPXZruzEx3HGY5aXhH8X6j5fw/PynLhLUlZnroznTKuhBa+pcn067zPpJLKz38PjwjGkjzcmRs0uJ8UatYFQqLqEBvrtcnmbSiISQE1xilpGdsV+0r4jEAeEC5+Xn9J0qvyGn385Rqmxyjcn1MrN0tHTHFeyF2JPWd0w3MyzgsJzbzM7VGAlY49XImeTdRK60B0kxhhLGBwrVGyggaFmZvZRVBLMx6AD9hqQDeOEp2BLuiNoj1DlDkWzEIlNyo1B8TDQjWcsvk48T4vb+iChOW0zKWkOUs0xb7B+cWIomm7U23Q2O1jcXBBGhBGu85kzRjnGcVKPTOck4un2diy8wPv1kCy/wAPx/tIDTUxAX1M6WUOquv8Px/tItX10Ueov85BzOZhslIb1C2l/wBvlIflyaiEr92WsCkVu03G4eis9IKrNTUtVqOzBEK2zKioQbKTbM17nQWuoNHG4ZVUVKbhkLZGtmGRyLqpDAEAi9jrsdbzHDz8UpJJOn79HZ4ZJGa4jo1NbGel/CLJ+Y4e2YqMmbz8QF/1Wt7jKP4s4YKNXMlgrguFH6TexFul9vXpNDyVPic1TVMzymzKBprysfSbnDeJg+CrZTya5ykdCSdD3J1nnsPXto2064gi2YXI59vOdGk1ZWndM9GeKUgbZie4B+cuJXVhmRgw7fuOU8Zh6wOgPa/MdAfrNPhTkVVUfquD5WJ/aRSatESjTo9CBDKeU81jGdajFj4w3y1Fu1rT0lXFoiqxPtEWA31tc+QvIkqK0ZmJwwV81N1VmPsMbK5526HvOqlebBTzDWBB7yjx1CtUXYsBZgDpbXUacvDNnC8Zw+UZrg63uO5mPN40MlNo7480oqrPDI9rTudxFxPBim35ZcMwHiyggKeQudSfQbxYOpmFm3XQ/sZohO3xJlHXJFhDOuUnQe/p1MS6XPX6an3RlrDbUj3dBO90jiVcTQC8z5zngsPmOY7cp0VfzG10Vdz1MtqQBpsJzUVJ2+i0pOMa9k6lVQtpnM+Y7Qr1LmwnbDUgBcyzdukQlxVvs0eFqGWpRzBWqU8iEnKudalOoELHRc4Qrc82E2Mfw1WdVy1nWmiotFaVRGawu7VKjqFQM5dmcZt/IzzJa+nKdWxDlchqOUGyFmKj/qTaeb5HgzyZvxISr6nfHnUY00d+KuGqs91LG2dk9jMCdE/kVSqD/jKgXrGok1Sb8OJYoKC9HCcnKTbORF45NlkGadShCRjLSSiCwoW727yeSBEVeiLPS061GslTXK9Z0eoivTpvnQNcIalldGY59DmBAFiBeUOIqi0vyyqIA2ZaYqJWqNU0BqVnTwqFUEKlhq1+5yIWnmx+LUZ6k6u6NL8ltdb+pFp2xNdqli7liFCgnUhRewv6mcgpJAGp+c2sNwgZf9y4Y9D7P7E9Z6Tq9ma6POhdxJ025Xl3iHD2pHNuu2YculxylNl5/KEXuzm6hWzcjoRysec1uDG9QKdwGI7+E2JmXWXS99NvQztgcWUs49pTl15hgV19/wAJTptEv/KJu8eRSUcEZjoRzItcHt09ZkpVLAMTctc+nIDoNpyWsSxLG5Ia57jX948KPCPICWjrRRqkTxNdmY5zcgKPhp85XkWqaserG3poPlC0hbJaotUOFfmKWLeNqtlZiTfQFs3mTv2mu/4du1KkhtZTnbtdSWtz12HeOEyvXRPNsr/iXBJQcCmTZgTkP6dbe1z192XneYiAsQBuRb3bmEJ0g20rJR2pKb5QAAJzrNfQRwnZ9FF2QpLczvUOlrQhEehLs5BZIDvCEkHdUnQjoIQklTg1+ciYQgABHCEAJKEJYCMVoQgG9wWlTK50XxDQk7g/ynkDNFl5xQnF9kMtUKNN6b52IIHhGW4bcny0B36zzWL4TY+AgA8jtr06RwnODfJ7LPpGOV5bgznSFnt1FvXkfeI4TvI6RHfQH+Vr+eWWMO2VAegLe4RQkL+hL+yhS1A+/OTrnxH0+UISnos+z//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTExMVFhUWGB0bFRYYFRUVGBkYFhYXGBgYFxcdHiggGBolGxgXITEiJSktLi4uGB8zODMtNygtLisBCgoKDg0OGhAQGi0lICUtLS0rLS8tLS0tNS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQMEBQYCBwj/xABEEAABAwEEBgYIBQQABAcAAAABAAIRAwQSITEFBkFRYXETIoGRodEHFDJTkrHB8CNCUnLhM2KC8TRDc7IWF4OzwtLi/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAECAwQFBgf/xAA6EQACAQIDBQUFBwIHAAAAAAAAAQIDEQQhMQUSQVFhcYGRwfATIqGx0RQVMjRC4fEGMyM1UnJzkrL/2gAMAwEAAhEDEQA/APYPU6fu2fA3yS+p0/ds+BvknkLGSM+p0/ds+Bvkl9Up+7Z8DfJPIUgZ9Up+7Z8DfJHqlP3bPgb5J5CAZ9Up+7Z8DfJHqlP3bPgb5J5CAZ9Up+7Z8DfJHqlP3bPgb5J4led69ekVlAGjZHB9UyHVBi2nyORd4DwUN2CVzWaV0lYbMJrvoM4ENvfCBePcvONOek4CrFms1F1IH2ns6zwM8B7IXm9S/VcXF15xMumZJ2mdp5pynZcCRs2fe1Uu2X3bGzt/pLr1DFKz0aWGQaHmd8keEd6i/wDmLaywACgCM3dAwvPf1cOSzNpphsE9YETOThvnY5vEcEyKcGZvA4ztg7eP+woCse4ala3WS2MZTqCky0xBYWNaHkbWGIxzu55rX+qU/ds+BvkvmhrbsQYcD1SMMW4gjcRgvf8AUjTJtdkY9xmo3qVOLm/m7RB7VZPgyJRtoXPqlP3bPgb5I9Up+7Z8DfJPIVyoz6pT92z4G+SPVKfu2fA3yTyEAx6nT92z4G+SPVKfu2fA3yT6RQBn1Sn7tnwN8kep0/ds+BvknkKAMep0/ds+Bvkk9Tp+7Z8DfJSEQgI/qdP3bPhb5Lk2On7tnwt8lJhIQgI3qdP3bPhb5IUiEKLC44hCFcAhCEAIQhACEqbqvugk7AT3CUB5z6W9PBrG2VlSCZNZoDgS2Gljb0RBxkAzgO3yenapwcBB2ZeMLvWfS77XaqtYPIa9xIGeGQGPCMFAp5bzvjDuELHa+ZZSsrDlK2tpuLYy27vA/JdVLdfIdMOGThAJ4fxlwV5oHVPpAKlWSD7IGAWlGrVAAC5Mb1inXinY2IYeclc87NVxwgxsgZE7R5c0jakRAJIMwBhjmOAyPOV6L/4Ys+fRhSaGg6LRhTCp9pi+Bf7JLizy820h4Jbl5R98gvZPQtWvUaxLmy54hgIkQMTGe1Udu0JSeCC0Kk1ftlTRluZBFxzg185FjiJPAjOeHFXhVUmYatFwV+B9AIQlWyYBEIQgBIlQgEQlQosASJUKQIkhKhVAiEqEAqEJYVgIlSoQCQlQhAIuajAQQcQRBHA5rtIgPm/XzV42O1PpCS0gOY6IlrvqDIPJV2j7A4kEj7/0vafSxosVbMyrHWpPEn+yp1SPiurz7RNmDnAbPuVinLdyMlOG8y+0E38MDdmpdWocmhdgRTu0wJ+81W2mnVZlXa07rpP+gtJ2Z0U2icyjUOaldE4AYLMUtOWprofccNjgCJ7CtRT0tUFKS0TGBjeqNW1Lqd1dIj17JUGMLM6z2HpGXxm3P6ck7bNNVatUU6ldwacLjBie3+FNo2Sk4uDHOBGD2uJmCIMjfisqW5aXkYJ++nG3xPXbI+8xh3tB7wE8oWhnTZ6JOZpMnncCmrfRzhEQlQpByhEIhQAQhIpAIQlUARCVIlgCEIQHSEJUIBIhKlwIhKkS4BKhIgMPrvptxNaxtpggUmuc4kg9Zxi6RlF0HEdyxWjaZZUukQbsx2rT+kujUoPdaqYm/Tax0iQCxxxjk4dxWepFzW0KlQglzbpdEe0A4YcwVp1ZPeaOhRhHdUl3l9SYbpujE7VRaV0DfY4PcTe/tJjfGOZ3nHcQtRoyuCPBSbXQy45LXUpRzRntF5MylekalOmwUwDTABddDS4Da4THcBGWWCtXU3GkBu2dqKtVrq3RNIF0S5xyndPJWNnp0nMIFRpzBIxEjioqTk7XLwjGOSMs7QIe9tSCYzhwY7IgzEXsCR2nerStYS6o6sQb7okkgkgZDDBT7M5gbMhzSfaaQRipNrcGgYgyplOTiQoRTLnVCtUdTeHukNfdYLoENug5jPPwV+qPVHGiTGdR0dkN+YKvF0ad9xXOVUtvuwJEqFkKAkQhRcgQpF0hCTlKhIiAqEIUgEIQgFQlSKpAIQlQAhCEAqRCFOoKvWTR/T2d7B7Q6zduI2dokdq8q0zTu0XtawiSHECSGuG/9MgHuXtKqNabGKlkrNgeyXDDa3FYqlO73uRnpVd2LjzPMtEaQLmgg47ditq+kCWAzl4LC2O0mk8tOBacQtTZLU2qwtO0Qe1ak4JPobtKpddSLTtz6rXFpZSaZAc/Fzt5hOWaz2gDq16Tt0gtAHIZq00dodlN7arSb4aWzgQQRGRkA+QU+029t+alRu3Asp7Y2Xc8FZOOhKUvT/YzQ0hWs7CHCk9ozDOqd5IG1T2W/pWNe0m7s/ld2nR1Cq8VcH3cGkwSOG4Zqs0jUugUaQALzDRMYuMDkFVpPJDecc3oemalA+p0yfzF7hydUc4HuIV4o2jbL0VKnS/QxrfhaB9FJXQSsrHLbzuCEIQgEiVIoAIQhTcCFIukhQkRCVCEAhCEuBV0kQiAISoSwBIhClAEIQpALG6+66MsTTT6PpHOEO610NDxGOBkwZhbILxvXpjLTXrA4sOAPJoErFUbSyNLHYr7PGMubt3auxSax6OLh01PEgYjOYyKrNB6eukAmN/fCsNX9JHGhVPXZ7JP5m7DzUTS+i2vJLeq7581hTVrSOz+JKpSepudG6YpPbIeAY2lVOmqlN5mRO9YK7Vpkgkjdx4jftSi3vmCd/yCKjZ3TI+0ZWkj0anpSjTpZwNymejmwG1Wp1sqAXKcik053jHXI3RPavM6LnVXBswCvftRKFFlkZ0JkH2uDto++avCCizFVr71o+svoaJCELKYQQhCkAkSpFABCEIBUJEKQCEIUAEIQgOkiVCuAQhCARKhISgBRrdb6VFt+q8MHHb2ZlZjWTXVtKWUAHv2vOQ5b/lzXm+ktIVazr9V5eeJ+Q2BV3uRysVtSnT92n7z+C+vd4mj1p1+qVCadAXKWIc78zhtP9o4KkLw6DmDjPNVJLZ3JmlXdZqoY8zQqewfdv8A0fsPgsclfM4VepPEO8n73lrZL1ft1kaW0ZfF5mD25H6FQLNbHk3XyHDNadrFHr2EON4DEffcsMldG/snazwz9nU/A/h9Vz8SE+wmq2COR3Kv/wDDzw7HEb9/3K09KAARsUkW8RiFh35Q0Pa7lOtFS1XBozNaxCy0KlR2YEN5uMD5rY+i7TBa9rCepU6vbHVP07Vi9f6jjRaJwvgntmF3qpJpDdHyCzU27bzOFtl+xlTqR/S/nwPodC8Hsus1rsdQOZVeWjNhcXNI/aTHdBXoOiPSTZqgHTNdSJ2xfbjyxHcthO5SjtClUWfu9unjobhIomj9JUbQ2/RqNe3IkHI8RmFMVjdTTV0IhCFBIiEqRACEIQAhCEAIQhAdIQhXAJEqRAcVqrWNLnENa0S4kwABmSV5nrXro6vNKhIpbXZX+zYOHepnpG0o57xZmnqth1Ti44tB4AQeZ4LKUbNhu4qrzyPObV2laTow00fXp9eZHa55GTeyQlDTE4+B/wB+BVi2mBsnxTNZpzAHhHarNHnlVTehUVKcTkZ2x9kFK+mKjDScLzSPayg7xxCkWl17Ifibp9sZkfUbuV4LgNJi6c8Rs7/kVj3bG1vO19PLqdaJe8Do6mbcA7eBl2wrAYKIysAMc4h3LYf8SnqRJGUnfsI3rG4lJyu29DoHH78E7Qi+ASBwzVXa3PumZa3hnPPyVLX0HUF53S9WZAkzHae2VV0d47GydoTwja31uv8AS7tX6NaP58el5rpZGvY0Ag/iCNxw/wBo0BQu0G+KqtHNc+7SBvU2CXGoIzdOPgpOlad51ylUqUyyMWvIaQR+jEZ7SkKdo95sbXxkcU4QWTsm9crry73noSrYycxO7FU1nfi9oGLThOPVOPgZUvRra10GpUvwYyAMEcM1HtFK5VDth6p7fsK8dDlwsnKN7/sWWhbZUpvPRvc0j8zSWmM48F6Dq3rub3RWog5fiRETMXowIw2LzSxtIe79gjmCQfmE8+Q482zyYwnDmYHarFqWIqUal6b624PS+R9BAziEqwOoesnWFlqnH/lk7DjLTwwMd25b5WPUYbEQr01OPhyfrxWYiEqRDOCEIQAhCEAIQhAKlSJVcAkCEjsjyRkrU8itbjVq1KhPtEknhOH0Tb8PoEtnwakjFSlwR8ylNzk5S45+I3UJzTVQjMeX+ipbaU4nsTVqpiRAHEb1Ni8JK9iFVs8Ccp3YR5QmKtWATGLcXAcpMfuZj+6eKtq7ox2beH8KtNMXmwRcce4yJHawmP8AJY+Jnp1Lq79dBi5DhuOfEFTqD4vDZhHKFZ6uaqm1WRtSk8CpTc+k9pyPROLAQRlgBnu2KJV0fVpYVKbm4GCRgQNx2/yo3W0bOJoVKcFKayfHh4jRhwIOTh4xgVCtE3CGkYDA8IU2ysMZFN02DIYjzUo1IyUW7FRoKgfVw4fnffJ2kTA+qfDQK3NnyT2iqRFnaNjW3RH6mXw8965ezrs7lD1NmrO9SefP13aDlBkAjfEKFbaIjLP5hXFnpghxmMJ4YbNsnFTnaCqOYX3IaBN4ziN4ynBYXNRdjew+Bq1I+0g075246uOnVrJ+WZnrNRl7XDK5jzjLvhPspS+TkHfSnHiApFGldHI4ffJIWX+r4cTj8oWaxzHUu78FkdsZPWGGMg8svP8AyXq+q2kjaLMx7j1wLtT97QJPbge1eb6Mshq1WUmkCcicrwWy1WsNSz1nsPWpVACHj2ZExniMLw5gIk0dXYtSpCrp7ssn0eq6/wAmtSJUqk9WcoQhQAQhCAEIQgBKkQrJgVI44HklUe31blN74m60mOQJUhu2Z5DSPfGPcnJCaEgkK0sWiatR0BsQYcSQIOJ2nEiMt0ofNqdKVSygr6aevWZCqVARAOP35rqlZqnVBY4OvEAEEElpEwNvLitBV0BSYGsLDUe6cb/R+yA+LpzkG7E57RgVLt+sNFrg12NSGuDXXb4eZEGCQTdic8SM9ktnThs2MISdaVrW62yu08s3a2l7NmVteGY5hUlppind3X2Xe12HwmVqNMaUpVS0XDTd1oyunbE/qgE3SNpjALI6UB6Sg04AVsY/6ZLY4H6KnQ0401CThGV1a9+eV+PXJnouq1kq2KmxlJvTdLVqvqj2YJcCIOQABIxzT9o0waLqgNIuaHuF4HiSANuWexPapa12etRrVCRT6OoQ9hMuEgRAGJB2Knsus1Ntes8MJBfLReAMXTM4HMxkdysuDPTYipCjGO7VtfTJOytZu2tm831eVsx20awGrTew0anWmDeyBffGF3GDA7FlRZXsPWbdmc2kZGDE57lrrXrfBAaxxEYkvgkkSchsPgDlKp9O6c9YDQWBt0n8xcTMSMt4Klo4+MlTqpv2u9JZL3bceduGZQ2Nl1hb/fUj/Oq53yKDTxaeKdspxJg+1IwO0N/lJMnk75iVVmg3myTowG8CQQ29JMYRGJ+fetNZLZQZZ7rnyLpABa4mXYwIGWySdoVJou2tp3m1Gl1N8XgDBBGRHLzVo2xMcOkZaBcGZJLS2NzcLw2bFgm1F3lG/r1+53sBN+zSoTtJKSaavk3fKzWlrrhvN5xtd5+1NLWiQYkAGNgluCp7DXN97Rhi6TuE4/JaDTlua8Mp0pLKeTiD1rxmYMQPvBZLRjrz3xlfI5mbzj8h3q8W7K5z6tOmp1XB3Wt8uOumVk7pc7XNfoKvce2ocA1w4wBBK0ls1rotN2mXkDFtQACC5zjF12YF5qyNSWsAiCcADhnkeSg13XWyOP8AJ+96ydhhwuKq0VKMMrvln6yXDsse30KzXta9jg5rgC1wMgg4gg7k4sl6NrY11kFGevSJvg/3uc/DhiR2clrFU9vRqqrBTXEEIQhkBCEIAQhCAEqRCAEPYCCDiCII4FCVWB5JaA6jVIGbSR9PmFd6Z0yC1jaXVkS4g4tImMYzIiTxjeoGtdC7bKrSMHQ9p5tE48YKr6NTCD4pE8DVnPCOpQhzt1snk0+qyZP0tph1cNZdutGMAkg5DCdgujPedypq9JrxDxyOWO8HMFTzTacYjiCuH0xGztwV2uRqzxMqk9+Tz5lc8EC66Xt3/nEf90fF+5RnON+nexIPVf8AqEOHaRJ+5UyrRLcdneP4XD6V4HnjzGR5/NY5IyxcUu31/P1s1Tau1gK9dpjGSOwq4oVmdIRtjftCyhrCha43mex8ZK9dUAqAt2hRC61NzE0by3v9UU/BfRGt0LoV1q6QMdDmAEBwIDpnbsy3Kut2j6lJ117HB05Rnsw/haPUur6u0160spVYa15BEkYgxugHHJWmtJDrRYnNIIc7AgyDDmRj2rI3kZls+DwkamandJrpKSSduGt1z+WIFnqM9qnUaNhcM8OOaaNSHdk5bWf7XoVva62MtNEkSyq0MMeyJAPMiSqGvqb1WuZaA4Ofdm5vNyZvbCMRzVLcitfZNTf/AMFb0Wtclxa555rhzMmKwI9n5Jp+OC19l1LYQwm0QalQimLkghhOIxzutncubdqtRp2etV9YcejJBF0AXpuhs8y3vVsyPuyuruytrqvryMZa7RcaC7AD6LjUWwvqkVSC1mJBiZJM9w+iqNL1DXtFOgzEXZf2k/T5rT6Y0qbJZWUmA9JV6rBhMbcuzvC1arei4nf2JgIRpfaKqy1Sty0y555LmWesWlxaKrQ2D0QLQQIvOddMAcAPEqXofRdG7NdhuxgQYLSN6g6r2VtJs1AJAlzictpClUw+01OkILaA9gEYPj8zm/p3DbnuWOVVqyR06OyqdSrLEYmKlOWkdVFLJLim+ba7M9anR2knWWsKlMzdxdP5gcweyPBev6PtrK1NtVhlrxI4bweIMjsXlutNvZaKzS2CaYILmjqkyMeMfVWvo+0z0dQ2d56tQyydjt3aPEDetpO6ucLCVVhMVLCuV1fVaX+PY83nbtPRUIQpO+CEIQAhCEAIQhACEJVZAwnpHoxUpVBtDgf8SCPme5ZSi8E816Hr9QvWRztrHNPYSGn5g9i8xs1WHR3fX74KL2Z47bVHdxMnzSfl5FiMEOcV2x4C7Lbw3DxWXI4N+ZENWMRl4dyZdVaNoHy/gfeCdfTLDIAI7iuejv7Mdyx6meO6s+BnNa7BeAqN9puHMZj696tPRpVp2m2UmVWhwaHG6d7RhI2wVzpKk9rC3NrsGmfZfMjH9LjDeC40Loy0Ua7LTRDWPGDg4/huacxgJB4wscpKLzPR7KpyrxS3d5ReuWXRrqevaz6MdaWsotcGi+HOduaARgNpkjDBUmsOj6dmfYadOYFQkkmSTepyTz4KzfrPTNw3XXh7URGWMHasvrNbqtrqsc261lIksGbpJGLjlsGA7yrSq01nc7WKwUpKU4025u3gmnxdl55Gw0JZ3MfanPaWh9dtyREi8BI4GVDtAczR7rwLSHuOIg/1XEH6rOWnSVrfBdaHG64EQxjQC0yCQPax2FV1r0vbDep1KpLahlwIZJnDDDBsBIVYSyTNbGRqYek5TpyStJX91/izztLLPLzvZPdWKi5w0cQ0lrQ4udsb+CQJ5kwqL0ivdQsTWgEMe9z6rtgkuqAHjJJ/xCz1O22hrGNZXc1rDLRsBx8MT3qs0822WqmKb68tDpIe52Q3YK18tDnraNCrFwu4uVk3lZZJP/z/ABcrtTLIXPfXdm49w2DuWiqaKbVtjLSarajW0hcaBhTcS68CdpiO8jYmLFTbSp3W3QY3qbYKpYPZDjtId4QtRwqSbaR6H722dQhGPtVZcry+SY9aoqOgNljD1sPadnHEDDt5K0s9vFUimB+G0/iO2EiOp3Z9g24UrajwIaSNuQIxxJw3rqg54bdDhd3AHbiTCmOEm9bGrW/qrBxfuRlLuSXxd/gd6xWinUrvcwBoJDcMAboAJA+vDaqhrgxwc1xvNIIMhkEGQd5U80Ru+9yjupNOBH38lueysjxlbF+3qyqWtd3y4eeXdfU9gsFqFWmyoMngeIxHepCxno60pLHWV4h1OXUzsfTc7ZuIcSCNmC2apY9zhq6rUo1E9V8ePxBCEKDOCEIQCSlXKWUAqEJUBHt9lFWm+mfzgjvGB714k6kQ8A4EHHgQvdF5FrdTDLXXAEbe8B31Us4O3KfuwqLqvHPyZHsrw+IOH3KmuI2bNiotXSQH/wBp/wC7AjuE9hVvTdt7lMXdHlcVQdOdnpququ1fxTXamDm7/vhzStpDs3bTzK6LdpwCiWi07GzG/wAlKu2YopyyQ3bTTG/HCJOPCNqmaKtja4MyHBzg4ObdOGUDaIIMqG2lHWPWP3hwCdsNEEThlh3kkn9xJPasU6SmrHZ2btSWAk5xW8nk028/o1wfV5GgoUBGY7FNp2EHZgsnTcaTyaZgGCQMMd55/wDxVxT1sc1pDqbZ3jDDlitSeHnHTM9bhP6iwtayneD66eP1SRa1GU2iCqzTLqJpFuAd1Q08XPAA8VndYNbjmGODfzECYHGOKyNs1hbUdTIdg14eeNxwKrGnJNOx06tWjXozjCSldNZPmjZ0hE8cu3MfJdkDP7GXmmH1BcknCfCV1SfmD37wbsHkulLJ3R8rSbVyRVpZc/mlpAgwm6j+pB3pBWw4hSmUSbViVdnz81y10KM2tiu3PkcvksikkV3Hozp1VR3mV0TIlcKWzJFWL3UqrFsYN5ce9rifEBemryvVT/jKG+86eVwr1RYamp6/YX5Z/wC5/JAhCFQ7QIQhAcpQkQgOkJAlQAvM/SNRu2guj22TPIBv0Xpiw3pNoYUan7mnwI+qngc3a0d7Cy6NP428zC6GdcpvdGbmnz++CsAwtO0SAROcPAIHcQVV1HRZ35Y//pJoC1OqC45wIDeoScfytLRPCcBuWpSqqNaSejyNjG7Eliv6foYmkrypqcn1g5ycv+uvZe2bzmh7nHEmAiMceztMpKma7oPxhbzeZ4N6XQtRk4bNvknKT8eworOEpgZzOF0z4KU0UXvRzOa1TJRapJ+8hvUguBTTnhY2Z4ZcCPRs8C8c3Q0DhOPZCyunNBAEupA3Cwztgg58AVrC4kwM0lQiOjb1icTG3cB/YN+9V4G9h8TOjPeT7eVuvZwI9l0zZ3MDTUbeuiZgdaMc+KnU6zXAXSDGUGcPvYqmro6m4w5rC4nYJDY3frco9XV0A3g57ODX3ScNpGQnNHLgHToP9TXbZ/Kz8Pla+mcThGS5DxvVFqzom02m0toUqhgyXOcSQ1rQZJ2nYO0LZW30eW6ljTfTrjn0bu52HipUi/3TVcd6Ga+PgVZcO9dh0Jwav6QGdlqTwukd4Km0NULfU/5Nzi97R4Akq+8jX+78Q3ZQfgVbawy2LhlfBauzejiqR+JaGNO4NL/EkJ9nozAIi1GN3Qj/AOyjeNqOxsQ1e1u9fUY9Hlm6SuapH9MEzxcLo8J7l6MoGhdE07LT6OnO9zjm47z5Keobuz0eAw32eioPXNvv+isu4EIQoNwEIQgOUIQgALpCEALF+lH+hT/cfkEIR6M09oflZ9nmeZu/oHmPqmNXv6jOY/8AcSoXKqfjl2r5HvNif5LT/wCOZdvzPZ9EwM0IXYZ8KpfhXd8h6pmfvYmbT7J7PmEIULgWp6ruOH/RR3ZoQqPQzQGXZO5qTYPYr/exCFC/EXq/2+9fNHGhv6v+DvoutLe1V/6YQhP09/0If5h9i+Zd+ib/AIz/ANN3yYvYEIVo6M9Zs3+x3sEIQhvvQEIQgBCEIAQhCAEIQgP/2Q==</t>
         </is>
       </c>
     </row>
@@ -1512,25 +1520,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Saif Hasan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>30.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1545,25 +1553,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1572,64 +1580,64 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExIWFhMVGBkXGBcXFxUYFxcWGBgWGBcVFRcYHSggGRomGxgVIzEiJSkrLi4uFyAzODMtNygtLisBCgoKDg0OGxAQGy0lICItLy0tLS4tLS0tLy0vLS0tLS0tLy0tLS0tLi8tLy0tLS0tLS0tLS8tLS0uLS0tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCCAH/xABEEAABAwIDBAcEBwUGBwAAAAABAAIRAyEEEjEFIkFRBgcTMmFxgZGhscEjQlJiktHwFDNygrIkosLS4fEVNENTY4Oj/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAMEAQIFBgf/xAAzEQACAQMCAwcCBQQDAAAAAAAAAQIDESEEMRJBUQVhcYGhsfATkSIyQsHRUnKy4RWC8f/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIiIAi0tobTo0BmrVWUx99wE+QOvoqZjOuHZbHFoq1HxaWU3RPhmiUB0BFVdj9YWzcTAp4tjXGwbUmk6TwAeBJ8pVpBQH6iIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiALl3Wz1hHBubhMOZrHeqm+6wgw0OB3XHXjYeK6bUqBoLiYABJJ0AGpK+cqOHbj8XXxtUZm1qjnUwZgUwYZb+EBYclFXZvCDm7Ip+I7Su/NULnE6ZiTA9dV+DZruDT6Lsmz9h0gBFNvhYKQZsdn2Gj+UKs9Wr7FxaPvOF1tmOAJyOj4eBU90O6e4vZtVozOqYaYfRcZtaeznuOAFotzXUMVs9jfqj2BU3pPsCnVaSBlcASCOfI81mGpu7NGs9JZXTO6bB2zRxlBmIoPzU36HiCLFrhwIKklwDqL2y/D4x+CeT2WIBLeQrUxMxwzMBH8rV39WSkEREAREQBERAEREAREQBERAEREAREQBERAEREBW+sXEmnszGOGpovaPN4yD+pcd2HUDGMaOAj2LsXWNQz7Mxbb/ui62u6Q6PcuKVsSMM4wzOWnjpH5qKsm1gs6ZpNtnRNm1C4CAVJvBjRULZPWKwEMfRc24GYQ5o8409Vcto7dFOj2uWZuFQlBxdmdFVFLKNDa1dwHd+Kq+NxW67msWP6bYio4g0mMp+LhxtqdNQPULzSrGpcgX4gEA+c8Vv9NxyaqqpYRA9CcXk2xhXjjWDD49pLP8AED6BfT6+ZNhUhT2vQJByMqtquIBMMbLpMDmAPVfSOBxbKtNtSmZY4SD7vbIIXQUk0vA5U4tN+JtIiLJoEREAREQBERAEREAREQBERAEREAREQBERAVDrOpvOAcWTDHsc8DjTBv6aH0VBq9H2VpP1mvJmJEgyCRxXY9pYQVaNSkdKjHM/ECPmuQdF9pZssnehua87wADtNd4FQai6V0XNI03ws81diZGPc6CHGTY3JnmbamwjXkpfaFGcPSYToAfgnSLHxDTTc6naS2LG8kjkPDiUxW08PVjs2l2UEFpOUGwgAkXN+EqnJylkvxUYuxpN6OtcWz9XSWg5SSCSye7cA2W3X2PSo04a0WGsfkpfZ1eGNDhwteSPAnjbiobb+PFx4FYlJvDYUUnsVno8ycZWfIgNpC95zGoLeN5XaOi1DJhKLZndzfiJd81xnq1wbsVjcSwQAGMLidQM/Dx1C7xTYGgNAgAQByA0Cu06bUm30Xsc+vVUoKK6t+rMiIinKgREQBERAEREAREQBERAEREAREQBERAEREB+FfMWwceaeJqUzb6R0eUkgL6eXzB1obP/AGfaVUiGtc7O3LNgfCeea3hyWJR4k0b058ElIksJtGviARUz5HEtb2RY0WPFzp+HqparsncnsK4LB3jVbbQzPOyomD2k/s2ta6I04T+it6ni8W4kGs4QJjS0Gfh71C4W2wW4VY2/Fdsn6e0sVSq0Zc4UHODHCo5pN/Icvh4rT6TbahxaDwj8/VRfSPacU20mvzQczidZvadZ0VWq1HOMkzPE+izCldqTNKldq8UdP6icaBtGqHvA7WiQyTBe4Pa7K2dTlDjbgCu/r5W6EUyKrMRJHZva5sal3ytPmvqWlUBAIMgiQeYOhU103ZEdTTVKdOFWSxO9vK1/f4rN5EREIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAvmXrhpvG0quazSba33QePORpyX00vn/rsqUquKmke0cGBriO6wgnMJHedGXnF1lM2jCUtlsczY8iDJ/JZDjnE6m9teCxVKUfrRfjQJvb9arO5jKPOYu11538Z+C/RSJ3dT4aRqmWbcbcuR1U1s3AZc1Sp9UZhyA5n9fBaylwq5a0WjnqanBHbm+iJLYtA0hB1ju+1dH6HdMXUIpVJfSJ8ZZ4tnh4ezx5/Ru4e1TFABUXNp8R9AqaDTvT/AEHG8fXx7md7weLZVYH03BzToR+rHwWyuL7B27VwzszDunvMPdPmOB8V1PYW2aeJZnYYI7zTq0/McirNOqp45niO0ey6mkfEsw69PH+dvPBKoiKU5YREQBERAEREAREQBERAEREAREQBEWjtjHCjQq1j9RjnRzIFh6mB6oZjFykordlI6xel3Zk4Wk6HR9I5uo/8bTwJ4n01XJ6svHey+Ij2XWxi6rnF73Euc5+9luZMnMfNxI/2X5km3ARPPMZ3fDdP95VJSbd2e+02ip0NP9FK99+99f2XTbqV3aGGjKcpF2gjx0mVr4nBFmus29LfNWfaFP6N54BpP8ovosDcA+o9r6h7uuSYdeW/M+qkVZpHL1HYXFWSg8Nfbl/vwTITZuFbma+qcojMOZLJEecj3Kx/sTO9xddxY5zTEaS03bliy8UsHTGao54BLw8CfrN1t6ut94rZpYQNGdpcGj7faZc3DJTPny1iJUc53dzoaPSx0sHC0Xm/K9+vTw2te2T1gcNbSPdHhClaNOLBYcKIYDvanvd7U3Pu9i3aTYHiq0mdNz/CkYnMW7sPar8NVbUbwsRwLeLT+uSwkLA9qRdmaNRnFxkrp4Z27Z2MZWptqsMtcJHMcwfEGR6LbXN+rzbOR5w7zuvuzwfy9R7wOa6QujTnxRueB1+kelrOny3Xh8w/AIiLcpBERAEREAREQBERAEREAREQBVHrPxOTAPHGo9jB4y7MR7GlW5UTrXoufQw7WgnNiGsgAm7mVADA4LWf5WWtC0tTTcv6kV/oH0fYWtrYinmOoyjdzNcZdUkCNJDbiNbBQ3TCnQo4lzWOy5gH5NwuaXNnKGsJgC0T79T0NsZG0jSLqlIZWOe9zWFrMoBfleXNlrg6COIXMtqPLqtQy0Fz3Elk5CZN2zct0ieBCrTskken7NqVq9edXiwlZJu636K3TfF3ffJFGpUuWsDeAzk3Jk2a0efejyWxsnYDKlanRhwzubmDQAIcRIECwv7AeS8MufADTzgGfUlXPoLgHOz1+x7Sx3CYkkS1vdMjQeGa8haJu9kdHWOEKUpyy1te2+3ctySx/RfCYXDl9z3WwKhMvAdABABAkumCLNaYMQaTRwbQ6ct2DvEkmSLm/H81YOlmKpNqCmaYouYCT94mN6TpcO5G/qoekRlmRJkkg2krFaWcYKvZlK1Hib4m3fNsdLWbSx06pcjBS01+s73uM+6y3WFRlKsCLcJ9swPiVIU3KJnVmjKViqBei648x8Cv2oNVqRo18xBkGCLgjUEcQV17optX9pw7Xu74JY/+JvH1BB9VyCor51Vk5a4+rNMjzIfPuDVZoSakcvt2hGekc3vFprzaTXr6F+REV08UEREAREQBERAEREAREQBERAFAdLarG0mOqEBraoMl/ZgEMeWkv1G9Gl+Sn1SetkD9jbP/AHm+u5UWstixpIOdaMU7Xx6ENjOklFrXupOpmpbLFNzt6SSTUflzCDbd+qFRsZiC4kky50kk8JuXOPAcVr1K2UD7Tu76XJ/hbf8AF4rG27g2DdudztMzrAA/w/Z8lT3yz3dLTw064ad+Su7X7ldJeO3fvY8YV+oY11Vj3A5m5Js1odmnLfX3LomwNsYMUm0+1rNqNyuflLgA+HAA5ZaTvcODAbGAqM3Bsc7MW73G7hPmBqpGlTAEAACNBZY40nc0raSVaPBOTSvfD336rG+zb6d5m2zSZVqOJl4JgF5Mlgs3NztCiKtFpqFrWNAaYMkwd0Hu8NReVkrbRaDAuLQ42B3gLc+K83yuqG+YlwB+s0Nhs2tYT6rVcSRJGFKbSVn342S+euTDhHNGWmLRfLyA3h8j6qXoHXwhQGx8pcIMkB+bnnJZJ8jwU3hDd/mP6QsTRZvxQvjy+W+xma7e8iPh/qtqJXjYeIDKrHkSA+TOmWYM2PDwPkVdek/R5pDqlFuUgZi0CA5upIHBwv5weOpU202uRR1OrhRqxpyVuJYfK+1vbPftzOfzIXSerBn9meY1qx6BjD8yoPZmw6dLCVK9UBz3UyWAxDcw+jMGxJsePIcZsHVo6cI7wqu/pYVNSi1NX5lDtbUxraSoofpklf3t7f6LciIrh48IiIAiIgCIiAIiIAiIgCIiAKj9bTiME0AZndswgSBoHTc/q6vCqvS3EhtWg0tDw9lRpadLvw7A64OmYlaz2LOjbjXjJcs+j64OLMonKXOILz7Gt4Nb4fFYTiCKhBgDL3v9eQ3vxtXVqeAw1J01qbYc44cWZANSviCXnhu02sAPAKrUNhUq2NbRLRkbRa8tvvuODbvG/wBtwPqFVtmzPY/8hBxlKKdoJyvjPXzyr7ZdisUR2m8SQz6oYS2dN8xz4eHmvRxRk0MzyajPoyRe+aZdzAHHwV52NsCjWpYGtlOWq6pSqQ4jeioaR1tdo05BbFPo1gamHo56jqdeu0FhklpqNdAMREZiLW1WqV/nhb3M19ZRhfEm02nZX5zTxfa0W+dlbfYqFTDtzAkAkCLcrw0CdV5xZsdPzsbeELWLHMquLhleKxpPA5NblMfzsWziTqOY04mxtrqomrPJfoyUsr7rmuT80RWADW1QA2JY4Tzylnu3lJUKkdo7kT7mhRGMENFTjSOe32TZ8c92/otrB1s9Nx+0+CPMtYVu1cndotx2/gl8KyA0cQAPcrzs3FYnDsLCKbhT7QjNmBb2bWuIbAuCDaRcg3EKlMWVjlHGTWUUdVQVZWlZrvV/3VuZZek+IxNVhhjW0RJdkfOYANcCScpIAeyBA8lJdVtXcrs5OafxA/5VQKVQgEAkAzYE6cirn1XVfpKzebGn2GP8SnpyvUTZQ12lVHs6pTVsWasmv1LLu3nvudGREV08WEREAREQBERAEREAREQBERAFTemWJNPFYRwi7K7b/e7Ie29vFXJc46yNqihi8G8sz5W1TlJjvtyawdIJ9FrN2Rb0NN1K3Cle8Zf4u3qbGOw9Kq6gysCW1HPMAuEvOHp1AJb41HHlqo/YVBx2hXyNzOp0acXAkt/ZxF/J6iNm9NGNp1KTqRc9lNjaTzEB5pHDlztC2zJtMjkt/b/SXCNpVq2EdUpYirkYXQ4Heq0gXWJAOUHSFC2r3OzSoaiNN0+CVpRcOsU3KLcnbaNsNq+Y9Fcmuj7XMo9iZHZ459Nthd1ItqsPgHBjm/8AsCrnS7ARg8MQZOHxGIpTJFzUJsW8QG2TafSmgcOS2sXVu3w9VrRTqSK9OkwVBpvXaTrebSt/DbQ2XjKFWnWqNDHYk12tgh0uptzSMvBzqgPksbq3z5j1FKNWlWVacG/xXkrNtu1ni20uPHg31K71hbuNFQHKK1NldrcmbM9zcm6PtCCf5loQ4hod3iBPCJ8uK99OdrU6mMZWoghlJraDbkbgkzGmpNjeIX65wIDtQoajVzudnUalOjH6mHZK2cYVk+V0lbCW2c3I/HYWxINo0UZ0Zqkjszqx/uDSfj8FNYuuA0njoFW+i/8AzNTkQT65h/mK1jsy3Vm1UhfnxLytf3SLiCslN1lifovdPQKPkbPYw0j81cerA/2ip40ne57FTaStfVy+MZH2mP8AkfkpKf50Vu01fS1f7WdUREXRPnYREQBERAEREAREQBERAEREAXGOuup/a6Wu7Rabcy+r+QXZ1wvrbxQO0QNezYwGPVyjqbHV7GV9TfpFsrmDqZ854k5gNMsNgN8eH4lixjnEAAth1t77febvDQ6x/svzZhyPIJi8H1b+YK/cRiqYcWR2k/VY3PbWCe7yCrWyeyVvpcE5We3e+v325mYYUmWgjK45nDLvZp3sh4G2hXirSyVhUvDpa6LGbZXj7+6PMH24KLKmjO1a3SKj6XG2l3a8VnxmGruH7xoPKL34ndvHuWNnug2nvCT+cnJrGX92e9obID2ucD3rh7d1xkfWItw4rDs7FMcwmpV7R1M7rBlu4aQG94rY2bTqPEVHNeeZzERroMocD6rVq0nYatnGUsdIDQ1rLng3kl+TZGlbaNvXzaTzb/t4IlMa0FpPGFEdGW/SvPhHvUnWaSwyA13KZtwv5KM6M/vH+XzWi2LVXMoefsWKu6IWdui1cSbtHNbTtD5LTkbPZGBisXQJ0Y6l4h4/+bvyVdYp7oQf7bRvxP8AS9bw/MiHWq+nqf2y/wAWdhREXRPmwREQBERAEREAREQBERAEREAXzP0nrF2OrEuzRWeM3MB7rhfRu0sWKVKpVNhTY558mgn5L5bxJJJM3mfVQ1Xseg7Dg2qk/Be7+eJtY9gNUNP2c+XhI7uYfWGqmqtPtKTXt1bYj9ehUU6nnBrRdm63+FuXOPbmhbezMb2Tocfo3XngPHyVeWV4HqYvLqLn6rl87+89YWpcg68/h87eKkqTQWxFrxHtkFR+1MLUdD6LYaN4aS/7jfstP2l72Vjg+4PnPPSPArRrFydTU9v/AHw8D2dx0638oOvoYWzjcMKrCOPPkeEjimLaG3d3eZv7eYXinlc0tm3CNWkclruJ3auiMwVQyaFQQ+Ib94Dh7Pgtbo+0irVHFuUe962dr7GLt/O/O07pbMZhe8kqP2Jiy+rUc6BAa38M3PtUmLYKym3OCmrZds3/AEu9/DHj9yxzNQfdHx/RW5U0K0cCcxc7mbei3Khso5b2LU90jG1SHR9+XFUDyq0/YXtB9xKjwt7YQBxWHbxNVn9bZWVuaVbcEr9H7HcURF0j5iEREAREQBERAEREAREQBERAUbrZ2saWD7JvfrnL5NF3E+uUeq4M8zYfJdJ64MeH4oUxdlJgDhwDjLnEnyLRHmuZCrTz2e2ZHxVWo7yPZdn0lQ0UG8OV27432t5WLHsxoyZYExoOOrrSLkTPqo/GUv8ApHR7vws7z/m3+ZZ8HXIrluWZAGsR3ruPD62nNb2L2aXO7SZdEQLNaNbefvUd+F3OymnHgS7s9NvVfyfmAxbqhfTc+MhIGXvuENOaToN7gtTauxzOZjs/CScj/Ivb3rcHLUxEMcHluVwJl8d5raTt3zzf0jwU9s3aDajYcb6XGvD2rDvHMTDgnJp73fPlyfxWv1IzC1XH6Oo2LxmqVHPsbRHnfXkt2rhxSAIiw1Gp4On3LxiqRcYpNzEd6ZDBw1je4aLx2mJotkim9o1GZzTFpA3ePmsNtiP06bc4564/heyfie/+NM/duIFSDA17sm/mAVAbNLTXqvB3XaR/Cw/3dFI1X0nMq52MANR5GYBuY5RvBwGnf3lCbNYBWa6m/clwy/cy7y3irXIKkpKrTdk1xXst/wCm/es5a3xZdbxgmQ0Dw/NZqxsvyjoL2X5WOig5lzeR5U/1f4I1caw/VpgvPpZv95w9irzir/1VYX9/V4btMekud8WqSkrzRT7UqfS0dSXdb7/h/c6EiIugfPAiIgCIiA//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFRYYGRgaHBgaHBocHBwcGhoZGBoaGRgYGhwcIS4lHB4rIRocJzgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjcrJCs0NjQ0NDU0NDE0NzY0NDQ0NDQ0NDQ0NDQ0NDQ0NDQxNDY0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABFEAACAQIDBAcFBgMGBAcAAAABAgADEQQhMQUSQVEGImFxgZGhBxMyscFCUnKC0fBisuEjMzRzkqIUFdLxJENTo7PCw//EABoBAQADAQEBAAAAAAAAAAAAAAABAgMEBQb/xAApEQACAgEDBAIBBAMAAAAAAAAAAQIRAxIhMQQTQVEyYSIzkcHxBRSB/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBETGxGMpp8bov4mA+cAyYmFT2rQb4a1M9zr+sy1YHMG4gFUREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAPJgbW2rTw6F6jWHAcSeQnu1tpJh6TVahsq+pOQA7zOFdIukT4h9+o11ubJoFW+SgeGshuiUrNw210+qOrCiwpr98C725gk2E0XEAOwcsXYnrM5O8e3U2MimxSsOsSM9F/rMR8WbndvnlnmbAStstSJZms2Tg5W3QWPoNM+Uk9i9JK9E9So6AC/8AADpZlOQHGasuKKAnUm/HhLv/ADdx9sgcuHlz7ZYHVdje0iopZcSgYDIMosb+dj4TYtke0HDV3WmQyFjZS1t2/IkHKcTpbYa2ZuOI595l73i3DpkptdOIPfqRnzvIsikfTESJ6NbSGIw1KsD8S2P4l6reoktLFRERAEREAREQBERAEREAREQBERAEREAREQBESziKwRWdtFBJ7gLwDnPtkxn9jSoqcy5dgL6BTuk+N8px0lmve/CbvtY1cXiGZiWZychbdUDLI34AAceMyqHR9VTdYAnnMpSUTaENSOZuhBz854CTmdZ0t9hp90E9uctnYiE5geUp316NV079nN6mhvrLfuza9p04bDpDRF8pYq7ETgoHd/SR316J/wBZ+znCEiSGGr2B7Rp8ptL7CS5yymvbTwApvkcpeM1IylicTsXsgxu9h6lO/wADKw7A4N/Ues6JON+xzHbuIqUuFRLj8VMn6E+U7JNVwYvk9iIkkCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAmv9NMSUwlTd1ayjxOfoDNgmj+1DE7tCmv3nv/AKR/WQyUaTsar/aC3Jr+Zk9iHmt9Gae/UcjQX9c8/KSGP27TRt0dY+k55ptnXBpJGbuGU7hkQnSimTYkDz/SSmG2lTfRhpfs1tMJRa5RvGafDLqpKalAy4+IRRckSNxvSGkgFzmRe3ZmB8pCi2WckuSt6cgdt4UEBiBcS6/StL6Zc5fTFpiabBSA44c7Z3E2jFrcxnOMtkYHRPFijjKDjIb6qxz+Fjun5z6EnzMXKm/EHyIM+jNkYn3lClU++iN5qDOmJxSW5nRESxUREQBERAEREAREQBERAEREAREQBERAKZz32s33MPy3qn8onQHYAEnQC58Jy/p5tyjiadEU97J21BGRQjwzFrGVk0ti0Yt7pcGvYdCmDXdNnrE58dy5+gA8ZH09hUj/AHjMTxsSPMjSbFWwTGjRtqqKB32zmtY7ZjtvI7bwOgAICm4JOvWPDPnOWUnq5o7IRVcWV1tk4b4UU/6ifOzGVYDCoh3FBA8Z5s/ZYQMACxa3W3VBG6LDdIGX9BJbC4KzjeJPMnM9xlZP0zWMV5VFeMwo3OtNcfB02O8ylrdpGnHXKbpj6YK2kCcDfhe3C/rbjKpu+Szin4IykMFmGRFItmWINzp1rcZW+z6YIeldGFmUg3GRvcG9jL2N2ZvvvsrFyVJOt90WW4yGmWkvYHZBBLAkXJJH2bnWw0XwmjkvDM9D8pEdt6hZkcaVFJ/ONfpO3dB2vgMN/lr6ZTlHSDC2oofusf8Acp+tpuOwel6UMPhqJpubJTRiSAQbDeO7xA75vGcVG2cs8cm6ijosTwGezUwEREAREQBERAEREAREQBERAEREAREQC3US4I5gjznGNr4b3e+pGa3DA/enaZy7b+HC4qoGBN2Z8xkVOf1nP1C2TOrpXu19F6iRuIP4F+UtVsMssYKr1EJN+oo8QoB+sqSvc6zCb3OjFwe+4Ci485RTQA77kDiBxP6TzE4oZgGaxtSqm9vO7XGhVmBHYVGR0OsiKvg0k6RteJKgAkix7RMRQAQbix48RNaxuNBQF3LKcgFupa3O2Y8JXsvFJ8IIAAGWg7z29snQ6Kqas2x8ONfWeFBbKWcHiRbdvcHMSipWsZVMs+DH2xUG5b+NLeYlIp3UPx18LWA9ZiY6vZqY5upt3Zyf2Xh/e10pKpAJUtfkOsfQestJaqRWD06n6Op0PhXuHylyeT2d55YiIgCIiAIiIAiIgCIiAIiIAiIgCIiAeTXOlmBBT3wuGQWNvtKdA3cbGbHKWUEWIuDKyWpUWi9Ls4rSr7q7l81Zly8x6EHxipUIW4MnfaNslaDU8RSXdRiUcKLANa6se8XHgJq1HFKRYnI5+ek48sGnud2GaaIWvth94ppb93JmPRQO12a/df1t3yfOzqb5lVPeJRUxSUshTZvwsAPWTGS4RbTvbZYenTKhdwm18rMRfie+Q9ZFQk3ZTbkfW0mX6RKFv7s621v4y5Rqip1vd2H3mHyFzLN1uw9L2RH7IxNXeUWyuOOovw9ZsdWrbWY2+q5jWRWO2jYa5/oZm/ylwPjGrM6i+/iEAPwBmvyIsAO/OdO6EbNsHxDEkv1VvoFGpHebeUjfZRs1ThXruAxrMQN4X6lMlAM+G9vTf1UAWAsJ0xx00zjnltOKK4iJsYiIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgEX0g2YMRh6lE2uyndJ4MM1PdefPOIqtSd0YWIbdK3+Eg2z7RafTM+f/aTs4ria9RRlvEuBrnYhvIzPIltZrjb3op2biw4vfv08pIl0tbI5XtOe4fGMhyJsc5kPtdiLg9/b+8/OYvDbN1npbm2sEvewtfstmbCXXxCWsP3leaTU2wxW29++UoO0W1vJ7I75OYzG7pIJz75FIzVHAGd8h5yNfEliZsnR/B2AcjM6d0s0oKyqbm6O7dA6YXAUVGihx/7jTY5rvQVr4On3v8AztNimsXaRzSVSaPYiJYgREQBERAEREAREQBERAEREAREQBERAEREA8nKunlD/wAU/wDEEP8AtA+k6rOY9P6iNiBusCQoVrcGBOR7bETDP8Tfp/mcr2rsWxJQayFqYJwd237M6G6XEw/cZ3sJjHO0tzpngTdo0pdl1PukDTnMl9jOBqT4WtN0SllpKKlLskvqGF08TWdn7FzBabTSpAAAaDKe4ejxmQVtMpTcnubQxqK2Olez+oP+Ftf4XYedj9ZtU4UyrUpmkxYAneBVirK1rbykfI5GQtLaOPwNVWTEVWpqcrsxUjkyMSJ2QmqSODLjeps+kInMdme1mmxUVqBQH4nV94CwuTulQfC5M3rZO3cPiRejWR+wGzDvU5iamBKREQBERAEREAREQBERAEREAREQBERAETDx+0KdBDUquqKOJPoBxPYJyLpf7QqmIWpTw96dIDd3tHe5tr9kWvkM/lANl6Y+0VKB91hStSoCN9iC1NRc3CkEbzZHsFuOk0fB4z3tIOTdy9QsebNUZyf9001G6lh2en/eZ/RrGbrtTY5Np+ID6j5CZZotxN8LUZI2lDLTrYyoHOVGeeekipSJSwvK1M9BkWSVKLCW3l2PdwgWaKZzzbdEe4cngpMzaFKRXS/GBaYpD4nIJ7FUgm/ebDzm0LlJIwyNKLZpyNYy6laxBBIbgb2I7raSyiy8iAZnynoI86jcuj/TfG0bD3hqIPs1OtlyDX3vWdD2R7QKNSwrK1NuY6yfqPKcYp71rkhR++Eztn0XqNu0wzHs0HaToB3wTps+h8Ni0qLvU2VxzBBl+cm2LsypRYOcQUbkmZ7izZHusZutLpHbI2Pbx9MpFousGR8I2SJG4TbFJ8gbHkcpJSTOUZRdSVHsREFRERAEREARE17b3SZKF1RfeVOQNlTtduHdrAJvEV0RSzsFUakmw9ZoHST2kKpNPCKHfQuwO4vaF1b0mn7d6QVsQ9i++3ZlTTsQfU5yFfCqvxtn3wWSMbbW2q2IctVd35bxNu2w0XuEwnQ+6sNSbyvEOt91YtcWgUYNLIDnLVVCpBXvH77D8pkNTN4Zef7ME0bNsjaIrLZsnAzH3h94fXlJOml8poCsyMGUlSMwRqDNo2Rt9GIWtZG+99g/9Pjl2ziy4GncTsw501plyTQpT33czEUMLqQw5g3HmJ61LsM5qOpMx0pzIWlLWIxtKmOvURewsL+Wsgsf0vRbiihdvvOLJ4D4m9JpHHKXCM5ZIx5ZNbT2gmHTfbU3CrxduQ5DmeE57isW9Z2dzdmPgBwUcgBLWJxD1nLOxdz6DkAMlHYJk0sKAMz3n6Ds7Z2Y8aivs4pzc39HiLll++2XlXdz48zL+HQtki5czkPPjJnAYIA3A3n+8dB3Dh85o5JF8eCU3sjEwGx3chqhKpy+0e4fZHfNuwSBFCU13V5KNTzPM9pmNupTXfquFHbqexV1JkLtDpM5BSgDTU6t/wCY3iPgHdn2yLcjsUMWFflu/S/k2fH7SpYf+/c7/wD6adZ/zfZXxkDiOmraUaCKPvVGZ28gVUes1NzxOpzJ4k8yeJlLcPCSoown1GSWydL0tjaKHTfEK3WSkw5bhX1VsvIzoPRHprTqlabEoxy3HN/9L6N3ZHsnFL5+Mu03sZOxzuUmqk7X2fUsTRfZn0iOIomjUa9SloSc2TQE31IOXlN6kmDVHsREEHkoqVAoJYgAak5ASucr6cdJS9Z6CkhKRIIH22AzJ7AcoJSslOknTdbmlQJ47z8e0KOA7Zz7aG1Q90Dk/ePDPhIk4o2dzra3ix/S8w0PUJ7YNFEzMVtAINynr9pvoP1kcKjHMkmY6m5vL6CCdJcppxl9rCWUEu7yr2mLJ0lO4ddBLFUCV1at5QtPiZFk6Sgi+o/WWnonhn++UymE83JFjt2YasyfCWU9hK/KetiHOrue92PzMzc4zgdp+yOWmTovpLqYY8Tbs1P6TNFMnnL6YYDXPukN0Xj07kY+GwzHJBYcz+/SSOH2cDrdz5D998ILDkBK2x1hZB4/W3EyrbZ1ww44K3uSiUkQXdgAPAefHwljEbc3erSUD+Ij5L+vlI+lRZ7s28eANwB2jP6TIXBAcB4vn5KJFpGjnJqk0l+xH1qjOSzsWPM/LsEtEXkrjtnuiK+7ZWFwQGAYA2LAt8QvqRzkaqyylZzvH6d/a3MesNII07xPawzEqZer4iTZTQY/HxlS8/KVCndz3mVbuh7TbwMORCx2yc6L7WbDYhKw0VrOOaNYOPLPvAn0NScMAwNwQCDzB0M+aFTMztfs22l73BqpN2pEoee6M19MvyxGVuiOowOMVM3CIiXOIi+kO0xh8PUrHVVO6ObHJR52nzw+LZnLMblrknmW+L1N/CdQ9rW0eqlAHm7eoUfOcke5GXaJXVudMMTUVL2eu1kt2ykN1PM+stq+8l+0eGekq+yo5h/lDZeMbLG7ZiJfWeutzfsHylapIsusZSBK1pnOwvz7O/lLqUiSAAbk2AGZJOQAm+dHtl1aNNqNSlVZcSOstNFbcVSUO/ULAKTY5A5DO+clbkSWlbmgJTtmZ603PaWHoYIXWmlSq5O6Xs9OkAFPUB+M9YdbMZ2Byz1NrkljqSToBmdchkJD2LwjqVpbFhUnpSXt2N2Vs1WMs7kKku7sbsWSsZ4BylQeehJ6EkGiiykm8BZcVJfw+FZzZRyv2XNr90hyotoJHB096nkPsiw5FN85d9vMza9if3VLcRCSAD1Pi1VixAzN/Ucc5rOAcqEAGQIDfw9azd2pmwLttvdsu6hYkEXcoF+E7qhDa1+B1zzsJFalV0eXnfbzttGH01Rgq3YEhXFhot2RnUcbDeFjyPZNImx7Z2i9Zi9QAWVlAX4btcm2ZzLG/wD2kRjMIUIB46c9Bc+ZI8IuKdI7umUpYk2vL/si6uolStcfmE9qLnFAdUfivJs0cNy7ST4zxs3lc/vwgUrLTHNb+dpdoaVe4jxIP6iZDJd0H3U+v9JWUjpxYVsyh0zbw+Qm7+y3Gbld0JydbfmXNfTemnmnk5/it5H+kkej9c0qyuPssp8ATf0lVKnZ0Zum14pR+v6O8xMH/mCcxE6bR8v2Z+jjfTPGe+xNVr5b26Pwr1fpNPAtvX4EHyNj6gyZxIzF+NvWRuKTdYMdDkfGwPrY/mnOp2z6HL0yjBJeNjDNOzOvA9YeJsfUes9I6qfn+X9ZeYWZW5gqT22Kn1UHxlms3UvbQkHxGfyml7HAseltDCNlY8ND2cpk03B0z4TFp094ADIHXukxgNnPUYJTW5y4gDMhRmTqSdNZFmsY0rfBTgq3u6iPa+46PbnuMGt6Tctr0aDoNzHVBh3Jd6Yc2RGYs6svxbxuVVM7nOwAMicJsYIHNcIxCjdXfYNcdY7oFg9wN3I5FhxmdgcJTBNkNy7qtqGe6g+NXe4AIW/PrZ5S8bOfNpk7Xgg9vbUbE1mqkbqnJUy6iAAKuXGwF5Hbk3HH0kcOrFhZUYCoyIqtZhfqHM/F1bH1uInH1aSl6aUqRvYCoGDgAgN/ZmwsRfdLc1lZL2zfC00oqJChI3Ze3I3JWzr7ZZKwEl4rASLJWItBZUKcvrSl007RZZYzGCTJwNXcdXtcA5i9rg8Pr4RuXIAzJ0A1PcOMl8J0XxVQXFFlHNrL6Mb+kitSoieiC/J1/wBLhoUKx30c03I06qkntRiAT2q1uyUvsOtfI0yL23mDKw4/Bu5nla882l0bxFFS70+oNWUhgPxWzA7bWkcuJdVKK7hTqoJA/p4TJ45x2T/cyjDX8WmvunRJf8FRoEPVffcaK2oPArTBJP5iBIHa+M97UL7u6LAAamwvmx4nOUlc5jV9ZMY07btmqw07btmJVMppHq+MqqGe0V6vjNLK6NzLwq/EObAeq/QGZ+GW9Rzy3F8hc/WYuBGt9AST3Af1MzKGSM2hNz4tkB/uExlLc9DDj/FM9Cf2QP3jfzMu4ZLE+HzlyutkQdohNW7hKNnWoozfeP8AfbzMTH95EamRoXoisXovh85h7T+Bu/6T2JpHk4s/xZg1vgH4m/mSeVPhP4v+qeRNlweVP5FeC0E2Lo9rW/yT/wDJTiJK5Jn+kS2A/wAP+f8A/dJI7e/ufzfWImng4F8zSRqO4fSXIiYs9nGezwxEGoMrpzyJBJfGkPEQEbF0A/xZ/Af5p08aN3RE2x8Hidf+qzBxn+Gf/LqfytOMcB4T2JGU3/xvEi0dZhYjWexMkeozDeX6HwjvERBl5MvDfC/c0kKnweK/zCImEuT08PwRkYnRO/8A+spTVu6IlTVcHkREFz//2Q==</t>
         </is>
       </c>
     </row>
@@ -1639,22 +1647,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rehan Ahmed</t>
+          <t>Ripon Mondol</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1672,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1696,22 +1704,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>20.8</v>
+        <v>41.7</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
         <v>26</v>
@@ -1723,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -1756,7 +1764,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUUFRgVFRYYGBgaGhgaGBgZGhgaGBoYGBoaGhgcGhgcIS4lHB4rHxoYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJCs0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYBBwj/xABDEAACAQIEAgcGAwQJAwUAAAABAgADEQQSITEFQQYiUWFxgZETFDKhscFCUtFicpLwFSMkM4KisuHxB1PSQ3SEs8L/xAAaAQADAQEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAKhEAAgIBAwQBBAEFAAAAAAAAAAECEQMSITEEE0FRYRQiMnGBFTNikaH/2gAMAwEAAhEDEQA/APUEGsE9MKV8M57GQ/5wPvC8o9IkzYesP2C38PW+0wwupJ/KOiatP9HmwM7eR5pwtPoTzCTNOgyK8cDGA/NOjWcpoWNhNDw/hgsCZEpKIJWBRQbsMYyEbzX+6CDsdgxaSslj0mfvFedqJlNoxZoIcTOqZcw2CLQgvCxbaS5JDoDRpMv4rAlNoPMadiqiegdZaDSlQOsti8zlyVEkDSDF7SUITtGYii1tjEuRvgprO3iNMjlJEw7tsDNLIIBJ6NC/WIOXtuAP19B5iPOFKauLD690p4nGX0voOXdM8mStkJugsMVTFgtNNOZW58yd/O8kHFGt8Vu4afSZw4mcbEGc5FsOYrFJUFnVXH7QDfWWKGLRUCBEyDZCilR4Dl5TMnEd8cmI74UGpmk9tR/7FP0b9YoB94/m8UNws9ZWMxtPMrr+ZGX1BH3kgiffynkx2PZPO8Hwa4F4QHAlttNKmDsbSb3Wez3H7POcUYfE8FIFxA9WkUNjPSquGmc4xw0EXE0hk9icQbwPDZjebPD4UWme4DTy6TX0V0meSW448Ff3QSHEYAWhdEjMQukxU9x0YrF8KDNtFhuEgGxE0GKqU6QzuwUcuZJ7FUase4QHjeNOCRSpLy1eogOuxygm2x03mvcaVC02F6WAVRfQTmJelTUs7qoHMkfyTPOOK9I61X+rcBzcnKA2UFe5bfPugxKqOLVUog62BRmK3785APhIci1E9OwmOw2IJWnUR2G67N6HeQ4jhgva08+pYBAuekqabMgdXFt7A6keEK8O6UYlCQ49ooFsxsCSNtP1ttCORoTiaheEhTe0s0+HhuUZ0d6Q0sapVQVdLZ1IIsbf86TQYahKc7Vk1QLpcNA5SWrgwRa0MvT0kKUpKne4wKvCl7JOmBVeUMGnKnFqopUalTmqMR+9ay/MiHcEee9IeI53cL8KnIvfl3PmftM69edxtQjSDneTqMqvcue2i9rKStfSWq2Eqoqs6MFb4SRvE5pclRxyl+KbH551anfKr1CBY3GvYeX/ADGq8er0Jwa5Rf8AbRSj7SKPURpPfRGVja3hHgRtbbynlrg9jyTokkZIyk+g8B9JMXE7bexxSW7KFZII4guhhusYF4o4sZ0wZmwZwv45qaW0x3CanXPjNUlbSOaEglTgzpBxRMPTzta50RSbXa19TyUDUnslyjWnmf8A1R4gfbinqbUQVHaXdi1vH2aiYVTLW4I45xlaur1C4YkOykrZSLZU/Koax78usHvjCSHB3B17LWt9/SDKNVSAWW17Gzcryu9QAlQdL3j1F0FBWWkWyEktYs257gPUn0lQKjO5cZlqBQe7KALg8joJV9rlGpv3Tih2bRDrtE5AosOHE2CqhCBL2toxv37kbSF8UQxyhSTctvfxPKCm4azavmt2Am+l/IDvkT4R0BFhlG5AvlPYzfm12F4ah0avo9xN6bs6KRlFzluQ2oAOVQeqb2I778p69wXiCV0DrodMyn4lY62M+f8ACUwSC7VCCQMyN1l5Cy9t+6bv/pni3p1Xpu7MrlijPcElOrlK2+LWCvgTR6u4jUWQ1aukjo4iNRdGdlupMp0z4ghotRVlzF1zjMLgKQ+25Nws0dSrPFOkOPV8XUyG65m1B0NmbY8xrv3QSrkUuNiniWuSZSaWSbyNqR7IGaGUqpRgy7qQRvuNRtC7dJKvJVv2nfbmQBeByh7I1lPZInijNptHVh6rJhTUHV/Fhyl0lfUOgcHs+hDXBEY2MwzkBkyqfxILOvZ1fhf5QGDHq0jsxTtWv5Nf6hkcXGVO/aQ+47T/AA/7zsZnil6flnP3f8V/o+hwJFX29ZIDIqpnB4O5cjUrgADuH0kjYkTOVeIgOynlYfISX+kB2z1YQuKfwcE9pMJV8VM/xfF2BncXxNQN5nMfjM5m8IbkNlrhWIs3nNRTr3EwuHqZTDmFxwtvLnDexJmqw2ImG/6p4dD7Kv8AjVXTTdhoUHkx9CYZGPA5zKdMK716uHpqfidQp7DmFye3/ac2WNRbNIbyoy2JoMbKBmfUta+lhrfsA7T3QW+GdT1gddb7ix215cp7BR4NSyLTIJVbZtbe0I/Pb4hfW20IvhEIsUSw2GUWHlOHuM7+wvZ45g8OCSbXItp3Te8UwRSgtRKdyqhioGuW2otveaCjw2hTZmCKGc3JsLmSPjaQ0LqCO8SXJydlqCiqAuA4UwpU7hWzKXcnW7OLr4AA2HhMXxXOjsjm2VjYDbe4I7e2epU66MOqykdx0grivR+jiOs2j8mEuMqe5nOGpbHmrU8l2RmvcG99Qb3GvzhnBcRNPIb6jrEnbdTcnlqu8hx/BnpsU3+8HPRcHK+l7C/ynRGS8HK4tHt74vMobtAPqJD71lgZcVlAXkoCjy0kGKxptOmMTFhfjWJz4asoOppPbtvkM83w9Gn7XDK9gWwqle8mviSR42HymkTGHUHYgg+czGKwKu+BFX4GwzU2NwCrLUxQVg3JgzIR4SMsXFocfuTQWxGFw+x+0pPgaf4SPlMzU9pgsSi1yatK+ty1nQ6EjW4YXva+4HbNrV4RhnAKZ1BFxZywsdQRmvCMXK1W5nKFcMFvw7sI+f6yJuHPyYep/SXjwa3w1nHiFP0tOf0ZVHw1/VD9mjeKXolJgw4Cp3f5T9ROjh7/AJR6D9YTXA4jk6HxzD7RwwmJH5P4mH/5i0NeAqQM/o9vyxQl7riOxP4j+kUWl+h1I9iEr4hrWlkCVMXy855D4PWjyebcYrMMRUsfx/YSuMU3bJuLUy2Iq2F+uftI1wL22n0GGu2r9I83Let/siaoTuY0SRsOw3EemGY8praMyISRSRO+wbski4VuyFoDgc9sZUKIyV3/APSJa/ipS3+YeYEnXDN2SyvCTUBR1zK1gR3dvlvM8mlwaLg2pJmdxXTOo18gCjlpcw5wPpC9RLOLMN5n2o52qIpSmqIxTN1Q7gdVVPjufrG9E8LVOITNsW1Xfq2O9ud+U8Kf3LbY9iCae+4Q6S4uq7dRiFIEz2Gwtz16w8B+psBN50g4cHfRbAaWmfr8HdaRoeyVkLBs+me4557j0kQbVqy8kE6aVkGDwwRupXZT2cj57Ga7hWIcrldsxHPtEBcF6OBWBena21zfTfYGaVERdEFpVyb5EoqK4K3GsODZucH4LCBWDZVaqb5c65kpnkWHM/SH6lio7oAx+GqJUd6dUlbEsmmltWuPMWMqc3FbCxQjKTsvK7OrF1VXVmRwosuYcwNtftKuI2mi4ZhjUoh2FmexbkSQoFz36CC8bw830nqdPK4KzzOoilkaQJWDekFHJQoPfMqVqim1zl9o1Osmbss+dew5h2zQ0+Hdsh4nRq0ghoqrgq/tadTVKiG6lMtrH8B9DLzO0q5M4LfcGcUwCYqllJGozI/5WtofDtEH9FMWwVsPU0ekSAL6lL/Ox+RE09B8OEVTh/ZkAdWm7AKTqQM2YaG/KBcdwzB+8oy1cTSq1GuhyI6FtjcgA7cuwwctNSr9go+LCJaJNTaGqPCEIBLte2p9mcpPaLEm0lpcNpqb57/4Kv8A4S3niLSyvhMLpLRw3dDtPgTgbr4XP6SplUEhviBtlGrX2sANSZl3YvyGlgj3ERQ/7n+w/wDA0UfcXselhcSriRpLR3lTEuACZ4r4PRjyZtcEC7tbdmPzlv3MAbQvh8HcBu0A+ovLIws9WGRKKXwcE19zM9/R6tylapgADpNZ7oOyQtggeUpZERpM4vDgRtGJgtbWmrXCi20YMEL3tDuoKAicOB5S3QwoHKGFw4iFASXkQ9J53iuELWYljlyll9GMn4XhKWHOa410W/8AmP29ZJ0gc0atROTNnH+PX63mL4pinBVgzkgmyKTYjtYDceM8uf5NI9jHvBNs3uJxVJ2tmC955wbQ4mod6T2OU9VhsQdRMS6PWYMyXNt2G3gTt5S67LTRSyMD+Ya3+cVOjRSXHg3JxSW0lcuJmMPjCwuDcdst0sSTzkqTsbiq2Cwe8rYagGdqqkNmzIyk6rlYi4HlHUjcGEOj2AplyHUNdhYEn8V73sddbTZR1GMpqFs0PCsPkoLuc1213623yi90BvcQy1IWtGCjO2ElFUeXN6pNmdxOFy8pVxOHugb8rkHwdR91E01fC3lHE4copdQLrqQRcEX1B7rTXXaJS3MTWw92i6Q8OPsUqoBno1EqLpfn2eOW/deamvgEDk2ZRfYqW8gy308YR4ZTQsMpDZRcjs5AkRyypxBRaYK6L1C6IWpVEU7CpTZLC5UAhh4HXcTWV6QZSthqCB3G2kkcXBHdOU3zAHtAPrORts0or8LxPtaSPtmUXHYw0YeRBHlI1qWrlbaFM1+8tYAfwknxEr8CurYikfwVmK/u1QKo+bsPKXMXoVbvt66/b5wQy5FG3iiAHvVUEXIFyAL8ydgO+UuJUyQbcrn5QJwripxFCi7fGKyI/ewvY+YIPnDtX4T5zHLBwk4y5OnG+JIK0E6q+A+klyxJsI6b2crW43LOZZJFCwoYFiyx8ULChtpzLHxQsKMX084fmVKyjUdRvA6qfW4/xCeYLWYOLo9i9nZFLlUva+VdTbXQT3fiGFFam9NtmBF+w8j5GxnlZpNRd1ZcrK1j49o7juPGYZFT1HZgla0+jmHwNJ0zpRxtQ2/F7KiqnkCWN/S8H4ngDswI/qBqSmf2jkaWvoAul+3eXa3Hq3wqCSOdtfkJUp4iodSrDxB3MVxOhRXskpYVUuoEfh6esY6MDc7yzSsASZlTsvUqomWpYd8IYXEWdWG4IPpM3VxRZwiAs7GyqPrpNx0f6LPYNXJA3yD4mP7R/CO4a+E6II5MslRsqbhlDDYgEecflnKSBQAoAA0AGwkk1s46Iysjq0QylTzBHrJ4rQsKB+ETMoJ3HVb95dD8xLaJa8i+Fz+VrG/Y2xHmLeYlkwbsKEDKpZlWygE3IAY2Frk6mx0A+0nKA9vqZUwiMKtUlrqCoRfy3RS2vebekQxlNcuJY/npKSO+m5BPpUX0E5Xrl6bsVKhTmUkjrKpBzC2wIvvrIeJIRicMy2GYVabXF+qVD6dhvTAv2Ey1xilmouFNiFYgjuBuPMXHnGBa9oO6KA8g/wC5U/hT9IoAY7oeD7H/AOXS9cov9ptqg+8E4Xha4enQpg3/AK1XY9rWa/0HpDFtQO/7yOqyLJlbXFnRijpjT9BoTs5OyjnFFFFABRRRQAUUUUAOTI9OMGgQV7dYEI37Sna/eDz7zNdKnEsGtam1NgCGFtdr8omk9mOMnF2jy0cWpKbAWlXF9IuQAtzvJOMdA8WKn9UudSCb5lCi17i5sb7W057zLYnh1RL5+rYkEHcEaESdCR0rK5cINHiKvdibAasTtG8OpYjHv7PDL1FPXqvcInifxNbZRrte28h4D0aWtXRMS5RLAlAbMb/CrN+C9/HwntWAwKUKYp0kVEUdVFsB/PfCMYvcmeSS2YM6N9GKGCW63qVTbPVfViexRsi9w+cPo5PKNp3Iuwsey/3jg2thy3mhg7skitEIohHYpGzchv8ASOCwA46Aggi4O8iRWXS9xyv8XgTz8ZYkbmAHQZXpC1R+8IfPrD7CPquw2Ut4W+5lNMUzVGQKFYIrEsb6Etayrvz5wAnxdO70T+V2+dOoP0jsd/dv+4/+kyI4O5VmdiVN1C9RQbEXyjfQn4iZJXRirKCpzKRrcbi3KAAf2cUJ5E7T6GKMZg+hWILUEViSFxQC35BqZJHrf1m0UdZf3h9ZkOjPDnw9FBUXKzYoG2vwhCoOvgZsaWrp4/aT1TjLM3HizbFahv6C8UUUZgKKKKACiiigAooooAKKKcJgAD47xNUQoKmRyLiyl23/AC3HzIgvg+DplBV0eoxYvUdVDFrm+g0UC3KO4dg6NValZ19p7Z2dQBcKl7J1tLG2uh0vJsBwk00FJScoZmIJubMcwS/O17TKV2dUXjWOld/8B3FMD7ZgyqLj8f2/ak3DuNVKBFOqpK8j3dx+30mip4Qc9ANhJGwqk/CPG2slQadp7j70XHTJWvHtfyPw9cVFDLmAPaLN/tJ0QAWAtFTpgCwj5sjlfwdkVR7C/wDJOwHrJJGygkX5a/YfeMR2mLDv5+MeJwRX7IAIm2pkFV9u8j6yY6d8DUeM0HxBw4b+sUE5LHXKdwbWOljvAAqz2githczu4qMjXCZlAJKhVNtdNz84Qq1VBNyB4wXXeqOsiK6ksSM1m+I2IJ0OluyS2vJSRIcBTsQxdyd2d2J8rWAjKWFNO5StUtbRGKsL+JF/nI0xVQ6Cg4P7TIB6hjH0adTNmci35UBPmWI+0Vrwi6LeQ/nacnc3cfQxRWxUjP0uLpikouoK/wBpVCp1sVVjv4WM0WHHXXz+hmI6NcPqUqdIVVKE4vNlO9vZMt/UTcYT4x4GVnUI5ajxexcW3C3zQUinLxXlGB2KcvFeAHYpy8V4AdinLxXgB2cInZwwAi9mMtgAABYAbAdlp3LHxQGNyxwEZVYgGwueQ2v5ynSqVyTmVFFtOsWN+/b5RDq0EZyNW9td+6OMZIjIaY1YnuHkB/vJTISL/L9PtGAme+gkii0jVxso85IL84DFY9swWMpNQ4zRcjq1VcBuR6nWHiCB6zdkk+ErY3Bh11Cl1u1MkA5XsQGF9jr84gK+Jx2QFjaw20F4IrdJEzU19m5LsQCLAAAE5iVOg2GvbMrW6X4lSQUpsRzKtf5NBuJ6YYxrhWRAfyIM38TEzDWvZ09lm1xPSB0dEamAWJJLMQFQXsToMzG2gHbrC2CXEVLFlREIuLHU9mxPKeT4auS2d2LMdWZiSx8WM9S6GYtnonNybTuBGg8ef+KVGpGeVaKT5YT/AKPb849P94oRvFL0oy1MwvDuK+80cNVPxCsFf99UcE+eh85pcK1mB7j9pgehg/syf+7X/wCsD7zZYurkAh1UVjzNLhNmsZN4rfoM+3E57wJnTjjGHHGZd9HNZpPeRF7yJm/fjOe/GHfQWaX3gTnvAma9+MXv5h9Qgs0vvIjqNbMbTMe/GEuCVyzt3L9xHDMpOgXIZxDlVJAueQnKN8vWNye63yg3jOLZNFCMLC6liGJJsAFG8LCajTttehwiMQnFjKOFZz2cfFAVHALRTpnIDGs0qVhcj+dJZtK1T6RFIsIoUR15QSvrYnw/SUOK8WKFKaa1Khsi+HxMf2QNYnJJDUWwvVxNjlUZm+QHaYwYa+rsW7tlHgv6yLBUyq5V1P4nPNuZEs+yA3uxgrYcHknHMOUrupXZ2GgJG9wfQiB6uGY7C3edB6b+gnq/GeCUa7Z3Vg2xZGsTba4OhlDDcAwyG/s2c9tRrj+EafKc0sf3WW8+atMUv2Y7gPAXrMMguBu7C1NO8fmP82E9R4PhUooKa6gbsd2Y7sZVUnQchsoFlHgJfw7TaCSMdDvVJ2y5lPbOxmaKageZdCj/AGdR2YtP9CzWcWHw+f2j/wCh0phVpqKaioKhGtiRe+vbt6SPiZuV8/tMOsyrJJySq2atVir4B1py0lyzmWcJyEdpzLJbRWkiIss5lk1p20AIcsLdHhao3ep+og/LC/AEGZm5gADzOv0E2wL70VHkM+xW+YqM3bYX9ZJOxCeia0cadEjqOFBYmwAJJ7AN5yhWVlVlIZWAKkbEEXBHdaAE0Uq47FrSRqjmyqLmwufIc5YvABThinGgMUp1DYy4JWrLJY0VMRTuNP58J590gwWKp4kYlGzhdri2RLEMrqORudRzPKehM1vCUMambUesyZrEJ4LEBqaMuuZVYdgzAGTFC2lzYb95gfgFcgtTYjQ3U2t1eY8tPWHLWAHbNIu1ZElTK+KpgAW0EHNCuIXq35bCCqkmRUXsOWT4d7SsjSZYRYMvZopXzRS7JoJMoYWIuDyMA8S4Zl6y3K8wdSP1EM06vbJjYi2/aIpQUlTM5LwY60UKcVwAXrqOr+IdneO6C5wTg4umYtUIzhiikCFFORSQHTQcGo5aebmxv5bD9fOAKFIswVdzp+pmssFUAbAbdwnX0sbbkaRQsRWCKWbYC5tvIanEaSuKRqIKjahCwzG+1hAHEy9Ragepmpt7TqAZMnsKyI3WU3YEFibxtEJWc4d6Lo6Vi4b2bBMlOoGpstW1jdAi2Bv6TuSVblljE49a1R8OtaohZHRVNFlGZfiZajrlc2B0GljK3CDVSnhkC1nVaKMWVqaorMhbK4uGZQMoAAPfeFcLwULUWq9WrVZc2X2jAquYWNlVQL2JElXgmHDI4pjMgVUa7XAX4eetu+PUkqCjLF3fCq1Vagas+GUl6ocNndXbKimyCw200M3ZMojhdACwpIBmD2CgDONm8Rc6y4IpST4GkOEa28fGLIYDrSKoJNI2EGNFUiVqtIEG0usJDXQASGikCqaZGDDkefYd4Yw2KDnXS3oYP9kWO2kspQ0sJMbXBUqZdqMGBHfb0gmsstq5BGbTt8e3+e2RV6ZPL0/naOTsIqinLNEyAiOR7SUymXrRSH2kUu0RuNpYgEAqQynUEG+nceyXMNWNrk3+Vp5/0GwxZAC7qqu4Vb9WwYixHZN4uHKi4N5STZWWKjJx9F09YfbkZmMfQyOVG1gR3A8vrDq1QozE2A3J5TP8QxHtKjEbbDwH8mc/Utad+TmmkQ3ijLzt55+ozHTkUvcHohnudk63ny+evlKgtUlEaVugtwrA+zXMw6zb9w7P1lusCQbSQOCNCDIKykjW89WKUY0jZIocN4aKdSo7XZnOhJOUKVUuFXZbuGJ7dIUvpI1bWO7o9TY6JViERnGNoxDeceojVEfEhsaxnVEaY4RgdMjYR7RpgwRCyyGrT2F7mT1XtoIympO+kXOxQ2nTPOTKlo4uBIlqm8NkTuyR6QYWP/EGVqoVsjMM4tblcHbfnCy3O8yXF6mas57Dl/hAH1vMs89EbE5OISeoTpfXsNr/ADkY31ghK7DTcDYHUDw7PKdfFMedvCcv1MaKWWNBy0Uz15yL6onu/AzoN/cL++/+tptF+GKKenE36n+5Ijrf3b/uNMxFFOHrOUckzk7FFOAgcIU4B8bfun6iKKa4fzRUOQmP74/uy0ZyKeodAwfF6SRd5yKJCZId4194opYkOEfFFBCZGskiiggY2KcigMrfijq05FEUMTadG8UUQFoTGcQ/vH/ff/UZyKc/W/gjGfBXnIop5hkKKKKAz//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUUFRgVFRUZGBgaGhgeGRocGBoZGBocGhgcHBgYGBocIS4lHB8rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJCc0MTQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQxNDQ0NDQ/NDE/NP/AABEIARsAsgMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAABAUGBwECAwj/xAA/EAACAQIEAwUGBAQFAwUAAAABAgADEQQFEiExQVEGIjJhcQcTQoGRoXKxwdEjUmLhFBYzgpJUovAkQ1Nzwv/EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAAoEQADAAICAgEDBAMBAAAAAAAAAQIDESExBBJBEyJRBWFxgTJCsaH/2gAMAwEAAhEDEQA/ALihCE6wEIQnAEIQgBCEIAQhCAEJo1QDiY2HtDh9a0w+p24KoLH124CAO0JgTMAIQhACEIQAhCEAJrNpi0A6XhMQgGsIQgBCEIAQhCAEIRDnOaU8LRetVNkQXPn0A9YBtmeZUsPTapVcIi8ST9hKl7Te2Bj3MEluN3cXv+FZA+2Xa2tmFUs5K0x4KYPdUciRzMjXGAS+p7Q8c99TgggggC3EWmOyva44V2dhqY8zv6CRRFvwnTQOcAv7J/aZh6i0w5777GwsA54Lb9ZLsPnCMyqdtXA8rjiPWeUgLbhv39ZJ8n7X16KaNeoBlZS3FSvQ+cA9LlwOc2BvKmyLtnVxPeqtoQEAkcWtuZZWSY9a9JaiX0sLgniYA4QhCAEIQgBMGZmDAN4TN4QDSEIQAhCEAIQhACUf7aO1DPUGCS4RLM5/ma2w9BLwnnn2zYEU8eXAIFRFY9CRsbH6QCvuMzN6NItwj3lWSa2BbhI1ansnMOuhFh8G7gaB6mONPs7td236CS/D5SigaRFj4IW4TLWdt8GqcErsrnEZMV8JJjbWoMvGWXXy8WMYsywAKkW9JZGVvsheFJcHHsquIxbrhqIsT4nPBVPEz0D2eyo4amKZYsABz6DlKE9nubNhMaiNb3dRgjjoT4W8jeejsOCAQeRsPSaEZmdYQhBwIQhACYMzMGAdIQhANIQhACEIQAhCEADKj9vNMFMKQNy7jz8IluSqvbauoYT/AOxx/wBsM6iqaVNaY3+ceMszKlcXa0Sf4JHe7my8pIMJleXMoTXpY877zPWn2aZ2uiS4DCe8S6MD6RQ2Ffw6fWN+V5cMGda1NaHgb7R/xWPJQsCLsDbrMtStl6p66I7j6YTxOoPS8jeMrqxIBBMXVsi1uWq4jSCd+ZiLH9maaG9KsS3K8ulJLsrqm+NEdr0CtZCOboVPnrE9SYZSFF+Nhf1tPN1WixfDhh3vfID/AMlnpRRtNUvgy2tM2hCEkQCEIQAmDMzBgG8Jm8IBpCEIAQhCAEIQgCfMFJpuFbSdDWPQ2O886YkOzJrdnUOx3Ym7W8W/rPReYJqpuvC6ML+oInmsVjdF5C4+e95XZbA7JlQrII54Xs1d0qMLsumw20nTwuOcT5TWItvaS56qrT1uT5Ac5ldUnwa5mWuSOZm5RzSVh3jqcDwjyA5RS9RkVSDwtES4J2cVAt9bbeQ8495pljoqi1yRykK5JJDbj8natTIA3chvebkjy6Wja2TumgKx7t7tvdvW8mOVOy0whPevuDyhmlOy323nfd60PRb2QzE92rSfTq0VEa3C5XlLW7L9qGxTsj0whAupBuCL7g+cq9qoFVCeAe/0Bkt7DOWxjafCquX9XIKy+Ke0jPcTpssyEITSZQhCEAIQhAN4QhANIQhACEIQAhCEAwwuJTuZ+z2uj1qg06FLup1cRubW6y45pWphlZT8QI+otI1OyU00eeMJV0x4xuYMyKg6bk8o3ZhhTRrujixViPvsfpOmMRaqgA2tMrnT5Nc02jvgaJFrOduh4R6q1nZQWckjYEtY/KN2UZcEB1udxtYxyx2BV0srknztDSLEuOxFhsxZGOoFrniTvO2a5iXAtwIEa8Nl2l7sxPlfadcbVUtZeCi3rItJjbQkGEeoSVF9O5+ctP2fZUaOH1v46p1Ntaw4KIk9m2BtQeoy+N9ri+yj95NQLTTEpcmO73wZhCEtKghCEAIGEIBtaEzCAaQhCAEIQgBCEIAQhMwCk/a4NGKLLtqpqb257g/pIflGZgW1t6yxvbLh+9Qfqrr9wZT2IoMhuvDpKnKbaZdLaSaLIo4elWUEMV872nZqNGjclmYgX3MgGHzpksLGwG/rMNmtRwVAbfoN5X9Mt+p+xIcwz1Se7sJrSxQfSo4sQPqbRjw+UVHOpxoX7mL6SmkQUHeBGnncg7fedalBe1HozLMKtKkiKLBVUW+W8Vxj7LZk9eipqACoANduF7cRHuXS1S2jNSc1phCEJIiEIQgBCEIBvCEIBpCEIAQhCAEJmEAxCECYBBPazhdWFV/5HH0baVHgEDPYy2/atmITDCmfjYfYyp8vA1jzmfK+TTinhbJFTyGibEqIrTK6SeFR9J0w6WA3M7pM/uzV6ISYnCAD9pxyXJ9T+9cd1fD5nrHanQNQ+Q4n9BHRaYAAAsBKsmT4Rfjx/LFvZ/Fe7q2PhbY/oZNQZXdZ1RSzGwAuT0EaMq9rCo2irSLIDZXU97TyuDNHiW/XTMnmwvZUvktyEb8mzijiqYqUXDKfqD0I5Rwm0wBCEIAQhAwDeEIQDSEIQDIhMTMAJiavUCi5IAHEk2H1kI7R+0rDYa6Uv4zjbu+AHzbn8oBN6lQKCWIAHEk2A9TK/wC1PtOoUL08OPfVOF/gU+vxSsu0HbHF402dyqHhTS4Xy9YiynKWZw7iyjex4npK7tSuS3DirJWkh97RY2visOz1m1OoDcLBRfcARuyXDmomocV5yQYagHV1PBlK/UbRD2Xb3CVFdTcGwFuPKY1ftL2enmw+lJLrR0pYoji3CO+Vq1XfgnXr6RFhsm94+txZeIXr6yUUUCgACwlF2ukTx4n2zsiqosOE2LxO9WMXaFqlRCiPp624sOl+UrifZ6LamlLaXQx9tO0QqasPSPdHjbqeg8pB0b6xViqWkvy2H2iJ0tYz1ccKZ0jw8uR3W2STsv2lrYGprpnunxofC39/OXx2W7V0Mcl0OlwO8h8Q8x1E80q94uyzMalB1emxVlOxB/8ANpaVJnqiEhHYXt0uNApVbLWAHo/mPPyk3nToQhCAbQhCAawhCAEj3avtZRwCXfvO3gQcT5noI85hi1o02qObKilj8p5oz7OnxeJes5PePdHRfhA+Vpxs43od+0XbDFYwnW5ROVNTZbcr9TI3Tps5souYryXBviHKjZRxPSSingKdMhEG/wAR5mUZMqnj5Nfi+HWZ7fCEWW5OqKHfvOeA5D0jmi+L0E7Xub8hss5YhOA6zFVOnyfQ48MY51KM5VUvVCjzueW0kWgHiB623jJkFHvuegtf846vX1cPCPvK674I0ts09+yG3iH3EULiFYAg/KInPGbUhYSLRJwjs9S+wiRn758hOqGJ1HfPmIRNToh/bTLirConhfZhI9jUtYSd5pT96GW/DcD03kUOCNeoQNkXxN+gnpYLbnk+d/UMSx5ft6Y2UFigUGMdaGFQNZRsOfWKzhbC/QXl+zzfYasMr02DoxVlIII4gy6uxPbpMSq0axCV+G/hfzB6+UrBMOGW5G5iNqRUgg2INweBB6iEzqo9KwMrfsN25LsMNiD3+COefQN19ZZEkixPZtCEIOmsIQgEF9rWYe7wXuwd6rBfkNzKLrpoq28v0lq+2ev38MnLvH7gStTQ14kDkBc/KRp6Wxjh3an8ko7M0AlG/M8YppC7Fus54J+4wiynQZbBlI9fPhPMptts+sxzMQpXwbonATTTcljwA29Z3dCO7axPG/SYCarqPCBuZXsm2ZyzwW/mJJ9IorGxVbcf0mMImlQPKa1WvVAvwUznbIa5BxN+U1ebgXnCTNVEylO7idkSKcBRuxb6QmQq9JsZcRhF/wAQqqN2Bv8AOR/GYcUdVJdgl9R6sT+0l9RP/UahxCmRTtMrB3HNyLfMWmvxq50eR+qTuVQnyrD6gW+EcI442kNB89vrtCiuhFQchDHt4QOQv+g/ObDwwo0u59fpyiHRe4j6lMBQOgjRSsWJHT9YCGPHBlbUhsym4PQjcS/Ow+djGYSnVJ79tL/iEozHDcybexbMCr1sMTtfUvrz/OSRbLLghCEkTNYQhAKe9uKWfDt/S32YSDZCut3f+kASZe2qrqxFNP5aZP8AyP8AaRbs2lqXmb3lGZ6k2fp8e2bf4HnKULvovYHcnoBuTJ2+IVaTMrpUAKhbrwNuvxGQfIaxWurBdXEEdQRaSHE6rKoXSi8FBubnmbTLvUnsZZ9rSfSEtVmdrk3LcTOmJASnpXiZlFseG8zUW9/K31PCZmXvXCXRhFsBeI0N6rHy2ijEHb5RNhx3z+EQievkUNz+c55fTq1XZQ6rpAJ1Lfl1E2NQ6SdJ5epuY/4Q0UTWAVJK6r3N+p2mjDCpPZ4nn+Q1kUp6SEq4VlA1urEk+EEC1uN4swyWE2xWJR3JTwKAAbcbmFN9tpVllKtIt8e6rHtsaay/x2/CZFs9qaq6E8AuqS7Er/GB6qZDs7Tvjrot9DLfHf3Dz59sG/4MYeuG3M5PW1OOmoD5LuY1U8UVuDyvO6ErovxIv9d5uPAaJIaosT6xpwd9X+0fc3nPEYruaRxYhR8zaKVOltvIfQTgEmcUdJ9RFvs/rmnj6ZHxnT9QbzGbUroGjx7LMuFTGGof/aQkDzY2vJySgumExCSLTEIQgFGe1vUcadjYU0sbbG172kfyJ+5b1+8srO3r1M0KUlQolNRULrqRUO7E34GV0jIuIrJTYMiu2kjYEX5eUozTuTZ+n165v5H7I8alNu9x1C1gCSOlzwkjfOEv4W8uEg1DxD1jziWtp+Ux1TXB7v0pb9mOgrFiWO5M6VBZE/qbeNoq2i/MWsieTLKNHaWtaOWNOkGccP4v9ginNVul4loG3umPAgqfnOpcElX2jlRZCBcaWGwbkR0MWVcAy6WC7EcdXdPyjTXQhWXmPuIoy2p76lpue7yvznVWkY8vjzXPH9odsIqMp7wBF+4LcfPrE9EhG09YztVNGoG4A7GOmON1DrykW9nZw+nHwzGL8aN52kS7Spps3RiPrJWKgcAg87yOdrf9GoeY3EsxPVoZ49sTX7EFd9dQL1YD945Y+p/FUcgBGvJTqqqTyF52zPFAOep+gE9M+apc6HHAjXiUTkl2P6R5r09Lj1jJ2TF6jufQR8x7gOOl5xkH2LMXTDUz6R59krgV66niUUj5E3jMX26giLfZ22jHgcL03Hrbedns7HZccIQky4xCE1c2BPSAU1j+2z0cXiqbUqdSmzkMDcMQBa1xIXiscjYh2o0dCMAQl72PPeJ8xxGvE1XPOo5/7j+0TsxR1frIVytE8FeuVMeMM7uwGy/c/SOOJcmwFU3HK1o35PUQ1Va9jHvO8vBUOmzAgm3PrMNNKtH0UtudrkTYhGGm9VuI5COOdU2CJ/Fbj5cuMbqWI16FYWYEXi/NSfcgn4XP0kH2T0npivEYZmo3Wq1reR9Y24dGfDE+9Pda426GPeEPcA+FluPpuIz5MCDWoW8xEsi0OGG95WRXSqt7b9384lymrVpVnp6kIO++30iXKq5oV9HwNwHnHDtDQNxUQ2Zd7j13hrT0cXK0Ks4o1nS4VD8yImynPF0+6qgqw8riKUzF9CMy3BABPFZHc5qGnVD02tfy2M4p3wzv+o/U8ZTVyA4t9I09ssShokKwJI5ETvQxiuB72nv/ADBbj7QzbB0atK6hNgbEbWiEptM5k3UtL8ECyOuqFyeOnaJ6nfcziV0OQeRtOuGF3I6kT0z5m5c09km7OJp2jrnKadJ6xryNu+x6Wjzn5BCyL7KH2Zonu7RyyRxTxuGe/FiG/wBwtEGGI0g9BFFIjWjryZSPkYXZ2ey7bwmgeEtLzaI81xAp0ajngqMT8gYsmlWmGBVgCDsQeBHQzgPKT1NTM3Uk/U3nWq2w8rS7s99l+Fr3aiTQc/y7pf8ADy+Uq7tX2aq4CotOoyuHUlWUHgDbcGRZxLT2cckVXqBW2JHLb5x7zK9MKSbryYf/AKHOMWVDvBhxXf8AeSbNHVkvxB4+V+cw3/kfR4XvGNIq3dDtqBHzEdc5YbqfDUUfWRmm5V1v8LbekkWdjWgZeKi8i55RNVtCvJMX3FR9trfTgZyxHcqrVXcXs3p5zPZ3EBqIFRduTefnE+KoMlyp1qb35yOuTqfBntQliroLaSCItwuK9+guBuN/I8xN6rCtQBG+wv5Rkyqv7p2pt8Xh6SS5RFfbQ45eWpl6ezLxCn9JrmODTEodI0PTHDrNcxqlSrp4lO/mDFwQVNFZDbhqHX1kd65J0kxhyXGMhKPwGxB4jzHlHrHoDTIsADwYD87RjzZzTramUD8mEcsqzEMWpW2t3fQ8opf7IS1r1IHn+Bak/e58D1ifAHvE9JIO2d7KGG44H9JHcMbAjrN2OvaEzwfMhTlaQ/5E5ux/q3+seM4e7LbpGHs+fF/5zkizVO6Dty5STPPpcirBtZQD09J3SnpbUvDpGzD4lEQMx3Pz4eU5188prc6n+SRvk6pr8HoOkdh6D8oTShU7q+g/KEsLTpCEIOgJTHtbqasYi38NMfc3lzyiPaPX15hU6KFX6CQp8E47G/IqYNQjqIscFC6G4226RJklF2cshsALE2uLx2zXCVtBfVdeF9O3pMNf5HvYGvREac99GPWxj3R7tQob6Su3QiM1PL67XIViE3ay+EdTH0YWqVVte2wB0/kZ2uESl7rg2yAaHq0W8N7j5zvhv4dR0IJB4dJyo4WsKws+q43svSOfuKpYAFTx+G5lb/6S6/oxhqYBsu3UcjGftFgNJ1rxXf8AtHJqdamw12A/CR+ccBharrcAEH+kkRPtLOVUNb2R+jUFamG52sR5zXL8VZmUNYj4Tzm9HD1cPUZHUBWOxsRvOeLwdTV7wJZgd+XzEm0dmuhZUw64lXpsLMOHW/KRmjUai66hZkax8x1kooO5tU91Zhs/e3I6xD2owrPZxTtyY35Tkvn1Zxr5Qzdp8UHXTbbiDIhRJvaTPEYTVhxqK3F/iF7echyd1/QzXha9dHmedLdJskWQ4KvvoQb8z+0luHyt2t71tX9I2H2iHIcR3RJJReV1TKpwyuTgMEiDZVHykfzRRqGw4yR4qpIvmb73nZ7J0lo9CUfCPQflCFDwr6D8oTSYTaEwJmdOGlRwoJPAAk/Kedc2re9r1ah+KoxHpfb7S6u3eajD4Oo17Mw0L6ttKJR7CV5GXYl8k87E4bVg6/8ANrDD0UC/5yR4LDCtga6kb7keoFxG72a4JnpawR7smorDmSbWt9IvwdQ0adYH4Kig+hNj9jKXP3JmtXuHKfTTGqhmq4XQrKNNeoRUJ5KqBfzmmIUf4amF8PvKmn0vtN8Th6BxdNK63Qmoi8bayQV4cNjNs1QJQXSO6td19B0nMqfqy7DS91+dirslTBqszcFS3/I2irJKenFlbeHXOXZ/Bs9Oto8RCgXNhxvHBqDUsdTLcKtM3/Go3+0jM7mRnyL6lLfaOpzBMYXw7IA2ltJ8x+U1ybFmhhSdIYq5W3oY1ZFf/Ht61AP1jzlmLRKVZnGpRVYW485KeeX+5Ra9ftS44ehmxuYDFVqAamoCuCYtzHGpWLKyaWQ2HK4vac81xiVSooqVYHoPlaKaOMpVz7msmiqRYNbifXr6yCfttbLa+1Kkmtf+Dd2kpinUpsqgKVGrYWPr1iLtBhQrFLbOoZfmNxJJXxOH0KtddZQleF91Mau1xU1E07dwFf2kblKWyfj5adqWvz/ZXmGwyIzo6i/KQvOKQWqwAsLye5zSJYVAPJvIyL9qcGRpqcm426yWCuf5LvOx7x7S6O2RYuwG8mmCq3ErXKqhBt5iWJlS3QdZO1pmCHtG+PfaRzHveSHH302kWxrWvOycvo9KYfwL+EflMzGG8C/hH5QmkwmBNptaYM6Cnva/muutTwynZBqYeZ4XkDInoTHdlcFWqGrVw6O54sQST95w/wAnYD/paX/GVWtsui9Iq/snmTp7tVdgFJLLc2N26c5J+0GZURTxFm3qKpUWPiHGStOyuCQ9zDovoD+86VuzuFYd6gh+sr9aT7NKzYtLhle5V2hwj1m9+dk93UQ2I74QK6/UR6y/E4TEUXWswUGozhb2IB5x8PYzAXv/AIWn9D+8U0ezWEt/oJ058OnGSaZH6kJcbI5jcbSw9Bhh6u5ZbEG5t6xIc9QU0atUAqUqispJ3ZG2b7EyYDs9hbW9wlum81rdlsE1tWHQ24bHb7yMy0ztZYc609/kasJisChevSrK7EHYNcgny5Tjkuh6NRKzhNT6gbgHkY9UuyuCQ6kw6KTxIBH6zo2R4Yj/AEU49J2pbeuCKyTp97/Iw42jQoKr06uplYbagbiLiMJUZcSXsyi9rgbjqI5f5dwu/wDAX7/vMjIMN/8ACv3/AHkVDT40HlTXLe/6Ijh8WlVcRqIB16kuePpEna6uGNFk3sgBA5EdZNWyDDXH8Ffv+83fIMNv/BXf1/eceNta4Lp8iJtVplYCnrU358fIyP5mFNJ6bnceH+0u0ZBhhwor9/3ier2QwLm74am3qD+8hGFy+y+/Pmpa12ecMrpkvtLBy5rKBLPo9icuXcYSkD+GKR2cwg4YdPpLqnbPPnMl8FU5m9lMidYk3noJ+zeEYWagh+UT/wCTsB/0tP6f3kpjRysmx+w/gX8I/KE1pqLD0EJdoz7P/9k=</t>
         </is>
       </c>
     </row>
@@ -1766,25 +1774,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phil Salt</t>
+          <t>Mustafizur Rahman</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>172.7</v>
+        <v>233.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1793,97 +1801,97 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>22.7</v>
+        <v>33.3</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>WK Keeper - Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgWFRYYFRgaHBoaHBwaGh8eGBwcGiEZHBoaGiMcIS4lHB4rHxoaJjgmKy8xNTU1HyQ7QDszPy40NTEBDAwMEA8QHxISHz8sJSs2NDQ0NjQ0NDQ2NDQ0NDQ0NDQ0PTQ0PTY0NDQ0NDQ0NDQ0NDY0NDQ0NDQ2NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEDBAUHAgj/xABFEAACAQIDBQQHBAgEBQUAAAABAgADEQQhMQUSQVFhBiJxgQcTMpGhscFCUnLRFBUjNJLS4fBigqKyJDNzwvE1Q1Njs//EABkBAQADAQEAAAAAAAAAAAAAAAABAgQDBf/EAC0RAAIBAgQEBQQDAQAAAAAAAAABAgMRBBIhMRNBUaEiYXGRsRQyQoEFweEj/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREASkSMdru1lPBKASrVWzVCdB94gZnw49NYCVx227Wps+kGI33c2RR8WOegyHiZxyv6RtovVv+keqUnJVVN23mpz85qNubUqYuu9ap3nci2WSqPZRQb2AHxJmuUFSCwuoIuOg1+HynNyvsdVC25v9rdt8dWpmk9ZrBjdk7jEDS+7w8LS32d7a43BmyVC68UqXdT1FzdT4GY9XB2JGtgL245A38wQfM8pYwezy53ALnh9PI6eNpXMWya2OtbH9KtJ9xayFGNt4jNdDmvS86Nh66uodWDKwBBByIOYnzHUwLLqvMeBGqn5yY9k+2TYRVRyXplbBftKRlbyPwIkxn1IlT6HcYvOBba27jMS5Z6jome6indUW0GWrdZXY/arFYU23y6cUfvD36gyeIivCkd8iRfst2pTFLl3XHtISCR/iHMSTiXTuUatueoiJJAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAYW1satCjUrN7NNGc9d0E2nzlt3GtXrvVdiWqG4BN7Wy8hyHCfQnaSgz4aqiKGLLYAmw8+g1tx0nzbtKkxqtcg2a3duPfcA9NBKTOkAihe8zWt1z8peGNRwVIVW4HQX4HpLS0d8qoANtbi/wD5MkeB2CmRcAnlYWH5Ti5JbmiMJS2I+WbeBtoApHMWII62B+EuLiGW9gb2K7wyuDx6HQ+Un+F2XSAsEWZh2ShGaL7pz4qOqoPqc2TalW5Zhv3ADXGpXRvHUX6y61anVa4XcYEMPumxBPgdZ0VNloBYItuovMTGbBosPY3SOK5SOIuhPBl1IdjscyuwtkoNrcLkk/C0xcLXV8r59ZIMZ2bDLYOQQCB4HgZEaOz3p1CjXDKbWtkRwtzvLxlFrQ5zhKL1JFsqs2HrI63QqQcsri9yPAgGd+wlcOiuujAMPMT59RstwkEH2G5EcD0nb+yeI38LSOWSgZaZZTpSetjjWirJm7iIncziIiAIiIAiIgCIiAIiIAiIgCIiAIiW6l7G2toBzX0q9rTRT9GotZ2BDkEgqCMhcaHO+XTnOR0BfjJP6SqaLWG4d5s97O5Z+JY66g5SM7OpX3TmbnM8L8beFxOM2d4I32zKCgqRr9ZJMMlzNVhae6QOPym7onlMk2ehTjZG1w1OZq0+HCYmCJmypDXlKIvJmP6u8tvhpm70tVHk2ITZrK9CRztFs7fQVFydPit9MpL6wuJrMZSBUi2oOvhEXZkyWaNmQDEuxAJ1uM7/AGuG9wz4NxnT/Rnj2NPcv3bm1+B4r08eonM9q0Sm8SL6hl6ZH56ciPGTT0W1e+UOauN5Wt9pSM+h0PnNcN0zz6mzR1xTPUpKzQZRERAEREAREQBERAEREAREQBERAE8tpPUt1RcG2RtAPnv0hYpHxTCmgQKLEC3tXJJy1vcS92UwIdqS8STcfdAsST43msx1ACtXLMTuuQCRqbjhfnJZ2Iwop7zMd4k7t/Akn6ThLVmiOiKbRprSdgRaxPuvlKYbGoDdmUDO2czNqYMVMQS53lJvbhbhMrDYbDewtNDbIkjL+szySuzXCUsqM/ZuLpPYB1v4zdJRFpEq+y0VgyU1H4Mj5Wm22dtPMITfx185VWRZ5mbT9GAuZrNqbZw9Pus635CbHHVBYjhaR9ggb2E8SoPv6yXZELMzHTbCMe6wI1GYvM7BKtZlUZ7xI87G0yXSna5VGHMARgsKi1FqJ3c7mwyPCQoq6JcpZWcw28HStaxHA/USSejiq4qIgUtZywIPe3crhgcgBa9/CZPbjCbzAqACWsGtzMkvowwf7JqrKEfeZCBpdciZopq7sZar0bJ/ERNJkEREAREQBERAEREAREQBERAEREApLGKrhEZm0UXMvzWdoU3sNWH/ANb/AABMhuyJSu0ji+0j6zHO4phEqFLLkV3ksL3t9oC2XEyS7Kp/8MH6ub9Sx/vyEj+HQqAHyAKspOotbevyW8ley91sMUORLuV5EXuCOhFpmjJyubKkFBpI1gLEkrmxmGnZ5nUhiWJbeFyd0DiLDnfnebHDe0RNtSqbo+gnBSyyuaXDNGxh4DZq4elY5Ne5fjoqgboytZfeSeM1lKvarvnK5yH1PIzeYpi63OQHuH5yNYZDWqi1wui8L2+kSlmd2TCKjoSdcWWYXtaYmM2YtUMpQOGtmwuVIIOQ0tz53Mu1sE9PdIFx8ZssIN4Bhof7tEW0yZqLWmxH8H2T3EsGZWJU74yNlAULbQi3O/Cbymm4Le68z98EdZiYgjMccpMnd3OcVZWNZ2hwxqIgTUuP9JDe7pJH2NqbqvQ7t6ZBO6Le1n3uFzrMLG07Km7me9kOZFxr4fGbDsrTs1ViM23T14jOdoNqaRnmk6bbJNERNRjEREAREQBERAEREAREQBERAEREAS3VQMpBFwQQRzvLkQDhNVMQjnfTfQu1Mke0AMibeYM3+y27gW92pm2WttV+Hyks7TdnKldg1B1XUsrXAJNu8CAc8pHhsWrhW/aFW31+ySRdb5G6j70y5HGW2hudSM43vr0NV63ddr8TNlhn3ppq5754zL2bira8JnmtTVF+FG22thyaDBPaI04nmJoquFdjQalVNMIvepldWHM28ptmxTOe7pPWFpENd7fSEw0rHrHUqzBHWt6oqQxXdDBlOqniD1E3OzvZJtYFiQNNbTF3gwI93PynmmzpwJEm+pW2ljIxCAG4ymLVqXy4y/iKtxMJTmJD3JW2pnvW06Am/AHIZzbdmcOy77lt4Pu26WvvceZnjA7IDrvMxAJyC2zHjN3hsOtNQqiwE1wg75mYalVZcqMiIidzMIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFJH+2FG9JXGqMPc1gfhJBNT2nW+GqdBf3ESr2ZaP3I5ZW9pvpGBG8D+K1/GW6tTO/Bs/785TAVCjsOqt7jY2mJrVnpKWiJDVLIm6lg1tW0vMShgcQ5u1QWPJdPC5+kv74Yg9Jm0kUi3HxlLnVO2qMSnsiqy9yt1zAN/wApkYGnXQlXdWXh3T+cysPRs17G449OkuVzJIcm9GecSNOAMxEbMSuKq3Futh9Zbw5uyjiWGn18oS1KN2R0PCpuqo5AS/KCVnonlCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFJq+0v7tV/D9RNpIx2s2zRQDCs37WqrFVAJsqDeLMfsjKwvqfOQ9mWj9yOVrUzZDbImx+ku0H5ix0/vnLYo3J8bym8UNm8j9DMSdz0Gmja4SuTkeHzm62Wn3tfpIqlXdNxqJu8HtdbZ3v1H9JDiTGeliRhhmLWmPiXPgPj0mv/AFynE+6+fSY+I2mGtYWHC+t+EjKMxdxOKtrmflL2zQd5XOpIt0FxMXAYQ1W42+0foLzbYinusoUDUZeFo2J3OgLoJ6mq2ZtzD1yyUqyO6ZMoPeBGRuDnkZtZ6B5YiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiajbnaLDYNd7EVkp8lJu5/CozPugG1vPnettn1m2KmIc3Rmq01PAKEZEt0yHvJm67WekWtiG3MOWoUbZ6Co9/vH7A6Dz5SBIbPcaghh5Szg3FkRmlNdDoGGpXlNo4Qhb8p72LVV0Vhnf4eM3lSiHS1uE8u9mey0mrojWz8OHtc2m8p9mwQCGYecxsFhtxrcpKsHoJdM4SVjRp2YXi72Oeo/KXX2bTSwVbtpc5n4yQsswDSu8liJkYakqJZRMHEvZgxOQM2L5CaLbOIVEZ3NlUEmUZ1iubOWYHab0sZUxFMlWWuzr5sSVPQg2I6z6V2ZjVr0kqp7LqGHnw8RpPmIcSdWJY+LG8696M+0tJcOaFaotPcN0LsFDBz7ILEXO8dOs9RxeVHjZlnZ0uJ4RwQCCCDoRoZ7lC4iIgCIiAIiIAiIgCIiAIiaTtH2koYKl6yu9td1BYu5HBBfPx0HEwDdSPdou2GDwI/b1RvcEXvVD/lGnibCcc7Tek7GYkslI/o1I3sEP7Qj/E/A/htIMwLHmTmTx8zzllEq5JHR+0fpaxNYMuFUYdMxvHvVT1+6vlfxnOq9Z6jb9R3diM2dizG/MsSTKuMrCXqdYrlYHyE6KKObmzzSxOQBztleUavoeUpUIZsgFuPj/WeHpGCCT9nNs+qbP2Dr0PMTpmBcOoZTcHQicMo1Cpkn7P9o3w57veQ6ofmvL+9JmrUMzzR3NtDE5VlltyfQ6PiKdnvN1hbZTQbP23QxIG6wD29lsmHl+VxN1RTSY7OLsza2pK6M1zlLVNMyYEwtq7YpYZN+q+6OAGbseSjiY3K7amVi6qopZiFVRckmwAHEzlPajb/AOkvupcUlOXAufvEcuQ85b7Q9o6mLazDcpDNUB16uftHpoPjNDUabKNDK80tzFXxOZZY7FVfOMZibqVGh9o9NbCW0S8tV6ljYAE9Re1+U1GM2/Zvtni8ELUapZA3/LqEtTtyAv3f8pE632Z9KWFxBCV/+GqG3tG9Mno32fBrTg27lPLJbOVcS6mfXKMCAQQQcxbQz3Pmbsv24xeBIVG9ZS40nuUtx3eKnwy6TtHZT0hYTG2Te9RWP/t1CBc/4G0b59JzcWjommTKIiQSIiIAiIgFIicz9J3aV1Aw9Jt0OCXYGxIBA3FPAc+ekvTpucsqKTmoq7Mntb6S6WHJo4UDEV8wSD+zQ533iPaI5DzInH9onE4qo1XEVN924sdByUDJV6CZNHDM3sqT4DL4TOp7PqH7B8yB9Z6FPBw/JmSeLtsvdmhGyD94eQ/rLy7IUD2jJCmyKh4KPFvyBl4bGqc095/lmhYagt0+5weKqcml+0RgbGOoew6r/WVGzAVJO8xvqMpIauyqoyIUjo1vmJ6/V7kW7qj8V/kI+lodH3K/WVFzXYjB2bwLEcgBncSj0bGzaj434yXUdhKe8XJ8AB8yZY2nsAFSysxdcxe1iOK5D6zlUw0cvgTT9S0MZHN4mrEPq4biJbQETZUqLtkFY+U2uC7NO571l6A5/wBJmjQm3ojRPEU4LVmnw6s3sAkjO41FuN+ElPZjtTXBKPZ1A9p2KlfEhWv7r9Zt8BsynSU3w7ZA5gk3sMzrLuy9i0xhkG6pViz5i5G8SVsbXFlsNRkJZ4NSaU/k5L+QypuDfsYu3u19dVC0UTMZvvFgp5BSq59TlIJicQ9Ry9Vmd+JY3PgOQ6DKT/F4GhuMoQkiwvc68eJkTx2x2BJRQP74fnOj/j4RV6a92RD+SdTw1H2saq88bt57emy5MCOs9UxvEBQWJNgAL3MzypzTs0aFONrplFW5sJlHZiE3u2evjJFgOzyqo3yd45kqdOguCPOXKmxPuPfow+o/KbKWHio/9Ff+jJLF+LwNL15kUxOyM+42XIzH/VT8h75KsRsyov2d7qpB/r8Jjfoj/wDxv/CfpLPCUW7ptFliqltYp+a/wjZ2RU5D3y02zag+yfIj6GSdqDjVHH+U/lLZpN91/wCE/lKvBU+Uy6xUucPYubB9IGOwdlZzWpj7FW5y6N7S/EdJ1vsf29w+PAUfsa9s6TG5PMo2QcfHpONVENswbdRl8ZhHCLvBlujA3DIbEEcRbQzhPAy/FpnaOKjzTXc+oZWQz0d7fq4miy1jvPTIXe0LC1wW4b3O0mcwzg4NxZpjJSV0ViIlSxpts47dBRTmdTyHKQDtJRu9MgXJVhe3Ij3aze4qtdvEzA2zQ30Q23rOMrX9oEacc7Tdh/BJSPLxTdROJHVogHvsAeRIv8ZeVV5k+AJ+Qm2p7Le9lpkDrZR/qI+Uu/qeodSg8yf+2bXiW+aMCw3k/c1IdR97+Bvynlq6jg3u/Obo7Bbi6jyJ/KeR2f51PdTz/wB8rx/PsS8O+nc0xxQIsQT5TFqVBf2W/wBP80kR7PID/wAxv4R+cr+oKfFnb3D6SePbYrwG90vcj6VjYDdHm30Cy4GY591R5n6iSWjsakPsk+LEfKwnttj0WIUIOtyxy8zaUdf1OioPy9rkTw4ZySpAUcd3U9Lky9S2dUqNk5Uc7L/LJ1Uw1NFChEsP8I/KWgpbuIqqvE2HwyleO3t8nT6dJ6vsQ7FYVEVkWpVrPY91SN0ZfaIFgI2fsetUpUmG+FNNNMvsjrJnSVQfV0x+I8POetiUP2FIHQIFt4ZfSUdaW/yXjRi1l+NCH1ti1UA9WHJ6Buup0Mw/Uu3tJUVhrffnR3w6Ke6AD0mI6WNx5yY129yssMls2c8rbMZ/bV/MNLeDwApklbqTrkD8xlOl2ll6YOoB8Rf5yyrPoV4Fvyf7IQHa2q5c1P8ANKfpHNfcQfnaTB9nUibmmnkLfK15h19iUjoCvgf5ry0a5SVB+T/RGnxCn7w/yn6Az2tRAM2UeOR9zTav2dQnuuw8QG+Vpj19hvoHB8j+f1nRVvPscnRfT2ZrauLQaOv8QlKT732h5kCbvC9kWOZcX/Cbf7ptF2G6DJQ3gR/3WkPFJaf0XjhJPV/JoqWEJGRmNjNkhs2QN4jP36yRPs+2bU7H8P1A+ssvQ+6zDz3h/qvaVWIbeyZZ4a2qbTL3ZHBijTYoCu85bUnQAcfAycYatvKDx4yOYanuoo6Z+Jzmy2dWsbTDX8TckelhpOKUW7m3lZS8TKbrnOUe7XmRWayX+6Ub3MCfheY1IZA85kuu8jLzBHvE9A8lm8qDjMR2s1pewj79FG4lQfO2cxMY1rGc0dHtcyCJ5tKqbgTQ9odsiiQqYnCUSB3hVLPUvwsqEH3yXKxCjfY3REoBIpge1tMUqxeuK7oVK+rolfa7qqqse9YgkkkZSM4PaOKxNX1YxdWmtizPVZUVFHEhbAcBa/GRnRZUWzqyjpK0ss5yTY7Yl8UqUK9SruuLuHcoUDd52DEjdIByOt517dkqVxKOVnjdLm50nl3JO4nmZ6quT3VmRhqIRbnXiZLdiiV3b3PVKmtNQOJ95MtYBwEFxozj3Ownul3iXbQaTxSWw0B7zHW2pJ+sr6l79D09ccp4Iv55z1VHdPdztzEt0tPiJJW+upVDwlCM5clHW8XFjXbYxD0qTuihtyzEE2BW/ez4EA3v0kLxXaB2ZQ3qzuYoOO/ayCxRgRkUFyL6C3HSSvtLiLUlBYBXcI4BAco19/1YIIZt253bZgG2chuFwFBy+9Vq0VUNZg6d4Kx3U3Sqtvta4XlKybvY6U1G1zf7D269epulMqlSqE3bEBEC98tru62yzLeEllDCBTc6yCdnko0qoqJiSA37O1RRvMMrbrb/AHQGsNG06yf06l+4+TcDJUnYrKMVLYvM9p7pPeY5QjIz1QN721EhrQlPUyZj4qmpUllUnTMC+cvA3lrEnQefu/8AMqlqWbsiw0rSazTzeUJl2iiZsfXnmYmB62JTIXzkdo+wnh9TL6RE0GY2myP3ZPD6mY20tB4iVic1udX9pfp6DwnJ6/8A6jif+q30iJEi9Pn6E3xX7q/gJyXHe0fGInJnaGx0/wBGP7vU/H9BJnETpHY41NzzQ9qXtoez5xEl7ootmej7A8pi1PrEQgz1S0PhPGH0X8I+URLFeheXTzleMRILkU7ffu5/HT/3CQ3bH7xs/wDD/LKxOcy9HmWNka1/+pS//SlOxY72hESYE1jKq6CY9L2z4SkSeRz5mYJjYnUeErEhbky2LMo0RLlCkREA/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBUQEBAQFRAVFRUVEhUQEA8QEBAQFRUXFhUVFxUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGi0fICUtLS0tLS0tLS0tKy4tLS0tLS0rLS0tLS0tLS0tLS0tNy0tLS01LS0tLS8tKysrNy0rK//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQMEBQYCB//EADoQAAIBAgQEAwYDBwQDAAAAAAABAgMRBAUhMRJBUWETMnEGIoGRobFSweEUM0JygtHwFSNikhay8f/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMEBQb/xAAtEQACAgEEAQMCBAcAAAAAAAAAAQIRAwQSITFBIjJRE3FyobHRFDQ1Q1Jhgf/aAAwDAQACEQMRAD8AxQAGAAAgYACYxAAAMAAAAABgDaWr+pmY3PKNPaSnLpB3+oBpgclifaKrJPhjGK7O7RQea1lr4k/nsQDt61eMfNJL1Z5pYqnLRTi/SSOHdbxN5P6s8RTWqb9dUxZJ9BA5jLM6cbRqO8er3j/c341U1xRd12dySCdAipPEpc+ltepag7q4AxgAAmI9CAEMEAAIQwYAgAACQYAAArDAAQDAAQDFJ2AFKSSu9F3OWzX2m1cKH/dr7Ir+0mdeJLw6cnwLzW04n69DATIBYrYyrPz1Jv1bt8iNLX/F9jym720PdVPpqgD2oO109eiPNGPE7P8AU94Wk29vrZHryu6b+YB6agt0315Dp67cXprdel9wbd1K6fXncixdSL1g5LtfZ9ugBZoQveUbppakmDziVOXDJ3h1S272MpYiXUibAOrhmanpZcl2SN/L3eCfLSxwOXcTlaP03O1y2VRKz2SWml0vXmAaYHmLuMkAAhgAJjEAAIBgCALDAJAYIGAIAAAYhiAA532uzCUIKnB2cr8XXhtsdEz597RYh1MRO70i+FW6L/6AZ0Rynr2PB6pwTZALMIceqt9mv7hLhjzu+zaCcODa33FGk5bRu+wJSs9Qqu2hHbW7t8y5RyerJ2UXf1ZoUfZOo9W/lcq5xRrHDN+DDda2iV++zPFWpxbpX6o6j/xGVj3L2Tko3W5X6sS38PM45xPJ0+I9nmlpv6vUwcXhZU37yLRmn0ZzxSj2eMPXlBpxbXpzO8yXEqtT4krNWTPn1zo/ZDGWqOm9pLTs0XMzsEhhYABNAMLAHkD0KwAhoAAAAAAkBggAEAwAAAAAjrz4Yt9E/mfM6kryblu22/Vn06cbqx83zSmoVZRT0TYBX8QtYahxrRO5Vp0mzpMpwD4VfYpKVI1xQ3MpYPJalR82jr8l9m9r2/MtZZh1HRI38LJLoYOTZ2KCj0R0snUVsrE0MCloXXiEePFRmzRN0L9hVrkOKwqUS266S0KeJxHz7FuCvqs5zGUbPU5v2gwvFT21i7nZY6Sl8DBxVO911EXTJl6lR89qQsWMtxDp1IyXJlrM8Jwt9fyRn0lqdadnmNU6Pp1OV0n1Vz0Vst/cw/lLJJAMAEAADE0AIYhgCAAAJAAAAABgCAAAEz55nFJ+PP8Amdj6Jc4r2moWqua8snb+pbkMlKyhgKDbS5t/Q7HC07JI5rJreJ8NPU351JKyS1Zhk7o7NOqjZs0qqVl9DawVFy3+pxdbESgtFr6mfL2ixNJ+62l8NSqhZeWWj6xHCDeFPn2U+19eTtPb0OyoZxxxVrXsUcaLxk2uDRWF01IcRhY25Iws8z2UVwptHD5jn+Jk7KpK3qTGNlZTcTssxSj8ehmVGmY2D/aJ6yUWu7V2XK1GotYrVd9LEuKQjNvwZmdYe95cn9zB8NRZ1mMV6bb6P5nM0qXG0lzav27m2N8HNnj6uDucud6UL/hRYPGHilFJbWPZqc7VDEAADExiAEDAABAO4gD2j0ArgDAAAAQwAFYzMyyjxacpt2jxr/s42v8Ab5mpYyc0zCrG9Om9L+t+plkfR06eCdtnP5dSlCs4Naq51lKj7vFzMjwZOupyVm4K/rc6nLaXEuxjN3ydGKFJo5unQrTqtRUb78VSHFGPRKO1+7KuWRxGJrxo1G0pWUnUhS4IWT4nay02tqdw8qlfipz4X3ueY5TPivKav/xTJU6Iljt9nNUMkalKPu+5zi7wmusX+R0uSUYqLTitLEuMpqnDr67shymTd31sZt2awjwUs1wiqztG3xManksm6ji4wcYtwcuHiqSXKN9EdFVkvEfdl/8AYlNbtPsWjKiJws4TKni5ykvEqxglN+/apFrThi4tfY0sr8R3VRW121t8Oi7HSxyiS0VXTmuG35nh4FR25cyZSspCCRymcU+GMl2f2KnszlUXarJXblaEfxdPqa+eUbqXp+RUyfNnhnBcCuoWi2tI9X6kxfpIcbnZbip+PNy0VrKPKNuSRZZ6nUVR+Kv4r3/mvqI2xe05tT7xAMRoYAAxMABWGDAFYQwAJAENAAACAGAAACdtTOq4PhqOrvS83/KL6NGgS06iinra+99mY5l5OrTS7RnZlbxoteWUItejWxqZdiOFbbmDjaqlO8dlpfl6IuYOVmny/Uxo6U+ztMO7x7kjikUcsxF1qj1jsVZabvTsQWM/OZcUuG+yu7FnIMO5RemmhhZrm88O1CNF1JzejukvmyxgPaKVGFqqlCT5O29+w2jd4JcdTam9Ho2bWAtKC1OWzH2hqQn4ssPUlSdry922vO25r5diNFUjpF8n0G0OV9G8loUMXUSumi3KunG6/wAZi5hW1ZDIRj5zJWuQ4vDxdKNleaSskry1V/kR5pUurPa6NSjGLTateVve3f6FukE+WV8PQ8OnGDtxXbklrw3toegSsB0wVI4Mst0rAQwLmQCGIAAAGAIAAAkECYAAAgAGDAAAPNSmpaNJnoALoq4ukvDskklqraFbDT5PkaFaN4tdmZVFmOVHVp32dHg68mlZrv3R7xeMjFau75a3MSNWUYvh+BlYvHOnZtNv0bMkrOiUqOhpxlV+tgWUNebW+vvcn2MzA5vVStToza3vw/ZFmOeV4vWlV9JQbX2Jpkqi3TwUox1u+qbujxRxrhLXYpPO8RJ+7SqejjoU8bmFW15UJqXTSzFMq2kdhTzODVk1f1KGMq3ZiYVTk1KzjtozSxErfIq0TF2V5xTkk9r/ADRNRw6h5XK3S90vQgw7vU9EXTfGlXJyZZvdwAgA1MAAAAAQxAADAGAIAAA9DBiAAAAAYCAABiAADFxC4JuPLdG2zLzeldq29n9Ck1wa4XUh4et1LsaEJLisrnPYbFWlZ6NG/gYcX8S9Dnao7IuyJYjwpXi2mtuH7Fte1dJO8qi4u6t9Cz/pEXueJezVJ62+gUl5LcrogefKouGEotdYxX3PEPevf9WaEMmpQ2tfsrCq4SK1uGx9zPbUdShXxG5Jj6kY3Slf4mXTk6jstubCRRyNjK1eLl1f0ReK+AVqa+P3Jzpj0cM/cwABFioDEAANiuNiAGJgDAAAEASAAmAMQwYAgAAAAAAAqZjpwvu18y2Uc0rJcMebd/RLn9Ssui+N1JGVmmC4lxx83Yo4TNJ0XwybT69jfhC5QxuXRnv+qMFLwzrnB9xNHAe0asm3fTTUvf8AksebRxNfJpx1gzNrOqnaXF8y2xMz+pNdo+iV/aCPDp+Rg4/PuSlotDnqGHqz0XFbuzSw+RPRydyaiiN05EdOpUrTsr2N+jh/DhbmS4HAxhHRK56xWiKOVm0IVyyxha0FCK443sua3LKdz5pLGzTdpPdnW5BiXCFOEm7Thpd/xbnSkec5c8m8ArgCwwATABsQ2eQBgAgBgIACS4gAAAAAAAAAEMCtiMdCHO76IENpdk9WrGEXKTslucxTxjq1JVH+KMYrpHU9Zpj5VE+UVsu/Uzsun7skt01L4Lf6Nhrgz+onJfc6ejI9VY87kdCSsTSp6aHGewQKROstp1FxW/MgnSvqRQq1Yvh/h+pJBaeGUdEnZeiPdly/UUI3V23cT3IJom5f3KmMloWblPFMIPo4XF0JQm4vrp3TN7GNwjTinZxjH4OyIszo8WJpR/lv87jzKpxVH6nZB2rPH1HEqOsy/E+LTUue0vVFo5zKa/hyV/LLR9nyZ0ZLLY5bkJgAEFxAM8gAAAAAAAB7AAAAAI6ldLu+wIbS7JCCviox7vsV61aT7LsV3TuWowlm+DzXxU56bLoijLWShHfm+iL9SFlcq4Gn77b3JMXJtmbWe67v7lPDVHCafc08fT4al7WT17X5mdiIa3BZPwdNgWrK3l/h9OnwLyTObybF2fBLZ8/wvk0dDRld2lv1XNdUc2XHXKPT0uo3LZLsFUcXqnb8iWTjZabnmcPl9SPwGzE7SSrWijxS953D9mv1+JPCn1+gB4qIpVVqX5NGJnuIcI8MdZzfDH4kxVsibSVspYZ8VSriH5V7sClBcUjSx8FSpworkve7ye5Dl9HmdqVKjwMk90nIu06V1YvYXETilzW2v9zzSgTU6eiJM1Jx6LVLExl2fclKDpnuE5R2d10ZDR0Rz/JcERwrJ76MkKm6afQAwAEiGIAD2yOdVLuzzKTfZDhTLJHNPP8ABHJyfp2PPATyE0Sjnc2+yKVE8qn1JrcuQqdCd1FPTq+SDaStlscJZJKMe2eHQctLBDL1DWcku3M0ql1G0N+pkYnDzbu22zNbpf6Nc2bBpntS3y/JfuQ5nGM7KMfdW7e+uhkYnCNcjSlGVnF8ydNSWvx7MvGNcHJHUyzSbn2c1Knw6o3strccLPdbPmmea+XprQjy+LhKzWhajVSa5RrRm5LpJb9+67HmNwtbW9unb9C9hXCd07JvuuG/ZnJkxuPK6PX02rjkVS4ZHBvTTRkyWhcp4WK5rpuj3+zGJ2qn0Z1KgrOT5HM04+NipVbf7dLbo5HTZzWUYeHHzPQxvBVKnwLd6yfVs3wRt2cGuy7Y7V2zKxXvzuy9hYaWKi1kauEp8zqPIZI1ZFhRRDUrcDi7X126l+LpzV5RlTb/ABWRSUqfRviwxyKlNKXw+Pz6KjR5aLlTBtap3XVEapExkn0Uy4Z4nU1RW4T3BSW2xY4EgJooptdEfH1X9j3cGiNxIaNo6h+SUCG76gRRr9eJNYaE5q7XQEy5xHjxFxcL+HcdinmjajGa/hf0NvAQi4qpNatXSKTmoo6NNpnmk+aS5b+CDD4Ry30RJOrCPuw16s8YzEOTttHovzKjhbUqouXMhm1+LCnj0y+8n3/z4NBSGo33KVOoWKdQueTuPcsHGXIpY3AcK4l/Uu3U0oT0Pd09BZaNJ2jnoTsevBT1JsdgJwb4Y8UeWy+AqOWVZK85KK/DHd+sidx070UsXiYQfD5pcordslymrOU3FxTqWbtJ8EacV1v9zXlgIK0o00mlyW65/EzsThv9xy5SXC+KTs0u/Ii7LRlZP/qsYS4KkXGXS6kn3VuRJWz5QTc9tVG28mjGxtCCfHJK/lhGLduyv92ZGZYerUhfRvZ2Wy5JdEUnBSqzpwah4rin2aFL2gp1ask1aT8rbun29STFVbnE1Kbi7PdGxl+acS4Kj15Sez7MtGlwWy42/UnZqYeHvG5Qj7pj4d6mnCo+F23s7FzmZNCvCDblZtLTm7kUY1K8r7RHl2Ut+9N93fmbMIJK0VZEHDJ7nZ6wuH4Fvf12K2No7OO3Nc0XqctCrPEqGr1XNGTi7uJ6el1cdv0cz9Ph/wCJSnK4RX0LtOFKtdwdn02fyM/NJ+GuDm9C8ZqXBfPpZY1uTUovyj3x3VyOzbPcPKl2I5PSb6Rf2LnKR/tVP8SAw/8AT2BBY6Cj+8l6E0hgSVZUzP8Acv1X3Nun5Yfyr/1QAY5PdE9HTfyuo/Cv1KVfcT2EBqfOvsjRPT2AAST0SWG4AQy6J6/kIJbABVdF/JdpeRen5s53MNl6oAETox9mXjvNH+orT/csYEsq/ecxiivD+4AQepD2HVYTZeiNbCbgBc8/J0zoKflQT2ACDjXtHHymTmmwgEeys/BJkP7xfEh9pf3sP85gBn/dPd0v9Pn+IlfL0I35J/yy+wAbHAVgACC5/9k=</t>
         </is>
       </c>
     </row>
@@ -1893,25 +1901,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Reece Topley</t>
+          <t>Najmul Hossain Shanto (Captain)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>233.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1923,94 +1931,94 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>12</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
         <v>3</v>
       </c>
-      <c r="Z12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2</v>
-      </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYYGBgYGhoYGBgYGBgYGBgYGBgZGRgYGBgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJSs0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0Pf/AABEIAQEAxAMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQIDBgABBwj/xAA/EAACAQIFAgMGBAQEBAcAAAABAgADEQQFEiExQVEiYXEGEzKBkbGhwdHwFEJScmKS4fEVU4LCFiMkM2Oisv/EABoBAAMBAQEBAAAAAAAAAAAAAAECAwQABQb/xAApEQACAgICAQQCAQUBAAAAAAAAAQIRAyESMQQTMkFhIlFxM0KBscEj/9oADAMBAAIRAxEAPwBp7wWifHVBAqmZ2HMDOO1GM2FIY0qAMLp0AINgnvDwIg5ctgJH3kieIHWqlTOGPcwoahM0+BsTNH/FAiC1FBmfJmcXSNWPSEhwc4YKNSonKsn68il7FowPlI1MFYR2qiVYgC0VeRKwtaMriUtAmMZZlzFbmbYPkrPNy+4kj2l5xhAgl5YiXlCaCEqE7y9KpvIUiBPHffaLybHcaCi+0FavK2r2gmu5nKxdDFCTCVQiBYZwIxRgYj7LRqit723ijEJvHzJFOKp77QoWQJ7iewqnTNp07YuhhVqathJ0QZ1PDlRPUO853Y8UqNDlx2jZIiwL2Ec0HhAgoJF+PpbRgrQbHHaBjoQpsYWIJfxQtJhzdmqHRErI8Syo1hE2Ox2nrJRi5aQ0mo7Y4VhK8RxENDNbnmM1xIZZR45RexVkjJaEmZmLCIyxpRju4Fuev0gxelta9rX/AGJuhqKMM9yZDC4RnOwjg5QyrvKMHmopmyIpt0c/pxHuCz9KtkdQrHbbjePyQqiZetTIa0Lw2XF5bmgAfaOspZbC8C7GrRnMVlD8CUvk7AXm7empIhDZepUx00I40fMEpkG00uS4AuAYLmWE0VD2M1ns+qhRF+R0tHj5NdeJnMyylkNwNp9Ka1oqzCmpEZimBp09p0bYjCDUZ5FOpl2OoBRtFyUN47xHilRpQ/I3SIUEtaM8OpgKOBGGHqiK2goNpJB8emxlq1YFjsTsYrkh0mI2+Iw2kdoGou14anExZns0w6I1xtMxm1O81gQtsJ4cgL8xsCd2Jla47MFSpG87H4pr6Adhbbued5uMf7Ne6pPUAJKIzWG/AM+da79ZsrezI9LRNnPJ3ltPC1WTUqm374hmCwWsA8iaDAoUFhxBKVDQhy7Mzh8DXc7I+177duekLoZfVoFKlRWRC3huDzzbfvzNrgs6pUyFZgO9lJ2+W0Z5xicPi8I4R0uLFSSFGtd7Eni+4+cn6m9l/RVaez5riaxdrwrC48rB9MrcSxnod0s18Q34jtM6XTuZgWa0894e8eMQSkO81xodtoVlea6LXMzYM9LHpO47By0fRRnoI5irF53va8yNKs19N43oZaXF77wuIqlsKfH3N50X1MC4Np0TgU5mrRJzuJPGuFER1MYSbRp6QI7YXVftLMNXN4HruJFHsZkdsp0aFGuIPiUnmFr3EnWaRlaKR2BolpYGkJJFuZJ7ZdDjK6YNpqMNRUCZ/LVAtHaVLT0ccUomLJJuRfmFJWpOtgbo45typ6gG0/PuUopqqGIsb2vwWsdPPnb8J+g1efAfaHA+4xFRACFDEoDcEI3iQG+4IBt6iOxE6dmwo0h40AGwDqTYMRbcC3I9d/pKsJjlbkQbDY2p7sDULW3uBfzsf3zAwDsR/vIJPZrbSaaNrhskw1YalNrjdRcG/qDtAMTly/w9RKe5S9RbcnTs4Pfw3PqBKcFmC011i5P9PG9u8XtVdQay1CusXQI+pQCwDbhud7WI+0SKdlJONaEpaQYy4JIOk1GOigJcyZw0nQFjuIa1iIHJoCimDUMOCJbUwwA2luHNp5i6m0Ck7C4LiL2SzAzQZfjFAsYhTcyyrsNpRSYnGlY+qYtb8zpl/fnvOnUwckaXMMUWEX4emWMbY+kAIqo1LGdNI6MmO6OD2geJp2MOw9a4FoFmDG8i4lLsLwDQ1orwFWMi95lyItjKp6rWnWnjCZ62XDaGYBdo3weKLTI2u0dYfMaNEeNwDzpG7fQT0fHUpIyZqTNbRO0xvt3gsPXKhmtWRdSqp3KMRcMLbLfi9utuYLmXt6VFqFMX/qqb/RVO31+UzmXYxqr1ajtd3IL+fbYdJonjlGPJkYNSkkFFNiOIlrVWUkHpHqJ4rd4LicGj3BG/eZk6Ncot9AOEzFgwIa1uL9POPa9V6yaWdXAIYFRYjYixPXmKHyAKV1vs1yAo3sLXNzsPiA4j7D0qVNNKCw67kk+pME2lTQsbVxYgKWNjGGDw+rpB8Ww1xplL+ICHk2hei3/gGreSOREDibPL6QIl+Lw4C8TTCKa2Z5Saej5rVwDI9u8I/wCDFxGOZVlDiPsqCuBFUfyody/E+f1sodDxAcSs+rYzLQRxMH7Q5aUJIG0rxSJcm9GSfmdLdM8gsFM2GYvtE9JBfeOcTgnaB0cuctbeRlbLxSQwwCrae5gARGeDyuywLNMucA23hUdAk9iTDPYxrTe8RpdWsY0wzTPOJWIckhiaqqLk2+59JCriVRS7HYfUnoB53mXxGMZ2LMfl0A7Cd43jerO5dIOfN6cddjStjjey7efX/SCtTBBJ5O/n6xclY+LyI+hvDcE+u3cc+YnuY1CLqKpHmZJSlG29lFbCE/vn/SB0mai4cbjg+h6N+s0BW7CD4nC9fx7D17frK5MKlEz4vJakG06yuFdDcbX8j2MaDL9TX6MAfrzMzhKZQllA3BVtiN+mpQbXHp941Gf1HUhaYVgunUGvva2ym2/znj5vEyKVRPaweXicW5PohnFf/wBSipwiaWPTUxJI+gX6zyo2oGxtYb9gR5doNhMKxJJ5INyebkEXsCd5ZiRocG3hNh+Fjf7zfDxorEoy2YMnkuWVuIqrs4ezAjt2PmD1jjKatiJW1RfgcXU9Oo53HYiV4fwOVvwfr2Mx5cPB66LwyckfRspxYAF4TmGNGkzJ4Oq9tp5i6r23MW2hqTEec1S1TYzV+zmK8IuZi8SDqvHOV4nSIqk7G4qqPovv1IiDPKSMpiuvm5X0i3F53qBEbkLwozuMwwDEDieynEVyWJnQWA+tfwakSipgwu9oXg3vLccvhjtHWJXzFENiReFIQ4vzMVnKn3m81Xs63gAJiXuhuOrFWfZaB4wIrwxm5zWiChmL93ZioBJvwAST6AbmJONhi6FGfYg61Too1erG4v8AIfcxPr/P7RrnOBemytUID1LtoB1FF2C6iNt/L+nmJm5Hnf7TdijxikjNklyk7LKNTdvML+ELwFUo1zwdvlFiXv8AI/eG0m6GWx+6yWT20bn2e92HNV7No0FR/KCzafeP3VSVuPMRj7U4amXdkUKyuEdR8B1qzKQDwbJc99XSZj2bxdJH1VHdbfDpvpYEEFWAUm3zE0Oa5pQrJq1uXW9l8ZDsbKGYuOwv6bX4s0pP1U9/8JRh/wCdaMi1JlbSNm/lJ4YD+Vu5HTyklxSjwuukk79R/cDL8bdxbg8gjkEcGA/xBcFWUFh8QtyP6ljOaT0FYm1scUVVfhHPbj6xhmmTOKCuyNpcEk7FRe2ggg8EHr2MydHGNQI3DU24P9M+irmyV8u0q7KUVU0nTpJpnVfUwFgVF9m6cdTOeaqr97Hjhu7/AMHznFMRoPqp9R+7/OepWu4Pcfa4/KTzNhY/3Bl8wR+W/wCEGoJwZPKrTRTHqjWYLEC0pxmOWJTiCotKWa+8RQVbGc2ugmr4jPaOK0bGVI4nlUXkIxXKmWbfHQUXapssKo5M1t4X7PYYG15sFwoCyk1FMRNs+fVMssbWnTXYjB78TpPQ2z3AZgNt44qYtSs+a0Kzg3vGC5uwFoJTT6CotLZL2gKl7+cLynHhQBeZ7FVyx1GeUK+8WLV7HadGvx+ai2xmWxOalHBAJPXSxRgOLqw68+vHWXMLi/Ple1/K/SLswy8tqq0SzoN3Uge9ojs6jlOzr4dt7SuNRlInJSSFtWoXYsWZiSTdzqY9tR6m0Gq9PImWqw/fEpxBsPrNUqUTMk+WyNNt2l4aCYZuT5y9W6xYS/EM47CqD2O5myp+zNXWtIVqBdiAE11Li6axe6W+HzmHpd5uP/Gie8WppxJ0lSKZrr7nZNGyaNup55MM5SSVAilez2l7PYhl1saaKNQY1HCBGVzT0OSNmLKbAX4inOcoq0ipdQj+Iqbg/A7IwNul1PrHVL20SpTSlXRyVVC1RNDM1WkxKPocaGDKSGDck3gmZ59gq70mYVKCJ4WpLSptTKGqzsFKuCDpYj4eYilK/wAloo0q/Fiirl9QfFSYXpio6aSSKbcVgANk7np14nPSxFGnpvUNC3wEuo0vv4T8LKR05mrX20wzv/E2KulOvTNF7vrSpUpuqK4UKFANVQp4E72ozuh/D6KOJR6a0RSWkHYszh8PodqfHhSm/iO9zYcxXO6TQyi10z58GsSiklLBhf8AlJ2IHl5Rn7gqVDC10Vx5q1yp+cG9m6CVcTTWpbQzEkFtAYhWKIX/AJQzBUv01TRe0OK3pUytNClO7pTbWEdne6GoSSbItPw6iF3AgnLjGkdGPKVsRV0laGPkwVGqgRCyVltqL30MD8XS4t0sP1FGZezOJoIXstRALl6RLaR3ZSAw9bW85BZlJ1ZaWGSV1oRu9jLadWA1nkUqQtCRZvPZ1xtNijgjmfK8rzTQRczQ0vaNe8DkGjZe7E6ZmnngtzOnHGWpuCJzKZ5QTvD6VMEyaR0pipqbngSNKmwO4m2wGXqRxI4/LFHAnPoeDsz6JtAKpZX1o7IyHwupsQbW2Pby4jeogUQOuAfCCR6W38pOLa6LSX7FVatSrX1haNT/AJiD/wAqof8A5EX4G/xKLb7r1ibGoyHS3yIIZT5qw2I9JqKuWKyb8nofv0i/PsOgFNFKqFDGwBudWnxHz8MvHLKX4kZY0lyEVPsIRzZRuSbepkFpqP5j8hb848yjCIEFU/Fc6QdwLbX8zzLuXCOySjyejRZB7L0WpBsQ/iO9lawUdiep/fnI+1Hs1Sp0xVwxZtH/ALilg1ktfWPTqOxv0MYez2NvqQ6B1u1iT32O3yjD2jxQOCrKao+EADRcE6gQvOxNrDbbmYlnn6it/JueCHp2l8Hy92INxL6lMOL8E/eVVl3HpI0207dJ6XJHnqLBShDaTzI1GtYG+/nbrGGIXUAw3sYNjBpZRZT4QQCL/ESfWRnKh+Dq7RHD1Bxa56E8j9Y3w9PToYcagCelxY2/Gdlii4umHH91Nnt8me0ZY/HM+hHqFwlxpAVaaX/oRAFX5DoLxJZVKLiGOOnyGmX45/AyKi2fd9lBueWPxN24mtcqgNkKi1j7tgy2ItcLf8hPnVOutMDwK4uDvufTtaNa2cqKbNTVkdhYDUxAvyQCTbrtMEou9HowkkrZkXw1ri4a1wGHBttcesBqbGNiwAtFmJmqLbME0vgjRJJhiAyrBJDnAAjuOhIvZOmNuZ0pFSdJFdDtadpytYz0vIrzGMyVs0OAxlhCalfXM+lS0Kw1fuYltmpJJEc5oaUHS5P2mb/jNB46285rswC1KZQm3VT2YcH995lKmV1v8H15iuOxlKyVPHhtyTzwRf5eUS5zWLVC3QgW9B0h5ynE9EB9GX9YtzKkytocWcAGwseRfkR8bqWhJu47BGaNcqxK6dJ5HG/feJryaGWkuWiUZcXZpqGP0Orq24PN9/Ow+stzX2mq1kaleyMQSOraTcX7bgHbtM9TbaeM8eGCEXye2GeeclxWkGYl9lMoqNvJudSQe5Iv22P5TRKZBRLF8VgCRfm0ni6gaqT2CgeiqBB6blb7eh7XheaYTQ6kcOisPXSA34/eZczurLQ1Fr+Cyk9hI06jXsJWHNobgsP/ADMPTzkW/hFC1lK2HcXPz4H77yRqRklC4uYuxlKx2jOFICyWwRwb7QSvh25tGmFS53jR8INMaMRJSM1hxaEs952Ip2baVhTC2KWilOkkfadF4j2NtYngcQA1CJdQe5hcaQkdsLZjILXnjMLQZDcyVlqHeDUvCMThLC4Moy/EKvMMr4xSNpyZzVC9ahG0yftGpNdj3C/go/SapHu0zWcNqqueQGtt00gD8pTDDlJr6FyS0JNM8G0O91fi3yG/0lNSn2v85oljraIqSZaqbXHBlbS7AVB8B68eR7SVZADYiMlaObonhhdSJH3RB1Lz27wjB2DW23hj0G1bDaWjhtEpZknVC++oG4tNFicKHQK3QCx6ggciKMaANK+ha3bj9ZrKiCYPMfCSRr8Zc4tmbpZdp+Jr+gt9ZfaGVlgtURIpVYJ3dFqPtBsQ0tpQbGg22lq0TsnhzvGNR/DE2FJjCq+0C0cwRku0m1ICQQ+KWV22ivsZFFhOgxqT2Hiw2g6qgM9RLQT+IMmtYxbYQlhPEUCU+8M91xaOthavaTV7wE1JdQedRzbCXfQpbsCfoJmDWsd9+80GNbwN6TP6hfYBu3b5zTg0myWTegihpY7c9RPaqHiy/M3+lwDB9DE8gdtIH3hCCpxcEf4hb8RNiba2v9EKp6YurUypvaxHS8YLT98mpbll5AG858MzKdO5HIuGBH93MAp1GVrjYjkdDISXF/TKp8loJSm4FwG28jtb7RjRxjkeJdhyRKKZV/ErFGPI6E+k7WTtcG3OwErHXTJzV7o4+LUx/mNhNEmLGkb9B9oiprqIUcc79YzpYa6g+v4G0yeXFUm/2XwSatIsaqDKnInGgZXUS0zL6KP7JoZGqLwYvvael5TkxaRYiWkqplSPLSZ1gKqQ3k6wkwBI1IDgApOknO86NyYaCqmEtKQlo5rCCLT3iPQ0dgLm0gKkYYnDXEVEWgTsLVF2qX0jAwYVS4jCMli38Den32iL3Y5JmgdLi3cWiNqYvY3+pl8KtNCSPUqAG1/3+cJStbk/YH8TAnQW7S3DU1JAuBcgFmJsLnliATYdbD5TQnJaJ8V2FM6k3sQe4tf/AOt7ynGYfUtxa468X/Q+U2ma+x9Khh3f3weoiofdro3DOwLFdyBosef5H56ZWpTKqWXoLkHcEDnb9LdYVUotrYa4sS+6Ybf6n8I4wOG8Avzve3HzPpaD1X0re3O39XO+xFjYiTpYvw6RffngAjp/tIONNUWhJU+X6oLw4u1xvcWA+00eBplaYDix328iSRF/s8t9TkDawHle942qNMvmZuUvTS6pj+NiqPJ/wUOBeU1EvOd5bQF4I9Cy7FOIw5grIZpqmG2gVXCiE4T0xL9BntVLGcj7wnHBbTmEvYbSleZxxT7gz2NEQWnQnEqwgTNYxwKF4JjKAteTlNXQUn2CCpeC1qN4Vh6d4V/CGdVDcr7Eww0uppaGVaBEHB3hVgkkWFIozOhoe/Rtx69R++8dXkqmE97TKfzcqezD8jxHjk4STfQqjyVGVcyKtaSdSDY7EbEdj2kJtf7Io+rYDOaT4ZDVqooemyOHrFCWG7eBE1MCTUFyR0+K4mGSwJW4YAlbjhhxceR/OJqZ8/tDqDRsMaugZNi7EIVYpfZdh534P03ltPmXZtS8Sv0YWP8Acu32t9DBqJi1xk0NdxNjkFO1K/dj9AAP1htQT3KqGmig7rc/9Xi/OWVk2niZJcszf2ejCPHGl9CupzDMGsFq0jeH4Re82JaMb7DHTaB4intDbwfEjaFHGexY3leHp3MsxfMuwlI8ws46otgYKvMOxIssBXmA4YJxOntMbToThoxgGKfpC3MXYg7xXFMFhGBogxv7sARXlsZtxOCB4umLRHiEsdo7xEGCDtCcKy0YYHpKcfTA3Evy7pI53+JTCrkIvajCaKusDwuNX/UNm/I/OJpvvaDAe9oGwuyeNfO3I+Yv87TAWmnw83qY6+VoTyIcJfycpsYbRaBy+kZtjpkJdB2JTXSYdV8Y+XP4Xi7AU9bon9TKv+ZgI1wrb78dfTrPPZvBn+JC/wDLJY+i7KfmdMXyJKMXL9I7EuT4/ZutIGwFh0HbylbASxzKiZ87iuUj1sn4xK3pCVarQhxtA6iz00jzmWe/tKcRihaD1ztFOIqG8YJfWYFoxww2ielcmNqK7TjgfGNAl5hOJgbmczhpTYWnQSgxtOnWcNqrwRxcydRpFCLzROCS0Z4zbYVhBYw41IBScX5hF4sIJrYZyaZTiam0T18Qw4MY4ltoorjedkgktBhJt7PHqluTG2WHiJykb5d0mHP7TXg9xoEefMMe3je23jf5eM7T6P05t59vOfLRV8RBOrc79zfn5weBSk/8FPL2kW026S+k8FYWlqP3/wAw/wC4T2IutGBoZ0iJp/Z/DAF6nV9K/wCUb/Xb6TJ0an+80+QVtmX0P5SXnK8Dr6H8Z1lQ6aUmTapKGeeR4mPkzb5M6iWGpBatQSTtAqrz1liR5nqsjVMBdOsvNSQdxaRnGnRWMrQOosRG9BtooPIjCk20aEU3sEpNFGLaBNCcSYOOYko06GjK1YdQXadJUhtOjemLyJ1OZQeZ7Ol59Eodkk5h9HidOi4+jsnYPiYsedOnZOhsfZ7GWA6Tp0wZvabcPuGGJ+B/7G//ACZ8rHSdOieH/cU8j4DjxPKU6dPV/Rh+AnD8fOanIfiP9v5idOi+T/QkNh/qIcPKjOnTzfB7NPl+0hVgNWdOnrHlgVbrK+k6dM2Xs04+jwQ9OPlOnR8QuUFxEpXkTp0nk9w0PaH0+J06dKEz/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFRYZGRgYGhgaGBgYGhkYGBgYGBgZGRgYGRgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzQrJSs0NDQ0NDQ0NDQ0NDQ0NDQ0NDE0NDE0NjQxNDY0NDQ0NDY0NDc2NDQ0NDQ0NDQ0MTQ0Mf/AABEIAMIBAwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAEDBAYCB//EAEAQAAIBAgQEAwUFBwMCBwAAAAECAAMRBBIhMQVBUWETInEGFDKBkUJSobHBByNictHh8BWCksLxFjM0Q2Oisv/EABoBAAIDAQEAAAAAAAAAAAAAAAMEAQIFAAb/xAAtEQADAAICAQMDBAEEAwAAAAAAAQIDERIhBBQxUQUTQSIyYYFxFTOR0UJS8P/aAAwDAQACEQMRAD8A9AwPCVQAgCW8TTAUy3S+GDOK4kKDA6LbPM/bkXuBMEaDTce0GIDsRAqUFtrLrM56QVYuXbAKXU6mHcBWBGpg7GUwG0jJirC0mt0iJpRQZeqFNwZpeD8RuAJ5lVxhJ0MO8D4kVGsXvx+SCryEmeoU6wMnBmU4bxoNoZp8FVDCZuXDwemGm+S2iW8eSZY4WB0EIo6iShIqjqis7aKoJJ7CTohvXbOQkpYnidFDldxfmFBYj1Cg2+czPEeN1a11HkT7q7kfxNz9NpX4fiVosWYqEykHPfKb9SCLRyPD63T/AODMr6knfCF18s2mGxSVBdHDW3A3Hqp1ElyzzjiPtlh8wNJChViQ9IEb7jzEaG3T8NIa4V+0LDuAtbMjfeyjKe510+Upl8Sp7ntDWLylT411/P4NZljhJJQqo6h0YMrahgbgzsRNobKNbC3lGrwwdIdkby8U0zqSZlK1IJeDMTipp8fQvfSZPH4exmjhtNaE7nTKgF7wbjVKm42hnAUsxtJsfgdNoeK0ylTtAXAV5fzEwVlyNaG+HqDaOctoV46oVKgTCuEoS3SwwtHYZZWUkwt03JJkEWkgapIzUh9CpcuIpR8aPJIPRcRjAi6m0wXtJx8aqpuZL7YcVYKQptfSYLNc6m5iGzZweOq/VR3iKjMbyvWcgS3TEToJT8hcuP8A9QDVVibytXJmh93F5QxdAaw6oWrx3rYNweFLsF6kD6zXYPhiqAAvzN7mZ7h6FWDDkb/Sa2lxFAt7G/T+8HlqvwBjEn7g6tTanU30/QzZcFxWgExmPx2a55wt7M4gtvE88up5MYhKXo3yvHzSChtJbTPGDsPMt7WcZALUNAqBHdidyxbKn4K3zWacLPOPami6YjEVKtM+H5WTS61SqBVN+QWwuOrXOwsz4ky77FfL28bS/IPxnHaVNcwuzHRRYrm76/Z7wEtCvjHBY2XlyAHZf1l3heAWrepU87k8/hGugA6W5TQGmtNCow2c20ZyupPNV3PyE0KyafGRbxvBmVyYK/8ABqhdc5Paw/QzPcV4YcOw1OUnQNa/rpPSMHTdMOx1Ryt1TawHIjlcEzMYjBo+RHph2cqWfNZhmO+uoUcz+cFjyVy7fQ7mwzx6Qa/ZfjahapT1NIIGN9le4AA9Rm/4ieieJK+D4fToIKdFFRByXmepO7HudZNlmfmpXbaROGPtylsfxI2aLLOgkCFKmL22mV4lhmJ0E2j0ryBsCDyhcWXiytRyM1wvAFbEiWuJAZTDT0gvKZjjeKtcCP4sioWueJjcfcvDHCn2g10u94UwVO0cmutAHO+zSUaukjxBkGGeSVZaaWwdJkY1jERJJ6CXjKYBog8ExQsKIjydkaMVxbFl2ueUDCrrL2NGZjaURhDeIbR6JWp0kXUbSPmvOUoMBJVpnnI6Dckzg9TKlY3neLqWlWg1zC455UkBz0phlvDYYy2cOZZwVK8I+6m200cngtz0YkeXKp7MzXwxMNcAXLJzhb8pPTw2XaVX07caoi/Mnl+k1WDr3AEvprMzw2tY7zR0qwyzJz/TXNDOPy5pEt7TMcbUPiCNL+GoBIvZQxZst+Z7W2O+0t8U4qE5zON7QIz+Y6jS/O3TuIrPjXNewws8LtgSgBRxD07aB76dNP7zVtxikEUgakhbtpbf+kwC49vGV31YrqTbWxN72Gtj0hcOlV0R9g4YanKbAkg23ENcPa2Xx2tPQWx/HhTclVD6m1wVB02JLADpsdoL4bxwMrrUVVJDEKLnTW4ud/7TSvxZ8NTt/wCWn2TQp0rAA3sc6Nrp3mMxw8Srm1arXZKatlVGbNZC2RfKNABoO8lSmiLqk9s9Z4RX8TD0nO700Y+pUXlu0iooqIqILKihVHQKLD8p0XmXTTb0EXsdx7yLNEGkHE14+aRTksZDROx6yXgTiXCw2tobVpbqICsZ8atMFmXR5Tj8IUftLWGEO+0XDs3mHKB6VIjeaKab6Fe0ienoZ1WqRLOa+GZhpCLW9g9NioVNZew8DNSdNxNVw/C3QHqIwrWgNQ0+yDxTFLDYU9IpPJHcTzGrXCnWTYfEAmD+Lix0g6lVIN9YvWPsfi21tm9wqAjWcY1VAmfwnEiJJiccWEFwexmWUcbV1iwh1BkLJmMuYejpGvHam1sHn/VDNNwWxh4oLTJcOq5TNDTrFhPQ8lpM804rk0dXF41aqAIxoE6ypikNrStZJfsy84LXuiNcZlaFV4iSukAJlUjMQL9ZcbiFFEzs4a5sAlmJPyOnziPlZY46XuNYsLXbYI4/imN4AwyFnVfnfsBc/lNFj8Sjg5V6ZcxAvfnbkPnftK2Hp3JstiQcpvpYBs2vUjUdfnMycvyHyY2peu3rZQxnD2qF1UeZSXT+IWAdfwBgQY+ojWYEFdLHQ6AjX6zSUMWyVULqQAQC3MAgA5h0vrfsIdx/A6dd7gasLEfeN97dYC8nB6a6ZfxU8uJafa6Mqntg4QIy5gLaHUGw0MqUeMVlq08QoXMhJTMMwOljcdNT3l/F+ywSpluRzytIvdPO6k6IqnTuSJaHFPS/JOd5Il1X4PWvZzjC4uiKgXKw0dDqUbseancH9QYUyTy7gnFXwzF6eXYBw18jLcdCCCNdeVzNfgPbag+lVWpnkwBdLeoGYfS3eZ+fxamm5W0F8XyVljb6ZovDnaJI8HjqVW/hVEe24RgxHqBqJZtE3uX2OLTOSsjZJK0HcQxoQbyVuujn0WgRLCPpMLV9p1DWzQhQ4+pG8L9nJPeivOa6DfEEBEzGPsplmvxjPosHOxc6xjA6T/UCySmuhUDDnCqYfSCsNhWY6CaDhWBZGBJjjAOlJaqcKDDUSSnTCC0MAaSjiEgqqpfQxKm57IPFEaQ5RHk/doj7M/J5hV4OW1IlV+D25T0WvhFUQPiEW8dxvkxTJTS6MonCu0srwztDqBZKCIfggCzUZ1eG9pJ7jYTRU0B5SR6A6QbUpl1kvRmKeHsYdwjWEjxFADUSFHtHfvcp0BT41yYSasIL4vjlRQd2bRR+ZPYfqI7PMnxXGh6pynMFsotqNN7fO8XunK9ycuduekE8CfFLZ/Nrm3AtcAAem8sjCqp0RDvbzHMLemxPWCeCYnLUINvha2bYEa69eenW0OYniSsCABlHQDQ9iNdfx6cgje3RfFneLDva3v422RViq2BVLcrAmx3uAR5jpzlKthkbUkqwOj3LAMOR1k6A2LH4j88g+6O/69gJ3oqgsjhDoAVbK1uhKi8tMpewln8rJlfb6XwVK+GZksTe4tbRgDyI7H1HTpOMFxGsjqlbVWsEb7rgeXzaE379td5bCIPhLC/LKPpvrGx6Lk89zewFvizX030B79p1SqWmd4/kVipaCyI75qtXLnewGoCgAWABY2A0v9YDxOGCNUOYMTZbqbqSGPwnmLZdfWQYmvXc5ndEHKwFRj2Fxb6ATijhKrm5Zl72y305JfLfQ7CDxYlL2/cb8ryvvTxXS/5ZZpoVRjbW1/nyH1kiO50N1vyGW9vpb8Z0tA2t59Nc5Nxp2BtO0S3wi19ydz84alNe4nj8jLg3M7WyR8G41IuRzsrWYb6rsRv1ms9kuNZ18Byc63KMxuXTfL6r+XoZmaOIsrKeStl3BBsdiO5vbaCcPiijBlazCzI25vva553i+TCrlp/0OeufKalt/KZ67XqWEwPtZxIqCBNfgMYMRQWov2h5h91hoy/X8LTFe1uCJBMQ8eVOTVfJqXfOOU/kxJYnUnWWKWIYEeYyqnSHeFcNz62m7TniZ072GeBebneaE4aw0g3huFKTQUGuNpj5k5rkh/HSqdEfD0IMNrUC6yktOw0g/FORzkryd9JBPTS5bYfTiIvvK+L4kF13EyiYsgnWVeI8TOW0cjHTnk0IrJ3xRpv9TXrHnmvvVTlePK6XwE/V8m6x2PzGCqj3keYsYisdxxxFLrYs8fxZyqXllMJCN6BpE2Ee8nqvac0KNo9YRSn+oZlfpKGLfSUFqG8MnCZpH/pwGp2Gp9BGZrSF7XYPqEqj1CCVRczZRc2vb/PnPP2qWuFGVSetza+gv0mjwHHSMWGckUSdF2ACq6oT3u5J6E3+yIK43Spq/wC7IOgLlGDUsxGvhW1CXv8AFr6Qd1yKaK2Cq5XXXW9j/u0P4GGqbltFNl5dW6sSNbdALG25AMyr1bAnmTD3AsWWWxPw78uV73/7QbK5IanZoeF4NGqoHUsBfykgXKqWCgA2AYgLZbbzZ1q5bD0A1NRTcAkZQgpoiBajK1rgqb5dTfNz55Hhz0837wsV6qLm/oSL/WG34lQcZHRyL3vkAJ1uBfPy2nbF4rSewJSpW1O/NiBc/TaIqN/KN/iO+39TJmK7iwHQEm311/GceNlB1Iv3BHzG84CNRoi2YAX6ix/GX+G0VLgucq2IudOYGh63Ig8Ved/TS1/6whheIqq5HTMhOZWRslRGtYlDt8jpKU2l0thcDlVuno0nEcFRpYViwTOKaa5mYszHLdbmxvY7fgJ54TqCxv25TV0MHh6il/GqVAmyMAjg2ByM7X0N9Sth0mffhmIcs5pqFZmKqG2BJsDpY+sHGSW2u1/kf8jDeSU5W/8AHwC8Rj7B20IswFtOYX89ZQWpnUC5uDvyOl9JX4hhKtEFailSzAjUFTqbgEevrLSEBcgvfobH8R2hl7Ct4+HTXZqfYfjgSp4Tny1iB2R7WVvRtF9csOe06DKZg8RhDfOhN1tYDTaxvNrhOJpjsMW2qIAtROYa2jj+FrEj5jlEfIx8aVr+zQ8LOnLh/j2/6PNK585t1m59mE8omVx+CCP2vNp7N0xlEb58pWi/HTDbJtLeGpGU6z2IhLCVNIl5L0hnCicJpA/EEuYWrVbCB8TUuY39M8Pm+VAfN8nhPFA40RK1TAgy65nKtPSrBKnRifdrewd/p/aKF80UU9IvgP6lkC01EhrqJD7zIa2IiqDF/BoLwqmUCA8NXtLLYqVpEoIMwlKq+s6pVbiVMS8Vr9wyv2hbDVBbaD/aTiGSmEQ2dzYfyC2c/Qgf7pAmKsIE9oSztTcEi11OgO/mB19D+ENp8di1vpmZ4hSK5Ryvob3AvuL9Of17XGV2y3BFiDYg9RNXVyMtnfNytZSfnZbfUQPxHDi2nmAGnIgchc3uOx+VoMFFLrZN7H+y9THVDYEUksXe1wTcWQH7xBv2AktPD5Kj22DuAoAsPMcthy0Fp7p7D+z3uWCSgzh21d2UWXM+pCnmBtmO9uWw8VotdjfZtfqTaS/Yv5FNJJBx+FOi0nL02WsaajI5Z0NZcyCotgVuLnnsZYr8MqIMSCQThcuca+ZWYjMtxsAM3oZoMNw5gMPmU00T3JhUFmarkRnZXJB0QF7ZQLX58o6T0qeeuj+NRrUaVOrUYMpcJWXD1GYNrcJUU/7RK7QP7M+5Roezl2dGrrTtU8GmzKT4tQqGygA+UWZddfigrGYFKCoztmZ0ZrfdKuyFe+qnXTeaniGA8WvkNI11pYllq01Yr5K1CjkqFhqFBRvpaC8f7PNWbDrSpk00epSJBsEQY2qo1JubKQec56IeFaekM3AstanSaoEV6HjM2TNkCqzOtr3Nstt+e04fgKZqmbEotNEpOlUoxV0rFwugN1N0YW1huuq4li+HZ6hUY+nZlCnPVp50QHQFRcgE9ZSwoqLSeguGTEVqNLCLUouBUVWd8VUINjbModefOST9mfgBDAGmFxCstW7OFQBrmmHZFxDjkhZDa/1hCg4dTZGfKSGdWCi5udNR+Gmk6w2HfwUWtSQkCkcLUHkLeOSz4cgG7KoZ/TLfvAFLHUldw9fw0R3QU6ZC3VSQGJP2b7aXtz1i+aPyjT8PIpng+i77RYJamHLBTmWzLdrkEcj67TGmoVa7AhtPKwtYHbcTZVuKYbw3VahYHMPMSxv203mfFJXBV1BG6HW4B3yncenaVx3xXYfJ4a8m0oem1/XRDh8fe6kWtoD6WuPzl/hmNalWV0Uhho6tpnp7svrpoTsQIObhFtUfy7tp5gPvA3F/83lmnhFC2Dk5jcknV9NBnub7baCMLWSf4MrN41+Neq6fuv8As9DxPAadcLUUBlcBlPVWFwfoZPhuFimNBaQ/s54malN8O5BNKxQ2scjlrrb+Fgf+QHITTYsAAzLTrFkcMdilUpmXxS+aEsENIOxT+aXMNigBDZZdaDY61sWOeB3eXsXXDXtBziem+n4+OJGJ5l8rOKjxqLXMhxBkVKvaNZciidsHgw/criFcsUpe9RRH/UJNP/TDlMLGfBwkCJ1dYtsBoErhiJ2KMINlnLATm+iV7kdFTaVsQtzLo2lNviin/kMfgS4YmVOM4M+ExA1WzaW5b79rw5hwLRYorlMZX7dC9LZgMKxYEg5bkanzXA5gco2JwLMDdt+RGnyIH6Tun5GZSBcMdtrXJWxt0MsXtubAbk6Wmfky1NaRvfT/AKTgyYVky7bf860e0+y+JL8PoMxzN4ChzzzKlmvbncGeBVbkArvZSOoK3uPXSejew3GfCp1qLXyOCyMATldlClbclO99tDMhjsNUUs1RFA3zJtc76E3tsemphVkTSMvzfE4XWnvXt8NCTiLsFu76C6+drC65bqL6aEjTkYg7smTO4T7mY5GuVJ02tdFPqo6QUlYkFEJDA3DDoeUWHxT5sg0tuLC3K5vLNCGthinjK6s7rVdWYWdwzAsoFspIOugAnNPijqAgZ1UbAMwXU32vprI3cmw6dJI4BQ2tptcfrIO7XuQ1XYaqxB38pIlLxKlImpTqMmvmyOyFhvrYjNufrLSVAvx2y76SGrT8SxOi7C2/+byUylfpZTxGNe6lXfy3KWZvJm3y6+W/O0DYpSCeh1HX/LwmFtdOhO3Tl872lOpTLlaf2i6oOvmNvzMkvj/dovYbBYkUBiBTLUiW841CldGYr9kX+1a0nXGgKNQSABp9fnPZOGYVaSJSQWRFCqOw69SdSfUzG+2HsJc+Ngks326K2AP8VO5sD1X6dCisiunLWjf8fMvHaf8AHv8ABmKWJFiTsAb+nODTVXkQ2nK9sxFza/cE/SD8RiHBNNlZCDZlYFWB6EHUSvTqEfO5jWGXO9gPqvkT5Lnj+EejfstZmxdV7+VaJB7l3Qr+CH6T0fGVNDMR+y7AMmHqVmUjxWVUJ+0iBvMOxZiP9s1GJqRXJqszFMS4ykBOJMRczOYvjBTnD/FX0MyOLwuY/OO4cfOkkTd8Fthrh+PL6mE2a8B4CjlAhMPPSY54ykYt1ypsjxbaQaHMt4liTaWsPw24vaZ/1HNMzpjv0+G62gVm7xS9U4fqd4p5/wC5JvaZa94EXvMpZo6kzZcmGmW2xM494kIUztEkUuiZ9y8j3ErOdZYp7SJyLxJfuGX+0kWvaQYvFjLOakq4jaOSuhdvsDU6BquwX4gLr3tuvzj8PUVq+RmACi5uftE8xuTCHA6f76XeOcMp06grZM3i+Vl2Gca5k6MddPWJZoW3SNXx/JtYvtb6b/8AkWmqFNGpsAPtoL6dwuoHytBD8RqJnbDYi6n7DlSABuASNB2M0eN4OtCgKqYhkaw8lQhkzHXKGFmFteu08/4zxE2Cv4TE386Fiw53vlH0vFYlt9BclTxe3ohZSrhspsDqLaqDuP8AtCSURkL8yND/AE9YM4diLg3u7Zs172JB10v84QwdiTTBsoN15basnbeOf5MHIknqWVcNUZja1m7725yTEYooci/D3Frt/STYxSRlU6g3B2NuYvK7oCLn8dD8+RnJk6bex3wwsC7HqB30kNfFaZV9Lnf1Ea5b7UqYt2p3DC9+Y0P1nIq5+e2SV0CWNxe2vrF7PVUXGYdm816iA3+8xspHoxB+UoriSwLFbsLDt0BM6wZPvNE//JS+RzrOa30ExS5rs9/wmsukQTwutcCEatTSZv2aVj9Vz9ihxHguHxBvWoo5AsGZfNbpmGtvnA7/ALP8AzBvBIAPwq75T2ILbelpoEq3l2mNIyua9mDrG59yq6BUCqoVVACqBYAAWAAGwAgnFiGsYbCBMS8XjfPssjPcTgs04ZxusFYryi81vFtTW2L555TokpPylnNpM377Zt5ZHENN5uLNLRlfbrYTwyZnmwwdEZZgeG44Z9+c3WArXXSec+r5HVdG34EcZOamF1OkUuZo8xOTNMwZqCOtYdYLymNkM9N9+TI9JfwGBXHWOMQOsDZWiytK1mlosvFtP2NEMSLbyB8ULwOpbvGsYBOd7CvDevYLtWB5xnqLbeCrHvFYw6zSkCfi5N+wS4K4FYEmavigR6bI4BBGx1HUTBIjKcw3hF+Iuy5bGDdSwv2b+AZ7VcVqPTWmzBgr5gSATorDXr8Ux+Fphns3PU2333A6zS8TwzNlAF9HJ5aAAnfsDKq8M8gcK1wMwYbC2/8AneU1KXQvkyUsjlreiWlgDTCjMpS10qbA6mykcmPK/pfaXsRhmdQwXK41uN7jt0/vOFCsoZBYkZXQ8yBqNeenPQx8NUdfKX0Hwk6EHoxOrDYfTfeRpi7rHVb01/BJhwKiE28y3zL0Yem8r0KoLZH57qTy52vJMYjI2cXBtZuhHe23ziStTcDMQCdj0PrykI7lveitjqJQE7j7NgNOg/vBJpM5s297X7c7fSGsS7LYPqvJhqJTqBQykfTSXRVNpbA2JGQjKb/lbpCPCqIatSa9vOra3+yQSvyt+MhxlFmbyqbDU9NCee0m4JSzVwpv5AWA7iy/r+En2CY920l7nrPC8YoG8v18evWYNKjrtE+Jc9YOlLrZoRguX7G6o4pOsJJjVsNZ5mmKcSX3+p3kJSEyRkr8G64hxFesA1set95nqmJdt7yCzwKxyq2UWC/gM1sUp5wbxGqCJB4bRnok8oxLlEV41sz1VPNoZ0E7mGfcB0j+49oX7yK+kv4BOEOVwZvuD40ADWZf3HtJ6asu0BnU5EFxYLg3fvi9RGmJ8V+seJ+mn5D6v4LfuJ6RHBHpNX7qIxwomp6ZCvrmZX3I9I4wR6TT+6iP7qJ3pkd65mW9yPSOMCek0/uonQwwnemR3rmZgYI9I/uR6TT+7CIYYSfTI71zMz7kY/uZ6TT+7CU+K10w9Jqr8vhXmzH4VH+bXMh+OktstPm1VKUu2Yb2ixJRkRRdywuNhlby5T63v8u874fxhTUyMoS91YG1s4Fwy/Ztv3sYGqYo1sSjNbMzBmtoLqL2A6WW0I16TM7FCpB+JWXy66X77D6RdpNaYPy8zwZk176WwhiURSXp1qQLKysjEFWBtqDoUbTQ/pO2Wn4WVxmDW8mZWzkbZWGqkdf8AVuEDmqj+VFI/CxH0lcYAoT4bsp2IF7f8WJv630kJda2L15UXXNJJ6/r/IZw2HcD90Q67FKh8y/whxy6XBvBOKZUY3R6euoIuvqCpIG85XC172Nc36FdCN+ZsROzRr7FlI6qMrfjpJXT9wd5IpLpJ/lp9MoVq5Y+V7EcgwKn1GxkaYpVNqtOxPNTp62vpCL0KZHnVy3Mlbn6rpaRtQTZUYdDbLz311EsqQPlL6Z1R4tRUFbk301HI8tBNDwHhJC+Lp5wMm3wGxufU2+g6zKDhgtc6a73u2vU7T1f2fdXw1I6XCKhsLC6DLoOmgPzhIlX0XwVGOuUgg4Jpz7i01HgrF4KwnpkPevoy/uJj+4mafwRF4K9J3pkd6+jM+4GL3AzT+EvSLw16TvTSR66jMHAGP7gZpvCHSLwhO9NJ3rqMz7gYvcTNP4YjeGs700neuozPuBi/wBPM03hrHyCT6aSPX0Zj/TzFNP4axTvTSd66xrzkmK8bMIyID3ivOcwj3E44cGODGuIriQcdXiBjZhHBknHQMxnt5ha7lGRC9NRoEBYhzuWUC+oAAPY9Zso4Mpc8p4hsGZ4bVJbPFaGBrCorGlUWzAklGFhfXcdLzT4Qi7WubgEXN7WJFtfWeiEXBU7EEfUWnmLu1M7X3Ugbq4IB+R/TvEs2LhrsH5eX7zVNaCnL+krP0v8jt+cibGM3lRc1tCxNlB5i+7fLTvIhTYkgsnoqD8mv+cEJqRq9FgLqOd9NRcdv6Aet53Qqhh0ZfiB1I6eq6b+o01E7pi2gdSehUfkDKeKDU2DW06DXTmt+YPLmCByMj3LLvokuCwzbG9t9N7esr1qmU20sNzuAL2J9Nb+imPi7BVqocy3zab2+0PzMjr2La8jY91YEflf6ySyIMTVI8p2Oh7XOh+V1+pm3/ZzUY4eorfZqm3bMiEj5G8wWTylW3Q5T3U6KfxH0noXsBQK4Uud6lRm/wCIVD/9kY/OHwfuCyaYmIGcx7R4keKclhFmHWRsnR1FOc4izids7TO4pxnEWcTto7TOopHnE6E7ZGmdRRWnMk47inEU44gq7Sq0UUpQSDgzoRRSoQcRRRSSDsSWjFFJkivYnMcRRSwE6WeZ+0+jYi2n7x9tPttFFFvJ9kVr8HdNRkQW0sunyhfBIMjiwtppbs0UUSr2LeH/ALy/sq46gtl8q/a5DqIIH/uryAFhyG+wiikz7E+R/uP+inwvaqOWZtPrHpbL/In/AExRSX7gq92R1vib+QfmZ6f7M/8ApKP8h/8A00UUY8b9zLSEhOX2iijhZFOtvIrxRQL9xufYV414opBYV4xMUU44envCFDaKKXgDlJpzFFCgBRRRTjj/2Q==</t>
         </is>
       </c>
     </row>
@@ -2020,25 +2028,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Nasum Ahmed</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023_T20_382</t>
+          <t>2023_T20_095</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2053,40 +2061,40 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>8.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>35</v>
+        <v>41.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>2</v>
@@ -2095,22 +2103,22 @@
         <v>3</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
@@ -2119,25 +2127,25 @@
         <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgWFRUYFhgaFhwYGhkWGhkaFRkcGRoaGRwcGhgcIS4lHB4rIRoYJzgmKy8xNTU1HCU7QDszPy42NjEBDAwMEA8QHxISHjErJCU1NDQ0MTQ0NDQ0NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcBAgj/xAA/EAACAQIEAwUFBQcDBAMAAAABAgADEQQSITEFQVEGImFxgRMykaGxB0LB0fAjUmJygpLhc6KyFDM08SWDwv/EABkBAQADAQEAAAAAAAAAAAAAAAABAgQDBf/EACIRAQACAgICAgMBAAAAAAAAAAABAgMRITESQQQyIkJRE//aAAwDAQACEQMRAD8A7NERAREQEREBERAREQEREDyJS+132hYbBM1IA164temhsq3/AH3sQptysTqNNZSa/wBq2OY3Sjhqajk+dyfNgy2+EjcJ07XE5LgvtdYECvhAR+9Qcm/WyOo18M0u/Z3tjhMYAKVQBzf9m9lqC2u17Npr3SY2aWOIiSgiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIHk5L9pnb10d8JhWKZe7VqrfMDa5SmfukAi7DW5sLWJnTuK44UKNWs3u06bOfHIpa3yn5nTAvXYsTc3zu2/eckkk31JNzK2nS1a7lFJVPiDe56nnfxkphq4GjAa8/wIG3LX9Gc4f2epH3sxPnpJ7BcCoKfcv8AzGcpyVaIw2UV1RxddG5qTbboes1AzITlYnUENexRgQQTYizAj469J0vE9n8Ow9yx6iV7iPZrLdkN+vK4tz/V4rkhFsNtcOk/Zt2wOJX/AKeu6nEIoIJNmqpr3gLC5Ate3W/WX6flbB8QbD1krU+7UpsGTNsSCL3tuCLqfAnWfpzhWOWvRp1l92pTVx1AdQ1j4i87szdiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiIFY+0NGbh+IVNyEHoaqBv9t5yrg+GyUnv95gf7QTOrdscdS9hUw7PlqPRd0U3AfJ3iFc92+nu3va+k5vjqqUqSAnUgN5lh/kfCc79OuLiWTAWttJah+tpU8Jx9FbLkbXnbTzlrR1K5h0GnnMnjMN8WiWfS00cSm/l8pr1O0FFGKNmB620+N5v4aoj7HcRMTtHlGnN+J8PuzNex10HO55TvH2eH/wCNwvhSC/2kr+E5vj8AA5UgaE+oNv8AHwnU+yeF9ng6CdKYP912/wD1NdJYMkcpqIidHMiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgc0+1qmq/9O5FyzMludgCwI8cxHxMq/GsLnKa27gGoJA03sCL8tjynSPtB4OmIw2ZrhqLe1UjcWBB9LG/pOfVMQHVCNygN9wQRf1nG/Ey1YtTEIRMFlQlzmGtrgAjUc8o2Fx5nmNJN9mEYUDnvdmut98tu76Ea+s0+JEvkppclyBYW252v0AJ9JM4WmVRSBcagBSDtYCx52AE42mZhorWInSFxfD3aoQjWOtiQoW1tL3HWS3CsK6NrYa8tiOVx+vWTFMgqGX1Gx8jPMoLCPLjSPGOZaePQNVBb3Ao52BLEgC/pLl2SLH2rMzPdlAJJIuASbX23ErFRWe6oASWyrcXHd0FhzOa/SX3g+C9jRSne5VdT1J1PznWkTM7cMkxFNe5SERE7spERAREQEREBERAREQEREBERAREQEREBERA8nHe09VUxtdDpZtPDMof8R8Z2Kcc+1ugaOJStbuVadiQPvU9GF9tUK6fwmVtG4Xx28ZVTi2Lz6Iu2lxues2sJjKvswmRn3uWUkaW35X/KRmErJUAQ8mPmTJ/AYFLgd7bXvfheZp44bqflztKcP4uwZUqIUuLZth4XHwm7jMeqX11vK5xvE0aKhAO8zAHU3Avrv+tZFLxEuRuSzd1OutgPKRWu+UWvEcOwdhsKjUzVZQXFRwGPKzNt8Zb5XuxWHyYVFJ1G58bC/wA7yfVgdjNVemG8/k+4iJZUiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgJD9pOBUsZh2oVRo2qsPeRhfK6+Iv6gkHQmTEQPyrxfhtXCV3pVNCjsM63yvl5qT4a28Z9U+KMEsDqR1M6f2/wAIrYiqhUFXVWPPvBQLjx0+sr3D+yGGKh2VmOvdzsF062N/nONpj270i3pSqKVKriwLsdgLk+svXZngBpftKli9rBdwnXXmbSYw2Dp0+6iKg/hH48+ckMNRJZVGrMbD8/IAE+QlJtM8Q61xxX8rMPD8FVr4i6uyIhU1Oh00UA6Zjob8h6A9A4bZAEUBVtZQNALTTwuGVECKNtzzJ5k+Mykkc5qpXVdSy5L+VtwmomjhccG0bukG3gfym9IVIiICIiAiIgIiICIiAiIgIiICIiAiIgInw9QKCSbAbkyC4jxtgLUkYk/eOTKviQzA6+u0RGxOswAuTYDcmVfH9pgVb2QJGfIpHvOxtYL+6Df3jsAWNgDIzFU8RVSz13HMImQr/UWTvHyCgDTU946vCMEyFmdi7BiFFrKtwLkKPvHa5vYXAtc3tFVZlHdpgVxCE6rURlB/jp963mVZj/QZocPq5dL6X9JP9quHvXpKtMj2iVkqItwCwCujC5Ito9/6ZVseGp+ZNreINiLjxnDNXlrwTuqYSuNWOgHOWLsrhiynEOLZxlpqdwnNj4sbegErXZ/h5xNRVykUU71Q/dY7hPG+58PMToZPSThx/tKubJ+sDv0mjisUUcZkJQWu6XZlJBHfQC+X+Jb2vqABebRfc9NB58zNd3mhmhi4diVcMyOrqWJDIwZT5EaSTw2KZSBuOnTykI/C0LF1vTqHT2lOyud7ZtCrjUnK4YeE3MElQE53R/3WVSjH+ZbkX21Fr66CRpKx06gYXEySDRSDe59CfpJahXDeB6SswlmiIkBERAREQEREBERAREQEREBETT4hixTW/Mmw894EZxXEZmyj3V+Z5/lNEi40Ov60M9O8ETpEKMS+GnUdPKY3NjcWmljOLBMQlJl0ZFu+ujO2VVsB1HO1tN76a/aLinsEuoD1GOWmhNrk6XPO17DTmRtvJ0bS+BoZkDubvYqTa2mdmAA5WDWlS4hwipVxL3DLRBBLjdmYAstMH3mzE+A59DaeElnD0yRdVVmZdsxBDW6C4FvWTKKEUXGuw9JSYrZ1rNqS0MFkw2WmqEIFGouXBtqW/e+s3GqhhdGBHXp6TXxNdVDO7BVALMxIAAAuTc6AAX1lDwHbJ6zoiBWLP3UW43pqCGsxLD/uN3tLlbkBSReI/jnMr/UfkNhtPEEx00NhmtewvbYnnYdJnVJVL6QazOgmNRpMtOSPsCfStY3G4ngnpkCRpVAwuJkmjhGsbdfrN6VmNEEREhJERAREQEREBERAREQPJA9oKozKvQG/9W3zUfGT0q/HXBqsv8Cj6m48dR8pNe0T01qVXMviCV+B/K0yhpD4esQ+U7kgHx5A+ot8DJB3sDOiqu9pMGK5D0qtnCZNyVGudHC8mB15XBB10vipcFJcVqrl6u5awAB6gfdtsBsPPWfeOxBL92ygEgG1lGUb2G+x/tAm9g0VlBLsQepy3+EyZMtpnUTw24sNfHymOWTC1aaN3Xu/gef4yxNVB1GpPwA5ASBoikndVNuSKbfHab2GrA3uMg/i0kYbanRmruNo7tLjSqrSSstGpUYBXYE2ANyRbbLYE3FuRIuDPezdOoxzu9Osiram6hywsAoOZySGtmudznF2blF8Ro13rs3/AEyVEFkRi1P2gBbvOCAxsF0FyCAzCzE2lr4XhgtJFCezuM5TXulznK67AEkW2AAAsABNnpi9tsT0CehZ9otzaQs8drDx5TJsPITXBzP4LMtVth1YD8T8gYGwJ9TGx1n3CrwmSVFrgHqJGNJDCHuj1+srZMM8REqsREQEREBERAREQEREDDXqqiszEBVBLE7AAXJPpKGMcK37VWDhySGXVc3S/MW7v9Il24lTDUnVgCCpBDagg6EEdDt6ylYlURAiqEA2VQFVR4Aab9OstXfZxrXto4ip3g40sQSPI/r4yRxlXKpPj+vrIXEsdzp48j4H85q8TxTsgBU2yga7bC7MOZNtpF7xELUxzaUfia+Y73UCw5XNxr5X1+Emuz7G5VhsBp94efTyle9uUuRq99OieN+bfIW+G9wZ3Vs4BItytfXz8pilurwtNXEMvu0i/kyi39xEz4dRUHfpiwOiuA1jbfmNiRfzmmXqkKyoGVr95jbUcvPeSODvbXf6eE7Yqzvcw4Zb18dR2+E4QhbvZSlyVQIqhbi2jDXkvw+Elg8KlMZUXKL3tcnkF5k8gJ6kzLNTK+wJ4hs4B5j0M+hPKtPNsRcG48/GBo4Fv2rj9xAD5sSx/CbKNmqgfuqT6nQfK80OHm1atfS7A69Ao/ObXC2vnfqxA8hpA3Qe9PXe3T1NhtfeRnEcf7GhUrWzFFuByJJAF/C5F5hw2BxRUs+KzF6TWRaaKqOwupRxrZfnpLRX3KPGZjvSaLiw5X2B0PlbrN/BPdfIkfjKHwqhTxNbPXBdjh6bUyWYMmQlKhUgghs63vuJauA06i50ZjUVGUI7e+wygNnI94hg2vPnrK3jS3j48JuIicwiIgIiICIiAiIgIiY3YAEk2AFyegECqdqu0tOg4pVFdUyhmqqMyKxJ7rhe8uljmtbvDUSv47HpUXMjI6H7yMGX4iQHaXjBd2bW7sSBzsdh8LSG4bwjvmo10FrnKSubwYDQ+RlIzR1p2/wnvafNU2vc5eQv8NT8bTUy3Y9y19ddTNXE8SBOVBYDn5b/ABmbhuKfvC183xF5wtabTuXelYqY6kos3Iaabf4nzR4zqtKintKj5gig926LmOZjoABNOrUpCqc9QD2ZCKme5d3I7xXfKLjw3kn2Gwi2r4g7p7WmP5nfM3rZV/unWmKJ5lzvlmOm3ge2aJhKAqqxZw4Zkt3WR7ZspsdRYkDqZ9YbtOtPGVRVqn2PskamFTMMzJTa4KrfUFzqba+Ul+y3CUbhdNKqhxVRqjA8/aMWUjmCFyajUEXEhMDw2i/FKquislOlTypbuD9nSUd0aWA2G2vhN1fHXThuJmVw4PxqhiL+ycORqVIZXA2vlYA28dpNZZz/ALR8OTCYvC1cOuTO/eVb5SAyK1gdsyuQRtoDvOiIZW1YjUx1KtqxGpj2+RPs+IsZ7li0ohX8ZWyV2vs6aeY/xN/Bd2io5kX+OsiO0rEOh6HeSWHrAgDewAhE9N32KuhRwGV0IZTzB0MjsN2ZRWTNVrVEpkNTpu96aEaqbAXOXlJNG28NpkrYlKa56joiDdnYIo82YgS25joiZ9GHwFNDdEVT3rG3eGc5msTqATrab2AAGYAAd7Mbcyefy+UrGI7b8PTfEo3+mr1PmikSZ7NccoYpGeg+ZVfIbqVINgdjrbXfz6GVtvXKY2nIiJzSREQEREBERAREQPJVe3PFGp0fZU9alUZf5V2Ynz2+PSWqce7d8ZYYqqoNspCDrYLt5XJP9UpedQvjjdkZTwCU7vUYFvHU/OaeK4jm0Gi9BIurimYm5v5xQF5na4beGpa5jJTAVgodzpbrI/Dn4G3wtMeOq3y01+81j/Lufy9YrXcptOoZcDwtHZcQ4Je5fU925N1JHUC3wEtuGwi0cJkQW9o7OepLn8rTS4Vhc7KnIat5Df8AASfxIzVETkGHy1m2scMNrbli4zwbHFEo4aoKdBaSJ7wUgKgU6hc/I6A6zV4bwusmMr1XW6PTpqr3TvsiU1Y5AbrqrbgS+OO56SMxKaTr5zrSNzrSD7UYGpVq4VkRnVWGYqCQt3S9+miky1oLEz5wZ7g8p921kTbcRH8RNtxEfx9qbT7YT5EAyogu1FM5L22lfp9oKNBF9o5zm6qiAvUbLtlQa7W1Nh4y5cUTMhHhOXsgDsbDMNL21sCdL9NZW1vGNr0r5cJtuM4yt7lsKnWyviCPW6J8GPiJrLwRGbPULVn/AH6zF39C5OXyFpsYSrdZso0x2zWn23Uw1r1DUq4JLWyj4S4diOB0cPTarTDBq1s92JXuFgoVdgNWPUljKs5l97LtfDJ/V/yMvhnmXP5McQl4iJ3YyIiAiIgIiICIiB5OJ/aXgcuOduToj/7ch+aE+s7ZOQfa5cYlNNDQWx8nqX+o+Mpkjh0xfZQiwvaZ0fYCaqLzmah1nDTVCQR8o8tR5/8AqSnB8GTg6+IYe/iKdFCeiXdiPAsVH9Ei+E8LrYyqKNBdTqzH3Ka7ZnPxsNzynWeOcAWlw1cNRFxTKWJ3ZjUGZ2tzJZmPmZ2x1cMt/SC7P0MqFzux08hp9b/ATPhe9iB4A/l+M2qSBUyjZQAPIC01eFa1mPh9WH5TSzrhU92R2KGkkrd2R+JkKsmDPdE2Hmtg9rTaYQsKZ6Z8LPuBhxC3U+U5rxKjlqOPE/OdNqDeUjtFhbPm6yt43C9J1KEwWJsbeElEqyAqdyoelvrJLDPcTz711L0sdotDdzS99kHvhx4Mw/H8ZRKO/wBZdOxDA0HtqBVa39qzpg7cPk9LLERNTEREQEREBERAREQPJWO2vZhcbRAUhaqXNNjtrurfwmw15EA67GzxImNpiZidw/OdfhdWk5o1KbI97BGBu38lr5x4re8vXZn7NswWpjSRcXFFDY//AGONb/wra3XlOpWiRFYh0nLMxppcN4ZRw65KNNaa7kKLXPVjux8TNbtFiclEjmxC+m5+lvWS0p3anE5q6Uxstr+Z1PytL1jlxlpubIZrcE95z4qP+R/KZcY9kPrPjgosl+r/AEA/zOko9Lgm00MYJu0jpMOJp3BkIYMMZuSMovY2Mk12hZ8c59AwwnggetKz2hTumWNjaVrj790iRKa9qHjf+4ehF/pJDhy3tNHF7+dh6D9CSfCk2/W8wZu9PRw/XbdxGi+MuvYamFoMAbn2rE+eVfwtKVjtLDwl07Cn9g3+qR/tSWw9ufyPqs8RE1MRERAREQEREBERA8iIgexEQEoPE/8AzG8z9IiWr2iWDH+5PvhfuJ5t/wAjES6PS00Np5VnsSEI6p70kqe0RCz0TGZ5EDyptKpxvn5GIkT0mvaoYz3h+uUleHT2Jgy/Z6WL6M2N3l17C/8Ajn/Vb6CIlsPbl8j6rNERNTEREQERED//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRYWFhYZGBgYGBwcHBoYHBkfHxocHyEZHiMeIRwdIS4lIR4sISEcJzgmKy8xNTU1GiU7QDs0Py40NTEBDAwMEA8QHxISHzQrJCs1NDY0ND00Nj02NzQ0NzQ0NDExMTY0NDQ0NDQ0ND00NjQ0NjQxNDE0NDQ0NDQ0NDQ0Nv/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQcDBAYBCAL/xABBEAACAQIEAwUFBAcHBQEAAAABAgADEQQSITEFQVEGImFxgQcTMpGhQrHB8BRSYoKy4fEjU3KSosLRMzRjc9IW/8QAGwEBAAMBAQEBAAAAAAAAAAAAAAEDBAUCBgf/xAAuEQACAgEDAgQEBgMAAAAAAAAAAQIRAwQhMRJBEyJRYQUycbGRocHR4fAUJDP/2gAMAwEAAhEDEQA/ALmiIgCIiAIiIAiIgCIiAIiIAiQvGe0+Ewt/f16aMBfJmBc+SLdj8pwuI9stEXKYWqwB3ZlXTrYZrQC1IlZ4H2w4RgPe0q1MkkMQFdV6XIIa3L4dz6zruC9rMHixehiFbUDKbq1zsMrgE38IBPREQBERAEREAREQBERAEREAREQBERAEREAREQBERAPJXntO7aNhF/R6B/t3S7N/dIbgEftmxt0tfpewHYAEk2A1JPKfNXaLGvjsXWxIVvdM/dIBNkUBF03uVAO25MNpckpNukc/VIcl3Y5iSWLElmOpJJ3JvbfXXXrPwqOe8AbaXFzr5AcpPrwenYmotRGYXUuCARvmLHQ9Mo1v85jPBHz2RgTYai1+Vgbc9ibbXN7zx1o9+GyCUZW71hYG+p18NN+QmMsUe6kgg3VlJFtiCDv6yaxmAen7xDm1LHQG1geR2G+0jk4e9g1rgqbnz0npSRDg+C6fZZ28fFk4bEsGqqpZHIALgctBYsBr1Njvra0J8m9nK1SljMOyHKwrJb1ZRY+B2n1lJPAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgEb2hv+i4m2/uKlvPI0o/sol6aEc9dZc3aPi9Ckj0qjhWek5AN9rWubbC5GsprgmKNBEHcFlA753IA+kpzbxpGjBs7Z31Fe6AwBHQi8xDh1IG600XyUC/ykNg+1WuVwnKxQnn4H0k3ieJogDOtgdpkacXRuTUlZp4/BU1XReRHgLm5sOWupnK4rCoivlULcG9ha86PE8dSoLLScW56EfSc5jaua4sQddDJqVnm4tFfY02bTQg3B53n1thb5EzG7ZRc9TYXny1gcCWxdCiAWLVlW2+hcfhrPqoMDtrOguDmS5P1ERBAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBwPtSwAailS2xNM9bOND8x9ZA4Xg6PkcKMwGhFr7SxO0/D/f4d1AuwGZR1K629Rcesr/AIHjsqa9BMudNO0bdO01TML8Ip0kCLTAuTYabkAEjxsAL9AJ+OJ0e+qvqABoduk3sbj2NRHTKwXdOenQ3t/SauPxTO2f3YC7WY2a/UAXHqSJQ1J7s0pxWyNT/wDPI+UWdbDQqQA2oOp3P5E/NThXu1IZmaw0zWP1nSYXFKVGa17DbrITjOKvcA6COqT2ZHTFbpHMcDwQ/SalUrooUK1r5SwIOniBa+u/jLW7AKwFffJmXKCSQD3gbX52C39JwvZ7RKlluzsBvy7uwtqfHl4y2+C4L3NFE5gXPmdT9ZoxpynfoZ8rjHHXdskYiJpMQiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIB+TKfaiEq1KZ0yu6/IkD6S4ZX3b3groWxlJcwAHvUG4tpnHUWtfyv1leWLkti3DNRluc2UNEnM4CW0bJf5neYauJziyMlTU3ADLb1POZMF2lolQG5zO3G6Fu7ZT6TN5lyjanHs0a1GlUQHORY6gA3/ATXx4slzuZ5i+Koftbc5F1+Ih262kRi27YlNJUizvZ/wumaIqlburmxuf1V5bXFzO4nM+z9lOCplSCSzlvA5jYHxy5Z002xSS2OfJts9iIknkREQBERAEREAREQBERAEREAREQBERAEREATU4phxUo1UP26br8wRNueQD5VxOAqFiyag9PSZcNwiu52t5zrKlH3eIrUxYqKjqDv8ACzDkZt06dtifTSZp5WtjbDCnuQOG7Pkau/pM74UL3VFh16/nrJjEOEF+fIc/6SLJJN+cQuW7M+rzRxLpjy/yO+9nHF1UNhmIBJzITpmuACPPQEeZ6Sw58/vVCWLbk6Dn/Lzkzwbt5iqFlYrWQW0e4cDoGGpHic1pojwc/HnS2kXPEiOBcdo4tM1Nu8B3kNsynxHTxGhkvJNSaatHsREEiIiAIiIAiIgCIiAIiIAiIgCIiAeRE5ztD2op4buCz1SPgB0W+xY8vLc+G8HmUlFWyaxeLSkpaoyoo5sQB9ec4jjvtBVSEwyZiTbO4IUDmQu50628jOS4njnrvmquWOtl5IPADRV+vnvIklSWK6/ZUcyT+frIbMT1Lk6jsjV4E7NnJJLLVcNfnc5r/WdFewuTf1kRwVFotVzkDOx0Jt3rgDfa8kxTmWUHKbvg6c9YsWNKLt/Y1agLGDTCi50mxUdUFzpNZ0Z8t7KCbi/QAm/ztL4rsjjZMlvqk92RjEuXvrqAB01WbWKwQsp+0DPaWGysBv3hf6kySxOUrqQLahibeksKHJ9WxDYaq6MGRmV11DKbEeolhdmu350TFW6CqBb/ADKP4h8uc4urhjvMQwuljcHrBZDUdD52L9RwQCCCCLgjUEHmDP3Ko7GdqGw5FGsxagTox192f/jqOW/WWqpuLjW8HUx5FNWj9xEQWCIiAIiIAiIgCIiAIiIAiIgEbxviAw9B6trlQAB1ZiFA8rkekpuozMzOxzMxYm/2mJ1+s732o40pRw6g2z1wT4hVc2/zZflK8wlS2ZibnYDxtrr0EHP1cnaXYYtSFsD3t26eAH56SCTB1VJzm4a7d24INrC1/T6SeQ8zrbr+ec1cdU1PWwHlfn9DCM0ZSXliaeGwnvO6qrlUWZgBduova8k8LwhlU5a1RQdFUG4X5g7DkLCbOAS1OwsNcoHMnbbzvN4vbu/ZFhaQzy8krqyJw/CWaoAzs1te9Y7abAWG83+JrlygD4bAeJ/pJLCq+UvkbvEAEKbWBOx23vIviIzOikka3tzsA/03+Uhclfmk1ZgDAs3UAcuptv6TboqLHvbAa22H55TWSmA+9roPSxJ/3gek9OKVSEGpYk+igaW8yZJ6S7IVMKW1a5GtgZp1OH35D03/AD/OTNFgx16/OZ8TTBHd18Rzk2FJp7HNvTKiwJli+zztIHUYaqbMv/TJ+0v6vmOXh5TiK9Ox9ZpvdGDqSrBgVsSCCOdxqD0gvw5umR9AxIPsnxf9Kw6ufjXuPpoXAFyPAgg+tuUnBB1U01aPYiIJEREAREQBERAEREAREQCtfbGpCYR+S1iD+8AJyHA8KK1anROgY96xIsvxNqFJHS9rXI85YvtTwXvMA7f3TpU9AwU/6WJ9JwvYRnVqtZRdRZWuWC5cwZjmBHeCroNbkjTST2MeaN5FfB0Xa2hRShTCIqWay3zXAN3IANtLkXzDyM5DB4cVA7kadNtQNBflv9J0/a+u1VBU2VXChAAV+0C3vDq98trDax05znMM+Wnb9Zje253H4SEZc/zPp2MuHs7KVACouw5EaWt85+6V2PW5/GwE8wiZEqte9yNv8IJ+pnuAzA57Aqr2ANxdgpK3bYC5UX6zxJ0rK8OJ5JUv6iawWPxKM9OkyZaeXR2IJLqH0zXXn4anSaPG8W71aZdg+XMLjb4nU27o0JKa2vYeF5O1eL0yxdEu5+MIbMGCBVJVwGsLDXkBtznN42sGuCLkAFSPhfKuVxm8TmXTzlcUlLk6Gp/41Ffwa1OmC9mO6m37pI1PibH92aGHANRmv9lbDoNWv9fpMuNxWUpUGq6MD101FuRIDC37U08LWDZiDoctv8NiL/Qy85qtJskqL3dF8zr4d38TJnCnOuljueQFvPpOXGIGZsozFVGl7cmP4zcw9fS92By20OggU+SZxKKpsB3iL30t0sJznEWBPiDqZJ1691Rjcm5XTxtNPHJ32A0zD67/AIwhGNStli+ykk4R7/3zfwU5284b2XrajWA+H3gI8yuv4TuYOxh+RHsREFgiIgCIiAIiIAiIgCIiAc/22wvvcDiUBALUzYnYEEEX8NJVnZzHpQosrgFiRqLvmGVcrKLhRzOcnnseVodvqzJw/EsvxZLD95lX8ZSJxyOwKXUBQtiBcFAo0sSLW5+MnsZc7a3RMcW4oattGAUnVmuWOneIACggC1wPWZKKAKoLa5RfTmRr9ZEPqh11Onz0m7V7uovt+s3/ADIOXlnffdm+KRWhmGuZz99tvSYsHjWQEWDKw7yHZrHrY2I6/TQWw+9YYekb2F7kWGt83OY6dS5Gu48NjPLipKme8bljfUmS7cRobKlZ9PhZrKPC4YnQ9b7TRxOLZyDkVFRQFRB3VX6a7a6bDQTDRQ3Og2v085+8JiSrgEXB0N/GeY4lF2W5NTKSa2r2IvKO+l7hrlRyDb6eeo9ZG8Krd1h0v8gbgfVp0XF6IRw1vv8AvkFxCiKLsyju1bEW+yTuCehBOvUSxvYjAvFuPd7/AIGegtvetfckfIqJJU8yoQdiB+HPrIWkxAYbXax9WY/hJuk7Fe6b977pJ4ndmRj/AGbH9V1Pz/ImbHVAAjnSx1PLUfymPNmpVdLEMLz3EpeiBuGF7+V5BCrazuPZdX/7mnfQMjL5EEH00X5ywJVHs1r5cSov8dAr6rlb7gZa8HU07uCPYiILxERAEREAREQBERAEREA5b2jvbh2J/wAKj5ukobgmDeqauRbinTZ31Asg0J1OvpL49pIvw7ED/B/GkpzsBiEp4ty/wHD1g3igAZv9KmSjPkScq9jfwfAsRVZaaquY00qqC3xI2oK+N9LHYz8cTwbrQpVs4y1S6gWOYFCAb6ab8p1PDMNWZaOHpsq4rCVXpBnuA1MWqqNAdCFUjTUIes0e02HdcGquQXTFVlYrsWYByRoNCddhvBmlhit6MeH7OYipgKdRVzDJmGVgTYE8jY3tfQXkSvCcSKa1hQqMls+ZVuLDc3HKwnZdncXURuHIrMFOHp5lucpDmtuu1xZdfCZsVg8ccMiYVrUlSqhX+z1tUqr9sH7NpBPhQldWcYj5XRmVgr3ykqbHyOx9JqY6rkIudAdDbl6TtuM8Uaphmp1EHu3Sg+FdV0uApYFr7gXFrX1PIibnEuGq/EXL0wyLSa+ZbqbUvEWOpgq/x43SfocVjWV6V1BY2v0+/Xl0nNu+em6kWZeXSxuCPL/dJngbkrl10F99/Sa3EcGQwqIt7XzAfXTpaQ1ao9YJrFNNEbhKpZtNswPpbN/uk3h2tYjmf5yHpoFdxawvmXwuBp9DJOgb5T47SU7VjU4+jI4MlMIoqJWF7Nb57fWYMKQU16xgGP8AbW6fP4ZlwZBUkWJ9NdtYMqdbG32Rqe7xlDkBUyejgr97fQS65QNJyldH/VdD5WYHb0l/CDpaX5Wj2IiDWIiIAiIgCIiAIiIAiIgHM+0EXwFe/wCx/GkpLsti1o46m91W2cXY927I6jNr8NyLy8u3SFsDXA3sp+TqZ854rRx1vJRlyusq+hZHB+K0cbWz4mquHqqFLle6tQI10sWJswV3Xck6eUlcRXwmNXEK+IFEfpJqIWsCw92iXsxGhIJlVcOe7MfIffJR325QZ55JLZq/UtHhdFAy4w1UNKhT90oU3LFDUAsdtcwtbmJixvB8XVpYdqDsoyNmy1ClyzFtgQDoZXHAv+oRtmJHLmBaTGLxNdURkqOuXukI7rax6KRI7nl5o3TXPudFwuiy4J6TnPQCUXps2U5KpqFalMEW0Dg2G4D2ubyf4lxqr7/G0e7kTDVGWw71wic79WMqvFcRqoqqjt7ouHZDtnBBDfMA26jwk1U45UbPWOXPWVqbm32WC3sBsbKsHt5tlXP7HM4c5GJva29uk2zXZ/hchlNtLai/jvNbEPaptz38J7UBBzILEfW2vlEuCvDFyyRVctGliWYVLta5HLY2P8/vkjgnBsT06jn6TTxmWqhIOVl71rWF9QbelxNjg4Lop2BUfdK8UrjXodb45g8PJ4nZ/oTHDEDe+sSDp06L4TVwtQqxB0m/wemgNTMQe9bU25LNDF0Qj6aHXY8vnLDgpp7GPiD7nmL/AEl/4SpmRG/WUH5gGfPuOTe3QXF+XrL17OVM2Ewxve9Cnr+6sHR0m1olIiINgiIgCIiAIiIAiIgCIiARHaiiXweJUC5NF7DxCkj6gT5mxigPcDmGHkbfyn1LxK3uql9sjfcZ8v4pgVUH4lFr8iOXrJM+Z1JGbhhuGPj9wm5UPw+M0OG6KT+0b+Wkkq4By+f4GSY5upnvCcQVqE8wROpdA2cDmMwB/PS84mi5WqfKdglQ5Eqfq6MR0/pIZnzRp2u5DYlCVIPLT8/nlHD2zU2U7qL/AC5/fNvidMZjbUHUEeMicPUyOOh0Pj+QfpHIx3wzYxtMMmcG9rA2mXBsHAuLnYj5z80qeV2Q7MPodQZjwV1cgi5F7ieJ/K/ob9Ev9rGvdGPHYBcrZQ1zrb0/5kZwvElRlO63Fr22/lJ2tjgpta3jY66X+U5vFVAa11tZtbb2Ive/pr6SjBJ3TPpvjWCM8XV3TOowOLVVBO7MW68yB9Jlx9MNZ1O56eHnIPDCo9lDFVFgLqRpy1tJulg66I+dlKWvub3GxXfy9ZpPjJQcXaZjrJ3b+EufsS18Dhf/AFKPlpKQXF5hY3zDw6c9JdvYdr4HDH9j8TBr0lpuzoIiIN4iIgCIiAIiIAiIgCIiARfaSrlwmJYbrQqkeYRjPnGvhKRQkAk9SSLH5Wn0P2xa2BxZ/wDBU/hM+dnOUG+xvbUWMkyahvqVDBLZGHn+E2kfVR4zUwT907bnaZdQy+ckytW2mfisLVZ0/CK4ZGRtiLetjac1jPjB8PukjgqlgT0tr84PGRdUUzfamWQg/ElvPKAL29bSJr0mK3Nrj86yZxDFsta/dewYD5EH75EVcOVdkgiKvvwbtOorojfaXQnnaeYtD8aAsbd4L98juH1SlRkbY6eck8M/esNd7Ab9fwlWReVnQ+HRUdXjk/X78HlFkddMpOXvX3XyEjcNg0qVsocIxF1bTlqdzbkPrJkUEbvZQr7EDQkEa8pFVcAocX0C2PxHS97a8j/xMuJ+Y+w+KpvSSbpJLkladWuvdU+9Ubl8oT0I3Ez4iu+TI5TM5FglxYeN+UyYCkz3vlBG57q6dc2/qJ6OF0VDsVzkKxvcm55d4mbj88613INKbXb7ukvPsVSy4HDD/wASn0bvD6GUxWOjFQLnSw5dB16S+8BhxTp00GyIqjyAA/CGbtJbbbNqIiQbhERAP//Z</t>
         </is>
       </c>
     </row>
@@ -2147,25 +2155,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gus Atkinson</t>
+          <t>Parvez Hossain Emon</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023_T20_380</t>
+          <t>2023_T20_282</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2177,22 +2185,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>59.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2204,67 +2212,67 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>8</v>
       </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
         <v>8</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
         <v>8</v>
       </c>
-      <c r="AD14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>10</v>
-      </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Wicketkeeper</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVEhISGBgZGBgYGBgYGBgYGBoYGBgZGRgUGBgcIS4lHB4rIxkYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISGjQhISQ0NDQ0NDQ0NDExNDQxNDQ0NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0ND40NDQxNP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQIFAwQGBwj/xABAEAABAwEFBAcFBgYABwAAAAABAAIRAwQFEiExQVFhcQYTIjKBkaFCUrHB8BRicpLR4QcjgrLC8RUlNENTc6L/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIEAwX/xAAjEQEBAAICAgMAAwEBAAAAAAAAAQIRAyESMQRBUSJhcRQT/9oADAMBAAIRAxEAPwDmChBQvEcAgITCAaaSYQAhNCQMKQKimEGlKSzNszjGQE55kDxglbTLvaO+7PcIA/MfkF0x4ssvUXMMr9K8KbWE6Aq9ZRYzRjOZg+WIqdR0R/LniAf8Z+C6z4/7XWcP7XPpq3qMadQwbjJ12CToeGSq7T2XQWkeCnLgs9dpy4rEEimDuSK4WWdVzsRJTSKAggUJpFSAhJCYEoJQhOEEinCCEGEIhNIMMJQpkIATShCYCmAnCYQRClCISBBNMBMNQZNaSYAklbzaQpiXZujQET4BDWNptJdBcRqcmtB+aprQGVHEhzhsBzjyLgPRa+Hh13k0YYa7q3oPa44urfPvFrBnzdKyGqHE9Y5pGyHBpG+cOvoqYPdTaGse6OJ1niPmVr1rcQO00DbMDXeDp6rTp226Gz1qebaee9jiDPEE5HlK27PUacjTDM8xEjnAOXguMNoxmWmHDRzdORGoK3bNe72mKmRGjh3Twe3dxH+3YNx1NdgzxOJBGRIlv5pnzOS1w0uBYdRoZyc3dnt8ioWC3sfIIAcdWTkdxHHiPRQtFPAcTJcz2mHMjjHDh5b0LFZVcGzhJDgcwS74O05LHTtzS7C7Jb14UGvAcIcNh28p2fDzXN2ihhdkXDiYg8OB4cEsuPHL2jLGL5rgcwmAq27bWMmk7RmY9FaObCw83HcK4ZY6JRKlCIXBCKE4RCAiUwghEJwGEFEJwgBCIQkGJNJCpKQTUJTlACkFFSCAYWWgO0OGfksQWWme8fun9FWE3lI6YzuNa86j3AYSY1Jy14naqqiypORIH1uzWesSWunEY2yA0To3ifriYWVjiZ1OwbF6Xpqnab6fvvIG8SfMEKL6DIlryNkgxJ4x8wts2Z51EHlP+1iNgdqwuHABG1eN/FbVu94OIHxy02ZtWRtRwA65pImMbe8Mtu8cCrKm2ozN1OQNwwnxGninjpuOYexx1DmlwPiM/ijyLw/Gm2nMGm4Zd1w0/C4ahWNC8nHC2tLHHJrxmJGUP94cdQtF91+1TEHhMHw1C3LNYKjgQ5hdMTM57p4jfrCLYcxrMysA5zKkNJGnsYp1ad3wVXbS0TOeyCYcN4O/wV9SuJ7sMg9nIE5mAch4LXve5XtaXRIj6PP63pTLtVwunNU4LhhBHr5FdJZgSzOZGvJUdkeWHMZbwBKvrJag7sk5luRjIjYfr0S5Z5YWOGWPRgIhEprynBEpJlJBCEoTQgFCcJhNUBCFJCQaqEJKkGmoqQQEgEwEgVJCpBCyUzE8ufosaTzkeSrjusp/q8fca1dkkA+A+a6m6LobgmM1RWSgHua4wu4sLojkvRrbhN1q07pE5hb1O52blutK2KTlLRMVY66G7lBtwMJzYN+ivWrKgaipo3OweyPJbTLCwaNC3JUCUHIwmiNwVfetiD2OEbFaSsNcyIQnKPLLxu+A4AamY5AS34+S0LtYZkzkD4Tku4vWwSTuz+C52rQDAd8x4IzusL/jJydSsITUZRK8zTJs0QiUpSAQlKUoLaUpyoolODaaFGUIG2IBBCEKklCAmgICQUlEBMIVDUX6FbNjsrqj2spgFztJMDISSSs953TUokMqNHa7rmnE1x3A7+BVYS7l11teON966Zuj9kDgDskrqQNI2Kj6PtIpzxKu6Akr0K9DDqN2lotymxYaTYWVr0o7yxsAKSxtqhSxoCYCRCgaqYegIvC1na8luSDlIWnWYQUItV16s7Mgf7XG24dnXV36ruLc3Exw4FcVedNxcxoBLnaBoJJ4ADUqeW/wrJzTUqslOVsWyw1KRAq03sJzGIa8itdYLudViu4JRKEpUg5QlKEgkhRlEpwJShRlCYIlJCYTBIClCRQDCJSlEpBt3e89Y2CQTIBBg5gwuusFveWhtUAyO9GWc67jC4ijUwua73XA+RldjaaRLWhpIBAiOC08F6r0fh3eNxF3UAGlo2Oci113syb9fssl2ZZHWTPNbVtu4vzYYOwnTxWpelDVt1odk2Qd+xVj7baaZ7VelwbjA9Ni3Lx6PueT1tV5HuiQz8oWnZujzKZBDmPiexgMZgj5lOSa7pXy31Fldl/1JAqRwIMgrrqNXE3EuDZd0NPazBluWfI/qvQLuogUgCM8KjVdo5y9r1e04afeXP8A/EbU53/U0wJ0xjyKtbfd2MvJcAS6ADMRvy15KrtNwtqYcJY0tEEnU5zPa03J4zd7qc963Jtc2K2ViM4J3tcCPRW1itb3HDU+oXNWDo25oHV1SHDdm05zpPZ3ZLrbBY3iDUjEN23iizVTN1krthp5ZpWcMYxrurbjiAYGLPPCDrG1ZrW4NaZ0AKqbPVqYwZgZiI1z3pZXpWGO8lZ0ntL6lPtgDBUAAGubXgknb3QuXXU9LnANY3a95ef6RhH9xXL4Vi5r/Ji+Vq8t1/SCFPClC5s2kVJEJwpCJSUoQGpwaCFLChPY0xBSCjKJTI0JAqQSMAJwgBSQESF291N62nTiQ4MDpjskDsuBOwyFxK6vozegDOqJALSSOIOfpmu3BlJlZftp+Ll45a/WyyqBVqAaB4/tbPzV7ZqgIC4WzWkttdZjjmXYuBkDRdPZn6LbWvD3pavphy1qtibrC2qLwis8Qlt21FC+m0HIK+s7+wDwVPRON50wgxzV4AIgJxU0repBOYWYWBu4KD34X8CYViwyEt6K4y+2OhQa3YFsOeAFjfktSvWhLaLJGhf1oim8/dO1bBHdqOIDB3dcRIAER4Kg6Q2rstYBJqPa3wxAEnhmumt1tZSpkvghokD7wHZjindfacM9W1xPSW0Y65GxgDfE9p3q6PBVKb3lxLnGS4kk8SZKS87O+WVrzc8vLK5foSTSKhBIUSU0A0BCEBJCihAYgEiFOEQqLSEKQRCkGoGhKJRCIQYBTaUoRKCYary2ox5OuRJPxK7iwV8QBXEW09gcCPiIVxcduHdndHkvQ4rvCNvDl07VlbJQc9ztCtSm8HNar74A7mf1r8E9NUyad61KtI9gCMUg584MaLYffrywhnejIHLM7CdgWrbar3xpH0frmsPUVBGUb5Hlmme79Le7H1KgAeMOckzIPJX1J5bkuasluezJwyy5AHirOjeLXyDkRkiw/KLh78lXWl6ydZkqe9rbhEQdCfAZpSOeeTnL6tRfWZhOhJncAJkHwPksNe0Pf33udGkkla7HzUJjRvkdI9SplZvk3uRh5crvRJIKSyuKUqJTRCZIphEJhBhNCcJAIUoQgMMJoQAgABTAQApBBowlCnCiU4EChBKWJMjdTLwWNBJd3QBJkZiAOSrLFanNJ2HQ8M/1XqvR+wMsVk+1VGTVqAYcpLWP7rWjYSCCfLYvNOk1gNGuXNEMqZjWAZGJq9DhwuOOr9u/HLMduru62B7ImDGfDetc3b1oxElp9mCR8FydjvBzXQDE6/P4heg3Y4PY08FeWOmnDLamN0Bur6ni508wcwnSs7CY62odwJb8YXTusMjMwq6x3fNRwLht8O6R6FJpmdnTTF0Ejs1Kg5OJ+KbbEabmh1QkHa45ySuhFlgaiAuX6SWstdAPdnkdnnKPbnnftdXjawxgAInLNcjel5Sdc8xrlB2/W7itG03m4gB2wQM/CSfAqubjrPhu0/R8vgqmLhlltZ2Gg/D1zmuDHlwY4g4XYT2gHaGFskL0XoxYadWyusVQZMAje0uaHh7Z0ILvoFcFeFjfQqPpVB2mOg7iNQ4cCIPisnycLvy+qy8mNmXbUIQpIhZNOZIQokqtA5RKRSCNBkCJUQmpCSEkIDGmCkSkCno9soRKgE0tDaUpEqBSlPRbMqz6M3O61V2sjsNIdUOwMnu83RA8TsWtd1217QYoUnvOhIyaPxPOQ816v0Xuf7LRZTMYz26hGhedgO0AQBy4rV8fguWW7OoJNtL+IdbBQpkZDrWDd7LsI84XN3xdzazCx4/UHYQuq/iDZMdkd9x9N/5HtJ9JVO9uUrZye2/im8XkV42U0nlpObciQNRsKsrlv9zAASTnOp1/RdZfFzMrA4hnGo1XDXhcVWkSQMQG0fMJyyzVRljcbuO3HSYYC7Q5ADXb9eqxU76DMwc3OAaOAaMvOR5LgDaHAYYPEeMqX2t0yTppJ+t3ojxV/wCj0Y9JAGCDsO0ZgAZ+q4y8b1L3Yp19Cdfriqh1ocRGg3Lau66qlcgMadc3HQcjtTkk9puVy9INY6o6GAngF6D0U6OCkA+oAX6xqG8DxWTo/wBH2UBPecdXEZ8huXT0mQoyydMMNd1r3FXw3hUZOrWujeOrYJ8wtj+IFwGqwWik0l9MQ9oGbmDORvLZPME7gtG7Wf8ANMW6ifiAvQ08cZnjca5fIn8nz+CpL0fpP0IFQmrZMLHky9hMMdOrm+67hoeG3gryuuvQMV6VRmzERLDycJafNYeTgywvrr9ZbNNVRIQCpLgECEipkrGSmDCkFBMFTQyIUZQkGGVIBQAUggkwgoB/Tx3Bdp0d6CPqxUteJjNRTGT3fi9wcNeS68fFlndSD25S7rtrWh2ChTc47Yya0b3OOTV6Dcf8PqTIfanda7XA2RTB3Ha7xgcF2FisVOiwMpMaxo0DRA5neeJWcu3Bejx/Gxx7vdVMWOnSaxoaxrWtAgNaAAOQCx6FZHt3lYwM1qhsV72cVKT2HRzHN8xC4mwvxMbOsQee0Lv3tlpHBcCymWPqMIgh7svxHFI4Zrhyz1WrgvuE+mtG0WWVaFqxuYubtXNWu5qb++wHYtNvRWzuOQdlGWIrqXUVFlEjRG7C8Zfaks3Rigwg9WDHvEnzlX9CygZADwWRjN62GtQNaTpshZ26LE0JkQNfNTVRr3HSc63l8ZCm4E/1twj0Pku+C5jorQzfUI7zoHJv7krplo4prFl5st5GovaCCHAEHIg5gjcQqWy1bSLbWY51N1nLWOYIipTJaAODmOcyrxBA2K7XRxcve3Qay1pdTBov3s7k8WHKOULhL76LWmzS5zesYPbpyQBvc3Vvw4r2NMFcM/j4ZfWqVkfPmJNewXz0OsteXYOrefbpw3Pe5vdd5TxXmt/dH69kdFRs057NRoOA7gfdPA+ErDyfHyw79xNliohNKUwVnpGhOEKQxYVY3Jcle1Ow0WZDvPdk1nM7TwEldV0f6APfD7YcLdRSae0fxuGnIZ8QvQ7HZKdJgZSY1rW6NaIH7nit3D8W3vLqKmKi6O9EKFlhx/mVffcMm/gb7PPM8V0pSlKVvxxmM1JpWjlRLkiEByoImVXOviiLQ2y4nGqWF2FrXOwgaGo4CGTnGKJjiJsnLlLztFahbS6y0HVg+h1lpp5NdDHCnTfReR2qhGPsEwQz2Sc2HWBUt92DEOsaO23/AOm7v0/dW1mrNexr2GWua1zTp2XAEGNmRUntU2bmlY5XG7jiSNqA1W94XdBL6YyzJb8SP0VZ1ZWfLHVa8cplNxgcxRgLaLFE00lRiZCyAKTaSzMYgMYCx2lxiAMzkOZW2WLPdtlxOxuGmQHHafDTxTxm6WWXjNri67PgY1u4Z89pW8sbApytEmmK3d25u7b4Na1YHWetSc1tUYnDFTq0mvaGVW1BlP3DmOsO5dIVQXPSrC01w6tTNnb2qNNo7RFc9YaznzmMXWMaBlDV0CZFmnKEIBgpOYCCCAQciDmCNxCE0Byt69BLLWdiYH0XHXq4DT/QQQPCFw1+9EbRZiXBpqUxo9gkgffbq3nmOK9jBTXDP4+GX1ql4x899YN4TX0D1Tfdb5BC4f8AF/Y8UiozuRG9C3GIQhRJQEiVBycqKYIuXNdNrJjpML6tqp0Q8fafs7cT3UsLoxlsuwB0YsIOROUZjoqic5S2JiRJgTskjQIDXuelRZQpNsxaaLWNFMtdjaWAdmHknFzlbpC5Lonc9rpVq9a0us1NlUkiz2fEWNfinrpdAa4iZgdqQTByXWykEHNVRbrFh7TR2TqN37K5KTmzqpyx3F4ZXG7cyaSXVq0tVlYCA17WuOjXOAn8MrVfTIMHI8VwuNntqxzmXprimnCzBiG0S4w0SfhxKUi/XdY2UHPyaPHYFd0aAY0AaAfRVXdF60Hv6qm57nBpeXYHBjgHFpc1xyIxCFaVLWxpwmZGwA7c13xx8WTkzuV/psNU1XG8RsY8+Q+aBeJ/8Z8/2Vbjnpq3H0co2R9V9B1UCph/ludiYzC57opgiWgl7spI3K5lalO1l3sev7LYY4nWEy0yqMqSg5ATSlJpQ5ATTUQU0A4QiUICEolYsSlKYSJUZSLkSgHKEgU0BCosDauHVZ3LBUZKVDFVvEDutJ9B65+i13WuodCG8h8zKyuopNpqe1dMDnvP/cf+YhQcxxHedO+Stzq0+rRobZ8IqMmSCWlpIiYPeGYO5ZqtBrhDh47fNaBs4OxZaNkGskck6U67216llcHYRnOh2RvKzsrsp5DETtIA15ysbrb2sAxEThL4EYonBz4+Gukn0lMx16Xc7l1U7PXpNnBTDMRl0MDZO8xqVB4xOJGhIj8oCTKSzsYqQxtoqYpLK0KcJ6IqLFlCg1Nx4pjaaTlhpOcQSTmHPHg1xA9AFmlGilDCk4pNOab0GGHJMOUWFAQGTEmoIQGJyyt0SQgIlSCEIBbVJCEAlByEIDEUBCEgSaEIAWZmiEIClb3x/wC7/Eq2ehCQAUghCYSapFCEwg5PdzQhNNRZp/U7+4rIhCBBtTekhJQYmEkJA0IQgP/Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBISEhUSEhISGBUaEhoSDxISDxEQEhIaJSEdGSUUGCQcIy4lKR4rHxYkJjgmKy8/NTU1GiQ7QDszPy40NTEBDAwMEA8QHBISGjQkISE0NDQ0MTQxMTQ0MTQ0NDQ1MTQxNDQ0MT8/MTExND80MTU1MTQ0MTQ0MTQ/NDE0NDcxMf/AABEIAMoAywMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABAIDAQUGBwj/xABBEAACAQIEAggDBwEFCAMAAAABAgADEQQSITFBUQUTIjJhcYGRBqGxBxQjQlJiwdEzY3Lh8BUkQ4KSosLxNHOz/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECAwQFBv/EACoRAAICAQQBAgYCAwAAAAAAAAABAhEDBBIhMUETMgUiUWFxkYGhI7HR/9oADAMBAAIRAxEAPwD2JFFhoNhwksg5D2mE2HkJOQCGQch7TOQch7SUIBDIOQ9oZByHtJzEAxkHIe0Mg5D2koQCGQch7QyDkPaSmYBDIOQ9pnIOQ9pTisXTpKXqMqqASzMbAATz/FfavhAlQ0qbl1dRTR+yKindri9ra6eUdA9FyDkPaGQch7Tzzoz7VcJUfJWSpT7PZdfxQTxFlFx4byeG+1fAu+RkrItyA7KpFuZAN4tCj0HIOQ9pjIOQ9pq+ien8Liy4w9ZHKGzWuLX233E28AhkHIe0Mg5D2koQCOQch7QyDkPaShAI5ByHtDIOQ9pKEAjkHIe0Mg5D2koQCOQch7ROugzHReH5Ryj0Sr94+n0gDabDyEnIJsPIScAIQhACEIQAhCEAJRisQtNGdzZVF2PIS+cp8W9PUKWHqLnDGzIwRlzJoRsfHSAeYfHHxW+KqOubIiXCKMwJ3vfx1nDs6WJW/kYxUzVCwBBNze+5F+95yhME99vSVtLll9rfCK0ra6+tplgp2PHjymxpdDORcgAeesordHEbH0MjfG6sv6MquifR3SNXCZnpuyswC3DW2IcN7iev/AX2gNjXpYasgFU03LOuzspGtuFxwniWIoOu9/Ob74ExbUsYjjezoigal3XItv8AnyyU/KM5Jrhn0vMSnDUyiKp3CKpPMgWlxlioQhCAEIQgBCEIARaruYzE6/ePp9IA0mw8hJyCbDyEnAMQmYRQCEIQAhCEAwJ5r9sGEC4Tr1ABzrTJAsbnW/8A2z0qcH9r2G6zo9f24mm3pZh/Mh9ErlnkHQeFAplmHaJ48pvsPgk3sIgjLRQZr/tUbmMUOk/7h7bXE5Wm22j0YbYxSfY+adlI02mtxFMAcJvMMudQxAAJsLzSdJ16isVSmG1tcn6SqTbNZSio2auqgN/K1pX8L1uox+Gc7CuhNxfS9tpl67hvxKbJ5iTw2HJr0LDesmXVh+YctZvBtOmcGVJq0fTQMJmYmzOcITMIBiEIQAhCEAIlX7x9PpHYlX7x9PpAG02HkJOQTYeQk5ICEIQAhCEgBCEJIIzlvj6klXBVqYYZ1CVggYZ8quLtbe1r6zqZ519omGP3mg+XRqZVmH7WB+jyk3UbL4o7pVdHFYllpsanV5yLqgAvllNTpGqz5clgBmzF7q/gmmp/pNvRQHNtufrIdSCdvUzkUku0en6baVOio4i1N+JAzL5zVYFusLOzDYsLlgCf03HE8PrNsMPmVwzqumYKW7RH6rTR4JbOF0ZXuaZBuGtuJEfq0Jq2kmLti6jnt0zY3BU62Ef6LrU6dfDVKrBETEq1RyGOVR29hrwt6xpgqjYeU1GO/sWIt/aAgHkAbzSMldpGGSDqm7s95+Gen6fSFFq1JXVRUamQ4UNcWN9CeDCbqeefY7RdcFUqMLK+JZqYPIKqk+4PtPQ50xba5OKaSk0jMIQklQmJmYgBCEIARKv3j6fSOxKv3j6fSANpsPIScgmw8hJyQEIQgBCEIAQhCAYnK/aDhc2DapremwqXBsbbH6j2nVSjE0A6MjbMpVtL6EWlZRtUTGTjJNHiOAr5he+5vHK2MSn3iL2vYak+k0aBsNWeg4IZHKMD4fm9rGOvhUqNna+wsA1rTjcalyerGblFUK1qly+SglnBDu2jnTib3sOURwuJFJ1WoijLojAdlQd7W0mxxCU1IU03Om97j6xGphkzXKHmAT/EvxVMpJNO0+S/E4jMLi3mIlh8LWxBNOjSeoVIcqiMxFzbMRyvaRxlZQLLYDkJ6H9j3Rz/AI2KYWVgKVMn81jdv4k442YZslNM9A6D6PXC4alQXZKYUk7k7sx8zczYzMJ09HI3bszCEIICYmZiAEIQgBEq/ePp9I7Eq/ePp9IA2mw8hJyCbDyEnJAQhCAEIQgBCEIBGRZran18JKcp9oeMenhAiG3WVBTdh+mxJX1tb3hclW6TZx32h4vo/FdvDuGxSsFNRA2RkG4Y7NbSxE4mh0pUpdmohI4m0WoU6iYt1a+U3ZeRvbadAKKstiB6ic+RpSpo7dMnKFp8ir9OoQLW56zWYnpUEm3oTH6/RlMi9iPI6Ga58EoNgPfUyqcTSSyNdiJql2vY+s+j/hWvTqYOh1RUqKSo2UWysAAykcDe8+eqlAL/AEE9E+yPpE061bC1Wt1gWogJ0zi+YDxIt/0TaDvlHJlW1pPs9chCE0MwhCEgBMTMIBiEzMQAiVfvH0+kdiVfvH0+kAbTYeQk5BNh5CTkgIQhACEIQDExNb0p03hsKL1qqqbXCXu7eSjWcL019oFSpdMKmRdusexqHyGw+cVZSU4x7Z3XSvTNDCpmrVAunZXd28hvPMPi/wCK3xaqiU8tJagdbm9RjYi54DfbxmhxVd3YvUdmYm7MzM7MfOKM7kd3TTdZSWWEHy+TbBo9Rqk3CNL6saemlUA7ONVYbiTo1bHI9lbgfyt5f0lVJVYXGh4jkYwUzDK4BHOaShHJG1+zkx58ulm4yXXaZmoNIp1drsfSFdjSt2wQTZUbU+nGKYvpLUZALHTKdTfibzilicXz0e1gzRzpuPaV0TIVfxHtp/ZLzP6/ITWpWcNnUsGvcEFgQf1Ay9+2bkn14SxlUCy797ztOi4xhadpHAsObLmUZRabdddI7ToL7QMThitPFXr0joKm1ZPC/wCb118Z6Z0P03h8WmehUVtO0h7Lr/iU6ifPr6qfK+sZwFV0y1EdkcbOjMrL6yMWVZLpUzTW6TJpGrdp+T6NhPKug/tErJZMUnWLt1i2WoB4jZvlO/6I6fwuLH4NVS1rmmezUXzU6zU5YzUujbwhCQXCYmZiAESr94+n0jsSr94+n0gDabDyEnIJsPISckBFnqFjlX1MtrNZSRvwkMMtlB56/wBPlAKWohRqSSdAOZ+s5P4t+JDhR1NFgKrJcvocq/q/xHh4WM6rE1ggeoxsEQsToRl3+dp4r0viTVrVaptdgXsDtpoD4AaektFWzHNPbHjtkHovUclmLMe0zO2ck+J9YriSaZtvY28psKT2I/8ArJGnitpQ5W56xybsTa3ZHnMNRlcElHtnZ8J0Kzy35FaX9s1+dhcq5vsRa1xMCs4Fzmtz3847VpJSYPowsbBlzLrpYiV0UpqA1RjluLgaacp5zTfZ9fGUYxqKpIXXFW4jx7Oplv3tm7NNCTzPcXz5yypTS2db5b3I45f2y/AOqg2uwvcqdr8L2muPJKCaTOHVaPBqGpzjyv4v8mmdzZ2ObMy2ZideVhyHlIYehrdgCbXtsFA4AR1aCu6qr9gdpmK5rW2+dpIU6QbvtcWGvE/pGktOcpJJvwU0unxY25RjVv8ApFDPbhbS4BEgDfw3u1pbXpZXsGBB430/9y+rhlWzXOXUG9mLHw0mNM73NCiAEEeQueAkUcgb8bXEc+7grdWIU6sTy5ytMOjJ2Wa4bTT34S0bTtGeRwyR2yVprkzTIJsLa6gcjxEmgOcZSVYG6shsykeI2i+HBeoADa1mJ43mxw1Omaj9prhcw4bjyt+Wehhyb489o+R+I6T0Mtw9r6/4d/8AZ38YnGD7tiD+MozU3265Rvf9w+Y9Z6BPmvBVKmGq06tNrOlRGRuJvw8iNPWfQWBxQq00qqxyOiutgCdeAsOG0sZwlZs4RcNYZgxK8b204XEYguYiVfvH0+keiNfvH0+kAbTYeQk5BNh5CTkgpr90+/8AMMObqPKx9NJdFCChNu6fYecA5j49x/V0uqB7VVgP+RdT/wBxA9Z5iaZAOb9Vm+t51Hx7jg2MCklilPIMosoJ7Z38CPac1fMzr+rbwIA/iXijhzyt/gzSX8RQSB+GQb+nz0itRyA6G1ic1jw/cJmristRHKjum9za5sP5EuSqcwDKpF7g3sQL7XtPOz8zZ9b8LWzTRpfV/sxWpsUQAFmJAyrqx02t4zeH4aplUurIy2TECzspN7khiAC3DKt9fDWazozEoKwqVVZkCMmSmbOAylM3+KxJm5x+OZVqCm2Irl1FJHqBjkS4LMbjQmwUDXYk8IxxjTb5NM+TJuUY8fc0OLqU3RupRlQKVTO2Yn9x5X5CLYEiz7D9JNzwg+IcK1O1rkhkGmUDidOGsXpVihva4I0F7WEz7dm91GrJYBTdAoN+6QSbXJ/MeUc/DfOlQAMARqNzfugiKU8QSwYLa40G4Ivxlz4oXVjTF8wsxPz2imV3/oXqUwtl4HYctv6x+rTzkE6kAgXvppt47ARDGtZ8xIOZcwADjq9dvPx8ZswXVlNhfRgde2DpYab6beMtGK3c9HPq8so4XtbuuK7GcNgTUoK5dO1oAS4I7VreJms6gJVqBSStwQToSLsM3ra83lPpZURUShfUqQj5dzcBQV4c800OLruGd8l9lci4Ctqcu3jNZxS6rn/RxaLUTlKpNtJc39RTo6mKjtm2v62/T8pfTqU6b1VVDfq7KxPjuPeKYao9Ooummx0IFpnpDFEVBlp2LCzdk5iLgjhGF7Z/lG2vW/A77Tss6RW3VLxJBI8BPU/s06Rz02oE607lAT+RiD8jf3nkvSFc1Kq2XVEVcou1zfMeHlOn+AOknTpJCEbIytQqsoZlW4zKTp+pB7zrfZ8/B1/J7K3cb/E31jMTzXuuliTqQw3N+VvnHJDNzMRr94+n0j0Sr94+n0gDSbDyEnIJsPISckBMTMpxVUIjsdlQsfQXgHifT1frMXXqDb7yQPFe4PlNYoy5wN1YOviNiPpM1WJJ3uTmv4kEj5zOIbtBhxAv6gf5TRHlydu/qKdJFTZtbalABueR5cZhatlDPcjRbDfXb/XhI4wdn5iKk3yeJuR5TizQ+ez6b4fqf8Cj5XB2uBxlGnTARiOyFId2dhYkm4AtYm530lgxtMpkGXSmbl0spsup1bQk6aek5ug1t5dVxCdkcTqByH6jKpujpe1u22NVsfcN1YdCe8exqLWyaDTT6zT1ksNOPZXTnv8AKbFHBIVf9c2iVSoC7EWsDlTx5tIcG+WFmjFUjKVgmRitxZqdg1iDbQ+8v6wkpoNRe19FsNh5iJYhvw0bf8Q6e8dzoGRnzZQCGCZc2q6Wv4iTsK+srLXqMuqgEm+YFRoDoUXwtxmMPjKlOnZ8joxsabsc663zbaDtabyqpiswXnooBO3JZCroxRrZgcrAFSLjxEhwZLyRkqfI1U6Rw4XSlUuSGNM1TkBvmsNdojiukjUXItNVRWuqhr2N76m0pevlzoCO0AHFuRuPKLs314QotFLgnd2SWoc2ovpxY/qzf5SvEYrNWXTQLdjm2Ve0eErdzKaLd4+IBHFrahPU29ppjh81nPqsq9NxXk2vQTI+LTrkujVA9cZ2Udpr2uBwuPadRgOkKwxHV0MOAUqtdVvlCBwdBwNvzGcpgUKK36mYKTzJOv1nfYTpHD4Yr1tRQ3UuwUduoSfAefGdEot0ro83DkjFvck0ekLRbS5HjqT+bN/lHIr0fXD0qbjZ6auvkVBjUFwiVfvH0+kdiVfvH0+kgDSbDyEnIJsPISckGJqfiapkwWIb+5ce4t/M200Hxq1sBX8VUe7KP5grJ1FnjWJNjfkFb2P9Jmwtl/Scrc7X/paRfUX/AGg28r3kfyipyGWp5cD7fWanm1YniWsrKeFz4W4SrDLcoeSljDpI3Gm9redhG8MqimLb5QD7TGatno6WbhF/c3nSPwxURQUxFB2sjVKSMwqIjkAPY7jtj3lPSXQ6UOkkw1Vmai7IquDkZkPYOvAh5sMFUp1MNRxWVuvStSwVRw3ZNPOCpccSRYeka6f6KqvSquzUzUpYt8Vhgj56gos4LI44WNjJUI1aRu8sn2zWV+hmwy40OpLo9FMHUJbVajEBrbHSw8wZfWrdHKKmBaiqGnTZUxh1qPWUa7C+r6cvKbz4nxS/d+tzAr9+pI37QlVjb2eLdDdH9Xi8XTrYNXUs9dK707immVnWxIsbkjjvJ2pdFXkb7Zy/xCgWlh1CgEYemXsLZmIuWPM67ze/FmBp08Ng2QLdAtKvZbZnyo/a5mzmI/EHRlZqiqKNTIEpKHyN1eqoN9tzN70t1FXBYrqaxqOKyV6qlP7KxCFU020+Urt7Hqc2LfElLCVDisLTwyU61Gma9KpTygVAqh2BA20PjtEsTX6Mwxp0auEcv92p1DUp1Ml2ZL6jMNZsKmHf/aOKrPTfqlwlTO5VghBpgABuZM1eP+IKoo9UaKNT+501Rzh2dgxQX7d7C2pv4SzXkr6lLsQxHRdBKJ6wsMS+HGKpHPamQWyCkBsSRKMR0LkxC4XrCCMMK+KdlUikwQuVFuA0HrG8SjN91weKpoHptSqUqitn/CZgSh9D8odO9J0K1PE4mjSdHqOtCq7PcVATfTXTRBy3lNq8l1OXhnIYrEcByuTLOjVufLUD9x/N6D6xHFHX5TYYFzkypoWNs/G35j/ERVMyzScojWJa9Oy7Zglxuz8beUhRWzttpT1PrL6yjMiDuolz/iPP0lV7GofBVHzmj7s5lyqR7r8B4nrejcMxOopCm3mpKf8AjOinCfZFWzdHlD+Su6+hAb+TO7lEdS6MxKv3j6fSOxKv3j6fSSSNJsPIScgmw8hJwDE5n4+a2AqDm9NfPtr/AEnTTkftJfLgb/39P6wik/azymg3ZQ+BHzMrDZWZeB0AI4cP6e0swyXUrp2KjqSeAvvKMSVJ7LFrdlidj5eE1PO8tCGNFhb/AKSfl/SZ6PctS9SF8pTjnupU723+Ykuj6ZFMfuJt7zN8yOtfLA3uH6WWhhlpCmWdsSmIqOXsCiG6oPM31kOjOkXGLqYpUUNULh0OYqVe914XGvymqxLXew2HZHpH6IyU7+F/UyUUlNpIjiukalTPQuOret1rgjUP4HgJ0LfEGLbD/dzVOTKEvlGdl2ylt7cJzPRlPM5bxvNswtl87n0ElIpKck6THKnxNjHdkNc5QBYZKdrrqOHMCa7ofGVEpvlYfiBqdW6qcyk3O+xvF8O3aZjzhgzYOvJjpFEb5U+TYY74ixlek1GpVummZVREzAa2JA2iy/EWLSm+GV16s0zTymmt8hFrX32i35vQ/SKYsWZW8cph8FozbdX2bLE/ENSphBQanTLogppXt+LkGyfSaFsbfDJRCAZKj1HYtfrGNgGtwsBaM21ImrcZWI8ZSXZvCTaplFZjY3v6zb9FJ2QfALfkBqZqcQRbx3PgJuqdBqdNAf8AiU0qIQN1a9/Ygj0kR7LZU3EsRrgv+pi3ptb2lNVbADie030Hy+sYppmIXhxI4C2spqMCzHTewHhLy6OeL5PTvscqfhYlOVVGA81I/wDCekzyz7IalquJp/3dNvYsP5nqcqdcXaTMxKv3j6fSOxKv3j6fSCw0mw8hJxNGNhqdhxksx5n3gDM4n7VG/wByQc8Qt/IKxnW5jzPvOI+1Bj92o6n+25/saSuyk/azzim65iTqrhdBl767r6ixlFbEUwLNTZTplNlA9YN3KnmPrMboL66cdeEucW1FFDBfeKtKmGAzPlZhwUAufkDJYcZKYI2y3W/AmHR+mIS2nbG2kpYnqE14Sq7NX7UvuGGTM3rrHsa1ly+FzFujd/SSxjG51/NJXRnL3DWAbIvnGnfsk+FveJU9h5/zL6/c9f4k+DKXZRTOkyWs5/cL+0oRjbc7c5ZU3WQ+iV5M57/WVY1br8xAnX/XKSrd0+R+sPomPuQuHuFPhE8cmtxL07nqZDE931lH0dUfca7Jdp0NSorYTCn8yGtRYeCsHX/9TNEvejNJj1S6n/5D8f2LIXZrLpmxpNZHOtyAo8rzCUbC585ml3R6fxLMT3T6TQ5NzTo7D7Jq3++1v3UD8mE9fnin2Xsf9oHX/gv/ABPYsx5n3maOuHtGolX7x9PpJ5jzPvKnY3Op95Jc/9k=</t>
         </is>
       </c>
     </row>
@@ -2274,118 +2282,126 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rohit Sharma </t>
+          <t>Rakibul Hasan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>175.4</v>
+        <v>400</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16</v>
       </c>
-      <c r="AD15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRUYGRgYGBgYGBoYGBgYGRgYGRgZGRgaGBgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQkJCc0NDQ0NDE0NDE0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAAEDBAUGB//EAD8QAAIBAgQDBQYEBAUDBQAAAAECAAMRBBIhMQVBUSJhcYGRBhMyobHBFEJSYnLR4fAjgpKywjOi8QcVFiRT/8QAGQEAAwEBAQAAAAAAAAAAAAAAAAECAwQF/8QAJxEBAQACAQMEAgIDAQAAAAAAAAECEQMSITEEMkFREyJhgTNxoRT/2gAMAwEAAhEDEQA/AOcCSzhOH1Kub3aM+RczW5KPqe7cxgk7v2YwAVWpgqHVkFQlA+Ss9yhXXRqYWw/c7900t0TjeHcFxGIBNGkzgbkWC36ZiQL90VPg9c1DRFF/eDdcpuB1N9AO/abHHq7stMoSKBD5UTRUqZiaisBuQzCxP5WXvlw/iPwTW957z3q++LZ/ee4yf4W/a93e/dv3w2HOY7hNegQK1NkvtcCx8GFwT5yBElx1q+7UNn93mOXNmyZ7a5b6Xt0gIkqJCiSyiR0SWUSVCCiSwlOHTSWUWVISEUzEKRltbStxHHrRTNa7HRVGpJ/lC9pulJu6IoRqTYDrpKb8Zwy6Gsl+gOY/KcpxTjD1TZjcfpS5HhpoT5zDq0SdSSB32X6TG8v01nH9vSKXGsOxCh9Tt2XH1EtNiaY3dR0uQPrPLkwRtodttx53EB6dTUMbgd408yYflo/HHq2UHaA9Och7K8fylaVTrlVr301IuDy1ty5TumSa45dUZ5TTNenKr05qukq1KcLAy3pwsTgmTKWF1bZlYMp6gMLjMOm46TUwOAFRjmbKiIzu1rkItr5RzYkgDxmrjMPhadQUMjqrqp94XzKc1wC6EWsD+ZSCOUm3RyOTxuFCPZSWUhWQ2sWVhddOvIjqCJWNI72PXY7Xtf10nTYHCulemFCMUatlLkhFCAsSxXXstn101tNrGYLEOhVhRVX92thUra2CqVC2t2g2Ur1BOpsZNy0enn/4dv0t6GCaRtext1sbd30M9Napi2O1C4IYG75eySM1yn6je2h7PSYvFaFdh7ioyLnepVuDUIRUUuUFk2sQeew2O66j04orBKzqf/iVbWzIcrFLgtbMFLGxy9Rl8dJn8X4O+Hyh2RsxcDIWIGQgG5IHX+7i73CY2SKTZIoBNQ7LK1yLMDcAEixBuAdCZvLx1xcrVqAkhtKWGW7A3uxVddzv1mPljhIaU16fGmBUrUqqVuezTw6jMwCsSFUBtL79BIqXEiHNX3uIFQ6Frobrc2BvoRa2lrA8pQCR1SPRbW+K8QavYtUqPYmwcIAB1CpoD5SmiQwklRI5CpIksIkZEllEjkIkSTKsSrJlWWlGwABJNgBcnkBOL4jxgVWJQAoCVDnbvCA7nqZve11YJhmFz2iFsL6311tyABJ8JwuERbguxYaBVXmenhzmPLl8NePH5Su4ClVALHfW9h1JtoO4QhgUpoGcsWYAhADoOrW0E1aNElgqIuYfk/InRnP5n/b9pZxfAC5u9TMSLG+o8hec9yjpmFrn0TDtzNrfla+U9Ch1G2/0lbFlb2Ri62t2gcw9d/WdJS4CiaGx8gI2J4OgGlvKLrV+H+XB4jMDm1OosTfS21hPYPZzH/iMMlQ/ERlf+Ney3zF/Oea8awhW2mhM7b/0+UrSdG/KysP4WW31Q+d5tw5brn5sel0TpKtRJoOsrVFnS5wcPqojOr3yVEZHI1K3IIYDnYgaeMuYtaToiu6O6aKUJu6DXK+YAJoN2Omp12Oa6Su6SMsdqlXqdRfe0zUcqvbd2TOCzVHZmC5e0qnT/LrubSyKuFC/9Z82Xk1fV8p1JO4zFTsLZQNdScUpByRdJ7bWEq4bInvKjkgIWs9a5LKc400FmPLS3WU8NWptULPcJlbKHqP2blRlzAk7Bjb93OUSkWSLpG2jW4gisRkape3a9/VF9Nh3XJ3vuZi4h2c3ZmNtBmYtYdATykxpwSkNBUyCKWfdxQA1SEKcnFOEEjCAJCCSbJHVIBF7uSIkkyQlWBEiSdVjIslUS4Q0EICJRJAJROX9u0Bwx7YUgg2P59fh+/ionJeyq3LMfyWAt+7+zO29q8LnRWt8Li+g1v2Qb9xInNcEwoRqqjUBx8O3w3sD3XnJz3vp18GPaVs4d10UWA6/XWXHwL8mv5zLrPVyMVpoVBFvhNxzJuRrtJeH1yG55RbXvI1At0M58p2dcvdcfBOfiMqV0CaA5j0Et4zFZlOS5YX0t/WZ+HarnslsuS5vlvntsTe1r6XsdNbcosYMrVXiyK1LMR8JvrrpsbjzjcK4x7pwQEAYBWU5hzGoG/Iaa7bS5iQzIwdRcgg21GxHSV+D4VQ1IABwyG+YX7V1017mOnfNuO6rDkx3N/w7cOGAI2OokbrJ0pgC1oBWdzz1R0kDJLzpIikk1Q043u5aKRvdxGrFIJSW/dwGSLRqjJG93LeSL3UQU/dxS3kiho9hCSUJJMmskVIBVKRlWWWSRhdYCkEjhZKFiKR6IyiSKsFJKJcIgslAgrJIyUuJ0c9Nx3fTX7TmeA4YIXTezb6a6C17TsmW4tynJGmyYl1sQrAFL7XAF7d2onN6jG66o6fTZyXpq/j+HIilrgki+khp4M5FDZRcXsSb6/YCQcQqVAqMFvY3Ivva1h38/SWOHl64zI9jr2bojjcaq7EjY8pySbd1y0S8OC6h0HiTI6OAJdla45jexB2lxuHYhRdnyrcjenYkHLcgt17xM6nxFmqBB2shyuwBABNtjcg+Rj6exTKWtOrgAiW0lP2VwqAltybsDuBfSw5CwXbxlrHO2Rydspt42MtezuCZKa57ZiNgDYeus24Md5b+nPz56x19tGpEFjkXMkI0nc4FVxAZJPbWPlk01bLEUk4SMyxGgyQTTlgJHKRBVyxsssZYVotGre7ilrLFDRIcsdREw1jgxqM4kOWStAvAhrCgq0YtGCkiyBmklN44SYQwZEGjhoyS3nO+1iFVSopsUfTvuDp5zfzTlfaoM/uWHwrWW45ZSrqD6kesz5cpMdVWF/af7Pw3GrWGU7jl3iXxTQg9lSe8f3rOTxlF6NTOhsN7df6cvWaWB9o6LL2+y1tRewM4tfMej1Teq2KFBL/AnoNIZRFBYAADWZi8Zw4v2vQyFcccS2RFKpa5J3YfYRdxbF7B4j8RVVF+BbMxva9iLD1tOsRdJ5v7QcQfCGiaBykvYi1ww00YHeeipVzLfY2nXwWa04vUW9XcaLHqx6YsIDm5nQwABERCjGIGVYzCS8pHzi0Z1SOyQxGJho0WWK0MiCIgf3cUV4oBVaMDEYwgZHWMyxxDgAMsYCPmgkwIikFBaBiMQqIXa9lFzYEn5Tmcbx92vkGQcti5/l5Scs5j5J1GJxSILu6r0udT4DczmuKe2SoctKmWP6n7K/6RqflMYYrMRe+Y3vm1Nx3zL4s4Zlte5IF+W52mV5rb27DHzquz4BjK2IRqtVzYsVRF7KBVtc2G5vca32mnjcJ7ymyA2JHZP6WGqt5EAyl7N0wuGp9+c+ruZsoZnbvyzt/bswOH1kxCZXQZ0bK6HXK66EeHQwMRwaifiTzBPyge0WFehUGLpjQ2WsvIjZXPyHp3zQw2KV1DLqCNukxy3jXq8WU5MdszD8BoK1xmPcTp9JtU6QUWAsIKvblMfi/GCoKp8Vt+SxdVrTpk8IsTQGKxtKkuqUL1ah5X0yLfqTbyvO1zFdR/5mD7J8NFCkS2tSoc7sd7n4V8h8yZts82x7eHlc+fVnabDcYpuSjXRwbENa1+5tpdnEcbBTElwOy6oTfu7J/2j1mhguJOgFiCtvhJ+h5TfHm17k7dNeISphMelT4TqN15j+ct3m0sveGdjGTeC7R0jCW8ER7RLEZWgyS0bLAwRQ8sUQUhGIhhYoGACPHMFhEENUQVN5NvpBp094ZXpm026QNcmykg7A/uHLztaY/EuHIbOFGVjZhb4H7ugM2np8zsT6N/XQ+N+6SNRDA3+F+y46PyYdL/AFnJe/dnuvPeJYWyut7gC63BzKF7QIJ1I0Ya9JhUrtkJ5B3HhcqPmZ12KoM1QK4syF6bfuR0dVItuCbHuvMGjhLX/YtNLc9Fzv8AMwjbGuu9nuIUkw1IPURWVCCrMA1wxubHW3Pzlmr7R0F+DPUP7FNv9TWBnHLRHbOuifU7yzSSyjw6Rl0S3abjHtZiG7K0aaI3ZJcmpodO0BYAdd7TX4MQ9MuilSD203yOd1U8xfby33OOqBlIa1jytLPs9jDh6jIwuhS4OuykCx62Vm16C3IRZYyxpjlePviOpx9LlDo22umsm4dgszBrXuQbfeaHFcBhqxSsUGZdcw2YW0B/Vrtfp4iQ0FdztlTu3I7zz+UzmOqvk9VcsdTswsS9XD4h/dYhipObKze8QFiSVI5W27JB2muPaV0AL0Q1yBdGI1Jseyw5HvltuHIDnGjfI/xDnAx+FTJYAWFj6crTTbluUvwyuIcfp1qqIEdGUODmy2N7HQg9V5jnLWCpAuLE5QtyLaDYadJUxmAUVg9tnVj3hiM31MvcMoujOjC4BAVv23t2u/Tzit2LZrsPEYdlZXpmzfp5Eb6HlOh4ZindRnUqSAdbA63Go8pQpIC4uLhdbcieQPdzPh3zQe+VWO5u3lYKvhoPUysM7inqq6whLGENBO2WWbWJowMdoJMAO8USiOYGa8UGKBK5gGOYpDQIgsZJljMsAheS4ZtSp5qGHqQf+PrAvfSSolwCvxIfI3AJU9xFvMA8pny39WeSRUGt9QdCO6CtLKSh1BHqOviJOtmFxp48j0MjzZhbp6gznZsDjeH1z37S3G3xEMlifFfneYFGhYEkbu5I6dohd/2hdZ1PFKg0Vh+ZQ3Lsm5DXOw0Yecnw3CKeRB7p2AVQzXVcwyG5BD7Xyn+7SsZtpj4cV+HYsx3vblva5P29YkQ2Kkd4nW47hiDs06ZUntdphqi3DWu5t8SW56GZ2I4c6DtggG4B0J+u28rWmm2KKZGn3kuFt75Qdsrk+AUmaCYG4tftfLu8pUFErVK7WR/Qi1/nF5G5ew04jbIxp6BbOFta+gFgBpax6722Am3hqyOoZPh8wR3EcjOfakydpdRfbuk2ExOU5l2O/Qjpbkd4ulGWE+G6V1kValmligwcAjUGXKNEFgO75xaZyd+7G/BZ73G6AelxLL07AuBcsFNvmfoZt0MAtrkkb8j9+8/OZzvZKbAXOVbAczkNh56Dzis0rLGTVh8Jhb2Hm3gd/XQeTS3UTM1/yqR/mYbDwB1PfYdYWG2yg6/mYddiR8wPOWQAdB8K6DvMpCuidm8NYbDcdAPXf7CAJ0cN/VePgmaADGYx0E0UmUxM0a8jd4A+eKRxQ2EUeCTHMlZ4BMYtGveAM68xCo1bXe2xKuOYtqrehHkYy72j1UKsXTe3aA522YDqJjy/DPJaHa1XU225MO7+/wCldxfUb7d/8/KDS/UniVH1Toe6O7Zu0p7X17j3zFmwPaZ2NPTRldL/ALkLhW17swPlNHDcQpqi3ermAXTUBbZRpblodZje2rXwzsoN0ZG0vpZlDX7rFryvQrZypBsbA+v2lS6aY+HU1WQsWDPYLYEs99bFiLHS9vkJkYrFM5vdgOQLs4vzN2MtYdyB2h2dR4Hv7pDisLa7JqDY/wB/KV1HsJIZRyIIIPNTe+v8udpP7nOCGAVrGzdQSL28wNJWpHrtNOm4ta22kVK9mJXwzpe+vhsYGCw1722zm426kTonUFbEAiUqGHyXHItofADeEyEy3CwGHZGNjdTy5+Xym3h1y5XOoYE3ttc3t5SjRmjSrWFtCOh/vSTaUym7sePx6ojEADRjfQbAnQATBo1SzUqa7rSDNrtcKFv4nN/pMk9pMSiYeuUXte6qG7a2OQ7eZkPC6ys9ZlGqutIH9RRFPoC7Dxhb1Hda1vbZVbWRNzqx6DYk9/ID7CWs6qt+Q0A6nkB1N5Tpi11B1Ort07h9IYe5zW7K6IOp2LH6esbNMt7a77t4nYeQ+0jJj7WXne58ecF95rw3yrEMNZGYYm6zs0iidoyGI0kUa8UAr3hGByj5olExjKYiYN4ENBqI9R1Bvc37v6Sjj3ZVGU2ubMRva2w6a8+6QUU5zm5stZaaYcF5JvemnnVtdj1GnrAqDXMG17ufjMrENIkrN+o+ev1mXWq+juu1Se1XawtYga+7a/fZbzIThVWhkzlTdBlKnQnLex0Fjb6S37QYojCVgdSUIHnYEel5RdqdJKKUqme7pnvplLrkWw8TYy5dxh0ZY9q6uhgamZqJALqO0Lg3sL76X0I9YVKgwQOB2GbKP4rXItvNWk//ANpalrZxUU8rlC6j/tCessU6IBQD4TiQ696sgdf5eUrpTYwsdwWoi58hCncXB37r6Sq1J0azgi4BA0NgRcajkROgFas61WtmRr3udEy69kX0sJT44n+ID+xP9oh8DfZElJsmcjsk5b6b2vtvCbCOEzsnYOx0I1Gm2000UfhhS5+698P9ZP0kK1j7sqScv4ctbldSxB8ezF0wtKBwrgA5Hta98rWtvcm0jDkHuPpN3ipronZIFPIqn4eahT37mNi3ItRZP8N/drSIAte65ixvvvHcSuLgvbXF5cJUPNwFH+YgH5TS9mky0c35neo9+93Yj0Ww9Jj/APqpWYUArKVNTEs9jzREax8Lv8prey1TPhqZ/bJ1pXTrFtU0v2b2G7Eb+A7/AKSwx25AaADkOVpGotz+kJ3Ubn5mNGjXtrHqHX0iWqh6eRMWIO0vjv7Hj2oAYd5EDFedKzOYIMZowMRiijXjw0Ed4ryENDBiUMmCTGvGvAkGO+DzEjTQSTG/B5j6yNdROXm9zt9P7f7UcTUkKPHxaG8zmz8hMXRfpF7W1x+HI/Uyj0Ob/jM7i3EsMopGkjhiabuzWt2GVyAMx5jpLXFcA1ZFQmwDXO+uhH3mbj+AMyjI12UfmO/d/WVjlHNy8eVy3Honsx7RriER6jqGSr2b2H+G4Knboba9JtUeIKMPROYZqdVQRcXKrfW3TKQJ5PwGjXo9l6bAX0IKsP8AtJPynaUKoK2v9pfVXFlMpfDsWpLTSo3vQUdXyKDuX7uvKBjcCHAcVEHYXski5IXbec4MQot2h690Zseg2bXuEOuFMcr4xdYOIBagp2Q0wAma+tstt72teZeLRVw7v7xbpSqIVuLmzvrv+lrzL/8AdV/Sx9P5ytXxBcOuXRwV1PJlyn7mFzl8rnFyX4dTxXBOXzs492zoCAxuAbLe1rciYnDUUyu1wru6Am5VKaMQb+OX1nNXcKBYbWv4CQ4ijUfVixuLbnbp1tD8mPlWPBnvx/1wftvxF6poh3LFVc3Jue29h8knQ+ynECtEUxa4N776ECw9QfWS1/Z4a2Rbncga+ekzKeHfDVgGWyPoGtz5XPLp5zO57dGPp5udV26irVJ5n1g0WEzxib6CW8MDE6JJJqNNDpFg3a7Am6i1geR1vbutbTujINI2BPx+I+824vdGHN7KvAxM0C8EtOxwjvGvI7x80AlvGgZooEiBiDSMPFeStJeK8C8RgQcUewfL6iNhmGl4nFwR1BkWFqBhbunNzz9o7PT39bE9eiplN6AlksBK71hOeumAOHHSA2FBhPigJF+MhpWyOEjrgzI3x9ow4h3w0lZXBSZcMo3MzRinY9kGE7kfE9hDUDRORd2AkT8RprtmbwGnrMSvxGmug7R9SfASMtiH1Cqi/uGZj/lGg87xHp0dLiyNoRYd5mpTxVMi5YAd5tOJXhbk3d3bzCj0S0uU8EBa+ttrkm3hfaPRWOixHEaQ0Ttn9u3m20xscvvRZwAvQfzjrpCWHY5ianQA0Al/DUZBTEv4d+6VimicWEr4A/F/F9pYxOgvKuCPZJ6sT9B9prxe9hzX9KtloxMHNGLTscIrxAwRETEBXikeaKAQqYV4EcRKHeK8DNCvFsHvM3EOUY28fX+zNAyrjcLnGjFW5G1/USOTHqx7NeHOY5d/DOqcUS25B6Sk/GVBsGEmqezCPq9WoT+3Io9Mp+sib2RQAlHcsNQDk17r5d5z3hyk3W//AKMUYxhfw9IIrC9s0yq2AcGwqHe2Vlsw67HUjpKFau6Oyb5Ta/IzPpq5z4106OpkjYxE336bmcfUx1Qje3hKqYp73zaxzClefF2GI4y2yqVHW0ipKajdpzbmZzmH4g4a7C86TB+0FK1nFvKLLGxWPJjfluYKhQpjRQT1OpltsUnKYY4jh32dfAm0crTPwuR5giT3azVaz4kSI1L85kVFYbP6r9xIC7D849DDYbwPfJUYdZzZrn/9PlAOPKn4w3nHoXJ161ANzLNGuOs4hOOsTZUZj0XtH5S5SxWJcXXD1P8AMAn+4gxyZXxEZZYfNdPj8VcZQZJh9FUd311Mw8BTrM3bRl6lith4WJvNy86eHGy22OXnyxskxqUNBJkeaIGdDlS5ozPAzQC8APNFIc8UAdWhBpHeNmiUkaINAzR7yQlzQc0DNBLSgkvDoHtan+sgDSpj8QFy3LC5Oq76D5ScvbS1sXEcGjsCRrcX+1+v25Sjj+Bq+ZgpDDQk6htL69el99IWJxgurXY5ct8xNuV7n+c08Ni1YPdhYEW8GHd4Gc2k6scphvZ+5IdbAH4hcm/TpbQ6m1pW4jwL3bZkUlTuCNB5zrKeKQvlcA/pK6gePUwmxabMCNb/AH8odz6smAvC0UKWAHIj83W9tLjv0jYjhyX7I08m+dhLzsrsTb1Oo6SwmDzAWJ/0/SPZzL7c8/B0PIekhTgRvZCb9152tLh4G4HiTv5RGk5uqZF3vqL+gENn+T6cfW4NVpi5rFOguWPzmXXWuL3fMB1Rf5Tun4SDcu5J7tPre8r/AIWghu7g/ttcnxtcj5Rahzly+642nhXNiefT+k0sNwg3ByG2t+yfLfeb/wCJohSFTVTcaZQRfW/dJHxj20sOzyH0vGLnlVnBKBbKLW35b/8AkTRzSnhkGov2ioPd085OHl8N3uNebHWMv9JM0YmR5os03YCJivALRs0CHmgFoJaRs8AlzxSv7yKAWIoooKOI8UUkHgNFFKBCZnFt6fi3/GKKTn7Tx8qi/EJqcA3fwX/lFFOell4Wfzn+L7xcQ+MeBiigyQUt5cq/DFFJDLT/AKh8PtN3DfAPARRR/Avhi8a285gU/vFFCLwTr+b+H+csNt5fYRRSlNzD/H5LHTYeEUUOD3V2eo/x4iEGKKdLiM0aKKAC0ieKKABFFFAP/9k=</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2393,25 +2409,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Virat Kohli</t>
+          <t>Shakib Al Hasan (Captain)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2420,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2459,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2474,43 +2490,43 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBUQDxAVFRAVFRUXFRcVFRgXExYWFRUWFxoXFhYYHSggGBomHhUVIjEhJSkrLi4uFx8zODMsNyguLisBCgoKDg0OGxAQGy0mICUtLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALwBDAMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQUGAgQHAwj/xABGEAABAwIDBAcFBQQJAwUAAAABAAIRAwQSITEFQVFhBhMicYGRoQcyscHwFCNCgtEzssLhJFJTYnKSorPxg5PSFTRDc3T/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEBQEG/8QAMhEAAgEDAgQEBQMEAwAAAAAAAAECAxEhBBIxQVFhE3GBsQUikdHwMqHBFELh8SNikv/aAAwDAQACEQMRAD8A7GhCFYAQhCAEIQgGhJNACEIQAhCEAIQsLiqGMc93utBJ7gJQEJ0s6W22zaYfXJLnTgYwS5xA04AczkubXntnrYz1NszBweTi9DBVI6bdKX7SuTVIw0hlTbOYbxPEn9FXi478uajcHTrL2y3jX4qtClUp/wBUSxw7nZ+RB7wp2z9tFFx+9tXs00cHjnnA+C4q8b94Q1/DyS4Pp/ov0vs9otP2ep22ziY7J4AIExvGYz5qfXyVY7Sq29Rta3eWVG72mMuHMcl9B+zXpm3aVDDUIF1SA6waYhp1gHDSefgvUwXJCEL0AhCEAIQhANJNJACEIQAhCEAJpIQGKaSaAEIQgBCE0AIQhACEIQAhCEALmvtw6Rm3tG2dP9pcziPCkwjFHMkgd0rpS4N7aA6ptUNJyZQpgcpc9x+PovGCl7I2FVuBLMmzqVPO6CVAJD54iD8irF0Ytmim0N+irrY2nYkrE6st2DfGhBRVzkA6C3UxhEeXpKkqXs+MS+pHcF091OClTpAleOtN4JrT01k5hc9Bmtbk+fQrV9ne0js3arOuyY/7l54CoQGnuxBq6ZtK3DfVcu6b2cvxN3iCpUqkt1mV1qUdm6J9LJLU2JdGtbUarhBfSpvM6y5gJ+K21tMIIQhACEIQAhCEAIQhACEIQAhCEBimkhANCEIAQhCAaEkIBoQhACEIQAuL+06zNTa8DfQpHwBeJ9F1/ad623ovrPBLWNLiBqeAHMnJcq6U7TZd3VGu2m5j+qex7TmIa4OaQ6BIONw3ERpxqqtWtzLqMG3e2L2Ne0q07ZgxOAjeSrNs7bVKo2GvB8Vzi+sKbXdbcBznO05cAOC0K1qQ932Q1ab2CXNl0gS7lP4Xa6Rms8YJ8GaZza4pfU7Ie0sXuw8lVehm3K9ZvV1O0Wj3uPCVC9NdpXVSsLdjy2DkGauJ0017lBRza5Y5NRvYtO2NsUYh1RoPMqn9ILYVWdYwgwD5KKtLe3g9car3AgEkEASARq0cRqd4Ujb2Qp0qppk9U5jiAZ97l4Kbik7kFJyXDB3Lo0P6Fbf/AJ6P+21SKqXRfpQKtVloaOAdV92S6SerABDhoDGeUxG9W1a4yTWDDOEoO0gQhCkRBCEIAQhCAEIQgBCEIAQhCAxQhCAaEk0AIQhACEIQAmkmgBCEICG6Y0i6yqxuAd3hrgSuXXjhjpxB96TzImPInyXZLy3FWm+k7R7XNPc4EfNcT25RNu5vWAtqMrYXj8JBa5s+oz3grNXWUb9NNeHJdMk2bBtZsOiO7NalXYbg4uY84iIJiCRwc7eMh5Le2LtJrT2jkR9FYXO2Q8nqyBTE9pxjERuaOHNZ1e2DRdC2HbCh2QZcTnA57l47b2a6pXFSm7DUb6nj3/ooqy6S4ahLW04E5F5dUPgW4R5rctduvrV8JYyD7rmVBIy/E0CB5ooyTueuUXhGdv0cJDsTh2yC8YYxHM9o79T5le21LUUqRaBo0xwmMlOWN80gipk9vd59yrm3rsPAbJh72NMawXCY8JTmReCb6MtNa/oPZkGMe50bhhFOO7L1XS1UfZ9s8NY+sBAdDGf4WEkmeZP+lW1bKKtAxaue6pZcsAhCFaZgQhCAEIQgBCEIAQhIoAQhCASEkIBoQhACE0IAQhCAEIQgGhJNANVTp10Wo3ltWeGH7QKZLCC7tOYJaC0GHHKJI38grUkUtc9Ta4HzXszaZeAwnOIB9IK0adldV8TxMNOCJ0I3RwXr072S+wv6tHRhcatOMh1b3EgeEFv5V5bC20aJc15Ja4ySNx4hUOG27RdGak0pHk/YlzvpuGnEzpvCdOwuqZxNa8O4gGROX6KZvelVXIU4cBvLVuv6TAMGNwyEhrR2s43nT+Sjdl2yj1Zq7I2xWeHddINPIl2RiNCPBS3Qm3/9S2g2lUnqKbX1XAEg5ANbJGYzcD4Kh320nvLs8nmfLcuyew3YzqdtVvKgzruDWf8A10yc/Fxd/lCnGnm5RKq7WR0i0tmUmNp024WNEAfWq9UIVxSCEIQAmkmgEhCEAIQhAJCEIAQkhAJCxKaAaaSEA00kIATSQgGhCEAIQhANQnTLbX2GzfXbBqZMpg6F7tJG8AAuj+6pW6uWUmF9V4YwalxgLjHtF6VfbarKVMFtCnmJ1e5zfeI3QDAHM+F+npeJNJ8OZXUntiyr3IuNqs6+5rYrjE4BzgAMDSQGANENAMnIbzxVcq2xpuLKowkH47xxAj1Vt6O1AMVLQtJcObXGfQk+YW9tbZ7Kre0J+I7isNSTp1JRl1NqpRnTjKPQ5/1hA15IqO8eCl39G3OccDxHPX01W1svo6WvDqhDgN2evevXOKKlSm3wNXYuwzWh1TKnrvk6Zcu9WDZPTW+sLxtvTqE2jSIouALC2ASGkiWZ4tDqpelSDRkqhths3jANWgk+Jy+CaabnWUeT5FtekoUW+Z9MWd0ytTZVpmWPaHNPEOEhey5D7Pemn2Yi0uf/AG5JLHwS6mXZwQNWEyeIJ8utW9wyo0PpvDmHQtII8wtdajKlKz9GYqdRTR6IQiVUWAhCEAIQhACSEIASQhACSEIBISTQAmkmgBNJCAaEk0AIXlcXDKbS+o4NYNSTAVR2x03Altq2T/aPGX5W7/HyVlOlKbtFEJ1IwWS23l5Totx1XhjRvcfhxPIKlbZ9oIEttWfnqfwsHz8lUtoXlWu7FVe57uJPwGgHco00c1vp6KMczyY56lv9ODLa+1q9wcVao553Sch3AZDwUHdCXTvyVisdmPruwsGW87h3/otXpDaMpFrabZAnE+fePDDpAWhVIqoqUePO3Jd+l+S4hUZeG6ssLgr/ANz6LyWW+C6kIyQQ9uT26c+R5KzbNuW1myO4g6tPAquAQvfZl81laaZxE5ODc55mNCOKy/EtH4sd8f1Ll1XQ0aDVeHLbL9L/AGfUmLuzAdn4LctqLYmFvUwyu3sHMa8v5L2o2WUL52cZwe2aszuQcZrdF3REVakST7oBJKp1qDUq1Kzh7zsuTRkPgrztWm0xQadT2zwCrJtzTLmkQQSPIrrfB6DlN1GsLh5nO+K1YxioJ5427f5NduRlWbY+06tE46FRzCdYOR/xN0Piq5GatFvsRwpMr28va5jesYM3NeGiXNGpneNcwQuzXqU6e1T4N27X79DlUqU6ik4cUr97duti67G6cAw27ZhP9owEt/M3UeE9wVwo1WvaHMcHNOhBkHuIXGY4KR2ZtOtbnFReW8W6sPe0/HVY6uiTzDBKnqmsSOtJKq7L6Z0nw2u3q3aYhnTnnvb696tAdOYOSwTpyg7SRthOM1dDQhJQJDSQhACSEIASQkgBCSaAEIQgGhJNACaSrfT3av2e1LGmKlaWN4hsdt3ll3uClGLlJRXM8lJRV2VHpTt83dYhh+4YSGDc4jIv8d3LvKiFpU3L0NfQcf8AldyEFBbUcmUnJ3Zm45qU2JsR908mcNJvvu+Q5/BQ1k1z6nVsEuc5rWjiSR/5BdG21bttLanZUj2i3FVI/EefImcuDQFXXlLFOD+Z8+i6/buWUtqvOeUuXXsRN3Xp029TbiGjePxcYO/vUPUsG1Bhfp9aLfcyQOKzaxWUKEKEdsPV82+rZnr6mpXlun6Lkl0SK9V6M0sRJkhwgNJ7Ijd46StyhsukILGNH5R6qXe2QvDDhdO469/H6+auSRQ5yfM1rq2IeXthstiBv5mAOQ8AvC3v8NMiZIlS9y8NElVXY9Mk1MWjar47hmPRcXW6De6apLt/Ob5xk7mi+IOKqSrP/t0vysla3Q2mkUwajs6hzjTPdJ3Dkq3tfZb7mp1zqhDogYREAbuPFWJ1F1QmN5UjbbMAiV1lp6caap2wjlS1E3UdTmyp7K2DVgYqpc3PUZ+atmy21KD2upuiABG50biN63hQAaI3JuYJyyC8+Vx2uLtZ8c+j4vyDnPddSV78n7eXO5I7UsG3tu66oMw16f7Vg/ENcQ55HyIzyVQZU+StGxdom2rgz2HOwv4EETPhH1Kiel1gLe6cG5U39tgGgkmQO4z4QqafyS2Lg8x8uaznHItlU35fHg/vjBo4oVu6Dbdh32Soeyf2RO46lndvHlwVE6+CeX8v1TbXLHNe0kOBBaeBBkHzVlakqkdrFObhK6O5IWrsm+FxQp1m/jaCRwOjh4EEeC2Vw2msM6yd8jSRKS8A0kJIAQhKUAkwsUIDNCxTQDQlKaAFyfp5tLr71zQexR+7bwxAy8+eX5Qup3lwKVN9V2jGOce5oJ+S4PUrFzi5x7TnEk8STJ+a26KN5OXQy6qVkojc+BPA/ILF78xxDiPPT0cvKo/Jw4EfMfotV1bQ8h5sy/QrpN2MaRd/ZpSY+6qV3+7Sph45F0tnwDHKVu7s1qzqjvxaDgNw8BCrnQ+phoXD2aOc1n5Q4uI8qhU1s5nWVWU5jGWtnhMD5qunZynUfLHossz1JNy2LqeoG5MhWe+6OQ9zzVZToCIJmQAAIgwJy1nNR9S5t6WVvT6x39pUzH5WaeJXkNSp/oV37ebLJaeUH87t+clxIs0HYceE4dxOQPcTqe5aztM9M/Jbles55xPcXO4n6yHJeCvi3bJQ7ciJvb5zQabSO0MJOZygwRBzydvkckra17MAa6+KzubAOrNIyGKXDjkTlzkKSAAiPrX9UUIRk5RWXa/pwJyqTlCMG8K9l0vxMLa2DRzXs7JZrzq5QYynNRnJqLaPIJOST6kZXvnl/VUKZq1M8oc6SNWta3M9/es6F84P6qvTNN5iMQLRnoIdmDz0zR0VvmW1aqys/q3PAa2pmMJxAw4iThcDu4DvXr0uvadVtGlSqCrUYXNLmjshpIwsaci7SY3SuZ4k1Utnz/MWOr4cNnLy/MntddpsjUEEd4KfSZ4q2dGrvpnCf8JG/wDyt80zpnqtC/qxQr0ToAHjuxAn4Le3vhGfk/rh+5yprw52XJ2Kr1na5n4gj9FsVKoy7viSollxmTOmfi4l3wcPJezas+g+vJXbrmmUbHVvZnfl1KpQP4CHt7n5EeYB/MrpK5J7O7/q7tk+7UDqZ8c2+rW+a60uPq47arfXP56m/TyvDyHKSESsxeCJSSQDSSRKASaxQgMpQkEIDJNYpoCB6eXXV2FQb34WD8xE/wCkOXGbgwO4/FdH9qN3nRoD+9Ud+63+Nc7rNkkcR8PorraSFqV+pz9RK9TyNeo7tjg8fvCR6wtCu4tkHjI+B8x8FuYMVP8AvMP8wfX0Xldw7MjXPz1Hnl4K95RCLsyV6IbRmnVo78Yd3gtaP4VaqhIII1EaLnvR14o3DnOzGGPNwPyV5p7Qa8AxqvdPG0H5sy6iNqjtz+xPPuH1AC97nR/WcXeUlYStS3q5LaYCRkCe4Kdtq7FV7iSJ4r2taD6rxTpiXmYEgaAnU9xWVSyw1H061VtMsici8kkSMIbr5jVRc4p2bJKEmrkfTeMRJB/5+vVbOLKJzOQy+ua39nbLoXBc23uJqgZNqUy2Y4EErKnsJ4oVqrn4X0XOBaRM4Q12s78Sg69O9m7cOKfMsVCdsL9+hoMMx9ckFoIzC27e3oOaP6SAYH/xOgE7p7+S9bvZVWmzrBhqUv69M4h47wvfFinZ48017oj4cmrr9rP2IO62c18YxiI0OYcOGc5rzttmspnE1naM9pxl0nfwnnqpe2t6lX9mxzo1IGQ7zoFnX2ZcBuLqXEDXDDj5NJVThRUrN27XLlVrOOFfvb+SJqiN+irXSS/LWPj3jTczwcYnwmfBS95cjTwjeqZ0nuGEYWv7emE5OGY1WqeIO/Qopx3TSI6jW7JO9xy/XwHxW8xpBDN4zPIuj4CPVatjRwgGJd+EcTxPBo9VK29k9x6um0veZn0LnOJyaMwJOXbVMcK7Nsnd4NzZtYsLXsyLHNLe9pBHwC7tbV21GNqN917WuHc4Aj4rk2z9gGg5n22lUwkPccEYQKbWvLnuzGB2JrRBB1zBEHpWwqjQx1Frw7qXuYIbhGD3qe4A9hzRIyMLDrJRlbaX6ZOLd+ZJkpSkUSsJrGklKSAcpShKUApRKxlNAZoWKAUBmmsJWQKA5J04u+tvqvBmGmPyjP8A1FygLkQWu3TB8cvmncXeOq9xObnvLu8uJPqs6rcTCN4zC71OO2KXRHJm7ybNJrcNQtOjsvLMekrVuuzkdN319alb940uaHjXJR964PZ9eXxC9lwPYkfZ1iapbvMehj5qw2tVwyOXoqfZP++GfHvMcfrcrE173nemmleL8yOpjaXodH2dUbb2tGuAH1K7qkOeMTKQpmMIaci86yd2i2bTpPcve1lGq59U6MEOn8u4c8oVHtNq17OkW4muZUMmlUY2pSMfiLHZTzHBb+zek187Ki6nQpn3hSpU6Qjva2fVRdFu94p93/p8O2CKmrJ7ml0X4jqu2K9JlxbE4RcGo0OjXC8FsO8XCJ5qM6VbND7kuFekxzmglr3Fhy7MgwQdPRUFu0nGqKjSSGPDpJnEWkGZOuYU/tTa7r1wrGkKeEYB2pBzxRJiTn6rPHSyoyi74s03jr3LJV41IyuuaaWfdEjsP7PZvNSpWbVrZ4W0ZcxsggkvIAmCRG7mpuzvW1rS5q1pa11QzhzLRgpNETroPVUa0oOl2QEOjUd+kyciNOKlG1araTqbHjBU95sakcy3XIaFeV6dNyzNbrri/a3A9pOrbEHts+Cbz36mVLZrSZZeW5Z/feabv8rgp232nb2VB1PrW1qjpOFmbJIiJ0jnqeC5+1ruswjeTy079NF7V6DnUyd7d4IPwK01aCm1Gc8dMK5RCrs+aEc9cstPXfabWnTtiC+ni6yiCGueTEPbPvb8uajbW2vutaKFCqx8jtOa5jW83EiI5b1UcT/wg4hwknJeO0trXkAOrVOpfIgvfDXDVpBOn6qXgyimotWd+K6+/r5BTjJpyTuujXL29Cy+0W6o1LyKBaXBgFVzdC+TrGpAifLcuXdIw4XQxa4GZ8c3Z/XBTDWEmCSDyMKtbSqzcO7WKIAz3Cf1VdWCpUYw8v5LqL31XLsydsqga2Rmch3ncPrTNTOxLhjg6nUol4NQODg8sxFoIh4AOJoLnOABBBcc1X7MOIBGpybyB3/W5WCm0UacN973W95+p8FZZSWRJ7WSN9tirXAY4gUmOIptbIa1oaxoaBMYR1eW/tHMyrN7N7oCvVozk5jXDvYYP7/oqTQLQMzk0RlmZ393CSpLoptZtO/pEHsufgO/J4wiT3kaToq61NeE4xR7Tm/ETZ2KUkpSlcQ6hklKRKUoBylKUrGUASnKxCAgMwU1gmgM1rbV63qKot464scKcmBjIMZnmvdNED52vLCrQeadVj6dRu5wIMcRxB4jIp29+5mREj63aeUK5+0pgffkO/DSpgcQJcfiSqLcCCYXT0+tjWm4NWa+hlr6SVOCle6ZKUbxjuzP8vSfGFHbSolsubm13DQO/nHmOa1HrxrXDoOf136rXMzxjm6I+3MV2nvV32fWpspio7PWB3Eqi27z14VmoCWNB0n5qGleJeZHVRyjatXur3AqPALMQbBAIh3ZmDllM+CudGmGloAAJDohsEDsnhwDlV6zA1zWAQ2FZrg9ud/337pVOrj/AMsM8VNP6Y+hfpJL+nqNpYdNr/1Z/VHrVoh/ZeTGgzLi07iJ5bt45gEbGzWhgwO3F2c5RhpwQeBxfBOlTBDp3DieS9mnNv5v4THdI9SvnoV6v9JKlN3UlddrSyfS1NPReujVpqzjLa+jvF2a6NGvaOOJ40EtMcQaVMkepW2+oIDY19DJHlktW3YDUqg6A04/7Q/QL0qe8z/CP9xy6EaNOtrZRmk7wXtY5NSvUoaGnKEmrVJcOl2zwuqf3jX73Me083NYTPkR6rK4IDXRnORzn691elXVv/X/ANpeV9+z8R/EvKUnOtpXLjtf2J1oRp0dZGPDcjQs6QAJIkuMeAMAaakiYPBvFeW2aAqUajMpb2hEQC3IxnxIW3fZUSRrgj4N+CyrMGF5343jw6xFOUtVGu3xqOCXZL75PXThDRz06XCmql8Xcm0/pbBVLhh6vGB+H10VOq06XYDWuFXFUNVzvdcC+KYYOQBk7yeSu9fJlVo0EwvHpRs6kNh7OuQ377rH0y7eWVH16hB4w5sjhidxXW1jScPP+DjaP+4i7O4Y0TvGn1r6L0r7RJMt4ZbgJ15k+SiLXRb1swPexh90ugxrCtc1GG5nqp3lZG5ReMMvIgdwA8NArJ0c6JV71grMe2nRJMP1d2TBLWjOQRvhV42jMeCMs+/zXVvZqf6E5u4VqgHdDHfElc2fxJye2mrGxaJKO6TLSyYEmTAk6SeMbkSkgrGXASlKEigHKUpJL0H/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgSFhUYGBgYGBoZHBoYGBoYGhwaGhgaHhocGBocIS4mHh4rHxgYJjgmLDAxNTU1HCQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJSs2NDQxMTY2NDY0NjQ0NDQxNDE0NDY0NDQ0NDE0NDQ1NDQ0NDQ0NDY0NDQ0NDU0NDQ0NP/AABEIARMAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAEDBQYCBwj/xABBEAACAQIEBAMFBAkCBQUAAAABAhEAAwQSITEFQVFhInGRBhMygaFSscHwBxRCYnKCotHhkvEjU2OywhYkM0OT/8QAGQEAAwEBAQAAAAAAAAAAAAAAAAECAwQF/8QAKBEAAgICAgEEAgIDAQAAAAAAAAECEQMhEjEEMkFRcWGREyIjocEU/9oADAMBAAIRAxEAPwDeU4FPSrYQqcUqegBCnphT0gFT0opUwFFKlQHG+MWcJaa/eaFGgAgu7HZUUkS33bmBSAPp4ryTi/6UbznLhra2l2zuPeOe4UeFfLxedZe9xzGFi7Yu8SWkxddV/lAIC/wxUuSCj6Cp68e4L+kPEWXy3mN+3sc2UOO6v1idGkHqN69U4XxWziEFyy6up6HxKfsuu6sOhqlJMAylT0qYCimp6agBGlFKlQA1NXVNQA1KlSoA5pUqVAD09NT0APSpUqAHpUqVACr5+9tPaN8diC40toStpeiz8R/eaAT8hyr3nibEWbpUwwtXCD0IRoPrXg/s1hknOwkwInlp99ZZZcVZUI8pUR8L9nsRc2QL3cx9Kvk9hGbV74mP2U/zWl4LE+Lc8q06IkbVxPNJ9aO5YIR72eW4j2Hj4bvLmv50rP2cTiMFeJR2tuJUlT8S9/tDzr1ziWWdBHSsD7W4UNlcjWYPlTxZZOVMjNhio8onqfsbxC5fwqXLk5zMk6T3q8qi9iCTgcOx3ZAdgOZ10Gx3+dXtegujiFSpUqYDUjSpUAKKanNNQA1KlSoA5p6YU9ACp6VKgB6cU1OKAFSpUqAE9sOCh2YFT5ER+NeA8BUqWzTKSCOfh3066V7+K8Xs4BbWMv4bXIt1wsmTlzsBJ5nTfnvWGf0mmH1FvgeMhBniwx08BvhbnkARE78+VabCe0Np0Nz3cZd9Nj0PWqy17NW0/wCJmULB0yW5g/EMxGxnlRWFwoNu9pEsukRoAI0FcUnH2O9Rl7ldiuPi7JC2LYB0zucx/lAgeRNZ7jbh7bMY010MidpB6QTWs/8ATlu4c0oIkkFEzCfiAkaTVFx/hyLlspAzMqjp8QOvyBqo1yTRMoy4tM3/ALIJlwOFB/5CH1UH8auKF4Vhvd2LVv7FtF+YUT9ZoqvRXR5z7FSpU1MB6anpqAFTGnpjQAqVKlQBGK6FMKegB6emp6AFSApCnoAVKlSoAevKfbLBPYxvvjlHvs7Ll10VzJbQa+IE77+Veq1kP0m4UNgzfjx2HRl7h2VGU9iGB81FZ5I8olQlxZm7/EXCNnR2WMgaHKiQNRkBiQd/rypYG9iMrIuJYo+pZrVxrqxySFhvM7d6C9nOOZ4sMRlggE8unpWqtYW4IVXt5DObQ5q4q46aO+LUldlHa4k+XKiXHZTrcyuGzEiczPoZ6dI00rvBYd8Ti7dskAgM53gBVMTG0syj+apeP8XXDKLaEFjrO/f8/OrP9GNrOl3FsPG7+7WeSKqsY/iZtf4FrTFDlJMyyzpNJm5UQAOwp6VKu04zmlXVc0ANSp6RoAakaVIigBqVKlQBwKeuRXQoAenpqVAD0ppqaaAOppTXM0DxLjFmwP8AiOA3JF8TnyQa/Pak2kAezgAkkAASSdgBuT2ryL2r9oL2KdlVmXDM/uwg0DKoJVmG8llDdtBy10HtB7TPetm1bQoj6Mz/AB5d4HSYg6HSdayeGIEo40J9DMg+tRJ8loynk4zS/Zm8bgntMGWY5GjLPtTiVXIGP41rruAW4mXTag7PAhzUVyfy1qSPRWK/7RemZ3A4O7iXzPMc56V6B7H8ZGGcYV4Fp3hG2yXCBox+ywyieRjkTEeHwa20yga1R8XT9k75i3yhR+BqsM3KRj5SWLGn72eyUq8+4L7W3baKlxDeVQBmDBXC9ydHjToeprVYH2jw10hRcCMf2XGQz0BPhJ7Amuvmrowg+StFvSpGmqhj01KlQAqRpGmmgBUqVKgCMU9KlNAD00000xNADk0BxLi9mx8b+IiQg1Y945DQ6mBU2OxiWrb3XPhRSx6noB3JgDuRXmODdr157jmXcs5PTKVMAdlYKOyis5yaWhKUVJJ+5fY32gv3vhzW010Q5WI13uGD/py/Oqo4ZD4ocNEyWOpPU96LtRlICnmZ1kSSfF19OVRrHyiR+exrHi5bbYsnmLG3FJMge0hELmz7wxPLn3HegcXh5EjerS4gbrPIjcGoLmEZj8RE/FlA1jmAfhPXQ1pFcThy53lfJpL6VFbb4v7gajM0aKDqR+90Xv6TtV57N8WTFOyBTbceIKTmDKNyrQJjpUNrDKoOQLm+rRqMzRJPegpC3BcVCLiEMpEKSRpGVW1B0Uk9TOlRPGpfZv4/mSxtRXRc8f4xYwjZXOZ8shBrE7SOXOspbvG85cmcxkdI5R+etWFjgYd2v3znd2LMeRY7qO3LyFHHhyAllWCd8ug9Nh8qeOCgheT5X8rILSKoMgER+PL6VMLCxmKJr4uo7CKdLYmNwNSfuqY9Ou/kKJRUnZOLy5448VX6JcHxO9Z/+NgFH7GuQz1XYeYg960nDPagO6WntlGc5VYHMhaNB1E7DfUis2j7CdNz6jlH0oPiY8SxyEypjUQcw6Hb0pxtSpdHS/K5Q5Om/fVHqVKaqvZ3if6xYW4fjU5H/jX9ryYFW+farStxxdq0KlSpqChUqVKgCOlTTSpAPNck0iaYmgDF/pAxpJs4VT8R94/8IkJPaQ581Ws5w9wHB6Zzz28J5ctKL9q7ufG3j/y7SIPOAx/7mFU+EveNRPxEqf5kI++Kzls48knytexpLbmHYNOp3InfmP7VDaMgrsVMjyP+aF4diS1kkgSGIPWZIOvmKmS54lca/ssOx5/Kkc0ncm2XPC+Fe9YZmyKdJ1LMcyqMqgH9p11iNxUeLwptnRldDGVhMEMgdZB1UlWB1HXpRvCbozW2kwkggCQyly6xqADn69B5VHj7ZGZFVyC2csQIVVBCDwkgAKddenzZVR4lcmpnl21rh8KGYEEjIwYFY1OoAbTURU7pl0Ov55Hl61Jh1EZpE+fIecz6UGa10QZSefOYpIgYhdRJAPzOtSM0tHaQRr2PKisPhwwMuEaRlLTkIiCCw0U96ib4qzXCk5K2F4D2fzoCzMDLAgJtlbLuWEzy09d6oivhLc8u1aUDFABQjbSHDCIiNHM6RFZ7iNr3SgZlZj8QU5gvQT1jeohOLlSd2dOenjXyv9nSg5ZnZTsYI03I/O1VmJbPL8oczHIlY27Cj1j3LMdwCoPPX/eqFLngy9LYk6dTv56VvRxxVmj9h8YUxBt/sXVIH8dsFl/pz+gr0GvJ+D4rI6Xdgl+2Z/dnI/8AS5r1g1UTuwu418DUqVNVG4qVKlQBFNKaalNACJrinJqN3gE9BPpSA8pxF33mIxTE6m5p/CXcD6RVO75QSd1IPnlM6GtLjMKiOCiFAbVm4CSzEloJ8TbxnG341QX7eYuAYIk+Y1qGcN/3dhnDsSJcci5089fxou1d1jf61R8MfQiNRA9AAD6AVccMwpu3fd50SEZy1wnLCLmbYbwCeQhTrSIlG5UjSYbirhAhyELsXXOYmRqTynTSpmx5dchZCIAjJ0M75ZnvNDYPhLtcxFktD4e2zeEyGYRAHZgSR8qJ4fwoMuFul3KXrzWngjwnMRby6aAgc51oEoSegS+R8IBg77GR5EyKVrFEKQI+I7ie/M6etWlnC2DaRbrst66juhJUIgSQA5MfEVOv3c6zG2lQIVDQ9q1dPMhnQk/WaCZQcVbORfllJIJ82Hy0or3kb6ebP97LNWWK4Rat4yyhUtbe27MMzSXRLmYTM7oPWhxbsNcGJFlmsnDXX91mOYPau21MEHmHBHnQUsLALr+GJUgkmFI36ldj86q7tyfl8q03D2w1wXbrWHW0ptJkzsSmfNnuMZ2AAqlu8OQBmDmFwq3SRqGd7uVOWilSp+VJITxvuwN38BAJ1mRyPcd6ocKxKMZkaanUmIVfz3q1uXNI7bVWWfhVRopZREamBJgdOVUOOkw4WM9pwdFynTnpzr1nh+J95at3ftojnzZQSPUmvKmuMwZANQhUnlt8Ijt+PWt/7FX8+DtTuudPRzA/0kU4m/jt20y9pUqarOsVKmNPQBDTGnpiaAOSarPaC7kw2IYEgizcgjQglCAQeutWLGqH2zu5cFfPVUX/AFXEU/QmkxPo834cpMnMSTb6zoh27aLtUt9BnZSIMkqfOhuFiGTKdSrjKdJk7d96KxOIKEZxIK5gRzA3HfaoOKV8iuwLeIjtr6kVb8Ly++TOGZIuF1U5SbeR84BkRKyJkb1U5At4qDKkEjyJn8TVvwriTYe971ERyEdcrqWXxwNRInY86Q36kz0Lh7J769ihdS2l1MHfBuEAKhd5tnWJiyyzPrUvB1Wy64R4yDGXEXXYr7m/YPzCkfzVhsf7Q3r5OfIM4QEIkAC3nyKokwB71zud6V3i99wpe4YR0dTCqQ6KFRpAksAAJPSgrmkbfB4P3lzDsbAvWwLuHYHa2yX2YOdPsHQaTO/UW5wy5c9w6oSmSzbLDYRddCDryEcudZmzxW+ubJdce8EsFbRpkkkctzqOtd4fiFxJQXrgUCVRbjhV1nwqDA11oM5Ti1tG5LWrt209p3c28TdV86xk/WEuaL4RKBlgHXfeq3hWFxNhFtquXEjDYplWUJBa7hQoMkrqUbest+vsqwjOswSQ5EkGQTB3EmKDu464Xz53zkRIds0dM0z8qClO90bXg369757ribrPat37RVINtk8NxipgCAw02131FBcdxijD3MOiIEQYRFdR43R7ZeGbmAU0rNYLHXVZit64GYAMQ7yw5BtZIqHE4pzFsuSsKYP/AE1K2x5BXYR38qCeeqRFdND4EDOkmYUkCOvz7Dp/aR7kyfyKG4dbAJbcx6dqYkqiWD4jIwUCSQemk9a2P6N7hOHuKeV5iOwKrGnL4TWERybiKhGp1ffefTyrafo5MDEp9l7Z7mQ39qa7NMNKVG0mnrmlVnYKlTUqAIia5JrkmuS1ACZqzHt5cjBuPtOijzzg/wDjWidqyP6QHJs20HO7MdcqOfvIqX0TLpmUs21dbcGCpI7jxcx0kfWuLzlfA4zK06jUqw0b5HeubS5kDrKsGiZ0IJ0n5sBNNidcx1VwQY5bDXt/ipOOissoc6wZCqZ7CVA+rLRweTtMncdvyafh9kMcQ6gACztyB96jfchpk0MfLc/OkaSXTJx8Sgdfw/xROJfZByj1oaywLTPwn8CKlT7R6n1/P30Gb7D7l3IABqYE1HZRpPrr5UNccyDzI+vapExB3Ma+EHbXvQS4tdEufSkFAh22O1LDoDLNoF3/AN65uoXgsIA2HUciKAddApvsXgD+/wAqnuWoIk6kfjTYkqhB2H3/AOa6dycrHmNOw5UC+iJE3kz10oG25ghABr4m11/GikueMjlMf7VWveaSokeIj6kb0FxTZY4d4ZESJzT1A01J6eVbD2AfLiMRbJksivPXKxE/11i8LaAbLqxAkx1PUzsNK0XsY2THKuk3EuKQP4c4j/8AOqRcNSPTZpVyDTzVnWPSpppUACs1Rs1MzVwzUgGdqxnt3dM2UG8XH/7F/wDI1rWesJ7V3C+LS2P2LQ/qZiY+QU1L6IyellXhlDI65spkEqRMzEkegn5UNjiwKsTqoGvJl2M+n1otLc51J8QAIMbjX89qgxDRGYDSQY2I3n0BqTkT2d4W+qWbhUR7xlTr4UGZ4PMSwHzNB2iSfOa5uAnQSQnhgHaG8TRz1n6URbtqXCidieZMQTt56x3qHNHX/wCedL61+RkEL8+fy/vROI0tqOZOvz1ru3Z8JBE+LnPQda7xIGgjmKqzncHdMHRMx30G9R4m9LCNANB/erBLZYeFGKlsghSZY65R1btvQN6wS2UKSZgAAkz0A60ylB3bLO26BBmOjCdp1OwPTl6CosXjwVECSNO0VSYq85gBjpEdqEa8/wBs0ErDu2y1uozw7HTlPPXYUXibhyAjcGB89oj86Vnmx9zYuT2mi8NcdlzHMUUxMGAek7TzoG8Um7YXiISDPafzvUeGtas5BAJJ6bnYR50QbYJk6xFSog3In89KBcGkcWQc5RDA5t+edWnBytvGYcjndC/6wyf+YoBHjZcq85jWplvoHV4AYMpH8pB0PaKLCMGpI9bBpwaz362/2zTjFv8AbNXyOs0E0qoP1x/tmlRYBpaonakzVG7UAcu9ed8TuFsddMyJCdxlRRI/mB071vXavM7uK/4rvuGdmn+JyfxqWZZb40gy/dSR7w5XiDuPmNOw013oR7o2zZlGx/A+tG4bF22Me6Ck8z1POCJjXaaAvOztkJDQSfCCAoDagdZ/Gg5o/DFd4XEsGO/iE8+f9/KuRYyHWToPOdaJRGu33thwCRKAgwwUQwB6wAfXpUd3AOhzlucSDKyO42/xWcpRj2dUMGSd07+NhGDYBT5z9BW+vraVMMbiILQa17wunu8rnDNkXxW5dGuw7Nmcaa6aV5875E1DBpIIOk7RHaKur3BlKiHdUW0lwXndXtPmVMyW0ABSGeCSxjI0gVVp9AoSjpo0uE4pYt5Spw6BcVYdwGS4IyKruhCKoYHcoIGpoa61gWffXEtl2xLWg6opRrecXS6ECGj4JHJoqKx7HIHZLl8MAVUZIXUvbEszZgoIc5dDME6QRQq8Eti7bR7rtaZCxbKBA9x7w5CSQddIgbdaB2wJ+IIpQEpkFywD4EP/AAvdReHwzBbfmTXGEW0wtoHRiilgwUO6qMLczN7tU0Iue78JzMSMx61Y4v2TQ286YhSUS49x/CyeAZgE1B+GRz8XQVVYn2btWsRbQ37mVjjJcxZy/qy3WTxw8ZsiknKfC0gaigcTvH3rShlYW8xQ5s5CF1Nm2LT5BazFiwZsoyFWJnQya7jeLRiuV1OYMWRCrIkHwZWCJIgmFYFlAAJ1gWv/AKLQu5N9ys3QnhDXGKLe93rMOxNoEqAJV0IIzaD432L92huti7RVQxm2hectxU8PiAOra7RB33oB7KzD3B3ipQxjtV3iPZhbVxFOIGRrzpLKVbKlwIMvxAsQQQYy6jXlVhxD2dtJc92q3WX3ZZXFxALrhHPuUGQ5X8O8t8LeHUUyaMm13bQx2qH3inT7jyrrHpkdrYVlgxlaHcdmIUAn5CoFtGJEany+nKgVI2mG4kBaRyD8Czt0Ao7D4kOAQDqJ1rP8IuTbXsWH9R/vV/hEhZ6/dVGqCKVNNKgA52qF2rpjUDtTAjuvGvTX0rzXhbplEllcLoRqHG+xB8Ucj0r0LENofI/dXnNq3DZSFVW1UuIhtDBbl1FSzLL1RcW8XnUqhGZdyyiV8l09TQjAqpYuGiWIygEEA69qkvKyhWdUb7LoW5/a0/vNCYm4xYsQCoQqco0MlZ+ca0jGEU5LeifE4QsiXAYMAh+QMbH87VZYbGqy+FgGYBWQ6w3MAef0qv4MrujraI95bGUo0FXT9k67N37VwuKRSwvK9t9NAoCseZZxrljltrUJp2pHXPBKMVkxN18/DDMVh2UZGEzqswYEjzjaq+xhQQWhfCZbYHzqzu45IEHMxIAERA02k6iZ6/hVNj8c2wXKOykMfM9O1ClFaRnw8mS5NN/kNtYbaEGu0CiGtFFLlZA3jcd6rMJicQwOVVAGxY5SdR8M7mj+Hi8zH3l1hI0AIgeciDttVGMnKN20D3rqOJAnzA3qt/VQTAAHy6eVHXLJtu1siAdR5coqEtDAnaeo/GmOM3WhW+EmPhSPz2ocWwp2G/IdK06WNCSfSqTiWBZJdZKzrpMHvQRHM26ZNh7Sz07Rv0/GjuLXB7i3fIlQxt7a6rmE+QSqC3cY5Su6+celXli4Gt3re4Ke+VZkhrZBcAfvKW9BQaxk7pgotFoVDmBE6bR2mucQAgAlcx5L4jHcgRSwykBTBNv4lDCN9dXmAJ+fKi7jBiMwyHY6gjKo0y6+WlBHOSLr2V4a7282gUOQQTr8Knp3rULw9/3fU/2qt9iSPcMy7G68Seios/01pFNUkdEW+KsAHDn/AHfU/wBqVWimlToop3NDXGqVzQtxqQEN08q89w91kCo/iQgGCJIHVfLp2reXGrFYgOhZcme3JEGTlIMSp5VLMsvsHtcypOcOkaAABlnfQcvMUHdKZSymRmBaNiGgbdfCfU1LhngZVzZgJCBVLeZIUkfOJri1mIYMB4mBIURlgERBHQnXz8qTdKzLHDlJRurdEVhyjB1JldHjcrOsDmREij8b4tGRnUjRlhtNwQPijbUCaFWxLqu2fc66HKZgfI+tT8OxBVvcn4cxCnkddtdhI0naTU3GWy5LLjbim76q+ytyvBt2rblWMeLQg/uAwfMeVEcMtrmzXkJIIEHMhA69zVlfS4HPhIIghgJBbl10ri7xC2/xhkcQDOzdxP4mk4xejReX5EHf/Ca7cQEOF8JHhMRG3TQ9K4dgGVlJmZ1g0PaxQOiAlJjUc+oqa4jFQ2UnflrA3O3emoqOkc2XNPLJyklb/A/EsWlwBVtMXXmuw689R2oG7hjkggyNxz+lWaYpyoUjMI3IM/PnUWIvlTmmJHKT6g1Zmm1oEwWLYKVKtAEAkEfhVm2ItooDsoBIEDXSO086qLmKznLIB6xA9KtVWUHUDqNx5/OgJJXZU43D4fMHt3cs/s6NJ6AEjeiuCIFxKGJJLIxOgINtvCBGw2qVcuR3CoHAENlEz1GlV/AcUzXlzbi4n1MEmef96DaDf6HfCmzda2rEi25yrmUATDKSCwkww0qfFsoVmdE008KMrM3aTP8ANJFQ3sO1zE3mCq0uxzOBCqpIEFlOsAculEfq1tZZnJYa+LLJ7qVAkevyoCdWbH2NAXDZYiHaRvBYKxH9VaNDWR9hXLWXYgKPeEADoETU99fpWrQ1cToj6VZOppVypp6ZRRuaGuGp3NCXWqQBbzVlsfmW8yZ2Abx6EgakyJ1gyD8o6VpbxrL8ctn3yMpIYqQCNvCZ17eL6VLdClHkqDsPhIAIkjmGbMfNM2gPkRXOIQauDm7bkfnrV7w/AIqF3ZzprBKrpzgUHicNaew1wBlYITJOxGhDaTHUVl/LF6Jj4mWLUm1rZThkdN+8HrHI99PSi0wcrlYRGoYNljtpz6RQTYVQ3gdXyhdRAElVJGYaGCY25fKpVUfCzMBOmgYAfJsx9KSikqTNcnlXPlJK0q1pP7CMPi7qP7tHLr/1FAMg7AqQY2ou9dvEZDatK2oHiGp5aEag9Z689Kq3tqRBZN9JUgADY+JY7RUlnGLlCnIYB0DZTpO4EdtulTLG1uJvg83HJOOZa+r18Cu3sSj5mRSIjKpaD3ABg/XfrQSG/JJOh1jMdBPbU0c2ItsNVERMZm03HNu9QIlkLMMefxyD3Ohq1yra2c2SPjqf+N6+Gji1inTxBBH8ZIPyaZqVuLg6Ph58oNDtaDHMXAHYkQOX7MUbasqVgsexlfvKVUVJHLlcHJ0ga5i7Lf8A0uvcCPz61LaxKAQCYH20IPnmGlT2rTDTO5HZ/wCwNcsv7rT3bX6AVZlp6Br16dEMAmTtJ8qESwqkuhbMWBXXxTOkAdz91FXVI3EfxSPvqGwpDowBIzrsNN+u3pSejWEbaVl9g8C6hS6NAgqoVifmYM+lDcVvIniZApOniWDPmdJq9xHFQjopU679hyPrAqPj1oPbPQjUGsFml7o7X4MdtNk/sWf/AGyt9p3P9ZH3KK0aGqb2fwi2cPbtqZAQGepY5m+rGrhDXWjOqVBCmmrlTSpjKNzQl00Q5oS6akYLdNU3FF0DxtInoGESPJsp+VWt41X4pAylTswIPkRFRLY4unZY8KxT3MM+hzqpEAmQVB2juKE4VcBw11CC2bN3jMutVvCeM/q92X0zABx++vhJ+YCmjrfEmwFwuLa3rd5Tlz+Ec9jBhhqCOkVzcfY6nLV/sCzoAqopAAMkmWYnWTUYuVwD4Z7VErVolSo8mTcnbCjcjahr2HVhqoYx01pjc70veGPC6+mtMStdFc9hdojuNDQMMGyhj10J2qzxLa0MluWL/ZE+c8vTNVJmsWw2ygjLLGI1zGSCJ5HzpxaAO7HzZvwNQWLkGOmg8uVEM00rZDsItvB3b/W8/fRHvp3JPmSfvNAI1SI1IloPSN4HpROF1dAeTg/SfvoHDvrFS2eM3MM4uW8uaCvjGYQe0jWQKTVlYq5qzRLZS5nuMgLKSFOzDKoPhO41JoTj2JcIiKNWA03MDfT6fMVJYx590t1yEBVHJAHjZgGcKOWpI+dB4DFjFYjMoORSs9gpzRPVmCadAelJxTaS9j1VKotv3NfhUyIqb5VCz5CJotDQiGiFNdJxhKmlXCmlVAUVw0JdNE4fKQ+Y6gLllsonOoYEbnwljptFdulhpIMCLsS4mVA92SCJ1MjL9YqLGUt40FdNac4XCliDdjxiN4ClDpOxIeJOblpvoEMJhigYuoY5PCzZhq0OSVgjQ5o5BSDqRUgZPF4dH+ICevP1qAYhkRrTsXRhCggSrASpB8xr2qz4jkzkoCqEnKDqQsmJPWIqmx4nL/F+BqZJD5NJ0Tq/g9K5zUybEfnaolepOOiTNr22qG6sGOY6V20HQ865d8y67r4T+BoAGdqIwqeE9z+fxoa56UdZWFA7UzfEtgKnX76LB50NcWHI+fr/AJmpUagzmqZMDpFdk6VEtdNSJCcI1NjreYev3GlhzoK6xW1Aov8AsiwscFfE5Ll654cqlUT7MAgSfh05AHzrVYSwiIERQqjYAQP9+9A8PEIg6Io9FFWCGtoxSOxyb7CkNEoaEQ0QhpkhKmlXCmlTAoblC3aVKpYwK7Qd2lSqRoEegMT+z5/hSpVLFL0s6tbn88qHO586VKpOT3OjUZ+I91+40qVMpA53HmKsqVKkzfF7geN+JfL8/fSFPSpkT9RKn4V3SpUjImsbCpb1PSoRMfUjWYb4R5D7qMt0qVbI7CdaISlSqhEy0qVKgD//2Q==</t>
         </is>
       </c>
     </row>
@@ -2520,25 +2536,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Axar Patel</t>
+          <t>Shamim Hossain</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024_T20_003</t>
+          <t>2023_T20_416</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2553,82 +2569,82 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
@@ -2637,7 +2653,7 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhUZGBgaHR8eGRwYGBgaIxkaHRwcGhkcHxocIS4lHiErIRwZJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzQsJSs0NTQ0NjQ4NDQ0NDY0NDQ0NDY0NDQxNDQ0NDE2NDQ0PTQ0NDQ0NDQ0NDQ0NjQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABCEAACAQIEAgYIAwYFAwUAAAABAgADEQQSITEFQQYiUWFxgQcTMpGhscHwQtHhIzNSYnKyFIKiwvFzs8MWNDWDkv/EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAAvEQACAgECBQIFAwUBAAAAAAAAAQIRAyExBBITQXE0UQUiMmHBI4GhM0JFgvA1/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBERAETEx2Pp0Vz1XVF7WNvIds1HFekGhZijaAHICpu5A3I3Vb6ajkYBvMTnfDvSKj13DA+pCjIQNSb2Zj3a6CbjwvjVDEAGm4a99DoeqbE2PiIBJxEQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREASA6S9JqODW7m7t7KDc76nsGm8v9JeMDC4d6xAOUaAm1zyHvnzxxnjNStUNWqxZ27foOQF9B3QCW6S8eqYqrmdv6VGiqO4ch8Zr71MtxrczGOJLGWmNz1r+H6ziOszqdRuqRz190kOE8VqUXR0NipPnm0IPcRIP1h9+g7hzlxKvK2/3eAfQvRDpdTxaBTpVGhW98wAvmBOvcb878tZtk+X+EcQalVSopIdGVl8je3nsfGfRvAeJriaCVhpmHWH8LfiU94M6cJOIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAJQmVmDxZgtCoxUNlRmsRe+UXGnlAOO+kzpLnqtRTMqi2cEhlfsIAuOzXnYX2E0fAcJeq2twO09ku4DDGpUudrlm8b3m74RFA0FpXkny6ItxY1LVkAnRxQN5aq9HD4zcaCCXzTWZupI1dKPsc4PR977Sq8EcamdHXDLMTEUV7J3rSI9GJz2vwl1GZdbbjnOt+h7jQqUHoM13Q5gDYEqdD42I18RNScAXmFwbEf4XHUq6gFGcBwQPxnIbX20N79omiE+YzZIcup9BxESwrEREAREQBERAEREAREQBERAEREAREQBERAEwuLUM9Cqn8SMvvUiZs8sL6QD584Nw0+rDnnvJem4XfQd8kVwuRCtrZGZfcSPykBikUnM5FuV9fcJnmrlqacTqOhP4Zgbai3jM00L7GaRiKSZcy1XVu7T/TvMzhWNcEDPmG32JXKCSuy1Tk90bWaZtI7GJpoZ64zjyiAg6238pqLVKtQhfWEDna5PwnIw5jsp12JLENbnrLvCOFmvUQdlRDY9gdSfheQj4YXt6wk/wAwsZu/o9oH1yhjcg3+o+UvhFJ6GfJJtanWoiJcUCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFJCcW48tB1QozXFyQRpfbQ77Sbmk9KMMf8QGOxW47raH775DJJxVotwxjKVM1/E4gOK5UED1zEA72YBtbeM1rH4Ivrr5HWbHht6qtvmze9VH0mXTwqtpaZpSdpmnHFU4mkvhaZdHyDMmXqBbKxQWBP18Jm4Phzl8xUJnPsgWsPDlNlqYBEa9gIw1E5s51B2J3/AEnJZG1RNY1F2iI6TUL0wo30tIb1KNRZHUBjlIfLcgqQbanLlO23ObXx3D6ba301kdgqAa6EAldweXYQeyIycUclBSZqZwoCIibre7C5zXN9QdNNhNw6GcRTDs1arfKq65QSbnqqAO8mVq8LRRcC0wa7BKNRtD7HwcGWxm2yqWJJUdb6P8XGKoiqEZASRZiCdOeklZCdEMKKeEoqNbrmJ73Jc/3Sbl62Mskk3RWIidOCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBSQHSrDZqQcbqbH+lrA2772PlJ+W3QEWIBB3B1kZRtUdjJxaaOPYyqyViTzVfMai/jpJLD19L+clfSRhlVKDhQAGZdBYajMP7TNY4dXubX3+x+UzZYNJGrFO2yxjOPItQhySRyGoXz5nwkViekfX6pfIDtmK7b2tv5yTx/Aleo7/AMQBHOx56GW8Jwtc1nRT23yrp5qR2xHkJy6j2IniHSVnKFGYW15fHtmRgONoGLlyHOhuOQ7uyZuO4ZTC9Wmml7DqadmwkKOD577De2UHU8r3Mm1FrUj+onZttPHLUQMp08byKxbK6lCSAWW9uwXMpSpihRCXuxPLt+z8JsPo64YlepVNVA4QLbMLgMxNvgpnMUdXRzLOqs6NwSmVw9FTa4poNP6RM+UAlZpMj1KxEQBERAEREAREQBERAEREAREQBERAEREAREQCC6Y4AVsJVXmql17mUXHvFx5zjGEx2Uhtbcx2EHT42nbukGMSnQfOwUsrKoJ1ZipsAOZnEuJYE6ugFzuO3v8AGVzrZlkE6tGy4XFq4zKe79JZ4lQNReo5RxsQbX8bTRKXEXQkaju2khR48Qq9o37xKei07ResyaqRK0+G1QevWYgHYE6jlrymazqo0mu1+kJbfkNPH7vI1+KOdL7/AGZ3pye5x5opfKTWPxoJ7f0nX+gXBmw+FXOLVKhzuD+G4sq+Qt5kzlXQNKX+LpvXKhE1GewAf8BN9PatbvtO+S6MVFaGecnJ2ysREmREREAREQBERAEREAREQBERAEREAREQBETwzAC50AgHqeXYAEk2A1PcJpvHPSLhaF1TNWcfwaLf+s6HyvNK4h07xNek4fIiu2UKgN8oALXYm53UctzLY4ZvdUR5l2IzjvSFsXxINc+rTMEW+iqAQGt2sTfzA5SWWjcTT+CL+2fxHutN5w5sJi4p/qNe2ht4dfLZA4/hyvfqi/hImv0dO6E+Frzc66AkTIo0+XbKo5ZInLFGRzVuDsu95dw3D7cptPERe9tBPGFoaSbyuiKwpMg8dSy0ag7UI+s6j6JekJxGG9S7XeiAASblqZ9k99iCvunOuNrZH8DIzgHEnwzrUpNlZdu8cwRzHdNXDQ6kWjNn+WSPpiJoHCfSTSbKK6FM2zLdluLXBHtDe/PQjvtu2DxtOqoem6up5qQZKUZR3RAyoiJECIiAIiIAiIgCIiAIiIAiIgFIvITj/SWhhR12u3JF1Y+PJR3mcw4502xGIuA3q0P4UJGne2jN8B3S7HgnPVbEXNI6Rx3phhsNcM+dx+BCCb9hOy+c5d0l6ZVsXdD1KX8Cn2uzM27eG3dNdqa/Xv7p5e034+GhDXdlUptlmprcdol/ehfsf5oL/wBsxydb/Zg1L3A0G9r87WvJTjbXk7GVX4LnD6+SsjcmGU/fum80jOfOv5ibd0ex/rEyseuuh755HH4XGXMtmbeFna5SabW0vPSuJay3GspmYaA6TzTbRHYyjbSGAAmS9G5zE3mNkzGLFEFxgllYcra+A1kGuk2LjKZabG9rsF053uSPcCf+ZrzT2fh8f03L7nn8X9SX2Mml1qbi+qFXXyOVvg3wmXw3iVSiwem7I3aptfx7RItRpPeHe6zdCFN331M0pWl9jrHR/wBI17JiV/8AsQfFkH09037B42nVUPTdXU81IPl3Hunzgr2knwnjdWg2am5U87ahh2MDow8ZVk4VPWOhyM2tz6Giad0a6cUsRZKtqdQ6DXque4n2T3HyJm4zDOEoumi1NPYrERInRERAEREApESP41xJcPRes+yC9v4idFA8SQISbdIDi3GKOGXNWcKOQ3J8FGpnNekPpFq1LphgaS/xmxY+HJfiZp3FuKVMRVarUbMzHyUclHYBMakLz0sPCxWstWUym3se6tZmYs7FmOpLEkk9pJltpWqtx3y2jX3mzYgCTLbtbbeUrX5Hb4/lPGe/jKpS7BalGa8uUUvewJ227Nf0nm0pkHMac7yNsktClR1XcgHx19wmXwXFItQNnZAeeUkeY3t3jbsmDicFls4HV590u0aRII25g98jkwvJFxl/B2OZQaaOjUqishZSHUbshDAePMedpTBUw/4hNY4UivhyQgaohy8h3g37N9e6TTB0p+sF1ZdWG91vrfy1nzmbH027fevue9jipwtb1e2ngz8UoC6SxgaN7235nkBLmNxSJT9ZUNkH+onYAczNTbpiBcJhzlvpme1/EAG3vjHCctYq/wCCpuCVSlRPdLcKqYVbb+sU3PaQwPwmjssnOkPSVcTTRVouhVsxuykHqkaW8Zq4pOzG9wN8tzaerwEcmPDUlq23XsefxU4Sn8r0SSMsEAakDx/LeUwwOY/wnyijhwNQPGZK6crz04wbpyMUprZArPMq1Ubj3ffOUVgdjOur0EbrUuI5E3Do508r4eyP+1pjkx6yj+VvofhNMErIzhGaqSJJ0d/4F0loYsfs2s43RtGHlzHeLybnzbgsa1J1dGKspupHIj6d0710Y4yuKw6VRYE6Oo/C49oeHMdxE87Ph6eq2LYyvcmYiJnJiIiAUnNPS5xWy0sOp9q7v4DRB77nyE6XOB9PMf67G1jfRWyL4IAp+IY+c0cNHmnfsQm9CCUar3z22lj32Pnsff8AOWHa2U9hEyLXzL2g+8aflPURSGF/v3iWy42lfXDKCd9j47H6yywnJy9jqRcI7ZaegdxKqxmXhqg1v9+XOQSUg3SsxEU8xMqkQNGXzt85IYTC53VEy3Y2s+g10uTyHfN1/wDQqqCjdY5QyspOpykMmW+2bKQTrY+M65RxPVlfM5bGgJYgqdjI9XyNlN7fETZ+O9HWw6hlrUqoJy2RrsGAuwK8ra635cprdcZxqLMJN5FKNxEYu9SY6MVbVnS/trcHtKn52J902vRgVbsIPu1nPeE4g06yFuTb9x6p+BmzdLMcUQIhs9S6nuUe0fkPOfN8dglk4qPL3/B9JwHERhwr5u35NY45xJq7Kga6UxlFtma1mf6Du8ZholuU9Uqdh3TJSnz37R3T2cWBQVI8TLk5nzM8Itj3GZ2BwbVXREtmY2FyB4776a2Guk8rT+/vnL+FwtR9aasx2GXe7BrAHtIDaDvmlrkg3aX3Zm5uaS0LGJw7IzI4symxAINjz1ExXa2omdicLWUnOj5h7VwWscoYq55HKynXa8jWNjpt96QsqlFNNPwdUKlqjy7XlA0oZUStlpkIb275UfOeUTTx+F56B3PLYS1EABN29GHH/U1/UOepWIAPJagBy/8A69nxyzSafPwlum5ABBsRYgjcEagjvlWWClGmSTpn0/Eh+ivFv8ThqdX8RFn7mXRvjr5yYnktU6ZeIiIBaxFQKrMdlBJ8ALmfNFesXdnO7MzHxLE/Wd+6b4n1eBxDXsShUeL9X6z58qGzt4394B/ObeEVWyue56fUW7R8bt+kuI+zdwJ8PZb46zGZtPA38jp87S4j6W7z7juPr5TamQPTjVh33/P4yibd4npNx7vEcvnLi0TrItNs5Z59XfbeXqdK9jsfv3GXcPSBH3pMtKfbv85ZGF6lc51ojM6Popqqrs6hgVOVQc1/wm7DKO/la822lwZ0e1ClSYq7upaqM2QBAi5luQuYsSLi9gNrzWuF00yszVEW91UOCWJy36nK/L7tM1XFBmek9W9V1VsnVV1zsq5agGmrDqg7tvppn4hvm0Z3GrWqMjjNJ6FN2d6VI5Sq0w7ZibEBVUJqLMxzdwGms0F6wOtt++beaTu7F0z2ZlRqpL5g+U0wzdeygB9cwF2AveQ3H8OgfPnXOxOZEGiBbILtsWOW503JMhB1oW0Q9QhhY++ZvF3NR0JNyKSe8glvpMTwG+wmU6Xs38igjylix82RSfZMl1OXG17tFiil1+f5y6i2E90NDtv9IeynuO01qKRjcm3Rn8EwPrnbQlaal3AIW6qRcZyCFuL2uNbEabzZaNKriCyUFYIWzolwBTub3Ln2ddQP5jaQnRumHNVAiu5UFAWVSrC5Z1vq3V/AO3lvNs6G45FDo7ZGqZSpJtmy3UqWPZvPK4qT55Wra2RphFUltZE47A4ihb1gOSoyuRnzLUZSDlLCxvZRodwLajSanx3h+TLVRQqVLkKr58hDEBSTY6+FhsJ1DpZiUFA0swZ2ZSoVgQqqczPpoCACPOaFxsAYZLqn7RyUcHrtk0KuMtsovp1r3I0lGCUnyyqm3TXuWbNq7RqkuKmoB5/Yl9aF9RoZ7RN9NxtPXjjd6lEpqhksCO77EsPsF8z4TKqNZL9pExN9e029w+/fJTpOkRg21bKq2/gfzPwt754QaDwnphZSe3qj6n5/CU5Splh0z0PcT1q4cncesUeBCP8A7J1OcC9HmN9XjaJvYMxQ/wCbqj4kTvs8/iY1O/cug9CsREzEjQPS3jcuFSkDrUcE/wBKAsf9WSccxJ64PaPkf1E330rYwvigljlpoBfkWfrn4ZfdNAx3soewke8Celhjy40/3KZO5Hkb6+B8DPKsQSDy+7+6x8p6bYNPGJHMbjXxHMfWXS0Vo4i8mpFvCSuGbNvow+PcRIOk/WUjmRJimfhLcPzFeV0jMRQsq9S2v3+kth/f84WoD4cx+f5y+VVSKUndskk40yoqKiAbO1iGINwblSCDlK6gg9QEEG8vYrjCnQ1ncXb2KaJu2Ye0L+1lN7k6cpAnQn6zwZhlBN2aY6IzcTxBGB/Z3dh13d2YsbWvY6DXbsmAlC/37vCU8YFbLp8fvcScIpCTdaFPVkkrsRqexrbCZNufcPlKINPH5Q9S3L/maYxS1M7k3oWy9ipGoF7ju0luq11PZv8AqJbdutccwfmJ7QSmc70LowrUYbFspBsCQCNc1mUggq2Ug2sTz5yfHEaNVWNxRchMtJVIUstlY5z1VuSSANgpvvNbdICffbM08XUadtNdyxNJUbTjMThwajGsjXC5BRQFWe7CxQlSFGW511Dgg3tITiuPNeo5ChEJBVFUACyhbnL7Rtpc62t2TDCa2P8AzL6U7eHI9hksPDVLmbtr+CM5pKkeaAIFj9/pPTme5jVanWF5ub5UZvqZ5xtSyqv8w+ssh7aDfn3A/WW+J1fY7bnXtE90wRodOZ/OZnLmkzRGNRPWIe5VeyUY9UmWla5Ldu0uYnRQJG7TZIyOHVSjI43U5x4qwYfET6VoVQyqw2YAjwIvPmzBYZmZURSzFdlBJ7ToJ3zoZivWYLDvzyBT4p1G+KmZeLjpFk4PVk5ERMRYcYxvEaVZXqhlfKzsUewZ3dWFNQrasAarJcbZL9k1bpPRVXcImQKVOW5IF1Vri+ouCDY7EmYBMv4mozo7uxZmN2Zjck23Jnqwx1fhlDZgYfUFfMTw5It3f8j6iKLWCt/lPlLmITn5H8/rO7xHcxXW2o2PwPMSdVr+esg6bkaEdx8ZI4SrmRb9lr940ksEkm0QyxujIerbQ7jmOY7e4zwanWvfXtGn2ZZLHnM3hVJXfKwBGUnW9r6W9kg+V52eSk2+xOENki3nlWeTPFeGoiEgKDYEMM+nXRSCGcgizfCXOH8NR0UlQDluSQWuSzi+ptso2EyPiodLq9jQuGyPL0q1NfLdu3b2S4i8j9+HZJPieBydZQANAwA0v+Fh2A7eIPaJK4Sn1Lg5cqJbLYAfs0bkLnUk6y18VDHijl3TK1wuTJkliWjVvX7GvMp2UFrfwqT8BMWrm1zKwB3upHnqJsvCBmqVrjq520/mUj6NPTumYgKy76i42JBPVN7XB1tbSVZ/iLhkcIxbrei7B8P58SnKSV7Waeu58JfR9JJ8X4eBd1/zae0CbX00BBIv25gdwbuB4JHWzKL5n1ObYCnYaMNOsTOrioPF1exF8NkWXpVqRw1lxEtoRp92ImdxLBKrAIADre2bWx0PWJt+krgMPnYK17DVrdg7PHRR3kTViknDn7bmbKmpOD3ujEan7/nDtaTj8IXvBOgs4brH2Rqg3NhvzvIBmBB92ssw58eVN43ZXmwZcUksios1agt3H78jMRnu09Npccvv4y3ITk2ThFIxcabuomQ7WWw3b5TFVczknlMlNWv2aCZ4W237smy/Qp7CUrdZwOyZFMWBMs4MXLNL2tkRvubn6OOJ+qxuQ5ctUZSSNQwF1seQvoRzuOyda4PTRVdKegWo912ysxzsPAliw7mE4JwXFtRrJUQ2ZWvcAE2OjWBBF7E7zo/o/wCMGpi8SjVGqZwrozaE5eqRbQaAqNtQkycVibuS9iUJa0dGlZSVmAuPl8y+fYPjET249zOyNpewf6jLz7HwHyiJCP0nTCb2j/l+QmXgf3fmYiVY/rOy2L77mZ/Bv3g8D8oiSzfRLwSxfUvJPdI/Z/y/+SnL/CP3af0L/fUiJ4/+Pfn8nsr/ANJf92KcR9l/+mf70lzh/wC7P9Cf9lJWJJehj5OP18/Bh9Ht6v8AW/8AtkJjf/dp4j+54iXQ9Tk8Gefpcfkm8V+4P/TP9hljo79X/wDFKRM8fRy8mmXro+EU4r+8Xwf+8y9wr8fgn/cSInrY/R/sePk9Z/t+SXrf7l/uWaXiP3lXxb5xExfBfpfk9D43/UXgwq+58T9JbfaInpvueVHYxcN7TTKw3PxiJXi2RJmQfYMpgfYMRLv7kR7GRht5tXo2/wDkE/pf+2InM/8ATfg5H6jtkRE8Y0n/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBcWFRgWFhYZGRYaHB4aHBkcGRweHh4cHB0cGh4cHhwcIS4nHSEtHxwaJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHhISHjQrJSs0MTQ0NDQ9NDU0NDQ0NT00NDQ0NDQ0ND80MTY0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUCAwYHAQj/xAA/EAACAQIDBAYJAgUEAgMBAAABAgADEQQhMQUSQVEGImFxgZETMlJyobHB0fAHQjOSssLxI2KC4SRDFzSiFP/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACYRAAICAgICAgICAwAAAAAAAAABAhEDIRIxQVEEMhNhQqFDcYH/2gAMAwEAAhEDEQA/APZoiIAiIgCIiAIiIAiIgCImG+OY84BnEptodJcNRcJUrKrEX4kDO2ZGQz5yVhNq0agUpVRg3q2cXPZbW/ZAJ8REAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAPkqNu7cp4dbM6B2HVVmCg8LknQSZtHFimpN1B4bxsPE8J4x+oW3sSzejrLSZDmlk/b7SOHN76G/LLnIbBG2700x5qZ1zTC8E3Qp8Re/OUGK2xUqMXd2ZmzJvYk6Am0qXqX55zFbmVLG2q5YneM2UK5Q+sw4gg53mlaZOXGfSgIHCTQL5ekmKQqyYmpdeTsctcwciL8Dedx0f/VpbBcUh3vbQCx71Jy8J5UFZSNcvz5XmqolsxpHQP0vguk+GqCmVqD/AFL7oOuWZvy/xLmmwIBGhFx3GflHDY1ksLndDh92/Ea91xleev8ARz9UEO7TrJbOyspJNixsCCM7C2YkplT1KJqoVldQysGU6EG4PceM2yQIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAU+3FO4zMFKKCxFyrC3smxE/P228U9Wq7XJGYF7X3b3AO7kT25z179Q1qtRdFaysBcaCwz9a3ZwzubaGeE+nYOb68b/msq+yUbi2W6VsRMqThRcgG2n1BmtHz18ZniTfIixGh5iSDIott4Nb6GaK1UEDLO1j8T85oF9I3TygElMUcr6j/ALH1mAcXIGnD6X8JimHJ0nx6LDUGVtE0zCsljMVvcWOfCZBpgywQe1fpj0qdwMPUK7qIAltbi179lsydBPTp+ZOibk4hEB9dgpuwUEeyxPA5ZaT9K4XNVuQxsASNCRxEsiDfERJAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAcH+quL3cMqX/iOARzAub9w+08Mx1AB7LmOFhPU/1rxO62GAGe65481Go7jxnmRZrbzKbcyPmZR9lvBpw1AnXSXFDAIy9YsTyH05zLZib5FwLXvlOmp4RbzGeSnSOzDg5R5M5dtjFj1UYdrED5ZzbT2K6kXsQeFr28TOySmoGgnyootM3kkbLBEo6eARBoDNGKoKeA7pPxB5SFWBtM+TuzXhGqoocXgBqJU7hBInTYgZSlq07tlOnFJvs8/PBRdo04CruOrWBIN89Muc/UeyK+/Rpva28im3eJ+WqaZ3n6S6C4r0mAwzf7Av8hKf2zZdnP4OgiIliBERAEREAREQBERAEREAREQBERAEREA8n/WuiScM1ur11v29U28hPNVoEhfzneexfrBht7Bo1rlKgz5BgQfpPM9iUA++xHq2+N7TOb4qzXFFSlROwFAKot5y2oUyZVVsYtM2IJI4AE/L5TUNvuo9U+Tfacqg5Oz0XljjXE6hcO3ATF6JI7Zz+E6XOvVem57R9jOkw+0A6b9rZXzkyhXZMcvLor62FNryFiaE37V2xuJlmeU5XEbXrVMkWw7jIjj5bInmUdUScSkqcShBy4za1LEDrMpHiJuosT6wsZrFcemcs5c9NUVLGfov9PKe7s3C9qb387M/908C2ph9wqR+5d74kEfCfovovhhTweHQaLSQZ+6JtF3s5ZKtFvERLlRERAEREAREQBERAEREAREQBERAMZhUcKCSQABck5ADtM2Tn+mrEYRwNCVU+6XUN8MvGVk6TZaEeUlH2VPTTG0cVgK60qgZlXfAGp3CGNr6iwOk816OH/Rqcy6j+UE/3TrMPgw6OVA6pI3eYGTDv1lHgsKiM6p6u/cD/gk5ZZXKO0d8fjqE1TMMWwprvbpY8hx8pX4vaOK3AyU13SCLKN50NxbfW/VGvOdE6g6jKa1ZMxnbTK+krGaXaNZ4nLp0UOHo1W3d9lJIBO7nuk8Dbj3GdDs2qArKQCADppNLtYWQEDnx8JjSO6pAHee2UnJXo0hClTOW225NS3C8ucNs5Rh2dWKVgQVRuqrqCCwLrdgStxlugHzlTj+szE6yxwVRtxQesvDmOztmkZcUjCWNSk0ykpUqoS7uS/BSQR23PCbqNyL2sZdNh1b9vzkfEUgukOfIj8PHyVePphvRKzBRvFSx0Cki5PdmZ6BW/VEJupQo79NbIGclWYAAXsNLzz/aajcUnTePykFWl+bjHRTFgU5O+j9LbI2iuIopWS4DqGsdQeKntBuPCTZxP6VV2bBsGHVWowU8wQGPkSZ286IO0mceWPGTj6PsREsUEREAREQBERAEREAREQBERAPkgbYwfpqNSn7SkDv1HxtJ8+WkNWiU2mmjyeizbiqCVJLXtrfeI85DWiqPUVbkK+7cm5JCJc59t5b9LMN6KuwsQj9dWH7Sbb/eL5ykSsS77zIzEq28l7NkV4jI9UTh402j13NTjGSLbDUrza2EGpmjD4m0+VMQXNr2HO8jQUmacZTvYKLsePITPDYVdxusAQNOZMibUxVIKVdzpluGzWtwMpU2um7uU7hjoGOtu2+RkqN7oiWRR1Zp2rhwXsNZI2DVBJQ+sv5eczXxDGpvuxzPDTy4y52VTTe3lbM53JzlpQqOzKGS5WjpaqAXlLjFk04q53TrK7F1rm0zitmuSWiDtNOonvn+kyuwWGL1URdXZUHezBR85L2nV3kRRwJJt5Tqf0s2F6bFenZepQzAPtkWXvsLnym3G2kYwy8YN/uz2DZeAShSSkgAVVCjtsNTzJ1Jk2InWee3btn2IiCBERAEREAREQBERAEREAREQBERAK3bGy1xFMo2XEHiD+cJ510p6LvQQVlKlV6rEXvYkbpt33856sZHx2FWrTamwurAqfGUlBN35NI5ZRVeDxXC4ok55307NTeV3SDGut1BIFrZcdJIxFM0KjUnyamSp7bEfSx7jMMbiVdkBGmd+3L7Gc6jUjq58o1ZFwGCLANURyeRNrceBuZNrYTDZHcZXW5BBYS1RN4Bl5TRX6QqBuNSsRxI18fORFttnQo41FWc/isJTAyRhf3j45yoFNg1kDH4TpcZtoPkEtczRRp2YFsgM5Kk0Z5IY5fX+iEld8t6+WswxOIJm3aWKDObStBJIAzJsAOZOQHnLqNu6OaU6XGz0boZ0Go4vDCrVLq2+wXda10UAWzHtXznp2ydl08PTFOku6o8STzJ4mYdH9n+gw1KjxRAD36sfMmWU2UUtmDk3rwfYiJYqIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCInyAeH9PKf/mVm4bwB/lW05ejihvWNu/nnO16VqGxlcEAgtb/APInFbQ2YVzXMcPzwmCabaZ0Sg1FNdF1hcSEBYNawt48ZmTvm7Z5A3PDh9vtOWp4l06pBI7fz8tJJ2rlkbZ5/nl5Q4ehHL4ZbYndTsP5/wBSvxmMJHCRcRtDeGfb+fCV71iYUK2yJZm9I21HvnLXo1T/APIok6+kT+tTKinTlzsRt2qjjVWDDvXMfKWbooo32fpOfZz/AEQ6SJjqAqL1XFg6ey1r5c1PAzoJqZiIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiJ8gAys6QY70OHqVAbELZfebqr8SJPqVAoLMQAMySbADmSdJ5p086SJWAoUmuoYFmGhI0tzA5yUrKTkoo59jvObnPIEnmAM5jVoZX5z4jDfVuDjP3lH1Wx8DLFE/xOLInCbR6mCSyYU16oqGwSMLML+Eg4ro2mq3Hje86B6A1GXZw/6mivTYZ/IwpsPEn2jj8RsgLz8TI6Yax0nQ46izHMeZtIC0M5ZT9mTwq9IhpRkrDtudbkD8jJBoyPXUkbo1bIDv/wCs5ClydEyioRbZZfp5tk4XFIzG1Op1H5WYizHuNj5z9Bz8z1qQSw4Ce79CNpenwlNibuo3GPMrkD4ixnXVaPPhKzooiILiIiAIiIAiIgCIiAIiIAiIgHyIlJtrpLQwwszbz8EWxbx9nxghtLbLuUG2OlNChdd7fqewp0946L85wm2elVfEXUH0dP2VJBPvPx7hKNiFUn88pZI55566MtudJK+OqspbdoJY7i3Cs3+72vGQcUnwkXYD2eoh1a3nLWrTuvdkfCXitHPlk72a8K4K7hNr5g8mGh/OEtsFW3hYizKbMvI/Y6ic9mpk/D1yxDKRvjLPR19k9vI8Jjnw81a7R1/C+V+GVS6f9F2yCR3XKZ0cQHFxqMiDqp5ETCql5521pnvppq0QMWmWgkFKcsK9LsmpksIIaIdZbCacMlg1RvcT+4+Vh4mSChc205nkBqZX47GBjuqLIvVUdnPvOs6vjw3yZ53zcmuEfPf+iNjHuZY9HdvYjDPvUWy/chuVbvX66yp3CxlnhqG6pYjQTqq2cDlwWj1rYPTyhWCirakxAzPqk+9+3x8516sCLg3vxE/PwTdUjPqm3A8Bwltsfb2IwpBpOWpamm3WXtsP2+H/AFDiI5vZ7bEoej/Saji16hs9s0JF+8cx+G0vpU3TT2j7ERBIiIgCIiAfIiQNq7Up4dN+o1uQGpPICCG62yfKfanSGhQuHcFvYXNvhp4zhdtdK61a6qfRp7IOZH+5vpObOef558ZZRMJ50ujpttdMq1W60/8ASU8j1yO1uHhOaFPebW5PWPcP8Q1O4JHcPzyleajI+94fCSlRzucp+SySk1xcZns+U17VpkJra/AfUzZQ2oDk2umWpt8BNdTrEkkg/TlLJWZNtPZRYfeVt5fWlts/HbzbjCxIFr8wM85CrIUa+VvhNgphswbNr5cjIWi8mpbZY1qIOkr3QoZLpYgkZ5MMmHbzHYfnN7gMM5cz2jVSffsyndcZX4MOTc5LpYq53XG4/I6HuMhf/wAueRnzH4lEXdbrORcKOXM+yO3ymObDGe+mdnxfmTxOu16Ln0F5Bxa2y4TTTxXotxWcHfIVARc3Oh10F+M5attxy5D9ZbkkAWIOmR7haxynIvjtPbPWfzoyhcFb/ei2x+KsCiHM+s3Z7Mh0sPNuGKvmh3vCzeKnP6SZTAnZGKSpHkznJtt9sxw+GtNuIYDdU5C927hn87DzmaNINQ753+B0J5fmfjLGN+yYmaMbg537ZtwmY/L+UgI1s9L+ZkvBa21B8x4w+yvg2BWRg6MVcHUGxvznfdHOnatanieq2npOB94cD2/KcO6ZsPG354zU6fEX8R/gyrReGRxPeKdQMAQQQcwQbg9xmc8V2J0jrYU9U71M6o3q9tvZPdPTtg9JaOKFlbdfjTbJh3e0O0Sp2RmpF7ERBcREQDRiK6orOxsqgsSeAE8g6Q7ZNeq1Q33V9ReSj63zM6fp/tm5GGQ6dap32uq/XynGvQDDwN+1SLN5a/8AGWijjz5N8UbUQFRyIvfhnxkRBZyhz5E/aZ7He6Gm+qG1uzSY1ELbjZEhiptrkftLnN0zfTS33P0ErNoWLrY5Bh4n8+Uta29aynPttfwvKZ2PpEGmd89coZK7MGXdY5ayejm3gPpImIHXvbxM3BrBh8YKy3RtxNEEXH5eVrKUJ5ZHzt95ZU6mRHYPpMayAnLUgeVgZIUq0R1cHO9jYfTK0zOKC2BVj2AA/EkZfHsmv0PEHxmaJ5czrBNpHxqrtbdG72es1u8iw8r9sibVxIpIAB1yxIOe9bMMSTx0F/sJOev+1cu3jaV+1GCOzsu+5O5TQ6dU9Zm5rvEi3E9glZaRpi29kXCYMADEVeogIe37mYG4FzmzG31Mp3u7k+0xPdc3tLOthalRlaq+8xyA4KOQGg8OUmU8EqgZWPKU4tnT+SMNt22aMNhssxn+aSUgfMhyRyYBvnnMwPL4iZr+ES6ijmlkZrdHZWW6i41AN7G1xmSOMzcZAcbeQmZy8RrMWH9Mmirk2tnxxYC3KZre4IOdvpNdU5r3febUBytnx7ZC7D1FEnDVgWsRZuXPu+OU3lfG2dxqJDw9MMQCSLmwHaJK9Ic8gHTU8xztJZCZhuX+/wBxNDtuMCGswzBBIseY5SWxHPtJPADMyrwZNRmqHS9kHZKtGkX2z0jol05uwoYogNfdWqbAE8Fbke2ehz844gZnvnoX6c9LyxXCV2udKTnU/wCxvofCUejqxzvTPTJ9nyfYNjw165d2djdmYse8nSSKWXnbv/PrIlNLBO3e896w+UkISO9cjwz/AD5TRHlzWyO67lYMuhFie0G3hlY+MzokB6qkEgNvjxH3m3HUgRrw3suYyPwK/wAs0AXqXsOsiWv3n6gSSGxhmu7k5lVBHjbMefwEiY1N3EIeZz8Zngmu9T3beX+I2kLvTb/cPrHglal/ww2lStc9v3moPe/I8ZZFlYZ5G8jJhSzBUUljoFBN+4CSUT1RHV/jxE2X17hn/LPr0CpsRusNQftPgFjyPwMAyUad1/rNbv52Pwv9ZmW15gaTBEuR7p/ugGCJ6p4kgebWmAQPVeobHPcQH2VJ63ibnxkqn63YoJ8Qb/SfMNRsBxAHjHkty4pr2QnB376m+XkZNpgOqj918/hNdan10vkCTl4TWGKPyBMgPaRhVQgm/PXzn1RfvEnOoZT3/eQ61EqW/OMki7MXQi/K1/lMU4d1rceM30alyBpewufKSX2cQcivnnw+4lW0u2XUJSWkVtb1hflab9LX4D7/AHjG4ZlF8vA5mPRnLeBC6knjaQpRfTLThJRVo+K38PtJk+oL2YZmxI7v3KZDY9dDw4Dyk+kMl94/ECWM3pIi7VcLh3cG913QeVznI+EG7SUcluPGYdIWKoE4MwNuAMzOShewSvk1X0X7ZGrH7+f4JHR2R1ZTZkKsDyIzEn4OnvuCfVGbeH58JAq9befgW3R85WRrDs9A/wDk5/YXziedXHKJTZtyOn/ZS97+4zdjv4rd8RNkcU+zdV0Tx/oaRm9dfdT5mfYlij7IeB/iVO6ZY3/1e9ESvgfyPo/b3/adF0J/+zT/AOf9DREl9EQ+yK/pH/GfvH9Cysp+q/d9RESV0Wf2Zqb1vAfKbKGh936mIgoYYbRu5vk03YX1h3/WIgSNdfVe9vlNG0P294+QiJBb0b6Wh7x8zMsV+784iIklfJWvqO6WPEe6PkIiVNUaMfo3ePmJuxv8Ne4/SfYmP8kdX+I0VP8A1/nKWOG0X3/tETc4pdFP0j9VPeWbKn7e4fOIlfJqvrE2bL9Wr7v3lSn8FPfb5iIlZGsOzXERKGx//9k=</t>
         </is>
       </c>
     </row>
@@ -2647,25 +2663,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arshdeep Singh</t>
+          <t>Soumya Sarkar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024_T20_003</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2674,97 +2690,97 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>17</v>
+      </c>
+      <c r="X18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="n">
-        <v>32</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="AI18" t="n">
         <v>8</v>
       </c>
-      <c r="Q18" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>33</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAREBUQEBAVFRUVFRUVFRUVFhAVFRAVFRUWFhUVFhUYHSggGB0lHhUVITEhJSkrLi4uFx8zODMuNygtLisBCgoKDg0OGxAQGi0lHx8tKy0tLS4tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQIFBgQDB//EAEYQAAEDAQUFBAYHBAkFAQAAAAEAAgMRBAUSITEGQVFhcRMigZEyUqGxwfAUIzNictHhB0KiwhUkNEOCkrLD8VNjg5OzFv/EABoBAQADAQEBAAAAAAAAAAAAAAABAwQFAgb/xAA5EQACAQIEAwQHBgYDAAAAAAAAAQIDEQQSITFBUXEFYYGxEyIykaHB0RQjM0LC8DQ1YqKy8XKC4f/aAAwDAQACEQMRAD8AxiAhMLyWEgE6IomgEnRCAgBNCYCAAFIBACkEAgmiikAgFROiahPM2Npc80AQEqIos5aNo3F31TQG8XVJP5Ltuy+RIcEgAJ0I0PLkpIuW1EqKVEUUEkaJUU6JICKE0IBITRRAJCaSAEimhARQpIQHLRMJoQEkICFIBNNFEA6JgJKQQDTCQUgoABMBAC8rZamRML3nIeZPAID3WS2kvFsjgxpNG1z3OOmS5ryviSaorhZ6o39TvVa4HqpseGz1iXQ0b1yRZLoA5qSDZ3Vae0iB3jJ3ULqWXue39kaHNrteNeIWnDgRUZgqLHtAhNJQSJCaEAkk0IBIQmgIoTSQAhCEBzqQCAmpAwiiAnRAFEUQmEAAKSVEwoAwFIBIKSADlmVib4t5mkJ/cbk0fHqVqL+mwwOpq6jfPX2VWKlNMlKPMhVUmhRiYXGgFSdy1Nw7PNeQZTX7oNB571E5qK1JhTlN2RnooqmgBJ4DNdRu94FTG8DiWuA9y+tXXc0TAAxgb0AV/ZrtbTMLP9ovsvia/sllrL4HwKlOivbhtf8AdE82/ELf39slZpanDgd67aDPmNCvm14XdLY5g1241a4aOA93RWwqqenEoqUZU9eBo0JRvDmhw3gHzUl7PAklIoQEUk0IBUTQmgIkKJUyooCNUJ0QgPJJNMKQMJoATCAVFJCFABMJKQQDUgkAmAgKfad3cYPvE+Q/VZDCXOoBUla/aZhc1obm4VNORy+B8lR3ZARUkZnL9EckkMjbXeetlY2EVObj7eQ5K3u/aHARWNxG+lMvNc1naxpD5RUD2q2gvl0j44RBQSZMphFRWlakgbiqH6z2uaV6q3sjYbPbRQTFrGkhx3EDI9VsWEhui+ZWizSWKTE6MZGjgQA4dPLXMLbXfeTZLP2uI6fOSolZPQ0xu1qzyvG8oWGkkgZuocllr/ms1rgljjka6RjTJGARUlneIb1aCKLnvm87LLIO2ZQYiASH1J4ZanwXXYrpsUxcIoyx4aT+8CCBUHWvDIr1BJNPUrnJtOOnzKC6HVgYeXxK614WBgbExo3NHuXQthhESknRFEAkUTomAgIoUkFAQKVFIhKiASE0IDnCkEICkDATqkmoAJoCEAwmEgpBAMKQQEwgKu9AO0GJ1AW93qCa5+Kg2Bgs7XNGYkeDzGoPtXtfcOINcdBUU3551XFd9ppKI3aPoc+IyJVL9pmhP1Uy5sd3smiwnKvsVldVwyRFrtSw1jNc2HiOHgq26LRhNDoD8VubLbmBgO6izuTiaopSMltZLI6nampr1PUn4K42Scww4Nda9Fnr8vATWij+6waaZ8yVfbEMjxluMEDhQo07ExazaBe+zvaYdXsa4loBLS09W0PBWt22JxtHbvBDiAylA1ojGQbhBz6q2M0bHijwQ7Ij1XBdMjm0rwTM9rkOMd7Hy+WEMe9g/de4eTiEl62x1ZHn7zvevILcjm8QQhCAEITQCQhCAEqJoQEUKVEIDmTQmAhABFFIJISCaSkEABTASCYQDCYSUkAnMBFCKrPW4YZAQ30XNz4Vy1+dFowuG1x4o5201jxA82vaR8VAVyN3Sijq7jXw3qe0M1peaQ4hGxjSaamu/wCeCoLot2F1HaHJbu77awwOYKZa8SDxWaSys202pxsZy49kLTbGl7SKZauzNSRoei1t17EWmBruzEoLgO9WJ1CdKCtPCiobFOLPPiLy3mNafDVbKybVxEU+lOpSlMt3gpbbPUIJbNeO58/vGC12ed9nc+QuFHPGrQDmDvocwtjZL1P0ASE9+gbnX0jQfGqtLDDHR0uZc70nOJJNNMysvftvY6YQMpRvedT1jp8SoXrySseZ/dxbT3OQlRTSWoxAhCYQDATQmoBApoKAgBBTohARQpUQgOUICAgKSCSSAmhIBMICYQDapJBSCAApBIKQQApNiriHGOQfwE/BIrJXjerhahLG40Z3aZ4SKEHLxK9Rg5XtwIvYrrVHQ1HyV03ZexYczloV6iPG3qq602JzcwMvH2qmMlJWZdOMovNE3DHQ2ljQXBrshiNOG5XsOzNmEYLXd7WpNchlnTxXyWG0PZvPT50XdHflob3Q800oo9E1sz2sQn7SPoV9362CLsYj3hlU55bs1nrkqQ57sy4kk896p4LNNLhe4Oo44anQ8VpbDBgYAvcIqK0Kqk3N3Z7EIUyEl6ueBUTCYQoA0k0ICKAE0IAQmhAFEJIQHKE0gmpIAJoCaEgEwgBMIBhMJKYCAYU1yWy2siHeOZ0A1KobfeEkxwDus3gakcyrqdGdTZHiU1EsbdfMP2eI0Jwl4HdHHPeOYVHeN2Phfhdnva4aPadHAqYjHDIe4K3ux7JYhZJnAUP9XkP92459m4+qd3lwWqdF4V+kWsfzd39S6cVy14E0pRrr0bspflfP+l9eD4PTiVtzyhrwHaHyW6slxseK0yKwNrsr4nlj24XNNCFp9ktpOyIimPcOTXH9zkeXPcqMdgHJelo680uPG6+nu5O3DYnK/R1NPl3MtLRstGHVLAfBTsdxWR3clhFWnIioryK1bXtcPyoarwkY0Z0XDzvmdLInwKHaN0UfYwtAbixFoAoKNoKe1VJXB+0Kd4tkdMgyMUO7ETiPsAXTZJxIwOG8Z8jvXUhT+5jNcbp9TmVX940z1QmheTyCE0IBITRRAJCaEBEoUkkAITohAcYTCEwpIAJoCYCEgpBIKQQAFw3hegZVrKF3sb14nkue+7ywDs2ekdTwCp4WV1WzD4bPrIpqVLaI9BVxLnGpJzJ3r0IoF7xQolhPz4/muvGnlRlbucx0pxyTla3C7FShoAN56JvZWnX4ZrntLTSpOZPkOCl7BanmLe4vwzOLjkA5xqSAKAEr2LOC47VZ8R04LqscjmjC5gfzxEEezNUU1Kn6iV1wtbTu4ItlaWreveajZfaY2f6qarotx1MXTiOS3lmlbIGuYQ4HMEZgr5HI15HcaAeBOKvMaK3uK23lZQCyMPjdR+HLfnlnkVy+1MFTup3UJS56J/R/tnQwFecrwinJLkrtf+F3f13m1TTRAd4MYWcnNL8PnQg8iVl7vtDmVFaZ5g8d4K+hXFa2SVnMTmSkAFppkA5x9IHOuLwoqPbi5Qw/TIso3n6zd2b+J4A+/qsvZmIVOtLD1Gmp2a42a3XildWfmau0KEpUo1UmnHR6WuufPTvS+GtUy826OBB5ZhdcU7XaOB5b/JUBjcc6U9leiURdi3g+OoXYngKUtYu1/FHGVaS0aNKhVtkvDc/zVkFzK1CdJ2kaIzUldDQUIVR6EhCaACkmkUAkIqhAcqYSQFJBIKQUQphCQXhbrU2JhcegHrE6BdCyd4W0yyF9e4wEN91fH8ldRp55dx5nKyOeaQvkJPyV2xBcd2R4n8gKld7dQea7dGOlzFI7YnV+dVJw3LyiPeLTlvHnQ/BSny73A0PQ7/ngtPArZ4zx0Hu5rgmcaUP/ACrOcEtHX2jd7SuZ0WIU3qufIsijmYuizg1z814xMIK64G0IP6he6UXcqrTVj2Jp86hafZ69Wmkb865MP3vVPXcstKfL3LjZI4Oq05qvtDD08TSdGa325p8GvLvTZZ2dXqYeoqsH171xXzT4M1E20ToGCje0fIS4D0AG1oK0B8hwXrY9pJbRDNFLEwMe0NObzgNfT4V8BoFQW9mKjjocXgcbnfzD2L3uq1vs5LmgHE1zSCMnA5Z8xr4Lk4HsygqcamTNLfdrXfw5bfQ6nafaVd1JQz2j0W3+jovCzBgaOzID21a6npimbgsi8FkwPAgrYWOxW2UMla1oZHicwuNBRvedSuoNaeKz9/XfLHITKzA6tcI3Amq6lWsqksl02uT7+XS199fA5FGk4Ru07Pn9TpJzqOKubutGIYTqNOioY30rXfh8KhdFmnwSNO6pr0wmpXnEU1UpNe7qW05ZZGiQhC+dNwkwkmEAJFNIoBIQhAciYSTapBIKYUQpIDnvJ5bC8jXCQOpyHvWNnOEYBpv50y99fILW3zXsjTe5vv8Ak+Cxsrq1PPLoNFuwq9S/eU1NXYtblZ3Hu8F7E93pQ+RSuttIOpJTl9E9CuvBWguhle7Pa0mjmnnhPR2XvououFM9+R8f1VdbzWLF90O8RQroElejh5VFR8V7T1ZHA9pWVYANc6jgRSnVcwdni8+q9WvqBxGvuK8tDTcVD5npbHVZwwPbIW9o0EYo6lpe0ajENDmvqNj2KscjHzQxh0c1na+AOe6sMtD3Sa51JGtcwV8xihLd2VMjx0yIWsse1kkUVnj7QNbGHMdhZ32gEOYa6OqWt9vFRWpVMqcHZ+Py6FHpYOTzK5c2C6bBaBHM+yRsE9I2ASPGGUtcCKbi2RhG/J7TuXy2WxSx0dJG5oJc0EggOcw4XgHQ0IoVrbZtM6VkRcWNfE99oaGxUDZ8QLR+B2dRxGq5tpdpjbY8MhY3BIHxNZHhxdoPrMThvBJz30VEc8Zd3V6GhWynBHGCM94aRrvjaCK6atcueLIAHzXtZPshXWh36YHE5D/yDyUHUIp5LV2fHLS14OS/uZT2nLNV7mov+1G3u67RNIIC/A2OMGtHCgaG1FCRiNSG13gLw2juLIWdzsbXgmF7WsxdoS3UOII4EV/ermns/eLsEdoYHOdE3s5WkNwNY0NaK0FSCCeJGu4Bdl6Xu20mFkcZaB3u88Zlzg0hzgO4O517wXAfpIuzslG9+akuPz6e823je642tyaf796Pm/0c0NRmGio5g0USAHmuga7+IAfmtFaQx75ng8S3XStaVOqz1qFZS3jh8qf8+a+gS+7jJ8TA5feuPL6mhj9EdApKELqtBU18tOOWTXJvzOqndCTQlVeSRpFCEAkIQgORMJKTVIJBSSCaArdoJCIwG1JNaAZkkimQHUrONuydxa0ROFTG0VBH2pIYc9xoc+S3JkliaJ4z3Q5wkyFQxkT3nPUA+0hqz9rvtrZ2us7y44JWOdhc1rg9znM7rtXNJqTQZ0W6i24pJFUlZ3LCS5nRWdsrZGSR1wlzT6LznhI1yGEk6DEBVVDx3D4q7+ns+hts4jLXBzSXB3deAH5lvrd4CtaENblkqZwycuzFStZmM8HurB/hI8qqNlkrE38NK8HNOXwSizjc3gT7QvCwzAMDDvx0PAjMe8rxmSavy+ZNtOn0Z32SWp8/aSV1yNy5H2HeOaq7rJwh2uavXAOHXjx+fgr8Os0dSjESy2SJ2eTugfkvC0OrXjw4rwZIAfZ0WmufY22W2PtoGtDKkBzngYqa0GZ8VZVqxjG7diqjBueqMuxQEea+hwfsrthNXzQDoZD/ACrO7Q7OT2O0tgcO0c5oc3sw92IZ6ClcsJWSFalOWVSN01KMbldA6jCAd411GIUP+kLlkkI3Z6EbirW33TaY+++zyNbQhxcyQAAkUJNMs1VMs0jpBG1jnPOjQ1xccq6DM5ZrQ8sE8r43+CM0G6sk5cFb4v6k7LbHxPEkZoR0NRwI0cORVpLtFaHtw91pcCHOYMLnEuDiSRxoPLmqr6LII+1wO7MuLcdDhxAVLa8ablYRXJaCzGIX4cDZa0yMbnYWu51OSyzo0qkk5pNrn3GrO4KyIsPcIGtCq6vfL+QA8h8+CvL5u6ayO7OZmFxaHAVBqDlqOh8Qs81/ePWgWmUk0lF3Rlpp3cnuX1iPcC6Fy3d6HifeupfNYlWrS6s6kPZQkkwFZ2e74jAXve4SVIawU13YgRXNZnJLcthBzdkVadF2PuuXUNxdNVwyHCCSNNyKSewlCUXZolRC86H1x5Jrz6WPM0fZKvI5lIKKkFaZSYTUQpBAZu/Lxl+thDyIy9vcGhIaKk8dBkqiwNq8fPzoum+3fWkcyfavK7HBr6uB8ASuvTSjlT02Mzu07F/uXmBmeYUw+oqF5vO/h7l0+hmOWzijnNPzuVRaKtaRwkPtBV1I2kleIVRbRVzvx1/h/VZcQvUsuhZT3LK7WfVg7/eriCSrNaEZhVd2/Z0XTZpc8LtPnyW2k1GK6GKqnOT6nnaT3q0pXd8F9n/ZLM592Oa00c2SRra6AkNcOubl8bmZq3hovqn7E5v6vaGcJWn/ADMp/KsGOu4eJvopLYp7Redq7QySTSdrGSRnkHNObcAyplSi1t5Wpkl43ba4nVbI2WLENAS05dQXaHgqnbO7HMtmKNhPa99oaCSXaOAA1zz8V2RXXLDYmzStLTDa47Q1p1ZHVrX1ppXMrNHLJxfO696a8zoYxRdJTj3eaPGz39a4rMLTeDhLBJN2DxRlWtIe17qNAFA5gy4E8ly2XZ8WO+LFLHJjimMvZnXC0QuDW13jCRQ8AuXaq4xZ4bZI+2xlkpLooGuqS507Xg4a0qG4hkN5Suraaxsguwvkq+zPkEjRXExvZvYCRvFSxWS1u6e0rppLTbTTmttDnQVks26568fmc95NH9E2lu6K83gdDUfzLuvS/fov0SPCCx9lsZed7WRymQ0G+oBCqtnb0sk8VqsttkdC2af6Sx4zwuJzYcjy9q8r7vyyut8MgZ2lmhbHEAR9oxgIJofxEjor6dN3tNPS7+CtrtqymrU09V8vnfToeG37pBaGkzdtE9pfC/8A7cj3Op4HEFjY5M681oNr7wsz5I47JiMMMeBpdWriXOe4550q6ngszZnE5AZnzPQL1Tfqr9/vn4ljVjSXW/LD4+O9dy47Bdk4jEro3NbUCrhTPPKhzXauRjsjq5otO+9uZqpXUbNDglLHBzQCRpXRdVjvBrpP6y3N2WM5jXIA7guaJsrnBkVMTyG5mmXCu5d7bLC1rop24HtAyBGfNp0IXMq24nRoZsunuLaWN0IHYPxNP9281y+4/UdDXwXLNdLbXE4VLX6HTE07uu5cNnZJZnNc4l0JOu+KuhP3StKYsJE0WeVCK0xD50WfZ6GparUzX/561+tH5OQtX/SDfUd5IUXPV5HzhMJJhdE45IKQUQpBAZmWxObKRIQXHvHlXOnhVWDbsJFQF4zPxWh53Yj7MlqLsAyWSrN3ub6MFaxlpLJLFmWmiGPDhUeI4cV9Ls0bSKFoPVeF47KWeUFzPqn+s30T+Ju9bcD2k6Lyz9ny6fQpxOCVTWO586kGh4LPzTF79AKHdv5nyC0V/wBkfZi6OQUO7g4HQg8FnYmZrsVaynOMYO6av15HNjTcYuUlrexc2fusGXyP0p5pCSp+clP90AfJp+i5XDNapSskiiMFuWAOQPBaHY3at13PkIiEjZA2oxFpaW1oQaH1ju4LN2YlXuzNmY+Use0HKoqGmlHNBArpqvNa3onKSukm/cWwV5qKeraXvNlJ+1OVzax2WNv4nudTyAVdav2h22Zjo3RxNY9pY4hjzUEUNC5xHFeNvjbFJFhAaBI0VGFpAeCDoB6pNVZ3lYBJHTM1zpica/5ic+B48iVgljsHRp0qrp6VOPK1t9e/zLo9nYmtUq0lPWnw53votO4wVqsTwe6x2F57hANHE7gd55Lx/o+YOrhA6vjGfDNy0bGEWdwdTFBLHIHUoXRl1K+FH5biSFb2+9uykZDhFHBuEhuWeQBNeO+mVdFdicXVU8tKGZ6/mtorPv3TuicPhqeS9SeVK20b736bW1ZjLTYpGML3MIGQzI1OmVa01z0XjBY5ZYy9gbhrvO/lyWz2nha+yYmcWkAb8RHlWvn1XBYAImdgCM2nqcqNpwJNT5qmp2vfDRqRWsr6clHWV/A9U+yMuJlTk9I2175aRt1bMUwguaDvI8l9F2cZDGz6uNrTxAFT46r5s/uyEeq4jyOS1Fx3huqsXasm8qW2pdgLavobG1SY4ZGcqjwzWbVjZLXV9OOS4HsoSOBosNB+rYuxUfWTPJ7csjQ7jwKtobPDa4A2RxZNHk1w/dNOG9pyVbRc9oOCkoNC3P8AEOC9zhm1R4o1Mrs9maa4rUXY7LO0CRgo4HNsrHaPbXVp/NWNiYYD2dKx6sJJOGurD03HguCyyR2iNkrMpGg4H78/SY7i0008VZWW1g1bJRpAOvzmFjaOgj27RnqjzKFWfS7J/wBQeaFFhcxaYQhdI5AwvQajqkhGCgb9s78R961V16eCELDVOnRNFY9ythohCqLT5v8AtO1j/wASxsPpeKELt9n8Oj/yZysXs+q8i1k0HQfFc8qELt1NjnROmwekOoWm2b/tfn7ghC9z/hpdH5M8x/iI+H+R3bX6j8UX+8tTatB1PvQhfH43+W4f/sfU4X+ZV/DyRnrx9G0fgd7wubaX7ez9W/8A1YhC7PZ/tUOn6Dl9o/h1+v6yxtX9k/8AT/qaqGb+1t8f9tNC5FH8FdK36TrYj8d/8qPnIxt5fbSfiPxVhdOqaFsx/wCXocjCfm6mjsP2jeq6LV6bupQhYqHE0YrgeK471+z8QmhaWZoe0iz2I9H/ABFWW1n2R+eKaFifteJ0V7C6GSQhC0GQ/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUTEhIWFRUXFRcWFxcVFRUXFRcVFhgXFxUVFRUYHSggGholGxUVITEhJSkrLi4vFx8zODMsNygtLisBCgoKDg0OGhAQGi0dHSUtLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcBAgj/xAA/EAABAwEECAQDBwIFBQEAAAABAAIRAwQSITEFBkFRYXGBkRMiMqGxwdEHQlJicuHwI4IUFTNTokOSssLxZP/EABsBAAMBAQEBAQAAAAAAAAAAAAACAwQBBQYH/8QAMxEAAgIBAgMGBQMDBQAAAAAAAAECEQMhMQQSQRNRYXGB8AUiMpGhQpKxBsHhFIKDstH/2gAMAwEAAhEDEQA/AO4oiIAIiIAIiIAIiIAItG26UpUfW8T+EYu7BQFs1qccKTA0b3YntkPdK5pbnVFstq1qtupM9VRo5uCodp0jWqeuo48JgdhgtRTeXuQ/Zl7qawWYf9SeTXH3iFhOs1n/ADn+36lUolfNSu1olzgBvJACXtWd5EXcaz0Pz/8Ab+6ys1is5++Rza76Ln9mtlOp/p1GvxjyuBx3YbVnR2rDkR0SjpGk/wBNRp/uE9ltrmC2LPbqtP0VHN4AmO2SZZe9HOzOjoqhZNaKjcKjQ8bx5T9FPWHTFGtgHQ78LsD039FRTTFcWiRRETChERABERABERABERABERABERABEULprTjaEtZDqm7Y39X0XG6VnUm9iQt1tp0W3nujcNp5DaqrpLWOpUwp+Rv/ACPM7OiiLTaH1XFz3XjvPwG4LEoSyN7FVBLc9JnNeIqZrnrO9jjZ7O66RhVqg4tP+2z8287JgYzCJWM3RY9J6bs9mwrVmtdE3cXPj9DZKpWldf6r5FnYKY/FUAc+OXpHuqo5h2DPEmcSd7icysBeCYn9lRQSJttm3aLfUrG9Vqve7fu+XZY22kficepE88V8PcBjjz2LyQR8/mE5wyXtrXGeBgjqt5ms9rZeIrvkxN6HTGTsRnslRhqd/igAMT/D/wDVygLxq1r2XP8ADtMeY+R4EAH8LxOA3HvvVnsWstnrPNOm+XAXjOENmDM7QY6EFccZhhuWxZbQ6k8PbmMuIyIPDMJXBHU2juaKv6B03VtDWu/wz20jh4l5hGGGDJvESIkBWJSaKEpo7TtWjgTfbuOY5OVr0fpKnXEsOO1p9Q6KgL6pVC0hzSQRkRmnjkaFcUzpSKv6F0+KkMqwHZB2x3PcVYFoTTVok00ERF04EREAEREAEREAERQesWl/BbcYf6jhn+Eb+e5cbS1Z1KzDrBpzw5p0j58nO/DwH5vgqkTOaEos0pORZKjxeovitUDWuccmtc48mguPsEoxCa06wCyMusINdw8jcy0Gf6jhsGcbyuYGoGwPniZzcTxWa3Wp1Wo6q8yXuLjyi6GzugRyCwgNxcRwCtGNIk9T5tF0xJ6DElYhRbxGOUY9l9VHDEkfVatSsTEHLuP2TAZg3OCDHY8IXxSGGWBBjgdyxh+JX0amEdQg4fdM4Gdn8wXjDnJ3HutVzivJK6cN17ZPZfIfEgrXbVIhfD34ygDo32aaSLm1aM+l18DE4OwMDZiNm9X9q4xqNbPCtlMzAdLDlkRIz4gLs7VGa1KR2PpERIMFY9AaciKdU4ZNeTlwcfmq4vV2MmtjjVnS0Vb1b0veilUOP3Cdo/CeKsi1RkmrItUwiIunAiIgAiIgDS0rbm0KZec8mje7YFQK9Zz3FzjJJklSWsOkfGqkA+RmDeJ2u/m5RSzZJWy0FSPEXqJBworWm2+BZKz4klhY39VQXATwF6eilVV/tFrRZLm19Ro6Nl5+AXY7nHsc7Y4ERuA7j/78V8F0EDhKwGrdjjP89l9+L7iFcmtTAKbqhw39FNaO1eLvMclsavaOv5Dqr9YbCLoEDqFjy5pbRPRw4Ipc0ijVNW5yCwv1aMYBdFq2S6sRohZ+3mupo7HG+hRbPquB6pWw/V9gGDVbxRCxOs648s29xlihFbFHq6FaNihNLWC5iMl0K22eFWtPWbyHhir48r5lZnzYIuDpFY0faTRqNqNza4OHTYu8aNtIrUqdQZOaHCdxXBSzFdo1Kqh1hs8GYphpE4hzZBHda8neebDuJtERSHCIiAPWmDIzV40FpHx6ePrbg75O6qjLc0VbTQqB2zJw3tOf1TwlTFkrR0BF8McCARiDiOS+1pIhERABRWsVt8KiYPmd5R1zPZSqpOtVrv1royYI6nF3yHRJN0hoq2QyIizFwiIgAqv9o9MGyXtrarI/ulpVoVY+0ZhNjwyFWmT3IHx9l2O5yWxzIsBAvbDj1WxYrKKpuszERPz6LRtT4EK3ataJFJoe71OE8h9U2afJGx+GxPJPw6lh1esIpUwzPASd5U7SEZKEqW+nQAvGCe/ZbNi09QnzVGjnM/QLAoyfQ9GU4LSyTqknErDmthmmbNUHlqM5XhOGeErXp1AcQRCScGtx4ZItaHxCXl9FwDZWBumbK3B9VoM5TiiMG9gnOKWpp2rzHEKH0rZpBG9Stt0tZ/u1Aek4dFFP0gyobuRzE5Hkqckt6E7SD0sodppkH2XVvs4tF6xNE+h728RjMe65zpulcqHDyvx5O2/zirf9lFR4Fob9yabhweQ4O9g3st7fNCzypR5JuJf0RFM6EREAEREAW7Va2X6Zpk4sy/Scu30U8qFoO1eFWadh8p5O/eD0V9WjG7RGa1CIioKY61QNaXHIAnsubVahc4uOZJJ5kyrxrJWuWd+90N7nH2lUVQyvWiuNaBERSKBEXqAChtc6F+xV/wArfEHOmQ75FTTRiql/mFS0tqjxC0S+m6nUa3wntMtLWkCRnEyClc1FpsfHilkujmTaV4gZyffZ8l0xlG60Ru2KlUtGvpWptJ4ggg8C3MH2XR7LSBbik4qSbjXmaODi4qV99fYrdazUaRl7iahmMJMbc56nJRGkRZroJeDOQDgI2gS1t3sVatKaFa4Xm+YziDk6Nh3jhko7WjR5tBY7xHMaSHPp4hoexoY2pTGw3REZYZoxTX6mNlxy/Skyt/5btEjccHNMZi8No3ZqyaCbaA2ASd33hG6MwtjSR/xdYVAwgua1jyXEl5aY8R5gAuu7d/ZTejKbaENA9MAnOSDi7HfuSZcn2Hx4ktapkDpMV3U5m6cuyqFosTnH1YxjkBxcXHILpOmqt4RGEn6queCyjWbULLzJL7pOBkOAaRBHlkET+6MOQMuJPpZXLDZad4tL/MM8XEDD9JClaNno1PKHEnMYtg8WkYZ7RK3NFUbloqV3V6hDjehxMvc2fD8QgGbs4QMcF7ZNH3nueQGySYGUn58lXJNdGTxYpJ/MkRGsdmIojbdcDj2Vj+y2yObTrVPuPc0DD7zAZx2iHjsVrabswfReNt0nqMR8E1Zs9x9kF43nmnEH0sPnc0cCMON5cx5PkrxFzYW533L+DoKIvVQyBERABeL1EAeLoOjbR4lJj9paJ5jA+65+rdqlVmkW/heexAPxlUxPUSa0J1ERaCRXtcqkU2N3vnsP3VRVn1zd/pD9R+CrCzZPqLQ+kL1ESDBEXqDoCrNkZ4Bqhwyc8OacQ5r7oHQ+bsrOofT9lvNwwvNLSdgIILSeGEdFLNG42aOFnUuXvKfb7RfrUX3TDXvphxxkFt4CehVrsQvABQGkajDZadNzblWlUNT9QJAJGyLoInkpTRdpynZh9FCdUq9+7NqVSkvfvQsVGwyJBhattoAZgOPJb1jtYjJa1prbVzoCuzXsdlBMnslSAeq+adtiRmYP8K8p03OzbmcOaWWqGW+pr28g55StdtlDmkjMHbtUxpCxT4rQMaYk8hAJ91CUK1yZyXYqgk72PqyWbGC0dlvmw4ZL4s9eQIW1XtQDUwrZWNKsuBx2QfgU0JZv61jDcQxmJ/QGAuPuvjTlXykRJMADfeIbHupzVCyFrXOdmPLyJN546eUJ4K6J5ZcsZPwr7lhXiItJ5oREQAREQAVi1Of5qjeAPYkfNV1TmqTv6xG9h9iE0PqRyWxb0RFqIFW10GNLk/8A9VWVatc2+WmeLh7D6KqrNk+otDY9RESDBEXqAPVgtlG+wgZ5jmNnXEdVmX0g6m07RWdKUWvpFrnNDQ10SQDeg4c52KH0XVloO8e6vfhNvXrrS7eWgnuQqKWtpV6tIYAVHFo/KcQP5uWaWPlib8efnltRYLNVwX3UcYjbvWnQcIkFfVa1hoKgu4u3RkslGAXE47FG0n2kVS+paWNpg/6ZYbwAyLHjbzWOppS8MwMel3f2WnWqsflULt11joHWBvVlHvJuTexuWzS76l5rXQ4jNxN1x3OjGNvRYNGeL5m1nMfjgWAgdAcVoGkxsSchsa4919U7Q0CA/Hnl3/mKblSRzmaZN2O80kHLYs9pq4QoWhpPYcYwnhl3W2K0qck0PCXMadobfqNEEgG866CSA3GYHGFdNBMcKIvDEucdxIMQSOP0UHqswutD3j7jI61MM+TSrYr446JmPiMltx97HiIiqZgiIgAi9XiACmtU/wDXP6D8WqGU7qg3+o87mfE/smh9SOS2LaiItRAhNbaU0J/C4HocPmFS10PS1DxKNRu9pjmMR7gLnqz5VqVg9AiIpjheoiAC9REAeqi6xtu2h7xscAeV1pHuT3V6aJyEqp6apg2iq07bv/g1TybF+G+v0NexWoEJb8R5cTChg00XXSTB9J+R4qRouJ2rO1Ts3LVUaLdBx56jnPkYi9AneAMlnGjKJAuWl7HTBpuF0jcQTg4Z8o4raqXxyWnUsdSrNxxHEgEe6osje5yMVHZD/Jf/ANWBMZtByz5LTtOjKQdcbVNXDFwMtaccJESfqvk6Mr7ajTG5o+iyUWObhinc621CT5ulGOz2HwiIcSI2knqpB1oDRyWB4wxWlafOC3YPUeG4cVPWT1OKorQ6BqtY/CoAmb1Q+I6dkgBo7Ad1Lr7qjzHmV8LSea3eoReog4EREAF4vUQB4rRqfT8tR3EN7CT8Qqyrpq5QuUG73S49cvYBUxq5CzehKoiLQRC57pazeFWe3ZeJH6TiP5wXQlWtb7HIbVGzyu5H0n4jqp5FpY8HqVZer1eLOVC9Xi9QAQL1aemLV4VF7p8xBa39ThAPTPogWUlGLk+hSdfdYHhpp03FrTgLpIkj1Exs4LS1WP8AQYdvm/8AIrHrVYjVpyz1NJcOIyI9wvrVhw8FkYwIPMEyoy1x31s9KMl2ihH6VCDXjzRjJvzt+iSWxLWymHiDiCMoxHFQptJovuvOBydv7Keqe3DZuUbb7MHNIOI5TiMiOnzSQa2Y2RPoSFh0g12BwMbV82q04ENwncqrWs9WmfK4ngTiOC1KmkKrZBkJ+xvVMl27W6LO+vEQVmdbGNGJxyVNFuqbAeeK2KVKrUiTA903YVuw/wBQ3siStNtc911m7HcOK22UA1kb8+qxWWzinAbj8zGZP8hbVR2SSTS0RSCd2yQ1V16dWNy0QfzgQ4by6MHDoDzV8XCdXGlto/STPSV2XVyuH2anjJZepnePDcWtn+0N6Qry0k0eeo/KpXva9VV/iSr+dCRREQcCIiACIiAMlnol7msGbiB3XQ6bA0ADIAAcgqtqpZL1Q1Dk0QP1H6Ce6tiviWlkpvUIiKogWC12cVGOY7Jwj91nRAHNrRQNN7mOzaYKxq2a06OvDxWjFuDuLd/RVVZZR5XReLtHi9Xk+2e4cSdihtIawsZ5aQD3bzNwcsi72HFTlJR3NHD8Ll4iXLjjf8LzeyJC3W5tLDN0FwaNw+847Bs4qpaQtL6jpc6TgY2AOHpA2AZdMZK8o2o1SahJN4uJOWMtOA3YRG5atd0OjcB3AhJjm5S995n+OcNLh8XJv8yTffcFJeluX7L3Pqq2Wcbvxw+IUJZXf4e0OacKdR8jg8ifeFP0RM8SB2x+qwaS0cKzHMP3sQdxB8pHPAJXSbT2v+df7Grg59pgwyi94Rj/ALsTljr1WTH6JvozcasVaiHbOPVRGr+kSZpVPWw3e2CnoUpJxdM3RamrRF1rNHBR9ejvE9IVic7DfzWnVYNy6p0ceNEIylsgLbo2c8lu+GBkBzX0GJuc52aMDWRksNvrCkwuOzLidi3akNEnJQbWG2Vd1Jhw4uyA7yeQ4ojrq9jktPf59DzV6zEU77szeI7YfBWXQ2k3WZ8gXmua0vblPlGIOxwkxzg8NWrTA8oygD3vD4rFV9R3Z9P4VSEuebfve/7nn/E28HDRrfmh91BxkvRwX7kvE6JYrfSriab5wktIh4G8tPxEjithc8o1C0BwJa5uIgwb2OR5D3U7YdaDN2uzCYvMEGPzNOB6RyR2lOpGjDwc+IxLLhV6JuPVXa079YyXf8r0qizIsVltTKrb1N4eNsZjg5pxaeayqpklFxbi1TXQL1rSSAMSTA5nJeKw6r6PvHxXDAYN4naei6lboVulZO6LsYo0ms25ni45/wA4LcRFrqiAREQAREQB4RK55rdTFh84a5zXHygYAH8Ln5NHcncuiLT0lYKdopupVG3mOEEfAg7CDiCkyR5o6blsE4RyJ5Fcb1S00OEaQ0pUrep11o+6MGjiRtPE+yr+krbAutzOZ4K2a6auVbES2LzXTcfkLu47iJEql2SzNc8eI7hcGJ9ti8unbvc+5eXDjwx7NxjBrR6JJdX5/n1JWwUixjGzmyY2Az8MwstsJIa8czPCP2K2nskbQccMMwIAXz4V6RneMdW5/PuEyuEk377z57i8mD4riyLB0agn3vfFLXZOfNj/AOS+hgbbKbQHue1rcpcQPjtWRmmbM7AVqc5eqMN2OeJ6KjawVQ6rda6QwRIMiTnCioWt4FPVngcDOWDFy7pyUqelaOMkq25oPll1WjVNKrzpqxF7vHoEOdEkNIJcNjhG2FIaJ0iHiHYOGYOfVUnRzHsIeMiQM4EnIE7J2FXN1VlQMBbcqQQ1xnAjYST5hzy2FZs0ORJb+J9B8PceK5kmlNatd/e/v9rSrZuSe2VhdTWKz1nZOaQdyzsIOxZ9izjTpny2kvHtgLZc2BK0LbZnvwJuN4etx2BrfmUIbHhnkdQVkZaXvtDvDp+mYe7YJ2c+CmLHYmUmBrThnJ2xEk8SYd2WO0VqNjY0ON1gvEE4kuOeP4ovDqsbdMUKshjwSchlAMyMc8zn+LgrfM1cVp79+VkuIjjhPsZ6utV38ydpecOaKvXncHs9Pp2Lg7eZ7ZdiPdYAPYR2WzgJInGI6ET8G9yvGMVcK3+x858d4jm7OLdt802+j5moprwkoc68Jpn3ZmST+oD3BWK0U4PWO0j5Lds4Ann9FFaw2hzGAs9XiNI6OJP/ABwUsiubXivyj3/6ey8nDwm9uzm/25pV/wBpUbVnrOY4Oa4tI+8CWuHUfBWCwaykQKrZH4mgB3VuTukclX7I/wAUCRDiJEZTuKkdCaIq2uqKVMY5vcfS0bSeGPVTjKSdI+l4rhsGaF5kqS+ral333fgvmgaTbW7+m8OaPWRm3gWnEE8VfqNIMaGtEACAOCj9A6Hp2OkKVMcS4+pztrj9NilF6uODitdz4HO4Ob7O+Xpe9eIREVCQREQAREQAREQBpaV0dStNN1Kq2809wdjmnYRvXBNbdSrRo6uXYvoOMMqDLH7tQD0u9js3D9ELFXoNqNLHtDmkQWuAII3EFK42TyY1LzPzno61EEA5jKcQY2EKM07Qqulge664SWzmNxO1dU1p+zm7NWyCRmaX3h+h23kceapdrs/nbeBBDbr2kEEEZEg9eSzuPK7Z57nlwXC2lLddHW3n67FAp6DqOMAKys1UbUoggQ8Dv+6mH2eMR0Kk9HuBEjqNx2rspsSfEzlXQpejqBs77lVvldhiPKZwIM4d8FYKVlui7dvU+OJbEwDObd04jLHAqZtthZUEOEg8FHUNGOpyG1oAwDXAkFv4ZBn4qeRc8aNPA/EJ8LxEc8d1uu9dV4WvzRqvZUZ6Rfb+E5x+V31WGg8vP9MEbxUEXd/mGGG7PmpSo14IBAByiZzMmFgtFspU7wvtkSXNDmtdewwgxeeZyGOByhYYxk9ErZ+lcXn4Ps45Ms0ov6Xe/XTqZX1AwST1+i06VovTUODW5OO08PdfdGo6rkxrRBMvlxG7yxjPNfFvoOIul/lkGGtDZjLad2SpHBJvXQ8nP/UvBYIOOBOT6aNL1b/8sgdcbR44psZN1pc4yIlxAAjgAP8AkVBUtCOLQ6YnJXkaFYXYiRxWy+yNbkMlthLliorofF8R8RnmySyS3bt+/ehW9DaPrek1SGtBOABM5HNZwLTBMsI2SCDgrBoqztLHmMZI9gsD6JDclxtWZ3xM5PWn5pP+U/IgKdS2EmHMwg4gwACBlOKx6T8R3qyB6Y4z3U5ZG+cDeCPn8lbdWvs5qWiH2maVKZuRFR4/9BxOPDahRuWiNWPi88k8a1TSXom3XgubWtNSB1G0BVtj4aCGhovPPpbOQ4mAcF2rQuh6dkphlMcXOMXnHeSPhsWxo7R1KzU20qLAxjcg0e53niVuK8Mai+bqboZMqx9nKbcW7pvS/wDAREVBQiIgAiIgAiIgAiIgAiIgAojTGr9ntWNRnnAgPbg8ddo4GVLohpPc44qSp6o5jprUavTl1GKjdwwd1bl2PRVEB1CpD2lpyIIII3YFd8WrbrBSri7VptePzAHsdik8S6GOfBxf0ujj18kYqPtANRwaOZXULXqNZ3D+m59PgDeb2dj7qAtf2f2hoeaVSm9xGF6WfIqfZyMr4XLHpfkUypbi5tWs3/pghgH+4Ya3t5jzAWkdCtYWT5nNaBjvAF88yZVmsGo9sp0WtdRl3i33XXsIwulv3sfMXFZ6urlqkzZ3dBPwUoQaWxv+KZp5MsYRtxhCEFV1pFX+b/BXalldSlzCSG+phx8hnzN4iMl81YcJBzVmZoC1XmHwKnpc0yOIiZ5LDS1Ltt6BQN2cJqUwOxdKen3Hm8k3+l/Zmk1kNB3gH2WpXCu1l1ItDmtD3sZgAYJcfgpKy6gUBjVqPfwEMb7Y+66scu4aPC5X0rzOdaKbNN4Akl+AGeQyVg0ZqZaa8FwFJm9/qjgzPvC6Po7RVCziKNJrOIGJ5k4rfVFh1tmqHBL9TvyK7oDVGy2M3msv1P8Acfif7Rk3pirEiKqSWxtjFRVJUERF06EREAEREAEREAEREAEREAEREAEREAEREAEREAEREHQiIg4EREAEREAEREAEREAEREAEREAEREAf/9k=</t>
         </is>
       </c>
     </row>
@@ -2774,25 +2790,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mukesh Kumar</t>
+          <t>Taskin Ahmed</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2801,88 +2817,88 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>66.7</v>
+        <v>54.2</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG19" t="n">
         <v>4</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
@@ -2891,7 +2907,7 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTExMVFRUXFxcVFRUXFxUVFRUVFxUWGBUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLS0tLf/AABEIAKgBKwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAQIDBQYABwj/xABBEAABAwIEAggEBAQDCAMAAAABAAIRAwQFEiExQVEGEyJhcYGR8DJSobEUQsHRFSNy4Qdi8RYzQ4KSorLCU1Rz/8QAGgEAAgMBAQAAAAAAAAAAAAAAAQQAAgMFBv/EADURAAEEAAQCCAUDBAMAAAAAAAEAAgMRBBIhMUFRBRMiYXGBofAUMrHB0UKR4SMzUvEVNLL/2gAMAwEAAhEDEQA/ALQNUrKK4NUzTC9A4lcJtXquoWc7qGvQymEW2unmoCs8zgbK1ysI0VblXGkUaQFLSI81YyFUEY4lVooHdG2OHOcZOgVgaAMADVH0mwIS8mI00TEeHF2VHQssuqMa5QF8Jj6pSZJO6bAARhpygqlwGuhOZWKGvBIlWY2zRVXHTRFtuJhE/igs/bPOs8kO27crjD24rN04ACuMUrNc0jis662KIdWJK4VoTkbCwUEpJI151QxpFJlTBjbXuLKVKpWI3NNstHi79dlz78NaXVaVSnAmS0uEc5bMecK3Wt2KBgdVgJ2VNLELbY3b1HZQS3kXCAe4Gd/FWhpq+YHZULC3dCFqZlRJYmZEVRQlq7Kp8qaWI2ooC1JlU+RJlQtRH0bQOAJUF3h4GyjbWcOKR1Zx4rLI8G7W5kYRsoTSjgn0GAlcXlMEqxBVA4AoqpdHYIV1YpQ5NIQDQFZ0hPFRkLmhPyp7Wq6zTqTVOUxpXAKi0tK0J+RcAllRWRBtnciozTPJeXUcav2bVnfdG0+mWIN3Id4hJjGg8FscKOBXozaJOyaWrz6r/iBdcWBvhxRtr0/plsVaTp4kKDGGzppwROF0FHXitkSAiKLwOCxzOlFm/d9RviFZYfjdt/8AYHdKo3GF7qc2hzu0Ph3NFgrX29YzKMNSVn7W+ok9msw+asHOdwIPmFZ7Wk9khXa8gdoI8kIaq+EGbh2yY6sSrMhQfMArC0rSdVYdWzdZ8VCnC4dxKs6AnUKrZwN1a3dFp7Q3iFnXU4V5bXIMDkqvpLeNpUalYDNkY50DjlEwhA4scQVJmh7QQoIWN6R4t1jzSY7sN+KPzOG+vILI4j0xu6pP83IPlYMo9d/qqYYhU4Od6oyYptUFaHClpty9p6OdKLelQYwEU3NjMHNJa8yM75YDMid4ILePEnGenFJzCKbc1QtgmC2m0kGTBMnciOPOF4k3EK4/OfOD9wpmYzWHEHxA/SEl/SJ1TtOWgcIPvkEdhnSKpRcAXFzPlOun+U8FlRjc6Pb5g6+hStex0FriSPynQnw5poS/4rJ0YOhXs1vUFRjXt+FwDh4FOyor/DZ4ucJYIBfTc+lPHsulv/a5qmq4a8cFvHOHDXRIyQlp01VeWpmVEFiaWre0uoS1NLVPC4UyUb5qUoC1MyowNjQhMcxDMjlUHUnkmZFYirpCGLVUOPFWLQBooMiTIiCxNyo2gocicGqXKuDULRpRhqeGqQNVTiOOso1RTcCSdSRwCq5waLKu1hJoLR2GFuqguBAA5rv4W4IV+O2bafYrEmJiDqeWymo9IKbmh0xK50mLeD2dk/FhWEdpfPjL6pzKmbilQcUNXolhiZ8E0AxKWMY4hb2Ea7E3u0hL+OlA9oarmmVA0DZCgrMXTSIjXmlbkI1CFFAQCTCKs7LrDla4I5lMoRdvYyGua4gztMLd4XXYHBzy4ugDcwPJZnBrQPrspnYEBWt7dU6Nw9jQSQdB3qjnuDgQao66WsnailvKNQO1CkyqlwXHWvgPAYduSvw1dmGVr22FzXtIOqiyrsqlyrsq2tVpOsx2vIoerTBBBEgyCDsQd5RdsO0oy1ZNP9R3ktCOwPNePdNuhptndbRDnUXECNzTcTABPynSCfA8JpG4eWCDEr2rpJmFtVygE5Y12hxAd9CV5ViMEwGuce4gAeJK52La1jqC6eDc57bKqTZv4BMNm86AIuhWqsdq05eRyk+oR13cPa0EN1PITCSJINJ8NBFqmdhzuIQta0ewSQYVvbPcTL21D3tiB5BX1W3a+g8ToWxmjYH80dwMx3LRriFkY8w0Xo3+BbXCwrF+gNaQec0aRn6geS2DiNVUYExltb07enOVg3MZnE6uc6OJJRzKgO6Zo3ZSZIVbfUBMhB5FbV2NmUA9uqfifYpIyx62oBTR1pazxhDZVX3F/VbWaxpAaQZJ8EJ35WWpC0F1KyvLSDuloYWXiWuafMLMWtWoXv6xxdILY4brU4BYRLWkgFvMpE417aCcGEabKHurF9PcefBDZVaGzPWFheYA4mVYWeFM/MZTMeKBZbt0u/CkOobLOZVLQsXPIACvrzC2Bwc3RvJEMc0bIuxIrsqNw5vtKCh0bZxd6JK/RkflcjBWjZPpXR4JbrpOaY6mPalQ3WBVGAmJAWC6WYDWfVbUpsc4xBaBJjmvZ3XkCDCq7G4Buy3T4JHqo7EOc2ii2ANdYXihty0APDmuG4MgjyTco7/UrW/4mkfjNI+AbeJWWbVCQOpXUYQGDS1Unoafm9QuuehNRkdoaidv7r0AdIcMP/Ejz/uiquOYc+P523f/AHXU65nL0C4uWTu/cry9nQ2s74YPHihT0arDgPr+y9lw+6sXE5KsmCh2MsnbVvp/ZW6yP2P5QPWez/C8lq9HrgAS3Q6jVOtMMuKZzNYdPBex1rO0cGzXAgRwCfb4Xaw4NuBqI1I/dDrYuXorZZDx9V5x0bp1PxFMuaR2hOilx2tTN1VAHbDtl6FbYDTa8OFdpgzw/dY/pN0DrVbh1WhVZ2jMkkfYJDERh9hp4rVg2JVHUaWkTprx1Xo2AXIqUhzGi8xxPCL6jWbTrQTEgzoR4radF8UIb1RYA8Hbn5o4JphfqdDpssp22FrMq7Kn0xIBSli7FpRNot7QTS1SN3CdlWbf7jvJXPyDxP2VF0tJba1CP8g8i9srzyjatO8a816tilmKtGpTI+JpA8Y0PkYK8ZdeE03aQ4CCNjPEJHHA5gV0ujntAIR1K2Y92SmMzvIBaa66JEUGOa9r3ES5pIaG+BP6rzmi41GkZocNWtiO+QTv5KytKlbRtw6abNmHNDnA/mkcNPVIuY7mui2ZvJaro50cpXGZ3WMblMEZRnnlAP1lX9Ho/SpPABLvzE6cBJ0WOoX5qXLXUs1NxbqSxzG1GCYMEDv17lpuil46vXqAkxTYJPMucdPDslVbFJI7KOKtJPGxmc8Fqg1OkqYJSxehJANrzIuqUElMIRoo6TGipsRxF7HPa1o0bIJ5rN0rWttXbG5zqV9alsREqgxugOskDgobDEqhyuLw3mOZRWKPcakniNPRc6SbMaTzIyBapx+v6rX9Hvi/5Qsi79f1Wt6Ou7X/ACpeTcLduxT7oRWce5NNzoYOuwSXx/mv8FTYpftpDNxEGOcFMwNBYbS8ziHClqahqmmOsaAO4qLK1Ze76d9awN6ss21JCsMMvhVE8OaoxwOis7RWLqsLm3gUUtVfe4tTZIDZK0cKGqq05jorXri7mqm4JF4yJEsPcouj+M1TUyS0Bx5SQtBcW1Kq9rnO7QkAgR4pSSYDSk1Ewh1rB9JOj91WrF9OmXN5yP1VV/sfff8Awn1H7ra40arQ8UqzxljQHbmkpWtw4A/iamuu6qHCldxNr53uXtLiW6DgE0OTRTTgxP8AVFKZwr7o2QKhyn8hlANvXAnWNTt4onoy3+Y7/wDMqscNT4n7ph8Q6pg8UpG/+u/wb90X+LfPxujxKOt8QdmaA5w1E6n91UMCKomCDyQZhtbtbOmXqHRvEHtc0O+BwnMdSYQ+MXdWpXcyi5zJ1EDcJnRh5rOpAjQNMLXXWD03ODm1MrhGo3CEkeqya8gJtzhFO46gVgcwpDXmRCurbD6VMdlonnGvqnOytayTJDYlVtTpBSDi3XTjCqHsjHaNI5XPOgR9E6uHIqO+uGsYS4wOarH9IKQcTrEck2viVK5puZDoPMQi7FRhvzBT4aS9QpLWkGvYWOJBk7rhevYKjn8D2eXchcIw8U3syvL40Pcuxa/dTcfhc0OhwI1b3pT4gfOdPBaGE5cqT+N1WNGZgJO3gvP+mGEOo1DcNbFKq4lw+WoQSRHJxk+JPctneYvatqAir1lTixkHIO/UAcNN1kcXx6tch7KkCnnOWmAOyGyAS6JJO+8a9y0slmZ11wv3yRibT8ravj4f7UuFup1mDqmMDoAIIEecq/t6F3SaA78M1nxdhuV0jmY1MLzemKlIyw+W31Rgxa5eMsnxLtBrr770sYSflOi6LcQR812rfpFjLnuyh2rdDHI/eVs+gVo2jbhzj26pzuPLg1vkPqSvO8Mw1xcPzPcd/wBv3XqmEYf2CwnQhgEjYtJmCNdR9gtoSGPDG6lLYm3RGR5oaeqsLxwc2GugyE+pbubVdLplo09+Cdc3tvUrUm5TTLA/PnaWA5dJaXAZ2zxHMc0PcYvbOdm6w/DB05bK0ry52o4LGJgDdDaOtbMupDK4jKeJ39yqbH7UsdJ4o62xNhpQDxkTon1sIqXAzuIaPygn4v2S7HGqTL4x81LC4s8mA3eQBHNWt0+pTyNcJdlk68FqX4hZ24bTq0mtd4A685VdUtqF2XVKjy0HRkb5VHS5Qg2PMdUJZWDKjQ4VRrqRxCvMAe1j3BzwI014qms8LtqVXJncQRLdePepcVe2nVFVrQ4OGUg8O9DNbbRDO1Suqxp1KjoqNzHQBZjpNbOyHgRoiqnSPq3D+UzQfFxlV+K4864fAZ2CNfFbQvaOydil52m+8LF3ReK0BpOgW9wUmnbl2WDEgKru+sAaWtG3LVVuF3FY3dNtQkMcSIOyMcbWvzWqveXCgmXfSmsSRMDkOCqa+JuDsxcSPFSdIbEULmo1w0nSORROFUrGoD1gc0jnsUk+B5dbrIRaAFpOhF0KlVpnadfJbJ1+1haXVWQHGfBYHo9eW9G4LGGGlpg98HRV95d1hULnRGuXiN1JIiGt0K3jly3a3lzftf1haQ4HaBwR1ox2RvaGw4LEYJWqVXtzOGU7gaaclcVjcscWtOg0ErdkQLBSnWdq15tadCqtRpcwhwGkjmpLjoPWYSHQDovR8PZbUW5WZwJmPYRlevbvgkPJ8P7LUdKnMey2vO0t8KK+c34LzKw6NVKRc4x8BAVbbdFazt2xqd16xcUqJaMrXTKmZToTJB15rd3SYLWmhx0WbMGc79TrWvgF5HX6MPpxnc0TzSuwafzsXq1zb0HkZg0xoJUbba0H5GKf8s0a5B+6scGdus9AvPMNoPoHMKwAH24olnTgh4pspAnNGcnfvW2vRZlpaaYMiNFn24RZNILaIBG0lLSY+KR+ZwO2wsq7IjGKzWrrFMRr5KWjQC0OPitD0Po9cxzqtOlvoSNfQrN1b+Q2QOwIHHTvUbbx5EtcY7kucS12zCfJaNc5vFbu66PUXmQWNPcAm2/R5uQ/zBGusDQc1hHXNSCZd37/AKIrCaDq9Nzn1KgZmgBpEOIOphwIidMw10JBjfSGL4h1Oj05kLKecNb2yUZfVadvUDaVVtYRJiSRy+AEkHmAdlg8eurypVfNN7A/XKAabCOEvqAPIPIMB8F6Vb27bdoawEA67lznE7uc46uJ5mUtSu1wgtBHIiR6HddePCMFaX7/AG9FzX45x29/f1XldnhzmCXOJd8rZFJo5Nb/AOx1KZXttSRx3/demtsqEz1DT/SD9tlFiWC0azdG5HDYiPrG4TcjY3syOGixixEkb84OvvReVVKCW0oEkAAzsB3rZf7I1i6OzHOf03WhwPo6yj2nDO/nGjf6Z4965kmBLfleK98tF1m9KRkdphv3z1UOB9HxSaC4S8/EePg3uWko0A0SYH6f3T2mOHvxTH1QN2nx3V4MO2Pbc7n3sufi8bJiNDo3gB71Pequ+wFjyXUnZCTLmwTSc754DmuY/U9tjgdTMqrqYJcNJIa14+VlVrS7w6yhv/U8+K0rr4cKaHfevOjWfc+a36kncfRLNxEjPZ+xCqrS7oNOW4oVGiN6kMc07fFpTeO9rp/yrU21Wye3Soez+Vxc17T3sdBG++yBotcRJeRzER/qO9Z3HsMNOatMHqxq5rQM1Lm6kNMzNyafeS0tKXlgO7SnYMZZyvH1WsqWmH1DNQtcebjJUrLTDxoMmnesFhNp+Ifk64MluZh3a8TGZjiNW+hBkEAxOh/2O53J9B+yQccQDRr910G5HCwFd/hbAOBlm3PROccP45D9VhDhlVtWowBzw06OHEKf+G1o/wB276JZ+KnBy1+1o00cFq75mHubADJ7lz69i0QGt24BZdmE1/kPqErsKr/IfUKpxU5/T9Uexd0tJg17bMZDwJk8J0UeJXFk+YYJ4GI17ln/AOD19sn/AHJtTCKw3A9UDipwPlU7J0DUbcttqhzOYHHmUHd2tuWw2m0T3KJuHVc2XQeadTsKpJEt05lVGNmC06vm1EUre2AHYbI7lJ1VA/kCdglBwqtc/JlB7Wq1lS8thsWx3LaKeR4suARyN/xWEqUOrfnpAAcBHFPdild2pa3XuW2r4hbDUFp8Apv4pa/M1bCZw/W1AsHJUL+jdUGAWkc9VWY9avoDLmExMhWTr+lubh8oK6r2zx2nPdw8llTBxA810vioaIdR0Oza18VT2FFzwMzyZ5K5vMDpmiSHOBAmZTbetZUxDabz4lSVcWpEZeqJbyJWUuVxBEgCxkxMJYAI9aXnFS5eCRmO8LW4LQpua0u15yeKs6N7RaIbbM804YrHw0qbfJbSzQuFB1eSxw+I6okll2hul+H0upDqbe3pAbJkeSzOE27+sGam8j+krZDG6gEANHkon4xVP5gPABZxTxxsyWSs+tdnDw0aKxwug3IQaekfLuqOzwyrLopOaC45ZgaIh2LVfncoDf1CYzuPmVIMQyF5c0Ekq0875TZACHxK2qCo23iC/tOIOopj4jI2OrQOMvaeBWhsmNylsQ0dkRpplGWOWhCraFEB7qpkuIa0kmdKcuAA78zvHyCKo1crnsEyC0iJ2cHR/wCP0XpWNIbruvO4mbrXWk6+pTJbUaHjg4D78jH2RQqMcNBHl9/f7Lq0mN9ve/v7pjYGw9+Xv7rTSu9K1SkLffv34LgPD6/oo2vkxpI3Gmnjy97qQR3evv8AdBEJafd9lOCeajbpy9PfokfUVd1ZSk9/39hMD/P39PNRF/v390tLKMz3atbrlmMx4ASNSqvIa0uKs1he4NHFEGq0fER36F32CGfiVuP+M1vDXT1nin0qN3UGdhEDQN7IaSNDlbBDhuNxKia9tVpJaJByvafKDB1APLmsmSAmnehuvHQfhaS4UsbmB/cV9043lORFUOMjQa7mP1U1Y6iOBH3QdDCKMzkDTMS3QjXltP2RnZAhs6c5PfBJWxq9EuOSo6eCFtyx9PKaJqGo9hkGlUgnPQI4OIDXM2IJ8i741WO30Mx+yOc+Dpwl33XXPbZHOI8eCTxeG62Ps77j8eacgxLo32Tpsfz5KnZd1Bs8hL+KqfO71TKtMtMOEFMXmi5w019V2LB1SPuanzu9SubcP+d3qVG8pkqmYq1InrnfMfUp+edyfVDByWULUU5YmOphNa4qUOQRURpBNyKcsTCFKRpRzCTrE8puVC0KUICeAEA15TgSrKWjpCdmQQBUjWnmpaFokOSyog0pzGqIWn6JYHJcEudRC0nVjkpregJnkoetKNojsjvXR6Lh6zEA8G6/hK4uTLGRz0/PonVTDSeQD45gaPA78v3UFjduZdtY4zNKWu+ZrXQ30zH/AKhxRsbFUVWsaNVlOD+drHRtTOVzRPNpaWxyAK9BjDUD/BLdGtzYpg7/AKLQ4kC5wIMc9vfP2FQY7jopNeyk5prNbnLTJhkgF3AEwZjiATtuSKri6SSZ9NO739EZTZOuk8/ev7quDBOGbrz+pR6SLBjXmr28zQWUwO/6u5bUEdXciTxDak9oa8nyPB4W2BPv7/3Tafvj78E8+C3YzLpaTlk6wg1Xv8JJ8Pr7CR7/AA9EjimH37/VXAWNpS737+yntu0HsJIztie8atHqIQoPgpmFVlZmaW++71V4nljg4Iu1xkW7eqqMJLcxEQNtS08DvpG44IKxqyK1V2ge4ERuXZnOOUfFpmifHwRbLh0AaEDbMAYUVZz3al/gBoAEoyCnE5QCSC4gnWjYoVptz7tU5Lig5lC9iAK2vvtAXPSKnSIZUZUp5tGucOwSOEgmNuKtXgOOYHQ66bHzWO6VtFV9GgSRmc52YbjIw8/EKy6NXTqb+oqmQTmpP+YcWnk4brV8jBJ1Y+arpLsiIZnGys6zuzUPl79ElvVmm08/psuuG/y6vOfVDYZrSjiDPlzTIGnn9lidTXd90fc2/WgfMBoefcVSyrltTLry+/JUhd2iPRec6VYwSAt3rX7LtdHRvdC536QdPv5DRRuXBK8pJXHTlJ4SghQmouzoWoiQkIUQK7MpatafnITi9RkpC5S0KUkpmq4PS5gpalIcUE8UlMQlhFBR5EuRSQUrWlRSlCGlLlKmldnQUpMDUjgApCCU3qlFMqbTMmArFrYjwVFiWI/hmhwbmcTAZMZuevDTii6XSm3IaTmYTwc0yDykAheh6HcxkbrNEnjy4UudjYZXEECwOStDWAn3+qgt8P61xc6Mp+HmANiJ9fNUOJ4wXuLGaAaF2x21BB2iVpMEAFFpe4bDVDpHFB4DGbce9dLovBOiJkfvWndz+3qh8ftW0aQeI0c3zkgSfooLCvOvvv8A9Vd1K1KIJDuQMH7quxfq+rzNaGOG0Aa9xhWwGPaxoicNzvfP+Vn0n0c6VxmaRoNRW9d/h/tFMqhc96qbCoSNSixUXcyLzgdamc9JKYHBSNGiJ0VRqkT6b0wBTtag4q4CdnUVW5AH+qkIQtdkqgAVjoqi+ty6rTq69kvHdDm7/QeqdUZmEH9iDwII2Pei7tpDfNBtlee6VdWIBHIfUrqYIXFrzKc28q0mOa7NWaYiMucdxJjMO/dVNDpVTpuLXtLDp2fzd44AacTurYKtxzA6dy3tdl4+F43HceY7kIulZWjK6j38f5V/gYS6zaKo9IRUIE6cAjKmokeK82wK2qdaQXaAwCNQYO69JpOaKWp1Sstl5c42SvQw5BGA0UNqUYq5gulVuHVswd3H9/2CMadUk4UVzpW5XkBTGEgC4EKOVVZqcDRdAUDXHaU4PIQRBUrwow1NcVxE7KKWnFibCVvinKI6FTsTi5BZykY9WUtFuqcgkzFRZ1IHKKbp7QnsZPFI1/cndYEFKTwxc5qTMEuZqCixWJXxe955OLR3AGP0KDsqp61pJ+Y6nk0u8xoNEDjr+ouajOBdmH9Lu1+v0VcMULXB43aQ4TsSI08F1mDsitqTLXgAdytuvPWvDjDg6YnnObxMEL0fDsEa6m0ue4iBxXkbLhhrA0ySCT8Xx7ACecxv9F6JaYUwtBdiDy06hoc1pWU4FpjDHdXf8LtGHtmo7uNR4A8MpB9Ujn2mUxT2BALnOcQYjQuO6rBSsKfxPq1PGqf/AFhR317Zmnlo0wHcDLnEDjJJJ2UhjL5GgXqRry7/ACQxEgZG5x4A6Hbw80XgurSffdHcrDqiq7CXQwaGCPHx15qztX8COOmv2XsDzXhRyS9XCeCVMRpwUUIA2idFJTaiQFDRU7lkTqtBsoXFQESVOQogrNUKDvx8PmfsgUdip1b4fsq8OXmOk3XiHeA+gXZwWkI8T9U9oQeM3XVUXu4xDf6joPfcjGu7lnel9f8A3VMcSXHyED/yKRjALgE40WQFWYRQIgytFcVIp6nh5bIPBqH24ojGHaBgEk+uuw71s82V1wA0Un4NT7GY/mJ08/8AVWBUdOmGta0cAB6KR/ApRxs2uS45iXLhBKR2iTdRlVVaSiOSc0So8qkaYUUypzQSoXSFISeaR5PcoiQohW4CU/rCmwFJI7vqpSFLmtEJ/VlcuRCIaE5jU9rly5RHZPDgnSuXIKJwCcIXLlFKWO6bdH31ndfSGYwA5o3MbOHPw7lga9q8GHAg8iIPoUq5PYaQkUUVYdH8BrV6jS1pa0EEvcOyI5fMfBbunhDW/FaZ3cXdY3KfASCB5JFypNM7PSjJnMuk+taA9n8FbM0kuzSQJiYA1U7sHYaYNOGmOAAG87DQa+nErly9H0VCzqRJxN/VcTpHFyveWE6CvupsLpvoaOfLT+U6gd4O4HdxV3Sqh2o9+P7Lly6S5/FEyo51XLlUKxRNIqRxXLlmd1oEyoNFG1ui5coFUoDFzq3wP6KuDZSrl5jpH/su8v8AyF2cH/Zb5/VOAhZLGH9ZcxwaA3wPxH7j0XLktDufBdDDi3hXeF2xGuoG/oosuasANmCT46gfquXIPOienJEZpWpIGqY+p3pFyWXMTcySmdVy5RQJ5EcU3N3pFyCsnZj4FIKmkrlyKiUQeCSDzSLlEV//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUREhAVFhUWGBYYFxUXFRUYFRUYFhUXFhcVFRUYHSggGBolHRgVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYBBAcDAgj/xABCEAABAwEGAwYDBgQEBQUAAAABAAIDEQQFEiExQQZRYRMicYGRoTKxwSNCUtHh8AdicpIUM4KyJEOiwvE0U3OD8v/EABsBAAIDAQEBAAAAAAAAAAAAAAADAQIEBQYH/8QAPBEAAgIBAgQCCAIFDQAAAAAAAAECEQMSIQQxQVFhcQUTIjKBkaHwscFCgqKy0QYUIzNDUlNicpKk4fH/2gAMAwEAAhEDEQA/AO4oiIAIiIAIiIAIiIAItG23pFF8bxX8Izd6DRQFr4qccomBo5uzPoMh7qrmlzJUWy2rWmt0TPikaPFwVCtN5SyfHK49K0HoMlHWu1xxDFLI1gzzcQK0FTSupolvL2RfR4nQX8Q2Yf8ANr4Ncfei8TxPB/Of9P5lfnPiLid87wWOcxrdA1xFSD8Q9j0UXY77tA+G0ytoaj7R2tSdzn4dVOqVEUj9QjiiD+f+39V6s4is5/5hHi135L8+3Xx7NGMMzBLSveBDXmpqK5UPLZW25uKbNaB3ZAx34JCGO8RU0cPBVc5onTE7BDeET/hlYf8AUK+i21y8c9ue3qtmz26SP4JHDpU09NFKzd0Hqzo6KoWXiiRuUjQ8cx3T+SnrFfEMuQfR34XZHy5+SupplXFokURFcqEREAEREAEREAEREAEREAEREAERQt9X42KrGUdJy2b/AFfkobS3ZKVkjbrayJuJ7qchufAbqqXlxHJJ3Y+43/qPidvJRFptDpHF73Ek7/QcgvJIlkbGqCXMyTVfEjw0VJoF9E0VC4u4tqX2eCuWTpRsQfhbX3PkEtK+RLdH1xNxkamKyvLaVxS4RX+llfh3qVSLZaHSOxOc5ztSXEuIHnosynbl611XgHUzqaHVPUUijPhw56/vJeRdQr1d0Wu4knRWKs25nVFRqPfovJr99v3kvRtNBy9154RUoAlbuv8AtEGExTOa0fcPeZ4FhqKeFF0DhrjJloc2KVoZK74SD3JOja5h3Q+S5Wwaj91XoBXXQ5jmD05Kkoplk2jvIRVPgjij/Et7GZw7ZoyOhlbnV1NMQGvqrYktU6Lp2S13X9LFkTjZyOo8Haq2XfeUcwqw57tPxDyXPV9xSFpDmkgjQjUK8cjRDgmdMRV65eIA+kctA7QO2d48irCtCaatCmmgiIpICIiACIiACIiACIoPiK9+yHZsP2jhr+Ec/HkobSVslKzxv+/MFYoj39HO/D0H83yVSJrmUJRZZScnuOSowiysOVSSrcd38LPF2bSe1kBphNC1uhcTtnkPPkuYRkinMra4kvH/ABFqll2xYWjk1gwt+VfNR5nNR0J9xRaFGlQpu2e2AnLYZnz/AH7L5c8NDhqRtsVr9oc89V84CVYgkMIFAMyRl45L5kspBDQ4HOhI02381qgOBrv8lirhzUEm1LEGuLcQNMvHb9+Cy+MVrXUmnhoFourWqFx1UgbBJFfGnmF8CXOn7B/8rDJSPb20R43QB7WK0ujlZI11HMc1wPKhz9qhd2sdpbKxsjDVrwHAjQg8lwJwzK6D/C29nHtLK41AGNhroNHM8NCOWaXkVqyYvc6EiLKSMMKyXBftKRSnLRrydOjj9VW1lWjJp7ENWdNRVrhq+MVIZDn9wncfhPVWVaoyTViWqYREUkBERABERAGleluEMZeddGjmdgqBPM57i9xqSakqS4hvDtZSAe4zJvU7u/fJRSzZJW6HRVIIiJZYLVvSUMgledGxyO/tYStpRvE//o7T/wDDLtX7h2UrmD5HEoIyR5LYs13ueaUNStqzMFG5bg12pkuhXPYowBQAknET5fJTmzOAzh8CnzK3DwUS0HOu4qAPkpm7ODmhoq3Pc6Zb65FXFkQIC2o25aLJ62cluzd6qCeyKxJwzBSmE+OX1WhNwpCDUVVttDfBacvila5dxmmPYrL+HotA1RV5cNChLWq3vIBXwX9FMckk+ZMoRa3RzRlwyF1MJA5lejrgkrt6roJYDsFqTxBaHnmZlw8Oxzm1WBzDQj96rf4KlwW6DOlX4f7gRT5Lfv8AjzCiLlhrarONT20WX/2D2WqEtUdzFlgoypHcFlCspRBhFlEEmGupmNRurzcV5dvHn8baB30d5qirduq3GGQP20cObTr+aZCWllZK0dBRfDHAgEGoOYK+1pEBERABRXEVt7KE0Pef3R56n0UqqVxVasc2EaRinmcz9B5Kk3SLRVshURFlHBERABa16QdpDLH+ON7fVp23WyshAHEoMiA4UHL2IKvfCs2KMEGo+vIqn8QWQx2ieMj4XOI8Hd5p9CrdwhZjHA3Ec3Z05VVeKa0o08GvaZa4nmi24gTuVX7ffMUDg1788iWgVIG1eSO43szPvnTIFp91mjjk1aRplmhF8yanipzOpWk86instezcW2ebJkja/hOR8c17S2wKri1zLxmpcjWdEV4mErNpvJrRUkdVA23i5jDQNJPTVTGEpciJ5YxW5MmMhfEzQQq0eL2nRvkTRbV1X215LX5btP0Ka8M0raFRzwbpMjuIxgo5a/B7MVvs9fxk+kbjkp+84BIxzTyNFGfw/i/4xpOjI5DXYHJuZ21Kfgl7DM/FRqafc6miBECQiwikAsrCIAt3ClsxRmMnNmn9J09PyU+qDcVr7KZrtj3T4O/Wh8lfloxu0JmqYRETCh5zSBrS46AE+gXN5ZC5xcdXEk+JNVd+JJsNnfzdRvqc/aqoqRme9DYBFlEkuEREAF42y1NiYXuIAGpJoB4leygeMDiZDFT/ADZ42nwBqR8vRRJ0h2DHryKLKvxs0vkjtAjoHMLMYOKN4HeYQ6goc3D0U7drT2TMP4G09FLX32X+FMLwBjY8AEipcWlzMA1qANVr8PxVjb/Q3/aFlyZHKKv72NsMShJ11/iQk13WSEF1pf3nVNMRxHmaDMnPU81B31LYmNxCxy0xYcTxhdiwh+bXHF8LmmtKUIV/tHDkeISBpxg1xVqctKVUDxZdMc0glkj+0oGueDhdIGijcYBpUDKoplRMx5E/ebKTxyv2a+RUJLI2OTBJE+J+RAJByNaEEEjYqyQWaZzQWgkAa51X3dlzutMgIYGsZkXAUaGjRrR6BXyzxCNuHahHsoyTt7FsePStzmdps8hacVQN1Btga54YyPG47ZknfIDMrpFtiB7vUqvR2Z1kkdI1pzJIe3aooQQcqdEYpqtwy430IWxXhG2Qx9lGSMPwlj8RNKBmEnGanRtTryUobTBN3CwNI3AGR5EEAtPiF9XdBG2YTtYQ/EXAhoyca1LQe6058stlN2a6GVxmMZ883eZ1qrzlD9GykITXvM0BZ8LAK1FNVFcPXIXCSc6DtAxpFamOpc8jcNIyrurRbog1tKUUNdVvML2xvFGPMuFwOxlcHtLaZ5lKjJ06G6U5RfYmOBLzdLCWvPeYT89hsNDTxVmVO4GsZjmtI2a5w9XAj2VxWiDtGPiUlkdeBhERXEBERAGV0G7bR2kTH7kCviMj7rnquHCM1YXN/C4+hAPzqmYnuLyLYnURFoFFe4xkpGxvN1fQfqqkrNxo7/KH9R+SrKzZPeHQ5BERLLBERABaF82XG1p3Y9jh5Oz9iVvr4mZVpHMFRJWqGYp6JqRX5mGe25gFsfaa9GOaPTI+S2+GJO7GKatb5UYPyUhZLIyRr8dGlwFJG92TXWvPnTkom6QY3dmdWOc3yaaA+lFhZ1XTexc+xBGSjbVYGE98V6bea3rNOKaqGva3UyBUrkUVm62doGFoApoAsd4mq07EWxsL5nUbqXfReEPGVmq4QuDgARUtNOVQaUJRpbJtI8rwiNVrsmrk6i1ZeL4W9xxZmTm7UA9dgved8T2gxOrXltvWqlRaIck2z7jsTAatFPkpWEUGigrFaq5HbdSRmNNVKIZqXy8UVatNhNoa3s25xF2JxOFv2j8WRPJS17S5LeijJiEZALaBtMsyQMiPFCdFkbPDsNO1fWoe8UPOjAKjxUuvGyWfs2BnLU8ycyvZbIqlRzMktUnIwsoikoEREAFYuDpO9I3oD6Ej6quqc4Rd9s4c2H2IVoe8isuRcERFqEFW40GcXg//ALVWlaeM2d2M9XD1A/JVZZcnvMdD3QiIqFgsoiCTCIsoIPlzngdwMOf38WVdaYVBytc2d2MtLnUfVoIb3qigB8FOqMvptHRydSw+BBcPcH1ScmNaW0tzVgzS1KLe3I2orSQFEXjaBjbi3OQ5lbcbgVF3pCe1a9oq6haBtmQs0TZLuWL/ABbcOEtrsQQCDXaij3SNYMLY2MboGhg0qtGaW1tdha2Nop8dTUnlSmXitaee1sBcYy7LUOa7XcaJ8Yuthemzxt8THOJMTaHotywCNjaNaGjkP1ULLb7QDUwy1/pFPABfMV8YnFr4y1w1yNFZwlRW6ZPwRAEkbrae9R13uNCtiVyS9hsdzQvA1NOoHqaK3RWCJjiWRNaanMDNVWxsxzxM/nBPgzvk/wDT7q4lPwrYy8VLdJBEROMoREQAREQAU1wkPtz/AEO+bVCqf4PZ9o88m/M/orQ95FZci2oiLUIIPi2KsGL8LgfXL6hU1dCvWDHDIzm008RmPcBc9WfKtxsHsZRYX0lDAsLCygAiLCAC0L+ZWE9HM9zT6rdmmDGlztPn0Col4cRySWyOz4qRmpLRSho1xFdzmB6Ks3s11H8Pjcpaukavzb2Xm6/N7ElY7WdDqMlLRUdR3JQlushAEjPTn0PUL1ui9GuIaTQ8jz3WOtrRvdciftDwRmFAW+1tYdHe/ryU6Yw4a5rQtlkG+qtF0QvAhJ7fjoKuy2JOXktizsZTRe3+CbRfD4gBUKzlZWj67QDRalqteS8LTaQ0UqtCBrpjl8OvluT0Qo3uTdbFk4OLS+RxIx0AYCRiIJJeWjU6NrRWpchvycxyQluQDnf9qu1y8RgUbKSWnJsm7cvv8xXfXxT4OkvEx8QopSyX7tavBS2T8r2fZtdHZaEWQa57c9j4ImGcwsoiAMIsrCACtHBzO7I7qB6Cp+YVXV44cgwQN5uq4+ensAmY1cik3sSiIi0CQue3tZuzmezapI8DmF0JVri+x1DZQNO67wOh+fql5VaLwe5V0WUWYcYWVhEEGEWVD3reOrGHchzh01p8qoF5sqxQc5cl+Pb8fka18W3ETQ91uQ6lwzPsfRc8u19bwif+Iu943K5uHcIpv9FRIAWWqEHaQg/IfNUr2p+VfNM0cHJvhMMm95znN/quGNLySbOpWQUFCKgjMHcKHvq4iaywnvZVBpnTZ35qbsbgW0K93tIz9wskZNcjpSV7FNst/wAkZDJQ4OFdRkfE7+K2Zr9xCtR+9lN2qyxSd17GnxGX6KBvLhOKhMeJp6OxN/RMTg+ewtqS5Hy6+mAVJz5KPtd/Ysm0J2b16rxj4daDV73HpopmxWGKL4WNr0HzJV/YRWsj5kXZLtfKQ+Xuiv7r+SnZMLWdmwUGVTu49enRfD3lx+gXoGgDr8v1UOVl4woqPEwo+EdXfJq27K6jSOVPc1otTirN0Y3JJHkAt9raYD+L6Ch90y/YXz+X2xahCWap8pexL/TkqH7E/Vv9YnbivwxUa7vR7jdvVv5K5wyte0OY4Fp0I/eR6LmI7pp4fqt+77zfEatcQKZj7pps5uhTW9rR53hc0sWT1GV9dPk7r/bfPt4nQUUJd/EDXO7OUBp7veB7tSaUcD8Oe+Y8FNqFJPkdeeKcPeXdfFNxfyaafigiIpKHpZ4S9zWDVxA9V0SJgaA0aAADyVV4UsuKQyEZNFB/UfyFfVW1PxKlYmb6BERNKBeFrs4kY5jtHAj9V7ogDm1pgMb3Mdq00P5r4Vq4qu7EO2aM25O6t5+SqiySjpdD07RlfD3hoLnEADMkmgA5klYllawYnuDR138BqT4Ko8YXvjsrw1rmitTUippWmQ0CVKajt1N3B8Dk4h2k9HV/B8u5N228692M5aYhucz3eg57/OHc8E+GX9q8rNPjAI+F2ftQf7gvkGlfX1FVXE9Tbf3uc7+UmH1Kjjj7qnJef9HicX+1L5tHsG5HxHyP5Km8UWYtDZhqHNJ86kH2VwjOo619B+q0b0sYkikZ0b7D80OWmbvw/h+Y30a1PgsHhLPD4uCyR/dJfh+3CaJrxuBXxpmpcSLmfBV6GF5ifkCaU5EZLopcCKjNIyw0SaOpCeuKZmVlcx+ijLXaCyuXot3tFo2xpOhVEXIh1qLj8NFsxg7j3RsRC9AAFewo+wVh6xiWpe14CGMyb7DqpW+yCq3K9en2lrFNIaA+LiSfkpbB3T/KKeop9FH3RYCInOd8T6PJ8Q38/dS0zfi8WfU/Upz5pLy/D+JjzpxwZLVSqb+NZn9JcPFnjO3vH98l8NH1+S9bRr6f7QtaaSibi3gvI8/6YWn0hn0/35P5u/xZtzkZnmcv7a/QK43De7JYmBzwJB3TiNK00cCcjUUy51VGEWMtJ/mPpQfJbseFgcDpRZXLRVdvzaPdYeHhxqywbpKeuL6pZYrJ18ZM6IQstYScIGZNKb1Oy5xdd8zAlrXkMoQRqM9xX4T1C6p/DiyF8Qle00aS1hP3hqCN6AHD4haMc9ctNHL4z0bPhsTyuSatJdLtPffyqt+/It91WPsYms31ceZOv76LdRFvRxQiIgAiIgD5Irkuacb2aayuxRNpE/RzRUtdu0nbpRdNWneNiZPG6KQVa4Z8xyIOxGtUrLj1xpOjVwWeGDMpzipLqn+Pa14nBzasRJLiXb1JLvOua07/AP8AII6hWDirhx1nko8ZGvZzDLEK6E7EZVCgL4jcIHB1K5Z113y8lytOl0e/9ZCeLXF7Vs+lffyexq3JaKRlp+6P0+dFLu+MnbL9+hVUuy0UkFCc9fA5KzF4axrnUAbXEToANz6NTsfsz8/v8jx/8pcccvCucXdaOXRp6N/NZI7f5D3r+Xqvt+o5d6v+0fvqqzbeMYmmkbHP65Nb5blareNDoYBh6PI3ruE7JhlKnXh8Dg+iJ5cMckJbJ6Zwb6ZIO42lvUlcZeFdLPe/7sLXiaMd4ZPaNTuHDrr7KX4fvjG0Ncc1Gw8TQS5OxMJrXEKj2XsbvDwZoXAv+8ARSQbOHJ2x5kdUiSlVTR6fh1DN/U9uXWkl+0k0pd5auq3sr5uS8HyVUPYrcXDXTI11HQrYdO7l6JLi0WSs2XV5r5C12vcdl6PqBmpCj0e8NzJVbtgNpmZH90uA/wBIzcfQFbtpkLzQaKWu+5DDG20vNC9p7OM5kRaGV3LEcmjcAnkmR9lOROGKyZY431f0W7Phze67L7oNOVf/AMlfE4+Py9sX6LblNC0eNelP/DvVeIYaNqM3Vr4/sH1URdffan+Rl4j+mhJxv29lt/ia0l/y4r9WXY1LU3P98mrxbBzUi9nePh+R+QUVeV9RQnDXG/TAzM16nQfNasSelJHlPSc3n4/O8e9zn+81flsSbGUHk/5qJv8AkpQVpUuJ9kmvCTDikJY417goKYu8an72eSzw3cM94WhsTQS2tXudXC1te9ny0CQ4NNX4/Hc9x6JzReGeSMtmsa7adEFFt+D2a8PHYsvA/Cz7Q5rCCGmj5nfhFa4R12HiTsu5WWztjY2NjQ1rQGtA0AGi1bluqOzRCNg6udu527j+8lJLdhw+rW/NnK9J+kP51kSjtCPJd/F+L+iCIiccwIiIAIiIAIiIA0b1u6O0RuilbVrvUHZzTsRzXMeJ+EnQwSsIxN73ZyDUggUa8bGvr7Dri85Yw4FrgCDkQRUEdQqTxqTvqGWWSeB4NVRbTrpa5ff/AEfkS7pGxkPka7LYENPhmvq8rfPa+41mGNujByGhcdyus8a/wnILp7D3mmpMB+IEmp7N24/lOfU6KkXdYHRFwLSCBRzXAhw6EHQpTSTtrcTl4zJjx6Kq/runu+brSqvlSKW67ngEluS+obucc6bq+2qxjsiKcj71WGWRo72HI6qdZj/njrkUe8LvML21GTgCFYbC99naLRGaxGglaNBsJKDMEaEjn1Vg4hupstka4DvRnI9Py0WncUYYRG8AxygtId8NTzPI/CfEHZVk9UaZfFx2THpyQbUl2+/ofb7Wa45IGnq05kbGu4X1DaGPNA14Izo4fUL0jsph/wCHdUhgBicRm6FzjhDv5mHE0+S+hZsObc+befOnJc7IlGTR9H9H1x/B48s/ea3a7ptX9Lr6G1YsJK+bxixENByOv5KuOtr4pOzzNT3KA1NdBTn0VkdOyBodNI1rj+Jwy6DmUSVU11MOPh5ym4y2rm+3xEcDIm1NMhv9VmZxdE5zq1c0knc0bUHPoAoq1XnDKWNbPGQXCoxGpFdKa5rZvK9IWteztGl2FwwipIJFKEDTNQou1zOnJ8PgwyScapt7rf8A9IifiuI4i2N7q0OzRUfTIei1JOKp3PDY4WtxUyzJ0p4KOstmq4CnJWyxXQxjsVM1v9Vjj0Pn2b0rmi1Jvfmum9yd/Ocvn4Kq7fck+Cj3uqdQDQeg2Wvw1dju3Y9wybU+xorLfllq6gHLLfyV04I/h9LIGy2kGGOnwEUlfyy+4PHPomptqkYMc5yx6ILmU+7OG57ytXZwt+zYR2kp+CMHnzdTRo9hmu98NcPw2KEQwjq55+J7ubj9NluXdd8cDBFDG1jBs0Uz3J5k8ytxNjBI6GKLhDSn59giIrFwiIgAiIgAiIgAiIgAiIgAoe++HLPax9rH3qUEjcnjz3HQ1UwiKIlFSVNHMb04Fmjjc1hEzQO7TKQDkRofI+Sp7rK5gwvaWuGRBBB8wdF35atssUcowyRteOoB9OSU8S6GLJwUX7jr8Dit0HtIHxnYEeW376KMhsuKNzPvMOXgutO4DszSXQl8da1bXE3Po7P3ULJ/D+Zjy+OWNwOxBafqlvHJGWXC5Y3tfkVJsgmgZLXvsOF4OtHAZ+GIA+IK0C4DA5oq9hd2jTUiZjiMHYgNIqBUEOLdjU5qw2jgy2xvcY4MTHjvAPjNH11ALq9fELyh4ZtYOJ1mkOEFwFDmQcm+tPKqzTU4ZLUbtdj1fomOLL6Nni4jJKChNy2aUmtKdJPnvq5fpciuWmXs3MaWjtqd5wz7IOFaDEKFxFPCvWiqN+tBG7pHHMjOlT3W+myv9s4PtjmGllkL3GuIt0JObiD5lLB/Dy3Fza2Yta0mmKSPKur396pceg5J+KChyRx+L9JcTxc9eROukVdLt5vxe7Klct1CzRG1SirwO4ORpl70W5cNy4mdpIKufUnzzXQLz/hjabQI4zNFHG01d8TnHMZUFBp13VssPAkDAA9zn0AyFGj2z90zTNmF4c01dbvnfTscibdzGmjW1JyAGpPIBXS6ODbTPhc5vYto2pf8WgrRmvrRdIsF0wQ/5ULW9QO9/cc1vqyxdxkOBX9o78iv3LwnZrM7tAzHL/7j8yP6Ro3yzVgRExJLkbYxUVUUERFJYIiIAIiIAIiIAIiIAIiIAIiIAIiIAIiIAIiIAIiKQCIigkIiIICIiACIiACIiACIiACIiACIiAP/2Q==</t>
         </is>
       </c>
     </row>
@@ -2901,25 +2917,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>Towhid Hridoy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024_T20_002</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>191.7</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2928,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>41.7</v>
+        <v>100</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2967,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X20" t="n">
         <v>24</v>
@@ -2982,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3018,7 +3034,7 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhUZGRgaHB4cHBwaGhoaHBwcHBocGRwcGBgcIS4lHB4rHxocJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzErJScxMTQ0NDoxNDQ0NjQ0NDQxNDQ0NDE0NDQ0NDQ0NDc0NDE1NDQ0MTQxNDQ0NDQ0NDQxNP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgIDBAUHAQj/xAA+EAACAQIDBAcFBgUEAwEAAAABAgADEQQSIQUxQVEGImFxgZGhBxMyscEUUmJygtFCkuHw8SMzosIVFnOy/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECBAMF/8QAKREAAgIBBAEDBQADAQAAAAAAAAECEQMEEiExQQVRcRMiMmGRQqHBFP/aAAwDAQACEQMRAD8A7NERAEREAREQBERAEREAREQBE8vMetjaafE6L3sBAMmJhptKi26qh/Wv7zJSoDuIPcbwCuIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiJhbSx6UKbVahsqi5PyA7TAMlnAFybAcTIX0h9pGFw5ZEb31QcE+EHkX3E9gvOTdMemVbGOwZytIHq01NltwL2+I98jgYNvPl+0rfsWpeSWbf9o+LxBIDmmn3UuunawOY+cjJ2lUY3zsTz1J9bzGC8j4GX6YNtDb1H9IoX7F9KtQ73J8j6GZuA2pXRuq7Kfwswv675rs27NoeYlRa2/wAx84Fsn+yvaPiadg594vHPrp3jrDvu3dOkdHOltDFiyNlqWuUJFz2of4h6jiBPngVMp62o58uV+ztl+jWKsHptlZTe4Nj2HSOUOGfUQaVTnvQHpp9oUU6zD3o0voM/I25/XvnQAZYqVREQBERAEREAREQBERAEREAREQBERAEREATg3tV6YGvVOGovejT0YqTZ3G/vC7uV7zpvtI2scNgKzq2V2Hu1PHM/V6vba5v2T5qY8JDJRSzkyumpO6UCZWDGsAyaaDcRvlKmx3aGZ+D2PWrt1UJA/i4ecklLoPUK9ZgplXOKLrHJkNepbh5yh8Qb98l2J6D1baa24nS80uN6O1aY6yyN8SfpM0zP/Q9nEEcpQlUqdDp9JdqUCvZMUyydlGmje9H8cUxFOoDazgHuJ1n0lsfFGpSRzxA159o7J8u7KqBXDN8IOs+j+h2LSpQTIwKooWw4WA3jh+0lEMkgM9ngnskgREQBERAEREAREQBERAEREAREQBERAON+3baeuHw4P3qrC/H4Fv5tORKQZ0D22Kf/ACI5Gglv5nvOeWgGThsMXYBRf6SbbE6NKtmfU8pjdHsKi01bS54yXYZxpMmXI+ka8WNJWzZYFAoAVQANwE26NNVhNTNqizlE6src6WtNTiqQ5TaVJr8Su+SxEiW1tkI4PVF+yQraOzvduQddN86XiNN4kE6X3uCOc6YZO6KZorbZoi4BsN37TsPsZGZKjFRdSADc3tqALcpxRG+c7v7FaA+xM/FnYeCn+s1GM6RERJIEREAREQBERAEREAREQBERAEREAREQDi3t22eRUw2IA0KtTJ/EDmUHwLeU5LafR/tVp0m2fUWpoSy+7PKoLlT5A37CZ86JTuwXttIsmn2SjCYr3dJcwJ00A3mXP/MYk3KkIOAsN3ed8pbCs+ULrlExq+z3z2c5V5/seEz/AG2a2pVwZVHpTXQ6m/fY38ZIti9K3qMFZdTy7ryP4DYSEHM5qMQAoVSMut73FwfGbDZWzGo1lI55Ty14xPbXBMFK+SSbb249EA5Sb8e6Q3HdLaz3UDLfdaSzpbhM6ou4E6nstwkWq7BXKwZihIFmAay7uXxG1xvErDb5JmpeDA9/iDqahB+6W18pRiMQ1VWRxZwN442+sYjCut/9QOS27cLfhUfD4TI+xuLMRwnRtFNrryRPdefUHQLZX2bA0KdtSgdvzOAzepnzjTwOauUuAoOZidwUam8+juhm30xlDOq5cjZCBe3VAsVuL2tadVJXRmcXVkjiIlioiIgCIiAIiIAiIgCIiAIiIAiIgCIiAQr2m4T3mHUHcHv/AMT/AFnDcXgPd1V5X/afSXSHZ/v6FROOUlfzAXH7eM4N0kQNrazrYnTcRvBHIzjK1L5NOOpY68o2mxFBI5SWphVIGgMg+wcUAwBk4wmMAmeSqRoi7Vl9qGUaADuE1CIC4tvvfymdjcczKwXfY+chq9J1RlBRgRobggb+cinLotaXZL9qrYKW3SvAqGEjG1ulqvl6pO69hwHICZ2xdptULVEUhdNCLHvhxa5Fp8G8fZib8gB52Ej22KYXdukkfGXWRPbuKG4RVsjpEYwGFFTEkHdbz14zsvs0wuSlUtoMwHiAb/Ocr6OKqOXYXLNppwXcBzJM7l0Wwpp4ZARZmBY97G49LTRDmXwZ5vbjr3ZuYiJ3MoiIgCIiAIiIAiIgCIiAIiIAiIgCIiAeTkHtD2Bkrl1BCVBcG1wGvqotu1sQO2dfnhEq1aLQltdnzThabAkahlNiDcEEaEEHcZJMFVbLvN7SjphQNHaVdTudg47nF/8A9ZpXs1xe0zZVybMTuIp7RFyudVUaanW/HvM9qU8M+jNc87D6zzbmwqLdfLZuNiVB4a23GWtm4bDg2IQWvo4zXueYkRS7R0Sb7FDZ2FS5z5jw3aeBOsujaKJ8DgrxG4jwlWNwuHy3Bpjf8K6+t5q8FsWk9UaNl4AsdfASZJeSKa6RumxRKEj+xI5jMzAud3CSXaVlUqB2Dummxy52p0UGrsqD9RC/W8rDsib45Nz0E6MvUrIalN1pr12LKVHMIL7734cLztAEppUwoAG4AAeAtK5rjFIwyk5HsREsVEREAREQBERAEREAREQBERAEREAREQBERAOX+2LZgCUsWLBlYUm7Va7KfAgj9UgOExY0PdOk+2HaFEYT7Oz/AOs7KyqNTZWuWPIWuLnjOIJiGXQznOKZ2xycUdRwzh1tcaftPDsBKh1A9foZC9lbfKADl6zf4fpLb+LX/Mz7JRZqU4tGzfoxSTUDXx/eKeGFO7bpgv0jBS5YX5TVbU6Q3Sw48IcZNjfFIyMbjrkk8D6Cbb2a7O+0Y73jHq4cZrc3a6p4DU94E53V2gx43Jk+9kG2qOHrVErvlavkCEg5Sy5iQW3LvFrztCFMz5JuSO4xETsZxERAEREAREQBERAEREAREQBERAEREAREQDyWMXiVpozuQqoCzE6AAC5nmMxlOkpao6oo4sQB6zkXtQ6bLXQYXDMSja1Wsy3sQVRcwF1uLk8bAc5MYt81wRa6Of7c2o+Jxj13OtQkgfdXUIvgth5zyvhLiWkpXZW4gWm6w9O4nPM9sjRhjuiRZ6RUwGM3+LwXZLCYDslFIl43Zqfetzngps03X2Dsl6hg9dBI3ErGzX4bAcTLO1Etl75Jvs1hNXtPC5kMQl91l5w+2kdY9k3SZq9JsNVbNUpAFCd7U9BY8ypIF+RE6LPmDYO16mFqpiKfxIdRuDqbZkY8iPoeE770e6X4XGKDTqBXO9H6rA8QL6N3i81Si7tGKyRxPJ7KEiIiAIiIAiIgCIiAIiIB5PZ5MbF42nSGao6oObMB5X3wlfQMiemQja3tDw9O60gajc9y/ufKQja3S+vXuGqsqn+FBlXxtqfEzTj0mSfNUjhLUQj5s6ptbpLhsODnqAt91Os3kN3jaQfbPtFqtph0Wmv3qlmbwUGw9ZAX7Hv2bp4lQDes9HFocceZcv8AZjyauT/FGRj8bUqtnq1C7c2YtbuGgHhI/iTdie2b44hbGy3PZNJVU3NxY33co1ijGKiidJJyk2yjDtYg8j/mb7DrlPZNCqzebKrq4CE2cbuTAa+dvlPG1MG1uXg9jTySe1m0NAMu68opUl4iZODQg5TL7rbhPOs20YFWmvKeUaNtbTLbXhLpo2WNwo17peWMXhbU2PYflN1Qwl5j9IQEwzk/E1lXvJsfS58JaDuSSIlSTbIMF6srwFUq2hIB+fAyl908RbWntRdST9jyJK4te5P9i9OsTQsrN71Bwe5IHIONR43k72V7QMNVsHzUm/Fqvgw+oE44rAgS5STW97T0MmkxT5qvg8/HqMkeGfRGHxKOAyMrKeKkEeYl+cCwe0WonMlRkbmpI8+cmmwvaFYhMR1h98AAj8yjQ+E8/Jopx5jybYamMuHwdJiY2CxtOqoam6sp4qb+fIzJmNquzQexEQBERAPIic/9pfSs4dBhqLWq1Bd2G9E7OTNrbkAeySk26QLXTTp57tzQwzAuvxvvCkb0Xm3M8PlzjHY56jXd3YnizEnzM1ivlKngCL91+t6XksTZqpqBc2tcm/8AibY6nFpocq2YNQpuS54NDRoM25Se3+szaWzXO8ges34oALm3C0xDiFHAnu/rM+T1bK/xSX+2Ri0WTL+MWy1htkpfrEn0HpLlXZKjVVB7xeUvijwHnPTimOhOnZ9Zhnq803bk/wC0enh9FzS/JJL+ssOiAHqhT+Gw+Uh+1yweyk27vra8mn2fOQACSdwAuT4CZadB8Q+pQL+dgD5C85wySbvs9CPpeHDzKfJy6znQlj4mXcMXpsGQlWB4bwZ2bBezdNDUqa8kH/Zh9JlY/wBnuEYgqrrpbqudTzN76zQpT9jnKOmjwm3+0jj+H21WR85dib/xEkHsK8u6dF2YUr01qLuYeTDQjwM13TDoKlLDGpTz5kZbkm4KE5TpbeCQb8ryJbC21Xwrbs9MnrJzHNTwaTkx742lyjjHIoSaTtHSE2cBrK2wo05SuvtSmKK1s4yMFyk6AlzYX5a7+VjNJ0n2C5p/aFqI6gDrfGTcjcwNuO4aCZYYW+TtLLFNI2WJxtKmDmYacBa/gJBdvbVNdxrZFuQOA4eJ5mYePqNawYEflAv5cJiYfZlWubLc+BtO+GEYPc+WMuROLjHz5f8Aw9FRTuYHxldNC24X7tZlN0Kxlrinm/KR8jaYp2BXQjPTdLH+JWHqRaaJahrwcMel3vhkq2Zg0NNboL5Rfgb21mS2zk5HzmHgWZVAuZkCs2+/ymT/ANeWL4k/6RP0PK3aaZTW2Wp3Fh5GYFXZzjcQfSbb7UbagSpa4O8W9RO8PUs0fN/JjyekZ4K9t/Ds1WA2jWwzZkd0PYSAe8bmHfOh9EunoqOKOJKqzWCPuBb7r8AeR05SHPTVtBYjjI/tSmofKBwuR2trbytNi1UNQnFxp+6M+OGSEtrv4Z9KROa+zPpaalsJXa7qL0mO9lFrox4sN45junSpmlFxdM2JiexEgkwtq45KFF6zmyopY+A3DtO7xnzntHaD4iq9d/jdsx424BR2AWHhOme2Pa+WnSwynVzncfgT4Qe9tf0zlQnfFHiysmeVhp/fIyTYHHF0GtuqL99rH1EjL8O8SV+zvZS4l6iO5UIinqgXOZmG86Dd6zlqoOUbXg06OWKOTdlVpLjzyXEc2sSZk4LZFWv/ALaEgb2Ngo/UfpJ1hOi2GTUqzn8bXH8oABlvbXSXDYQZWYFxoKdOxYd4GiDvmKGnbfJ6WT1GEVWKP96NDhehdQ/HURB+EFz9BNxh+h2HX4s797ZR5L+8hm0vaLiWP+klOmvaDUbzJt6SMbQ27ia/+5Xdh93MVX+RbD0mmOlSMM9fml5r44OwtjsDhBq9GmeVwXPgLsZptp+0fDqLUEaq34r00HbcjMe605KFlV5ojhijJKcpO2ydVfaXiQLClSHb1z6XmmxfSrF1GzHEuOWQhFU/lXf43mkDAixlgPlNiRaXUYrwVtm8xHSzGOj0nrsysMrApT1B7ctx3zS1GNxrfeLFTcDgwbd/iXXS4uOHynhcgGTtXgiynE7QLIlNmslEMyi18zO3HlbX15zXLiqhuEZlQ71B0NuLDcYKFz+EevaZn4XDeUoo38E2YIDk3Leg+VpI9j9KatEZRTpOO1Sp8Sp+k1tYjcJZAk/TiTuZ0HBe0gDSphR306n/AFZPrN7hPaBgn0cun50zDxKZpzjF0MKuHRkqO1cm7qbWXML2JsAQMp3a3fWUbHxOGQOMRSL5hZSpIK3BufitwFrC+p1nJ7Wm0n8Eq7qzq1Kvs2swyvhnY8AVBP6dDfwlWN6JUH1TNTP4dV/lb6TkOytnNiKopoUVmuQGJsANTY2NyBrra9t8zKe18XhXamtd1KGxXPnUEcAGuB3Srwwk9vF90do6jNDlSf8ASe4noY4F0qqx5MuW/wCoEiaHE7MrJ1WpOD+UkeBGhl7Y3tEqKwXEoHQ/xIMrjtIvlb0k0wfSzCVLBKwzHcrBkJPLrC179s4z0ldGvH6nkj+VM5sulyDa2npdvSR2pWLuznexJ893oJ0Tp/stKVBqysVeowUp/CWe5Yj7uikzm66X8P79Z10mNwts5a7PDM04rmuS5TxDI6OjFXRgykcCpuJ9FdHdqrisPTrrpnXUfdYaMvgwInzk06d7GtqG1bDMd1qidx6rAeOU/qM75VaswxOqRETgWPnz2hY73u0K5vohWmvcoAP/ACLec0HGMZiC9R6h3u7P/M2b6yljrNUeEUZ7U3eXzm16O7ffCO5pqpZ1y3a5C2a9wBvmnqnQ90oq1LMp8YlT7CJXj+lWMqAh67AHggWmP+IB9Zpdl4M16yUVIU1HC3O4X3kjjxMsJUzaibXohpj8N/8AQfIyGklwTZJf/W9n0n93Vq1qjghWygIoJtvPLXmZm7Z2Ds7CsqnDvUYjNrXqAAXsLgNx14cJV0ow+fGZFAuyDdxNmY3txNprse71VFZz8XUH6UW59fMmYZZZ88nt4tDhe2T6a5V+TaYvAYelTpONmU/9S4IcsSrZrKutySw1mRiEoUKoSps+ktMlVzhRvKgsVuOsASfKZHSbaNN8PRyMbkhlNiuihlJvwIaZGy9kfaKeHqVHZlRTZd+Yljcs5Ou4eUjfJukzksWKMFOceLa/f6o02Lr5K5pDBYYNmsl0GoY2UkjQXFpNhgEKBWpJu1XItt2o3bpCNs40NjPeANlRlB016jda3lN/gNvPWxAQKVpEH4ls1wL7++TGTvlkajT3CLikuLZyHbOFNHE10UWVKrqo4BQ5yjwFpgV1079P3+UkPSwj7bif/q/ztNEW13X/ALE3ro8lllbAWAl05iOyeN26cpczdssCyVgJLpm56L4MvXDBS+SzlFKBnA0Ns5ClRfXW9jpKTkoxbfgmKt0VbL6JvUCPUZqKOWAJpsfhAPW1GUMM1jYjq9s2dXorh7Oyu+YMyogZbMCwCOWI0spuR2cJJ8FhC7hEuq3JUMSwRb3NsxPl4aXm5rdH0IIWq+a3xNYqT2jhMzlTW+VN+Oi9eyORbb6PPhywLo6i1yhJORjlRnFrKGItYnfNW5JNySTzO/znSVV1Z6DMiq5yP7xFqKpQ3vlJFxbdfQdsge2cJ7uq6i2XMShBUgpc5SCunDdwnaEmpbZcvtP3RVpVaMAb5kVmKhSps2ZbEbwQbgiY09r1dF7DO/gobjpD0krYlKdOqVbIxbMAFLFhbrAaXCgjQDfNKv1/pPHbrX5C/wDflPEOnh6/5laS6JLjH5GbLoztVsNiqNYGwDqr9qPZWB8Ne8Cal+PZYf35ymt8JkPkH1J79fvCJ89f+7YrmInHYWs0FXj3SqofUTx9QD2Skaop5afSdyodtAeY9eMx6zXRDy0Phvl5RvXnqO/iJYXUMp4aj627ZVgu4CrZiL6GSPohXVcfhyx0z2HeVYL6kSHUWsR2TLw9Qhg4JDKQQeIINwR2giVTuNE+T6Fw+xKAq++CsXzFrljYE3vZRpx4zKODw6qFZKYVSSA2WwLakjNznCsRt/E1PjxNRv1kDyWwmIXubnU9uvznNYUdXmm/LO+VNpYNAAauHFtAM6acdBwmsTbWHUJmxydXNfKb5rnq30tprw48JxtHl5TJ+igsskdXG38KMt8b8LZjYNqOroTvsbE/qlVPpJhAysMXoGYkEVDcMdBryFh4TlMtmT9KIeaTMvbuJWpiK1Rfgeo7rwJVmJGndbSYCDiZbrVSIROJF/EidkcWXHpi08yCNeTeJuJWgkgpyTf9EsQiVsrmoquDd6bEMAoLZbBSWDEAWFje00oWXKblTdSQRuIJBHcRulMkd0WvcmLp2dT2ZiPdOHKsLjVWBVsra6qdx42m4rbbw6rmz345QDc9gE57s3pOtrVxUZ8mRHz9QFAcgKcSzHrMZnYjHUHyKcSrLTVmcrcZCqhupr11ZiQCONhreZJqLa+onaOitdFVUvWrs4UFizPlJsttbKxsbC3HlbnIV0irq9d2UACwGVcuVSBYqpTRgOY5zbY3bdNEVaSq7h3ZanXUhdMmnapKldxsTxkVcztC5S3NUkqRV0o0W3Mx6jyt3mK7f3+87NlDIZ/iH5R9f3l5eA/Ue4bpj0RclmOi6m/En+lpdW53739FH9+shA9dr27et+3z9J5U+Hxnua5J4bh4Tyv/AAjsvJYMe8RaJUGYfgHd9JSnwHv/AGnsS5Bbqb1/MJYq/wC5+oTyJVkoxV+LxmWk8iViSZCy6sRLkF5JkpEQSGnoiJIMPFfH4S/R3CIhEF1ZQnGIkgvHdA3xEkFNSYVXhETnLssi424Sw+6Ik/4lTFqTFqREqyTKb4D+f/tMgfGfyj5mIlkQW6fwCMR8Xh+8RAKIiJAP/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgVFhUYGBgZGBgYGBgYGBgYGBgYGBgZGhgYGBgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NjEBDAwMEA8QHxISHzQrJCw0NDQ0NDQ0NDQ0NDY0NTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQQAwgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQIDBgABBwj/xAA+EAACAQIEAwYDBgMIAwEBAAABAhEAAwQSITEFQWEGEyJRcYEykaEUQrHB0fBSYnIHI4KSssLh8RWi4jNT/8QAGQEAAwEBAQAAAAAAAAAAAAAAAgMEAQAF/8QAKxEAAgICAgIBAwMEAwAAAAAAAAECEQMhEjEEQRMiUWEUcaEFgZHRIzJC/9oADAMBAAIRAxEAPwDC4fD6itrweyCoFJMJhZ5VqOFYUgVRDDy7BWbgw5cKAKAx1udBTkWGNcuAp6wxQM/Lk9Iyq8Lk60Vb4eF5VpfsgHKh79mKJY41on+a2LsPa1p1hEFJMZi0tKXc+gG5PkKQX+015j4CEXkAJPu3OpM0VFlUMmj6WiCpm2K+bYbtTfQEMxfqCqH3IXWo3u3GIQfEoEHQgufUsxkkb+XSlKX4ClI2HG+LYfDibrhem7fIUusY+3fti5abMhJEwQZBggg18i4jjLl5y7sSSSdTJE/nW/7Lr3WDt5tM+ZxpMB28JIGuWI2kzoOZBRdsFheJu616j0M5cs5gOgywybrI1BE6ctGg6/OxBMEag7Rz8x69N6auLFuwpTUwKoIIMEEHrU5rTOiZqFcATUmSuMJ27c1b9nFVWmolFJrG6CUbBr1mNqEZqZ3LLRSDHMyHWtjOLMlBoNDCq3FLbeKJo1GJFdI6JDLXVKTXUAwK4bhorS4VABSnDLFNbD0yM6AcbGVsCrMwoPvwK7vhRKdguFBDNS3H4pEUsxgAEk9BUr+Iisb23x0WlTfO4HplBM/OKOWTjGxahbEHFeMd85bULsq+Q/U1TavilAerc50HtUTbkyhJJDYv1pJjsT4ieew/WjsS6KAAWV4neVOkkbCCPl1pM0u+gJJ2A1J9KF60FFXst4XhRcuBXYqnxO2khBq0E6ZjoBPNhWmx/aPxSmXICAFEkKFQAIP5R+VIr2HKWc2ZTncI+UzlABKqZ3khjIkTb6UKmHZoVAXLbKN5mBp51ybQTRteG4xe6fEENmDMQASrM5XwIGGxyIC0bepE1cH7Qs75hMoB31on40SSt60Ng6a5l5jXaciO/wAQQZLC+JEGUFSQS5IzueRzMP8AKqDlUMA6NcUKSlwv4HSZzk+EEeu0Vkna2bBU9Gyx/aZUS8yXVd2uDuhl2tsQ2b5Zh5giDrpRvAeLpiRluAA6baN/VMfSlK8GR27tiizLQpGS3cBhmtt91WAE24gHY+EQ9wXARhhmDBhufEyn2CmpZy47j2XQXNU+gnGWe7Mbg6g+YoNrtW4riiXAEUy06c/rULFsGqsee4W+yPNh4ypdEEeDTfBsDS29bAq7CXAKTlzNrRsIJdjdwIpJxTDhgdKaM3OhMWZFRLJO9FHBUYp7ZR45UzsvoKo4nE1Thrmletik5Rtkc48ZaGU11UZq6j5IAeq8VYMSRzoF3ql8RTKQu2NftZ868OLPnSkYive9ruKMth13E9ayHbC5JTy8f+2nrvSHtFaLJm/hP0On4xQz6DiZgGisAoZxmnKN439tDQtE2zkRmlddIIOaCPiBiB86UgpdHpxq6gorCTGZEJ+ZEjbaYqo4onwqqrOnhVVmdgco196ALiJiPQ/rNX4RwMzxt4RJ5tvy/hDfMULduwkqVBiXxlYMCykAqubKW7sEhiYOmXNpoTmOorzD4t8pKgIrHIqIIDHdi7ElnAB+8Tqwjag1uMbiECYI08xznpE+1F3cQimEhwFCoCvhHNmYMBmYknTb1rAi3h3Cc8NoAZIctGinxZV+9+A5kU+XhngZcP4SRDuD49d1Z+SkfcWNtZ3pFYxZOZixkxOu4GoUny30EAVruGYrwAQB6CPTTkaVOTRRhxxl2Z7hvB7xDDOUKNEEEg6aEEHT61fiMXirJGdvDtmBkHp0+VaPD3B4x6H8aDxyB1KnYiKaoRnBSfYqUpY5uKeijAYgNDL/AMg05wmKlo89R681/P36VhcNfe05QnUH9n0pzZxmY6aSZ9xU0o0PvkjXXVJoQ3CtX4LEh0Dex9RvS3iVyKXGLugLCf8AyhGk1Xd4lI3rOviCTV1uTT3iilbOU30e42/NU2bho5MLIqt8HFbHNGOkDKPI7vTXV3d11Z86M+MbXnoN2NGOlUtbq6UqI4opsmiQtVpaijUSti7OkgV1qk2wwIIkEQR0NF3rdVIKyTDgYjieCa05U7HVT5j9aGXFECCquOYOYAjylSCPUVv8RhUuKUdZH1B8weRrLcV7N3Elkl06Dxj1Xn6j5ClNNdBtIT3rdpyMhZJ+6xDgGdgwAJG24n13rx7aqApdRBOYgOZY7xAg6ADcc6HDQfIg7cwQfKvXclcpO2ooDQuzDSqAiRDMwliNNgOROmX0kxtHEWlX4GZgdDmUKwjQggEiPeiOCoM4BbJm8OY7LPOmXEMILSFGUaFirwQWViMsgiRSnOnRRHEnCwPhuDz9ACDPXyrQ94qL4nC9dfqOdD9nnQpl51Xxfh1w3FCnwtMySAI841pMnylTKIR4wuKthvDcUj58jFoyzoRG8b1K89aLs7wBe5UL1kxqWnUn6fSjcV2bBGgquLqKSI5W5Ny7PmvGLWYBxuuh/p/7/Go4C7Tvi/CXtmIlTI+dZjDPBpU1YcHTNTgMUVaJ8LfQ+dE45cwpIl3lTbDXc6dRof1oIyoLLH/0hatjWjbCV6ya0RZFDObYHQVYSpX7deWnFExmqfi2zUxbXUd9nFdTvikdyRLLNRKVZYMio3dKtc7ZKlRAmp2X0oJ7tXWCYp0Xoxqyd56CuXIom9NUW7RbYUE5D8eJtEsG8mmipUcBwYxJorGYDLbeWyjKRO0SCNOtZGRk1xKcZcw/cXDcW28ITlbKxLAeHrMxrXylMKJmttwPCqmrFZMAyI1PKTRmP7OW38aDI3MDRW9uR9KGX4JI+XHlUlS+5hrayY5VLH4rwBBtPPU0TjMKUfIVIPlzpLiWOYg7jekpWz0JSqOvYZgMSyHTea0uF4i/gLKhJdVCvsSxyyQNSASDWRw1zKQa0nZzjqWL/f3LAuxGUMYyEa5k0Izcta54+UjI5uEez7R2e4TctWyLrIzsxY5AciiAAqzqdt4G9NXwwrAv/atay6YdwwmfEpWeUNodulZfi39oeNvHwuLKAkgWxBgfxMZJ8uQ6U5JJUieWZN32bLti+HQZblxEciQrMMxHnl3jrXxl7ozNB0zGD5iTB6VZibjuWuOxZ3OZmYyzExuTQmWPesas5ZGM0viN6JwWNh0AJgkho22MT7xrSPbkB9KvS8PP1jVvTp+9qH40FLNJqkbECavtnShMK5Kj0H4UXZtFqWoJdh3Z4G1pjhm0qFvAaVZ3JSuThYXF0WxXVDvRXtUWDRXaMVC+9QS5VbtSIuxmfHxZBRzq63cqpDVltNabboDHFN7CBbmm3C8DptQuESYrR4JABXFbkktFWIUW0Z20VAWPtyHU7e9YjEYq5ffM7QJ8KA6IPQ8+tHduOLFrowynwIFZ4+85EgH0BHuegpTh221rV0eJ5mVylxXQ5w/DUIGpJGusfpRDjINNvLn1AHn0ofC3yvOibuJmDt+/KlTT7TEePlT/AOKatPSv0/ugPH4NMSgZSJjMjjXQ7a8xXznj9greKsIOUE/XXrtWxvYsYV21Jss4YjUhO8BMr0zI8jqpGu5eDXC46+luC+Txs+UgBVIlczRIY6RtvWznGEXOXpDvHeSMvjW4t6/Af2S7E4VsIoxFvNcfx5gWVlkaKCpGgESPOaynars4mEvG0lzOuRHEznUMziGIEbA/TTz+ocXvCwhuI2VuSxKueQZfzEV8s4jiHu3MRdcyzZSfLTMAAOQAAA9K83wMubLOU5P6ft/ou8qoRS9iRUEgchv1/elWEjUcvyGpP4CqXaJ67/v97VTcuz6c69Yl42EO4yx5nT9+1UX3WBB1HygVUz6+1M+Edm8Rif8A8rZy/wD9H8KD0bn/AIQa5Jt0glFLsWOwPT8unpTPAcJd4ZhlTqAGb08h1recM7C2rKhnPeuNZYQin+VPzM+1di8FDTRuHFXIKO3SFeHs7CK0PD8KIoPD2KecPAFeb5GRxWiuMThh6pxFnQ00dKAxRgGo4ZJSehukJe7rqt7wV1WXMG4iNL9W55pnieDxyoA4YrVuJJmZ58mVpvRKOKpVavRKqjitiFOloa8LMmnFzEhFLsYVQWJ6ASaRYR4oTtbjiMMyj7zKp9Jk/hHvQzhxCeX6bMc+La7ddzu7sfcmfkPyppZeNBqR86T8NQxI6/X/AIp1hkhdem+9JZ5eWgi1iTOvmAR6mNa8ucR8Mg7E6+7Ef6RQzgkuNdUJXzlYbQ8udL8c4VmUGB3knzylFOn+Y0LAhDdmk4ciu1uQDnZ0CtGpJVl303VteprZcB4MtlT4QpP3REKBtEaddK+edkMK97GIy6CyQ5PlB0X3afka+n8ZvMlpnAg6KOhOgPWvJ/qOZylHBHt9noeJhUE8snoR9ocejX0tgKyIT3nLxnIyqT5ZW3HmfKslx/CBMRiwIAJRwBELnt94V6QWMdIo/JlZ2OzhD/jUsrfMFPlQrWFe65kukWc8+FlVv7sqY38s3Uc69DBhWGKivt/JLPO8qdv2mv2MA75jA1kwANz6CnXD+yeJuRmXulOua5oY6J8XzivsuG4DhsMpFiyiGIzAS59XMsfc0pxlks3lVDLowQu7P9jMLbIZh3zj7zgFQf5U2+c1ucPhABtSvhKZRrT+y9NjJJaBlDYHiLFZ/iOHFay+Kz/FGAoJysOEaM6pCmikvxSzF3hm0qpbxNebmhydFXFpWP1xsUux2KmqVEihb1hidKo8bxYrZPOTKu+rqv8AsvSuq74YiuRs8VYBG1ZzH4eK1uJrOcU2NRYZbHTWjPga0ZbQRQStrRdt69SMhBcBFJ+1D/3BHm6fjTknSs/2nP8AdqPN1/AmgyNUzG/pYv4VbnQcvlTixhQxAadfp8qTcOxCofCstt6U9wIzsATBIM5dIHMD9akZ52W07PbmFyuvhgAancmJVo6Q1ZbjZK3DI1JUxuZCKvLzI+taexfEd2CSbdzL/gfTU+tDcL4UcRjy2XwWcjERzgFV/wB3y86XkyKEXKXoZ40ZSnRtuxXBRhsMhYf3jjPc88x+57CB6z51Hi3aPDs2X4wpIy5R8anXxHlsNJ5+xvafGixhmcE5zCIAJLO06ewDGelYPBcIu6s4ynuXvgHXwIrMI3IY5Widtzyny/AxPLklnl3ei/zJcYLHEKv3AQJPPlpt5UZgrTtYvBWXUq/dFIZkQnNcRz8QDIJUT/8AmfKrv/DoltyWz3Qxyq0gLbDFGYLJ8QdH3+7FF8X4iqL36sEunuRbtKBlt7u1wcsrC4wy88zb8vZR5yhxu36NY5kT5ilt2x4qa2klEP8AIp/9RQOJEUrLk4o9jFHkRtCKNt3aU/aKpvY2BvSsedSGSxMdYvGgLvWN4txCTUcXj2Y5QaEHDmbWadKTo7HGnsXu5OtW4er3weXercNaApLVbZQ5J6LEQ0dh7NTs2aJVIo450tE88dlX2cV1E11M/UCviCsRdMVncfcJmtBiWWKzXEW3ipvGdsLItClDrRiGhBvRQ2r03LRMi4PSHtQ0on9fL+hqcLSjtIPAh/n/ANjRS29Ay6F+AWBPw9Bqx96Nt4xkdAfCHlCT90NpmP6UHw9WIg6LuTzOu3QV5j8egBU7coHi6R5ClkbjylQyxOJNq9lXSVyMSM2u6MAPMga7a19C7PYMW7IMAO8u55lmA39AFHtXzO44u4dfEVdCgm4pXOJ8OVjozDaOYA8hX0s4+6mGdntq4VPiRgRJELAJDLqRvNeX/UuTUYr2y3wYpNyfaI8dd3tXbee3JS0VtIZvKpupN1gR4fiUTyBnejsZY7p1dlUqtnEWSiEFe7Ui4qRuC1tH35j0rJ3O09sJmTDkXmt27dy6zzmFvJICAkQcg1maAs8Zu5rrAhBcZrjgBYzNnkLIJGjuPQ16GLHHHBRXSE5MicnI3ly2ue8T3ZRVy3WJCsQxDqynkDbvMs+aco1wnazGo7OyOHVAlsMFhSLaEjL013POeUUM+KZl8R8TAKvimEHry0AHQHyoLiilbVwdG+qIP9xpgly5a/J9fwBm1bP8if6RUMTakUPwDEBsNaMzCBT6p4D/AKaKvXRFJyw5I9XBL6U19jP4pYmld64KacRBYwsepZVA9WYgD50oPCsQ8lFR/wCi9YY+wV5qfFgalZVLKqKsNakzTmwkCl1rD3LZi5bdD/OpUH0J0PtTbDJNX8RV6KMTaBFKbiZTWlfDaVneKDIaXONoDnsJsYkxFGJcmkFm/TTDXa86VplSqg2a6o5hXUWwaBcZi+tJsVdkUK+PB50vxWO8qrwwcWTZJaCTc1q3v6UDE1IYiq2Toapfpdx67KDowP8A6t+tRGIoXiN6UPQg13oyXR7w9WKkCC0a5jlEc5Pl050erWly52DuNVVFLknkdY/IVm7WLyCNdTJOmkfwg8/Wr7HEMufKMpYRMy3+bzPM/LoskeJu2aiwgcFrhBkMSpMlV+EAtzJnYaabmKapxR7do4fEI1zDXFC5kksgkFcy6lWEA6SD5Cszw3iCqIY6HQ+vkfrWv4TfR/jIAhdTrL7EnyGg+QpeTjVsPx1k+VRj0+76oy2ItKtxlDh0UwGy5RlGwAnQ8jvVruAmcgQxhF0lvID5STTvjnZwNLWtAdSB8LjUnKdlJPP12pGMM5uorAAhdFOiog8vprzroTUl+QvJwSxytrX8Eb5ykSZaJJjmfIchoAKHxzzbyn4mJG+sFbcSDuNKliYe4VT4AYzGBmgeJtthr9TVOcM88lIOUrMAEAa8pAWmCEtK/wBzddlMfFt0n4bjEejH9QfnR2Jx/WsfwDEFS/KWbn7/AK0wxF8kwNSdAPMnauLMEvpr7aNDwzs5bxwL3lVlRsqqwcjMQJaFdeg1nnV2N/swwbaiwM2+ZLt22QfMBs4rSdnbBS1ZU6MUDtEanKANfSPeaaY3vMjd2QGjQmN56gj98q6qHqVumfMb3BMZgR3lvGXvs4YK9jEZXkHQKjAspkkbBSPai8FjBApp2kwt3Eqlm5ntlSz+FA6mPAC4DbeI6g89qyrWntO9p9HQ5Wg6dCOhEH3rYuwpXH+49u4zyrP8XeRNEd91pLxXGg6CioW2VW78Uxw2KrNpd1oy3fqaWFWPjk0af7ZXVnftXWurPhO+QQya8NTivCtVInm0nRGuqapVyWpogbBxUhbDA5vhAzN6A7DqdveiPs9EYjhbG2BnVFPjcmc0D4QNIAAkyTvHlQyfFbNSszWJ1HePMuxKqsCFGhOo25D0qu/bdADBAOoPn06Giy6OzXGICIVVLceJlE5R6ee/OqLV13uAHxZ2AK7iJ5DlA/Cl7NcUyhHpzgeMOmkyKA4nhghGWMpUZeZmTM+0UEHjlQuPJBwfxvRveGdpnQ+FyoO43H+U6U7XjmHuKVvIDIOoAEjYivlKXutELimjfTz/AOaU8VdFCzpqpI39vBWLhZLNwKAB4W2K9OYE6H2oC/wfErn8GcGTmtnPoAY8I1OpHLlWYw2JbNmV8p9d/OtBw3j7IFJkQ2VhusRoeh3rblH8ipYcM/VfsX4Cy63SotuZPJG057x1NaHB8Ld7ijKZLACQRqTEn03qFzij5Q4hl3bKdYOzCmlvEsVS7aIJAGYMwTQ7sGO0c5/735mvRuPw1G6Zv7eHIYMpgKMoXoPx/wCKyXEO0mLe41hLTo6mGRE7xyp+Fs5lQpHPL7084Zx9GFsMyRcJW3cV1ZHdTDKD/HIPh30Omhpm1ogjIQNyQZj2Osa/sc2qViJQfVnzm/xLH2dWXFKPMqXUf4spArGY/jNy5ee6zZmYiTAE5VCjQabKK+w9oeMYjDWWvC2HghQoUnUmASQQcvPavhtx2ZizElmJZidyzGST1JM0UQVBr3YW/E3OlBvcJ3qNegUZq2SU1Iua4LXjCsHqOj3vTXVXXVoAR3MVFkozeo3ErUjzVlcpWDIlF2bVUA1favUaKo9B1jCyddhv+QqXE8Kzo6aeNSAfI9QKLtJ4QDodz08h++teO8GZqHLPlLXSKoQqJhjw1rQZ7qiE0VZkOx2/w8zRfDVLl8Q8Bm0UAQAAAGYewj51osfgkvJlaYkEFdCCPX1+tIONXMii0oiRlHRBuZ6/nW8+WvZjXHb6QnxTZ3LRCycoHUkk+5JNV5QOU/lRCqoHKpdzm1C/kKbWqEfNTtL/ACCui8tKI4a75siyZ1C6kFtNSvOufDEAkg6bnkJ/CogFdRofOdR8qykls6U3N/St/gcYzAW0EMs3WAhVJEE8yBufIflQ74cI/wDEBo23xAeID0JojA4sIUcli53dtSrRAIncDfXz6VTxdSjqoZScoMjzJMyPPSs09IGPyYpLn7GvCsSA4VScpMa6Kszyg84qw8Xe2Gs3FEMjrpOVwwI1E6j9aSPdRRM6/hU7tx7iAlDAmGg/6vMUtwt7L1lpaY+4ZcVeEYxVGXub+GuIZJIuMwUsCTvCjQRX23AtmViTrmaD13PyYn5V8Y4dg3+xWrOUsb2IGIuADVrdsm3aSPJmRmPv519L4Ut5QGvHu1EnxkAksczHKvMkk6kb7UyxDaplfbN8YQqWbOdN2cFSSRsuSQQOcifbnh7nC7+JZbb4Z1YsP70DKqKeZZtG8yJ+tfWcDxGxcJW24LDUjUH1139q9NpSfDCkHxKdPUj9waFr6rsf+pfw/Ekkvv7Pz7xLAtYuvZeM6MVMbHyYdCCCPWqkStz247HXLQOKV2vSSbxIgqdIZVH3Y038MDlti0FPu0R8qZErUHotUqf2euSNl5MYrYuyGupn3Arq2iT9UiNk111qtt4RhULtk0y0MWOK6AXajeCWDceYJCanqfuj6fSgLyGtrwfCizaVCPGfG5/mPKegH0qfPk4x0VYYcmD3MO/8Bk7/AL/e1Dthn2KnXX9ac3Lx3mIqNqTrH7O1efzZbwSQpv2GVcxEaEk+QFYdna9cZokGQo/l5frWz7c8QyWlsqfFdGvmEHxH3OnuaxmGwDMR4coOsxqR61TiWuTI/Ikk6GuGwLIuYrtG4kk+Sjemdl1IlkVdvj1M/wBO/wAhQuGwyMXVQQBkQeJjBCnM3xeGdKDfhtuS3iIXTUmXbqf0rZRT7ezsXm/H9Kiq/Kv+RlibYiIyIxkvcCkacwkyInc/Ks3iEtrJD5mzaaESNfFO3ymirPCVMliT5R5zvrQWM4eqMVBkRMkRM9KZFJexMssZSbikr+yBmujzn8qcdluLW0xdtsSqvZebd0MoKhHGXN0ynK0jWAaUjCipLhwPrRg6PvWI/s44W3i7sgESCL9wL6jxRS3GYfhuEWM9olRCqG7x/TKJIPrFfH+F2BnUQJho055WI/AUwuoRyrYvYapjbi/a1pQWjct5NFcZfEpd2MkfDq/Ly3oKzx8O6vfvu8ACGLlQwaQ8lidBvA1oFHIMiRV/21uYU9SoM0EoO9BcmlRrMHxxFcOl5GcGQZUBT0U6k9TX0fhnHMNiUUsUV41VjBB6HmOfvXwtcUAcwtoD5hQD9K8fFuecf0yPnQqEkzEz6n/aXjglq0LdzRjcXKGmQy5WPnGVmH+KvmNtxQjuSZJJPWuDU2Ko7J9SS+yoaW3q8XBSlLhoqyxNGiSWBv2F566ve7rqKmB+nNY3DtKXYjA9KcHFULfuzSOaDbl6FWA4cC+cjRNfVuQpreeOp/f/AF7VzHKMvz/q/wCBQt5tfLkPzqHLLlKz1/GxuEEn37K3Qs28jf06e/5UxsuqKSxAABYnoBv++lC4dRz15npH/H40k7YY9ggtKPjPiMwABBgn3FDCLlJIbOSjFsQXsW9++90AMT8Ok5EHwiToDH41ctzxZZkyMxmZPl7fmaCwJZjkD6lTkA+HMBIXyk7T1oO3fZZ99DvNXJejyJ3JtseYHENlYr8Vx2gkrAB0mN9Nenyq0ESAPhXQdX5n9+ZoazcyoFX4ioUbaR8THQGB1qzDQNPKsYtoLspJNKuKH+8bpA+QBpzh109TSPidzM7coMf5dJ+ldHs6PYHNes0wANY167mfl+FRLQJqtXIMz+zRjUhlwETeUxsCfpA/Gtve4apUGNxPzrIcIurblzBDkIpB1AEgkj5fOt5YxQFtZ5CPlt9IoeVM2D+pozWJ4aAdqGPDq0N91aut2lNMUkMM4eFnyr1eDseVaq3ZWjLdta7kcZBeC9KrvcHI2rcFE6UPetLWWaYP7A4NGWMORWgvYUE1ycOolKglCxNk611Pv/GivK35DviIZutEYQAS55bDzaggeVFZgNOQ+przLYWHGnK/sEsy7nU/vX9+VAXW1+VSe6BrNRsifxn9/vahZci4eFZ+nX/uKz3amwptBmIzB9NJzFgZHTTX2pw7y3RdPfn8tvnSTtVd8CL5sT8h/wDVMw2pKiPyJ2+P2MooG48J5evrRl5GuuGAXNlGbxAAkfe38o+VCRXqQDrVpIxpawgSQ95BO+U5iemnKiLOTZSW6kRS+2yfw0WlwchFCxbGttgNTsoJPtWXu3JJJ9T760wxuNIUqOYg0nJrYoKEfZzNOtVsZrmNSUCiGE7RM7x6Cth2YxhZTads0DMhO8c1PppWRQU04TfyXUbrB9G0P40E43Fg3Ts2ndCpBIrwvXmaouUhpLMRXd61QzV2at5yOJ981RN5qjnrs1bzkaWJcNEJfFBE13vRLM0GpJDT7UtdSuOteVvzBc0U2W1MHUfKT50TYYN7b/mTSXEWSTmRyj+e4b+ofnXuG4oyHLeETs42PvyrOKa0biyKKobumsRpUnu5Acu+w9fM1FGVxmDDzGuhHPpyoLvs2vLYe25/flS3EbPJUbLFaKznaa8S6r/Cs/5j/wDIp/mrK8bebzQdoHyUU7CtkLF6AHcxRKIPOT9CKFB6VfabSqWYo26svXSp95FDq9Rd66gOJG+80Oxqdw1BRWoNI9Vamp9DXgrwsa449ZtaItvpQlE4V1B1E+vI1xjRubF4lVJ3Kgn1ip56XYC9mRT7fLSr+8qKS3QSYVnru9oXvK7PWcTQrPXhehc9dnruJwTnrzvKHz1xeu4nWEd5XUN3ldXcTrKprw66HUda6urTgO5g1BBUsk7hTofYyKPGg0rq6jl0adWSxrnO/wDU34mva6iw9sFlNSt7/Ourqe+jYf8AZEhtURXV1awCu7+deLXV1cF6JVO1aBma6urjCx0gaE/OoW7QLopmGOvzrq6sfRqNeLYUBV0A2Fe11dUZp1eV1dXHHV1dXVxxGuNeV1cceV1dXVxx/9k=</t>
         </is>
       </c>
     </row>
@@ -3028,25 +3044,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Yasir Ali</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>237.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -3055,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.64</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3085,67 +3101,67 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>63.6</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>4</v>
+        <v>-0</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUSEhgREhIYGRgaGB0aGBgcGBoYGhoaHRojGhkaGBoeIS4lHR8rHxgaJjgnKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjorJSs0Nzc4NTQxMT8xNjQ3NDY2PTQ0NzQ0PzE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0PTQ0NDQ0NP/AABEIALwBDAMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAAAQUDBAYHAgj/xAA8EAACAQIDBAcFBwQCAwEAAAABAgADEQQSIQUxQVEGEyJhcYGRMqGxwfAHFEJSYnLRgpKi4bLCFTPxI//EABkBAQADAQEAAAAAAAAAAAAAAAABAwQCBf/EACkRAAICAQMDBAEFAQAAAAAAAAABAhEDEiExBBNBUWFxgTIikaGx0QX/2gAMAwEAAhEDEQA/APVrT6AgSZ2BERAERJgESYiAIiIAiIgCIiAInMdKOm+G2exp1c71MmcIo33vlBY6C5B52nm2M+1PFPUD0lVFsQKZs6a2sScoYkEE+frFg9wvE/OG0OlWNxAQVsQ7dW4dbWUZl3MQoFyOfeZ0+D+1nEqQKlGmwG+xZSdO8m3A+vksHtETg9mfalgqlhVD0idNVLqPFlG7vtwnZ4DH0sRTFSjUV0O5lNx58j3GTYNmIiAIiIAiIgCIiAIiIAiIgESJ9RaAfMmREAmIiAJMiIBMREAREQBERAE4b7SumL7PppSw+Xr6lzcjNkQaZsvEk6C/I8p1m19oLhqFTEP7NNC3O54DzNhPzr0h2u2MxDYmo2ZmAC3FrADRQtyAL30ud8hsGhtPaVfFVTWruzubAsQBoN2igAeQmNU01GvD+JjFQ684aqSN05JNhHAN/T00mOqovm38ZhyMdTzjIwF4BnDi0udh7arYKqlag9r6shuUccmUEXlCo0tM1OprAP0p0b2r98wtPEWVWZe2qm4VuK3MtJxf2WYpamAOUWK1XDAAAAmzC1t+hE7SdIgRESQIiIAiIgCIiAIiIAiIgHzJkRAJiIgCIiAIiIBMREAREQCg6cYN6+Aq06aM7kKVVd5IYG/fa17b9NJ+dMSjBijKVZSRYgjUcwdQZ+qZ4T9r+A6vaPWC1qtNWHit0a/oJDBzmytk9Yudj5TqcBsCllsyAyu6PC6gcJ2eAAB3TJKctTR6GLHHSnRVr0Yo3vk05cJGI6O0ithTnVACYiBynGqV8lmiPoed4jo2oJsCNN17zmcZhjSqWvPVNoIBuE842zbrWvvJluOTbpmbPCMVaPW/stpNTohOrIV1zlyD2mvoR3ZSNeNvOegzhPshRjs8u+7rXCcewAt/8848p3c0oyCIiSQIiIAiIgCIiCRERAEREA+YiIAiJMAREQBERAEmREAmIiAJ5B9teGvicK350dP7XU/9569PF+mNOpUxh6x2bJiGABYlVXVlyreyjKgGndecTlSO4Qcirpg0wEpp/AlzhNvGhZa1In9SkETTbAl1st+8jTynzidlFblUftLYAkWBHEcb+PdyFsya8m5xl4OuwW1KdVSyA6b9Jo4jpVQpnLkdjyA1mlsYNTUqDuXXxtr75XVsGxqFypIN91va4H4bpCabOpRlpNzE7ReoM/VlVPMi85XpFQFlq8b5W8LafCXdPZjhVGd7j2rrYHTTh9X0mttzCZqYU7iyg+Zyn4zpNKSorlGTg0z1roBhDR2ZhkbeUznuzkvb/OdFOO6A7QxFXrkqtmRMiobKLaG4AUAWsBpw0nYzVF6lZhlFxlTEREk5EREAREQSJERAEREAREQCIkSYAkyIgExEQBERAEREAmREQBPMun2FNLFK/wCGprf9QXKR/jf+qemzlPtB2Y1bDiogv1WZ2G45dMzDwCn1nE43EsxS0yOV2fawF5nxJVSBv0lPhanZEzYja1OnozdsjQcd1/lMiV7HouVbmzs50dah6xbjQ2bcbG4Pu9Yw2KQpmVlZSR2gbjlwnPPiTUa9NFUAXF3Cj0vLHZ+1aapkqIFJOpGoJ539JOgjuep0JCBCdL8Oc5raNiMu8llA8bi3vlk7ZhmU9m00KOFfEV0p01LNmzZRbcut9SBIStkzlSs9L6H4Pq8NmPtOxc+5R7lv/VL6a+AoGnSSmTcoiqTzIABmxNsVSSPMlLVJsRESTkREQQIiRAEREEiIiAIkRAIiIgExIiATERAEmREAmREQCYkRAJmPEUhURqZ3MpU+BFj8ZkkE21MA8GWq9JnoVBlem5RgdN2l/O1x3GZaOFpV2dyCXvxJsByH1xjpztOhi8S+IwauGQZKxO6rYAI6AE/hFuBItKDZW2OqbW+Xj4yiWNpujTDLxZ0pooll+6Ke8D6tMn/jKBXPUpimo5Ej4b5jXpMllta3GaO2ekashVN5005TjTJl8ssa5Nw45KdNadNuyL7zrOs+zDDtUqVcWQMlurQ8zcM5Hoonk2GZqtqa/wBR5DmZ7X9m+06T4b7pTXI9C4Iv7YJvnHmde/xlsIbmWeRtex2cREtKRJkReAIiIIERIgkmIiARERAERIgEQDECALxEQCYkRAJkyIgExIiATETXxmNp0VzVaioOFzYnwG8+UJWQ2bE5X7QNsDD4U0lbt1uwBxCfjbwt2fFpqbX6dqt1wqZj+d7hfEINT5lZ53tvHVK9Y1arlmIGp0sBfsgcADfSa8OCTknLgpyZVVIqNn9mrU78vzk7Q2UHOenoTvHDxmWomVhV4bnH6eflv9ZbUaeYfOY+rjLHlb9Td0rjkxafQ447Ne9tPWZ8Psh2PaOk7D7pfiPSSmFtxHpM3dZcunVlfRwi0kso14niZk6KbVOFxX3gXKh2DgfiQnKw9NR3gSdrVMiWHtMcqDvPHy3+U1aVAIoUTf8A8/E8jlJ8cGTrpqCUV8nvmExaVUFSm4ZTuYH48j3GZp4hs3G1KRHVVHQ3vdWK38QND5zs9ldMKy2WuoqD8wsj+duyfQS6fSSjxuZoZ4vnY7yJU4PpDh6mmfIeTDL/AJez75bA31mZpx2aLVJS4YiInJIiIgkREQBEiIAkREAREQBERAEREAmJEQCZXbR21Rw9w73b8q9pvPgPO05vpN0mOc0KDWA0dxvJ4qp4AcT9HlTUmrF07krkUTzU6R0O1OllWp2aX/5rzGrn+rh5es5uqzOczsSTvJJJPiTvnyWlpsjY9TEk5BZB7Tn2R3Dme6a6hjjfBnuU3RUtSvoASTuA1PlNLaOznpZWqADNewvc6W3+s7HE4mnhVK0KZdtzVDu8uJHoPGcziGatdy2Ynj8u7jpIxPLOV1Ufflnc+1CNXcvbhFOo4TLs1+rYUz7J9g8v0n5RiQaZtkdj+lb+86T7oYSrUYAUyo0uzEXH9I3+snqcUc0dPnxsOnyvDLV487l51R8ZjdcoJMscPhAtPOahIBtrYHeFOlvzECc4do9YLWN85QLfVmHAd3M8BrPBl004yrnetj249TCSb42vf0NB71KvWHcuijlzPjNoCVG0MbVp1GCIMt7AFSfE776mW+zUqVEzOgU919f4nvdKljgsflcnidTNzk5+HwWWC2d1i5qbjODqm427pnKFTlYEEcDMGDoFGL6gruI015idVg8TSxA6rEABtAr+zqe/gfdOcjy45OXK/lExeLJFR4a/ZnOh7SwwG1qtH/11CBy/D6HSRtrY74V+1qh9h+B7jybu+hWgyxaJxvlFLUoyrydxgOlynSslv1LqPNTr6EzpcPiEqKHRgyncQb/R7p5Qhm9s3ar4Z86G6n20vow+R5HhM2Tpk94F0MzW0j02RMGBxaVkWohurDzB4g8iDM8wtUakTIiIJEiIgCIiAIkRAJiIgCIiAJUdJ9pfdsMzqbO3YTuZuPkAT5CW887+0LG56y0QdES5/c+v/EL6y3DHVJI4yS0xs5XrZmR9L8Jou/aNuX8TPRfsWPn4EnX3H0npmGi92Js04mqEvZRq7chyHef55TpdrbWUIMNhQBTXQkfi7h3X48fjobLTqMIB+Opv52/+aeZmuyKdcsqUVOWp8Lj/AEq7rppGIVb7xNdsCL56dgTw/CZu9UOUlVtu+twmjVRWaSMo0qLlP1uPhMzItsym9uPd3zaOuhF5rthV3qSPCLQKjEVcxybxmvl4FuBsNL98+1wYpqAigM19eOpuT5kmZMFhc1Zjy+J+jLdcPYXY3P8AIvFxT4OnJtVZS0tji+Z9TLA4cKNPrhNspPh19eHPlOZSdNkxVtJmLq7C1vnISlofjJbFIpszKLcL6+69vCbCMGsRbUXHEW8ZUstt7nbxtLdFnszGdbT+6YjtIwyqx9pW/CAfHdy7xu5THYRqNRqT71O/mOBHjLrJYkjT5EfCT0lHWUkxFu0oyvb65/8AKRWiVrh/2crI3SZzC1rG19Ln4CfT1PdaalW4Pn8v9SDVuxPh8JfRYdX0Q2v1NYUnPYqED9rnRT57j5cp6JPFFqaDzHvnrOwNofeMMlS/atZ/3ro3rv8AAiYOqx01JGnBO/0ssbxETIaRERAESIgERIkwBJkRAJkyIgATxrb+M62vVqX3ubftBsvuAnrW1MT1VCpU/IjsPEKbD1tPE6+768PnNnSR5ZnzvhGAt2/EfAWt/iD5zawfaYDmpHj2/wCCZXZ9x5G/key3/WZcLiClRRyJ9NLe+80ydJmfImotr0O/apmA13C3pvkiaGHr6CX3RyitTEKrbgCwHMru/nynTqEL9EZccbqJpAT7VCTZQSeAAuT4Dyl5X2ZQw5vWqs54Iosx8dffpNGvtFiCtJRTXkujH9zbzK1l1/gvvwWvHp/J/RqVMOU9uwP5b9rzA9nzsZiAmQCQBLFfkrdeDW2dRs1Q/r/6/wC5tOlvrf8AVvhPjCi2b9RBt5AfKZajEAQ3uSY2HGV+06hVGZTY3Cg3sVBFye7daWSm818VQDKVbcw1579COG/4TjKm47FmFpS3PjZuyKH3dKtVXJckixCqqq2VgOJfx01E1auF+64o0AWKNlIze12xdbgnRhfXz3ScHWxOGDLTIZGU2GVXGY8bNfKNNbd2+RQou1Q1q57e9rkkk8GNtwHAcJiSlqdu14RubjS2LIt2ZFV7o1M/iX3gfXpNWtiANDoOH+5r18VYjXdYj6856Di3Dc8rJvdHMY2tlBG8rb1sdPd75hSpp9eA+E19qVr1Xy/nJ8xYAf3C/mYJyLruA+AkRle5ririn6m6tXQeJ/j4gzu/s7x1nqUCdGGdR3jRvUFf7Z51QU3VTvG/x3t/kTL/AKPYzqcVTqXsA4Dftbst7iYyx1QaOoPTJM9jiJF55JuJkXkRAERIvAET5k3gExIvEAmTIiAc706xXV4Qrxd1TyBzn3JbznltTXTnp66XnbfaLir1KVEH2VLnxY5R/wAD6ziKouJ6XTxqHyY8ruRWM3zBHcdCJr4iobBhvGh77ag/XOZ6ouzd/aHjuP8AkCfMTRxDcfI/X1vky4OkrOnobSvksd4v7h/uXWCxRve+vMb/AFnAbFuXIF75lt6n43907RF6oqur1GNkRQWJJ7hvl8HcLZkyQ0ypHRU6l9ePHz5zNeY8BsiubKwQPxU1Ezeahr+U2KuFqI606ilS7BQTu1NrgjQ7+Eq7kLpM50T5aPgmfLvwm3tHAdQ6pUqABlJzBS1t+lri54ec+KaYZtDVqr+ootvGwJMd2NWt/ontu6e32aVKuF0N999Nx04zI1YEW1+tJtbS2K1EK4YPTYgBl4Zt1xyOmtzMm2NmJhmQMzFWDEkAZhl3WF7HhvnPdg2q8k9uSu/BXq+gmQPM1MYZtM9Zf1MEZR4hbGRtPZb0FFUMHpm1nXkd2YcL8xeSskbp7fJGiVWtzEVH1pMVRQJmpYNygqMy01Ydku2XN+1QCSPLjPr/AMW9TSnVoueChyGPgGUX9ZOvGnyNM2qKLH1wgIPsHQ6ez+od05fH4100cXyMQ1jwurA35EfGdNjFIdqTjKw0ZG0OvLmJQbSo2pMrLqAVPetuzfw3ek0cx2OY0nTRQbOJdi7cSWPy+JMs3F9+69z4DX32t5yp2a17fWglq7aeOg+fy98zY1sbJcmxgU1ufH5zPSnwnZQ+FvlM2HHZMvRUz1/o/jevwtOoTclbN+5ey3vF/OWM4n7O8bdamHJ3EOo7j2X94T+6dreeRljpm0boPVFMXiRF5WdgyIvIgC8mfMQD6kz5kwCYkT4rOQrMN4GkkHB7WxlCviqvW10FJQyFCjGoGVcqtRZVIvnAOpG8ggixlC2yQ9T7vSqFqluwGQIlTs5gabZjoRquYAHTUbpXBjoeNr34675s0dq16IK0qzIOQO6+/L+Xed1p6KxygtmYtak90c/ilKnUEEEmx0sDowI4bgfKaOK019fkZbY/ePH43vKev7AkyO4n3sbEGnUZlFzbsjlv7U6fo3UZMUuIqNY2Zc35MyMmceGa/lOR2X7fl851S6UjaWYlqhT9yjNLTIuqWCxecJTwzvfc4IKHvFS+W3HfOu6SbbShhaeHqOtSuMmYg3CshBZieG4jnreeZbIoK9TtC8yZyXJPOJYHkabfBysigmkuT1XpjhUqGmzVhTNmC5lYqw0OrLfLbvHGVGHwSm2fFUAo35XLt5LYTRx22qmIp0lcL2d1gb+zxuTNTcrkb7SnDCThSZOWacro6XH7ZptTXDUASilVLHecrA6DxsSdPCWXS2lSY0xUqFGs2U5SykaXDW1HDXxnGYfRRbx85YbS2g+ICmpa4BtYW3kXnLw6ZKvclZdSafsTQ2el+1i6IXuzM2/8hAlltPbNJcN91oZmGXKWItpvJAO8k93Gcu+/67p9Nu8jLngtpyd0VLNSaiqNzb9QY0rVp1kSoqBWpVHyKbXsabHsm99xImps/ZGLVlaqVp01YM1VqiZVANyVKsbnlKzG8ZQLTGc6cZZ2XFaU9vgmORS/U1uX/TLbP3jFGtSXsKAim1iwUk5jyuSbd1pU19oipTF1II0J56TbwguCp3WmliaYCmw5y2MFCKS8HLlqbbOWwj2aw4EgDnr8JeUBcgctT9eplBgPbPifjL/D+yzcf9TLj3NkzbzXyqOJv6afE+6WCpZfKaWB9tu4ADwtN+p7P1zl9lDN3oxjOpxdN79ljkb9r6egJU+U9XnhNWu2XNfW5+E9xw5uiMd5UX9Jg6uKtM1YHs0ZZF5ETGaATIvBkQD/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEg8QEBAQDxAPDw8QDw8PDw8QDw0NFREWFhURFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLjcBCgoKDg0OGhAQGi0dHR8tLS0rLS0tLSstLS0tKy0tLSstLSstLS0tLS0tLS0rLSstLS0rNzctKy0rLSsrNy0rK//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQIDBAUGB//EADIQAAIBAwIEBQMDBAMBAAAAAAABAgMEESExBRJBUSIyYXGRE4HBQqHwFFJisTPR4Qb/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAIxEBAQACAgMAAgIDAAAAAAAAAAECEQMhBBIxQVEyMxMigf/aAAwDAQACEQMRAD8A8VgBhgsqAyAYAAAAAAAAAAAaAhUqKKy3gwVOLRWcLIHSYM5D41/iKfGe0WRtOnYTHk4q4y/7S2nxiL8yaGzTqgZaV/Tl1x7mlS69O6JQGhgAAAAAAAAAAAAAAAAAARGIABAAAAAAAMQpNJdkAzJfXsYLfL/JlvOJYyov0ycipVcnrqyErK11Ob1ZSnvka/IZ1ZCUZCiDaYk8ASegJsGyTYDjJGq2v5QWN16mGDyy2UVgD0dldxqLTf8A0ajxtKs4PKbR3eHcUUvDPfoydodZCBP9wJQaAQAADEAAAAAAAEQAAAYDAQDE2BFvf0OHxC9cm0np2R0eJ3HJFpPVnnG8kVMDkPOCLHuQk5VE0U5yScHsNbY7ARgi9RXwVQiTb6gDjnYSi9RqpsSdb00Apjoy3Ui8alvMmvUCmcCMHjYuj2KGtwO1w7ir0jLGO52ovKytjxnQ7XB7vTlk/YlDtDFEkShEBoGgBAxIbAQAAEQAAAaENAMTQxAcHjUvGl2Obk0cTlmpL3ZmpU3J4RW1MSQ4wfY3UbPG5to267Gdz02x4tuTGhJ9Bu2fY9DCguxJW67FP8jWcEcKnZyeyCfD5roejt7bBfKGhW8tnxeePHj3ZS7Mj/SS7M9d9FdkSVpF7of5UXxo8XOi13IYaPaVrCL6HLueF74wi2PJKzy8ez44Mp51XQreupquLVwMy6rsbS7Y3Gz6jklTm1quguUTJVer4bcc8Vnc2HnuB18S5X12PQItO0GDAAhEAAAAAAiAAAAAwGiFR6P2JELjyy9mB5StLMn6yOpw6gksvc5sY5a9ztU1hIyzbccTSNdCmZaSydG30MMnXilGkWxiSVRbFiwZ6awRjoQlE0RjoR5EVaKoUzTToMdKjnZm6FPHv3JxxRlWKdLBkr0tzq14mCsy1iu9vOX9tN56I4VWGHg9hf8AlZ5OstX7m3H24vIx1WaSwQLJ6kGjaOdpsZYnE9XT2PJ2S8Ufc9ZB6L2LYoqQABKCwCQxMAwAABAAAB4AYmAZIV9Yv2JpCnhJhLzNKPjx6nXawYLNZqyfbPydFQyc+bo4ipxNtIjQo5N0LbQytdOMVQRojFijbNF6WCvs0kCeELmHLUnSoFWh0qjRrp12UxtepZ9PBbGqZRKrPO/yYKu5fJozTJtRGG+eE0eYrR1Z6XiD8LPO1Fv7m3F8cvkfWKSISLqkStxNY5Wnh6fOsdz1OP8ARwOCUsyb7f8Ap3y0RQA0JkoAAAAAABBAxABIGAMAK6z8L9mTyV3XkljsRbpMm64ti+XnljLzoTnXqN9vQ0W0VGKz7kJXKzsvdmO910Y46iNLiE49MnUs+Ny/VFGL+tppJSg9dvDuQ+vSeqWF6rBH/E49fl6qzvITXZlzgm2eZta60wdq3rZRjlHXhdxvjRS1G7mEd2kVybwcXiFup7vBWa/K2W5OnoocWoY1lEcr6lLaUTxasV0nj3NFKwa2nk29cf25/bk/T0NVpvRrboYassMzwsJx8Uaiz2TyP6svLNYffoVyx/TTHPf1G4SlFrr0PP11jOmNT0Ekc3iVFNZ2xuOPLXSvNhubceaIcpPUlQpOTwllnS4dd6jpcEju+52DHw+hyLD3NiLRWzV7JiJCZKCRIiiQAAABSMBoAAAACNTZkiNV6EX4mfXOqLoUqisp6ZXfZm6EchO2ycsy07fQXylVUXHEJRTWY4eVjsZbeKhFqfjeMQWmI5WrNMaUl1+CqpS/nqW91bxxRR0axp6Hf4ZLLSOJSg8noeG0samedb8WLqXEljCXT4ODxChLm5crXvojrVJmW+t3JZxnBXBfkjBxHhn0qEaqq6ylieEpKHwczhterNxUasZuU+T6bjv/AJZ7HQmtHCWVF7pbM1cOtaMPElh90b+8125bx5b3tj/qJwny+SWzS1i/udGFTnSUlr3KqlCPNlGinKSxosGWWq3xiivDByuIrwv2OvdSyc+8jmEu+Hj3K4fVuSf6vOwTem/oeo4bwlwpqrOLXPonjYzcGtYRp/VmstPseolxKNeiqSS5YpcumNe5ryZz4w4eLV9q87RlrOL3i9+6ZaV0o+Oq/VL4yWGvFdzTLyZJmAADVzAAQ2gEA8ABWhgAAAAAFdd6FhTdPT7lcvi2H2K4M2Rp5MFOpg6tvVSjqclj0sbNKZ0jBXi0zVc3S6GeSb1CMqdvDU79tpHJzrKg29jvRtmoZa0M8m2EkjK5r7lzrrGOvYyVZY2WSc5xxFrRjFOSisk35SMI+mDVglCmmTumohQt865LK1PBd9BrYoup6CI6c6u9TNJZTRdWeSp7BXLuOpwOko05Rkk4uDSb/uOXbVXGpyr1x8Erq8ahTpR0lJ5bXRfxFlGxVN8zbcms69CfpjdIyWPu237siOUs59xHbhNR5eeXtlaBoMAiyhBkB4AWQHgAIMEAAAAAAzNf7I05KLxaff8ADIvxbH658GbYVcRMyiWzWUc2u3bj8VxeXk1KvhbGDkfsPlkhYTJ6Lht2d+nxGMYNNJp/seItsrfRHQpX7i9HnHQzyxbY59ad+FW3qJ4eJfkwXlu+VtbLYtt7unJJyjHPfY2OtGSa09CfVb23HHoXOnqbLaosnIrw5ZtdGzda7ajXZMunXndLGm+xx7qpnI5yf2MlVsU2hIrcsE2VTlqRpnlW2whFS55LPbJffNPxLroYqfEKUY5mmmv3FC++rqlhItx4W5I5eTHHHX5PAiQHY80kMAAiNCQwGAsABAAAAGIAAhWjmL9iYEJcuJrjsZaixJosp1OhhrTsxyZ7uD6PGoUacn6mipEstcJj2T697OjCa30Xtkvc2tNH9kbY1U1honCNLrHIumsxmumNVorzR+DVSnTksxnh9myyvFPyxSXqc+rZRSbz4vTYqjuLKss+6ZvoLwnMtabWmcnSjLC/BF7TijIzzWS1t7lVSWCqWeWhnnP9ydWe5nzqXkZZXtC4tnUwk8YfyjfbUFBY/cjbrQvN8JqOTku6YABdmAAAFgBgAAAAVgAAAAAAMQCDFf08NS+TPBnTrQ5ouJyksNp9DLOflrxZdNVN5Zrp04swUpGukzF1Y9rvodmW06bX6ihT/YnTqZZHbSN0V7/JKcclVHUvjuCssoKJXKp6lt3NZMDkiUb00SqFNSqVOoZq1bXBMx7Z5ZnVqBFYXvsJQ7/BGctM7di1Vn7a7avHZySZqi0+q+TyF3V8Wj+DRwyhUrTSTfL1eWaS6jjyura9SB2bHhkIU8PV48zOO+vuy8srHi55yW6/BCyMCWwE2IAHkBAAhCQwAYgABoQAMxX9D9a36+htyG+5Fm0y9uVSlsdCiloc+7p8ktNuwqd39jHKOjHN05Y2NFGCx/NDk/1OXnJppXKedf8AopprM3apxSXbT5Ka9dR+DmVb3C1fQw1L9iTZeSRurV9dzJOul1McqspbL7jhTT1by+xaSMrlatlUctv2LaMUtXq+wqVFvZcq/BtoUFHV6k26nS2OFqDp9X8HMvrjobr+4x4Vq3skQ4dwlzfNNa/6Iw7+s+fnx48XMs+FzrSTw0up7fg3DI00tNi20slE6FKBd4XP5FzSvHinPH9p5hM9ZVp80XF7NY0PM3VrKm2mtM6S6Mti18DOauN+qgEhl3okwQMQEgFkAK0MEwAAAAAaEMAYYDIZA5/EF4kZeXusm+/js/UwmOd7dGH8S+in3QOn6sspssbKr+ssZPo/xlsKD9CxFsERanHFUqSL6VEnGJKVWMdyrTUWQikZ7i8/RSWZd1rgrjCpXeFmMDu8PsIUkklq93uXmLg8rzscJ64/XPsOFPzT1b+Dt0KaX82I1Z4FTnku8bPO53db6aL4rBmU0kW28ZTfoRbJ3WGt3TRF9tS694Wq1B486eYenoa7a3jFd2aqc8Hn83lXesHZ4/F6X2v186q0nFuMlhrTD3InvOL8Gp3C5l4Z9JevqeNv7CpReJx+62fsdvB5OPLP1XoY57ZQATOmrjIyIAQQwAAAAAAAAAAADPfeVe5zn+QAwz+ujj/inAsnsAFK1x+IGqkAELz6sRkutvuAExGXx2eDeVfY6cAA1fMeR/ZWWqWUBgFKvlsdfhW32QAYeV/TkjD+To9S2O7ADyXoT7Wql5Tz/wD9d/xxADfx/wC5px/yeQEwA9u/XRCAAA//2Q==</t>
         </is>
       </c>
     </row>
@@ -3155,28 +3171,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ravi Bishnoi</t>
+          <t>Rishad Hossain</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -3185,43 +3201,43 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>25</v>
+        <v>33.3</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>1</v>
@@ -3230,40 +3246,40 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>27</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -3272,7 +3288,7 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhIVFhUVFxUVFRUVFxUVFRUVFxUXFhUVFxUYHSggGBomGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGi0fHR0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAECAwYHBQj/xABCEAACAQIDBAgCBwYEBwEAAAABAgADEQQSIQUGMUETIlFhcYGRoQcyQlJicrHB0RQjQ4KSsjNTouEVJGNzwvDxNP/EABoBAAIDAQEAAAAAAAAAAAAAAAABAgMEBQb/xAAyEQACAgECBAMGBwADAQAAAAAAAQIRAyExBBJBUQVhcSIyQoGRsRMzocHR4fAUNPEj/9oADAMBAAIRAxEAPwDXyJkpEiSLBRRRrxAPeMYjEY0AjGjxowHjRTz9pbcw2H0rVkU8ct7t/SNYAegw0jCZg/EDA3I6RvHI1jPT2LvFhsVfoalyNSpBVrduU6kRWK0emRIWlhEgRBjImRjmNGgINGMcmRiAiZAyRkTGKyJlDGXNKDAAWssUm8UYGnS8kZARyZGyRExo5jARCGjmO8jJAPFHkYCM7v3t79kw11IFWoclPnbmz27APcicZrMxcuXa5F8xGrk8rjmdeJmm+K+0i+M6IHq0UVbfaazsfQr6TyNn7Lq10Jyg3IueqAFA5k2tx5dkrk+4lFyeh560bam+oNu5h2m2vPvj7OxTJUzU3KOLlKg0KtlOlxyPDvvNlsL4eYiqwLBkpgaa6k8dAV4cOM9/A/DOmmbprm/A8Dy7vylcssUWx4ecvIp3J39GIK4fEdWray1NMtQjkR9Fj6Hu4TdPPn7b2zWwmIZAfka6n/UJ36mbop7QD7S6LtFdNNp9CJjSRkTJIEQJjRzGMQyDSsmWNK2gRINKnMtaVNGHUHcxSNQxowNRJkxlWO0iSGjKY8YxBYnMjJSNoxCMUVojGCOU7+bHL7SVQB/zC07G19f8NtP5ROrbsbv0aVOnSsGyHMxsBnY3uzDxt6Dsme3j2V/zODxebVapo5fsPScqR4MD/UOyNtDdTEVCXzC2ZbFqlUHLxZgqWFxpZTe/aOeHJK5robMUOWLfc6cwCjkB6TytpYpCAM6nuDDjPKwDsMJ0bgllAHE2zefKZmhulULGpkpEkKWvnRyxPX1GlgOFxraQtSRYouLRlPiRss/tNIjhXKpfiLlspHuDOlqlgAOAFh5TNbZ2MtbF4ShUYhKZerfW5NPJlF+8kCaXKRoTe2hPae2aOHl7NGfNCpNkGlZljSJE0FBWTFERFAVkDK3EsaQMGFlTyh5dUlLxgDveKKrFEI1QMTyIkoEhooo94hDRRRARgRjxGNGBRtV16AlvmV6eXzqpcQ07eUBKYABy5iTyGoFhxJJB8LeFwNp4cvSZV+awK8rspDKL+IE83YFahigUYhnt1CGsQFNyOrY2zeRBtrMWaFStdTZgnap9D1G3gw6Uqgdama44Ix15cBaXYDeFFZEfg4OUkEMDyVge3kRPUGMwqqEenTD/AFTcXP3efleZveL9nw6mobI7klTrZQBa4Umy6C+nPjINUtC7m3tEsLXpvinvyQkDvFQEAnxA9IaZn91HR2quD1zkup+YIQWVyOxsxPlNCZqw4+WOu5ky5OaVdilo0cxpcUkTImWkSthEIqaVtJsZFjBiKWlNSEPKXgANUjRqkeMDVRiYlkmiobGjRxGiAjLUkJ521tr06Fs12Y6qg4kdp7B3ycIym+WKtibSVs9FhPA2rvfhqJyhjVf6tPUXHEF+Hpe0zW2dsVq/VY5UP8NCbH7x4t4aDumYx65KZYfMdB3G9gB+PlOvh8M05sr+S/kzyz9Inrbe3sxNdLBhTp1M65E4lQQpzVDqbnMNMvCe5s7YzNg8JicO3R16aDXk4ueq4527eMxGNsRRUfRpIpHY2Z2Pn1hOh/DPFXovh31CMzU/uMQWHiGa/g4mbxXDycLCcVVS1+do18KlLI476fai6rvljVKhtnM9QaBlsy3tqQw4edp52G2ViMZiRiMaQFTVaKm4ve4DcuzQdnjNi1FVuM2W/vI0MOBYLznnXlOj+D31Oa73bQrYTabVaL2LU6ZIIurC5XKw5jq3mj2Zv1SYKK6mnmFw41pnUg35rYg9vDjMlvmekxlRwbgBUX7oX3uST5zzcORlCEG+ckdmqi/ndFt4mer4XgIz4XE5LVrp2eq+6OTmyVlnXc7LTqKwDKwZTqGUggjtBHGSnM9k4urhzem1h9JDqjeK8j3ixmz2bvDTq2Dfu34ZWOhP2W4Hzse6ZOJ4DJh1XtLv/JGGWMtNj2ZW8ReQJmEtK3kCJNpBoxFTyqpLWlNSIASqYo9SKMkjVCPaKNmiQh4jFaK0BFdesqIzsbKoLMewAXM5qMa1eq9R/mY3t9VdcqjuAH/t5rd+cVkwpUcajKv8ou7ey285g8BV666/ZPjwHuB6zueFYUoPI+ui9DLnetHoVEgO1UOUX1OdfEcfU8Ye9YC2Y2JNgO/n+nnBcTrl7cw9p1HqURXU8OsoXRjw52PDtvN58P8AZpqBqyuFNCpSI7GSorLVTzC0yO9BM1iNnM5BA8R2junpYLamKwaOtAIRUKFg6k3CXICkEWOsxeI4MufhpY4Vbqr02d7mjh88ceVN6HTdo7Hao4KnQWNu3zhn/DLqRmsSLDla/O/dMpsPfGotIVKtDKp1JDhkVQxVmubEAWJI7AdZ5Vb4p0XdhTw9dzra4RQRy+l1fSeLjhySbUYOUk6aXR+p6DJLkpylSatPujxd+9l9DjqlKmpK5aZUAEnL0Sg8O8NPAp4Nyyqo65ZSOdgCLk24C15ott1a20no4tqSUaZyUWvUDAutyGbQG3WHL6Ih52Z0a1GUqyUyFdqZ0sxIUi/WINjbwntuDyOODHDI0mopNea0q9u2m55zNP2ny62zyWSxykajj/tI16WmsY4nMb+/A91+8yNfEDL7nwB/PWbbKDT7p7TNWmUc3ekQCTxKn5Se/Qjy757s59uViSuLsTpUVk8WAz3/ANDes6EZ5njsSx5mls9fqdDFK46lREg0m8gTMfUsrUpaU1Jc0oqxiBapikaxjQGa+MwPKKK8AJAxXkY0VAZL4km1CmbXs59MpB9jMFQqg63+YWY+y1B3XAB7CJv/AIg1gEoqRxdj5Ktj/dMK+DyKSuqk3HcSLEefL0PEW9H4d/116syZfeI7QxhqLfgy3v3MDr+F5r909nftpVAcpdS6m1+sgzFe46HWYvB0MxqKO5h4Ef7TQ7rbabDK4RrMVKg6aBrXtcHiLjzmvIpvE+TfoUtq6Zsau7D0yA1QBjTSplyVCaau6prlU8CdfAzPb07KqYYU3epT/etVXKhYm9Fsjk3FtCbaHnCcXvzUYuGBOcFCwyCoKRJYKHyg5sxBv/8AZ5eI3sYYQYdkQ5aXRoQi58zVQ7We9xmyqTzLC8xY3xiknJWuu3n9uxNRx9CjaGLLYNKKmxd3Qn7APSN63UeBaefs7Z2UHt59vjeGbMw5IptU4gO1x2s5H4KPSTxlfozmHymwI7PPlL+D4eONSaVc0pP6v+CXFZ5TcYr4YxX0X82aHZWxQ1NS2exvkSmAXdtQWBbQAEEcCeOnOV7w7GanTd0NT92LulRbOFuQT1QAVAyk3A+bsnu7kbbp5UqpZ2oqy1aYsHCkuc5HG9vpEW5X5yrfna6OalR1yg02oU0YHMxuyl7W0As+otayDnOZLis//I5V32+e1ea1v530COKHLZzo1rKFvq2pMhtLEa9GND1C57DYFVHabknyHKSwIRnapfqjh3AD8LXnksrVWZ1B6x1J4KCAFQX+kVAueydud6JdSuDTfoerulUzY2jl4Kx17eqwv4TqjTm+6ez3TFUQKb2BLs2VgCDTdc1yPkGuvM3nSjOD4o7yr0/dmrD7oPUEgxlrmUO05pcVuYLUaEOYLUMYA9VopXWMUQGxBj2kAYiYrC0TJjXPAcZGejsWiGe+pK6js8TFJ0rJKNujIb17sY7EVqfR0LpTUkkui3LHUWJvwUesyWMwVTDs9KouXkVaxKkjhx6wItrO8vVCg5s40+irt/aCJlMR0OOWrR6B0vcPVqILll0WqjX63Afh3TbwnizxJQnFOPlvvv5+hHJwnPrF6nEqVTo6wvqCpAN/PU24/rNNuzudWx1KpiKNWigp1DSYVSUB6qvmDAEcGHvC9sbrJg6GMqvUWoOjVUOXKVbpEYcSfpCnPZ3M2Z0mxMWbXIxJqr4U6VEH2zzqT45Sxt4pfFFXXRrs/MzRwe2lPRnlV/h9jVpNWXoKqqrNelWDAhQSbEgX4TL4HZOIrp04w9U0xe1QU3KWGjdYCxGhueWs6fuRVrJg9oKaRFLoalVKliAahpsrKL6HRFOnbrxlm61GotPZeSnXKdBVGalm6BarVCVbEW0Kcb631la47LDm5qdP06N9H5KiWbAoy5UznaVwqquS7EaAi5a97W0ueOlp5lXEEglb5dB2242F/I+ndNxsHbA/YWxJQNisARgsPUuuS1chKTk9tMFwOVj5inZWza+DwmITFIaZXaGC6z8HK1LsyufnW2t+8980y46rXLqnVXv6eVNdOtVoURxVqc/LMGzKSrqdCCQwPDiOHG3nCUp1Mru+ZmUdYnMxUDhduQ8Z0qpg6lCttqrUplFNyjupCOXr5qYBOjXuOHbL9i7TxOKp5R0+GfE1cRVTEUqaVMNV0syYjMDlC5CoJPARS42k8iiqVW77pPom9NtLG426s5RWqZaIpjQuQPJvm9r+s9LCOFKhVGSmVZ+YIBBKd5I/GePWoPYOFuqstO/2mBK+yt6zY7H3XxtZBloMF7XC0we/r2zeV5pnmxqUnOSS23rp/ZFQdUlYbvRvwEYDC5zY1SzVVH+E75kpqAxPVBcZjr1zpNOtYEAjgQCPA8Jh8RuNVWoBXqKuYkEJdmtYniQBy75rsLSCIqAkhFCi+psAALnmZ53iZcM0lgd1dv8As2KORazVWXu0HcybmU1DMpMrYwdzLXg9QwAHrtFKqxigBt4pANHzRaBRO8I2dj1ovd2sp6viTwgitMjvrjctSmh+QAVCBxbrW08APeQyOosniXto6TV3kwwc0lr3qBScgGZwNNStrgajjPLG0wEJvfvFtTzNhwnPdkb410rq90ZKzFEdybWXQ6G7Law0Gk9nCVRd3pXKkktm4tzZ+45iT4eUxT5qN8IR3BfiVXP/AA1j/mVKYP8AVmH9gnibs47FYXC9Ph8VUpjrZ6QsyMQbZgGuFNgBexJ0nr/FXTAIv/Wpj0Sofymcw2IH/DWH3v77Tt8I+SKWlOcItNJ6a3uc5w/Ec2+kZNeq1Rqd5N49ppQdKuID03BR7JTDZW0PWy6DW3G+szeL2bi6SUxTxDBKxyBEq1FW5VmIKi2llN5qNo4ymzik/CqGABtbgb+1/K8E2qArYVPq1Gtz/hvzt3Svh/E51DG4RTk5P3VUopSr5pqn6mnN4fjjzSi21HlWvRtq/k07X9GXp7vYwI1MfI2UsgZsrFb5SVtY2ueMsWhi8SOjepVcUbL0dWozBCQbZVYkDRTqNLeM9mtWqjHJYv0ZW5GuS96g15A6IL8eA52no0WUV6tuYpk+NsQNfT0tLl4rnhi/EnGDbx/iRpPTVKnrv5qhPw/FPLyRcqWTkdteeq/j9TM4raeLrZcK1apUyk5abOxS6g3tc20AMBxlTG4VDRNapTpVr3prUbIwFrhlGnMeI01tPX3eoHpsRVI4O6Lpfg1ybeOXh9Uy3eej0uGbhmQ5xa/0RcjUXPVLjxMvzeKwjxMcKUeTS9r5pK9F5aJ+vkU4fD5Ph3l1vVrtUau35616eYR8J6qVP2hHcIEqUqhZrWAAI/8AD3nXNmValWndDSanmZVa5YsFYqToLcu2cI+E1df2urSqANTqUWzq2oNmHHyZp2vd6lQRDToUbKh+uOju2vVUtp5CcjjZOWeTfVk8H5enQF3uweYU3BW9NrtyJUgggdpuRoe+Z8GaD4gYllwFU2W96YFjcj96mt9O6ZLY+M6akr8DqGH2gbGQwtaoeZNpNhzGDtLWlFQy4oKKpgztLqhglQxoCmq8UHxCgkX5f/I8AN3FGDx7xEaJrPL3n2N+00Sqm1Rdabd/NSew/pPRvJBjE1Y1KjiGNc0zSpOpV6PSZwdCC1Qm3oAb/am83UxhrqKdK9h/iNyUcxftPITWY3ZdGtpVo034fOoJ9TCMNhkpqFRFVRwVQFA8hK3iTdsvjmcU0jPfEyijbPqluKGm6/ezhPwdh5zjdHHVApph2yNxW+nG/DlwHCdM+Lm1VWgmGDdeowdl59Gt7X7Ltb+kzk4mnFNxZmlqe7iNtV6pUu+qHMpCqpBvcHqgDSwnovvLVc02YJemSRYMLkqV163Yx4W4CZmk0n0k7eKGFxTlFaXWm17169fUqc5q6b18+2306djWNve4/h07/WsfDtgeB3kek9Ryq1DUyk5iRbKGAtbgLMdPCZsvHEqWHhuWUIY4pS0ddUunp5Fj4jPKSlKcm1tbeho6u87lCi00QsXOZS2YF2LEjXj1jbyMGO8dcIVLlifp1CzuBa2UFja3O1uZ7Z497Siq94syxYoP2Vbd7de5FTm2nb0VLXp2NBuDWZcdTy31WqptzBpP+BAPlOnbR23haFJ0qhkzXy1KTMr2NrEFTpawnOfhlXppj0z8WV0Q8g5Gl/EBh4sJuN59zP2g3p1cnajLmW/apvdfDUTg5YObTNeHIoJoym1t6unRELucrGzMxZ2UcGa+g7gJrt0qLLhlLAguWex4gMer7WnmbG+H9Oi4etU6UjULbKl+ROpLfhNYwjhBR1FkyOW5U7QeoZNzB6hlhWUVGgtQy2q0FqtAYPWaKVVmjwA315MGVgySxCRYJISGaOIxMnnkgRKooAcj+JOHvjqjZ76U9PqjIOr7E/zTIsluc2G2nNeo1XNbMzshI0AJ6oP8oX0mcxSWNmWx7tPadufCQjjVpKVIzqer7AN4gZJgJATI009yZISYjCMWl6agrI7jNUlZkrXl9PBOeUyOGXO/ZTZO1HcjhXZGV1NmUhlPYQbg+s77gMaK1KnVXg6q3qNROEjBkWvOzbq1AcHQtayoF04XTqk+ovDieHljgrVdPqEZJs9GoZQ7S2o0HqGYywoqGCVTCKhgtQwJA1UwSqYTWgVVoDBa5ildZo8BHQg0mJTeODEJaoIUiSDSlTJgxiZNRBNuVMuHqkaHIQD2Zurf3hQaZj4jY80sIAvGpURfIXY/2iWYkueN7WhPYy2JQnvvxHb+k8nErbSopK8r8V8GHKPhtruPmpOfAfrCk2xSOjXXucET0/4uOS3r1tfcycskeQ2zkbVGv3cG/QwR8Awv3cuc996dBtQwHgYNUdV/iKw7G1lM+FxPWq806JKTPCOGfsjCg3ZPTetRJ5g9oJkldP8AMB+8PzEy/wDDxN+9+qJc77AlCieVMHxMNTMoucieRPkJaipxDoPBrexEupsg1JUn6xcXHhppN+PHyrSX2X2SIPUpGGLi7NlHK4tfvIFyBOg7k0mSk9NuT5hzFmUcCNCNL+cwpxdIal1PcCT7zU/D7aXSdNTHyqVZe4G4YDuvb1mPxGvwXTvb/wBLMW5rqkGeXuYO5nBLwd4PVltQwWqYEyiqYBWMKrNA6piGgWsYpCsYo7InQ1aPKgY6mG4qLkMsBlYMkGgDRMNMfvtig9RaPEIMx4fM3DwIA5fWM16zm21axbEViT/EcehsPYCdDw3GpZrfwqyrI2o6EEUASirRpNobR2qWEEq4iidHuDO/JpLUzJEH2JTPA2g1TYJHBvUQlcOh1p1rd15B2rJzDDulDw4n8H0/olb7g42WBo1vESa7Mo82klxl+OkIp06Z4uILDifwr9B8zBmw2FHJj4Xip4Skflose9iQJ6CrQH0xJCvS5Fj4SSwYu0foiPMwQ7OX/Lp+RYH1nsbkURSxWmgdWXLe54Zr3HLq+8EYg8PeR2fW6OvSfsdfQmx9iZXnwQeOSiqdPouxKEtdTplQwWrCGglUzzKZsQPUgtYwioYNWMQwSrAqrQuqYDVaAwSsYpGoYoETokkDKxJAxkmi1I8gplgMCDRIPOVNVJZn45mZiPE3/OdNx9bJRqOPoo7eikzl1O1tTbx4es6/hUffl6IozPRIsaop0zAdx0PoZU9Gn9Jl87SypRZhwuPIiC1cJQXWoVB+qup9p1JtpdPm6KUiurhMN/mDyMENJLhadV2YkAKASSSbAADjFVyH/Dp2H1m/Saf4abHD1ziGHVpaJ31GHHyX+4TmcTl5Y2ox/X+vsWwXmDJ8P8cy5iaYNr5Gc5/DRSt/OePW2atJzTrl6bjirD3BGhHeJ3FjMj8RdndJhxVA61E3J59GdGF+y9j5GYcGd86UknffX9yyUTB0dlUW+WrfzELp7NCahmPpPKpIDqUzAcbaMP1huGRT/h1mH2Gtf3ndxtL4Uv8Aef8AJnfqFkmA4quQbrxGt+wjhCatMj5ix8bAf6QLwGtLZt0JI63SqZ1VvrKG9ReUVu6U7Ae+FoH/AKSD0UD8pfVnlGqbXY3gtWCVTCqpgVUyIIFqwKtCq8CqmKwYLWjRqhihYqR0JWlgMoBlimSRMsUyYaViODAiwXeNrYWt9wj1IB/Gc4oNy08DpfwM6TtkA4esDw6N/ZSfynOqaEWBAI4q36idrwr3JLz/AGM2bci+HU6mnr5EflK0wiEkkAKOJsAIS5UcdO4TzcXVapyyU15dvj2mdKbS6WUrUqxdcOcqCych29861uxs8YfD06RAzWzOfttqfTQeU5rujgRXxVNSOqDnb7qa+5yjznXBa84nH5XJqPzNGNdSTNB8TTV1ZG4MpU+BFjLHMiTOcWI43UpNTqMvBkZlPeVJB8tIXSdKg+UZuYI/CG77Ybo8WzD+IFceNsp91v5zzKLhtQNefjPS8Pk54p9+hlkqLHW3C/hc29LwetwhNQwWrwvaw5X4mXz2IpnRN1Wvg6Xgw9HYflDqs8/ddCuEpA81LeTMWHsRDarTy+b8yXqzbHZAtYwOsYTVaB1mlRNA9UwGqYRVMErGIVglQxSFaKFkGdFk7ysRxGXEwe+WqZRLEIjIs8/efGCnh2HOp+7H8w6x/pv7TE0DYW5cv0nrb84n97TTkEzL4liD/aJ4K4iw1nf8Ogo4U+r1/Yx5Xch8S/G+gnk16+bQaKOA/MxY7E5zYcJVTEnly8z5VsKKN98NcACKtQm1stMePzP/AOE23RgcDeZ/cfZ1sIjFrGoWfyJsPZRPcWlbnecPiJc2V/7Y0wVRHMiWiIkJSSoyPxEw10pVewlD4MMw91PrMTQqWM6dvZQz4Sr9kB/6CGPsDOVMZ1uCyf8Az9GUZF7R6qteM9MWLsbkaKOV5VgqoI8I+IYenAfnOrzJx5imjpOzsSlSjTanopVbD6thbL4i1vKKq0z+5OIvSqJfRXuP5hw9QfWe1VaeZzw5Mjj2NkXaB6rQSqYRWaBVWlJMHqmBVmhNQwOqYhFFQxSuoYpGhI6MokxGjiSLByQNSZMSu3bBNs440aLOo63yr946D04+UnGLlJRW7IyqrZj97saKmIbktPqA9pHzf6iR5TPVq1xflCXwhJzVG09YI4znTRRPQcrxwUEvJd/X0Md27Bby6ghY2GpYhQO0k2AkCBfuE0G5GANbFJppTvVN+HV+X/UV9JntQTk+g6vQ6ZhMAaaKijRFCj+UWvL1UiI4erbUi3jGyEcTOM22ahjIx5FjAEQrUwwKnmCD4EWM43iUKMVPFSVPiDY/hOxmcr3ro5cTVFuL5v6gG/ObuDdcy/2/9lWU8sMRwkma/EypRfSTRb6HQ8pujJ/UqZrdwjY1l+4f7h+k0tVpz3YG0DQrqW+U9Vvun9DY+U6BWM5nFRqd9y/E9AStA6phVaBVDMpY9gaoYLUhFSDVDExA9QxpGoYoIidLWMIooFo5ngb6N+6p/wDc/BWiimvhPzoepXl91mDx9Q5gL6aaSWIqHo+MUU67k+aevT9jItkCjgJr/h5/iVv+2v8Ad/tFFMuf8qXyLI7o2SVD284esUU5MTQyJkTFFJDRGc136/8A1P8AdT+0RRTVwfvv0ZVk2M4vGW4niIopvj7kvkVFtXVROiobop7VX8BFFM3iHw/7oieHdgteCPFFOYaGC1IJVjRRMgDVIoooIiz/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBUQEBIVFhUWFRYWFxUVFhcYGBgXGBgXFxYWFRgZHSggGhooGxYVITEiJikrLi4uFyAzODMtNygtLisBCgoKDg0OGxAQGi0lICUtLS0tLSstLS0tLS0tLS0tLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAP8AxgMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIEBQYDBwj/xABBEAABAwIDBAcFBwIFBAMAAAABAAIRAyEEEjEFQVFhBhMicYGRoTJCscHwBxQjUnLR4WKSgqKywvEVY3ODFjND/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAIBAwQFBv/EADERAAICAQIEAwcDBQEAAAAAAAABAhEDITEEEkFRYYHwBRMicZGh0RSxwSMyQuHxUv/aAAwDAQACEQMRAD8A9RASgJQEoCqLAAShOAQpIBLCAlUkAEqVCCAQlSIAEIQpoASpUKACEISoARKhCABCVIgBEQhKgkakhOSIARCWEJQI4CcAgJQmJAJQlQggEqEIAVKhIggEITlICKFtXatHCsz1nhovA3mPyjUqL0p203BYV9cwXDssafeefZHdvPILwba+3KuIqufWqFzy25NgBEgNG4X3JW3siUluz0Tan2oHPGGpsyXvUkuMR7oNpnjuVS77R8c50tNMMPBoBGmszIuCO9eeue5uR549rlI1+uKl9YJLfymI9Ce790vu5PqTzLsep7J+0kmBXYCJgubYwNSBo7wW62Vtehim5qLw6NRvE8QvnOnUjMQdIMfI8byrfZO3KuGcalF5E6gGxjd8UtTj1tDXGXgfQaFneiHSZuOaQQG1GxIBmR+YeK0SsTsSqBCEKQBCEIAEIQgAQlQoA4JUgSqQBKhCABCEIBioQnKSAQhCgDy77aMfIo4Uf+Q+rW/7l5LiMHVJENJMRIuF7P8AbDgWmhTxEdpr+r7w4Ej1b6qBsDZbBh2FwAJAMHWeaz5s3utluaMGBZd2ef0uimLyh0A5hJaTdRXdGccHF/VkTz18l6992eNAkfRcd0rN+syLobf0OJ9/qeLV8NWpk52xJmO7TXcnYfEPa0CDrM7hqL+c+AXqG1dlNqmciyvSPZwphsDUEGQPD4eq1Y+I52k1qZM3C+7TaZM+zbFudjaIpON3EOvYtAJNuHzXuy8H+yDY762PFWIp0AXm/vOBawc9SfBe8K6tWZ7BCckUkAhCEAIhKhACIQhAHJKkSoAEIQgASpUilEAnIQhgCEJVAFB0wpB7KDTp94aY/Syo74gLC7a6ljn1XV6lNzRctktbMwSIMCx74K2nSITiqQO6m9w75DTHg5Q8ds1j6Za5rSHCCCAQYMiRob8Vhyz/AKvyOhhgvdfMpOj+1sTUd1dUsfAFw0tdcAjM020IU3be0q9Fo6umwk/ndlHpcqZs/ZQYS8mSYnwEDyFl12jgBVAmDlIIDhvCquTdmjlilRmsMcXW7T6lEEEWpk25OB17k7pHskVKPWEQ6mJ8PeCusFsGhmqVHMbnqPD3OAglwtu+Wq6bZo/gVGi34ZF+KaTVpr8P8CK6aYn2U4AU8Eau+rUcdNzOwB3SHLbLNdEmOpxRY7NRbTsZntZr35y7xWlW7HJSjaOdlxuEqYIQhOVghCEACEIQAiE5CCbOCEIQAJUiVAMVIhCkgchCFAAlQhAGR6WVcuJw7t0VKf8AcA4T/YujKsiAk6cHLQc78pa/wYQY+PmqbE03V6I6l4GaDyI8Fz+IVZL7nS4V3jrsT620zSq+3SyZbtg9Zm4zMZeUeKfRxxrPeAaZEDKWuOad4eCPgq7ZWBqMaetLG8qbAfMuN1z2tgcQXA4cNfazn9hzeYLQZ7inUdC5xrXqaTDPhoJ1VP0gxcNDBdz3BoHqZ5WUrC1HimBUPaGsKh61lfHilGYU2uJHFxIAvIg3KrS5qiVzfKnI2vRTCCnTcRo50j1JAG4SVeLhg6YaxrRoBC7LdjhyRUUc/LkeSbk+oqEITlYIQhAAhCEACEIQBxQhCCQTk0JyCBE5NTlIAEICVQAIQhAGf6Z0Q7DPJ4GdJ7l530V2uyi/7tUIA9wngYMeoC9T6QUQ/DvBE9kxafLmvBukuDNNwcCR2rWPdusqsmNT0ZbjyPG7R6JtulQqRNSDbR0KzwApsYIf5leInG1YHadMbyujNp1tOsfHed1p+uSX9NXUv/V+B6H0o6QBgLaLu1634Jn2d4KrUq1KxEuGWZ1vf67lidnYR1SqB2iSbce8klafbdIhjMKwkVczXEscQWtHEjcRIjx3JeVY2orW2Rkyc2OU5aJI9qozlEiE9ZjodtYOb93qPlzQMpcbuEXF94N/HktOtdUYMeRZI80QQhCgsFQkQigFQhCgAQhCAOKEIQSKhCFKIAJyaE5DAAlCRVeP2/QoktJLnDVrYtyJJAStpbkNpastEpIAk6LIY7pXUI/CphsmJcZPgNPisrtra1d1qj5LjDZNvAbvBZp8XDaOr9ethMk/drmlF13ppfV0bvb23cLTYWlweZjI2DPKdF47tav96x4pMbbISG5pygi/jv03hSauJLg6oZhjSG5te/nMKH0fwxZtTrT7DmNbO6Xs7EndJpx3lPc3jlN+vyRwvExzZYxqvO7+yrQh43Yb2OygSBrv+S5s2Y8EWnfHju8CvT62ABvH8prdkNgmAP2WePFTqmdh8Jj3MNSr/d9BnqmzGkWB/M7uEmFabNolsucS57jLnHVzl0fhKXWFzRMWB5byPr4ruWQJK6PDwfLzT3f2R5v2lxUcmT3eN/DH7vv5dB9Ws6wpi5IAjUk8CtxgttPZ2XHOAN4vHf8AusRs+xNQtzHtNY3us4jhw81YuqFmtyfadoJ4QVn4h3KlKmheEzzxJycOaPV60qvZ9Ou/76HoWEx7KmljwP7qUvOaGPe0y6P0jX9leYPpHlMOBc3eMwLh6IjklFfH9dvsb1nx5H8Krwu/uapC4YPFsrMD2GR6g8CF3V6dlgJUiVQwBCEIA4oSJUAxUqRKgBAnJqZXrNY1z3GGtBJPIKQKLpZtk0W9TTPbcJJ3tby5m6w2BlzyTucSO7I038ZRtXaBrVXvOrnEjlB07hAC64J34NQ2EHeYiY0+tyxTTyeei8DFlmrcntH4q7pdPC9r1rszvi5AjQkgDzFjxCzWNrCpiCczrHK2e1eSDfcrWq0lzP8A2P13MNvWFG2LgZ7QvN+RnSfBVQ4RY3e+vr14GD2h7dy8ZH3cU4rqru33ei2VpfN6kfbhDGODWvePZhjSZMaTFvFdMM2WNc4DSXEi05cpsSePPktKKIJlxgA2Glza6j4nZ4cAMosS6xiLe7yW/G0lRz/1ckkorRdrv118idsfbbHhzKsNcwSToC3TMFmOlPTqm5hoYOKlRzg3KGuI1kku0dpADTvvokbsd1Zpl56sAlonM5x3F3Myee7dfrs/ZlKg4BlFrTlJn3v1Em93W7gUmDh4xfMvLw9eJ2M3tmWT+k49Na6+L8H2Xm0tDjgTi2ForChBFy0uAaYlwkkyQN0BObjzVluUNIBLjezR7RGkmFJqYOQbe0I1Hmq3E0soZTi9R+Q8cre04fBaXN9Cn9POMbmmu2lfuW+zX+yR2Q4FrW+0G026mfFo/wASfWrnMBEkbtch3THhZMkUKRyCajvw6YJm9i4wPdGcE/pCMDg20xES43LiXEzxNlmxYIqcptW7f+zRxXFZMmLFiuoqKvx7XWm1NV1bu2lXZgB9+TzDvXgEkcvEfuNPEKVlIF/Ofr1XAPnQAzcWAIbxn63K+cL0ZljKi+6L4006obPZfDT3n2T/ADzW2XnGDdBBGoOo+uK9HSQjy6HVwTc46glSITF4ISoRYHEITQnJUMCcmoUiirP9PcV1eBfxc6mPAPa53+VrloFiPtGxQmlR/pe8jvho/wByjI6ixMjqLZjK1SHT3nvG/wCSmbKxDW52nQhpB7iQR39ofRVcGh7IB7Q9kzu3SfDzB4KnxeLdSzi4lj2W4xIEDfIb58IKaEVFbHDy801JR3pmw2WRVNfMbn8Knv8A/wBaj3OPAEdX/atNsbY7KVBjKx7bAw5ZFwSAJMQAfO25ZLoljqb8Kx7iA54BIEEiw9kbrhaP/rFV4ayiYDDmtBMi4mZ37vRKo6aixfDVFKGqjUm//Vyb0vZWlel1qqNDVblFTtkM7RayBENMWERraTe6y+Iucrfykk8jYD1nwXNu1K1Om5maWakOudZsTcSY71BwLzDsxMucDoBG+N5gSPNOoWzPx0+akt67+PqvV21eg0ZbgaeQvEdy5YZrazw8b3Bht7g+neag7Qccpt2nHKDlFi6x15SrnZtDq6bajWyyIGXdFhPCxS5ZRxpcz3dL5u/wN7PwN5rj0XN86pdfF67b29EW1PZ1JtI1HU5IGaDYaWAt3Lz3aMDGYYaS2qQObh/AC3dXFVazcrWkhwgktDW9+bzN15t0rrZMVhXzaY5y4tHzVeFxU3FO2qb8Len+vkd3iJN4op7fFu7bqPzda6PZ3XgXOGhzyYu0uYBzLiCT4NHgrJrLxv3n63qi6Okuq1TNhUdHMuMn0y+qvXu3ASe/4LSczmtW+y+yRyrPuACIb7Xyb9cFHw9SR1m9/s8Y93zufEK32xiaOKaKDST1LBncBzDS0nidOUErpT2A9w60OAYBva5mURLnEEaCIEcuKTFkco8zTXzNXE8BlwzUX2UvJ915fSn1OexqGerTZxcJ+Lj6FegrLdGsEW1y4lrgGSHNMgycog+Dh4FalHU1cLFxhqCEIUGkVCRCgCOnBIEJRmOQEITECrybprjTWxbnjSmQwfpuCf7oK9O2ti+poPqbw236jYepXkGIaXOe0+8RB5x+8eSrm9VH12M3EyqNEOoS187jB7p+HaETuIbulVvSEwA8iecRMXE8OH/KuntDmh2sXjXMxw7bfSe8Kl6Q9mkRqAbE3lp0v9bjvWivhOVif9VHXYbXtpNpMdGoLuAzGPSFs9l/hNzNIM2vrbUn0WL2BmdQZkkQxuZw3xLfkb8l6pidkU30mPZDHimy8Wd2R7QG/n8VnzcRjw8vvHSen/fz9RsPDZOJc1Fax3XV6mbxXakHQmT4XUbCYhwYDAh0mDuk27l1x+enIcIMTHHmDvC5AENbDbZYkgxEmbrXFLQw55TinS1XSvLb8ktrs/VkyDmtDp3AAnxcrgYl1J0sJEgHiD37il2Hherw5xWQ1Hg5GMF2t07RAseQ008JWJx1ephyyox76nWAiacBrY92Bv080uWMZpwkrT6PVPyLuCwSglkupVaSX01Xfol51qV1badV5Mv7P5REd0DXxWA6dseKdOoWxlqnXgdNeYWqxlUMYbXPz1KTZnRl2NDhiA40OyRcy+L9mbt7x4cqlDHgx8sUkuyVfRGrH77LxMa1fW29v4RWdDbirU1D6oc2826tgM8Lg+St9oYoshrGzUqGGDNpbtvzRYActSFrsHsvCMpNptY1lKlJDaYgadpzyLkwsrQhz34ggjMSKYcCC2kD2JG5xBnjcToiE/eM08Rwj4Wna6fX5PdbX86aH4YZA1gsJBcWgZi7e6d51ieJWoZjG1TNMgOeQzM8Ay50iXNAg9hgFrTVKylPtEuBt7IG763eKlUnw7MNxBHeNCrXFJUiiPE5Mk3PI3Jydtt2zZdHqbcjnNAguIETGVtrTeCS43vdWqgbCphuHYBNxN+anqpO1Z1lHlVPoCVIhSSKhCFAEaU5NCUJExx4QkCEyFMv08xuWmykNScx7hYepPksJTdL3N4weXDwNvUK86Y4rrMU4D3ez/aL+pKz9SWEP1jU8ja/LTyB3KuHxTb8jl8XO5Dn0NQ2xBJB3QTPofgs5t2sOpIiNRHAax4EFal1UEBw+uII+tFj9vUn1aww9MS+pUDGji57reHaWx7GLAnLJGu5B6MY9+ZtHNDYdNptJcV61sPpNSrsykw5lPX3XNaIJncdJB8NYXl/Svo+dn499KjmdTpimM4ue1TbnmNO0XW3WV/sPGN6gUm03se67g6SapvlIOlhbLugneYy58GPiI8sun2Z6H2Zw0l7RiozUFPe1pJ23Sfd9NfrpF6HHbbp1ndQ1ktk9pw0IGrBqNP4V3sg4hlFtWpijQw7ey0BoeXGTIa0g7weOhsshTpMpVMzzD8pimLmSIGeRAiZ420C0XRfFvy1w4sfh2walNxg3MZqf9VvQb1dDHjhBLGml49/XZIb27l4d8eo4JJ1Gm4v/K3/AHVvS3SemxcYTaeIqVMQxlV9jTZTzZQWlzw2SQNYmfFTKe0Gg1sM2tWqVW0qhNQ2DXZdKbeXH1WQdtJubFPY49usHUyJFg4uBE3Bu3yVzs/pAyo11SuwdZkLRVAguBEAPaLa793AJ6s5H6qMWoylrrq72t+Oj7N6aVoUNPDipiaVKTOaCIsWj2pO6wK3uIrtY3tu10YN/KNSsp0Xwpe91YEwJDRuLiDJ8AfVSsfjqVGt93Dw7EPbmcTMhhMZW7mg6c4WPiLnl5I9PXma/ZDeHgnnzbyd11a0S+Su3fjZIxe2HGnlaOradeP+Lh3Kl7TtLbgPmU8scS4OM74AgBTcNR3nhbuWuEVFUjnZ8088+af06IjinlED65+fxSt0tv07ynVXXRg35qzGDWRIji4b/H1UTK7paeC+ro9CoU8rGt4NA8hCciUJDvMEqRIgByRCEARgnhcwnhVoceEOcACToBPkmhQ9vV+rw1V39BA73dkfFNdIV9zyva2Kc5xeGyS4ukuDQCSdSe87lAq4+oQW9S8Oy3hzSz0OaOeVcMY7PUyiS6biSAPHd4XPECJsadIBuoDd9g0cyY+anF8MThZtWVFLanVkB9jvaWkSBF+BIvpqBuTtj7JdjMbUqwerpkBpHvOgTCsquAZUaR1Yg74AnugKZgsd91wrqLWtbIdlqk3BJntA68LFLn53Gomv2dPBDJzy7adr/gl/cqTCA1oJG/8Abh3qQGAaqn2RtdroDy1pcYbJi8Tl9Nd6tm1m+8LhTDEoKkGfPLJJzm9/2OVTAUn9qL7jcLhW2QBD8+m884O7uU9j2zrv4b0mMMggEflHiLnynyVi5lsZJLHJ20ispbGrOoxIa4n3tY1kxMHlO5WGE2YRDHVBa5LRGukEyU/B4suZJEGwcDuMkH4eqkVHdoOB/pI5bvX6umuQjjjapr66jszqLclNxa3I+9vaMQ421HzXCrRFqgPbIaHPb7ToJLQ4mSQJdbmu+KIc2PIj61UOmHAZSef/AB6/RRGCi7Q88s3HkbdLZE7rA4Wtx5Lu+rCg0Bu5R5fwu1apb5pxEyNiKkSfqTYDzVnsbK3F0gR47s2V1x4qgxwe7NkE5G6cSbxO4hv+tW/RzEdZVw5ykOJvP9IIcDzss2Ry5k+hr4dY5Jwf91xlqtktdHtbuq3PQkiVImOoCEJEAKhIhAEYJ4XILoCqkOx4VJ01dGBqd7P9YV21Q9tYH7xh6lHe5py/qF2+oCZq00JNWqPEjLSTMbyTxK60apJBdMDQfMrjiHFrix4Ic0kEHcRYjvQyqToPGRPrZPFnGnF6lq/Ekga30tJPJrfmVExDCSC52Xh71Q8hr5MHioZxYYfba08iHvPjoPJd8Pj2NJcCMx1c4y7lJPnCbmTIhCUVs/X2/ccNlvyuytLQQZzOmpO474PieYlSW4qrSbmqguDQJLBmPeQLnwXP/q1MmHF7+QFvIW4LqNquIGXD1Dq64gcvkmTRLhJ7r189wwvSSg/2c5ixBaRHfPP4qzZtNjiDzjzVHUbUqOBNENOvttabaTqTOsJwfUpiaopgSN8EQZjtATvuj4iuUY1p+6Zf0KzDrodCNRFtOEKXnGkgi9ws9Re4gOaG5dQQZnUWieAUh9ZtGTUe1lye0QNR8ZTJ6FWqfL1L+hvB75RiMo14hZn/AOSUySKbsw/MAYvpeFwdtVziddEkskUWqE9q+ppWVhMch8EypiAGlziA0Akk6ADX5qqw+IJOd1pI8lC6XPqHBu6vTN2+OWZj4TyTN2hca5pqL7mg2JjGV6PWM3weB3684HxV/wBFMKfvAcfcYXf3dmPU+S8x+zraHadQcYntDjpo1ehdDKj241xc4kVaeWDuLSXW8AqW3zbab/av4v6GrFhhDIm5ar4arfXmTvpvFLd2nsb9CEik6oIQhDAEJEKAIgTwubSngqtFjHhPC5hPCdCsx/TToP8AfX9dQqNp1bB2YHK8DeYuHaDfMLMH7LMWBbEUHHg5ro84K9YQo5ULyo8YxPQja1H2MPh6gG9hb8HEO9FT4r79h7VcFTbze1zZ8SIK+gE4cEytFD4eD6Hz43a2N93DURzmfge7ySuxm1KlhSY3TRsx3ZiVQ7Yq1jia72Pc2cTViHECM7zAHdHkplFuOzdms9oO83g8Sm5r7mWcIw1+DzT/ACye7Z20nf8A2VXNB3NIHoF1p9Emh34ji4xvO86fNVWHx+0M7mOqAOaYJdfuNtx3FW1A44kRUoE88zd0a3BTKKfQqyZ3HRTivlp96/kmP2LSy5Acrbns2tOUEkeay2M2YKVfq5kZM3O7oAlX9altJpH4NJ1gLVLWM3kKNUwGJe/rKtMNcWBhgyIkuseKdxT6FUM0sb1yKvmQajmUWTcu3Akm+7kunbp0c1So4OHuiABNwDZT8Jsq+Zwl24O3c102rsqo8NbrvKPdrsT+qUpcqfzZ06OufUaXvMuixOnhwV3iaQe0tsMwykGYNrHvUbZmF6umG6ef0FZESO7UHvVi0Rjfxyb+nr5HmYD8Figd7XeYleqbBxoNShWboXB08nGCDzFwsZ0y2aXAVRGZu4DULv0PxpdS6ud4I5FZ5KnR0JzU4LN/kt/LX/fme9JFzwtbPTY/8zWu8wCuiU6wIJQU0lQABKmShQSRgU4Lk0p4KrQ7OgKeCmApQU6IOgKVMBSymIFS5ovwTZUfalcU6FV50bTcfQoIZ8+1G/htqEXdULyOBcS6PJ0K6wg93yKr9qs/Bke6QfJSNn1Osphw9pvl3KyOiPM54yyJSfVvyvbyJVTZXXXYctVghpt22H3XcRbf+ybgaWXs3a7eyJaTvNMH4aqzwbc0OHjbSdfWPGVK6lj3ZahaQfeGvLNI15qxVQVLr/36EX73VZ2cpP6Qfgu9LFunKaRa46EzB7zopzcABNy79RJHlChVMuX+kGCGEXPMkTCdFeSPKm2/XrsOwtIulzmQB5ldhTJl2vySZ90ny0EaLq+4EGD9XU77lamoRaVkeoyd1uI1lPiIzDdEjRPbTM5nAjnr6Lsxw1gHu+YUMfFKTenryKvG4bO1zeHlyWWwDDh6+hAJ8Df0Wyxg7QIsqnG4Mvl1MjmP4CSSs2Qyct9nuep9FsQKmFYQZiW+RkehCuJWZ6AAjBiYnO6Y7mx6QtHKztHZwvmxxfghSU1KUwlBaLKEyUKCSI0ro0ri1PBVMSxncFKCuYKeCrEKPBRKbKWUxDHSqHp5XyYCqZicg5kZ2kgc4B8AVeyvNftV2qesZhxo1uY83O0Pg0f5iok9BJ/2syFWqHMkQQdZkj0II71G2XWa2pFJ4ObVhILgRvb+YevJVVRgdYkgm5gkQIzGY1gQO8kowmGpMPsyQASTeC6AAP7m358k0XRznw8aa/BrDiK9MjM0Aa9mRIPf8FPo46nUGXNlPAiPOf5VC3D1HNa6nUMXs4kgaxF53KHiMW+mXtqNjJOZzDIERJLTE6jRWKTQkuHUlpv4GyaKzBZ2YcHR6SJ/5XZmJabEweED1G9Y/C9IHU7NeSOF49ZVnR6RUH2qNIjWBI8v2VkZxOdlwZV009eZe/fmNuATZoi3zXJj3VAHDQxYALlh2t9um7snv+a7w33XX8VYmY3zVTX7L1sPpF0wc1yYt9cF164D2rHiPmotbE5LOuOKr6m1abnADO924AAeEuKic4x1k6NHC8PmyP3eGDk+yTf7WTa+JiQ4id2krhTe6c2nI7+4qrqGq5x6unSzf9wuJ77GPVMp0MU4TVqU2tm3VMd5HM6VRHNDInyO6Ohm9ncXwkox4iLg5K0pNbeV/wAHr/RJkYRrvzlx9Y/2q4lVHRVrW4OkGzGV2vEE5o5TMK1JVd3qdfHHlgl2SFJSEpspFBYglCaShQB//9k=</t>
         </is>
       </c>
     </row>
@@ -3282,28 +3298,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yashasvi Jaiswal</t>
+          <t>Sumon Khan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>66.7</v>
+        <v>176.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3312,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>66.7</v>
+        <v>46.7</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3348,43 +3364,43 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3394,12 +3410,12 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMWFhUXGBUVGBcYFxYXFRcdFxUXGBodFhUYHSggGBolGxUYITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0mHyUrLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABKEAACAQIDBAcEBgYIAwkAAAABAgADEQQSIQUxQVEGEyJhgZGhBzJScRSCkrHB0RUjYnLS8CQzY3Ois8LhQoOyCBclNDVEVKPx/8QAGgEBAAIDAQAAAAAAAAAAAAAAAAQFAQIDBv/EADERAAIBAgQEAwgCAwEAAAAAAAABAgMRBBIhMQVBUWEygcETIiNxkaGx8NHhYoLxJP/aAAwDAQACEQMRAD8A7jERMAREQBERAEREAREQBEtVqyoMzMFA4sQB5mYNHpBhHbIuKoM3wirTLeQMyCTiUvKzAEREAREQBERAESkrAKRKxAKRErAERKQCsREAREQBObe0P2p0sA7YagvXYgDta2p0iRpmI1ZtxyjxInQMe5Wm7A2IViDyspM+TNmbMbEszs/aY52Y7yWNybc7kmaykkrs2jFydkWdu7exWNbPia71TvAJ7C/uoOyu/gJGCkOU37CdCqbj3n36nTX00l2v0YoILZNeZLXnF4iHK/0JKwdR72RF9EvaJjtnlQtQ1aIOtGobra+uRj2kPy07jPozor0io4/DriKJNjoyn3kYAXVrcRefMe09kIp7NxN//wCz7tMpicRhDudBWH71Ngh81cfZnWE1LVHCpSlTdmd3iIm5zEREAREQBKREAREQCsREAREQBERAEREyCxi6OdHT4lZfMEfjPmrYeHNMuCLZSUPO4NjpO+9KdsVMMtPq1UtUfLdr5VAUsdBvPZtOVHBj6TXIAu9Rqll1VS1ibd2a58ZExE1bLzJmEpyup8jzQrBB20rqDuIQkGXsXQQqHLXFj3N5c5h4vY9QlSaha197EDUkg2HK+7uHffC6TVCKAC8G1sOHeeUjtLRImpy1bITGoal2Sk+XmSo+8zb/AGIbOP096x3DDuPFqtMD0UzXcTR65UNPs9gA9o6tpdiL7/SXNj9KMRs0VFo9XnqELndSxUKCbKtwNSeN5JpuMWRK0JS5an0nEg+hu06mKwOHxFVQtSpTDMBoNdxA4Aix8ZOSSQXoIiIAiIgCUlYgFIlYgCIiAIiIAiIgCIiZBFdINnfSKDU/+L3l7mXUa8OXiZynaVCpQZGKkAfqySpXUa2N97anXSdrmqe0jDhsGW+B0bzOT/VI9akpLNzsScPWcGo8mzSP0grjXf8Az6zXtuu5pdUGAF85BVRcfCpHy46z3QVXJRtx8D6TI2pg1WmBkFrHUi51798iQa5lk1fRGtYauKVMAHeT4d0u7H6PV9oVaKLTfI9Q5qgU5FUZQ133Ahb2HMiRVUGwpLrlJN/n+E+i+geyhhsDQp7yVFRjzNTtHyuB4SVTp6kGtWtZInMPRVFVFAVVAVQNwAFgB4CXoiSCEIiIAiIgCIiAIiIAiImQIiIAiIgCIiAJr3T7/wBPxHcqnydT+En2YAXJsJxXpt00xNbENh6TKMI6kWyjM2VgL5jqLkg6cLRKDcJS5Ja+eiMwfxIx5t/ggXpsCGVrX8RLW2cVXCjMVItpa/3TPRbqLzC21h9Ab7hoPnKyMr7lzKNloaq7OVOtgb7uPzn1J0bq58Jhm+KhRbzpqZ83YiiAlrSb6DdNsThqyvVq1KmFW1HqibqigAXpjmunqJYYdOq2o9/sVeJSppNn0TEs4eurqrqQVYBlINwQRcEd1pem5xEREARETAEREAREQBERMgREQBETFx2MSkhdzYDzPcBxMb7GG7asypj4vFpSUu7BVHE/hzM1DH9MKhuKahB8Tany3D1mm7T6QBjdnaq3zuPPcB8pPpcOqTfvafdkKeOhtDV/Y2zpH0lNak9KmMqsLF2OtuOnAEcZzXGYbrALGzKbqd4v+II0lcZjnq6E2X4Ru8eZmHiaFVlCrVKAb7DtEcr8PCXEMLGnScFG6e66+b/VysRFUnKanKVny7Els/Fggqey671/LmJ5r0s2tpFLgmW1mJYCysSbnebNzGvzmdsrFlwaZ0bdPJ8Q4dPCSuvA9n07Pv8Ak9RgsbHEqz8XPv3RFY8FtAO6eH6pUFJXVit9x3ne3z1+6WtqVmDdWpA7VrjeefyA18pbobHVRc6mXHDsHVpLNZXdr9l0+b3fJdSsx2Ip1HbWy+/I2voR0wxOG7KN1lG+lN7kD9071+7unXNidLsPiLAnqn+FzYfVbcfQ904FhUNJrqfy8RJ7DbUU6Otu8ajy3yRUwKmr8+xA9vOD01R9A3lZxXB7aqUx+orsAOAJy/ZOnpN26G9MhiW6itZawF1I0WoBvsODDiPEchXVsJOmr7olUsTGo7WszdIiJFJIiImAIiIAiImQIiIBQzn3S3aRqVigN1TQDhfifnfTwm9Yytkps/wqzeQvOS9dmYk8T6mWPDqd5ufT1K7iNS0VDqRO0q7VL30VT7vD5nmZF1KOUm27fJPaOhb9oE+kvbJH69HKMyrqcq5it1sGynQ2JB15S+vlg2lsQoa2RiYrYtWlcvlChVbOScrZhcKul2b5C2h1mIGmx9IKNZ0VAhyKzNuRWLMeFNNQoFtbb2NzrNfqYdkOVgVOmh36i49DOdCo5RvJq51qRSeh5K33eX4jkZi46oFXOQc4Iy23sTwmaFnjqszA8g1vmbf7zpUSlFxaumawk4yUl9iH2dgiD1lT3zuHISQZdCSbAbzv+Vhzl6ouusPSDoUJsTYg8LgHf87kTjWcoUnk3/bs607Sn737/Ri1qZW2ZKiBvdLoUDfusdDpY+MKsm9s7Wq4ikaTUchZlZ6hqEpdbi9NbWW+7e2mg3yAxdX3rcSZEwmJqTup/wA/f05HetTUdv4+2pk4OpZc17DNbw3S6cU1BkrA2enXJHo1j/PGYuEcBUB3K4LHkEUufunnF3dlQ+8WzMOTVCvZ+qgUec7VHm07fkj2tK59I0KoZQw3MAR4i8uyC6G7RFfCUmG9b0j86ZKeoAPjJ2ecaytotou6TEREwZEREAREQBERAIrpPUy4Wqf2beZA/GcnxDWvOn9NalsKw5so9b/hOZ1FvcHdulzwxWg339Cn4i/iJdiH2jUzLfip9OP8/KStLbKpTKCmC1ghYdm/zI7RPfeRG1MBfcO2OXH+EzG2aS4VToQ5U/MAD7iJZuMZvLJHKnK0bpmxV9vVm+Fe4C/L4ybHThIYibBS2EOuFJnPaUtwG63zvvmPi9kdXXWmxORr2PHRSd9u7+dbRaONwebJTkruOdW5x11XXZ6b6MkzoV7ZpLnbzIcmwl9bKB8pKYjYyDEJQuSDmJP7oU8D+1M+rsjDl+qDWe265vp46eXKcJcawqSfvNOKndRbtF31dttmdFw+s3bRauOrS17GrVBLJmwYHYwatUpOfdtY/MMd1+4SHxVG1bq15gi+u9QSfDXykyGLpTqOnF6qKl2s72d+9mcHQnGKk1u2vNGG5kVjq9tBJ7b2zWoUy+bN4AbvEzVsS1xm7j+M4rFUq9P2lGSlHqtu52dCpSnlqKz6MzMBVPZAF7agfExNwD3XUE9wPOS+zsNauoJuVBqMeZ5n5knyEjujIVafWnXfb/bvOnpNh2fTyK1R/ffU9wG4DuAmaeqUyPWlq0b77KXPVV6fBait9Z0ufuXzm+zQvZNhaiUsQ1RSpetcXt8C8pvsoq7TqSa2uWtFNQSYiInI6CIiAIiIAiIgGt9OK4XD5TvY2Gl933TmtQ5bm/pN59pRFOlTrNqitkKgEm72sQBv92c5rY4N7jgce0GH3iXPD501TtmV+lyoxtOpKpdRdutn6HjEV6xUgC3fqG8LXP3TH2dTCIhFiQ1QsebZtdeO61+6UxO1VItUqqo4jMNfKXNn5TQR01U5gDzygAnxbMZZxlHMrMjZZKL0t5G8Ov6/DtzXL5gHX7Bng1RWZ6Z9+mdL9634fM+R8YSlt+y07KS1IXzHS5ykHnzkQ+1W65q4FiTqOG4D8LzzdPg1Z6v3ZRjaDvs1OTjp0cXZr+i8lj6d9NU2rrs4pPzTVzaGN9oU+5Kh8+rH4S29Fjj8wHZHHTn/ALGa/hdt1WrddZcwUqNDxI7/ANmXqnSCuxPaGvz/ADmaXCcZRpxjBwv7FUndvTV6qy1Wq3sKmMw85tyzWz51ZLXbR3Niw1UNjatuCU/vf85A7Po/0ipUIva6r81P/wCeRkfQ2pUouzLYswAJa53XPPv9BLOO203VkBADmzXB01JJ0IOmp4zerwqvCNSNNq0oU6d29VGN1JvnqnyM0cbScoSqJ3UpysubfhXTfrtoSu1abNQZXXK12Phq3iSFHiZzt/6tx8IYeU22ltzMpSpdswIvYaXHAXAG88JrFWn+sqJ8QNvrL+c60KNWlCamkryla21nFbc1rfRmuIq06jg4N+FXvvdN/wAk50bVCikkkAaAK1h6TM2ltJbMAQSRlFuF+7hIzo5Tz0wpJAG8DQk8bkay/tDDovuqBbz85rPi0IJQir6a/Tkaw4XOd6jdlyW/1OweyVlOAAUAEVKgbvOhBPflKjwm6zm3sRqXwtcE7q/30k/IzpMgykpNyXM7KLisr5CIiYMiIiAIiIAiIgGk+1s/0Ff76n9zTnmzm7M3v2wVP6LRTi1ceiP/ALec57Qq5RaQcSrzLLCaQ8yH6TG4I4nSbDiaS0qdOku5Rfz/AJMgq9I1K9JBxqIPn2hJjade9Uga6Wv8p6DgcY5ZeXqUnGMzqx6WfyMe9kPfI8tpMvFvZQO6YQ5S/ZWxWhmYFbKTPFM6y+gskxqDanxmGYPGJOsx6q3BHMWl7EGWm3TG+jN0R2HfgeEtY82qow7x5T1ixlqX4HWWtpNdAeR+/T8ZXVX8OS5r0JMVqn1JfoxVzZzzZj5sTMnaZ3zxsynkYWFg9HDVB9fD0y3+LNGN1M8lPxs9FSd6aOkew0/0fE/3q/8AQJ02cu9h1QZMUnEPTbwZWA/6TOoybDwor5r3mIiJsaiIiAIiIAiIgHKPaRj+txi0R7tBdf36gDHyXJ5maZijZpL9ImvjsU39q4+zZR6CRNVe2CeEr5O9RstKay0onjY6H6bSPwCs/itF7etj4Sc2phLgVwfeYhl5Na9/HWR/R8dZjGI3JQrt4Zcv3sJMYurakwOoYi3cQd/leX/DIPIpw8WZL5xdrrp/ku67lHj61qrpy8Li/KSvZ9unyfM1rGvrMejvjEtdrTKw+EI4iX8pxjuyuUW1oXMQbIBMLCtoZn4yiSOExsNhiBvHr+U0danfcKnK2xYrnQyyp0mZVwpPEev5S3TwjW3j1/KautC+5uoS6EXj0ut+ImPg6XWslInLnZEzHcMzBb+F7+EmKmBbu9fymHR2e1MhlKlgb63stt1hbUyvxlWKfu630/72JWHhfRu1tTdvaTsxaGOorSAVPotJABw6tnQf4co8JBJhxlmx+0Kr9IxOHrroDQUWPPMzG1r6dsSHakbcJ5qqnm0LzDyWRXJr2Q4jq8fVpcKlEnxputvR2nZZxD2fHqtoLUbUdXUFhvubc7cjOtfp6n8L+S/xSRSvl1Ile2d2JWJFfp6n8L+S/wAUfp6n8L+S/wAU6HIlYkV+nqfwv5L/ABRAJWIiAIieWMA4Jia/WYjEtzrVj/8AY1pgYlrRs2pmzP8AEWbzN/xlraJteVy1kXD0jbsSfQWxbGMd4opTH/MrKT/lyRx1YFHQkBkCv89SpA8GBkL0E/8AcsToTRH2RVJv9sSm38QDmYDVjYegvPVcPot0U9tU/o1+bHlcVV/9T52Vvqn/AD9jBoWLd/LlNy6K4ClV6w1FLZSllBa5BzZsqpqzaC1+zrrwmnYankp97HU8ZtGwXcZgKy0h2TqafvA6EByNQC2o3c5Ix/hXL9Qobsn8Bsejeg5RmLWJBBNNi1OpdNRYMpAG8m414TGpbOo1voyGkaIai5zZr606zF1YlRdhTV+/VeUiGwVMVCpxCsLE5gRq2ZRYNcixze8eRJ0EysDss3fq8SgUh1ZuwbLazFu3dFOovvN+V7Vz65vySe1i3UpUDlIS4YORdiCoSgtRRod9zbWeF2ehpl8tgaZYWzHKRh1e1y1lBY2GbMTe2m+Yw2fSDshrBgEzAgooZswAUMxI1HHh4S1jsJTRAUa5v8dNre9pZDcEWHa3G+k352uYJXEbMpqWXqySpfLlFVswDIov2hdwCxOXTcdwMjdo4dUos9NCNShL6lgWcdlgSjEAC9rEWO+95g1sU1Qdtr6k7lGp3k2Aue86zCOhuNZznGTjqzdPU2nb1P8AouEfiAq/apg/6ZGsdJL7aqpVwVFk3KyL3iylSDIVzpKua1J1J+6Xej9S2Lpd5YeakToM5vso2xFL99fvnSJvDY0qeIRETY5iIiAbvERAEsYtrIx5Kx8gZflrEU8ysOYI8xaAfOuxxamJjbXqWEyNmGyWMjNtEnRRcnQAbyeAHjK+nrIt6rtBsnMHhDhsBQrte2Jao5ABJARsi3/ZIF/ORlWuK7CxFhOhdKsKtBaWGuMtChSp34aLqfG85/jsKtRi4GUncRoe7dPZ4JyVGPy9WeSqOLqy+Zk4isi2uQANBrvlBjLi4e4tc7pr+N2Y5tqGtuzC9vKY9DYpb3mA/ZGn3zpOrNyt7O/n+ozGnFK+Ymf0iQCxfTwlrC7fDki5FuJtrMRej68by4uxFG6c/itr3Ypc+fodL07bslKldt4P3S2mIe28+kjvo9ZAQuo7xr5yycdVXTq/XWbSnBeKNv8AW/4TMKMns/uSy1mJ94+kunMAe1w7pBtjKh3pY/OESqy5mJyXt89+lvkJxlVpraN/L+jbJLmzpXR/AO+xcTWYaiqHptxyoyB9PBh4TX3rHLvmw+yOt1mGxuzm/wCNHqJz7Yak9vkQh+ZM1pD2LzzWLv7S+xdYOzjYbDrMcbhlvcGvRBHMGooPpPoD9F0fgHr+c4F0MpZ9pYRf7UN9gF/9M+ipmj4TTEeLQwv0XR+Aev5x+i6PwD1/OZsTqcDC/RdH4B6/nEzYgCIiAJQysQD51K5atZfhqVV+y7D8J46M4QV9p4SkdR1oqH5Ugamvd2LeMubTNsVih/bV/wDNaXugZKYjFYn/AOPg8RUH7xAVfTNIdKPvssK8vgr96Ej0n2r1xaqDfrWJX9wm6/4comvEz1iaoORR7qIiD6qgH1HpPF57ejHLBI8t1fVtlCb/ADngngRDiec06GT0NN15R3POUEt1LncbTRsyjxVYWuzachvPjPKMz6IuVefEy4mEW921+c99dwTzmluun5Nr9CqYVV36nl+cYxD+r17Ktu4XI0PnLqjL3nnPNaxUg8YnC8HE1TaZP9BK4obWwgG56dWk31lZx/iRZHYpcpdfhZ18mImD0bxGXaGCYnUVqQJ/5gU+hMkdtraviByrVh5VGnluI6zv+8i84bpGxI+yqjn2oh+CnVf0Cf653acX9iVO+MxD8qNvtVF/hnaJpT8Jiq7zERE3OYiIgCIiAJQysQD5ur1c9es/xVajfacn8ZK9E1th9rn+wojwLVLyO2qjDF4kDsDrqwtoxHbbjuG/vnnD41sOmItmbrqD0WF9LmxVsugNtftGRKMlCsrvmWNeDnQ06ehgUWJ1l28t08MhANu+40Jv3jWVCkcb/PfPbq6PLaHotPJ1nkmLzNwVvLes93nnNNJGyKAE2EvdYq6TEZgeJ8DKZeQ9ZrmtsZtcuVsYBMVsWx3oQJeVR8JvPVU3E5SzPmbxSXIxaGKyV6TnQK6MSdLWYH8JtG3cQlSrXem6ur1qzBlIIINRiCCOFpqi4LrXAvpx52G8/hMrFbKsLo27dff5ied4hb2lm+5b4NTUXJK/I6J7DF/pGJ7qaDzc/lOyTiXsLxq08TiKNRwHdKeRT7z5C5bK242DDTfr3GdtmkNEaTd5CIibGoiIgCIiAJQmVljGBjTcJ7xVsvzsbesA+ea1TPWrVPjq1H+05P4zEqVVJIvu/GMNUsWpsCGU2IOhHO/fcEeEy6vR9EoJivpCs9Yt+osA6BCy5veuwuLXsBqJXWu2y4zWUYr5EPsqrcOnwsQPlvEynMiNnnLXqLzsZJ3ns8FUz0Is8tiIZKskCZ5vHV3lWyrxEkHJdCl5UXkbjNqBdFsT6SefYWITD0sS9MrTqAMrggjXUXt7t++cViKefJfU6ezllvYwiw4iUIHCUNUjeLju3yoytuNjOtzWwv3yxVb+RLpUiWKu4ngN54a8z4TnUuZiZOyAAHb5CZZqBhoZgYag4zBhluAwB0a2upXgDwvvtJ9NhCjgsPic5brjWuLe5kciwN9bjunk8Yk602ux6LCStSjF87lz2f1Qm0qN8vbYKGIvlNwezyJAKfXM+ggZ8wbFqGpjaKJcFq1FQRvF3Gv4+E+nxNqWxGreIrEROpxEREARNUTaNTW9RuFtQOI7uV5lLjNP65uPFefygGwyk14443/rWtzzJ91oOMOv61txt2l9RaAcx9p+yfo+NNYCy1gKoPC4stQeeVvrzVFpr1jMtINnCq1Qt7gGtkUbidNdd1hvJne9vdHaO0KNNK+bSzBkbKwJWx1sQQQdRblNc/7pMEg/U1MRTbeG6wNu4FXUi0jypO7aJUMQlFKS2OObcwaYevSKVFcOpvYjS1uHLX0lypUtNabFNVYMygNxIFvOTwNwLy/4a3GllKvGZZVMyK1Xa2hOvKQ+JpoBqzE8r/eZnVn3gEi/mJH1aIE3xLcuVznSVjGo07kT6hxGyv8Awj6ORqMKAByZaYI8Qwnzn0UwPX4zD0bX6yrTUj9nMM58EDT6wxKZkZeasPMGVM9LExHy/Tr3NjvlKiA7xLTgNYnS+oI4T0HtYMRf5756BN21K99iozDc3gdZmYLbdSgjoqUzmKsGZA7IyggFM2gNmPAzDa0sVJpVimrPYzF63GFZqlaxqEM98zntEmxPavvm5YvaDLs7DYZsjKnWvnDqxzNUc5WUG6EKy799+6adg8S1KoGDZQeyxsD2SddD8p1Do97OGxirVxh6ugQHSjTYZ2Dag1HAstxwXXvE8/jKcvaWtuW+GqQVO7eqexq3sh2Z9I2mrn3aIasfn7iDza/1Z9ESN2LsTD4SmKWHpLTUct572Y6se8kmSU0irHKTuxERNjAiIgHnIOQ8oyDkPKImAMg5DyjIOQ8oiZBUREQD5FVBnOnE/fM9N0pEvaHhIFQpVQW3TArRE1qm0DavY9SDbXo5hfKlRh3Hqm19TPpIxEqa3jZLhsfMu2aYFeuoFgK1VQOAAdtJHU6YNxbdKRL3lH5ehX9SnCDKxNWbIxsbv8BPqTo3/wCUw/8Ac0f8tYiVmN8ZJo7ElERIR3EREARETAP/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFRYZGBgZGhgcGBgaGhoYGhgaGBgZGhgYGBgcIS4lHCErIRgYJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHhISHjQrISs0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0Pf/AABEIAMEBBQMBIgACEQEDEQH/xAAbAAADAAMBAQAAAAAAAAAAAAAAAQIDBgcFBP/EAEAQAAIBAQUFBgQEBgAEBwAAAAECABEDBBIhMQVBUWFxBhMigZHwMqGxwUJS0eEHI2JykvEUgqLCFyUzU2Oy0v/EABkBAQEBAQEBAAAAAAAAAAAAAAABAgMEBf/EACkRAAMAAgIBAwMDBQAAAAAAAAABEQIhAxIxBEFREyJxYZHxFDKBocH/2gAMAwEAAhEDEQA/ANpFIxJDR4p8g0WAIZSMUmsCmWBMx1hUxBS45FY5oUccmsWKZFLwmFIA5TFe7wERnauFASaCpy4CVKuCmWkQBngtt9wSe5dlH5bN605E5NPUuV+W0VXU5MaaFSCK5MpzU5aETrycGWEs/wAM548iybST1un2YDDCYecc4nUWEwCQKnjA1miFeUQHKQCYw8yUqFIgYFjBKUViiDRV5QKMwpEItYFKwxQEMUCirCsA0KzQooGUDAQKKEdDCBScuMTUgEHCVhHCZKThHOCoJVIyssRICoIERUhIUeAR4RARgzQFhkkRloYpkmjFfLYIjOdFFacZzrtPtO83i1Wwu7MvhBwoxUlmIwq7ZUyzpWmYPTb+1u0RY3c6F2ZVRTocwW9Fr8p4nYmwNqz2jrhVGCogGEF6VLMNTQEU69J3w+1d4dMVg8XfJr17uu17EBDa2rKaUZXL67gx8WXAaUrpnPu7N3O3sWfCLS2tnNBXGtghIBNraOcnYHKmZOHpOlgQMr9Q2pDl1/Y+e8uLNGd2yRCzHTJRUn5TlNt2nvNraEuXRToi41VQfhBApiOmZnSu0rH/AIW2A/EjJ0x+Cvlir5TStntbLbEI9gFdWwKx3qPApzyOnrLxPFJubO3Hx9j0+y+1bdHSxtsTLaFgjMDVWCl6VOoIBy3TdiDNfuXeu13e2CBlLmiNiUgoyg/P0E2ENOfI03Ry49coSQYqS6wpORzIpCkcYUyEFHDSFIgFQRFaaShFSRIEtZxd3zlRmaSBjwwwy4gBxjYJUCUGhReMDhjYEW5wixLyjlrIMPSHeRSSJTRQfzlY5jHIxmsySl4oBpMWUAtniBiyjBgoo8dIxHSWEhy/t/tLHeRZrVigC03BnoxPM0KinKbp2Su6pdbMLSrAs51qxJBqd9KAeU5btgM17tT/APPaZncBaNTmcqDKe/sztC6AIjkKPgyFDQ0IIYHI0FJ7cuJ5YLHE5PLq6dNVo85oF57RXhxVHIIAbCoUYlP4hUHPlWnSomKw2xavQ94xJ3gsumtRXLpOS9LlK2RcvZrHFNtm/wB6ClHx0wYTiyrlTPLfOTbLv1glqO9BrUjEFY11wspU5HTjunp3y9OXQtau1G3klACCKkE50rqJ8llZWS26EvgXERiKFkU8m3DPfkOPAset03o+nw8S61tJ2NU3jsxZjAXAIUnwYiS1NSWrvNRPexzyC7IoCEYsid/h3nLUncOQn13W9ljRloetZwxwyyVRy9WuufnXz7fg+vGZlW9Blw93hK/j8XjpqBlTfXUzHTgJ9zIO7odwBHVtT56DkhMYuJo858QeGKSVk0maBuRF3nKThjwTJKyu8ERtKycEWCk1SVlC1gLUSCsBZxRWZO9HCIuOEWGSyy0Vll1k0WYyvKLDFFLou6Ex4YSdmD6AvOBUxkSc5o0KkYWUQaRUMzAAWMCIg7oYTAKirzioeUApiijrzhnxhhjpFB4u2ezl3vPidCH/ADocLee5vMGarfewtqorYurgaBvAwHAEVUmudcp0PDHOmPNlj4Zl4pnILWxvFiR3tm6EE0YjwGpzXGKrnuz3CehZuoFVAJahcitDTcPuZ0Dbd3x3e1WmqEjqoxD5ic5urVnr4s/qrfsYyy+im8fL1fg9RL0mHCbM4CPhUglf6krSvNSZ9WyXqpVAjqSSHrWmlQVIqCOB86TxCCpy9OPTgZeIBgzIrV0dSUtOjFdT1nWJHD6mWW2b/c9mqLPEznGBVQNOQUAUA6zwdr7WFlhcGtTh1AzrnmfdBPnTaLBSoJGWlfdTnNa2s7u4RUdyjM5wAsQCBuAJy1rzE4LF9k2/4PZhyLPB4T2/2dD2Ff3dauylDXCwNCKEjOpowy3fvHs7tE9oWS1QJgwgiori8QqQTkCFy/tM5ns/bpsyQC4FfECEHI1Ug5/OdO7KdtLtZ3SzF4f+dR8dFDE+NypO6pUrGfEq2vccOUUaPVV/2g0x3XadneMdpZYihdqFlpnWppx1mYieLJRwMgCMGOsXpJCB5xFhGqRuJSkikDSFBGAKwAwjjDDKoJOGChSIiOnKOksBjwDjCXCIgThpGphihUcJAGKPHESIAjhGwGIRmkGpEaRAApDKIqIqRCQsGBIJk4aQCxBBnrDBpnHSNRCxQgpym9J3Fsyn4bNyjf2k+FvQg+c6yBNC7cXUJbo/4bZMD/3pkD5qR/hPT6ZzKfJz5cftPIZirFH1XKvEaqRyIoZ9KkBvFl/UJ49o7ZWbZvZ/Afz2eoT+5c6cspjN8YimZyy/qXkN5HCe1o8vX4NmVrNea0IOFkbrQEgg5T2eyN0oLS2qCLRgEbeUUZE8CSSKf0ic+s2FaEVDZp4sNeQJBBnWdiWCpYWYQADCCeGI/F86zyeo0p8nr4F9rf4R5m3uylleauP5dr/7igGppTxr+Lrkec57f+zF9s3wd27jc9mMSMONfwnkaTseCOk5YcuWKnlG+qPN2DcWsbvZo3xKvip+Yksw9SRPSpEKxZzi9uiFYeMVIivOOCj3aRGkKRFYBQAhIwwwwIVWMSAIQCmipFWFZoDrzhEAI4BIWVIV4FpkFVhUyS8bNFAZ8YzMdTGH5SdgWekYkY4qgxSUyqJVOcwgcDHLSmaohMBrAkx2BnAmlfxMH8qzpuZiP7lCmnmoebdjPGaZ/EK2LCzSumJ/PQH5N6ztwbzRzza6moLtCydQtoxU5YHp8J6jh9p9K7PZqkFXFQcaEFSfzVB8D9aA8jPJexYggqM99QNeQXPOu+fXZ3UsSbJRZMGqWVzXQ1RAFFBvoSdBnrX6LOHXFeD07qgVsFsgRy1CLQEWNtXQq1KWb+oM6VsmzAskAyA0HDM5ZZTnVzs70aq1qlojBSUtExKw13UOgrOgbFTBZKn5d1SQK7gWzoOc8fqFpM78WSSa+f8Ah6WAwCGSLSBtJ5KdCgsnCZPedIi/OCUvu4d3MePnGH5iWoUrDCQXklzFFMmKHnMLOYsZk7CmdoUmAuYqtHYU+gRETGTlJFofKKKZgBCYO85fOOWoUoWYylYZRpwhMpFEEjwiMmGUoEFgUlVgxgGMKI8EyBZQEQGFEjwmZYUiAxFIFDxmUiJvSIDEU5zQu2D1vOH8qJ92+4m/1HGc77asP+JYjcqfT9CJ39P/AHnLlX2niXggfX0yEybLtVxhSRx9Qa59AJ8V5eeXbt4x0+wH3n0Hs4Y4033ZVoCQAa4GKV4qQCh/wGHzm57OQhak5NmPnOWbFvRV9cmA/wCnIGdF2FeCwYE5UWmnP9p5edPqdONpOM9syaecxW1sigszBRzOUm726OMSMCOIrunj6uU70zlY8A4ynuzqoZgQDoSDnIUQ8WhQAEk+cvB/qSU4SQUxwymTrF0iFEB1iNnxiJHGVTgYAYJPdTIB7/aIpziAxixMlrLhM9DCssJDB3PvSOZgTFJCxFjKFJiz9iKp4y0lRmoIUHGYqn3SGLnFFRm9Iecw0JpnKCyCmSHpMYEoDnBaXWKo4yQIDrFBUIgOsk8YqA6Cc57brhvJ/qRCPQr9VnQyec0P+IKfzbJuKEf4vX/vnb07XcxmvtNTthlPlvFzbu1vH4TaGypzCIwPnVv8Z99qtUPT6T173dP/ACdGIz77H6uyD/pInueXVr9XDngjXtnv4gfdJ0zszbDBaOcgoWp5DET9Jy+6NmJ0Ls72su9ys7RbaxNqzsCtApAXAuRxHiTJy4dlDNSyrPI2pfbS8o9r40C17vwtgC0NGBAoxqKE50znrdirG0vF4XBTDhDOUyCUIBVl/Ep8VMq/DQ6z6/8AxRR3ItLsVsmBVsDjGFIoSAQBvm5dhbTZq2bLcXXxkM6sx7yugBDGtBuAyzPGbmM6zR0xa+T7L/aWV3OHvaGmLAwLN1Wg+VJNm92dWaq+IVDjNVNNaDSejd7ihJDOLU4iWLqhbM6eEAUGQGWgmBdiWSYks7BcFr/6hyqf7qmtKcJzeGM8G908zZ1rdGtTZG82b2gA/l1wnxUIIqRU03DiJ6N62MAfC6qDoG301zJnMP4lbKtbe9B7G70CoqFjVS+EmjYdwoaDkJ4irtZEwA2hQZhC+IAg5YcZ+kx14pNGd3wdosNitQ4ya1yKkEETzLxdnQnEpArkSNR1mp3HtZtazUY7FXUACmEE7t4apP6TeLr2iNpYAvZlLRlYMhGStUgHPUb/ADnPPDjmmbTdPMpJyO+LHx98IipOlJ5aUZ5fOUGkmu/KIkSArFGG6yQTwiYn3QwC6CKTj5QioGSvnCo30mNqb/lJen+paDLUftJAHCRiHGNWG4yUFhP2/SNvOY8dfWGM6VgF+RiX5SMR3axlspAWyc8ucKScYMA/WNApU8pLOyEMATxWtAesYtOdJZMRPyVa8H27O2hZOStogQ8WFB88ppH8WLFFe7tZkUK2oYBsVCClN+XxGbQSK0mh/wARW8dkB+V//stfoJ6+HO5JRGMvDNSt7WiHkDN12vs20XZmA0olkjEb/BhdvmDNKs7HGUTXG6KejsAZ2G+2QtLN7M6OjqejqR95vmyjx/NMceOmcRur6TZrPs7a3klrNlXAFqGFa1UU+k1WyUg0OoyPUTcrvtK1sruzWdVDYavQGhArhz30Vp3zr8eTMXbZA7EXsKFxWYzJxAZnQAGo5E9TGvY+9gijKKYdGPDxN6z7uzS3pmFol5FQw76xfEWKNTxioz8OakZVyrqJvmMH9f1nmz5c8XE0zq8Mfg0PZ+ztqWD1snpz71qHqpBB9JvvZ3tBe8LLe0UsAMDqRUn8QYAAcM+c+HZ20VtmdUV/AqNiK+F0euB0bOqmh9J9j1HGZy5uRaeiLFIzX28s7l2pXIUzyA3TEeopJoTviCH3pPO226zVGaSwwmOmuRPnEekgpTDoOucla8ZNeUePkftArLRuMatMZJO4195RNX3TKVFMjDjEaD3pMTV3EekM9xEhKZSx4xTA5O4wmSVmUA+x5R1NPrEV/aUf3l2UjD7yiCmtaZ+98yGnAREjoJICSh4fL5xENy6Sw8Ffn1lLoRVoBOUMY4++sKj9/kZCaGF5SQD6R1poT7EMR4+kAAx4fWUC2/dzk46a/SsbWmVcpaUpa76efPnOf/xFf+cm7+WPXG/2p6TdL1thLKgwq7uyqMTYUswT4rRxUEhRU0HDzmk/xFvt3tbwhu9oHVLMIzAZYwzkioHBhmKz1+n43e1MZNSHm9n7DHeLsoyra2edK54qDL3pN+2QlvaXq8tZr3iWVp3GRKoMFTaZZ6nCPOu6c82FfjZWlla7rJ0c134DUCe9cf4gWl0u5srAI7u9paPbtmS1o1ScGgOdN+k9TxT8mMc0jTb3ZYbRxT4XceasQZumx7KxtrnaXd7ZbFsS2iuxFCq0Ugg7qnMjMZa1odLLlrQlzm7Yix4ua1NOZmx2u1LNLu90bwraYGNoFBcYWyFD+Gq1pXRjnK/KImk6yNmWN4u14S0FoltZ2bLZsyWyOrI+WGzUkMdSQAu6dOayxZNUAgqcqZEGlTzrrl5TSuyd12P3RS827C1ZSrOVZUILEqyMVOE0K1zGYmy3PZlhZpgu95N4sqeF8YdlXTuyy5Gme4ZEDrw5scVMvg7dkz0dlNb2VnQmzZ1ILsFK0RmNFsyv4QtAN2Wc9lEYsGwm0VsvE2IEHOoLCq7/AEmt2d2w4cLuuD4aMaCuood0+673pkXAtKAAZjPLid5nN82DWzVrZg2mGsrwllgJR7N3FoK0SjZIxIp8JXOuZrlGzga08oy/FjllU+85NRx3Ze6TzZZJvShGiiSMxl+kA9d/WQd8A0zQIv5++MAx90iry9iB85KC8bcJJc+/3iAHH6xqOcARbkM88zF7GsphXhAU6jjACnH38ooYh7P7QgkFWmYr6/aUCTvy97pNQdDXSIGnHXhFY0US33kCsrH7EC+VKe/vJRoC26p9DGenyjDD191jD8fKKXQgu735EygKbvpAMd+cljw/WWgPIxqN4+2kMR4V90yMRbPTjFAwh9mIjXL1jx8cvL3xiDmucAxWtzQk1Ws5/wBubgiWilFwgoMQz1qwBqeS/KdGUkmleVd3WfJtjs+bRcbLjUjCSASAAMSuBrk2LOm/lPV6WvJs55+NHOOz6IzIhQsGZFfFShGIVVeIpXObkvY65hgRZZ1r8TZZ9flPH2Rs5xaKbOzIQEeNiAPCwxYamp0Im60O/wB6S+o5GstP9icfjwcz2ncUDMynCyWjphP4lDkAA8aT3NkbDu94Qm2QsyADECVyNWpUdfnPuu3Zh7S81dVKG0Zq4ssDNUgrTXyIzpNqvWymu7MoINmzVs1wquABVDr4QAatiatB8VKTtyZP6fZfoTHF2s11OyN0WtLMGutS3oM8hmZ6GztkWdiSbFMOL4qE6DPeeZn2kEcKfr5RAn/RngeWWXls6wZUnd6g56xMOf3jz47uMG6/WY6lEAIZwJPH0jDEZexlNJAgK1dRKwmMsff1hj9d3l9Dp6yQAF5/ePDTpJNfn9oZ7hKB4dc/l8qwrT9vKLXX3WAIjXsB6+Q+8g190jB0rxyEVK6fSkAKHh6RycXOkIqBBLfmH+4Y2yzGXvy1+UxBjyhxNfpJTMRlLtwEk2h5eX0k0rrJC6+/vMtlpbMeHQV3dD7zgzsN3vOAB9/XKFOf0z9IoH3zU+E16/c+chrd+Hz4b5anmIjpv5dI7IbDvm5etem6AtHOdPnyllCff0ktZHU+mX1lEEHaug/1H3rUHhPSICkyYK7gN3XfvykRYZLi6Fz3hwIuZPHOmETcbNkaxrZuApU4X1A1zHLpNLCryqIKgGXyy18vKenj5uiiRIYbVO7YopxipoUUgAblpyy0y6aTE15OuB/8Z9hT9vfrFX11nBvtk2ynyXC71vC2gtfETUJgKuFwrVMTagkZimdONCN4vbJboExBXypi4j9anMTUwBXQbs9+7ODYTnSp4kZz1f1H2dWjKULbEGIroab90MZ6eUx768eo6VzjCHLP3wnk2aLBPP3yiZt+UWE8YzWtD9ZdgMRP3yhhHM+cG6ffd/uPFlqYoCi11OeXT9JI9Rr7Mqmmka6QUTMct+emUeKuqxFx+sdmwy++XrWAUOnvz6zHXM+6yiw9/MRF/X0hkANxyy4xYq6af7iIHvOKgkAYveUJOQ5QgGIaSN3n+sIQQG+//wCZbaDyhCQgh9/+0Sm0/wCU/SEJCk2Xxef2ln4h1H2hCZK/YzWWh6/aZBv844TojRiXdCz08xCEAycev3i9/MQhKRkr9/sJO/1+8ISMyyLP4j5feXuHWEJShZ/i/wCb6GCbvKEI9ioTaDz+sfv6QhKAXd5/SKz19IQkRC3+EdPvEuphCGAX4vMSx79YoSGvYTaev0jHwnrCEGTGm7qY33df1hCAj5xCEJAf/9k=</t>
         </is>
       </c>
     </row>
@@ -3409,28 +3425,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avesh Khan</t>
+          <t>Tanzim Hasan Sakib</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_024</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>176.7</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3439,22 +3455,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3466,58 +3482,58 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
@@ -3526,7 +3542,7 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgWFhYZGRgZHB4dGhgaHBodGhoZHBoaHBwcHhocJC4lHB4rIRoaJjgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHzQsJSs6NDQ0NDQ0NDQ0ND00NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDU0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xABAEAACAQIEAwUFBgQFAwUAAAABAgADEQQSITEFQVEGImFxgRMykbHBB0JSodHwI2JygjM0Q3OyFKLhFRYkU/H/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAApEQACAgICAgAFBAMAAAAAAAAAAQIRAyESMQRBEyIyUWEFQnHRFCMz/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBERAEREARMLV1G7D4iYX4lSUXLqB5wDciauHx1NxdXU+R+k2oAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIia2NxS00LNewF9N4BqcW4wlBSWOoF7XE5d2l+0us10oU1VdmZjc28CLW/OaPbLtX7ZmVfcvoTluNxYgnQHx+EoWIqk373dtptqD5AXlXssqRLcS44+mV+8Tcm4JHhmEj8Rxiqw7zu1tNSSvlaaq4YgXvYkaEjS5BvqdDy+M8YhTe/JQBvfYb+sJJByZv4fjTqbqxW/LX8jylt4T9ouJoqVze0ANu9c2HUG+uvWUjJbunQjY21t1mEZk7w5H96RQs7r2Y40ca4Ac5l7zNc7ae4NrctdvznQhPzdwDjFTDFa1JsosQzKoJFzzB+7cbS0U/tAxKsG9opUWvmGjjS+mtrX5Qmg0dqiRHZ/jC4qkKi2vpmANxe19CNwZLyxUREQBERAEREAREQBERAEREAREQBERAEREAShfafxb2dH2SkAuCXJJFkHLTU3PIb2tL7OE/aq5fHsrXyoi7W0BUW/7j+clEMoeJqFz4XvsbnXnPLUjbMRp10tbkLczJbAYMuSWOZUXTLpm+6tr7Fj85O8Y4XkyIEGbLmOndLEDS/LcaeImbkXUW0U2ojDvBSLaja41H6z1RNiAx594decuj8MVaRdhcINb8wdHJ+Nx5TU4NwFK5Z2vktZT1YaX8gAJHNVZb4buiuJRzG97EX13sACVv4Hb0Mw65TdbXAtcai5AIv01k/ieHAkUgCHDMrDmVHeBBPQbTPg8GajMEADrZCt7ZrkEFb8iAOlpKkmVcWiAwpemQjaA3J9bWv4aTco0xmAChg+mUmxVr694bdelpuYlClJKhOazsDzawRRYnncMd+kjsqp30J0ZCpvyZAbHrZrjyIk+7Hqjsv2d4SpRGVQTRdb3a2ZHGtrjRlIOh1l+kF2NxXtMFQewF0A06jSTssVEREAREQBERAEREAREQBERAEREAREQBERAE4Z9qlIHHN1IS/iAo0ncpybt1w8PxJSfdyKxHkAJDdKyUrdER2e4SECu5AUWYKQdSLZbgb23mfHUS2Iao6EL90EN3idSbC4DDSyt19JNUK4VrFguml9vDbWaGIxWHcBHruQt7qO4rkm5L27x15XAPSYJ2b1xIitiWxhOHohlpbVqjW90G4VR+Ikb8paaGDSmiomiqBYb7frPOAeiFsllUdAPpMlGxca6dZRv0aJeyrdpMI2Y1E0IAA89Tc9NbC/jIqniMlWjiTfJ3Q7A2ZADo1l2AuVPgZfcSyA8jNRMPSJIATI4sUOUgPtcdAdL+njLRZWSRWeKYFRTxKE90sXpncd3vgAjcMv16SqIjGmQdCtrDpbT9+Uu+M4a1G6MGyFMtjrkKklGsdQmrA25N0lR9kUzDWzaW8Rf4ibRkYSid6+z6nlwFAH8MssheyNLLg6A/kU/EXk1LlBERAEREAREQBERAEREAREQBERAEREAREQD5Ob9pqivjzbXJSAJ8Sdh8J0LFMQrEbhSR52M5VgqAWrkNTOyoodjupLMcp8ryk3qjXHG9mlxnEqmpUlrWAAuT5DrKlj+GsxJcpTYjNld1DW8VF7es6PxTs+rqG1LAXAuR+YN5Q+IcHpllUoyFdGyC+Yc73N7nrMouuy8rfRA4KtUpuAGI163BEuqYirkzakW1PKML2fWsQ9NMgFhl5AAWJPjLVxPhn8EUkXXJcgbmwPOVk7LRTRyjiPEarsQHNidAJ7o0qlOzO7Id7EMPmJLUuDplZ3YqLEAre4JGjadDykfh8K6kn2xZzYKRfQDTZtPSXTVFGnZZ+D8WZwFeoWsNj+/Ga3EsIop0W21sfPUfSbvAezLh8/3W193KeV9Bp8JuccwoU00C3vUUhTa2Ynbpa/zkJtSJatUdU4Xl9jTykEZFAINwQFHObkp32e4iqyYhKp1p12RQLBVVVAAW3K1j6y4zdO1ZhJU6PsREkgREQBERAEREAREQBERAEREAREQBERANbGtamxPQ/KcwKKmINt3Fz5hv0InUsSmZWXqCPynKe0iGlWpPoCWZGUDkQLEn0tMci2jbG9MtyVFZB1WRtTAo5uwvr8ZGYfiVp8qY8nQc5i5G0Yk3haoVmRQAOijTy0mzTcCqLka3Tcb5f15yg9pnxqhfYMyrbMxUCxPRrys4rj+IAsbh+Z5A9RLRTasiTinRf8AG4ELUKlbBxe3K/O3SxnylwmmjB1sbciJVOz3aDEMVp4hmcHVCVPd31DW902tLHU4iAb3lZaZaLtFtw2PVFuR3rWG1gJTu1OV1IY2Bza9DlNj5A2MNxbNzkdXrmpVVAoe12ZD95NAR8Df0lk2ytJM6R9nVO2DRj7zhWY9TkQfICWqRfZ6kFoLZcubXL00At8BJSdEekc03cmz7ERLFRERAEREAREQBERAEREAREQBERAEREASE7V4EVcLWFgWCFgba3XvDX0k3MdZQVIOxBv5WgHC8Li72DGx29ZmxfEhhwGOrHbp5yAxj/xqig2KuwHoxjiz+1yD7w0JnLx2dCk6JDGcSNdAa1TIh90C92IP4frI96OH7x9sxzbAp3htzva0zUuA0rA1Kj6+IFvWfa/Zxb93EAqeuUn42l016ZKi36PtDifskC5g6j3SN16jXYX5T7SrNWBKG9t/WaOI4Ki6JUv11BvPPB6rYeqRuGFv0kNJkbi6JFquTTnOsdjuz1NcNTarTVqrd8uygsL+6M24GW2niZzTs3w04vGJT3UHM56IvvfHb1nd1AAsOUvCPsznI+gW0E9RE1MxERAEREAREQBERAEREAREQBERAEREAREw1qyopZiFUC5JNgBAMkpXa/tCUY0kPui7nw0uPhNPi/2lU1zjDpnC90O2is52CjcgAFieg8ZUf+rNWq7sb5wSfIymW4JX7O7wMEcsm5dIg+2OG9niDUX3X7x9ecikxHeBvexvLNxRfa0ijavTHdPVOXrb5ShM5GkrH5kY5ovHNxZecRSSvTH8QK1tb3PltICtwMp/r6/hF/1kUuNaw1nh8YxN7mSotGbmmWDhvDGtdqo0FwNdedpr4iqobrb9+kjP/UW5GeUDObnmdY47tkcvsdt+xzCr/wBPVr2771Cub+RVQgfEn8p0aci7B9q0w9WnhHstN0BU/hcmwv4ED5TrssnaKyTT2fYiJYgREQBERAEREAREQBERAEREAREQD5E8PUCi5MgeLcbVFZi4VF3bmfADmZaMHLoq5JEjxLi1OgrO7ABBdjfQDxPXwnDe1va+rj6hRSUw6nROb/zN+nKYu1naV8W+RbpSU91L7n8TdT8pFOgppf7xnZjwqOzNybMGMr6oi+6gPq7CxPyHpJ7h1bQA+8FIPkAbH5SrUt7nn+skcNiCGzeXylM+L4saXro7vC8hYZ2+np/2WrEoDvyAHmLbSn8a4WEOdCct9uYlmXFh0zA7/RR9bzUrMrAg66ajwnlJuDpnreRghnhyj36/JS8s+inJHH4HI38p2M11SbcjxeFdmFUEmOE4Yu4AmgqS0cBQA6CVlLRaMNle7RuRiHH4Aq/BQfrOufZj23FdFw1dv4qiyOfvryB/mH5zkHaFs2JqkdbeeVQD+YM98BuHzgkFdiORlr4qzbHj+K+J+p59nL+z/bx0yriBmTbP95T49ROi4HHU6y5qbBh+Y8xNFtWujmy43jlxl2bkREFBERAEREAREQBERAERPDuACSQANydhAPUhONdpaGGHfYFvwjUyudre2OUGnhzrsXH0nOKlUsSWNyefjNsMIyfzMTjJK0i2cT7cs9yBYchKPxXjFSse8xsNhyEy1RcTQqUp38FFaOb+TBhtDczBjKxdp9qAia/OUk/RKPZ0YeU2kHvCaje8PIzbpnUyI9lmz0lZk21B/ZE28GzFHYd/MLabrvus1GXccjrNR8ym6mx5jkf/ANmHkYVKLaWzs8XyZY5JSbr7FobDCrSW6kHKNxYgytV8OUaxm3gOOZXBe5S1ja+l+dudpZ6/BfbIHQBlYXVhsZ5e49nXlhHuLspN5PcKxOSi7ncCw8SdBNLGcIdDYqZjxGfIqAGw1PiZbTMEmiMrXDZud7nx6yzLwdqCU6h1SumdGG3ivmNPjI3D8Hep4S7cYJw+Aw+GYB1YKwY6slgS1hyUkj4kS7pxZfxpSjmWuyAw9UX8DofX/wAyV4TxZ6DXRipG4v8ASQVZyiq6rmUEFrclHUdJt4h1dQ6nz/WdngL5Xfsfq0k5pLtI6rwXtqjgCr3T+Ibeo5S2UqqsAykEHYjUT890cQRLb2X7RvRYalkPvJf8x0M2y+Mu4Hmxm12dciYcNiFqKrqbqwuDM04jUREQBERAEREAx1HCgkmwAuSeQE512k7RNiG9lSvlvYAaFz9fKWPtRVz5aPeKXBqZDYm+irm5C/ePgBK9V4StJi9FshQhSX765jcgAjUaZRYaksB1EhzUdezTGl2yNpcGRFLvZ2Av3tKanfUEj/uP9s0+13EcM5VKFGkLAF6qooYki+VSBsL6maHG0rqwFbNpop+4baHJbumQ7NIjG3ybN6vbPhM18QJnzTWrtPTwuXH5jhzceWjTqiaoXvDzm0dTPVKlvf8AdpZozRqKLuTbbQflf5zMhntFtm02AFvFjmP5TCDIRLMpbTy+UxNPaiGpkbi0kB8MKgBUANzI0J8xsZO9jOMNhaop1W/gVDZgb2QnZ16a2v4eUhcFUCProraE/hPI+Um8bwd8uZRnUjca26gjlPK8mDhK/TPb8ThnhT7XZeO0uCy2uAfHSV2nw9TraWHhFZsXgkDf4lPuN1OX3SfNbfnNH2ZW6nfnOR9mfFxbi+0a9CkF8AOfhIviuKFSqzuSRsi32QaKLctr+pmDjvEWBFNLnXvsNQB+sieGvnzvbRnNvIWA+U6MGLm6fRM8qwR5Vbel+DbvnpnJddSPG3SR+BqFCUbrax2vy9DtJHBOEZ+l72P5z3xnChkzqLFPetzXr6T1MeKMFpHl5s08suUmajVAtiN15HmuxB8VOnrNo4nIylT3T8iNJoirmTMRto3yB+Fwf/E13cgBTurW9LXE15GVHW/s042WLYdzyzJ5/eH1+M6JOBdlseaWIosPxrf+ltDO+icPkRqV/c1j0fYiJiWEREA+TFXrKis7GyqCxPgBczLKl9ofEPZ4cU1NmqnKP6RYsflJjHlJIhukUXE8crNVeqHZSzE5QdFH3VtsbC0y/wDuVmBV7A3ujqLKKlrK7rzClmfTUm3SQL6Dw/MzFUF7md0/EhJa7Ijna0y40XU01QgVcOCwztfIq0079XNyd3cBVvoANJTeLYUUahQVFew1IBWxBKkFTsbj1BEw4TiTU2uO+muamxb2bXBU3UHex0O40kfxPFmpUdyApY3sL2A2A11Nus5cWCUZtS6NZZVx0ZWrTWqVJiLzG7aTubOWjMTZvWe6tQAE9f3b5Caxe5v4zH7S5LH3U28TKuWiyNuibb77nzM2KaL0lw4X2INXCIWRkrOM4qZrjvaqj076La2oFxMHDOw2IbWqyUBZjZiWey3BIRfI211lFmjW2OLfRXkAnt0DAgy+cP7E4ckg1HqncKpWnYWBuT3r3vpJrD9nsEFNqC6EAlizNkYWuCTowPMdJR+XjXWy/wAGRxmvw9whfIxQHKXAOQE7AtsD4Sb7OcRJRqbHUWHmOvnbT0nVsRw+m9JsOoRUcMgRQAArDRhb3joCSbzir0TTfOh9y+YDpexI6iZuUc8Wl6NsE5YMifr3/Bb8DxJsO7roDVAFgdAdwRfXmRrr8J6xNYhS3M6ep5yC4ni1dUa9nTS/4l3B8xJXDOHyE7ML26aW/WeY0z2541LIn9yMxmHUUaj2YOi2Bv101HXvCeeDYdRSUcgLW85s8aw59i+p1dbnwJ5j4TDh7hbeE9PwY/K2eb+qP/Yo/gzthlBNgDuLfSTXHOCHDkG+ZCqq2mzlQSrdCbkjrN3gJC4c1aIWpVVrOQAXpplv3Q2gN794Am3lJVkZm9ozgFxZ6b0n9meRRr3DHNz6zolOpHmqOjkleh7Jyv3G92/McvhtMdWnp5DQ8yvL1BuDLlx/B06lB6tCkO438ZAwCqhByugY3Vri1hcG40lKfEXsOW469HHrofO8smmPRs4KtYqehB+Bn6M4ZVz0qbfiRT8QJ+ZEqWF/3sZ+jeyL5sFhm60aZ+KCc3kdpmkHqiaiInOSIiIAkfjgjGzorgDUFQ2/LXmdJISAx2MKd9EDZ2Iv90vmCC5v+8pjfoEPxXsPQrDOgNF7aBSWTwuhOn9tpz7jvAsZhrmpQL0x/qUruoH8wtmX1E6jU40lRWVGK1SrhDZshbKSozEZcxAzBTrYSG4XxLIwFIO1M5VdqruSzldciv8AeLEC6kr6zWPkSgrbIWLm6SOPVqtjpqDqD4TWd50LtFwTD4jEFaaPRJcKzIqshqMucj2dwwO9zax63nOHYAlb8yAetjb08p0xyclZm41o95pjqPpMOe0wvUlXMUZy+kk+z/D/AG9enTtdcwL+IGr/AB931kOhuf38Z0LsnhaeHBasrXYgGwJZFvfIFGpY6Xtr3gOso5asN1pds6G/EXKs6e7ZfZoLAsSBlAO+4IPIAEyA4txqglVjiazGqmX+FSUsid2+UsbAmzHW/OY+K8dSgTUqAIbWo4VbZ7b5nt7gPO/LQc5zbEYpqjs7td3JZj1J8JWOJT+roY5OO72dX4Fx+hXQpRpFGp5bZmVGKtcF+6eRAuL7Gbp47RRwKlTDAKLWDqzW9Mx2J9VPWcaUqep9Jsoekt/iwvRd5Ze2dTftbh1t/wDJdrACyUiBzvyFt/ylE45Up1azugZVJzKwGVg1hmbKDYAm5t4yLVo9tabwxRhtFHJs84ssQgOpUWuNjrobctJLdnsQAhzHnpf9+Mg6mIGe/K1jNepxQJcLPN8nE1N8VpnueJ5UPhrm9rRcMRikyOCwF7anzH6TTDZxZBm6nkB0Ep1biLvtNnDtVbT2pUdBedXiXCNNHB5+aObJyj0lRfuzVQ0HcEKFqLlZ2GYKb91ip0ZQSbjofCSAXFl2L4hhURluO5lGrEEC2XlfbZhOe08M41FSqx8CPrLhwio+LpCncjFUB/DzixrUbWAN9C6XtzNrGaZY++jkg6N3i+KqVMJiEqAB1emcwNkclrEZdlNqdzy0E5xiiQdRYg3+Oh+kunaRPZImFNqpHfxBD2OfKAiC2+Rb78yJQccvs3ZASV3XNuAeR8Rb8oi+MRLbPue+UfvpP0n2K/yGFt/9FP8A4CfmWm9jfoPlP0x2HFuH4T/Yp/8AATLK7RMUT8REwLCIiAYa1UKrMTYKCSegAvK3w7tRgnC0qVX2hAtZQdxvcm2t7zY7a4oJhXF7FxlAuASD7wF+drzjVXE5AFWm2UbBQAPhe5nRiw8423RSUqdHYsXwmlVVlRQjNbQ7XF7EodG0JB8Daa1fgmJuoWslNPaZiEQDKgXuoqEFdX7xJ6zmWD7b4mj3VqMF/BUW4H9LHVfQ2k/wz7SEzZa1N0B/1Kbl1/uRtbeRlZYJLrZKmYO0VbE4am+JqVclRmejRUItyjVGLVG5q5UXFvracvrFuZDDrLz9ovHExNWmKbh0RL5lPdLsdd9QQABY+MpjJ0E0hFqJVvZoVOomvebldVHPXoJpDeZSVMsjOjWsdrajrcbGTeM41WxDIxOUooF0JW5tq7G/vHnbneQYYefntPYYnfbpy+EtFlWiQV16ljzt18WO89hzyCj8zNSnNhDNkyGjOHbmZkR5gvPhaXIJvA4T2ik5rG9h0POauLw7IbMP0PkZ64ZWJVlBswsy+Y3/AH4yYw2LSqveUHkVI2M2jFSRjKTi/wAFbp4B6h7o8ydhN9OD0UH8R9fAfTeTDmy2QAfIDrI16lFWAPfJ95yb2/fhLPHFFVkk3o1HRENksR1t8wec8Ejwm3iOHAgMh7rDunl6HmOUjFqsjdCOovaZtUbKSZNJw5whe4FhfLzt9DMCVnBBWq6kaghtQeovtM+GqWRnd8/dNuguPnNB0dFUupXN7ubQkfiAOtvHaTOqRWEm27Mz1W+8Q/8AMVAcf3Lv6yt8Uq56h1vYAX8vrrJmpV03lbzZjfqbzmzPSSNkbdCkSVHM6n+kaz9Qdl6JTB4dDutJAfMKLz818JpoXDVGyIxyl7Xyjr5Xt6T9M8CpZMPRUkHLTQXGoNlGoPSY5NRRMeyRiImJcREQCg/ar/h0f6m+QnN029Iiej4//Mwn9Ro4zYyJo/eiJeRK6NGrzintETD0Sarc54EROeXZYyU5tCIkxB7WbCRE3RDPbTy0+RLFTYwPv/2n5SV4R7n9xiJthMM3TNzE/wCG39MrTe6fL6RE0yFcJ2HEf5Cj/tr/AMZx3iv+K3p8p9icsPpZt+4sPYL3z/UI7d/5+t/b/wAYiS/qRMfZX8V7h8jIRYiY5ezREk3+GJ+o+D/4FH/bT/iIiUzdImPbN2IiYFxERAP/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgSFRYYGBgYGhwYGBgcGBwYGBwcGBoaGhocGRocIS4lHB4sHxgcJzgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzYrJSs0NDY0NDQ0NDUxNDQ2NDQ2Njc2NDQ0NDQ2MTQ0NjQ0NDQxNjQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIARMAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQMEBQYCBwj/xABDEAACAQIEAwQGBgcIAgMAAAABAhEAAwQSITEFQVEGImFxEzKBkaGxQlJywdHwFCNikqKy4QcVJDNDgsLxU5M0Y3P/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAgMEAQX/xAApEQACAgICAgIBAwUBAAAAAAAAAQIRAyESMQRBImEyE3GBUZGhsfAF/9oADAMBAAIRAxEAPwDbKtOBaVRXQFWnBAtdRQKWgAClopRQABS0UUAURRWJ/tE7XNg1WxYI9O4zFtD6NORg/SOsT0J6VxugbS66oMzkKOrEKPeaiLxbDligv2Sw1K+kSR5ia+dsTiLl9i9x7jvvLNm+e1GGtqCG1IB70ax4wNdKjyFH0jYxCOJR1cdVYN8qdr55wuPey5uWbno2XVShieuh0Ya7HSvSexvbk4ljbvlFcc/UBHWSYmeQjnXVI5RvaWKAZEiipHRKKWkoAoiiigOSK5K05SEUAyy0U4RRQHAFdVyK6oAFdCkpaABS0UCgFooooCDxriaYaw+If1UUmPrNsqjxLED21858Qxr3rj3rhl3Ysx8TyHQDYDkAK9k/tan9A0JH65JjYiH38Jj4V572V4bbaHZQxnTNqN+lU5ZqKtk8cHJ0il4Xw27dPctu3ioPziK0qdicTchmXJA9v8NencIw5CiNPAR8qunBCgdfCs360pLWjV+hGL3s8Mx/Y3EWkLFg3VdSR41QYG6bV1WgSp+kJHtHMeFe3cWQgnSvJ+1GHCXtozj2eNdw5ZSlxkRzYYxjyie19mb917KNdUKxAIgQIO0A7aezaKt6qeyrlsFhmYyTZQknxUVbVuXRkCiiigEooooAooooBKKKKAbFLSCloBRS0lLQCilpKWgCiiigMJ/a5iVGES0QZuXAVP0RkEnMfJtPbXm1iw0Ie/k0UZDEk/f416r/AGl2FbDKzAkK525E23g+8Ae2s72Ot2rqKjgHTUH5is2aTizRhgpFVw1b1t1u2v0gIDBW5odAM226wfW2JrXdpMXiWRBbd1aM5ZNSAfPzqTxXCoiqltdWIkzJgETqfP41OxSjOgZdCqqemo/Eisjm27NccSUaPN8UzkZXvYn0gIBLju5tYymNRodQfuqs7R5ilvPOfUajUkD/AKNet4jhNkDPE9BmYgeSkwKx3EMAl/EojkZVDuZ5gBRA8efsqxT+Vv0VSxfGk+z0DswFGDw6qQwW0iyDOqKEYeYZSPZVrVb2ewwt4a1bAygJIHTMS331ZVvi7SZhkqbSCua6rmugKSlooBKKKKAKKKKAaFLSClFAKKWkFLQC0ooooAooooCPxHApftPZcSjiD16gg8iDBryLh9s4bGPYUtCvkExJDAFZjSeVey15X/afgPQ3kxaH/MBRtdcyiVPu+VVZY8ok8c+MrI3EMRfvstu4HtMpzIUR2I8mkA+VT09LaZb1y7euOBAD2XVY5QiEyfEg61QvxhnRLi3MrqsMImSDpofD507geO4l2Ae4pAJGyz1MaVm4uujUskb3dmsucXZ7JZ1yEEqRrygyJAI8iOVQ+yXDjibr3nMIjZCOukkeWo1rP8a49nLwwgGFA2PX416J/Z9hcmCRuby58yT+EeypYcabdohmyulTNNRRRWwyhSGlooDmkroikoBKKKKAKKKKAaFKKQUooDoUUlLQC0TSTRQHU0TXNIzACSQANSToB5mgOyeZ0HWvI+3naJcYy2UT9WjF1cnVzDJIHJd45nfTar/tt2sQ2mw9g5y4yPcHqBD6yqfpEjSdoNYfKLiDLumhHPKdj7D/ADCqpy+OiKkuaiZpxlMCRSq5Gxiru5wdnBI3FPcP7Psx1FU/qxo0/oyvQvZ7g3pFa4+w28TzrRcL45icP3Vcm3aICoYyMGJZl2nrrykVZ8N4fkTLyAqjx6gkou0knxJ/oAPZXMUpSk36K/M448aS7s9YwGNS9bS6hlHEjqORB6EGQfKpNeadm+KvhREZ7bGXSdQdsyHr1HOK3vC+K2sQue089VOjr9pfv28a1qSZRjlyjZOopJpK6WBRRSUAUUUUAUUUUA0KWuRSzQCzRNczSTQHc0TXE1iuPcfe45tWGKoO6XU5S5+kQ24XkI315RUJS4qxGnJJur/qaHi/aG1h5TV7n/jTUj7Z2QeevQGsnjcbicTAusqIdfRqTEDYH6x239kVBt2SSJ0QcvVnXQ9YmpVy4ACFG/jrHhVDlKX0TnlwYtO2/wC1lXibCvpIMjNtEbCPl8ap2w7WnDpMg7ciOh8DWmW3I6aCD0MUx/d2cgu2n1F0B6hm3I8oqa0qPNllublVX6GsN2kwqsRcRhpDFcrAMeW46akVs8Hw62uV1IZWGZSDIIIkEVlbvDEClVRSAO6MonQ7bajffrzpjD4m6tpsPhkYrMNJPo0P0gCdT4qpjTfeaZYU+jdh89rUtlt2p46qRh7XrNrm6jnljkJHmfIzVYbCHLJNd4Dg6KsXIdicxcjvTsIYaiBtFTGsFVhHggfSGYfCD8athFRVIw+RmeWVtjNhJOWYgSD8PxpXwRU5kuQRqpEqw8mUg13Ebmep5E/dTwUEaxpr4j8zUZRbdpmjx/KhCPGUf5vZacK7TXbfdxIzpyuoJdfF1Ud4eIE+dbDD4hHUOjK6nZlII+HPwrzxMCSJWRJMQeUnl7KXhuPNi6lwmEzZX5Sp7pLdYBDeyp45yumacs8SSatN+mei0UUVeRCig0lAFFFFAMzRNJNJNAKTSE0hNck0BV9p8ebWGcqYd4tp1l9CR4hczf7aweCeIbYIQD4Ajf5n2VeduMZN/C2J0ku3m36tPL6dZXD3+4/kmn1u80jw3qqe9GbJJqaa9UaN17+pGgG53EP18xTZtyfZNR8NiA9rMDm7oG0k7a+6nMM5PQe/T3+VRSpUZss3KTcuyxw3DndS6JmVBDEESNJ9UmTp0rm3arSYXHZUuKJQWSQFBIBAYFCdYJY5pPlVTxBtQxGpRSxG+aN/dFdOTikk0yFnIkCdjEa9BPx+FcBBb9XRZ1GsjQDSdYAG3hTlm2C/M93pO0cgOpNLiTEAzBYBgZiCIB18SKEAdaZNsnlT1pDGXeDHs5VNwuHBcIxA7wkMWAiYIJG3vHnUZSotxQ5vfRUPbPMUWyCI8x468j7KueM27ahRbKmdTDl99hqT0bx18qorzCSZ2j4Mv59tIytWM0FCVJ2SLmIyIY+tAjqzGfgDUG6AUJHVT+9I++q/E4yMo/aJ1MHYfc5os3jkI1juj4g/dXUqEnKSV+uj0/s9i/S4a253AyN5p3Z9oAPtqyrJdhr4i5b6kOB/C/yT31rKui9G3HLlFMWkopK6WBRRRQEcmkJpJrkmgFJrkmgmua4Dy7tpfL4u4R/ptbRTvE25Ej7ZNVuIfvKw0W6pj9lifVPiHXLUvFn0uJvqP9bOVO/quxWPIR7qYW2HQK05XbK0f6d8CJn9oCR4/aqtmRu5WJwfGQly3qO/OXmNNR75qwwd+W1Ma7mdPdVNYYrecMBmgZo2LCRmHgd/bFSLTwzVFlc4ps9IwV3IuVruhGVu/GgkCchzEAad6YmI5CJiXtH1CHJMsZI+Y133nlWZwGLJtEbGSNN6cR3aAilzoDlGozHKs9JJArpCVvRb+nGeApnSNdNZ+8Vzib4bSCJdBqZ1DA/IGkOAuo7B1IyMitqDlLIWGx1kSdKau2G1cKcquuZtIBb1Z84NCHFp0TMFcGoPIlJ6kbfAirFsUjyLqnMNnQgMY6g6MeXWqe7w7EWwzNbcI+Uo0AiT6o0Om/PpUHFNfT/Nt3EH1mRlE9O8Brp8KhKCl2WR5xdoucVibQVgisWbXMxGmxkBd/PlVG94EkcyIiaj3sS0KDoQCNuh/qKi3G1mkYqK0G5S/Iq8ZfLOx5KMsDmWJBPuFWeFtNlS2ozMzaCNWJEACB4xG8iq3DLmuENoAxMkSOgn3mtX2V4U+IxKKpCi3FxjOghgRCHnMbaffMnL0kWHArhtYq0pBGdXRvOMwnp3gB7a3lUePxN79Iw917fo3uW71sKGzElALiAiARmIiPKryrI9GjDpUFFFFSLgopKKAizXBpaQ0Byaj46/kR7n1EZv3VJ+6n2qk7V38mGcDUvlQCY9ZhOv2c1cZGTpWecsxtvauHUiAfGdCI9tTcTZIdlbu270ZoMwfoNPLWBPl0qJftltwYUTI1M+RjQVIw4NxAG3XTvHulT9HKNukmqjH6sr8SCl1QfWCkMepBGvjI1945Vc9m8PZe+UvK7rkdlRWylnRc4UHTdVbmNYqm4mqq6d7MRK8zCx6skCY686n8DdxibBSc5uoB/ucAjyjfwmnsmvRrrWDstw17ltSp9JcxFuYLejDi3lZtyFzg+yrPi6Dv4u3I9Nh7QaNIuJcw7q3gcjrH2aMPjsMgw+DdCTiLVxFuhu6ExFxwsiebKuvlUFOIW1C4W+5Fp8LaS4y95rd1FWGMAzGRREdOVSJNImYu1eSzcS/BuK1kEqc0hbV1VJJ3aF1NLZT/BOkauHvzGwsPZUDbpn9xoGOwd3Pbd7qWlFhbbhZZhaV0zHumJz7ET8qQ8etoUwguThvQslzud4s6vLbT6zLtpvXCFRvv6O8XjW9LdtFmKDBpcCkyFdBaZWUH1dzMVK4javjG21u3kdGuXnsLIKpcRHFvP3QQRnAiTqKqOPcTwotNctszX7llbBBUhFUBQ5mN4SNzvUjFWsFiL1x7d8Fr6MVLqyKlwFCpDECQQGHgfMUJX/ANZBxym8125iUi7hrSi7sq3HYXFtspQ+qxNvUR6sVkWMaVr+MYseixAW56Qn9GwzuI77WUuOzc92IE6zFYk3Nfj7K4yMls5wT6uhjU+38yfjWj7IYtsO730KnMMgVpIygidiOYX8mslh7iM5VmKd719yK0WGRCO4UMddAY5ggyD1ERQi9fRb9o+OXrzIXARQTkCnQGNSTAMnryHvOo7J4z0mGTqn6s6ye56v8JWsS9oZD6QKqnYswgeCufhVv2Av9+9aU50gNmWGVWUxBZdMxDbT9CpxeyeF/I3FJRRUzWFFFFAQyaQmkJrhjQAxqPiLSOMrqrjoyhh7jTjNTbtXGDCdtMKLb2PQxbz58+UCDGSNDIG52HOnMDwpXAZ3YnmIWD9oACae7ZJnu4ceFw/G3TmDu5NDWPNOUZaZqwYISVySKHtXw9LaIyQBnAMLB1kbknrVXaud5IMazIOsRrrWj40npe5v3Xb9225B94FZHA7FgeXz/JqeJuUbZl8nHGMqiWVq4XfqPOdB7dqssMiwhbQHUe3aoHD7RK67sco2nXc+6n2u5nJHqroPZVhie3SLAXWbNvEhdPAyJ91NXHOeN/hT+AxAK5YiDJPLTnUKS7wOZ91dOR9olYi0XUiCOfL502MQFtrzymCI5Hn0qVibwA9HbmY73j1qtw2EHfRzqRMDn0Pia4cdNbITZvSg7CYBmNDymkuSJ020nb3inscZCtlldtNxGkiuMS8xE94COvj8aEkzjB8M9W40ZLjuolSYKLbPUb+k/hNaBezdlhIe4p/ZKqB5d2fjVljOFZOFJp37eXEeWZpcexHP7oqDwzF5oWqMzlF6Z6vi44Sj8lszvF+zxRg5uM4BmHOYwDqDNe14ewiKLdtFRB6qqoVQPACvPuOWJT2VvsFczW0b6yI3vUGrPHm5J2PIxqDVEikmuaK0mcWikooCETTbGgtTbGuAGamWalZqaZq4DOY1/SYsjlbUJ7T3m+YH+2uuJYU6Zd6a4O2a5cfrcc/xmPhFW94gFfA1503yk2elCPGKRQ27YRnZztYuHyHdB+BrGKndVBHTeNBt8zWw7QOAzqu5tOP3mQfOKzOGw5LiQIkKp8t604n8UYPKvl9Fjb7i/YTbxbQR8aYsTGm599O4klu4BIJmRyjQD3a+2u7LBQQNWIjXkfCrEYI3X2POcii2PW3cx7h+fvrvBIdXG57oPTqfz0qME6nU7+fWnGvFVCgxvJ56knSu0dcJVSLR1RANY8/WP4mqLEY3K/cnfQkdfq/1p5QX295rpsMEOcannP4Vw4oKPe2cXrHcKH1l7w0nfXQ1BGKXJPrwpzTuI1Akc9/fVjiW9IQqGJEN5CoA4eVzoCIMEE7mDsTHSaCMX7PXr9lbiPbPqujJ7HUj5GvO+GWyDbPODmHipANbHAcWTIkhiciTEROUTzrKW3C3nP0Q75QPFyfftUM6tKj0/Hkky+xyAofKr/s/czYa0ZmEC/uSv/GsljeKpkgBp8h+NWXY/iKrhgpzGHfaNJbNGp8ah46ak7LfJkmlRrJoquHFk6N7h+NL/eqdH9w/GtdmMsKKr/70To3uH40UsHBNNs1DGm2NAI7VHuvAJPLX3V07VW8XvZbNxult/wCUxUWdRR9lr8rJ56+/WrzFvpWd7PjKBpV7izpXmvs9RdGc4ziO9cI9bKiCN+82cx/6xUHDXyIXKJ5+Z5xy3pMW5Z2MSM0baf8AdN4aS0gagFvuHn/StcEuKs8rPKbk0vZMa9lIUbjTw8zV32Uw9lnc38kBAVzvkQtnXn9nNsCRuBpWcw9ppkg771fcPNtQ4fJOUZM4cpmzLmzC33vUzRHOKsRmguLou8PxHBIQUQATZZiUZyclxGYaiA0ZzOoOmvKoeJuYYKhKIXdXZ8slT+sHotAe7KKWKmCJEgUmFsYFt3uAg7GcpAQEGQhIBcleoAG+9HFHwjOCmii4C3rr3P1MwoTl+tG4OkydAeljZEt4rDkS6gHaApEg20kiAe9nz9NDuAADJx13DAQAjCTsSZUE5ZyA+H0gSBJ10LF5uGuNGuJHpWAhpLEIbaKcrDIDmWTBOpMSKkYQ4D03q5rWRxE3D3v0nuHVVIHoD4xruwGYdSrszmJeXLJ6qgZdIA0lo0XTMWgwPIbUxcxOg68z59a0q2OHquV7tzX0csAxdYW4HyD0cesUlTpABDGIpsYfh/eXO5UhDnJYEH0hDqqi1PqAHUGcxGhFB27JPC3m2h8I9xIqviXc/tt8zV9wRcMtkgNmYO4RnVwsSkSEJJ0zwdDJ1AqBjTbzkW8kSdg+eYUnPn7pObN6unwqE+jRi7KniDALrXHBL7lSiHKMxkeEDc07xCxmGm9dcCt5VcH6w+VMfZPL0X2BVgNetTKj4Q90+f4U/VxQdUVxHnRQFizUy7V0zUy7UBw7VS9pLkYe54gD95lH31aO1UPahv8ADv5p/OlRl0yUe0R+CjT3Gp3FcTCFjpp8qicBAgHwime0DQhHiB7yBXnpW6PRcuMWynweK74U6LuWPU6yPDlXeIupLZIJPKNNPpCfGdKjrlVZ0nz+PyrtgAJ0KifZETHvrWoK7PNl5k5Q4te9fRNwGLA7riQBoY/m8KcvPpod9fGKhBliZJn3xTrvpC6iZ51JKjHJtuyxwPOenTXn+FN4vTujnrznT8/CuOH4jXvbxGmo3rrHHviOn50rvsrt8iJ6Jen599TsDbhJ6nT2fk1DP5/pVjhoyCuslOT49lPxd2BAGm86A9IpUvEopB+kc22kCa74xZJ7w1jQioHDcUEzKTodRPXbQ1wlFtx0bjsige04fvEP4jQqpA0qNjLYTFXFA7pyMo6SgB1+0D76XsXcI9Kh5FG94b+lO8W/+WP/AM0/mf8ACo5vwN3iO2rGceAFkDl51N7F2FuW7hcZu/A3Gyg8vOoXG7kLHhVr2ISMMT9a4592Vf8AjVWC3I1eQkol/bwFsbJ8W/Gu/wBDt/V+J/Gu1Ndg1sMQ0MFb+r8T+NFPzRQFIzUw7U4zVHdq4Bp2qi7TGcO/mn86VcXGqk7QGbLjqU/nU/dUZdMlHtHHAXnu+E0zxohsiH6TD56eesU7wMQ8citVfHpN1FH0VJ+MCsUY8pUj0JzUI8pK/oMVbUQVUkQRGkq0aEx76LKKBoVP1s2ke38+FNDFOdCB+Rv+etN3GZ5WNNztrppPOrlGVUzHky4FkcodV1WrLhRbYZwIkHlovsG9M3sFBzrBkRoZ5T56RUWw7pqkiR3gII/d+FPLiHIMwd9V0I8xyrihJPT19jL5Pj5YXJNS+lobS0yspOo5N4eFTMSkqCOXX5g0zZusRlYyvhy86euOANYHWfVNWqzypPehi3rufz7Km4a6AMpMRtyqIl1SZ0B6cjXR8Pz+NS7H5KmTGHrHp7NIqp4rw7L+sX/dpz6wNKsbfeUg+Kn3afnxFRLylELIZWO8I5jWdK4I3Flp2MxEuwndPipH3GrLHr/iwf8A6k/nuVneA4rJiLcxD5pYaTmECfblrT39b5P1UVf5m/5VDK/gel4m5FNxV5zGdpH5itV2YTJhrQ6rm/fJb76zXEbXdI571q+GaWrYGwtoP4RUPH7bNPldIslanFNR1anFNazGPg0VwpooChc1Hc085qNcauAYuNVNxi4IVSYlvkCatbjVS8cQMgJ3VgR7ZH31XP8AFlkNSRK4UwnMBygfHWqntCpF4ECcyD5mauuC2e6p99HG8BmVX+r3T8wfz1rFGSjKzfPC80eCdN/7MoLpAzRvIB5Exrr507ZR8pOWZ+B5yfKu/QE5Ucd1SSpA1zHUgn2zt0qaLoRcwJCg7Hdj0WfjWlz1o83H4y5OM9V2RXDyJQkanSMwA8jTbuw1LAD60GZ8x94qyw14PqmUE6sCs76zv504+EDgn1SZlWnXyP49arWanUlRrn/5alHlgd+/3RBYsr5G0LAEDfTxjy38KU2XInly5z7jMU8qPnlznaBEwCR7PWOm++lOYi8igMZB5IefQkQY1qxyekjz1g03LVEI2SDGhI5ePPp8qfsjqPf+FDDOMynvDWJkTzhTtS2iGEHusNCNYnw6VOMrM0tfsdpdCTO06nXT8/dXLOA2kFW6aiehpxEDDbz+XtpnF6bCTH0dNPZXSKVsjNhizJbQNmGid0iR/StgiNmJJkwJPVucfCo3CcOURS5Gd41mTB2UeQ+NWxXLoayZZ26XR7niYOEbl2zP49mDkCZgj36fnzrXYZMiKh+iqr7gB91ZO+4N9VO3pEB/eFa1TV3jLTZDyntIkqadU1HU04prUZR9TRXINJQFC5qNcNOu1RrhrgGLjVTcXfRF6t8h+JFW1xqpMdcUX7ecwsGD46z8lqrI/iyzGrki94UO6oqdeIbNb3ldR8KqOEY5DmXmpKgeG8+6ucLez4i8gkZAmumsgnlygisXF7PR51RSrecGG3UxsOQ1kc9opq6jXO8SSQNF001jr7a6u5gzDMfWPJep5xUe7duxCup+0on3itceK6R4uTJklJptvftku1hXQyMx1jSOY33p7PdBy5jGu8eY5/nSs8/EsQh1b4Vy3G7x1LCdvV+ddcU9tCMs8VUZUvps0Qd5aT0ERMjnpPL7qbFouWM6+J5dYJ0qkTj18bFdf2QZrg8bvTuv7orqSRCUcstN/wCTSW8C0Bik+IHIeRrtMIJnK4HiJ+ZrKf3tdmQ2U/syPvp5uI4m4IZ2jmRoY8xXSLxS9tGqu2kSWd1SeRy6/wAdMBPSAMquULBS+UhO8SB39j6p2J9Wl4TwXCxmdyGaCjMpZfFWg6Gef/VXOM4cHNtWxFuAe4EfPA1zdMvWqZZop8d2W4sMeS3ZxxI5b+HtLMNmYka+qAB5DWrXGYgZQJEuMo86rLyoA2ILSMoRCDPdUk5gfEknyrM4jGMh/SGOp/yl5x9bwnr0qjjekezy47ZeoP8AEID/AORST5AffWwU1jOyuFu3CMTdMCSUHNyRGY/sjl13232CGtmGLjHZhzSUpWiQhp1TUdTTymrSkeU0VyporoM67VHuNTlohpzMFjwmfISNa7bDITreQDXWJ5vHqk/VXfTveGsbBW3DVLxuwXtmPWXvLG8jp7JrR4jCoASLqmAYEbxMAd7nA/eHjFPdNRZ1FVwm6udLkaOcjjoy6g+Gk1pRhgt8uJC34RnnZwFCDwGjDzMVluI2Qqu6EqZDkbjMDv4bmqK5jrj91nYgmYnTTbSqHjdmlZko7RpOI2Wt3HtturEHn8aiM9NWXJWWJJ6nU+012+lSSo8+TuTYziEDDWqtrWhq2faoTrv7KkmIuhnA25dR0191LiLMXGXxke3X76lcLTvM3hFLxS3BR/8AafmPvrt7Lq+NkdLAqxwZGUrz/OlRFNdI+UzUWUy2XPC7/dNs8jK05jsOLilT+SKrbT98MNKs8+gPWosqenaM7+lvbmyTKzt4dK0XZvh6YlmxF7vBWKKn0dFUyeohtqrcZhldh4sB8D+FajshayYf7Vxz7jl/41OKi2bYzlKCfro0VvoKeQ1HQ06hq4iSUNOqajq1dq1ASQ1JTWaigM61R3oorgI1yor0UVFnSs4r/lP9ms9gxrRRUWcn+JbrtXNyiioGZDbVFbnRRXSSJPDvVPnXfE/8s+a/MUUV32aV+BDGwrqiiuGc7FWeHMgUUVxkJCXjBH2l++tP2a/yF+0/8xooqUOy/F+H8lytOrRRVxIcWnBSUUAtFFFAf//Z</t>
         </is>
       </c>
     </row>
@@ -3536,25 +3552,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tilak varma</t>
+          <t>Zakir Hasan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024_T20_002</t>
+          <t>2023_T20_284</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3563,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.8</v>
+        <v>100</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3602,58 +3618,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Wicketkeeper</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhISEBIVFRUVFRYVFxUVFRUVFRUVFRUWFxcVFhUYHSggGBolHRgVITEhJSktLi4uGB8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0vLi0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAAMEBQYBB//EAEcQAAIBAgQDBQYDBQUECwEAAAECAAMRBBIhMQVBUQYiYXGBEzKRobHBQtHwFFJicuEHIzOi8VOCkrIWJDQ1Q2ODk6PC0hX/xAAaAQABBQEAAAAAAAAAAAAAAAAAAQMEBQYC/8QANhEAAQMCBAMFBwMEAwAAAAAAAQACAwQRBRIhMUFRgRNhcZGhBiIyQrHB8BTR4SMzQ/E0UpL/2gAMAwEAAhEDEQA/AM+BCAhKsMLOUi4BDUQlWGFiIQhYarCCw1WKhCBCCwws7lghBadyw8sLLBCZCx0LOhIGKrezQtlLW2UbsToAJykR5YmpG17EDe52t5zOV+1/sywem9O6nKL3IPUgAXPm1vCZ3iXaWpVuO9UANw1Y52Xa9we6NhObuvoE6GtA1K3gxtAnKKiZv3cwv8I8Vnklauze8d/h6WGkn4Hj+Iom1Nzl07rHML+t7ek7suSvSSsErK7s9x1MStjZao3S+/8AEvUS3KQSKPlitHss5lghMkQSsfywSsEKOywGWSGWARBCissArJLCAVghRyIJEfKwCsEJm0UO0UEKWojgWJRHVEVIhCxwLEBHVWCEIEcUTuWEoghcCzoWHaICCEIWEBCtO2ghDlmS7b8TZbUkGoI1BYHNYHl4EfEzX3nlPH8Sz1axI2quOp0YgW+ELIVfVck3OtrXBO1z5638JzQk206X1sBy8TNNwPsdiq6CoMqAjug318D0kTH9mcVSqWNJ265VJsPTl4zkSsva6d7J9r2VKEue7qNzaxt4a7mAqc7ggdTuLbWmj4J2QxGIcrkZEXUvYk+Sg2F5ocb/AGYkIClRs1jcPbTyyicOqI2mxK6bBI4XAXnVKo6MGRrMCCCDzB3nrXCMV7WhSqc2UE+dtZ5ZxXhtWg2SoLeNrA7/ANZuf7Pa2bDFb3K1GFugIB09SY5cEXCaII0K0pEG0cInLRAkTRWARHyI2wipLpoiNlY/acIglUUiCVkgrBKwQoxWAwkkiNOIIUe0UdyxQQpKCOqI2kfURVyuBY6gnAIYEEqICdURLCEELtogIU5BC6BERFOEwSoJi8L2Uq18RWyi4as5HkDdptqNEuSByBP6HM6yd2SqjM9hqGY7WOqLfQ+e3W8be8DS+qcjYTrbRT+G4UUlVOg/VpNrUKdQAOoNtj9ZT4jj7UmLVMLVKDmuUtv+6DtLDhHa7AYk5ULI4FyroUI+MqXRu1KtmyN2Vph8KiLZRYGNYkptLA0ksCSAPhKLifGsAhKmvTzDkGBN+mnOcBpOy6zt4rD/ANp3Dc+HDqt8rA3G9tR9ZU/2e4crhmY/jqMfRQF+oM3r8RoVaVVV1uj6MpGgX+IeUzfAsPkw9IW/Dc+bEt9z8JZ0twzKVW1ds1wp8REQnZIURCYBEcMEiCRN2nDDInCIJU0VjZEfIjZEVKmWjTyQwjTCCEzaKFaKCE+gkhBGVEepxVynAIQEQhAQQkohgTghiCLrgnbTsUELkFocFoJU5w1wr3PQn4Wb7S/4FZ/a1rDVVCkW1DFjf5zLhipBG4N5pez9VFzqlsrqlTKDcI2qlbfh90Gw018ZEqIzmzDkp1NKMnZne6gcY7OVKpYhmGYWBBIykEG/dIJuBbe1ieesjDhQopRDL30WzOWZjUN737xJHTf+u5pupGspuLHvoB15C8hdq7LlU0MBN7JniuILUcpG9r/eZHCdmR7ZKqLlUA57ZMzMb6oxp7bbn6a7XG0WyhiNOf1knhSgb7RI5CwLqSNpVWuAY4aojkE5GAsORUjnrsZDx+Eo0aCJRFgxBO+ZrDdid+Qmj4tiLI2T3m7i6E6sQAbDpe/pMXiq+YgXJCiwJ58y3qZIp2lzgeAUSd7WsI4lNgTtohOyxVahInCIRE4YIQEQTHIJghNkTjCG0AwQmyI26x4iA8LJUzaKFFCyE4sNZxIYEFzdPpCMapmHBIuiEpgidEEicM4IN4rwQjgtO3gsYJQbJp5L4NXWm1QnQlVt42JvIjSJi6TGzpclMzEDmlu96i1/ScyC7SE7E6zwVszxBVT2hay2uWJ2AlLj+1+FVS61H13KCxNtRa4jKYui9JaRdTmYW05Ag7Ha+lpY4bAEuVSoq22BAsfDUSs7MA6q2Y8u4hBX7dYZ1poKrKzEfgG9iLNmBAHiJa4TGK3ukEdR/SQOLcNqlQXNJx0KA+HOVOHophBVdTlJQEqDpmJsCATpFdHfRKSWclYdosbrTRG1z3uOQVT97SoUSDgHaoxqtt7qeIv3m9SPl4ywBlhEzK2yqpX53EoxFecBijiaRQTOwTBCU4Z2CTBC4YBhEwSYIQGA0ImAYJUEU7aKCE6scWAonRBcJ4QhAEIQQjivBnbwQu3ivBJgloITmaNs0bLwC8VKE4WkrhDf3o1F8rEC4uRsTbprIdFGc2UE6XPgBuT0EXARnxuJc6CnSpUkHRWuxPqQIr4z2Ln8BYdSkjk/rsiG5ueg/lZftRhmwtX2i3NJiSltkbNcobbDU25cpoeG8fw9fDj24GfYWcqdba6bTTYnA06iFaihlbcEaTLVv7MKLljRxD0gdcpGddOnOVvaRvFn6EK0ySMN2agp6tx3CUKOcF8x2XOX1I5X2me4JUrY6s4Zm9ncNUNyLIBcINNz9PSWNP8As1UNarimcA7KoT5kn5TW4ThtLD0xToqFUfEk7knmYofGz4TcpCyR594WCplddlK6WFlI0Gw05bToaZ3gdFlxuLGYlbc+RJOnprNLjsHVom1VCtwCDyIOxVtjLaWMBjZG7Ova/cqaOUmR8T/iba9u8JBp3NI4eGGjCkJ7NFeNgzt4IRwTFOwQmyYBjhEAwQgM4YRgtBKhinIoIT8QMENBvBcKUs7eNo06TBCImcLRtmgNUioRs8AvGGckgAXJ0AG5PgJoeG9mSQKmLqCih2X3qrj+FBc/IxQCdAg2AuVS0w7sFRSzHZVBJPkBLXC8Joq3/W69m/2FAe1rnwOW4Q+es1eDCU1KYThtaoDu1QiiH8y/eI8CPSPtXx6ISKWFwNPm7sGyjwC2BPnJMcHF/wBQP3Pp1UeSf/p55SR56D16Kl4pRenhmK4cYek5UKhN6766vVPIcsvjMZSrmjikbZayimTyzrcqD0uC3qJpeJ4/DOaqU6tTEVsi1HxD6KVRh3KSfhW5voPUzNYiktRSrc7G/Qg3BHiDYy0hpO3pZYBob6cOAtv+dyq6ipNPVw1O4y2PhmcDt3G/jxWvw77qY/SS/OZfh/HwHSjVPfHPw5XmvSjcXEwsrXMcWOFiN1u4nNkYHtNwdQodRbGVvEa9lJJsACSfCTcfWANgMx6CYzthVr1VFFAF9owB6hecWJpe8NG5SyODGF7thqUPBLFKlb/bPmF/3AMqfEC/rPRcDjkyIhxS02YAmniaefD1Lj8DG1j1Ab01mBVFRVQaBbIPICXw7S1sMKdPKlWk1IMaVRQQSSRe/K4A67Te1VJljhgYL2uOGthfjpw/lYGhnL31E7tL2Pm6w79ir/HdmFfvfs7J/HhXFamfE0nsw8lmfxPZuuv+Gy1P4dadX/2qlmv5Xk7B8a4eVFRaWIwpY74er3b6/hNgRp+7LTDceRhZeJow/cxWHGvm6lZXS0DwL5SOh+2YKwirmHiD1H3y/RYioHRirqVYbqwKkeYM6HnopyVlyvTw1cchQrKTp+7SqABfRpRY7sqlTMcGxDqLtQqAq48g2oHQ3IPWQXxubupjJWu2P5+clm1M6TGrkEgixBsQdCCORnc0b3TiMmCZ28EmIkQmC0RMEmKulyKcvFBCStCEAQ1gm0QM6Xg3jbtFQuvUknheBNZu9UWmnN2uduSqNWMrWuTYbnQSwqPkVQNLWBI/5r9b6yfQUX6km+gH14Kvr6402UNFyfoFuKdLCYCmHyZLj/EqgNianhTo7ID/ABWtzEo8b2yxNs1DLSDHoHqHxZ25+Q0mf4i71FNRizOPeZjckDY3MCgmZGHT+pl3TYZDELv1PHl/PVU9RickmrTlAKn8Q7QYxkBOJra7kOU3HRbWlVxBnf2ZqOzFhuzFiBpzPWO4mmMijlofiCfp9YeQMA1trD8/n9JPaxjPhAHRQ+2cbFxJ1O5v4J7hFILWyfv0yg/4CfsZGU233EPEsUelUG6kHztuPgbR9qIqMX90Nfujl6xhjHMnc/5XNb/6aSPUFPyzxvoowT7zS7qCBr5g+aYo0qb1aYOXMdBrrbcadL/WXVPGuvdBMymL4YEq+0XRg2ZH5g9CenKaDE1DkzW72UHkLtzB5A30vtMl7T0+SRk/B3u9Rt6adFsvZWQSwugYSS33uh3A8D9VbrjKdNGZtzKHirhclWpZS2a1+Vsth8zC4Oril7fG2TmqHWw5Ejmx5D9Bupiv2i1lyohOUHVjfm3j+cj4FSSOqRMG+6078NjtzIOumnenvaCphio3xvd7zraDfcb8rjT7KJnBFwQRO8bNmojmKK39WaOUuHqqEEW72405yPi6jPUBY3a1tgPdvbQes27mOfLG7g3NfqLBYmmnjZFKwXu7KB0Nz9FJwNPu5T125+vhICqdR0Nv9JcrvtuL+vj8ZAxlOxuBodfn/WPxO95QY33ce9OI1qV+YIt4eXxmp4Bxs1LU8TUPdI9jiP8AxKTfxN+JDoCD66bZWj/hVPP6yRibKAg/ELfP+kZnhbKC089DyXcM7oX3bz15W3/1y3Vj2rql67FkVXWyVCvus66Fx4HTfXlylQrSSwupH6vISNM1iNKIHNy7Eeo3WkwqsNQxwduD6HZSQZxpxTEZWq0QmNNDMBhBLdciiigi66IcAToMVcJMYw7QqjSLUqQQpvD01Lnl3R5nc/rrH6vyOkWHFkUeGvmdYj0PObOhgEMIbx3KxlbMZqhz+F7DwC5hntodvdPlyMHBtlJT97Lb5CDmF9eYI+H6MbViCp6C9/Q2kwtvdM5b3HNP45gEJ8T9bD6RYB+7lPK3zg47ZegAP5feJMBXUGp7JggsS2RsoBAPvWtsfnG7gN1KVkeeOw8VziZ2knBvmp+I09eXrGMXh6lQXppmsVBygmxc2UacydJL4dwnEhmptRcGzaGwsUUM3+VlN/ETh0rALEgEd6XsXuiFgdO5F+ytXXKiljbNbptf6xnCMcypUuGpkghtLnTRh4fPSWHZ+v7Fzc+9oddl3BtzHX0kbtHXvXZl5FRfrYDX6Sme+GvqXUj25mN1v3jQjw1WhpWT4VRirhfZ77t8Gu1BHeLb8Ezxdc1i5uw67W6D1tImDqZW8Nfz+0f4iQyZgf0RKpXl5E0BgaNtvBZ5pdK0ueSSd773V3iBdbX3NtdhfS5jNfBLRrqKlRXW6sz0u9a+9vKSOFUDiClIbtZb725XtLcOyE0cFRBewBdkDVHqUiC4GU2yEhb3Nt7eECoqDE7I06kG40HW+pFtdgb8VLw+ldI12g0PH6W430uoeIwntHy4c73yE924Avz52Er8R3lNul/vv8Je4jFMxNHHUshO1UUytRCR3LUwSCgawuPLS8pFwppVatJ90010v6XPhpeJSTOcbO4AW43A43Gh8h6hc1tH2AzDmdtOlu7xKhYd9QOXP0BjxfMy/wAOnxAP5yG7WJA5ExzDvpbnqT5y0Iu66jObxCnUTv5yFVFmYfxH6yRTbQ+JEj4rSofECU2NMvEDyP2VhgrstQRzB9CCnkMMximY8WmYWpQMYJM6TBMELkUG05BC6DExitBeKuU1UaPcDwH7RiaNHk7jMRyQasfgDItUzT9katPDUqmKfWo96VFOdhbM56Lewv4ER2KN0jw1u5TcsjY2FztlX4gWd16FgPQ2/KNNrCI/1hFem83Q0Cw5IvdRK9yP4h9evqLiMU3BRGU6Z7EdNdvtJ1WnmFxv069RKmm4JYA2tUGYbam2v653iqTH7zfD8/0r7ggz1ETLmJIGW1+6TYac8t83yno2ArsyMWYlc9RFL6DL7R0TNbkcpF/EaG+nmHD8c1EtVQkMFKAj8OYqSfhceslY7jtfEUvZswAABIUZQ2UsbkDbVibDS8qq2kfO/wB3RvM+uim0lSynaTrcn9uK1PAlHsMtJf8AGZq4BVwcquTRUOhChv7tRlH72YcxLDH4hqIVqXss7PUuuTQ02dwSLNoTkpknn8Z5mMZWyIBVqD2ZOUB2AUNvlF9PSa7gd1pKH1sl7nU662+cpcWa6lZ2lwST+fZXeE5al+QiwaP4/PJRKwWiCzAEjl1Y7D6TO8QxqlQ7HvXKn6zQ8XwtSupCDXMCCdFFvreZqv2Ir1WJq1bL+4gI/wAx5ekYwqvpqSF0jz/Ucetht5m5UnFcPqKydjGizG/Xj/Ch/wD9mmbpe5I0A12Ow+ck4SlUfUUjbxsJY8P7NUqFwEy9WOubzJ1MKrjFBZaXS1ztf7yXHjNVUvy0zB1/LKNLhNJSszVDj4D+NVL7O3pYikKoGSpmp6m6szCwU2BtqV5TRdj8TTw9aqlVgpPczX7qsrsd+QYHTl3TMJRd3Gp1Vsw89ATb0Ev6eOoYkBMYGDgKntUsoCo2bvKouxt/yLJdTTTSR3m1JFnZfEkEDrr0UCCqp4pHNjuBe4zffl3LQ9vcXSqLTWmwd1zXKZWAVxlVSb82sbb90m2kzfaViMSgJN1SmjAtmIYDvDMSb738L25SRVxeDoO9RQ9aoXd7VFUUwWQAEodA1z+EW7g8JQVqr1AXY3Yte/oAB5DSw8I5htIYsoAIa0Ea7m9uth379E3iNUyVuVpBueG3co9a12PIX+s5hGvrte1h0HL7mF+Byeo/P8osD3szdTp5DT63l2N1V3swqYvL+b7QeJLqp8MvwhU919TD4hTJS4/C1/TY/USDibc1O4d111QPyVcZ77eeijUjJBkOiZJBmNK2SRgNDMAwQhiiyzkEqIxqoY4xjVSKuE3TotUZUXdja/IDmT4CXGIpqrBUN0UBVNrXC87eJufWO9nuHgo1Q6EnKtwG0G518dPSO1uGvyOb/KfnpLTC62jheQ+QB22ug89lXYph2ITNDo4iWDXSxPluoMMCddCp7wI84DPNSHBwuNVkntLTlIseRTVY21EyfHMcKVdX/C4AYfrnvL7iWLCg3/XpM5xLCGrhyx3Lqw8Evb6EmRa6fsYxbckWVxhdPmdmdtY3WgpVbWv4X8j/AKxwVlRs34baQlCuijYgWvLPgXZr9rQk1qNNUazZ37w6WW3PU7x2aZsbC5+ijxxGV2UA35KswdImtSFtG1PS1rkTX0m0PnaR8HwPIzezcVANA+UqLc7Ann1k98Na1uUwuN1zKmUCM3a0evFbbBKJ9PEXSCznfQbJylXA0EdFTrtIyIFFzvyA5zjVLb6eA1Mpldpvi9IuLC3rMZiRkqnTTX9fGbGsSQbGx/XOS6XYSnUp0icVkqOoZVZFuTa+guCZf4DURwveXnh91nsfgklYwMF9TfUeC8/qtkcEbH77yVWNnDDY2mzxP9mzMpVcUhqqL5clh5E5rgekquzXZiri/bIWFM0SEYsM3eubgWPK3zE1UddCWl2bQePFZR9HOC0FupuOCpceOfhED/d28BNJhey71sGcSaiqArNlIJ0S/O/Ox+My1VmNM5dxpJLJmSXDTfKbFQzC9jW5ha+o8FRYvixZ/wBnpDvFtT0/0FzLvDBVSw2UW+ExtPEZK9Un33cpr+FfzOk1eFfNlQeBPkOvrO4nF1yVOq4QxrQ0ab+PM/YKww67X6W/OW3DERi6u4RWpVQSdr5DlF/5rH0lZTkzC0Wc2UA9fDzM5qspicHmwtqf96KtiMhmb2bbuuLDn5KnoyRHeJ4X2VZ03GhB6hhf63jYmGu06tNxwW8yubo8WPHxQmcMMiAYJFy0UUUEIXjNSSCI7w3C+0q006tr5DU/IGKkC0IqmlTpKVFwi6bAXFz+ut4IrqdSQPMyD2gxoDm+vgL6+FhK9OLkKR7AW/mAI+AMqZ6VjzeyvqetewALQs2nUfESvxuGp2N7ofDb4GUeKxGKrWCEUjcHMoOYgcjYi8IjEMhSrUzE6ZlQI3yNolOKuldeCXL3X08tin5XUdW21TGD0++4Wfx16tcUgQy7sy7WHI+ZsPWW4oXGUDcWsPEWj3Cuz+Qn2YZi2/XTYX2A1l7heFVF1bKF28WPO35y7mxGSXKXkEjloFQmhjaS2IEM8yqjA4Cpmy9eQ1PkPGaDgtFVqVVsLU8otyzW77fQeQlpwvD0ru9iClN8o5hwAwv/AMImP4LjPZ16gPutY7geH5xisrKiqZ77tOQ0CWko6elf7jdeZ1K3ZrgDSwjbOG90XkKlRzEWUkee8l43F0sOmZ3VAOVxfylQ1pcbDdXBcAL8FExjMvL1kF8UeQ16nS35ykxvbKmz2RHYbZtFGvmbwsZxBPZOuRxUNsrZgFQaHVdST7w3lpDg1XIQMlhzP5dVs+LU0W7rnkFboAcoNTVmVbDa7G01PaX/AL24Yo2Ct9/ymU/6RU6mEwuHFOzUHo1HYZf7z2QNzpzPjJ2M7W0a2Mw+LFJwKAYFe7mN1Yaa25/KXFJhctPckE3Dh6G3ndUlbisU4tewBb9dfJaLgaX4zj2/8tB/koj7Sp7BvbH8Qc7D2p/+Yn7SHwftdRp47E4hkcrXChQMuZbW97vW5cryDwTj9PC1MU7o7e3RguULoWZj3rkdeV5O/SShkgynVjQPEWv5WUEVMQey5+Z5872Wg7P93g1Zv38+vmypPPnrZQ9xfTbxvNFw7tAv7AMFkbNe5e4ykGoW23mYxg97wljSROYZS4buNvBV1Q9jzGwfK0Dqsvx6mRWouNC62J8Qfyaa3g3DLLfPvv3bn6yFjcKHpMLDNlupI2YDQxzsdxdqyD2ltNDYW2mTqcQroLiBwAud7H6grb0NLh9RGG1TCTYW1PLuIWooYWmNwW8zp8BJ4rhFu1go1Nhy8AJH00tOvTzKynmCPlKKWeqq3D9RKSOV9PLQeiuI2UlGw/pYg3p991UcTx/tnBAsqjKL7kXvcxgRikJIAlqxgY0NGwVBI9z3FztyuGAYbRszpchciiigi6IzQdkMNrUqdBkXzOp+QHxlDLlcQaeHphPeck+JJP5AQcdErBqpuL4RTDFj3jqSd7dZDw/CQwzEeS8vC/raTqeIsh1/euTz8/iI1g8dluDzJXyNzp95AzF11Z2DbArnCeCguSde7c+BvpYS5weApWIYAnbX84PDMQEVuZLHXw5feU+M4mc7lCbDVh4XtmHrac6PcUasaFY4uolMkUwALBdPqJ3iqqVUoy6cjtp4TO18cN1BJ6n62lZiMVVZrKegvpb1O0dEW1k0ZN76q2Ti60r5muWa7ctenlbSZ7imCenVz03Pszf2bX95bk6+IvYiMcQqU1NnbM4BbIDsNgT5mQuFY2v7NyzsoYmyA90Dlp18Za0OHPn02HNV1XWtiF+PJaSrj8UiAGoVBqUqdlOpL1qauL9MpYXvudNpCx3C/aKz65hqbs7XUe8BnJsRvvyMueJ4fNqde/Sb09vTYekmDDkO1hoN+m4Av4ayrZXSUpZKzYPcCOYbb7XK0D8OgqGPiduWMLTroXZtvQKiq8AohFYFs2VG1IK3OXlYHc9ZZrwmicwJc252UbeFj9Y9ispFk2Hs1AO/dZFI+sLFVzTptUUKSGW+YXuDuPDYajWWTcSrpzHHDJYvkeASBsAMqq5MMoIGySVEZIZHGSAT8Tr349yqsXgDRs6nMl7G4sQSNL2vpodR05XEm4jgqU/aFajEqHOqqAcoY2vmuL5enOWGOoArWQD8LW/3CWHzUTvFNKdc/wANT5gj7x2HGqqVsDSQHGQsdpuBb91HnwGlifUOsS0Rh7ddj72nos7w/h61WY5iqrlsVAJu19NSNrGPcXwQRFYMWBJHeAGoynkT+98pYcGwv92qlsuYs5b90HS/kFXN6md4tTvRb+GzeQ90/Nl+EmDF5nYsIP8AFcs2+YC+++6huwWEYR+oP90AP3+Unl4LN0HIIIir97Nbb8toI5W8Y+psvmtvPX+k055LKHe6VKVfY2hlxGIp9Kh06A6j5GWtEaSBwgGnj6xH4ght17gvMBVNLQ9p4ErcUTrlpHJbmnTswvJr0OYkTOGZGG1vnLN9rymOiu91j+J4bJUbo3eHrv8AO8YEuu0VHu036Er8dftKUCW0TszAVSytyvIXTG2hmNtO02higxRbIUgiX/DMOKgpM2yKQPMH+plDaTeF8Qakdrjp5/6CNzAlhsnKctEgzK7rYUZdNmv8dvsJU4ujlYkjuuLn/TzlmOMUrEa2vfbVT4GVuJ4pSfS5PjYA/CRI1Ol70KY00bgaqw0vyPT9eEiUyxLgWNx3idABcEgX8hHv2ulkKqjEjY21LHnfoPvGajErlsANPPbwj7WXvoozpLDdBUoqqioXzG2x2v0A3JjK0WfV+6P3Ruf5jHUQDz6mE7yQ1oGqYe++yosVgg1epYbhR6AX+8J6NhlttLMU9c/6sIzikubzZ0EeWFtxqQsfUz55nAHS60OIs1HOpBHs6RNmUkEGncEXuDcc5Kx1c0mLMCFL5W0/C2a59LAjymapKAumsiViUWxJtvlubX62laMAiztOY2DnOsRvm3H7K3HtFM9r2ZRcsawEEi2Ukg/llp66EN/voP8AOsd9krKUdSwJGzZf3hY6G4Nz02mfOMrhEJZTYoRdVv3Tpc2uQNNDJb8Trhb3QHp7Kn/+ZWt9namJsQhkALC8g6/Nt5bFWr/aelldJ28RIeGAgEfLe/LQlXOLq2UknV2Cj+YsM1h0C5viOs7xFCyVlG7ZQP8AerUxfy1lDVxVSpldmBZCLXAsLG+ijQC9pLPG6uQkLTvax7t9L/zfq0dZgUsIgyOBLHFzidLk28dLhRne0cM3biRpAe0MbaxsBffbnw0ViikXZSFVdASwUAWIAuSL6A/Azoo51ZN86sAb3uSLqbje5Cm8o6vEqlUZWCgA3sotrtc6m/P4wjxitSCgFbKBY5FJ7u2pHlGI/ZqdhZL2n9QOzHU256d54kqRL7UQyGSDs/6ZZlbtm2trwsFWUVyjN0NvjDrDujz+U4tM+8Nr/SFXAJ06X+33vNfdYrchKnzlcaoXGgnnSUjzVnEsAfpaVPFf+04c9VcfAg/eYzFY8s8g6+a2GEPzRM7tPJbvAtmAMufwyl4Iugl8RpM8/daZuypuOr/c+TKfqJnlMvOMNdGHl9RKEGWFMfcVXVi0iTGA0ImNuZIUVDFOZooIUwRCKKC5TlT/AA/VvtAw/L0iijEHFS5+CliNvORR9yhcU1AeKKKdl07ZDT930+5ncRsIopvWbrCfN1KDDfeBjfeHpORTl+5XQ+PoncZt6fnDr+6fIfaKKdD4lw35UOF2P65Qxt/xfeKKdu3Q/cqPhfe/XhAxvvDznYpy/wCJO/5OikH3D/L95Df3l/kEUUbSM3PVOU/ufrKri/8Aj4b/ANT/AOkUUymNf8h3gPotZg39pvifqt7wTb1+0uasUUy7t1rG7Ki4r7jfrnKCKKTqb4FW1n9wIY28UUlKGgiiighf/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBISFRISEhISEhISEhESERISEhESERESGBQZGRgVFhYcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py5CNTQBDAwMEA8QHhISHjQhJCE0NDQxNDQ0NDQ0NDQ0NDQ0NDExNDQ0NDQ0NDQ0ND8xNDQ0NDExNDE0MTExNDQxMTExMf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAQMEBQYCB//EADcQAAIBAgUCBAQDCAIDAAAAAAABAgMRBAUSITFBUQYiYXETMoGRQqGxBxQzUmJywdEj8SSS4f/EABkBAAMBAQEAAAAAAAAAAAAAAAACAwEEBf/EACQRAAMBAAMBAAIBBQEAAAAAAAABAhEDITESQVEyBBMiQmEj/9oADAMBAAIRAxEAPwD1ZBYVCmAchcLBYDQbBA0AALcS4Nia4919wAW4XGp4mnHmcV9SoxfiKnG6hz0fQDNLl1YrZyS93YbqYynFbzj90YbH5lOpPVr27cFdiKs2naTTXRt7m/LF+jeVM/oxdm7v0IkvE9OLtJPT/MYSWJlttuRq9Z+tjVJjo9Vo5tRnZqpHfo2rkyFWL4f/ANPHqNSWyu7d0+C0w2eVqdkptqPF+xjlmqv2eoCGTy7xlTltVWiXfuaPCY6nVV4TT+ouD6SRBbCGAAgogAAAAAAMAYwCAACgAAAAPAIKOYIKAAAjEOjmbsYBBzarKFOcl0X1Rkp5pUte636GgzrG01CSne7VrIwGLqJprf09AS0WmTMTi5STvK7frYqajbe0rv3Y1DU+W3EWrVstn/6lEsEbE+LKPzNrs+g9DGavLdP1K+WMqPZO/wDS1chzxCvxZ9Ubgrot8XePni7Nc9n7kCOYWfmVk/1OsNmSfll12TfD9xvFwUdtN4S+69gM9HZ17eaEtn2OZ4ySafR7MrqkHB3g7p9BI1+Vx3TA3ssqk9V7PdboWhmVWnvCUl7Noq5VmuGP/HU426g1pus1WVeNa9OS1y1xvunvt6M9IyvNKWJgp05X7x6xZ4E5tMt8jzyph5xnFtb+ZdGhan9DTWenuVxbmeo57Tr0VUpyWqK80et+qJ2Ex6lFPutSX6kimkuriFFxXcchUUuDI1sx1V5apL4cdlZ7F3k+J+Jqcd0na4AXCEYIGMaIAC2FAQBQABwAAoYAABgA2VWY4mUbpOyJGOxShyzK5jmEW/NdxXryYY2Q8xrp33ba9blBVqqd97JcvsS8fi4z2pwavt3OZUUo8LfdtjpCDVGtC2mKa9WtmRcVTjH8Oz6rdCY2m47qe35EJYp2adnbp39hgOZ3hvbysaxNPUk7LfhjzqxcbX2/Qiudk432vdegCtIizoShu+O/qP0MVeOiW9ns/Q5q1G00/crtbTNFf/CyrtK33IFSVnfuduq5L2GJzAzTuMzunOzI6mEZAGkmc0zhSaYwpDrnsANl/kObaJOnJ2jLh9pdGWsM4q056JPbdwaez7r2MXGVnckVMTJpNybtst+EK5Qyo1tTM1KNkkr+ZvqabwNjLwmuHr339EeaYbELa7fFjQ5FjnT1KF3OTshKnEPNaz1yFZPh79RwoMhbUVqeqb+bsi9gxEVOhRAAAAAAB0AAoYBzUnZHRxVW3BjAzGcYrd7O3qZnFzb4tvz1Zo83Tba2djI4qs4yd1bcJFYvw4wV27NkavXTfzeyuN4jG6vLZWRX1qjd/wAhsFCcpSk77/6G3R6ok4LCyqbezZZ4jLoqO3KW4OsGmHS0zdbb6jEp7FnXwzs7qxA/d31QKhXDIk6hHki0o4GUr7bd2jmtgbPj8jfpB8V+ir1WEluSamHa2sLSwjfINoX+3TfhDBouIZS2rnM8rkulzPuTf7NfoqYs71j88FJdBl0WuUbqFcUvUJrBTvsDgCjc3ROzqM7M2vhDDxqS3f0X+zIU6d/S3JvvB3w0oxV9TfmFp9Dx6eg4WlGKVrexLgRKEF0uSokTpwcA5uFzTDoDm4ABIARClDAEkrigAGbzTCy17cWbZRYrLYzTlK0I93e5t8VT1Lgymd6nFxb0xT8yRiFZlMdh6aVoLr82+4x+7L3vbYkxqxbt+GPHr6kzCYb4k0l/0bVNI2J+ng/kuXOKcrc8Eutgr923+RocPhVCNl0QSwidjjq22dsypWGUr5Smk3sl3I0Mo1Nu1odO7Rr6mBTtffshZYZJWSFd0UUIz8MuVrWVkLPK4NWsi6jQsczgI6Y/yjOTyOHNr/RCRyqH8vHQv5xGLCu6D4RXxwEV0Gp4OHYs57IitX34MVM3Cpr4GL6Ig18tg7+Uv5ojTgis20SqEzMzyddCpzHAum9lt3Nzo7DGYYBTg1a7sXjl77OXl4Za6MCqm2/JpPCWO+HNX5eyRRYihplKNt0LgqrhJNcp3Ol9o41/iz3bL5NxTbvdE5MpvDNWUqFNyXS91ui3uQOo7uFzm4xh1NaviSTu/LZWsuwaBJ1AN3A3QJwABUQUBAAAM74rwy+FOSsnb7miM540mlRt1b2/Mwx+HnUZtS0pbuxrvDGGstUt22Z3DUryvbg1+Tqyt2F5X0Pw+l8o7HNhyBxI5jrRwxqbO2hmaZOmVlDU5EeUh+pEiTTRJspgkhibHk7jNRGaGDMp7jNWQ40NTQAxibGh2YzJjomxYM6xU7QfcajIWs7xdx59JUjGZlDzSl3ZXQfmRb5hZt24KqSSl6HoT4ebayj2bwk1+707S1bfVF6jK+ApL93jvum/1NVci/S8+Cs5BsS4pooCXANAsAADoEAAAAAzHjdeSC5vI05mvF938Jf1b+1mYBmMLR0/Sxosqi+xX4aCd0y/y6jpjcnbK8SJqOZMSc7EDEYprhO3c58OjUic2cMq45nBfM7e45HMab4kvujHLNVomyimR6tIFio22dxY1k9iVIpNERUzmpT2JbQ3UaQmFNK6oRZu47iKyXJU4zNoU+b/AENmG2JVpekycCPOJSVvE8L2Sf2G4+I4suuGv0QfNP7LpIcUbpoqcNnEJvoW9OSkrp3Bw59D7VLox+ZR0zkuzK2ojRZ9hbXqLrszPTZ2cb2Th5FlHo/7OE1Cbvs3x2NuYf8AZuv+Oo/6uOxuCdejz4DA5bFFGABLiABZgAHQIAAAABQeKoeWD7S/2X5SeJ4NwjbhSV/szGBTYCF2aKCsl6Ioss5VuC+5Rz2+zp4l0Q6sZz3X0GKmX1JL57X5LJtROY1nK6iuOW+CSp/go4/LMzisln/Pf9SoxOW14309OLM02aZjTpfPUin25M3ic51O1Oopeg31YLjliYKWIi0pqWnuaPDOXDKDB5y7qM1zw+hpsFUUrXI23vZRRg9p2INepyuxc1YJRuZXM8Xo1CNPwddorc0r2tYyeZVZzk1FN9EWOKx+qXoScroyrStCCt1k9kdHHso5+RKvyZmGWVZvaDJUPDdS127L1NxWoxoxvOpBP6FbiMe+mmS9yj5b3wmuGP2ZKeV1IO0d/Ys8rxdSm1GSfNidHFQbtJOLfF+GSYUot9Aq212jVxpeDmZ0lUpy9roxNdWN7iF5Jf2sw2LW79x+F9EOZHpP7Oqf/juS5cn9dzYMzngSlpwtNdXd/mzSMyvTJXRyxBWIzBgAAACzAAOgQAAAACBnUNVKfork+5WYzF69dOFm7NNMSqUrseYqvChy2T1RRoIlJgqMoTimrcl3c57enTxy0sYk43KypSqTmoybp0lzp5l7sstR2pLqhJ9Kvwz3irC06dPVCmpxtZ2Wpp9zFZFl96kZPhNt3Vkkek4xRaatt26GdxFGztBfbYpXL1gkcCfZCxOEp63oaS69jSZUkopLf1KzAZdKTvJbGkw+HUVZHO+yzxLDjF1LRt6GJzu+5sMfBmTzRX2F/wBhlK+THSgk3fhb+5pfDMHWklKap01sop2k/qUuJwzvt9CZgMSo2vHjqtmdSo5XLbIHiSnCE6lNwlGoqjcZNu0oXdhvw9lfxXLVKUYxXzXsky9xUadfeS1NcN8jKp6I6Y+WPoM+VZgq4Hu6VtVuEpUpf8kelSO9iXhZSVle9uGP0acVfa7Z3Cmr3SJ1SY6nCfLeD9mYjEpuVu7t+ZuKS2a9DH/Dansr2qf5H4nmnPzS30j1zw9h3Tw9OL50oszP5N4ghNwpTSjJpKKRoLG7ojTXTEYCiAacgdAAFiAAdAgAAABxiJ6YyfZFDlCUpTk93KTLjMP4crdigyGfKvw2cnO/8kj0P6aP/JtFlXSUkuzHJEbETScW3zJImJXE01rBiSG5TZKlAYnAVjThFk78nEaCbHXGx3ETShIoQS2SHJOxzSex1Km2P+OiX57IGNlszLZjA1GLKLFLckv5F/8AUzNaI3GjfdclljsOvmINN9CyZzncKF/QkwwN+rCkiZCROqwqpIywiQmixNmR2YqbEpDlFbFPSpq776my4TtFvsmU+GqR2d+W/wBS8voiltBhXpr059pr9T1OMrpPujyhytKP96/U9Twe8Kd/5I/oNIvPOYx0BWIOc4gAABhYgAHQIAAAAJUhqTXcy0aTo1pLpNO3uaorM6wuqKmvmi7kOaNX1+jr/peX5bl+Mz8cU3N6vwmgw87xT9CkrYaM4upHaaXmXqWmXTvCPsc8+HTytN9E5IZqxHoM4ma/BF6Q5oac7DtUZhC7JMqifhN1dj6xcL6NUb/y3V/sRqeysVcMgp/FVecpuad1aTSKS2iVSnrZY4uKk2ZvMGk2i/xdTZuJis5jUm5WvCPfqJjdFZeSPtak0yhqRcZuPqP5bXlRUo1Jud949znS5y125ew2YL6T6K2JCEow8qOpOxF+lDlvoNtnM579gi7jzIlCY6popTfdWM7hJ+dJcXLHxDN6IwX4pIhUMP8AC53m9ku1zpmcnTnVf5Ftk2DdevGKV4xd2+1memQjZJLhKyKTwplvwaSlJf8AJU3fsX1jZWIly19M5Yh0xGjSQgAAAWAAB0CAAAAAJON013QoGM1POyjlhlDX/UmhrKXaOns2XGIo3u7XKTCvTOceN3scvy1qOz7+sZbRZzN7HMWFQTSiI01cchCw3VqKKbZX08c5Oyf0FSNbws51UiFiM0ttscV4SlsuvUrZ5dOo3eVkmMjMbG4ZwnJxvcz+eZtJycVtbks55FKDclLYqs1ylyu1K76mz86FTWdFZhMUnLfcvKFtrMy88JUp9GvUcWPnC25SoVfxJzyOf5GwjKw3ORWYPMPiR9SQqnQ5vhpnSrTR0zunzx0GnI6+Ikr+g0olbwqs1nqrU49E/oWuSZVKtiLyV4J6m+lkUMJ/ExCvwmen+F8M4wcmrant3sXa8RzfXTZcqKSSXC2QorQgxIRgKxDAAAAAJwAB0CAAAAAAAAAUGbQcKqkvxL87l+UviKFoxn2YtLUNLxnVKd0PN3K3C1rpE2ErnHSw7YrUV+cyag9KuzO4DC4qEtUbO+71GurUlLkWjSSFT/A7SIOFdSdtaSfVcHdduP4fsWehDGI09RsRSKW9opa9RyTSi90UeJjKN/IzQ4hqPDW5VY6p+YupHTk50ZHG46UbqUHYgbV3aMWn3a2LvE0dWzVzmjhbcLgsrSRwXDqv+EXB4WVN7+xZRHaln9CLUqKJPdZqlShypOxBxOL2e6+gzi8VdclfTTqTjCO+ppItMfk5+bk/CPRfAOWU3SlVnTTc5eVyV7JdjaqKWyVl2RAyLD/DoUodYwin7lgyhDTliHTQlhTTkGDEMAACwBgE4AAuIAAAAAAAABHx9JThOL6pkgJK4AYDAV/O4N7ptX44NJQbsiiz7BOnUdSCtd324RLy3ME0lJ78HPyTq1HRx1nTLhncWMfEvw17j0EczXZ0p6dSIOMpak9ybIZmgZqMjmFKUZJNvbhDcMPJ8suszpptPqQJXWzFp6Unog1MKkRpRSJleryVtaoEpg2N1J2K/F1B2tW+xX4yqrOx0RJz8lLCDiMQrs1f7OspVabqTinCHF+krmHqeaVlu2e0eAMs/d8LG/zTblL/AAdPiODts01rCCiCjAACBgCNHNhQFw0SwC3AAJgABYUAAAAAAAABQAAM54j+WXsZnCcx9wAkvGUfqNHheF7lnEQDlr+R1T4LIYqCgKyiKnGcor8SACFEVVXhkCqKBSTGVeJ5K3Ff4EA6oOHlIeB/iR9z33If4FP+0AHohPhPYgAYaIAABpyAAYwEAAMA/9k=</t>
         </is>
       </c>
     </row>
@@ -3663,40 +3679,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rinku Singh</t>
+          <t>Hazratullah Zazai</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_018</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>176.9</v>
+        <v>204.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>23.1</v>
+        <v>27.3</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3729,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3744,16 +3760,16 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="AC26" t="n">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3780,7 +3796,7 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIVFRUVFRUXFRUXFRUVFRUXFRUWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGC0dHyUtLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAAEDBAUGB//EAD4QAAEDAgQDBQUHAgQHAAAAAAEAAhEDIQQSMUEFUWEGInGBkRMyobHwM0JSYsHR4XKCIySS8RQVRHODssL/xAAaAQACAwEBAAAAAAAAAAAAAAABAgADBAUG/8QAMhEAAgECBAMGBQQDAQAAAAAAAAECAxEEEiExBUFhEyJRcbHBMkKBofAzkdHhFXLxI//aAAwDAQACEQMRAD8A8vThMnCQtsJOmToXDYJqlao2hShAIQRhqZgUzQlbHSuMGpEKUNRZUtw2KwCMBS5Eg1S5LCCIMRNClaxLcNiMMRQjyhIhS4bEbgoiVKUixMK0RAIw1E0QilQFgMqZ1NSShJUJYhLUMKRMUQWIyEJClTFG4LESZEUyNyDyklCSlwWMtEEgihEAMJwE8IlCBAIwEIRBQZEtNTtUTUYKrLESNKkChClalYyCDU2IeGAuKnACxuMY6+QagtIspFXYrdkFiOIGCBYgfHlPr6KicQXQSe6JEOMyY1I3384Q1gMrusfL+FVzgRbQX66W9VckUyk2XqRiwcZOl4tAEu6W03R0qpbGWqfUltuU+azDmi4Mk3gdOaOmDpzgAHlqi0KmdHg8XnsW+e3ormVcvhMVeATYW/Vx5T9QukwNQuaCfXmqpxsWwlcJyYKUtQEJUxxoQOUiByYDI0iE8JFEUYhRuCMpioQjQlGQgKIGOknSTCmWEYQhEAoQcIgEwThQI6MIApIQYQ2FSNKiCNqUZEtNTBQtKka9KMS1nw0nkCuY4Xgva1BP3nADxJXRvuCOYIW32B7O5iKzh3WAQdi4/qFFLLFsGXNJI2cL2Gw8AFpMayp8b2NwsWpD5LpW1Wixc0dJTYiqJ1CxuUvE25Y8kcjQ7K0BoxvncoMZ2Toke6AdJC6R5a3Uwqx4hSmPaNJ5Tr0uopS8SOMfA8R4rgzSe9v4XEW8V0/DcNkYGnWL/stvtpwJvdrtFnPYHeMg/JZcrZnzRRjyZJMKUBKJROSkY5CWVNKSYA8JnJwUiESEKYoiEyIoBURUxURChAkyWVJNcFjNRBCEYRAPCScJyECDAqQFCAnUYQwjBUYRNShJAUQKAFG1BhRLQYXODW3JIAHj4r0ns1RfTwDqZBY72jwZAtZpkc97rznBPiow/mbPUEwfgvYcI1r6BDTAp1Cw/wBgaFXJtfsWwinr1PMOPUWZX1hUruDXBrspA7xmLG5FjoP0U/ZjA1qk5a1RppuuH96TyBBghdxi+GU3i+m6kwdKjRY2Ia3XUAkCbqt1LqyRdGnrc8+7WUa7PtKpeHnKA0AQep0Aus7hPDqUOLxWGR+RzpBBfrZmpAg94W63C77iVOm9rnEZm+8N4E6nlHNR4XAMaO7YHWN1I1LKzJKjd3K/EMKXYMMa7MPaNIJ+60NcSXHkFyFQQSJmDqNPEL0DHEUsOTdwzMbH9bgx0R0cVwGMYWuLTq2x8QIKeDbKqkUlfqRlyYlRopVhUEmBTJKEJAU5QJsyhBnqOU7noSUUC4igcnLkJKIAkkEp01wGdKIIFICiANqIIGlSAJQoIBLKiaFIGpbjJESdqdzUlLkY6JqjlO1yICUHl5L0rC8colzsjwWvyPtI7xaGuDha/dBJ/MvNQVocMqjK8bmI56g29EjjcshKx33E+MU6NHO45w45RFp5mdv5C5riVWpVcXtGHp90RmbmqAREZhdusWKzMZjmZKNOoCSx7y6dC0xAM+ChxvHYblw1Cm0GZBbmAgePwCSMLF6qR+Z6ErfaMf7UGi8xcaPLYjLm1cI5roeAcYZWaRGQs2mRHRcWztC/KW16NMg7BkD0lPwribQ6qIDfaZco0DYdJHhomcL7iurFPRnc4zjbW5AScofJIuYDHRbxIXH46oHVHOaIaXHKDrE2lS43ENIDGyQCe8dXaDN5wfVU5UUUVym27DppTIUwhInlAnUIPKjeiQvRIwSU0pFMSiKKUJKeUJRIPCdJOpqAzEYQBECmFJGqZgULVOwpGx0HCkCCU8pRwiVGUTlGiARSCSYoikoKnwTC6oxgMF7mtn+ogfqqUrc4VhshZWs4jK9o1FiCJ5q/D4WpXk1TX8GfEYqnh0nUe5R4/wAOxNN0OpEwT32kOa6+ojTzAWBVxVVtiHDxB8LfFe00sRTrMzDQ6jdp3BWLx/hzHNnLI6LH2zi8k42a0Zu7KM0pwlo9jyYV3byrWDpVHOAbTe4nYNK7Xg3D6Yklnqt3BUmi4AA3TdtySFWHtq5HGHDupktqe8NRMwdYnfVDK3eM0BUc6r7upNrWGp62XPtqArZXwVeirzjp01Rhw2No4j9N+wZTBDKUrKbAwUYKjBRsQIKEz0TkLlAkSYoiECYQSYpJioQKU6GySYBmhEECIIikrSpGlRBG0pWhkTgo5UDSiJSjh5kyjlSBqtpUalWWWmrsrqVI01mk7AkpwjhalHs/WLBUdDWnnJIHMgaBd7DcHhCzrO78OX9+nmcutxFv4NF48zIqNJFgtXgFR5lkEtGh/D+X42W/R4NRazKG5puajgCSfyzYN6KVlC37aR0C6sYxWyscivW7SLjvfmVMNUfSdLd9Z0IWhicTmZa3jseSapT/AMOYBLTHIka/qq7Gh7SDvaDA72xB0K5vEuHU8TBzjpNbdbcn7c7l3DeI1cLNQlrTe/S/Ne/KxWpE3gqz7U5Y0n6CN9KlTblzXJaDzAJub9JULwTcak+Q81zuDYF9o6tWLWXa65+P09zpcdx6dJUaMk83xNO+i5fX08ynxam91IhkSSARNyN4+C5Z0gwRBGx1XaMwk3Jkjltoo+JcPY5neG+u4ncFelaVzgYesqaytaHHiu7xHxVhjwbhWH8FcCcjsw1ANiqOUg7jmNwVy8TwunU1j3H9vqvc7lDiDXPMvuWAVM0qsxx3VmnovP4jDVKDtNfwzrUa8KusWEUCIoCVmLhnBRFqlKBxTitEZQkpFASmQhJKSDMmRJcpIwgCJEAaJqBqkYErCgwiKZJxQHCpRKnCz2vurmHl0NGpIA8fr5L1+Dpxw9NQ58+rPP4hurPN+xucDwLbVagloPdafvEbkcgukxeIfrT/ALhzVRlBsZW2LAGnew3VoBanq7s5cpOQuF1NSzn3qZPxZPyT1y0k5JbzEQR5HREaLC0k2dNiNdENOs4QKozDZ41Hike9xbO1mRAZWEE3v5gHl0/dFgqdNwOcS0XMH6lWMXRDmDJrNiOuxVfhmHdBDrAx3dxDgSPDX1RbTg9beoFG01pf0Mk0mk72sBrYTqfrdWWZjbRo28OZWtSwzLBtidxp5qKtSy6236Jsy2FlBvVgYdgDCTzUeNwri07j62Vp4/w/E/spXU8jWkPBkGW/hPI/XyVTqZWur/PxjKm2n0Ri0KVvX5KHE8EFZrnttUF42dG3jbVbdEMcDPdN/kjwzcuptHrqnlMWknFppnneSLHXknpVYPQrQ7T1GnEPLBA3/qAufksl+g+tf9klenGtTcJbP8+x1aM5QkpoulCQkx9gmeV4nK4tpnplJPUFxUTiieVG4JkKwSgcnKEpkIFKSGEkQFZEgBRKECYp2qFilalYyDTVTb4etk6ixbu75qzDxzVYrqgVXaDfQhFwObZB+Y/X0V3hdT/FYeonxH8j4qg50EPF/wAXUc/3UlCpke07SCCvVZrO7OLON00vBnoWIdDadZhvBnqJ3VylUa9ocLHksXhWJBBpHS5b4OvHrKlw1MtJ5LTa5xm8rNQORsF+irtt6KVrkrQ6L3sgy4MdearVKxJ0AEG/Ox2VirRne/JZ9QnOBGkz6FVxGkaGHpZSDmmb22sOt7yJ6IMTQO/eHyUGHgk+B+SOnWc3S45H9DsooSju7vysGcoyfdjZeG5eIpsY0vJy90ADVzrEtBggGJN1O4ty5vYnKc0GXAEky3vaQACLazKy+LVZZSfHdZUIeC4t94WGUiIOVwzDmJXe4ji2HdScfaNLHMI9nYP93utLNRB9F57FYiqqnzPvNaNq37W8/wCDtYWhS7NbbX8zja+CgFzCSxwdDiMumojoqDaJyDLeNb94eC1WuHsHaSX2v3vduSPwm8HcjouZ4hjDTDyDEAn4Ls4KpOpT7z1Tt52ORjaUKdXLHn7nG4p85p1zmZ1uZVerU+vD6KvcR4hTqMDi0CqHd6LAiDf1hZFF0mdh8Ve5cjXTi2rtWNOke6EUqCg6R5oyvKYmGWtNdWd6i704vohyhKQKZypHZGmKcpinFChJDKdABTBRqKUYKJCVqlaoQ5EHJWgpkwKq477vn+ikDlefQw7sLUqTV/4imaYywPZ5XPNw4XJjnFx1WrAxvWXT/nuV4h/+ZkU3RfbfmDzH7JOHdI6Wjbw6fXiLDv69eqdx5fX8/Neh5HOW50eFqR7NwOwHqB+q6bDvkSbLicHiR7NvQgE9Qt2jiiRr5LVSlmVvL0OLiISjK/n6nQvcJB5geCJVRiSG6SoadSXAzztt/CaxWpo2Me/SOSr06wAyuvbMTveQNNdUNfFNMGZgLPbiYJJ+9PPp+yEI3WoZyszRoyHd0Ei+x5KfBlpAzG/L91iU8cc1pbfWT8pROrZH85IPinnC4qlY6Z2Ka0FrbgghwixBBBH1uovaUAL0nRmDsmd3s5DQ3Q3ve8yOqzjXYdDDuR/QqriMWR/KwzwVOo7yTv5ten4uRrji501aL0Napji6cxs1sNAJhovYSfqFx/ajGCCAfeI9AAf2V+hUdUeWsG1zsBz/AIWziKlPD02Gqxv+Gc7Guj3oIDnfmg+SyYrH0sHalFXfguS/t/ybMBgKuMl2snZLm+b/AK8Ty2vRMibSCY6aX5aKRjeSs8RxtbHYt9RjC4uIHdFu6NXONh59Fs0extct772NnYS79ksMfQjFOpLK3y3f2NrwlWTtBZkufIoP4bWp021H03MZU9wugF/5g097L+aIKgzLu+1mFNWnWrijLy2kO7UtSp0WgOcGZe8TBm4gabzwJXGr1VWm6i5m+NPs0oPl+eo8pi9ASmlV2CHKElIlCSoAOUkCSJCoCiBQIgiBBgp5QBGgEIOUmEw1WqXCkx7vxBoJHTNFlAvV+yFdrMBTcKYccr7AauD3Ak8zZWUsU8PeUUm3pqTsFWai3Y82dwLFDTD1PDKSfRQ1uCYoCTh6o/8AG63iIsvRmdocQHH/ACtSD1ZPkC5V2cUxMn/KVxJ2pz8k/wDl6z+Vfn1H/wAbTXzP7HAOpkOe3K4C1i0jRoHLotXhb85yZsrtp35A8vFel8OD3U81WafJrhDvMbKR2Fpn7jXdS0E+Uox41Uhfua+ZTPg8JWvO605b/XxOLpUqheWS2QAd4OgtA+oUzqJa9oMSdxMTpBkdR6hdJW4RTLswGUxEi1pnTTVZ2O7P1HEZaoEEEZhJkXFxHM+q00uPy7SOdd22v+3iunQyVeAQ7KTg3mvp4OPg+vUzcXw1zW5g5p3ETe4G46hWqXBZa0uc4kgGzWwJAOpcOfJS1eCVy3L7dug0YTuDz6KQYGsGBvtAYAEwdhAJHxVcuN1nSjllFTza6aZeT99B4cFoqrLNGThl01Sebw/6VMRwdwu0z0cIJ8IJHxCr08P7Q6xYaAE/EjkVo08JXAg1Gn+0j4Sq1HhVYPc/M2+uuu59ST5poccqKnUjOUXJLutJpPo0xZcEpupTlCMlFvvRbTa8mvEz+KjI4CZ7s6QdXCNTy5qqx7nN11MAWnluRvPotx/Z0Pdmq1HGBEDujUnx35rTw/D6NMWYLeZ9ShW48+yioLv6XdtOunmGjwGPaydT4LuyvrbkUODUvZCwzHcgann+ybG8HZWOfEF1W9qQllMf1Gznn0HQrTfigNAFSrYwlcGVWcpOberO/GlTjFQS0Wg1GvUAaz2DKdOm7NTYC0XhzZOW2jj1PPnP7eb7qhUxXmmpYgFI7y1ZamkdBg3dxxOkGfS68ibovR+MYjJg6h3Lco8Xd39V5yStdBd0w4j4gCmSlMSrzKJMSlKAlEAcpIUlCECQTJ5TChIlHKIFKMEvSuxWJYMAC53uPqCNNy+5/uXmi7LsAGVWVsPUAy2qX0uMh+Q9VXUV4l1B2mbuN7YYRjSwOaHReLmeROqw6faatUEYejVqDSWsdl/1H9StH/k/D6RJqNBjacrd9dzpzVLiXayiwZab2kaBrbhoGgAFgqFFP5bmptrd2Og4ZQquZmxIFP8ALmzO84kSrTK7dGaTrdcf2W4xUxVYtDTkbBeToB1OxPL9lucR4k1pO2zW8hPJJKDT1HjNSWmpr/8AFC9x4x8giNcASfASY9AFyb+JE9APWVl4vtCGTmf4CZPoFFBsVyS3O+xeNYwaiVRdxEfilcGzj7H6vcPEfsrlOsHe68HwKjpW3Iqiex1J4k3miHFG7OXKueeaTSUuQdSOodxUc1Xq8S6rnHOcoHVCp2YM5tYniViqdLiBJ8FmOqlMyt0TqAM50eHxLXK2xom2pXLjEkLQ4PiDnkm/JDsw50afbbEZaFOlu50nwaJPxLVxRWv2qxvtK5ANmDL56u+NvJYjitMFZGKpK7FKElIlAVaVDkoUimlEAcpJQkgQrpIZTphQpSCZOCoQIFa/ZjG+yxDSTAcCwnlNx8QPVY0pwUrjdWGjJp3Oq4zw6m8k6nqSfgs7A8BdVdkpt0u5xENYObj+mpVBuPqD7584PzV7Cdoq7KbqQcMrjmNoMwBMjoFVkkuZp7WDexv43G08HTFGgRY95wF3mBLjzJPkBA2XJ1+I16hJzR0gH4lTV8s98kOP4gfmETKLNiPVF03DWSAqsZ/C9PMo1BVd7z3HpMD0FlAMAtY0xzTezHNLnY3ZozBw9OMGRoVqCmNyjLQpmZMiRTpVKzdHyOt/5Vqjj6khpZMkAZTuTyP7pqlZgF/gCfki4bVFWqym1jjL2AyBF3AaXnXl5FWRozn8pVKtCHzfcsuxEGHS0wDlcC1wBuJBScbTtzT9qM7KzBRY1zfYsMxMGXCJa8j7v8ArGdh69YgVHWGjdh4NFvPVXQwFSeqWhXLHQgtXqahaNyB4kBM2pT3eD0Fz8LIKXAmsFxdNi8KGNnm4fIrRPhc6dN1JPZXMkOKqpUUIrcF+Kbs0+ZSZj3NMtgHY6keEqpKYlYLI3OpLxHc/1QkpiUxKYQYlASncUKYAUoZTJ5RBcNMmSUBchSQp0WAJKUyaVLEuEEQQhOgEIFFTEkDmR8VHKtcLaHVqbToXtn1CMI5pJdUCUssW+jNzi+GkNeL/AMIXYBjgLX1HUbhbuKwYDXt3AzC3JY4eIjzB5L2U6MG9jyqqSy77FavwmW90kHnMKrh8MbtJ741E69QtfDVsxh3vD0PgrHGOEExUp2c0eo6qieDovVRX7F0MTVj3XJrr+cjByCY0PWVrcNwrHNItM+qipPp1e5VGSoN9P90BwlSlJHebzGyeFCEfhS/YlSbmrNu/V+5Ji+HkH3Y+R8Cn4a0scCLEXB6gggqSjxRxEXd01+CiOIO7T6K3JHwKbztlZaqd86SR9H9SpqTqdMSRBO4us+li8oIBiZUmHYw957p6IRUYpKKtYEszbcnf3Gxtc5S4e6Ab8zFlQxlcPotdvmE+OUytDi9VpoPA2yx/qAIWFhwSyp+EAGfzSLDqRKzY27pTj4pmvBRV4z2tIhJTEoZQkrySPSCJTSkShJTAHTEpSmUIxyUKcpkRQk6aUlAEadJJMAZJJJQgQSSSSjAqzw/7Rn9Q+aSSso/qR816ldX9OXk/Q75/2x8D8lztPQJJL2bPLw2Yx+0YurP2X9v7pJJHv9Qz5eRynGNWeIW/w77M/wBB/VOkmW8g1f04HO4H7c+K23pJKQ2f1BW3XkjLxKquSSSvcshsDifsn+A/9gq3/Tj/AL3/AMJ0lmrbS/1fuaqWy/2RSQpJLyKPQMEpJJJuQBykkkoBjJkklEASSSSIp//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIREhUSEhIVFhUWFRUVFRUVFRUVFRYVFRUXFhUVFRUYHSggGBomGxUVIjEhJSktLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0fHSAtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIASwAqAMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYBBwj/xABDEAABAwIEAwYDBgMGBAcAAAABAAIDBBEFEiExBkFREyJhcYGRMqGxByNSwdHwQpLhFBYkM2KyFVRyokRTc4LC0vH/xAAbAQACAwEBAQAAAAAAAAAAAAACAwEEBQAGB//EADARAAEEAQMCAwcEAwEAAAAAAAEAAgMRIQQSMUFRYXGRBRMiMoGx0UKhwfAUI+FS/9oADAMBAAIRAxEAPwD1WyVlJZC63HaONzo5amFjho5pla1wuOetwbFUGtc75Rat2ByiNl2yxNDxVS0QfCahs0TGF8D2PEjyL6wPI/jBPdcdC06/Cb3MDxekYXzTV0BmmymRonaY4w0EMjjBPIGxdu43PgnO0zwLo10wc/3rznCgPHRaqyVlHSVLJWB8b2vYdnMIc08tCFLZIIrlEFyyVk6ydZcpUdkk6y5ZcuTSFxOISsoUhNsuWUllxQuQ7EYbtKz9C7JJbxWrmbcLNV0GV90DkxpwtHGbi6kCqYfJdoQvH+L4KR/Zd6SWw+7bZoFxdud7yGtvcaanUaJsUbpDTBZS3kNyVorLlllYMeqi7M+LIDlaIslQ43LrZnHsQSSZIhYDnfzdhvHMLpGw1EboJHZQLnPGS4At71g5t7gjM0bpg08pJppx/cd/73QOe0VkZWnskpCEklSngLzLE8U/s8jmthbI6SorHG78n+XM475TfT6L1Cy8uxTCnVEjnMka0x1Fa03aXf5kzhyItp9Qk6oQ7W+/Fss3e6r2P23tzW7bwmRbrOzn6dxfOOL5UP8Aea+Xs6Zz+42R4BGYBzg2zWhpz/JaoUTyAezNnAEd3cGwHzI91k/7rvbYRzlt42xvIaQ6zXZrtIcLXW1pMSMZb3L5Y8nxbkPzh23I8lkamH2S4j3R2jPAeT0rduBHetvH6rPFxh1AGcnHar8Kr9/p4ycJMDYpQBb/ABE2g03yk/NHQEF4QIMUltfv5R6gNBRyy3owdjb7D7BUHfMfMptk5dXEShMISsnWXVFLk0BcITl1cVKjKVl2y7ZQpURCE4rBpdGCqtXHcIHjCJqF4RNyWc4wo8OEzn1RaHyROPdkmdKZC7s2ExN0a1rGtIOgNjoUYjuyT1VLjjCnvYyrgYHSwtLXC1yYyQ7M0c3N71vB7udlZ0MuySu46Gs9M+aCeMOAvuqn/GmyCWWOCsETXPb2rTM8ADsSJPiGUjI8lutsrSdyBSpo8Pqqtrm/E67skzpmP7T/AA5hHxAOtaYWD+bTZ+gRjhvGKcUTJBNlbCHds0vAu57nO7zTq4uLjl6nZDvs9wt0721T2nsoQWwuIOZ7rZXa31YASPPbYrS3ujBJBaBjms1x69OeSMDKDHEQ8NddEV4jOfQA3415ekWSXbrqx00hS2Qqq4bo5XmSSmic92rnFgu47XJ5lGErJoJGQaQoF/dKg/5SH+QJf3SoP+Uh/kCNriL3j/8A0fVdtHZQUVHHCwRxMaxg2awBrRc3Og8VOQlZJBypXLLtkklClNSXSmoVKSSS4oUriRSKaSoUppUcg0UhKYUKkIFiMdjdEcOluFHXx3CqYdLY2SropxFhQVvBFFLMJ3REG5LmNOWN7jrmc0c/IgG5vdaWJgaA1oAAAAAFgANAABsFE16lBVl0r3gBxJrhVwwDgJySaXpIbXUriS7ZKyclLlkrJy4uXJpXE5cK5EuLiRSUFSmlJJcKC1KSaSukqMlDaJdJTCVxzlE+VASiAUpKrySgKtPVgIZUVTnbJZcmBqs1uINA3WfkxgNdunVdK525Qqow8hCCCcpgFBaqixtrhuikdcCsfhtCUcigyhSD2QOAR1j7pIOKlwSRByDataJEswTbBKyt5Vagn3SUViuZio3KdqlXCmdoudou3BdScmuK4XhczISUQC6mkqCurGQxukkcGsaLuJ5BePcQ/adUSEiD7ll9CBmeR1c4g5fQe6ljC/hQXBvK9Hx/jKiozlmmGf8AAwF7x5gaN9SFl5vtcpdQ2Cc9LiMX/wC86LyR1cJXE3OYklxPMk3JJTHm/d2NwB1vy8/6q03TMrOUoynovSnfaw8/+Ebb/wBY3/2IngfHzKp4idGYnu+HvZmuPQOsNfRePNlzPytFtTfyIGh+aIU4AeDmItaxG+YXIcPLdc7SxuBoLhO8Hle6NjvupexCp4LisVS0mJwda1+ov1B2RhkSxiHXRFFaIIqwqIguoKqBoCJvCGV7SVHC7lR0rhyRFuqo0bLK/GECJRGJJWg1dU0VFo9ZcTIpQU+61BRVFcskU4lNJQ0pUZTCpHFRvcEDkQTSonvsmSzgIXiUuaN7cxALXAkbgEG5CUSmgLyv7RuMnVEphjd9wwkd03D3A2zO5Eaae6ws8gNyL3Gx1/Y8lbipM8uQbk6fqt7g3BcbgC+/6rVFMAaFSDS82vPYJRmDiLGwB/VPbEDkd+HLf02HyXp2L8EQyNAb3HbEgb6LJVHBlRGSALi+/KyPeFBicFm9GZufU/UKJ0h1JNriw8Ad/kj8nCswAc4b/rqShOIUmTRw0Bupu0BaUW4PxkUtSyRoBuMhFzqCQbC19bjpzXvNO/M0OsRcA2O4uL2K+YSQdhr4WB+S99+z7FJKiijfLq4XYXHdwYbZneOhHja6oa1nD/orWndyFonhDqvdE3lUKwLNcrgUdMFbYFBTBWgoCkpySSSKkNplJVFpsUXilBCoVdHfUKCnnLdCnNcWGigLQ4YRu6jc+ypmtFlVkq77I/eBAIz1V6WosqMtVfZRi53ThGElz0wNUViUysa1sby7YNcTz2BN/krgYosTj+5k0v8Adu06906FDklEvF+DqbtKlhA6k+VufTVes07RawssPhGHGnjqnD4swja4bizQX5fIm3/tWXqK2aEl0Ekw11JaQCfU6+dltFwJVJoLQvX5YVGYs2iweBcV1TzllZmsDq0dOquV3HbYjlLHXHQD80suF0m9LWlrKewXnvGcdhmsirePmyDWBxHUlCOLqts0DXx3yk+3gUdUQgLgWlZbD8O7VzrECzC7U2Fmjr46e6934Nw4Q0rGjZxe8dcr3Etv6WPqvKvs5w/t55WubdnZCM7jV8sZP/a1y9yAsqmsfZDUWnaK3JrmofWNRJVKtqoEKwFXpirQcoacK1ZQOERXGuSXWtSRBCr084QerObZWchduntgUuJcobhU4KY8yrLWAKyxi72KilO5RNantiUuWy6uAzlQSkAmStu1w6g/RPC61GOVCykVI1kNid3yE+JLyVSqsHZKB3R59PJH6+lDG23AcSPXVZvEsSefu2aE/IdVoNchDbV7DcFjjOZnIeG/osxiuAdrK5xAvcke+iOUfEUUbHNczIWm1i7NcAfFfqh1Ji8csoczPqS1+YEC+4Iv6hE4jHdQ0eiA/wB0X5s7XZTe5I2PW42snV2GFtLIw694O9nAn6LW4jUWHd/qmGP/AApbbvzkgEj4Y2m5PmSPmuaQXeShzab54UH2eUvYyFga2zmZi4anMLa36d4+63xQfhfDexiBcO84D0aNvff2Rqyz5DbiU00MDhMVSqCuvCp1I0SipCip1YaFBCUVw2lzG52RQxmR1BRK4NG4qu2E9F1Gp4hZJaQ0TO5VH/JPZC2x2XXNUlkrLPpW7UUaeQuAWKcVACklNcE0BPcE1oXFcOEgF2ycY+aHY5iTaePMdXHRo5XsTc+GiDeLoZKKMGR4YzJKhxl+hHS3zF/1Xn9bmc8uY3M0b6gX8ifFaGorpHxFz7ZnN1sLAHkLeWiDUT2ujLc1j76+K0YwfRLcAPhKDVT27y08jbX2JPudQlR1zbhjDdpIuLWLTyKvGkqWus2a7eQOnpuq9WezAD/iuNjc3TnHohpvIRSznODd7kBbanw1pyXJswZcotlNrDXTXULE0VcI3B5FzyW1wHEGSx6HVri11/xXvcee6pOlAZzyU9zHE7qwP5RRcTiFwBVyEK6QqVVsr5CrOgLzYKQ0uNBRYGSocMpS8+C0cDQ3QKKmhDGgBSgrXggEba6qhLKZD4KSQaJJE6JJoSUNSanOCasdaKZKLaqnLiTRsC75BVK6qMjrD4Rt4+KgDFYZAOSutEqKrc86gAXCINehmGj8z8leiPNZU7v9rgOLr7LnBPqHbBef/aDVF2UD4SAAPB8nZ5j6ArbyXdp+LU+DeQWN49p++3TR0bbebXk2+Y91OkO6a/P7K/7Ob/tIHzbXV50mSNBYQeiyuIskjddvr+q0wfdoI5gIZVC97rSLi02FWa0OGVnZMWkAtY+6bDK95vufp6q/LRDeybcNGyH3rnCkYiaDakzWFibk6LecF0ZEWZ38Tu09MuVn5n1CyfDGCOqX9pICI2/F/qtqIx56X8F6XTx5W226+Hh6Cw9Fn66YACJvTJ/gflXdR/ph9z+pxt3h2b9OT4mlIzdSWXG/JQTz65Wi5P7uUjTukLg1mVl2rQbdW4Ig3zTKSAtb3jcqYL0mng92Ldyqcsm7A4TiVxyaCulWklSxnRdULH2SUbSoKiIVHE5MrLDd2npzV8FCcUfd9ug+qzGAOcryH2suqORyidLZWlKN0DO7f0/M/krRbp9f0TKYAMF9PPTfVWnQE2IsR1BuvPtjklt7Rf8A3Kh7wDRKhiZuT6oPxPhxmpyWjvsOdvj+Jvt9AjsjCBsU0BDTonA8HxRwzujeJGHINrzrBAHtI5tNiPof30VmWjG5RrEuHXB/bU9g4/HGdGuHOx5H9+CY2jkcO9GWnnmcy3uCT8lpieJzbJrzV2Yse4yREUc0SAWnqM9L4I6UOVmZaAv2FlLhfDnau1uGD4n83f6WdR4rSRULb2NndRtH683/ACHgikbLaD1/IKjNrm/LF6/hSyQxfEPm6eHiPHsenIzRUVLTtYA1rQ1rRoB8vmrLW9VzLqB6n6fqpS2+n76/ks8MtVnOUFTJYWHt1J2CsUNLkGZ2ripoKUXzu9P35KWUr0ug0vuWbnD4j+w6KlNLu+EJzHXXMy41NcVoJCfdcCYwqli2JNiYTfVSuVbH8WELTrqksHiNa6Z9z6JIHOymtZheqWQLEHd9372R58Tt7LOTOuSepuqUTSCbCeCCqrkNxN5DSR0KJFV5wExwRhHzJFKx0dmSEx52xF+QPaTvf8Og18UMwiuc3KKeDs4u1vLd+dt7WLWOPKwvpzI66w4FBSSMDZ4w58bnta65aQwWLW3BGgzWCPyU9OY8gcWNAsMh+HW9xvcnne97lL088UOnEDHjd+q+/XwNeXSuAgjjYJXPlYSThuLAB6975rNdclUscx6Rj4Y43Rxue5+Z0nwNDRoHHlcnfwVvh/FXVBmZK2PNEWgviJMb8wJ7pPl812bBI5XulJa8uiewAgbuIId6EH3TuHqF1PSsje1rXi+bLY3OY2dcb6WWk6WIaGyAXDrjJs5xzgAUcZtZbmP/AMnB+E58sAV6km+cUrd9EKlcXmw25q/Wvs09SqdOyy8TObIatqAUC5R1rnRxPMTQ54aS1pIAJ8SSNPVZ7DX1crC+pc5nedaMxhou1naB27TpvYuPw7IzxRJI2mkMdswAJzNDhkuM5LSDezbnbks7UZTSieUmaWaTs4y4uJIboQyNpsL9/lpm8V6j2NFEdNe0FxcRxZ4GM4Ao369lWlDzJe7aMZuuSfwVo+HoiO1cX580rzffQHKLEEgizQfVaCGHmUM4Twg08IDxZxJeW75S7XLfnba/gjLiobpGnUPmObca8rwfP7JRlO0NHYLheoyulJXOUtRvC4V1xVSsqwwbqVy5W1YjB1WBxnEDK466K3jeKZzlaVf4e4WfJaSXutOoB+I+NkLj2TGgDJQzCsKJ7zgur0BmDMAtc/JJUnQyONpwnYBQVjFJssTj1FvfRZMvR3iaWzGt6kn2H9VmHPVh3KiEfCp7qrMn51SrprNKApwUvD8d3TE7ZmgHxy3d/wDFHGx5nBjNuZXk1TxbUQSZYyzJ8Za5t7uJI3BB+EN5rUYd9oE7IRPLSM7N0nZB8cmQueG5iGscCTYW1vbULKf7L1D3GRtEOzz+Ub9U1uM2PRekNFgB0Ut+pWPpftAo3G0glhduQ+MnTrePNp4q5JxhRP7rKqG/Qva0+zrFV36eeIW5h9Pwqx52nBRSpfmPqusCrQVDHAEPaR1DgR9VFNjdKw5XVMIPQysB9rqmI3ucTtPorTXANAtXwL3vryUWC8NQQv7RrToSWBxzCPNuIwfh2338VeoIg4B2hB1HQ+KlqJ2ljixw7p1tyW97NgkiaXOJG79PF+JCqzuDjgXXXsrbioiUyCbMAU/datYVXhMK4UnKniFWI23JXUpTK6qDAVicWxR0jsrbm5tYcyeSWL4yZCQ3ZWeC8PL6hr3bMu71G3zshvKYG0LKMcKcM5fvqhvev3GHl/qd49AtmkkoSibSSSSXKFl+K5u+1vRt/c/0QEvV3iab793oPYAITdJccq9GKaFYe9Asdqssbj0BV+WZZjiWo7mW+5H6n6Jb30LTmttQ8EVcJk+8kjAfVRB7H5GkRU0b5A8OduHPAYWjfNrvrfL4XU+HUr4nOdMGyRuY7I2J1VV27wG9mMLfQ89R5vVgNkc03FyS0+BOh8lLS18kZaQ53dN2uY4gtd+Jttj5LRiILBXGPss97TuN8r0eOKLs8Sa6YxRPq4qNsrwX5WRPe92gFzfKB6+qp/8AA3T0uG0jHtD5TVzDMDZ3e7hOl2tyMOp6+azNPiznRuiD8zHyds5rgCe1ylpkuRfNYkI/guNTPqIdYGFlOaSN8mZkcTC1wzlwOj7F2vMnZNDcWP7hA4uJsmyoKLhl72xP7WnY2VjXtL5MujpextqNw65Nr2A8gthwVwLmcypncHRloexoFtbkd4elxbcEKXgLBZJTTSPDeypBMIza/aOlc4kg/hbm0PVa7iXEmwwhsZtfS45AJGon92DlNghdK8Mb1VXiLHsgMUPId4jYDoEsBpJG00j3nR+tjuB4oVHUwRwAOGaS+b8xddosefLna42BabNGwAWdGQ54e45PTstaaFzYHMjbTW5JPJo9Fq8KlDo2n0VslAuEJc0JHRxCv4liDIGlzjZaHCxeU7EK9sLS5xXneNY4+dxA0aq+N4y+od/p5BRUVL/E5Jc/srMcVcqxh9IT3jstzwXB8b/AD3//ABY4z2C9F4Zgy07D+LvfooabUz/C3zRZJJJGqaSSSS5cvM8QqjJI59viJPkOQVZ0q69ROPVIJWkBhQyOuEIq6VxLZLAtDiLc+Wv76IlIbXHsrU9KBDG06HLf+bva6+Kz9c/a0V1KuadtuRHDP7PKzKQ0nYtkYD6a6Fdm4EoZt4RGbaGE5B55R3fcKvhtOwAZmgnqL/QlaCka2wyOtptf8isaNz2OthIPgUWphaW1/Cw+I/ZGL3gqPISN1/nZ/wDVTcM/ZtUsk/xEjOy/iDHFxfvYatFhqVvqemzuAcPVpI+SMUz22Ib/AAm3svQ+z59TIC6R3w8dLP1pZErGswgHElU6BjIIRlDha4/haOQQGdj5aeNoaXG5HUaHn7IpxzNl7PqbhCaTGzT0bsou7OQ09Li91MmZnb+KWvpmOGmjdEBuLv3Ni/3UeI4W2KN7pJPvAB3QearcG0L5pXOIs0Ntf1UGBYZLWyF7yct9XH8ls6+tgw+HSwsNuZKbA0EB1UB+6jWagxNdBu3udz2HgEqmohoIjqBz8yvLcb4mlqpbMBIvoOSr4ti0+Iy2Fw2/oAjmEYZFTt6u5lOc+1QZEI8nlLDqAtAL90qvEmNOW93cmt1P9FHieIEnIw2GxcPo3xQid4iyuaOZueevUpeVtaX2cC0Pl+g/P4RCpmkyl1w0D1KvUeJyOa0OnlcLAAdo8AC2wANgs+3PIw9Co8LhcbDMQpGDwtQRxgU1oC1NPjk0MmVk8oG9i7O3+U3C01BxjK23agSNOhLQGyDxA+F3lovPDTkP1PJTTyOjtqiDjSRPooJcOaPOhfqvcaKrZKwPY4OadiPoRyPgkvO+D+IWxyNYXWY/R1zYA8neH6LqPcO68tq9E+CTaASOQfBViVE5SPUL0hwTgVBUtuilVMx7G2LQbDQnUi3Tkg8xTe0aQAQCb321I8Vna9u5oKuaP5iEcpoyLX0+Y9CjcOjRmt6lZmiyXGbujwJH0IV+urowAGOJ8zdV9Ho/fEkuAA9fRHqZKoV+Fp8JlaX6Ovp1VCoxxlM2ZzjrnOUdSrnDWHlsJe8d5+oHRvILIYm+ISSmc92N4cGc3GxsFtxwiGPa0+qy4y2bUAOBcOKHJ8B59fBCserKiRjZ5QAHOIYOdjzsi3B+Giqie2UHLcEHlohuG0U2JTZ33bC34RyA6Dx8VsMaxiDD4OQsNBzKTFCDIZDxxnqtTXar3cYgbW+7O3hvYX1I6nupMXxWDD4eQsNBzK8oqayfFJS4kiMH0t4Lk7ZsSl7WYkR30b1C01FA2Noa0ABPcSTSzIwGi+qZQYcyFuVo9UsRmyN8ToL/AFViWQBAMYqmudZ4OUCwPIE6n8kLhSu6KISzAO4GSoqhwAsNh+7pkzA5nkfzVYxubsczfmFcA7jvJE1el6K3QtFiFSpHZTbo4/VWsPdv5BUyLSP/AOq6I8BcwIjVH7weISlF8qbUm5YfBOkOg81xU1wninAc13iuKR52XUdAJZAPKuwVQdon5blA6nNDL/pJ9ijVMc1gFEke00V46N4cLT/7OCCoosNe7Nlc0dA64v5G1lcqHBtgFC15zDXTmlOiY/DxY86+yex72ZaaPladSYc9gc6Tcbag+txyV6ipWCSOVwBy208FWrsSaBY8whTsZDG5Ty0HiOSmOOOL5Auc90vzL0yfGY2jQi1lk34L/aql73f5LgxxI5kbtWUq8WDxb80SwTiB1PE9gGa+rRfYpheD0VdsRjIcw0QtTjeMwUEOlhYWa0bkry2qnfWSdvUHS/cj5DpdUsWxCSWYvmdmcDoP4W+SqyVyWXFE1gC1MNeG6bBOOMLHurSmOqz1UDcjwtXLi1+apOqj/G3uuNwfPkUuF8KFS7NK7LGNbXs5/g3w8VVlq253x/wZiG87AE2F010RY0Od1Wh7KeHSOA6AfdSgGM3GrT8kRgN2u8Qh9LpdjtRy8lZp7szDlbRKaaK9I1uLVrDPyUdQ20rvEBOoJbWTZTeX0U38KNrQCrM3wsPQqSRt2myr1cnctbZOp5rNueam1BGLVknu3SVeGqGU32XERcEraQjHENGLkH9hV4A+KNutzbveXJEOIasXZf8AiB9gUElqu9odOn6K3q8O2rwekBrciEk50d0OvkqldijWuFjz+R3UYqbaHnsfyQLFGdmc+4PyVMk0rgKLVFQDqTpyKozPJ31HVC8OrHPe5gIyhrnWcOY5A+KsiXoD4t5pZIAyV3JoKc043BI+amwuKSR1tmj4nfkPFKho3uvd9m/h3P8ARFA7I3K0aDlz81n6jWgDbHk9+yuwaUk2/hVKzh6AkkF9/wDq0VIYHHfLkcN9c1xt8kRdVdD+/FTUQMjtDawJ8+QCr6R8rpmNLiRfc8J88cbY3GgMIRPw01jBI4usTZouLu+WgSh4cgdYPb3viALnnQc3a7IpPLMG2s7ezQ7qeibJCY49cxfI4ZyAS61+VvVetYxos1dLzzrdQvlcp5hBYMbe4JOvIc/e3uss5mZ5JOpJJsOZK1VHTPvbKGsLtAdw3e1hoLuWZnjyyPaeRI+ao6xxoL0HsZrA5zRzQz6q4yn+Hvn5K42E7dp8gqEs2Ui/RdZXtGyqXS9HYCIwUhGzz7BXI6W7rl2u17BC24g3qpf7e0c05m0JEkh6Ii6kGvfPsFHLRkiweLDwVR1eDoSmSVzeRR2Elsp4Kmko3huUZT43SVV9cLXzLqEgFOEmEexvBaitqYmxS9lFFH94+wNy46NaDubN9LqjiGGug1BL47kXPxC2lzb8lssHkP3n/UP9jEFxuQhpt1K1Z42usnlfOopHMcAOKH5WTkrQO64jKdihNZUFzrB9wFFiDy55v15KBZD8L0+n0O6nPOOwRjDwxneyud1Itp4Fu/zIRKapa4AtPgbixHmsxT1LmlzgdW7fofBHHym3LksadhLsm1bdG1mG8KUSndrrO+qezFuUgsevJD3b25aenkmfELHVAGA8qA49ETlla7UHXqFcwKrs54O4bm8LNNj/AL7+ixrpS3YqzS1z2Oa8WuHDQi4IccpBHMWJCt6Znu5Gv5/7j+VM0PvonNGML0ml7/e3tsmVdg65IGg3U8MhdEDsRa1tOW3kstx/XvhALLXsdxe3w7e5XqXnbEvKbC9+1W6rHYYiLnUnQbknlYLO1Ts0rnfiN/dZnAnmSoa55Ljc6nyK0rv8z2WRqXE0Fu+wx/tJ8P5VyGziQQCrDaWM7tCESylrjY81Eap/4ik2vUFxC0YpYvwgpwpYubAs42pf+Ip76t9t05rh2SH33R58EH/lj0UT6SDfJ8ygBrH9U0Vj+qLeOyrk0i8lLT/hPuVxBn1b+qSjcF25f//Z</t>
         </is>
       </c>
     </row>
@@ -3790,40 +3806,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jitesh Sharma</t>
+          <t>Ibrahim Zadran</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024_T20_003</t>
+          <t>2024_T20_027</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>141.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>25.5</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3856,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3871,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -3907,7 +3923,7 @@
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRIVEhIYGBgaFBIYGhkaGRgYGBwVGBgZGRgYGBgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISGjEhISE0NDQxNDQ0MTQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQxNDQ0NDQ/NDQ/MTQ/PzExNDQ0Mf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xAA8EAACAQIEBAMFBgQFBQAAAAABAgADEQQSITEFQVFhBnGREyIygbEzQlJyocEHFOHwIyRic9EVgrLS8f/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACMRAQEAAgICAgMBAQEAAAAAAAABAhEDIRIxBCITMkFRMwX/2gAMAwEAAhEDEQA/AOjiIhoRESAiIgIiICIiAgxBgRERAREQEREBERAREQEpMqlJgTERAREQEREC5ljLJiBTaLSTEqhFotJiBFotJiBFotBMsYzFpTRnqGyj9fLrAvgSCD05TzriXjqs7EYemEXUC+pNuc1Q8V4mobPiMgsR7q2lkvWL9ZaetbTre3YDrPIX4tXze7iapAtYlrfO1pD8RrhtcQ4JG5O68yNIHrwxafjWXVe/9/vPHDWdF0qMddyZscH4pxKLYOHQcjvfsekIr1MMOo9ZJnn2C/iA5YCpTRRexIH6zssJxahUAKV016tY38oGfEgHnuOo1Em8BERCSUmTIMCZTKpTAm8XkRKoTeREQL0REnYRESAiJF4EwJbdrXJ2E818Q+M6pqOtF2VUuoI1ueZv0gdhxnxBQpZ1epcjdV38r8jPO/EHiKpiSM3uIPgQbL5nnNFUqliWYksTck6kk95SGGt7wrayhVNviPyko2un0vrMV7C0mniipuuksmNsrqguylmI1zWsPIWlktrlWzAi4Zibi/Idpg1MQWOYg6+kpUX2v5QnbOqK672K778pTUrq2X/DC2G4vc85saDB0VXpgADYfE3mOU01ZGBNlYa6eUDKUo9gEKn5a+sprYDIQSO+hFx6TDDHrr+szsLWQKwNwfXWCNrwjxVUoMAHLJpoTf5T07hfEUxKB6bC9hmUHVfMTw9lJO3lpabLA451Iam+RwbXBsCByYc4HtMTQ+F/EQxKlKgy1k0YDZhyYTfQIiIhJERApiVRKoUxKogXIiICIEGAMsNUyswI0IuDy00MvTVY7GKr6sFIGa52B/D5GBx/jLxA6FqNNrae8QfWcFm5nX95ufEKq+IrNTsFLFgOx/u80pEsrUXiGkAQJY3kJoZOWVBITFxqxOnKXKdS24PylC05UwlTS6nvW9m5zG9yZeXFVqJ+K19wwuD5iYiaek2OGpO65wxzDYEaEecsaU10VxmYqCemmvYTCZMpIO3XtKkzM1mFjr5S/iai5FVHdgNyBoTKpQa4KqM4IttbX1mMqi5KuOtjKMLlzrmF1vqLfWXsey5iEQAcgJZFrYeH8YyV6TrfRwGtvZtCfKex3H/Hlyng2HrZTfW21u1p6j4B4sKtBqbavSJynmUaxt8toNuqkQTJg2iIiE7IiISREQK5IkRKoVSDAhoFM1XGOHU6yFauYqNVA5t9ZtZz3iHHVELJTcC6ksxXRFI1Ibm0sbed+IVRHKoOemt2C/hfvNMiXMrxGrMbk3JOY7k31JPUy0dIGQ+G105S5hcMrMAwIGt7TIwOHLKDzM6Ph/DRuwEyyzkaY8e3NjhpYnIDb6zPwvh1230HedxhuHoLGwm0/k1IExvLW2PFHm2M4TkFlU+Z6zVVMIwIGlzynr9ThqkbXmuTgaBi2QH3hv05xOarfijzmlwmodkPnyk4jB1FQAlregnrtPAKFAygDpKcVwxHW2QROZF4o8aou6fC1rdgZcxNMPqa4Y75QtvpO/4h4cDDMihWX7p2Ydj1nK4zgzo2ZEOZdSD07Ga48srPLi00/wDLoqjM1mIva2x6GYL23HpMzEpcnMdefnLLUMjANaxtqNd5rtjcVtKdwSJ1H8OMTkxYTk9Nl+Y1/ec3iKZR2HT0IOt/QiXeEY00atOqv3HB16E6/pJZx7gPKVSPaBgHW2VgGHPQ6iTCyIiJVJERLBERCVcREqhIkNJENApnOePM4wbsgHxDN+TmJ0c0fjOnmwde42Ga/lLIrxwve15dVLi8sES5RbW0qV0fD0sEE6XCjec1gn0UjlOk4e+Y69JyZ9ZO7j1cY3OENwDNxQFxNLgRYHzm3wraTNrpmLtJVB0kLK1hF6SR9JUiwsqkyIQ9EHceX/M1XEMCGHva22PbvNwGlirsYvSNOMx3hik4JAKNpYi2/e84/jnDHprkdVFszK66XHMHvPUqz7qRvOQ8SUwdG5DSX487vTPPGWPP8RVLlLjUKAe45SyRa8v40+9fblMf+s63HZ29u4C18Lhbc6SfSZ4mr8KD/J4b8gHzm1MBERCSIiWCIiBXERKiRJkCTAi0s4miroyuPdytfpteX5B8r9pYfP8AiPjf8zel9rSmmbbTpPH3DxSxT5bWdQ4AGxO4M5lTIqK33CmJ3nS4OtawnO8LplV16TOTGqh97U6WE5c8fKu3D64x22BQlRpvNrhqZHKcbQ8WIlh7Mn5zMPjULbLSJHO5mfhVvyR2SLLyrNDgfElOooIaxPKbanjAbWkWaW3tl5ZURMTFYrKO80WL8Wez0ppmN7dr9ZM7RenSvS7GYtcgbm3nOSPi3EWs9xc6ZVvpLDY+s9/aXF9ddCRLXCaRt0WJbaaHxBTzIWGpH0mIcZVQEhSyDUjnbtNkKoddtGW2vK+8pPrktJuPLsY9z8zMdBr5kTO4lQyPUW+zH0OomHQPvpf8SA+Vxed2PcefnNV7hwXCCjh6FNTfKoa/dtT9ZmGBay2GmVfpJhCIiISRESwREQK4iJUIiIEiDAlSbjTna0Dy/wDifmOKQkaGgtj5DWcQg1Hync+LahxOJqqbZaZKJ26/rONq0CjWYW1jynpa4ZTVb5CcotvYSMJgSzXOsqoC6r5S6cwBCXB6iY9durXUZqYSkPd3bnt9YfhJcXo1KZuT7pezWvyljC8HaqjMHBf4l1sNN1PW83HhXhzCvmxSIiK+dhlGZmC5cqH8POTNf6pfKXqOeC1KDZai5Ty5g+R5zqvD/EM7Kuuk1niKmhrBKefJmdwrG5X8p5DtM3wrh/fJ9Jjya/jXDddhxKmuUG2tus43Gpqbafrr+07XGrdQO00OJwqezbMl7uQ1tzpob8pnje2mnJNYNd8QwG9kXMQBuRNnhnFgaeMLNuUqplBB2senK8yMfhqdTDqlBTTqLnCsNmR/iVzvLvA+DBFL4k+1f2eQIdUQdjzt3nTPHxZd7XKFVKikEWbYr/XpKETJcW05Svh/Cfva6Egan4ZnYmhYd5yZX7NY83499pU00uNe5G0yOB8CDoa1RsqBgNNb2PMcpkcSwTPiTSU+87IOw7+es9BThC4alTpoNDdXJF7t1M7Ln44xz4cUyy7Z2GqqyKynSwtLsweFCwdeasQR3EzpfG7m3PyY+OViIiJoqREQERECuVWkCTKiCItJMQItFzc25BreYGkmSu484J7eV0ULAu27VX9QdZY8QYVGTOre8DNpj6Xs61Wn+FnYf92s1VWj7RajWuVUk9rCc8usndZ5YRODAKpboJvKWFDKLDlNDgWuiHtOs4SQQJTP2nHpj4fgrqbqRYn9OkyMVhWRTrY9pvkItNfjFuTKdtNuTOHsSTz3vrN34Z+M+U1mKezG3KdD4SpEh26ED1jVTOm/qnaYtXD5r20v6HzmVjqZUgSMEQxsZGtI9tfS4UhPNG52+GbFeFra2e/UTYLhhCIRvb5SYisFsPlGnL6TAxpm5r2mixzSmXtMck9NxjlekgdlQvYj7oOpnZU8ca6EMfiRXt0I6TT+HmBxleo+gTDlb8rMTofSZvC0tnqHRbFV7jsJrlfURhj3tk8LX3qrn77kj1mwmJgl002mXOnj9OHmu8qRETVlEREQsREQLkmIhBERAREQON8YYfLWSqBo6AH8yjr3nPj3SbfCwIb0M9G4xw8Yim1M6HQo34WE8+ak9NmR1sy6MvXuJzZz7bdnFlvHTWcPfQi2zH0m+4bisvrOdY5KjW5mbOi2mkrZtfGx2uDrZhMPitfIu+sx+HVbBbyjitPPseczntpK0r1BqzEDfUzpfC3EUyMqsDzInKcSpiwuL25TI4TQz29m6p1G2nrLq77egcU4vSGVqjhNl1lvD4hWOenYobWImnrYqmiBMoqC1mZxcXPSZPAEpohCki5Jynl5TPKLS/x0+GxF9DL1QaG01lLqJmPU0+UbVrGqvNFj6m82lV95z3GMRlB6mV1tMWfDmGDnFlqmUZgCv4rAH95vKgvkS2gPrba3aanwwLUiShLM50sfLedJSQg5m+K1gOSiazC27Vz5ZjE06eUWlUSDOvGaefbupiREsEREBERAuxEQEREBEgyJUVGa7inB0xCj2hKsvwutsw/9h5zYQRFkq2Ns9PNPFfA/5dqbioXDCxNrDy/Sa/CVuRnoHjDBe1wlQAXdDnXrpbaeY4epexlLjGuOTp8NXygXMtYriZbRdJg03zC0j+UcqWQXMxs7bS1kfyzOd/mZssDgaIy5nOYa3G00uEFSpocq62tebahga3LLaRem+GO5tt8NwqmM5d2bPqLaBZkJgxp7N7kbDY/1mFh8LiGQ3IFtrXlVTC1ANXGYDra0otljpeOIdHNr9wdpucNi86XE5qiuIL+/lZLfEJuKVQKl9h+8ixnVeJq2VjzvoJzvFHJViddLes2VavnI9Jp8exc00H3nA/WTjjus8+nYcEp5cPSXb3b99e8zbSlEyqi/hUD0Em87cZqOLPuqrSgyq8gyyukRBiE7IiICIiBdiIgIiIEGRJMiVEiTKbyqExBANwRcEH0Ohnj/ABrCHD4mrSIAAOZfyHYz2A/35ThP4kYXTC1Qupzox6gfCIsWlcvRrWm0w2Ksp7znkqTPwhuZjlG2OeumUhAbMums6LB8VVQM7r8yNJozgHOwH9JabhTsQEcHr/xKXFvOSz07XDcapX+1S/KxEttXDsTmvec9w7w2xJzlQRrN/T4TlFwRt1meV0tM/JnPUAS2m01q1i6FOh37StqZsc0xAwAYiVl36TNIepl1J52l3w9hTVrGu1ilP/zbb0tNJjaxZlSnqTcnsNvWdP4OphaNQDYvr3M6MJJXNy2626De57xIMmdLl2QYvIJgDEGICIiAiIgXYiICIiBBkSTIlQlUplUCGnMfxAp/5amx+7WQet51Bmg8cqv8lUDWzK6MBcZvTeDG9vLa9G2ok4SuVOsy1HWWa+FvqJnuN7hd7beniyV52l2liMuxnPrVZBY//ZcXH73HKRcdky8XTYbiLi19NdfLvMmnxJrj3tbkDpl5zk/+oX57y4mNsQNyeQ1lbxf6n8lvp0uL4mT7t7D95gHEMzZENz+g85awnDqtX3nBRdxfcjt0nRYDh601sq76kne/nKXWLTHG3th4TBezBJ1YjX97Tf8AhUf4VT/cM1uJFtpd4FxejQQpWqZGeocotdSJPDu5J5v1dPEMwtcHTkQQVPlIE7L7cSZBkyDICIiAiIgIiIF2IiAiIgQZEkyJUJN5Ew+N8SXDUalU2uNEB5u22nPaWx9orW+KuPDDIEpsDXc6A7Ig3c97zy2rjHqVC1SozMb3LHf5bWmRVxDuzPVa7sSWY678hMapSKsGI0Oxm+fFrDcVxy+0Z1OZQTSYtKbfBpcazzc+npY4ta9G/KYr4C+065MGLS7TwY7TOclheOVyuF4OCRmvOn4ZwtFAsmvU7zYUsIvITOSlaLy2pmEiyEMqZZkZJS4lfLa8jV4sTkOPo2ekVAvmYC46ztq673/p5zmVT2lQuNUpkhf9TbE+U6fh8eWXJ16c3y8pji3Hg5jSf2bOzB11BN1D/wCi+287HznBrUylWBsQbg951/DOICsmfZxYOvf8Qnq/J4Nfaenl8XJcumbIMmQZxOoiIgIiICIiBdiIgIiIEGRESoTmf4l/Z4P8z/SIlsfaL6ecPsflL+N+zX8/7CInfl+jPD9ouU+U3OC2iJ43K9aem5TYS9TiJzVaMujvMqIkFVGUVNoiTExqeJ/Y1vyP9DNJw77DD/kH7yYnrf8AmftXB879VWN5eU2vgn7V/wDbaTE9T5H/ADeZ8f26mnsPISoyYnkf13IiIgIiICIiB//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTERUQEhIVFhUWGBoYFRgYFRUZFhUYFxUXGBUYFxYYHSggGBolGxUYITEhJSktLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0tLS0tLS8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABJEAABAwEFBAcFAwgJAwUAAAABAAIDEQQFEiExQVFhcQYHEyIygaFCkbHB0WKi8BQjM1JzgrLhFTVTcpKjs9LxFjTCCCQlY3T/xAAaAQEAAgMBAAAAAAAAAAAAAAAABAUBAgMG/8QANhEAAgECAwUGBQMEAwEAAAAAAAECAxEEITESQVFhcQUygZGh8BOxwdHhFCIzNFKy8UJygiT/2gAMAwEAAhEDEQA/APbKJRVos3BRRKKtEuCjCmFV0SizcFtFXRRRAUqFUQmFARRKIiAIiICEUohghFKlARRERDISiJRAEU4UwoAikBKIClFXRKJcFCKuiJcEqURagIiIAoRSsghFKICFClEBTRKKpRRLgpIUqVRLIGgucQABUkmgAGpJOgWQEXKv6yrpBINujyyNA8jyIbQ+SWbrHup5IFuiBGfexMHveACUB1SLHu+8oZ2dpBKyRn6zHBw9FloCEopUpcFNFKlFgBERAEUogIUooQEooRYBKKUQEIpUIAiIgCIiAIoUrIIRSoQGJeVvigjdNM9rGNFXOcaAfzXgPWR0/kt5MEBdHZRkRo6Wh1fuG5vvWx68emUNoY2w2dxcWSVlcPBkKYa7TXyXnlnuS0uaMFHVGmYPmsNpamVFvQwJbMKZarFfD71uDdlrFcUD92iwmMcXEGNwpr3ScPNE0Zsy3c98T2SQTWaV8TxtadeDho4cCF9EdVHWF/SDHQ2jA20x55ZCVv6wGwimYHNfNrwK0pmNVsuit9yWO1R2qLxRnQjJzTk5p5gkLY1PsVFi3ZbmTwxzxmrJGh7TwcKhZawCFKIgCIiwCFKIgCIiAIiICUREAREQEIpRAQiIgChSiALV9J3OFjtJYaOEMhaRqDgNKLaLHt0eKN7d7HD3tIQHxzYSS5gJrUivJe43NZ24Wu2UC8p6L3V2jmuOjQCeOS7l3SqzwAMc4uIyIbs5lRMQnJpRROwrUE28jtsbeCtyxszOFtTqaDNai6ekljno1szQ46A5H+a2lstEMTC+R4DQdeaiOEk7ExTg87nPX7clmmGbGg7wKFeWdJbk/J5QGmrXAkcKLvr16aWUEiPE/kKc9VoL4mZa2Y48y3UHUb1KoqpB/u0Itf4c1+3U9z6q2EXRY6/2dRTcXEtrxpRdaue6v20uuxjdBH/CF0CmleSiIsAIiIAiKUBClEQBERAEREAREQBERAFClQgCIiALFt9ujiaHSuDQThFa5k7BTzWUub6b2NskLC4VDJA7lkcxxy9VrOWzFs3pxUpqL3nj1gu8NlliZSgkc0EbQHGhHlRY1puSWrmRxxCmjntaS41zzOi213zVtDq1FTXPUjMA+i7GAN2gKFKo1K5YRpLZtwODs3RBpaHPa3EACS0ADFXZQaLfX1ZWyRRRbNvMBbq85gABUCvoBkVr7yZRjHAj36ZLRycmdVCKRyc9yTMNY3MaPaBaPu5Z5cUs93uwukka0OPdNMgRsOi7uGSrG1pmFp75kGHdRbqo20jR0kk2dt1fXr2kDLP2eHsYowDWuKjQHcs/iuuXC9XZGI02RN+I/Hku6UunJyjdlfWgozsuXyCIi6HIIilAEREAREQBERAEREAREQBERAEREAUKVCALBvexdtC6KtCdDuIzHks5Fhq5lO2aPDL/ALHJZ7WztI3MDm0rQ4SWn2XaaErbPtzY2Y3nICvHkup62bJiu90wFXQPbIOVcDvuvJ8l5GLzBaGv0IFOYKiVaOlidSrt3vqZt533LahgbC3CNryB6rWuFtwgENpXOsjSABpTPNbgRWdtJqbMxq33GoBWK297O84Gx0JNMg3dwCR0yR1aW+Xrb6F+x9JXtLY5Y6DSoOgWReTjM9sEfikcGj95wFfVae8pYYoyABV1Drn/ACW86p7MbTbxKQSyBped1TVsY55k/upCmnLaRzq1XFNXPW+j1yiztdUgvdSpAyAGjR7zmtyiKWkkrIgSk5O7CIpWTAREQBERAEREAREQBERAEREAREQBERAEREBCIrVomaxpe40a0Ek7gBUoDUdNWB1gtDTtZT3kL5lvntbO7snDuVqx3D6rvukN9y2y8IXYnCKr6MqQ0NAo2o2mrgf+Fm3xdLZo8LhXyWmJToVdiXDPkdsMlWpbceOR55Yb50AcQNq2JvKJtSwAEUNfLNa63dDJA49k7yP1VqLoZa9pa0b6rR/D4m6+IsrGvtNqMr6CrnOIAA1PL3+i946mLu7Bk7HeI9mXffyXBdGOjrIDi8Tx7RG3gr/SG32iEdpZ3va4ZnA4jEG1NDTVZpyUqkYJ2XFidOSpyk83+T6BRefdWvTc2trYZyO0LcUbtC8DxAj9Ya8c16CpFSnKnLZZDhNTV0SiItDcIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCtTSta0uc4NaMySaADiSuN6U9YcFmJihHbzDIgHuMP2nbeQXk/SLpRarYaTSGlcmN7rBuo3bzNVNoYGpVzeS97iLVxcKeSzfveeq331nWKGojxzu+wKN/xu2cQCvPekHWJabYx8dBFEaVa2tSNznnUcqLkRGWg11O07Fcs0YJDc+8PXUK1pYGlTads+ZX1MXOcXnlyN5dVoGKOQ6DXgu5s4BHA6LyyySGNxY7Q6LbQ9KHQkMa4kbQG4gOHNQ+0uzXXl8SDSlo77/n8vEmYDHqgnTmm46q275e9x1lss1HVCxZA/wUy3pdl8stEYcCMQ8QGzjRZeKuVV5ydOVOThNZo9BGcakVKOjLdjgo1YF4xVz/VNTy2rfxwZUAWm6QyCNhYNXeLgDs80o0Z1qihBZv05vkK1aFGDnN5L3bqchHanQlr43FjgS5pGRaSSRT3r0G4etgtDW2yMuGnasArzczQ+XuXmQYXuJ93JV2uKjW10XsKmFpzgotaKy45Hk415QntJ6u78T6Tue/LPam44JWvG0A94f3mnMLZVXyxY7S+N4fE9zCNC0kEciPgu96P9adpioy0sE7B7Yo2Uc9jvcFWVuz5Rzg7r19+RNpY2Lynk/fke1otN0e6R2e2MxwSB1PE05Pb/AHmnPz0W5UBpp2ZMTTV0ERFgyEREAREQBERAEREARFBNNUBjW62xwsMsrg1jRUkn8VK8i6X9OprTWKGsUByJBPaSDiR4RwCwemfSc2u0uDXfmWHDG3YaavPE/BaOdoNWjUCo+avcHgIxW3UzfDh+SnxWNbexDT5mGWtCpEQ1CyTBXaKhW5oCC2hypmrS2ehW7XMsiKuhNeOik2d2rTmFWxpBOxbqy9G7QQ55jIwtxEHJxaWlwcAdlARzWJSjFfudjZbcn+3M5+2SSHVrRxGv8lTDYsg5pz+PBba0WV7H4JY3MNNHNIPqNFYaBWgTZi8zO3NZWsWrNd5Y8zRvIOtPiDv5L0O6A2SNstAKjMbiNQuLY0jMkK9/S3ZMc3FRrs6DNxyoaDdxVb2jgViIrZspJ+j1+6LHs/HOjJ7Waa05rT7M6O/r+azuRnmRqeDd3NcJe1+VrH2ZdiBDhsFdhdtPJT+W1JyLK7T3nHz0CrZIBQNaCOQ966UMJCjDZp+L3vqc6+KlVntVPBbkYF2CQNAc3TbXXmN6uWyatBTTVZ1olOxYksQJ4qYoNRsiF8VOV2W4ogMwjeAVcbCHErIazu1pzW2zfIORjWeaSJwkjc6N7dHMJB9F7T0B6aC0tFntDgLQBrSgk5bncNq8eiiJzOlKqqzyujdUEhwNQ4HOo0IUTEYWFaPPc+BIoYmVJ8uB9MouZ6C9Ivy2yh7qdqw4JR9oDJwG4jP3rpl5yUXGTi9UX0ZKSugiItTIREQBERAEREAXKdZV6mz2CQtNHyUibv7/AIqfugrq15T14Tu/9swA4Bje47Ae61td2pXfDQU6sU+Jyry2aba4HmEDqE02gj0JHwWxszw6Rjv12+40qR72rU46gEa686Eq7Y5xmK6HGzltHuJXpU1bIotlvPebJstC4H2SQacdFFpjJ0OQp8FbP6Qg6Gh9xV6F5qQusVfUjydtDOuOEOtUYJY3PIuJArsIwg1IOdCKFemF1rbIcXbS0cRkyEBzA1hFA4A1q87csJyXA9HbEHyYnmmECndc4kkjNuHaBXguniMkDjJG6X845ra5YcBcwd3F3hm46ZHJV2MW1O2Wm9cXuZYYN7ML567n7v8AksdKrNKYC+YEhpoztJQXNJIDqDFmctKZVC4JjcLs9F3D/wA49xnDZHgkNL3VNMntxB2ndIbQ7a1XN3xZYxLhjkJGru7ha1x9lo3DRdsK2lsPXXLT35HHEpN7a6Z2v9DWWrJ4IWFLZS/vkmo2cj8FlP8AFQnYT8goja6uzyOzPYpWym8yOptLIp7AUFdDodacCrhswY3tAC7MNbGDQve4EgB2xoDSSfqq7PHWo8/I7Fbvlj2WcPjz7OTvCgNGyMwV94p+8Fwxk3ToynDX8nbCRVSqoz0+eRkXZeBDntfLQgAFsbQxrTU6OILnaakrY4hKNcZpo4d40I8DgA4HnlwVmwRskd272kxPY0NL8JfRrTQVZtyADiOa3rmtfau0aGiJrHDF3mx1oKCrR6cF5KVaoqu0pO91vZ7ydKnDslrY1i87KyvNK2muZxdssZjcCCSw1oTrkaFrhscDl7jtVMcpLfxvW3vOZr2F4BoXinE9n+cPKoafNaYMoCBWh9DlovVYStKrQjJ65+n3PBVYpSt0LzwSAwaanlr9FRO0Vpu156qr8oAo3cM+PBW3toDnntPF2YHz9y77zTcdb1TXr2dv7KvcnaW/vNBc34OHmvb18x3FazFaIJh7ErT5YhX0JX04qHtGNqilxRdYKX7GuAREUAmBERAEREAREQBeOdcN7M/KHWYgh3YNLXZ0xYy5rSBsOHblovY18/8AXMK3o4DXsWedKmnuqpOEipVTjXk1A4+OUFpzzac+Tv5j1VETu9u2t3V9pp4H5rFB0f7Jyd8x81MsRbtqCNm0HdxV4pu2hW7CW828NrDnDZQUzKzrPONhC5ZktHga1rQ7HceBW0s1p2fVdaVbcyNWw/A7q574cxpjq7Ac6NIBrVurqE07ug+ZVy13s41/Ntz4uJpu8S5ezT0/4+pW0gmxDZ72hbulBvasclUmlstl8XrKK0cG11who2AbBXYsICpLjt2k1JWQ5nH730CiJnH4/RbpRWaRpLaeTZgRNrK4fZoOYp81XQEYqUOh18lTZm98mm13suPtN3qbQ0gOGntDJw5+oWyZhxFn1B/FDmFnRkiuQIORBFQQdQeCxrLIC4faG8a67eazWNB2enzBWJWeTMRTTuhd9hiYCI34amuGQHLkQO9t1Cz3vows7ZrWOpiDMTiaVOlAPeVhUA2+tPisa02imn1+CqX2Th3Paz6X/Fy8n25ip4X9NPZtlnZp5O+5pdcixeMoNA0YWNqGjXXUk7XGnw3LUTTgLKtM/wCP+Vob2tGkY1OdeCnylGlBRitNEVVOm6ksy/DaMRrX+SvduScsg31JP1+BWts0OQAOuv1WwiIpX2G6faP49FrFt6neaitDJjjq5jd2Z4VOdeQX05Z3Va07wPgvnfokzFIZHlgDKvc1xAxs8DgK6ZPJ/dX0Hd7qxRkaFjSOWEKp7SknNE/AxaizKREVaTgiIgCIiAIiICCvn7rmdS83PGrGxH0z9CvoEr5860z/APLTVGQDAeIMTVNwCvV8CNinamctIxrHEkfmZd3sHYQrcUWEmN2lasPy81k2RtWPs7qHBm3iw6euSsQu7uB2dPD9DxV5bP34rpcqb3XvwfW2viYN4tAo5opnnw2FTZxUjP8AHmVN4P7hbt2cc/irl3DKv4+ChSqJYhU+Kv5f6LCnRcsLKrfutLrey9Lm9uSwumlZC0gOeaCtKeeu5dN0auF0rpmOmZD2BAeXOAFS4t2Upm3bvWp6E/8Aewb6up4dQ11NldV2lnsjRJajanOhZLBDK93tMdiaCAKH2wd+q71K0otxT3Ldd962m/IiQoqa2mt75br69feRj2W42Omla+0s7GENL5Q7u97QDZWvFU2u4uzdaO/ibHG2VjhjIka40G3LbpuWJL2X5JK2GRzonWqNuN2KuHB4nZDQ1NOC3tnsMFnZP2sr54XQQ94Y8RD5HYGszyFGg5LR1Zp3u+Fra931d9OGRuqUbaLje/X0VtTUWToqwmVtSS2ztm0PjeA7DmcxkdM8lRB0bD4IZ6luOcxP7p7rXGjTSu/4hdnYLC508zo2jCZIWOrX9G2DMZnM98LEuKz/AJhtkI1fKW91w78Mkb268jzXNYqdr7X9vgtl39czd4aG13f7v8lb0OQu3opLJUCVgDaOBeaAlz3tawAjM1Y5U3f0ctUrS5kbSA5zCKsDg5hodo2hdNb3sYWMlxCImZkj2hxMTo7QTFIcjkCTrlmuYjbPA68HmVxcI8TXtcBUvlYQ4YaUqM/NdlXqyu01yuudt3rvWWTuc3h6d0mnzz32vv8Afkay0PlZjxscBG7A81OFrv1STlXzWstUvDPXQZ+YXW3kC66mt1llcyd3ixOxSFoJrXc33qnpXYGxwNLTUtgbCT3csEjhJrtLqD3rb9Q72tvt8s/U0/TJJu+iv+DhZ8R09a09Vppml8udAG5cN63BjwjUEc2laO2Dvg7Cfx8FwrztOK43y6EvC0XKlUmv+Nlfrf7LzNoyMFuopuBBrzp8FehjLjRwoB6fzVqyR0GufoP5rNNMOGuup/H41U5LK5XTlZ2RZxVJIPLkNF9KdGn1sdmdvhjP+W1fN7mAVK+iuhv9X2X9hH/AFVdpK0Y35k7AO7lbkbpERVJZhERAEREARFCAFfPvW+T/AEnLT9WP+AL6CK+e+tlxN6zU0DYxzOAH5qbgf5fB/QjYvueJzMjT3J27MnU2j2gfLPyV2Zod3m5tdnkpu46scRR3EZFY5spjJbjNNhYdm0FXy4rfr796FNvtfNadPwy9dt1tnmbBLibixUcKVJDHFgz0q7CDzWtu59AOPPZyXQ9C7ujlt0TX43jvvb3j4o43PbXhUBc7YWZtB4b943KnxE3DFwaXLzdj0OApKpg66lolfhms/odT0fvBsFojlcTRta0NTm0jIU3lb/8A6ga6yOZJI90zoyyprqJg9udP1eC5RjTWpruH6RZU79lTl9qQ+lFbOlGTu+XpcolUlFWRueil6xs7SG0RukgkoXAYy5rm5tI/5WzvW+2TB8bIy0F0QYA19BHEHAA0251yXL2JmWYP+GRZtlizrQ79JCsulDb2t/vdpuV+I+JPZ2d3+/uzo71v7tTiia9lHl5q12ZOAN0I9lgCybVfzTPFJHGRglfLm05iTDiAodcne8Lmo4sj3fuSf7lckio5pw/5cn+5c/g00lHw88jLrTd299vTM6Vt/R9s4SMd2UpmD2kOHdkwmgp7QIJ+C0963vDKLTZmAsaY4ooy7xERvaQ52IbqipOwLGtFnOwZ6ijJB64lqbyqC2UA/qvFJBlxNFmFCF7rl6O/vkbSrzaa95q3vnmdTd/SSN0z7A1sfZMYOxkzaSYWte0EnYXMOWSwL/tjW2JkeIF8kslc9A17nbRtLguTvSDSVuZGvhz4gChorlcQDhUA6HvAA7d61/Swi01yfkrfa/Q2eIlKLT3+/fUw7W7It5+1XhuWNel2sFks9oz7R00rCa5FjGxFuW+r3LKt7jTPjtdz2jgt5fFlA6P2Z5HeNqdTLYWuaanZ4PQKvxj/APpguXzbLbBq3Z9SXGdvKJycb6VrotiIyQ0cKu+XosKyMBOI0oNOK2AfQE1zdkAraKyKCbtKyLD60O5fRnRD/sLJT+wi/wBNq+c53kUB5+WxfQnQGTFdtlP/ANQHuqPkqztS2zHr9Cd2fe7udCiIqctAiIgCKEQBERACvnnrbYDe8sRzxMjcOBwUp931X0LVeCdbVhcLye890vDTGT7TWtaDTiHD4b1MwKvV8PPTIjYp2p+8jinWNppQUO8K4YwcgAHj2gciVXJZXvFWN5jjtoseV5bk7DXaBr5q9aSzsVSblkmdx1SsBtM7sAq2zyd7Y0mgqOei8+sBJJG7L5L1bqKjDnWsnaxjacKvqV5zeFgdZ7RLC/xRvc13GjqNPmKHzXn8bUcMQp8LfT6XPU9jUI1qM6LdtpP5NejaZsrKK50y5P1PEEq7ICTTP/MPoVTd8OFoBGep7pOvFpV+KOrtPuuPxK9JHieUZkxR02fcf8is6Gy0bpn/AHZPqsezw65fdd8nLLYRu+6/6o2LcipkIp4fuSfVVWmzigOH7j/qjGDd9x/1V2SMHKn3H/VaXzM7OWiKhACB3fuP/wBy19psozaW5O+y/I/4lnwju6afYd/uWNPGDXL7jvqsJ5mXHkjSWWoxRPrUZaVJbs8YoAOawrMzC50dOLcq/wALlnW+MtcJANMj3Xivqsa8WeGYbNagDLgDQrrqaosXg00FfKtdgO9dr0jiI6M2bShkY52Web3kU3Z0XB3m/MU0qBpTWvFex9KLqH/T3ZOBBjgjeKbJG4Xe7ET5KgxU74tctlfX6noqUXDs2N33pSfl+36eR4lZnCmGvlTJZ0MeKhoeHzWthaTSuTuOVeRWe1ktBQ0HvV3DNaHnKmTydiJpQ559w4AL6E6voy27bKD/AGQPvJI9CvnyWOgplU65jLyX0rchZ+TQ9nTB2TMNNMOAUp5Kt7UbUYrm/fqTuz0rtrgjYIiKnLMIiICEREAQoiAFeJ9fv6aH9n/5lEUvB/y+D+Rxr91dUefWD9CVqpPCoRXE+6ujK2HffU9V/wDT9+km/Zn/AFAud6xP63n/AGjP4WoiosX/ACr/AM/JHpOxu9P/AKy/yMZniPmoh8SIvUR1Z49d02Vi0KuRbERYWpmOplt0UyfJEWI6mxEe1WZERbbgzXW3wHmqIv0Z/uuRFgxE1MmkPJvzX0H01/qq0fsfopRedxH9Y+qPUS/oKHSfzPnK06NV6X9GiK/3s82tEYFi8a+oehn9X2T/APPF/ptRFUY/ux6sscN3n0N0pRFWE0IiID//2Q==</t>
         </is>
       </c>
     </row>
@@ -3917,12 +3933,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sanju Samson</t>
+          <t>Karim Janat</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_018</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3953,16 +3969,16 @@
         <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3974,67 +3990,67 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W28" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>9</v>
       </c>
       <c r="AE28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBIPEhIQFRUVEBAQEBAVEBAVFg8QFRUWFhUVFRUYHSggGBolGxcVITEhJiktLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAPsAyQMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAQMEBQYAB//EAEUQAAIBAgQDBgIGCAIJBQAAAAECEQADBBIhMQUTQQYiUWFxkTKBFCNSgqGxBzNCcqLB0fBikhUkQ1NjstLh4hY0RJPC/8QAGwEAAgIDAQAAAAAAAAAAAAAAAgMBBAAFBgf/xAA6EQABAwIDAwsDAgUFAQAAAAABAAIRAyEEEjEFQVEGE2FxgZGhscHR8CIy4SMzFFJysvFCgpLC0mL/2gAMAwEAAhEDEQA/APOopQKICiArsFopQgUYWuAowKkBBKACjC0oFEBUwhJSBaWKIClAokMoYpYo4pctYhzJuKWKe5ULmYqqzGdmCrPhJ0nyqHe4nhl/2rPv8CE/i0CPOk1K9KnZ7gExlKo/7QSnopctOYLl3/1V22zadxiUYz4B4zddp2or1lkJVgQRuDRsqsqCWEFC9jmGHCOtM5aDLTsV0UaDMmstCVp3LXFaxFmTUUkU4VoSKhFKArQEU6RQEVEIgU2RQkU6RQEUKKU2RSRThFJWI5RAUYFcKcC1ICUSkAogK4CjAokBKQLRAUoFGBUoZQgVwFGBRAViCUEU/h7amWcwiKblxonKg306np86HLUbtExXCIi6G9ebOf8Ah21VsvpmZT90UjFVeZpF+/d1lOw1LnqoZ39Q1We4pjLmJucx4CgQidLduTCgxr5nrUbkBJzb6aDwI3/vyqz4LwW5ipS2oAGjOdJOmwHWtXb/AEbhbea5cad9ANP61x1Suxp+o3XXUsO9wGUQN34XnbFR0HuT/OtF2TxztcXCsxa24ZUViTy3ysUKeHeABGxn0qfi+x1tQYZ5jTasvisLcw1xWBgqwZDvDAyDr5iioYkZg5huFGIwj2sIeLHtWuK0MVLvsLgS8ogXbaXQJ2zCWHyaR8qZK12zXB7Q4aG64t0tJadyaIpIp2KTLUrJTMUhFOlaDLWKZTZFARTxFCVqEYKaK02Vp4ihYUJRgpkikpwikihRynAKMLXClAo4SiVwFOAVwFEBUoCUgWnAtIBTgqUBKSKULSgUoWpQkpMtM8bsczCHxtXkf1R+4Y+8bfufCpIFW/DeF8/DYoyZW3oNMuoY970ygj0qntDIMM8vMD8iPG3arWzy7+JYGXN+6DPhKsOyuCt4O0mdlloJmBv61rbz276wl20xG6q6kj5A1ATDlrSIi28xRQzOuaFjWNN6qeB9l7tu+LtxtASWCrbRXE6ABRI0nr4VwL4Mkld+0EEQNPm8pziyWLC5rjqs7AkanyFec8WCYpyqEb6Vr+0PB2v4u8cxAUHkrAZQ/mDuN9NOnzprnDbltxnA0EqQoGsa6Cn4VjWvAm8JpDnuyuFvnSmsDZK4XDKd+U5+TXrjL+BB+dKRVhjLYyWWAy5kXKmbMBbVVCwYHgwiP2fOokV3eCLTh2FtxAXnGOzNxFQOEGTZMEV0U4wpIqyq0poigIp0ikIqEcpkihNOlaArQogU2RTZFOkUBFYmApsigpw0lQjCcFOCkApxRRJRK4CjFIBTi1MJZKQCiAolWdhRisQEoQKMClAohRJcoMtaHs3Z5r37IBFu6Cq5u8FdRzFDEAScqOPeqvD4J7iO6gEIBm1EwZ6ddqGzdZIKkqQ2YMGIMjaI2jXXzqviaAxFJ9KdRHVPwFPw1d2HqsqjcZHTHyF6Rwi8DbS7G6iR4HrXca4umHVblxrSqxiHZht4Kok/lVbgMegtooOrItwA9TJDfxA/2aqU4LbsI+Jv8zFs7Fgqw3Lk6BB0G3tXAOpZHlj9xI7QYXoNOoKjGvboRPYRKhW+NZsWzjlTJLKHbvKegBEE9dK7i+OD3NBsJjxPhVRxfB2sQWZbd3DxqWcjMSPM1D4Nis19FktkGZm8Rb1JPqYHqwpuGp56oI1ED0F1bFfmgXv0AmegX8le2rHNfkm4ltUtIuZwYzWxBiBpJLH51VOkT1gxI2NO5ZNHeUQApYiAWB0AfUGPl18675lMUwGN0EAdgXlz6zqpL36kknrN/OVFIpCKecDpOw38Y1/GaAimIZTJWgK0+RQEVEIgUywoCKdIpCKhMBTBWgIp8immFCmApphSRRkUMViMFOqKNRSKKNRUpZKVRRrSgUaipSiUqinliI9TMa7belNgVJt32CG3PcLq7Lp3mUMBrvsze9EUuUC2pMKCTBJjXaSSPIKPwNEFBiJmTOojyj8af4g9t7rvaQ20JlELZsnlPXX86BbfmP6a/n/WoFwDoodYwEVh2AYAqsoysY1ZTBIE7bdI3NEuHUqSGAKqCQT8XeiBpvqunr4U5hcO7tCKWI70RIAHUzoB66VJS3btgG4RIbMArC5IH7JgRqY1J2G1A97W77+Pz5dHSp1Kv2ifLv0UqzwlcRhIQulxDmRy25Yd4CAIU5B8xWQ4hc4hhBDC4ABo41HzIrX3u0apd5S2lAKokjQsyLEnxO/4UWK4nntkd2CNzBiuJ2lWLcU/M2xg36gNexd5svDE4VgDriRbrn1C8wxnEcTiDLTJ6kx0q77J4ULzRu7WWiSBorK5AncwpPypLuGCSZDddAKpr2KIuKVJGVs8iRBG0ecxWYOseebkGhnuTMXQHMvFR2oLZ4SIW4fDE5dZldTDEJEiCfIDp08aB7BBI8DqdgNYBJOw2qjTtxdDKHCXFCqASAGUAkjKyjTx1B3q1wfHrF+V71vNllWRWGYAiAwE9fATudQK6mntCmbG3WuQr7HxDbsGcf8Azr3GD3T0Siu2zO0QFJ0MQYg69DI96ZdCNDpVmlsKCz2w4KsqMGMK5UhTIMmN8p8B6VBIEaTPy/ver7XZtNOPwrVuaWGHWO8GxHWCmCtDH5aetWuIt8uyqi6jc0BriC3LWypOXMxXQ7/CfcRVfcmANQPiAnSdifwrA6URblMfPAqPkpt1qdawruM0Qsxm8/AeJ8hrUjjHDhYCKSeYQWdOqWyFySI0Y94x4R46qdiKQqijP1G8cAN54du+ye2jU5s1Y+kWnieA4+guqYrTbCniKA01CCmWoacakihTAUQp0UKijAooSyUqinAtIBT1sCdZiDtG8ab+cVKWSkWpuEwzOSUUtlXPchQQqzBPpqNTtPlUVF339I96lqCIAYnTKSYgA6gKT0j061DidAgsLlFw/BtdbKoJhSxP2VA1YnoKlo1u2PrWz6Ry11E6a59p8xOmlX9sDB2FQKBddQ14z01KqfAQQSB6dKyuIw/xNvrIPkf+1VTVNQmNNyv0aDGiXiT4d29N8R40xGRO4v2AIkeJ6sfM1UjESdT703jjqdKjJbM9fOjbTAurpxBywLLS8I4c2NdLaiTPeJYrkVf28w1Ef0jWtyvZzD2rRDc66QCS4NtCfQZazfYDG28PZxV66csm1bQwf2iSw/BK1eL4natLmu3rVsEaM7qvTzNaPaYZUq5XNBA/yb66/Llb7YtL9F1TMbnSTA4LK9puzuTDresKWtsRzC0Z7M7BgNwTpP8A2nG3sBbRGYgMwBPiNJ38Y8BpXoTds+HWka1dvG7acFbq27V3KEYwTmUAASRrm9Kx3EMMA160s5QHVJAErrGgJG0eNO2Yyi1rmMaJ1nWZ9uGnrS2vznOtJfI4cOKzZ4ShGbxAPvNT+FW1tnTfaa0XCez9+7grTiyud1tvbm6q3LtsoT3LROokSDEnoCNRTumUnQjy6zV1raT5iJ7PRUxWqU9VaWXuzIYiQfmAdZnptvUqzeRyVvIAxGlxQdD+7sfGNKg4XEjKDPwugbf4Xm37ZmSm8Tchp/xXVP71soAB8mNIfTdTMsMLZUsVRxLQzEMDh0i46jqOyFJvWcjlWEiCQQdCCO6wMbag+Y8Kl8J4aHJu3QwtIAzdDcJnLbSerEHXoFY9KlYDBHE2QFBLW2EQDradgCNtIY+kM1S7qoEyT9RYHeYac662pjzeIH2UWgxm1clGKf7htHA8R6eNgtfS5P1BiQ03pz9NxLtCBEyNQDMSZhA2LFpRiWVc0FcJZA7qidXg/sDXzY7zqay2Jus7M7FmZiWYkySTqSafx+ON5yzBTpC9MqgaKoB0AHnUc328vxb8zS8C6nhKehc913Hj0Xmw8dTquixHJDH4t/6lRjGizQMzoHTZok9BjhomPb5g1xsN0A+R/pThuN9qPRiKAsfE+9WXbRP+lveZ9lYo8g6Y/dxBP9LQ3zLkAsN5e6/zil+j/wCMe6f9VLFdFKOPq9HztWyp8i9nNFy89bh6NCaWnFrhZfoB8j/SnLds/wCH3T+ZrbGtTGrh3heZU9m4yr+3Reepjj4wjsWi7KgiWZVE+JMCpuIsGzdNq4MwQkEKwXN6NlPWNxUWNIztAMgaRPj110FIHEySx8Sy6z8iKS7GUZ+7uB9lsafJfaz9KBHSXMHgXT4J62uvTy61p+zmC5l1EzBlQl8sABsgJGp1yEkeHxHrWWW4v2ROvjtp6+f4Vr+ydlimIzAqFtIcpzDMrMpOm8kZYjSG3FV8RjaZYQ2e7xVocksdhv1a+SAQYDiSbi0BsQdDfRMdocUTdkqVMAsDuXY5jruegnyI0qJdtgoCTuSu43Xu1G7UMLN+5bWYVgq95iQMsxO8eVUeG4qzKwmQrk5Z2LbR6UVBo5tkcB5StZiJ519ogm3CDHcPFbrBdirNy3Ze5eZXdWflA2wXtCYCZtmPd1mBJ06hvB8F4fFx76pbdWyLhTiQCBpDuzXEzk791gI8TUZOP4Q27Ye3dvXAgR89xsqxIyrrAGgIAHWmL/GApzWsPZWQ6RlJlXIMGIkDLp5EjrVUjEOkEu8Bv69N1xPTqE0GiIgDz9Neox0KTi8BgrwODtthrRdWvLeDBgl218An6Rc1JbURJUN41ieHdnsOL7WriYiO5cDpldHV1DSCVnLrpJDRvBrVYrtHdtlfpAsLMFbPJ7+UEHqe4NonXbTrVB2xwpvZMTYW5dtZVQ5bh5tm4IUC4ApBJ07xUz4gEVQxuHqBnOGb79fGOqOpbTAuD3EATG7Q9gndvV7ZwuDFk4ZVQESTdyrc5gSbhSWDdBJ0kAgDY1V40gXwuYsAlu0WMnNlQIDLanYanxqP2fZ7Vp710d2OS1oqqkm4AIkKDmAU+4mppwQxJJtXFZ4DG0wyOPIfsmI0AbptVnZVPKw1DfUTw03+uirbUJzBsRafMK44DxFreDFrmG0FtgBWzmAt5bTXHAOqNnETsFIGgk5Dihy3bi5WQB2hG1KpJgE9dI12NWeO4qiM31brOjCLeYQCGmR3phdCOh30jPcXx9p4NvMDMQUtr3YG+TQnNOvn0jW9RHNuJI1+fJVF/wCpodEtrElS4+1bYCftDvJ/Eq0/exYPNM7XcQ48gy2l/N6zeIxcaHwkfPT84q/7G8O+lBmYlbaE38S/+EEKttfFmYqP8vhS6uJZJm0C/RCbToOAstrwF3FlbazzMR9Wi6Tys0Md+pEeitNJjuJmxc5eQFUJy5gwzOC0uOhk/go86m8Gvn6VkyfWZghUCeSgA+qWNZAC5vCAPtTT9rsOVxl+QADeulfh2DsBIG23XffrNaltPNUNV4jNcDgPc+67fYDWVaha+DDYHrHzSeKp7hJJY9ST5fKldRAI1JBzCI1nTXrpr86csXCpBEzrHlIg7+IobyRFWV2M3hMGurq40JRrq6urqFYuLHxPvSRS11YsJlcf70FEKGnLaknQTRNCjRKprU8AvPbwuIdSJzW1nKhGoeRBEHYedVFjBDL1mBuBv1rS4LAMuAY5Sc94zAJ0VFgmPMtRsylwB0lc3ylxIbs6plNyWgf8h7LI8dxT3c7sQXjvMMveGkSq/CQPLUedY7CYqMQF6P3Y8wZH5VqePp3SpGuhEjqPCIrDBj9Jtb6XU33iRP4VdxDy0ADiPNecYdubMTrF1p8BcPOg/wC8efQEn+Vae1mw+EXEEFWvBzbYjUWwYDLOxMHX0jrWSSQ9xtyBcI9W0H/NWr7R3YwxtqxJtWLOEycvd0AW44ueBhjGsSdp0aS7OwZZE317Nx38RFrpdKk12bM6LW0ueFyO8XWUcC42ZiSTqSTqfWtFwLA4lGFzDrdVgJzhTBWB8RbulYZd9O8viKxC4uGK+5FbzA9qMVfKG3YutCi1nnEsjZQmZRlKoF0U5Igb+dWKmJkQwNOoM6J3NEak20hSO0XE7z5bF1VthSHdFAGd2AIZt+hGnr5RDu4QWBavo/6xMzaEZXXRlmdevv0p7inDcXeOc2YdmgKGtqCQI0zNtpHqCN9Koe1CYqzhgly0qKrgB89smWJ0OVjPUT5EdDQCtSpMblc0RqARe14136dUKHMqV3kvkzvPZ6e6d7VTcVMZbk5/qr0T+tAEMf3gfmVY9azOJsuhUXEdCRIDoykjxAIr1zsRwoLZjnI3MS2yqF7ouWzmQ5mgyD0yj1rzzHW3vPhMEXdrilxcusLhGe5d75BOrKqhSfCtcMTTqPIpmWj8mOzTqhOOFdSH1iCs5ewj3SFto7vrCorMxA1MKNdImvXOC4QcL4clk5PpN36y5mgi2wG7dCtsGB0LlzqBWl4Dwa3hcLYTDMNbYe/dS2puYpnXMp1IY2xI7oM7ab1H7UvZ+jD6mxzHZbVtmwmIS6qWyXJHMEmCRoJ+OtS6MViWsI+ibifuI0B4AESRviNJVkg06JO/y/PBVHYHii27zIqEsSGS80lroBLXpkSpYag9YAPSO/SFYUY43FMrdt2rqwYgEZTHrl/iqjwV5reJVkIDAyCy5yG6HKNBG4zGdNqv+2yEph7khmNtkOxMJBCxsB3jHhNbLEMirmG9bzku4isI3gjwzeY1WSYEmZkwBMzoNB+VPBgQFPpQIh0OuuxjQxvB+YqRbwhJ1jyoJXdOIGqhXEgxTZp/E2yrQfl6UwagpoMhJS11JQKUtdXV1SsRJuJqbYj2pnA2UZgHuC2sGWhjHlA1poORRDgluGay0fDypmTGhI8z0Hl61tbdgHBWzdY28wLjlW1IAIABPgTAJjxrzfCYmNDXpnBMXy8NYCfSLjZCxw62wc5YsYLHRUk7+FVcSS0AgwZ+cPm5c1t2hNIBwkE6R0HoIG7VZG92f+k4XE3c780BhhLYZxzrltTcurlJIPcgDzNZ/s92Yw2M4SrqkY5r+Ju4e6CxN0YYqzWd4kozRpuJ6Vo+PdqMRw04ZRgkHK7+a/Z77u5JvCxdBIQEHLIkgbjpVV2D4u94lLVhbS2sVdvYcB8xVsS4bljQSFCgbag0uniKz4zOmIN+Pgua/gGl2VjQA6Yvuv0p7HcLUcdtW7KIi/SuGsqKoVcqJavXYUabKSfWrn9IYW9gbqrZZ2HE7yxZ7p5mQgO+hGogEnTarvG4bF4Pn4y7eslr2jLatQFuhVS2QzywARWG+58686w9y4z4h+ZcyyqMoZgrs0mSP2iAP46KpiHPq02MOg1CzD4VuRzrG4tuKyvZrh9guhukkvnVrZBAzbKM+mUiT6kDarXDcX+jKbVq6Si3bl22/Ll1Z0W0Lg0gCMwMkEyIiTXpvFuwOG/0eeUrLcA+k5ixPfYAuCOi+mwAqk/Rz2eH0mHVTlRrl8FQVJ+FE8xJnbWK2LK9FtEkkk6ZTHEmdN8x0qOYdWbIaGtaCS4C85R9MTvN5sImw35v/wBS5g8NfzMSc3NIC9zJIUHwiR5eVP8AD+GYjiVxiuHvXrItkuXclGuKCERS0DN3j1mddKu/0q8LS3j7F7IotthgCg7oZ7btppsIdZ9BW1xPOt8OsNwzIUWyhVAoZnHcOk7n9ZmHxEnxoa2JoGmBTb9R4nTttOniqrMJWaG1XH6SSB2eX4K80y38CWwrhlI1tlgQT/Ug6GN9xoQaC/ieSTdeHv3I7qqoLuYgGBqZj51I43xS/wATvBbgVSWS1bRQfqrk5Z11kkmZ6adKqO0HZ18LNprhe89pm5kEZVJKgKJMTDSd49a0rsG4OygwDc+y3QqGGh7ZfFvf3W74Dwq9eFpBesgWx9ZZ5du6rZmzuDJlRmJgiP5Vme0q3l4mcPftpbW3YHIS2HFq4hZm5mWYkklSf+GPCs52LRhi8LcUlWDI2YaHTMG+RHSvXf0k4QXLeFxEd9S6+eS4gJHuq0+DRvSsb7t5ue+Tre6psoh1RragkE/But0J7jnYu02FDYZCl1QHAV3+tEd5NTofDz9aY7B2le4MwUlLVyAV1Us9uTqN+6Kt+0HGWwjYJ9SjZlvL4plTvD/EDr7jrU3A8OVcScTaK5Ltpi0HTOzowYeTCT6+tS5znXcSe1ZRPNYdzSIDgYPSNR6j8ry7jpL4u+pOi4nEwsAb3mJ9fn4VDewQ0janu02JC4zEQB/7i/P/ANjzUezjQwPpVwD6R83LuqbXCk0gWgeUpvHJm9qqmEaVdcwEbjrp1FVeJMsYogrNEkWUeupSKGoNlYS1wrqUVgWJVE1NXBys1DRoNW2DugiiJSapcBIUEWyrCR10r2DhPMHDz9Gyc9Vyd6PiUAQfPLtOkmvNCklTGkj86tMPxHFYb/W7QcW8wRyysbbnU5W/HUbeOtIrAuhabalB2KY1rSAQZE6E7h2/OKqe2naTGYq2uDxCLb5bzcGQq1y4Jykg/DAPTQzO0CrX9EPDCbub9lc11vNpyW1P+Ut92tD2pFvHcMTHG3y7gyFZiYL5GXN+0pksPl51I7JLbwHDhfvac5l0AlipEIo+WZvvGkAQOnT52LSSBQdkZDySzKL/AFGxjsnqkdtyzrj7GKsd34nS0fJYKP598T7V51wThh5du06lXu32a4p3VmflgH7qqfnW5t9pMJa5OSyUF11RTy7axnuC3qAZIzQT5CaXGYHLxG0x0VybsnYMgMj3Cn71AyA8u3iQqdE829zYgQSAeIn89ytW4grYpsGRI+jLdO0d53TL46hSflWfwWDOBwmMuGRcZ3tWz4hZS2w+bFvlSjGzj8RcBEK9lARqGVEGYe7v7im+3Qs463bwxLFeYLhZWdIuLokHSTq3sKaaYDgN1p7pQYVtTK1rRLXQTuENJNzukKv/AEjWudg8FiWnaGGUyDdtB9fs62xUPs1iMRw60p5dzLcZWNli2Vh3gz2vslu77DTWa0ItpcwVvCFr2a2VK3M+VgVY5e8NdjGwq4wXFme20qDcRSQCYzMAY9JjegDDqQrRqGnh+ZLJaHGZO6fpjh84rO9uMKlu9h8WihbjMGcRGcoVZSw8RsT6eFO9puz68TSzi8O6B1UoQ2gdCZKkicrKZ9z61muLcWfEvnuESO6qj4UHgP61CTiV21LWrj2ydyrET69D86YGOgK3T2dV5tkGHtnpF9yuuyvYC5hrxv4lrK20zsFDySD9owAqxPU/LepHabi64m6FQ/VqpRD4sTJb0kKB6edYvG8bxN7S5euOBHda4xWQd8u00zbxpUimNo7ythh9kvDucquBNwABAE6njK9A7dYu1et4dbdxHKZswVgcsqo1j0pOy3aYYa2bV0OyDW1lAJWd11I06+9Y25j/ADNRTjXn4W9jWClaCmUtkB2H5hwJGs79Z3aKRxoi5fu3hIFy7ccAxIDMzAHz1qlY1Nv3GbYH+/So1y0Rqze4cfyqyxjjYA9y2RxWHwzQK1VrY/mc0RHWQisX431qStoP3hUNcvU+0j8q4YgJsCfRv/EU0YWqTZp7bLXV+UOyqYn+Ib/tl39oKkXMODtvTX0UeVN/6QP2KH6afL+D/ppgwVbgO9UTyw2a2wc49TD/ANoQUlLSVRXWpaes3YpilAPgfaiB4rIlX2FxA0rXcK7X8m0LVy0LqAQO8AQv2SCCCK88slwdmHyNSnuM2gj5SfyFCaYdbVavG4Oi8RXiNbmPFXvaftHdxoRABbtqcwRTMsNAS0CYGwgCgt8VxGNa1hWZcqa27apAGRSBooknKCB61QpeK7n/AJp9iKt+zOOSzi7N8sID97cwrKVJEDoGn5U0YWrFmG0xZamrtHZWFpFjKtLM0OygOa4hxHWTJIEz+V6jw6wbOES0zSQCDl0y5paPGQDWK4xZuWXz3VIDMWVpkHXofntWy7QO72WFhxnaChBEGR9raIBPtWb7X8TsPhFti4pupeHcBBKHKQwM9NfcVTw4dUeGtGvzsXPUNpNwlQ1q2hueO82Ejjpv0VV9LFq6xAZs5W4ANwGGnkPD5VbpiARHLZgRqsBpHh5/lWWwmLLJJJlDk0E/VuRl0y9LkeP6w9KtuAYh20e4gggMiuxAHdzad0TGYeUzRY7PRrAESTHtwRbPxlOphxzLSQC4DjEkiQCbwQNVcKColGJX7D/HaJ2BkSV8DPvQ4DHsl3MdIINzwdBrm9h+FV3a2wfon0iwW5lp07wJ+stOwVl8xmyHyjSJqFbxjLhbjOVL8sISCdLjRKjSD3M2s1DG56gp8THethiKzKeEqV33gHvgx32/zdZs3JZjnGrTE0cyImfvE/8A5pomkmukGz6I49/tC5Cpy02q8WyN/pZ/6LlwUdVPuKU5ekj/ACn+VCWoSaaMLRabNCoVOUm1qs5sQ7shv9oalzfu+woHM7x8gB+VITQE0wMa3QAdgWvq4rEVv3ajnf1Oc7zJSEevuaBjRE02xoiZSWMa3QQhJoCaImm2oU8ISaGaRjQ1BTAFKa+g/ZY+jf8AjRJiR1T8qhCjBqq3B0R/p81v63KfatQ/vEdTWDxyz4qVzvAD5hT/AColvt4g/IH86jiiFObRpjRo7gtXW2njax/UrPPW90d0wnif7EijU+vvTKmjBpwK1jmAmSLp0GnFNMg0oNSgIWj4T2nv4dOUMjp0R1LBfTUaT0qpu3SzFm1JJYnxJ1JqIDRhqBlJjHFzWgE6nipe972hriSBp0Kw4VfyXV1gEZG30VtCdOomfUCrLBMFvnoWbLr+wTII6yA0j1FV3AVDYmwp2N5AfTMKexJAum9IAe9dmZ0uBgCR4kuhb70VqNrRmbxhdXyWzAVJ+2R3wT5Stxg7Rvpcsk/GhiZMMCDvMwGXadqyHaS4A1uyFCm1mN0AR9YdD66BdfWtFw3HwyPD/FPw5dxB+IjTrVJ29n6TnIgOismkaQQZ1+0GPzpGy4OIk8D87lc5TZ2YbKPtLhPZPsONwFnqEmgL0BauilcGGpwmhJoZoSahGAiNNmuLUJasRALmNNmlY0BNQmALmNNMaM001CUwBITQzXE0OaoTQEgNGDTQNGDWKSE+powaYBpxTUylkJwGjBpoUQqUshPA0QNMg0QapQEJ8Glmmg1dmqZQwrbgFjmYm0gMd6SfAL3ifYGkxHEOYMTAnl4jmKM2WFuhtNDpBt6gdXqZ2LsZ71y5/usPebcCZUp7wxP3aznZ/Ff65ftGSLtq4kxorWirqx8u6y/eFc9tZ4NYN4DzXYcnKYZRdUO9w7h+ZWu4HcuMAVgQSO7aRddGU96TqobpVj28tsbFi62vfdQcqg6qp1K6N8PgIg1V8Bv5WZT0CPH7jZT/AAmtNxyzzuG3k3a0VuL90w38LP7VVwb8ldrunzstvt2iamDdA0HlB9F5rmri1ATSTXVrzeERahJoZoSahEAlLUBNKaE1iMBITQk1xoGNCjASFqEmkNCahMAXE0M0hpKhHCQGjFMBqcDVgKIhPg0QNMhqINUygITwNGDTANEDWICE+DRA1HDUU1MoMqeDUs0zmog1TKHKrrgtxgmJK6fVZWMfsl0n8AfasTzyl4XImDqJjMGBzrPSVYiek1ucC2TAYlzP1joiQTrlBzA+P6y3WOFlSdWABY/nA/AVzG0nA4l0dA8F3GxaUYFoO8u7p/C9CtupvWrqfBeQGfK6vXzB/Gtjwfvq9o/7SyyEebKVP4zWPwuDCYa0AdbVzluQBAMhzA9Wbfchj1q34Hi1TFqOdcY51lYhVDEnvEiPE6HcR10qulpg6rbPe2ph41mRpwsfFeflqHNVh2iwf0fFX7J0y3Gy/uEyh+akH51WFq7AODgHDffvXmGQtsdyKaSaAtSFqyUQaiJNITTZahJrJRAIy1AWpJoSahGAlLUBahJpCaiUYC4tQ5qQmkmhlGAgBogabBogahGQnQ1GGpkGjBqZQFqdBogaaBowaJAQnAaIUKkU/bK1KW4oBRhTUm2UqVaNvr/KiASHVY3KfxRBa4fhBcOTPzboBHxDOYPzCJ8iKruBcHuXQCps94DusCWjX4SCMpMnx6eFHj7AvhQ2LxICwEUG3CgCAAMu0UmDwAtGUxtwddbVs1zuI2diX1HOgGSTr0rp6G3sOzDspXGUDUH0WjbEfRmx1rEKVa5cW7ZlWIYTc1EeIYQfLyqh492zfh+JbC4Vs2QgXHieZcMT6/P06VOa6WUc3Ei+yiFa6gBCySFkHaSfesjxXs+17FNiOYihnUwrQRAA0PTbwosZgKlZjXBv1H7husBHTuv1qrg9sU2E0XH9MElpi5kyZHbb/Kv+0nFXxbpcdFVxZtrcy7FgJI+6SV67CqeKv81mO9E+RJ/E1FvG10reUqQpsDBuC0lTFOqvL3DUqoM0BNT7hSotwijhE187kyTSE0rEUBNQmhcTQE1xNCTUIwFxNCTXE0BNQUYC4mkmuJoZoUcJAaUGmxRioREIgaIGmxRCpQkJ0GiBpoUdTKAhGGow1N0gqZQwns1SuGw960hEhrttSJIzAsARIqDXVhuCFAAWy4jYQWpdSgm2TdCBCoL2gYCoIJDXvq2zMOVPWqlbWFIk4hxoTHKcxvAOm508hrqdJprt5miWYxtLEx70NJZRc1sZj4e3lCa9zSZyq9t2cMf/AJLjvAKOUw0OkknQdD701es2SDy8QWbuEBlyAg/Hq8DTprr4VT11Hkd/MfD2S5b/AChXzWsHAAxNyZOYm2+UidIAWdv7G1VuOyByLTl00hiCCdNdD51DrqxrC0/cT1x7LCQdwCLPSFqGkamKIRE0JagrqGUUIiaAmlNBWFFCUmhJpTQ1CKFxNDXGhrES/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUSEhgSEhIZGBgZFRgYGRgaGhgYHBwZHBgZGRgaGBwcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJSs0NDQxNDE0NDQ0MTE0NDQ0NDY0NDQ0MTQ0MTQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAAIEBQYHAQj/xAA9EAACAQIEAwYDBwMEAAcAAAABAgADEQQSITEFQWEGIlFxgZETobEyQlJywdHwI2KyBxTh8TM0Y3OCg6L/xAAaAQACAwEBAAAAAAAAAAAAAAACAwEEBQAG/8QAKBEAAgIBBAICAgEFAAAAAAAAAAECEQMEEiExQVEiMgVhExRxgZGh/9oADAMBAAIRAxEAPwDshgmhTBNCRAxoNoRoNoSBYxoJoVoJoxAsY0G0I0G0JAsE0aY5o0wkQwbQbQjRjQ0ACaDaEaDaGiGMME0fUcKLsQB4nSUmM7T4SmbNWBPgoZvoLSXOMe2dtb6LUwbSgXtphCbZ3H/1v+0tMJxGlWGam4Yeo+smOSD6YMoyXgkNBNCtBNHIAY0G0IYxoSBYJowx7RhjECwbQbQjQbQkCwbQbQjQbQ0CxRRRQiDs5gmhTBNPNI2RjQbQhg2hIEYYJoUwTRiBYxoNoRoNoSBYJo1o9oxoSIYNoxo9oxoaAAuQNTMfx/tklO9OhZ25ufsjyH3vpBdtu0mS+Fpb7VH2sPwDr4zndTKDubeH7yvlztfGI2GNdstMVxWrXJapUZvPYeSjQSnqMOcMaqkWHdHSNq0CBdRceP7ys23yx9egaVPMCWHD+MNTe63v/wA30lS3Weo5G2k5cHPk347YhSFei35swt6CW+C4xTq/ZOp5HScqrPsdeusncPxDAjKbH+bg7yxHUzjV9Cnhizqt41pTcA4r8UfDbR167jp0ly008U4zjuRSnFxdME0YY9owx6FMG0G0I0G0JEMG0G0I0G0NAsUUUUIg7OYJoUwbTzSNkGYNoRoNoSBYwwTQpgmjECxjQbQpg2hIFgmjGj2jGhIhg2kTH4laVN6jkAKpNz8vnaS2nP8A/Ubi4AGGU7Wd/C/3Qfr7Tpy2xs6MbdGG4rimqVGYnck++siZxa1vnrGOxY3MAxIlEshUtfn9ZZMAE0105g3+ukq6LAEX26S1w+DeqP6bm34Ln+GDJpdhRi30VT76CKnRLGwE22B7LVGTvkj8wv8ApLjh/ZOmneOpipZkuh0NO32YVeDsVubjSREoGm1jpbn4dZ1LF4JFSwGkw3F8L8Mnz08jAx5m3TDy4FFWiHhMUadRai2zKfQ8j6EToeBxa1qYqKdxqPA8xOYbHSaLsxjDTe17oxCsPwtsrfofOaWkzbJU+mZ+fHujflGxaMaPaMabSM4G0G0IYNoSBYNoNoRoNoaBYooooRB2cwbQhgmnmkbIxoNoRoNoSBYwwTQpgmhoFjTBtCGDaGgWCaMaPaMaEiGDacq/1ERRiGy72QtzuSDr0nU6jAAk7AEn0nC+P8RNfEVal9Hc9RlHdUewEVnapIPGuSqd/CMveOAB+s1fA+zqlFq1Te9iqfS8pzmoq2WYQcnSIfZ7gBxDAm4Xmbfy86bwrhVKgoCKWI20AHsJQHjeGw39PMLra4UEgeo3k/CdtcMDYty8CLnw2lWW6XJci4QVeTQf7jXUQVQ8wI7DYyjiBem3zB+kZxCulJC3NRc38Ipp9DlJVZAxgJBNpkOMUww0H8E8x/ax3YrTpkm+lr6/LWVzYnEtrUw7BTzsQfnvGRxtcip5Yvgoar2c9DLzglRVqI7bEhWI8b6E+OtpRY9P6h6i8ncHrhWGcEgeBHiNxL2N1TKE/KOktGNHAgi4NwRoY1p6CLtWZMu2DaDaEaMaMQDBNBtCNBtDQLFFFFCIOzmCaFME080jZGNBtCNBtCQIxoIwrQZhoFjDBtCGDaGgWCaMaPaMaEiGVfaDECnha1RthTbTa9xYDTxvacJxBBJ8ek7/AI7CrVptTcXVhYicFx9HLUfkA7AejERGbtDMfkjABVJ3JE6DhqBqUVp5iLqoJG9raj1nPlW+nUD3nVOD0Mq6+FvS0ztQ6ov6ZXZVHDIC9PC4ZHanTLuzjMLAXso5k8hbleV/CuGnEU6lZ1pKEdVHcCKwa98pI3Hlzm3Tg6Zg6d1vEGx956/ClGrtm5gRcZ8UOeL5WQuA01pHIFVQde7pt0gu1eIKg/3eP6y2oYfKxY77SP2hw/xKRFotPkc4/GjLY7AOMOlWg5zlrOqizgZe6e8ALZuS7C28JRerQNIvUNQEL8VCQxQk7hh05eIllgqQZAj2NtPOH/2apeygXjd/gS8XlMwnazDAYu6CyvqOW8h4RgDlZb305iantfhb4b4ltUqL7NpMvSosxQqDdjl9d5axttIpZI02dA4W+aihHNRJDRuGoinTVFFgFA+Wsc09FjVQSZkT+zBmMaPaMaNQtg2gmhWgmhoEUUUUI47OYJoUwbTzSNgG0G0I0G0JAjGgzCmCMNAsYYNoQwbQ0CwTRjR7RjQkQwbTl/bvgWSv8RB3amoA/GB3hbra/vOoNKftOi/7V3IF0AqJ0dNR+x6EyMkd0WTCVSOKnCsmUlTqQw8LAzp3BqwcKRzAPrII4ngMRhnHxUpFqZDI1lZWtfX8VjzG8jdkqxVcjG99VMx8ltcmrjSi6TuzdU3FusJkvIlN9JKSsFUsTYAc9pXTLRCIs5vy+sWLS6A20vKHjPaWlTcZHY66hApBPO5O1vaC4h2tAogpZuQ1Gh53Xe8OMH3QEssVxZIod2q9M/mXyP68pJqP4zO8C4wlaoHq1buAVGYBdzfS2kvqmpvec4vcQpraVna65wQA+9XQegF43s7hV+Hn32A6EDvWge0OOX4CArdRVF9bb90n0ufaXuGorTQKg0tNbQ4nKVvpGXq8ijFryz1owx7Rhm4jKBtGNHtGNJQLBtBNCtBNGIEUUUUI47OYNoQwbTzSNgG0GYRoNoSBGmCaFMEYaBYwwbQhg2hoFgmjGj2jGhIhg2kHi2GNWhUpjd0ZR520k5oxoVWqB6Z864hCrkEagkEdRoRNhwHEf01F+8ptceBH/Y9Jpu2XZWnWVsQjCm6KWb8Lga97wPWYfgFzSd11yOMyjXuMu48iDM/PjcVTLuCVvg3uCx9xZjbp8t5R9peIvVqDDqxVL62vcnxNuUj4bEZ9bjcka9eXtPaVcNiC/wCEAeb8z4dJQUdrLzlaok8P4NhmtTIeo+hNjkzX5eUHi+zNGnqUrhQxNjoLm3O38tLKjxGge7VYLY6X0IPPKYsTxXDDQVs2ugzA/L9oSbDUcfloymM4ZTGtIP497UWG+ssOGYt1pZCb2O/O0WJx61GOXlzPh0kGi4VSDya43vz3+XvDinLgr5HGL4LStlqFKTgEuxsp5gW/c+xmkw1I06aoWzFVAv420BPWRuFYPIi1Ki98i5vut9h7H5mT2m9pMOyNvyY+fJulwCaMMe0YZeRVYNoxo9oxpKIYNoJoVoJoxAsUUUUIg7OYNoQwbTzSNkG0G0I0G0JAjTBNCmCaGgWMMG0IYMw0CwTRjR7RjQkQwbRjR5jGhoFmR7dcRyUxRB1fVvyjl6n6TD9nnFGqy/de1r7XF+785adsahOMcE3CkAdNNpSJY6SZ4FmhREMzxTTLvinCnp/1aGqbug+71TpztK3hzh6l/X1mg7P4/Pek7d9dj+Jf3HOD4twAsfi0LI41I2V/PwPWYk4yhJwn2bCqcVOHQ7Fph3QrUp3c7nY32uLdbSDW4XhqdPOFF76gknyA6c/WU/EMU6kfEpsjg67kEXvvzkZsfcW1v/LSIxaXYEpK+UWWJxqFcoUC2mnhyv13lj2VwOep8RxotyAdbnkfIfWUXCsC1aoAxsu58bc7TacDdQSui3uqL4hd7e495Z0yX8iX7K+dtxbLgxjR7RjTfRlME0YY9o0w0AwTRjR7RjQkQwbQTQrQTRiBYooooRB2cwbQhg2nmkbINoNoRoNoSBGmCaFME0NAsYYNoRoNoaBBtA1XCgsxAA1JOgme7Qds8Phboh+LUH3E2B/vbYeW85txztNiMYbVHypyRdF9eZkSmoo5Rs3PGu3lCiSlEfFYcwbJfz5+kxHFO2eKrXAfIv4U0+fOVeE4c9XVVsv4joPTmfSWtPgKKLsSx88olPJqkuL/ANGlg/G5ci3VS9vgoqOKbPdiWzHXck9ZbKvSS81OnomUflFz7yE9fM+xF+Ztr0lnQ6x7tslx4K+u0mPHHdGab8pDizKQ6mzKbg+B/n1m14NxJcRTzaB1sHXwPj5GY1LHnHYfEPh6gqU/JhyYeBlrX6VZobo9oq6LUvFLa+mbbGYVWGq3lY3DqYNyo9pZYbHLVQOhuCPboY0sNQRPN20zdaUuSopoqscgtpYTP9qMSadTDrTazIrPcci7Lb/Ca96YvcCYPtOubEF+gX2lnTy+dlXUQ+Jr+Hdp0ZB8ZSpH2mGo/MRuBLujiEqLmpurA8wQZz3BG6AjcbyywqIO+hKMNyhK+ttrTenlljipVaMnFhjlk42k/F9M2DRpldhsa9u8Q4/ELKfXkZPzAi4jcOohlXxf+AM+ly4X8lx77Qxoxo9oxpZRVYNoJoVoJoxAsUUUUIg7OYNoQwbTzSNkYYJoUwbQkCDaDaEaBquFBZjYAXJPIQ0CwOJrrTQu7BVAuSZzftL2savenRzJT5m9mf22XpGdq+PnEuaaG1NToPE+J8ZmamsuY8PlleeT0Ac30AAHSBejfWw01/7kxUjike8UWqaFLJJO0yTR4kGWxSz7ADRT5eHlI1ao7/aJt4bCD+Fc28TaPXM4ZT9tPtf3Dk36GZuT8ct9wL2T8jnywUJPhEdyJFqHpJpp6QD046GjhD9lRSPaH9QaGzDcePUR9SpkH9Q2HLxPkNzIqXRgwNiNoJaWZyzkuxO5ly2kkiKV2y57O48rU/AjH7x58ifCafEkg78pjBUKgaZgNPSSsNxNqYsO+h+4Tt+U8pmav8du+eN8+jR02uUVtkuPZtsLTVqZbnbaY3iHDjVXONwT7Xl5wziKFSFa4I22ZT1EfQo90gnY7zISlCVSVGi3GcbRmVwpppmHLQjp/PrIlXHOjkKB3bddCL+ol7xOoqgi/mOspHwxepnXmo08QNLec29NLI8Sv3/wx9QoKfBJocRW4uMl+a7A+XhLbD8RemRc5l5/uJSGhbl1kukbi0P+lSlui6Yl5ZbXG3RrVcMARsRcRrSu4JUJQoT9k6eRli00oNtclWSBtBtCNBtGoBnkUUUIg7OYNoQwbTzSNkYYNoQwbQkCDaYbt5xkrbDUzqbF/wBB/Ok2uJqhEZzsqlj6C845ja7VKj1G1Z2J9zLWnhulb8CM0qVEIpbTn+sFkkwpGol2PS00Uim2ACT0J38p52khktBV/tofNfXQiTZBEcWZlPI3nuPfJVWsOgbqL2P7+kLjl/qXH3l+YnmMp56bDwI+YBkPlMJOmOxNLLcjY2I8pGxFOEo1M+HGb7SXQ+htAYmv90RYfRGZJ4EhlW41E9VZ1HWNTSeVaPNfUftDBI6044gI5BuDY+Oxl1huNtkKOtzlIDDS/n1lfXoBtV0P1kVLqRcc4rJghk+yHQzTj0yVWqFjcw+E+yT/AHG3lYD9JHsb5RrfQSbTp2FtNNIxpcJC7fYR+8Ov81HWQqpKG/Lc/vJoS0e2HDra+vL+eEhkKyRwOpeoeqmXbTMcDJSsKZ5Fh6WuB/PCado3E7QE1TBtBtCNBtHoUzyKKKEQdnMG0IYNp5pGyMMGYQwZhIEou1uKFPCVLnVhkHUkzlg+c1P+oXFAagpA6ILnq55e1plaI5nff/iaWmjUf7lLNK5DwIsKL5j/AHfpPVnmDUm6jcuQOssWkLSb6PcQdj4MPnIuIbXyZD7kr+0LiTqV/tPuDImIbXzQ+4sw/WSQExZuVP4Xt7jSDxNTKrfmT5Lf9J5We5YeKhh5jWCxxvYeLj/AyLpHLsdhxd663539wJ4gANgMzc/ATyif6lYjmbD6QqUmVcqD8zdZEUEz3MLWbfpLHhXZ+piEeqEY0kIzlftEfe+GCO8yjW3pvKxaLDmL+YvNhwZ8auEZ8NekiIzbBldlubpnYlS2txbcxeeTjHgLHFN8lXi+yeIUgUl+KPh57rvbNbT8WhB0lC9MqSrKVINirAgg+BB2m5r8XUBqVTHO62osh7qOXKl2S6AZadim/wB7peZ3jaKQtTLZ2ds7XZszZQdzoSAVvl0uTvE48krphzgu0VQWNrUgw68j+8chhFlgWgOHoFe8dzt0HMmSQs8UR15BJ7aSMMVWxYFizhEUEi7kXJYjWwFvO4kbMPGFQ3CkbqatvzFEC+sr6iTjBtDcKTmr6JtfBFMQlTJlOoZd7X+yQfC4I6HSWTSLgXLoGtz8rAjvD3Akpoegk5Yrl7J1sFDK0ugbQbQjQbTQRRPIoooRx2doNoRoNp5pGwwcDXfKrN4KT7C8MZD4obUah/8ATf8AxMNdgs47gL43HBnBZS7MQNyACx+QmhTBYcOgbWmMLWzuBrnSqqM48i2nQTL8KrNQQOjFWIIuN7MLG3pJdPFOKfwrjLkZLW1yu6uwv1ZRNFwk+UyknFdlhUoCiRTdFJQWc21Z2YkAHwC5T5GQ8bU+EzU0AHeJuBsCBfL4XM9qVTUe7G/K58rEnztI3FiPjWW1inLox/eKlif8sW/Jcx5ksE0v0l7IbtZlPUj30kWsbFb8msfpJGIHcv4GRsTqD1s0umcBNSzL0Yqfp+0LXW9WmPAlj6KAP0kbENf/APLe+h+awdTEsrqc1gEJc+IvYL6nSLlKohxjbDLigi5+ZZj8zD0KdbEd53yJ4Dc+nKRMFgy9nqaKNQp5ne7dJYvxJF0UZj8hJirVvol0uj1eHIuwY9Sxv56TR9nGNAfFIVlYkKru1gRmBJS4BOlgSecoKFd3IFtyAANyToABNRwxvhIlQ4RUsil6tQ2vZ84YCxOoIBYC+oEHO0o0dju7LfgHaRCrirhbNmVUpUqXdVQMoOZgALsGGv4ZT8YxNXHZadNwlEFyqOczgowV8xQH7OYWBOt+ekLxPCV/hZWqIMpzhO6SGSoXt8RiL3uxsQAcu28g1nT4jlHepnAdrZ3Q94hxdMoDOipvcDW+0qRgk9y7HuTapmexNE06j02IujFTb3/WMvLDimOp1FRKVIKELHPlCu+YD7Vjtv735yuAlyLbXJXffA7MfGIz1UjwnWcdQKESowVsn2h3181vmA65S1uoE9KCeroQRuIvJFSi0FBtNMueG1w2bK5dScwJAU94ZjcDnc+MmNK3hDEXp/cGZ6Y8M5BdSedj8rSyadoYuMGn7Yerlukn+kDaDaEaDaX0U2eRRRQiDtBgmhGg2nmUbLGNI2Mp56bp+JGX3BEktIfEq/w6T1PwozewMZHsB9M4vks2XkunqIS08GtydySTHATXj0jOfYWmLStxWlVT43HyllbaV3FBax8CD84UjkPIupEhJqAPNfcafSTCdR1H6SE7WJ9G9t/leQzkRstzlJ1yuB1Isw/WQxVIq6LmIVdOVzrc+8JjnswINrODf0N5I4YrDM+XvMb6jYchE/aW1DVxGxnwq1T7Wg8BJVDC/D+6SZLs41ZgogXxiLsWc+wljbFcgXYanRdiGY5bG4tyI1B6SwxHF61Rw/xWBBYgrZbZsoYC218olK2Kd9+6vgP5rPc9untBajLlnK0XNTiVMf8Ah4ZL3BDOxqG41G/XW1+Z8ZGfidXLkDZVu3dUADVix67mVvx4g94OyKJcmwgnoMGDHKZzZwYfzeOEEp/mn6xwe3OCSghnl4wuJ58TpBbJRc8IJu3hbb9ZYtK7hJ7u25PsB+5EsWjsP1Fz7BtBtCNBtLCFM8iiihEHZ2g2iinmkbLGNKvtD/5St/7T/wCJiijI9oCXTORLCLv7RRTXRnhW39JW8V2PlFFOkQjw7J6SFid//i30MUU59ErsrcduPzL+s0mHiii8f2GS+qKzH7mRKEUUOQC6J42E8xWwiik+DiKP1hEnsUEkeI5YopDOHRsUUgkUUUUFkl/w77K+Tf505YNFFHYemLmDaDaKKWEKZ5FFFCIP/9k=</t>
         </is>
       </c>
     </row>
@@ -4044,25 +4060,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shivam Dubey</t>
+          <t>Mohammad Nabi</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_027</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -4077,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4104,55 +4120,55 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="W29" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE29" t="n">
         <v>14</v>
       </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>18</v>
-      </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -4161,7 +4177,7 @@
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhAQEBAQDxAPEBAPEA8PFQ8PDxAVFRUWFhURFhUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICArLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLf/AABEIALEBHAMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAABAgADBAUGBwj/xAA/EAACAQIDBQQIBAQEBwAAAAABAgADEQQSIQUiMUFRE2FxgQYyQpGhscHwI1Ji0QcUguEzcpLCJENTZKKy8f/EABoBAQADAQEBAAAAAAAAAAAAAAABBAUCAwb/xAAzEQACAQIFAgMIAgAHAAAAAAAAAQIDEQQSITFBUXFhgfAFEzKRobHB0SLhFCMzNEJDYv/aAAwDAQACEQMRAD8A9iZIJJ7niSSC8maAGQGV3hBgWLQYbysGMDIISLBJeKIRAY0l4JIIJBDBAAxgkM8H/En0gNNf5SkSKlQBqrA2ypf1bjmfl4w2Slc9JtT0mweGv2ldMynKaaEPUB53UcLd857+n2ByZs1S5a2TIc+h49Lec+PM17m/HXxhqEixtqDwnNz0yo+47J29hsV/g1QzfkN1f/SdZ05+e6eLZGV0ZkdTcEXB8iPvWfZ/Q3a7YvDK7/4iE03P5iALN5ggyUyGrHcvAYYJ0ciySSQCQGQyQCSQSQCSSSQCQSRTAGvBeLITIASYl5CYl4B0LwExSYpMkBvFJgJiFpALM0gMrzSBoJLlaWLKFMsUwQXCERQY0HI0EkkAhgvCYpgEM+OfxDw5THVr8KipUF+YygfNTPsU+cfxBwOfH4QsMyVaJp2GlijMxv5MD5Gczdkdw+I8Kuxa9SzLSfJpvW01Nh851qPoliyoyoHHcbkT65sLAU+yC5BlKgW04TfQ2fTpagkD9Tbo+kpurJmgqEeT4DjtlVqJIqU2Ud46z6L/AArH/D1z/wBxYDpZF/eb/SvC0sSrqjozZWCshVje19O6Y/4Y0Gp4Zsyle2qNVXoQLU+HLVSfMT3pzvuVqtKyvHY9iYIxglgriySSQAQRoIAJIYIBICZIhMAaIWiloheAWQEysvAakgDkwXil4naSQdFjFJkaIwkABMRmgIiGANmhUyq0ZYBoQy1TM6S5YBeDLBKllggMaS8gkg5JFMMEAE8z6RYJWrUnNr5w4Ot/UNIqPG4PlPTzDtLC9ojD2gCUPfa4+IHunFSGaNke1GeSRxsP6PYjNmDkIuYgoSGOgyG99db3FteonQr7PNanRV969w2YkgkH9tI+zdtUzSJZ8qqt2JvoJXS2rur6gRalw2gYi/DKW0P3aUJXv2NCNmhqfo6MOjM9Q1NNL268dB008pn9H6JVQbBVyJlAvpcXv4niZbtrbaGgWRsysNOXdNeCp5adMcLIl7dbCWKMLvMV61Syy9S+SG0EtlMEkMWAGCCGSASGSQwBYjRzKmkAQmITC0RpAAYhMJiEwA3kvFvJeSgdYxXjHjFcSAUsZWxlpErYQBM0cRLR1gFiy5JSplqGAXrLQZSssEAaG8EkHJILyGSSA3i3lGJx1NL5m1AuVGp9wnBq7TrVCf8AlobjIAM1teLfm04C3nO8mVZpuyel36+uwjebcaau0r2X5Obi8SuHruy2eg1Ug21VT7SnuvfwtO3Rr4ewy1CKdj+HuWtxIva9u68xYDAIQytwJJ06nU/OSn6OURfRbX4HNb3A2Mo4mHu6jjJW381ffzL+GqZ6anCXC8tNjnbQrHFViqD8GmdWGgNh6onscNVVkVlIKkCxHunJrUKdFMq2F79BfumbB12oaX0Y3sdVF9b25cbSxhKcqkZS2S5e1+hXxU1BxjvJ30W9rPU9FJMlDHgkK1lJFwQbq1uIv1mqe86coO0ivCpGavEkhhvBODsEkkkgAkMMDQBZW8djK2MAraVtHMRjIApimSAyQLJDAYQZ2DxiuI0LQChpU0uaVNAKzCJDAJALFlyyhTLFMA0LLBKFaWK0AuvIIt5ViK+UaWueAPzncIuTsuTmclGLk+CyrVVRcm3TqZhxOMJ0W6395memSzXYlj38u4DlLmFgT1sgPjzmiqFPDwdSpq0rmaq1TE1FSp6Znb+zj11IBAGpuxbvuQNfKB1IG7xC28dwn5mX1BdrDWxUm1zwuPmIFJB1U8teXqqPrPnatWpiJ55vy6dj66lTpYamoUl3fL7goVSvFdAT3EagDXylmPrWVCGIvVpo6nR8rGzWI15X8jDcHUc73B8WP0ldXXKDwVi19DwA08bn4TWw1SThKE3dJO1zExdKKqxqU1ZuWttN07jbQIYKb5gGvbhe3szFVUsTfw+Jlz1hyuTrqeAvcE+OkfCYV6gIRXdri4VS2h1uTy1E971K3xbLyR5P3OHu47vrq/qYqlwt7m6i+nIg8fvvnYwWJawIIZSLgdPP74zHUolGIcMljazgg2PcZZhdzQG62uo1JAA0/aaEaMPdZd0ZVavN1HJaM6lPFAmzbpPDoZonKrAcOYGvjL8HiySUbiACDoL35Hv4SjicIorPDbp+i3hcZmeSe/BukgMAMzzQGimAmITAI0QmExGMgCExGMLGITAITFkJgkgEkkEBnXJ1kJiM0VnkAJMrMhaVloBDADATBeAWAxgZVeMGgFwaWB5nDRw0kGgVOvKcrahYVkJ0GRsvQqRvEeBHwMOPxdtwak7xA6dPP6TFiXZlU30QDIRYWA4A/lP6uB52mjgKX/Zfqu3r9Gbjqr+C3R9/X7L0rd/Hd8CRdfiLS8Vgy2H/AFCfLj/unBrYjmpG8pGQHKHtru/lYHW3I9eEybB26r1KiE6hy4B0a2gOnIg6eYnr7SX+Q11t9yfZMX/iVLon9merw1I1GRbgFmVQToBcsL93HjOnitkLRZhVrqoB3UX8WqwutjYWA4cyOM5VF7j76E/WWkfMfMftMOnTubtao7leIRD6ilR+Zjdjp3WA4ytcODfMQ3d43jFT4aDy0HD95KJPEWsToDfh1+c08Ph29eDKxWKUVbkp7AdBxPAWnWwlOlmwwqVOzoEVLi7IHrXsFc9LZff4zAOfjwltGqRcaENxVgrK3S4OnfLmIo+8p5I6GfQr5KmeWpoxYpj+YpoxqUqBpmm7HPlLjfpKx4rpw7py0cA6cSdTN2LrMwAa2UXIVQFUeQnntr48UlZrgWFhcgXJ0AnWFpulTtJnOIn72peK3OhXxCU1LPvEDdTqT16kmY61QksL/iMFLMN0U90G46W+k85srta1RmY5gDmu5svcCeQ62neQCx1zD1nqc6hJ0Nh7N+A5+V5ajbc8ZQyux6XC186K3Ua3435x804uCxZp3zA5SbNzyePfwv8AYnWzT5/EQUKsoLj86m5Qk50oyfP4GJgJiFopM8T1HJiMYpMQmAEmITATFZpICTBeAmJeAPeLeC8F4DOwxikxSYt5ACTEJkJikwCGLJAYAYbxbyXgFl5XWrBFZzwUEn9pLzlbarE5KQ52dvAHQe+/unM55ItnpThnkoi4BizF3Fy5uRwt3Caq9MjVDfwIDD6H4d9+Eoo6CZMfiwoJvr3SlhsbWoSvDZ7rgvYjA0cRG01a2z5RixPaV3OHp0x2jDN2h3Ozt7bgCx6XFibjTp08V6PYfDpTamm+rb1U3LtmFmJPIEgacNZr2FgzSUs/+LVsz/pHJPL53mzaOtNh4H4ibSxM60451ZdDFdGNCEsj8xPRGojYijTqC6sxXK3O4NuHfaeyp4uimI7J8Ph0QsaYOS7Br7tz36cuc+Z0FqGqmTdKupGX1iwItafRW2jRqVTU/lazVKYQsrNTVQR6rWBNzp8JXUErqXTt63NT3lJNuavdaW67kxGDoh8Rmpqfx0RQzmiihwSTccOEz09m0Dn1ZBh6lQVQx3mp3OSw63GXzmfEbSrPUqVEpUjTrVKOlUB8rDdBGo11jYlMUorNluahVnbS90YOLdNRLavD+LmlsviW+iehiP8Anrkb8uNbfMrwezFq5GzFO1rtRA0ayrTLk+NhKsHs81KYqBlVS1Rd64O4uYnz4TRV2vUJSr2S5KbNUYICocuuVyTrY2PGY6+0abdjTRHp0abMTdg1Q5iMxva1wAAJYXvm9Pw7Wv8AXaxXapJX/avtr23uZdu4V8OBmy63XdZWswsSptwYAjTvnG2fs2liS4r01qoqiwYXsT7Q77A++dL0sxNOp2RpP21RAweqV7POL7ikc2C6ExNgKAHIFgcv1nVSUnhm5b/Lk6pRjHEJR9aHk9rbLqYFkszVMMbIjtYlD+R9LeBt8Z6DAIXAJOQcdDdzfiR0NtL6nw4Ts4uilVGpuAyOMrKeYnlEpvhKnZOxZDrSqH216H9Q5+/nMytj68KdoW78r8GpRwVCrUvP5cHocVSUoFUWCjQCUbMxBF6TezqneOY8pKeMBGpmfFKVtUXiNR+0x6dVqeZ873NipRjKnlWltjsEystK6dUMAw4MAR5yFpqGSNeKxgvATIALxSYLwQQEmS8kBMkkF4LwQXkEHXMUmQwQCRDGvAYApgMJikwSSSGS8AM4tPfrVG/K2Uf06fSdmcChUKYiqp4M5Pv1+REr4r4S1hPjfYXbWINIXEGw9nu5WvWFgLNTpniejkcu4TVtjDiohnSwlUOisOajyPAj3zxw0YvXk9sXOSVlsy8GVY4/ht5fOWyjGnd8xNShrVj3RkYh2pS7M5ez2btUJ5ODp3ET3aVFWpWf8q076ceJPznz2lWs9xcWY28Lzt0trVWNQkizLZrDjoQPnPbEezXWy2tazT8U5Rf2T+hxHHqnKV7+HdRkuvVryPT1KShly+q1ZXHC2tj+801Wf+YAF8lt78t/u08lszaNXKBfRXutxci1/wB51K22K1rXGo4gazwl7Lr2cbxk2pq7/wDT32eqSXnrc7XtCi7PVWyuy8ON9my/FD8F1XXPWKgdSGt9Jpw+EREFAgM2Ribi+vP5/ETiYXapppTzKHCOW1Njdrm5982UfSA9rdwBTN7aXYdBf3yMTgsVllGmrpNy3s27JR8fFrxJo4vDuSlJ2bSjtole7/VzyuOp5XIOhF7/ACJnT2Poht3fK/1mPbbqarspupNxxB4AnQ995q2XUup0seY5i40E18XK9Btre37MzCpKukntf+jaWmTH4VKyFHFxxBHrKeTA8jLi0QmYlrmynyeRq4etRrLSJzKwzI4FgV4ajkZ6SsLU9eQmcntK1+Ip7g8faP08o213ypl5mZdbLnsjWo5sn8hdj1b0h3Fh8b/WbbzDsmnlpD9V28joPgAZsM0oXyq5mVLZ3Ya8BggM6OAExbyGCAG8EBMEAkEhMWCDryQQwAQQwNBIpgMMUwAyQSQAzj7Uo2qo49sWPS68PgfhOvMu0aRamSPWQh17yOXmLicVY5oNHrRnkmmIu8tj0ibEa3aU/wArZh4N/cfGW4Zg4DjgZnwu5iQOVRGXzG8PkZRw8rTRfxKvTfgdi0z47RTNeWc3bNS2Vf6viBNrCrNWj62MLFO1GXjp89DlGlw+xNV8tM9W+/3lY1IEtqasqjgPpN5IxW7mrCLYIPOaHN7yukN7/KJdUWwM5e4WxlC3Vh7pTmuFPkT0/vL0YAX75mfQsPME8P8A7OluQJXF266cenjLNmvao6cjTRx5EqfpAx1v+kW95/vEwSk1WfgqUwniWYG3lb/ylXEawkvA9MPK1aPrc6pMqxFXKrN+VSfcI15k2m11Cc6jAeQ1P7ecwZuybPoYRzSSDshLKDxY6nx5yrai52C82IHgOZ915uwyhVv0ExYVu0Zqp4AlE+p+FvIzOpQzzsalWahC6NQFtOkBhMQzTZlBvATFJkvIBCYICYt4ATIYskEEMUwmJAOzCDFBhgBMBkimCSGKZLxTACDJFhvAGkWKI6wDl4a1Gs1I6I+/T8D7Pkbx9r7mSqBrSYNYcwOI8xcSzbOFLoHX16Rzr1I9offSYK+PFanZELEqATewB7pn1l7udzWwqdaFlxuempsGAYG4YAgjmDqDPP7bc9obAlbBdLnLbXl3yz0MxzVKTUmADYZ+z43uhF0PzX+mHbOzCXZ0YXO8aRGtxwYNfd902cHiKdOWebtpuYOLw85rJBXszHg6lgzE9Avfx982YGmdXbnwnNoYlqbZcRRcX3lakMyWPO3H4TXX21TA0Wq9vZSnUv8AECbiknG62MeVOalZrU6NEcT1MtrHh4GcCpt8EbtGre3qlbMPLn5SnDbadW/GDlG1U5Tu/ptaLX1OfdytsdTEtYAd5gGoBNrrcG+vEf34zl/zjNULAVGp7uWyP/q4fekpcVSSVV1zFTc7pBHMjmOGkiUnayRDgzq1n16m2luB+7mW4QDRe8ue8i1r/fTvhwODVaaVq7BVdsiopBqHKcpUdNQdenSU02DVKnZo2HyEKFfK+a+uh1uSRfQ+MycTi0k7J22vbS5oYT2fNyjKTSe9nu11OoJw6u0qZr7zaDcQgEjjZmJHC7Aj+mXYytWytTFlZgRnUEMtxxAOl++ebqYM0SA1Oq9JVUO9JQ7DkbLf/wBiP3y5VITWW5tqnUpPM1+T1W0q5YJRpneqe0NQF5t7psp0gihV0CgACee9B6oq0nqEsWFRqYLXIVBYhQba8fgJ6YyaFNQV+pzXqub8F9ypohljSpp7niAwAwExLyAEwXikySCBrwXgkvBJJJCYLySDrRgZXCDIA94rSXgJgkBimSAwAyRbyXgDiOplYjKYBepnK/k1oK1Jd1GJZSdW14i/d8rTpoYMTQzqALBgbgnUeE8q1PPHTc9aNVweuz3PNYTC5Xd6bNTuLMQSC3cep4y2jhqbMoqNVQNvJUGZVJ6Fhx56HjOkuCqLcEJ2ZJJylmYX0uAV1tCpNINSKtVp2UjNZu0FgSynkc19OXK08aNCrOeXne17Py4LNWvTjHNxte10u/PyExlKoGU1GZlC5aTEWS17kA9fHpKuyH9xcy2s67tNDVagu+i1SLq5BuOtgDYEyoBeRKnpwn12BUo0IqSt2VvmuH1R8zjXF1nld/r9eV0YOzHfD3awM3eT4wFvr9JcRVCR3mNbvMQ1bdJXnL6a26DS/iYBrwuEU3rVRaih3n6noDzgrs7kVVy0sPfdBXeqHgoBvpc93SDD1k9SqlSpRTMyU1ZQnaHqG5dYzL24DVju02BFJT63HLTXuBAJPdPnvaGHq1JSlNaLbe3gormT/wCUuDcwdalCEVDd77ebb4iuFzuPXKtS7RtwgbgGha/2ZVTpqwCjW4/EYXA/yg8/KWimL5jq3L9I5KOktvMiGFtrL5fs0KmKb0j8xcNh0pKtOmqoiiyqosBGYyXisZbKgrGVMY7GVMYYEJkJikwXnJJIYLwXgDSQAwEwAmLCTEkg7JkkkkEBimSSCQRTJJABCJJIARGWSSAWrLRDJJ5A05lf/c/zhkln2f8A7iHd/Yr4r/Ql2X3Mr8fOU15JJ9J07IxFz3IITx8j9IJJ0iSp+Uuw/OSScsngieqPE/My6h6w/wApkkkS2frkip8ProaTCJJJ8pyz6COyAIpkkgkraUtJJIYEMWSSCQSCSSQBopkkgEkkkkg//9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYWFhUZGRgaGBwdHBwaHBweGh4cGSEaHBwcHhocIS4lIR4rIxkYJzgmKy8xNTU1GiU7QDs0Py40NTEBDAwMEA8QHxISHjQnJCs0NDE0NDo1NDQ0NjQ0NTY0NDUxNDQ2NDQ7NDQ0NDQ0NDQ0NDQ0NDQ0NzQ0NDY0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABHEAACAQIDBAYFCQcCBAcAAAABAgADEQQSIQUxQVEGImFxgZETMqGxwQcjM0JSYnLR8BRzgpKisvHS4RY0NcIVU3SDo7O0/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAUBBv/EADMRAAIBAwIEBAMHBQEAAAAAAAABAgMRIQQxEkFRcQUTMoEiM2EUNJGhsdHhNUNygvAj/9oADAMBAAIRAxEAPwD2aIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiVm3NtUcJSNWswVRuHFjyUcTAJ1SoFBZiABqSTYAdpM0XpF8qGFw5KUgcQ4+xYUwe1zv8AZ5Z0x6ZVsc7ZmKUQepSB0Ftxe3rMe3QcJrgTSRbJKJt+1PlL2hWJy1ForwFNdQO1nuSe3SUD7fxbG5xeIJ5+lf85CCD4zuKYINhqPhPLntjYdn9Oto0tVxDuOVQBx5kX9s2zZPyvVdBiMMrfepEr7GJHtnmRLZrC9rAeJmapQe27Tl8Y4rcz3hb5Hvmwen2DxLBFdqdQ6Baoy3PIMCVJ7L3m2T5Ozkm27sm+dDvlErYfLTrsatEaa+ug+63EDkfCepkXE92iQdmbSpYimKlF1dTxU7jxBHAjkZOkiIiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBTdJ9uJg8M9d9cuiruLOdFUd59l588dJ+kVbGVPSVmufqIt8iDko+O8zcflr25nxFPCqerSAZ/wAbjTyQ/wBc83pUy7BefukZMlFXwiRs3ANVN9yjjzMuv/AiR1TLbZmCyoq20Eu6GG3TDOs28HShQio5NNOwKg1C37Z3o7AqFvVsfZpPQaWG3SalADcBI+cz3yImpYHoxazEDuk8bCUcjwt7/wBdk2B6cy08LeQc5MtUIo0nHdFkdTY2bhYaTSMZRelUKOLH2ab/AD3z218LaaZ052TmVXUajf2jgZbRqtSs9imtRTjdbmv9D+lL4LEI4JNJyFqLfQqSLsB9pd48RPo2k4YAg3BAIPMHUGfKTJpu4z3n5JdpGrgFVmLNSdqdzvyjrKPBWA8JuRzZI3iIiSIiIiAIiIAiIgCIiAIiIAiIgCIiAIiIB8wdLcV6bH4mpzqsB3U+r/2zHsKl87rw+MgVm67njnck97G/slt0ePzp7QPMb/bKavpZfQ9aN1wqS3wtIcZV4KT0BM5x1C0pkcJkJkXD0WMmGgQJ7YHVXF5MoMOUjU6BMmU6BtCTPG0H1lVtmgrUnuPqmW1rSHi0zKRPQeN1UtnFr9aw1/XZPS/kRY5MWOHpEPiVIP8AaJouPwuWuVOgzb+W++nhN6+RdMoxg+9T38rPadGDukcqorNnqUREsKhERAEREAREQBERAEREAREQBERAERODAPlTH0DTq1EYHMtR1I7iRLTozQOcvwC28TaZ/lAVP2/EOjB1dg4K6jVRmF/xAiZ+julIkDiZnrS+HBqoR+LPIvDjUpgZjqdwG+ZE6SUk0bSQgtOmueogZjv033kDaGMpEXOFUqQpuqC/XbKpuSDqdBpKIRT5XNU5NZvY3/ZW3aFQDI6E8ri/lL5QCLzxg0lpuhCEZtQCCpAubaXtw8Jv+wtotazE93wkZpRZKPFJGx1ayJqxAlHjOnmFQ5Vzs1/skDzO+WG00TKXYXsDpNAxSVLPWCKgDDS4S2a9sznW5t7hvM9g10PJRbV2zaKfSWpV1SiwXmVN+/ulkmILAEjKT5HuPPsmt9HMfXq0TUIZQqq2ZXD3VywUlG13o1wGzbtJtWGJqJrbNzG6/jE1bDQg7q6ZofS7D5KqOPraHtIP5E+U275IcMFp4htbl1BPPKp08M01/p0tkRuTgHx3e6XHQSrXw9NbsDTqOpC2F+tYXB36gXl1KolFXM9ak5Sdulz0+JwJzNRiEREAREQBERAEREAREQBERAEREA4lftvDs9CqikhmUgEb/wBcJYRPGro9Ts7nz1tTZgfDlxvppft00bvGkdGj80vaT75tPSPCCk2Ip2tmZrcrOAf+4zU+jT9RByJB85hd+FxfJnUw5qS5ova2Gz3B8pH2ngEqKmcOWQWB4gDUC/G3bLmgnLfMj0ddZXGTRY4p7mtJhajsCTZVUIB90bhpumw7FTKbdk61xYSVsmndi1uQnkm3uSiki7xlLOmnKa+cHVBYOzMrCzAm9wN2h08ZstNraGZ2p8Dvnsb8jx22ZU4DCIlPIlO2t9ee6/fJyHKJlShqZlajprDuyN0jUOl9HNh6vYuYfwm/wmw7Jw1kwi6EFaev4VuT7ZSdMHyUHNt628z+UuuhbOy0VcHqLYXFrhVy38biTgr2X1IVHa7XJG8CcxE6ByhERAEREAREQBERAEREAREQBERAEREA0X5QNnZsj20bqtbeCLlT5Zh5TzTZmGanUdGt69xY30Ovxnt3STBmrQdQLsNVHaP9rzx7aaZKqnUEi5B0PEbvKY6sWpP6m+hO8V1Re4Yyz9B1b8ZS4Otul6K6qhbsmc13KLEIwZmbUDhJOwtpsFKumS7dXUG/iPdKrHYpnJCjS8y4OgwAIIJB7yO20lYjdvZG21MaxcI1FwpAy1BlKX5EA3B8JLqOQRyIHnKnCFzTBN7i/wDmTaOMzDK48Z610G25Z0tZzUMw0Klor1rQtiL3Nf27hFrstJycpYE232HCbXsOgFfS9glhx5cZr2BotVxSgWsAWN9wA0v39ZZu+Ewopiw1PEyyjBuSfJFFeolFx5slxETaYBERAEREAREQBERAEREAREQBERAEREA4mifKjg1NGlVt1kfLfjZxuPiom9zWvlAw+fA1ea5XH8LC/sJkJq8WTpu0keYYerYCXznPSFvGarRqXEvsPivm7TA0dOLwU20KpDooHUJsSD6vaRxlvhcPhjr6WuhUDrZQwY63IUC4G7fID0s2o3yVhsTZQrU92l7c5NPBYkurRbO1JOtSxTs1ho1Nt5NrcOEx4XbTs7K1I2U2z2ADAnQ23jxEkYB0KlQmvMi3tMlNSRVyi2vvhyVjxpdWyxpNpcTDVO/9aRh3stuUj4irYHxkSDJvRQ3xT9lM/wBy/lN1mj9CNa1Ruaf9w/3m8TZR9Jz6/rOYiJaUiIiAIiIAiIgCIiAIiIAiIgCIiAIiIBxKXpcwGCxF/wDyyPPQe+XU8z+VbbDq1DDq1lYhqluPWAQd1wT5TzhbTt0PYu0l3NAQlTbgd35SUlbhODTDDWRHBQ67uBmJZOg8FnRqNw3/AAlhQWq2uYjwlThcWNL7x5y9w+OUISbXtPHFk4zRIw4cDUk+ElLm0mPCYxCL6dnj+hMlTFqLW1PCeKJ65Epqlha8h1XLnIDpx7pHeqzEAC5Pl3ydhqGQHiTvPbPXgisl30SKrWZbi5TQc7EXt5iblPF+k20XwzYauhsUrgHtVla6nsIE9b2VtBMRSWqh6rDyPEHtBmuiv/NMxajFSxOiIlhSIiIAiIgCIiAIiIAiIgCIiAIiIBxEg7R2pRoLmrVVQfeIBPcN58J55t35VlUlMLSLn7b6DvCj4kd0lGEpbIi5JHplaqqi7MFA4kgDzM8K6d7QGIxdZ0YMqlVUjcQgG7sLZpVYvbGIxL5sRUZ+IB9UdyiwHgJjtrN1HTWu5c1YpnU6FlhnDKGG4i4marRBG6VmzKmV3pHceuncd487zYKNKcOtB0puL5HapyVSCfUoamEsdPb+clUKT2tYnxlzWwJI0Ej0UZGGmnd+chxkuBGPDbPc7gQO1tPZLTD7NYeswH4d/mZa4cArff4WmZafZ8Z5xnvCjBh6AUWAEy5uU7BDymdKI0Mg5ElE0/p6g/Z05mslvANf2Xlt8n23vQHJUa1N7ancrbge47j4Sg+ULFBqlCiOBLnyIHvMw4BbIJ2/DaSnSalzOTr58NRNcj3tGBAINwdbid541g+kWIwgDIxZB6yN1lA5jiPCbxsPp1hq9ldhSc8HIyk9j7vA2irpZ0/qimNWMjbonVTfdO0zloiIgCIiAIiIAiJwTAETVdudO8Jh7qH9K4+rSs1j95r5R537JoG2/lAxVe6oRQQ8F+kI7XO7wA75bCjOeyIuaR6ltjpDh8MPnagB4IOs57lGvidJ55t75Rar3WgPRLz9aofHcvhfvmilt5LEk6nXUnmTvvMVSvwUWm2GljHMslEqknsdsfi3qMWdmZjvLMWbxJJlZUfQ2G72yVayM54D/AmLDJ6t+LA+WvwlrjyPFgl0UI3cAB5TNmnQJpcHwnKm5liVit5Ou0kIyVF3qbHuOo93tm07FxgqKDxlI9PMjLzHtG6Y9lVGRxynI8UpWkpdV+h1fD5uzXQ9CoLcWnZ8IDvEw7KrZgJdLSvOGzqkahhwOEkBAJz6MicqsXPDgJ2TpiXCIWPASYqTXelNUimQDJI8bPNsfiDWxbOe23cNPjL3DDSU2EwhzsxNgouTa+lxuHEyWu3qCEq3pgeJyKR5B7z6fw9qFG7OBrE5VGkXOS4sd3Ka9Ww5puU1sdQeY5HmRp7Jd4HatCoQErLfcFfqN/V1T4GddvYeyFzvQg2Oltcp05WY+U3cUZK6ZkipRdmZtgdKcRhrBWLpxRrsPAE3XwPhN+2b8omGewqBqZ4m2ZfMajxE8eZ8u+FxObePz85nqaenLuWxnJH0Vg9o0qovTqK4+6wMlz5upYplOZWKkbiCQQewix9s2PZfT7F0/r+kQb84zD+a4b2mY56Rr0u5cqq5nt0TQdk/KXQewq02Qn6w6y/6h5Gbls/aVKuoek4cHlvHeN43HfM0oSjuixNPYmxESJ6UvSDpFQwaZ6zWJ9VRq7HkB8d08o290vxGMDWPo6GYLlQ7y24M2hc9g0lNtHGPjK74isbA6235E3Iig8TbQcTcmYDWzsgAyqpGReAuR5k8TNNOOcK9t3y9hOPClxbvZfuYKyFSVsVsSDuvobcN0xZDx85abRpgVagA+uxA59ZgR3giRWXiBpN9FqcFLqZ6seCbj0I5pHvmIiSiLW5HcfhAQGWOJVxELHA/NpwN2PuHxkrDUCXGmioSe9tB7L+cy18Nesij7C28S0k4PDs4dkRmBZgLA2sDkX2IT4zzh+LJ63giMgFrGZKCXI/yfASQuEBYK7qGIvlUhnsOJA0UdpPhIdbFvm9HSXIu4vvdv4vqjsE97IjYn1ai09Kjoh+yxJc/wJcjxkzC0UfVWVvwn9HwM1jCbMAdmbWzWOa50YAq3PjLqjgRcMAVbTUaeMzaig9RHhm7W2sX0a/kSvHN9zcMACnDyl1QxQtvmubLxvB+zWWeJQLrfQ8bz57UaWdF2e3JncoaiFaN1v0LVsYtjMRx6jUnwG+VCVtd47pzVtx0maxdgl4jarG9hYTXsbimqNkGvMncJ3xWLLHKm4DrN7wIwVKwBUEsTZABc3GrMRyA117J2NF4dxLzKu3JdTl6vXKPwU9+vQwVaCL1QOqmrnm2/XTW3LmZq1fDhmF19dST4m82zaCZUdRcKo1zEFmc8yNNL37+6V2Jwtsh5KJ3oqKjZLByOJt3bNUTCAMVI8PfL/FO64aoli65DlDHVPvK2psNDl3acJxtPCZSHA7/AIyxogFFO8bu8f4MjwrKR65PDNeqjPTVx3H9ecxYNM11k/C4PJUq4c+qwzJ3bx+X8JnTZmFP7Qi9rA+AJ+Ehm6fsTvhmLD4bNdn0Qf1HlMjXfkqDhwsOMssclzkXRR+ryLhqQcsTpTp6seZH++gHPuk2rYIp3yc4KgHqUwbqgemTzN3UAH26SyfaValiajqxQ52uAdBYmwHL3cwZj2emtMkWL1kJHIZlAXwFp22r9NVPOo/tYzHSaq1HdYyl2R0NVT8iMUt7Jvuy/wD+PsR9r+hP9UTVMh/QES/7HT6GP7TIg4ltQgNwpJJH1n3M3d9Udg7Z2w5CspYdW4J56G8xU07NZPpU7jWIUlGHCjydSUpuT3Mm16RFSoQbkOzqftI9n9x9kgmqFIJ9R9D91vyO+3fLvGYf5vDPwKFDbgabEKfAHxGnKQMRgtGRtA2nYp+qw7AfZeVaaVlwc1f8jTqYuaVVLGE+51/ZwbqfVbjyPAjzB7iOc64fD65Toymx8Jk2IxZSjDro2RvbkPnmXxBltVwvzlJrakMCeeUrY+R9s2JpmCWCtxVIrUd/sYdSPxMWVfbaQ8NgMxwyWv8ANFj3Z2tfxmx7UojOBb1iAfwUENRj/NVQeBnOysNkWpWcfRUUTxRc7/1vl8JXxK5K+CqwWGGfEVLaKMi/rvnWjgLOmnP3SywlSlTwyK7jOzF3FiTcnkB3SK20xmuiXsLXbt7AZVPWUoLLRfHSVpvEWu50x2HCMlS2hIRvwt6p8D7CZIGIS2QXdxopzAKBx375W7RxdR0YEgC19AOGvfMeApmooYHrWvft4zDV8QT+X+Z7LSygviLzDG8v2uoXS6W63Mfe/OVWytns6dSmwcb7kBdN5zNYWlmmMCkg7gB7h/vNNOUNVScZe/8ABVGc6M1JYKnHuqNc2ym4vpv0t+u2V37U76A9T2+B5STtbBq7h1DKl+sv1WPA24fGYaNO7ACU6bw1RnxTzbb+TXX17lG0cX3Mq2VeQtMaY9hrZbEZUUk7hqWIG+x18hJNakhJD1VTLqbqxFrXtdQbHdv5iRnwDu75Sj5UFgjhmsddF9bTjpJ62vOLUY3SXMx06blncxYraaeiAZSpLX01uPzljdKgUob6buI7COE1jafLdb9bpirDrX4yinrpr1ZL3p01jBtlTCZkII3e4yDgKRGelxAzJ221A948Zr9PG1EYMrtpzYkdxBNiJK/4ns6O9KxU70O8ciG995qhrIy3wQlp5LbJebUwoKU8Qu+nZj2obZ/Ia92aS8Hs0CsX+65Hkov/AFyfsLHUcRn9GDlFiUcAEB73GhIK3DecmUcLkS2p9GjoOZVShXxy5Zepp2a2ZQ01hml49StMsPWc5V8TYeNhecPRCqlFfUpkZz9p+A7Qvv7pYV6RZxl1NNsics9tXPMDVv8A2zzmGnTXOQvqUxa/2mO8ntka9Xy6Tnz2Xc3eH0PPrxhy3fZGTCrmxFBOToT4HN7lkPFEM7tfe7HzJ1k/YRJrPUO6nTd/EDKo82Ehmnew/wA90ho6fC88kvxeWS8SreZVcltfHZYImft9k5kz0HaYnQObcqaSAH3ywSiRrv5zFTThp/tJmHIBs28DTtEpR62WDAPhAR9SvbwdPzEjtTDKDa+lj3cZnwb2TEIPsB8vEqjC7gdgOsUlsByOonM1F4JyjupX9mdzwy1SToy2lH81sUiUitdTewcGmx+8ozI/eVG/mpm1sodKbgcrjkxsD4AgDwlLtqnkRao9UsoJ5MGBHtuP4zNm2cBkYcA4cdzWJH82ab+NOKktmcatBwm4PdNr8CDtej1yOa5L9lR6j1P/AIqVvKUe1sa4orSUgZ3UPYC5Yn0huT22l3tzE2qU6ABLtSXNb7VYqPMJTbT78pcFVBq0GBJbNWqsCoIAzFEGu82B4cJy68qlSap0n3Ozo4UaFB1q6TvsnzsQ8TQLPZQWI0AUEnyEkU9jVMt2CJ+8dFPkTf2STjNoVixDOwB4LZV8QgExpsus1ytF91ycra+z2yMPCn/cml2Pa3i/H6IHT9gQaNiE5dQO/tygTBsjFegzLSZWYMeuU1UC2UKH8TunJUW3dluN5CUZKpv9a02w8NpQabbf0exzamsnO+EuxseI2yKlnqO+ZR1Te4vx6u6ZExefrWvb1lGhUaagfWEqP2QtrbXlJtLDkML3Ww38Qd1pvjCMVaKsY5O+WybiHDISCCLXFuzWRsIMil97HRAefM9gmM1QrWbqt2WCN/pM6VXfMAGAci2h6qJzvztc+3lPdjyxGdizsm8U+s5+2511PEC3mZGwDMM77iWvcbwRu1memFGHzjT0jll55RoundadKaWWx323SO5LY5q7SrsD843ZfU+ZF5lbHF8uenTqGwu1RSX00tmUgnxkRlsCATb3TJlGVCO4dsrempPeKLFWmtmzs1HDt61AqedOow/pcNaRcb0dpuH9HWyG1wlRSdf3ii1u0gdvOXuB2QWUu7Ki6XLHgSV0HYRqCQdxmc4FMgIcXDsuYk5WUC6WFtcxBG8cBreZp6Wg/Tddi6NeqvVb3NMweIxGCcMrqCyA3Wzoyk2KkkWJU2JA3eM3nYfSRsSHR0VXGQXW+RsxOtiSQbqARcjUSu2nhfQLTYlXo5yWVrFcjn0bXXcPWvf7vZMOC2d+zAv6ZXGcJaxWoClRH1U3B6qPqDM/BOnJJO6f/ZJycZxbtZkmpWCUyw3lSE5/OMzk95BQeExJQyoqfWOrd5/RmOmmZ1U6qi0796U6Yt/MTLPDUSxZu2w/XlPa782rCnyWWdLRL7NpKmoe7wv0OMPSyYZ2HrVHVB+FBnY+dhK6wKk2so3lvhzMudoANkTMFo0167je7ucxRBxt1RpxNpjyKgFSooWx+apkgAHcCb739wnQoStFy6tv25HDq5aXRFTYfYqfyNEtP22r9hP50/1RJefDqR8uXQ1+j9Xxmb66d8RPVuRZdYH6Zf3WI/8ArMh7P+hp/hiJzdZ6an+p2fCfvNP3O+2f+QxH6+skutnfQt+7T3tES+l8iPsY9d95n3ZAb/rPhT//ADtKXo39Kv8A6Zf7miJl0Xz5mnXfd6X+JZ4b6ZP3ie8Tcav/ACz+H9kRNOp9aMNH0s86f1h3CQ8X6694iJvexnW5ebN3CScRw7viYiekSj2jvf8ABMGC9Sp+6f8AsaIkZbEluSq/0OH7vynGI+rEREMxp6o8ZlwPrU+8++IkpbM9jujYOlX0572/tSR3+hHePfESij6ESq+og7Y/6fX/ABH31Ji6SfQ1P31P+x4iVPZli2O2C9et+Ie5ZdbP+jPc3uiJhh96fY7mo/pcO/7mLFethv3n+uQ+nfqJEToQ+UuxwZfM9zXIiJyzaf/Z</t>
         </is>
       </c>
     </row>
@@ -4171,25 +4187,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Washington Sundar</t>
+          <t>Mujeeb Ur Rahman</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024_T20_004</t>
+          <t>2024_T20_003</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>233.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -4198,25 +4214,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -4228,67 +4244,2226 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AA30" t="n">
         <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
         <v>4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>3</v>
       </c>
       <c r="AG30" t="n">
         <v>4</v>
       </c>
       <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFhUWGBgYGRgYGBsYGBodGhgXGBgXFxgaHSggGBolGxYXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICYtLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABFEAABAwEEBQgHBwIFBAMAAAABAAIRAwQSITEFQVFhcQYTIjKBkaGxB0JSYnKCwSMzkrLR4fCi8SRjg8LSFENT4hc1c//EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAA3EQACAQIDBQYFAQgDAAAAAAAAAQIDEQQhMRJBUWHwBXGBkbHREyIyocHxBhQjQlJywuEzgpL/2gAMAwEAAhEDEQA/APcUREAREQBERAEREAREQBERAEUera6betUY3i4DzKxDStA/9+l+Nv6oCaiiUNI0X4Mq03fC9p8iszazSYDgTuIQGVERAEREAREQBERAEREAREQBERAEREAREQBERAEREAXRzwBJMAZkruvCfShy9faHvsdnJbRaS17gfvCDjj7Eg4a0BtPK30s0aBNOyNFZ4wLz90DujF/ZA3rzLSnLu22gnnbS8NPqUzcb4R4ytYqYGISk8Tr8PGUOGetVcTLjIOsm8VySYlsx/NSxFuOMDhn4rI6sMmtLu9dAp3usJB2hd6depekPII1gkHvUdjXZ6uKxGsd64dPQuS3pMtdmIbVJrUsiHmXAbWPz75Xt2gNOUbZSFag6805j1mn2XDUV8oCtKu+TPKG0WGpztF90nrNOLXjY4fXMID6oRVXJrTTLZZqdoZgHjEey4YOaeBlWqAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAqeVVuNGx2iqOs2m678REN8SF8t1nmSBHEjHxX0d6UXkaMrke5+dq+b6pkzrKAwvcTrlcU2E5ALG5WdnsbnDCGjZ/dG7BK5Bo0ccTks1S0gYAnjJ/gUqjoKrVd9m0uG2D5q2sfIiocajg0bsT5KLnFbyyNKb0RqZeTrXIZxW/0+StJmoujalo0ayIuhV/HRasLK2bNDaNy6hx1lbPW0U2cFUW+xXDuU41FIqnSlFXZ7L6BLUXWSvTJwZVkfMwT4tK9RXhfoR00adqdZjFyu0kbnsxHYW3u4L3RTKwiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDTvS1/wDV1+NP87V892Syl7hsJ/uvoX0rOjRlbeWDve1eKaI0cXOB1BRm7IlCO0zK7kvecCyANh+i2TRvJym0C/DvAKTQhoCnUazSYlY9uTPRVOC3EulQptbAAEatXcuTB1DvXJssiWlYDScEzRLIx2mmIy/bwVPaGj+yu6rIGJ71V2qmBjgotE75FLWoqg0zTwWz1SFUaRs14GFZTdmZ6yuiJyBrFmkLKf8ANYPxG79V9PL5h5JUv8fZR/n0vB4K+nlsPPCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgNQ9KrCdGVo1Gme57V5toVl2i0nWJXpPLvSVJ9ltVmvRU5pxEjo3mi+GztwHevPtGsmjT1SxvkqarujRQTUs+BBrWSvWm6bjcsQZO8EZBVdo0E9h+ztNKRn04dwwlbJpew1HNa1hN2QXXTBjWAoOk9ANfVY6k25TFyW3ek27ndxh0zJJUYSyyJ1IN6q5WaKstra++KmRxuuvAjet4fa3c2Sc4Heq4WdrXOexhY32SfKMuEws1Z4DDeVc5O5fTp20Na5QvtFZ32ckDHDuVVR0VbnjN7W7yB4K60cHkup75GOY4YXo2SFzyl0USGGi990gB9+80ggmTDejdMgYZQrYSehROCeeZVCyWinn0m+IU6i6QAfHNdW2ZzKoFIvcyBId4kEnEblJrUIdO1cbVzqTSyMfI+zTpSzj/MDu4E/RfQq8A5N6QpWbSYq1ZIYxxAaJJc5oAaO84nYva9AaYZaqXOMBEEtIMSCMxhgrkzK082WiIikRCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDz3lPZ/8AEVBHWkn8IzWr2Fl2nTaMg0DuwW+crLrarSfWbB7CVpFlbF5vsvcP6isslmz0E7qD5WJ1nkBS2twkx5rpZzgFnLVVoXJFZazBk5KA+iXtcduSm6ZDeiXGGjUBJJlG2+mxhB6MiekIwXUrnU0jV7LUioGnMHt7FtQd0cYI25d61W0VWPLnglhGIcQQMMiCc1s2i3c7RY5whzmgkb113IKxFtIwyVY8mYV1a6cBVcdILsdTlTJZFPbIbXLhi43QN3REn+bV7H6NLFzVhb77nO8bv+1eKW0/bh2ZvAdi+gOSw/wlDCPs2+OKvj9RmnlSSW9+5bIiK0yhERAEREAREQBERAEREAREQBERAEREBrvK2xhzWvIkDA8DiD3jxXnbmXKtQCYvAid4C9iq0w4FpEgiCtE5ZaHZR5uqycZY6TO9n+5VTjvNFOpkosqG1IXS1W0Nk/wlYi7orFWoX+zEcdqym2+WRHNoe85Hs+q6u50YEE7IxHdqXQUamTnnsEDtXetZHe2IO9WJcCUYbWrKa1Nc1+Iz3SMFYWLSctAyOpQ7RQdqcfD9FJs1j6GOJzxz8FySW8hZxdkT7Va5YHfzYq8OOHau1U9Fre0+axWh0JDUrqO6MOhdHGta2MAkuF2dk6+wGV77ZqAYxrG5NAaOAELVeQ3JinQpstBk1qlMTJwaHY9ERgYhbgtUVYxTleyCIikQCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAq/TmjxXovpHWJB2EYg/wA2qwRAeN03yIOYMHswUqg6WhRNIsuWipsL3A/iK7UbQAsco8D0IT3MkVaAPHaqStoyreJkxx+mpS9KaU5sQDqB7CY81GqaVAeWO9m8e9IxepKU47zLRshAlxnYu1JwxVfQ0oJx1wf5uXarbBqOeK5ssbSsd3PxJWbk3Yf+qtbKPqYl3AYnviFT1q+G5bR6Na7G2tskAXXySYxI2n+Yq6EbO7M1STasj2BogQMguy6tcDiDK7K8zBERAEREAREQBERAEREAREQBERAEREAREQBanyt5Xtsp5tgD6hzk4N2TtO5WnKXTDbLRNQ9Y4MG12rsGZXgnK3SDuepFzpJvOcdpOvxK24WhFp1ai+VWXe7+iKK1Rp7MdTbqjzWc55iXm9hlJxw71U6QJZIdMbQpmgqt6mw7WjyVpa7KKjIIXjylszfez11Hagu5HmNs0q9xIzAMA9siVhNscS4k4xCutJ8n+nhLdcjH+YrE3kdWcLwdhwy44q9TiZXCaZRMtL8phWlir7TKx1NAuaYc/IxxJ7cFPsejADGrbtXJTVjsIO5ls9F1Q7lk0tRihVHuHwg/RX7LMGNHkqTTn3dTe1w7wqoyvJF8oWgyq9H2lX2W0CpSMe00YBw1tI14Svpew2ptWm2qwy14BBXynyZd9u0bf0K9l9HnKQUi2z1XQx+DScmumI3A+a9Z0dugprVN9eB5W3s1Nl6M9QREWMvCIiAIiIAiIgCIiAIiIAiIgCLqTGJWv6W5X2ahIvc44amY95yUoQlN2irkZSUVds2JVml9N0LM0uq1GggSGyLx4Bec6X5dWmqS2meab7uLu12Y7IWp2kl0lxvHEkkydkk9u1epQ7KlLOo7ckZp4tLKKLTlDygfbK184NGDW6gN287VqnKKzX7RQacjI7oKmUH4rnSw6dnqahUg/Nh5rXjaaWFlGK0Xo0yqg/40W+Je6BENu7MFsFPJU2j6cTxKt6JXx71Po46EW00MZ1rhjywEFsgqfVZOK5NIEQupnWjXatnvEuujio9Gn0/54K/tbAAq1jcVy4sc1iIWu6ZPRcr20KktzJwXY6nJ6FJoCzRVDtk+RVnTtGreubHSuNc73SBxOChMOK+mwK/gJ8W36L8Hg4pL4jXJHrHJPl7TbTbRtJcC0QKkSCBgL2uRtW+WK30qwvUqjXj3SD3jUvnumCA08Rr46sVnoV3NN5ji07Wkz4fqp1uzoTe1F2f2/wBEIYmUcnmfRCLx7RXLq10oDnCq3Y8SfxDHvlbZYvSJZ3feMcw7ocPofBefUwNaG6/d1c0RxEHyN1RQdHaVo1xNKo1+0A4jiMwpyytNOzLk76BERcAREQBFhtFdrGl7yA1okkrzLlPyzfUJbTdzdIYZgE73for6GHlWdlpvZXUqqCzPQLdpuhS69QTsGJ8MlrWkuXrRIo07x2uy7hmvKLbyhHqy47TgOzX5KufVtFbU4jcLrf38Ve1haWbe0/JeftchCOIrPZirckm2bhp3lhUqSKtfD2GTHaG/Va3U05S949n6/oo1LQDz1qgbuGJ+gUtnJ6nrLz2gfRVvtbYygklyT916Ho0/2fxNTNq3e7fZXf2Ir9OU/fPYPqY8FZ6NtIqMvD1iRju7dp8EZyfoDC5wJJPYsL9HspGafR23b0HiMirKPbctr543XJJMliP2dlSp7U6kY97dvukcWijDsFitNrZUpupNdeeIOGIaQcLzshiFgtdeeu1zm6xq7gcVmsGlaAF2LpOERdXcT2tKS2adPJ737J/kqwnZmGb2q2IjZZ/K76c3+Is3HQxFSm12sgSNYOtWNwhaXZq7mOmm75R/64ELaNG6eZU6NUXHf09uxeFJWdmelCnGrT+LQe1Hya71099rZlkx0hdHFSaVBY+Zkwo3sVpJkCuyVHdSgSrxlhWDSFnhsBAa85kqJUsuKvKVENBLiqLSlsvEhmDdbv5rXS6jQdV8EtXwRV26oSbjMRr47iotGjtEfzas1O1R1GFwykAnxAkLs41shTLPiJnjC9KhisVRSWzePP3MdePZNVN/EcWt6T+bno7/AGZxpCq0Uy1rofm0AXiSNUQcxhiquz1LW7KcfaDfIqxZScDi+T/MhClstN0YtDvNSr9oV6jThluyb/0Y8NHsxPZqSnbi4x/G0/sUtelbNd/5XD/YsDTaRkave5bC7SDfZP4v2XQW33f6v2Wb96xD1v5v3PQlQ7J3Vn5X/wACssek7XSdfaagI1wQe8QVuWiPSzaKUNtFMVBt6ru+Me1UItfu/wBX7LILS04E94kI8VVa+ZX+5COF7Om7U8Qk+asv8Uew8mOXFktpDWPuVP8AxvwcfhOTuxbOvm6rYWO6TOg4HB7cMR7oXqvo15WOtLDZrQf8RSGf/kbqdvI19+1dhUU9NSrFYOeHs3ZxejWj68U+JviIimZDy30kcpenzLT0GGCAes/X2D+al5fXq1K77g1ZAZDef1WyaTpc9ec44k3p2EnE8FxQszKLWgazJOtxnWt3aKqYenGCXyvTm99/wuBPsvD0sTOc6krKCvLjbl6N7tN5FsWiWUxeMOd7RyHAKTUtbY6PS8PoubQC6R3Bc0tF5y4ADrRkOJ1ncJXnUMHVxDulf8GnE/tAqX8PBRUY8Wrt87PL/wBJvuzRCfannKB3ErDStLzgXLZm6NpiBdOOIGb3b9jGpbaMXThGV0E3ZGoBvSqHacl6lPsV2+aSXcr+x4tTtXFVPrqSf/ZpeSy+xr1Ok9wJgkDWMB3qxstmfgHCNxxMbYEkBWN/IY3hqESOA6tMbzJXHNyJN27O0hk8es92/UtcOyKS+pt+S/BhlVcnd68d5xS0VTcJJLt7cQOLcHBHaEs7xixvxME/iY7EI1xbF48HPxGHs1W4jtWc1ci7DY5x8qzfqttPC0qX0RXq/N5/jkQ2pceuvAj0uTdwTSfhtAvRxaekOwqPW0c7Mj5gbze/NvaO1WhruEGeBJDXdjx0XdsLs+u4nHF27oVP0eo1cLTqw2JpW3WytzXDv05M04XHV8LU+JSlZ7+DXBrevTVZkTRWl3USGulzNmscN25bK2o18PYQ5p1ha3WY184YjMtEPHxs18QsFnq1KJvMILTsxYdxGo+K+ZxvZ1TDLa1jx4d/vvPrMNjMP2g/k+Sr/S9Jf2vjy1785G7UnKPpF7GtvvIDR/IG0qvp6fpc2XmQ4ep6xO46xvWu6Qtr6rr1R0D1W6gPdGvjisdKjOrPYgrvryLfgqmnUrvYitW9b8Et77r8ri3201jgLrBrnxcdq7UrK0CTiDrxAPZ1ncBA4rmlQDYn8MTU+VuTOJkrK+zCegXA+yDef8zzgzsX1WB7NjhvnlnPjuXJe/hZHzvaXa8sSvhUls01u3vnL2823mZg0CBkdQAl/wArcmDjisTiTIaCNoBlx+N5yXRrIBxEaw04fPUOJO4LrVfAAMAahBj5aebjvcvTT6664HjHFRrYEhpA2dFg+fN54KFWsTDhEE5Zz8rJmN5IUiSXa727pVO/q0wsbqjWg+IacD8dTN3AKqdGnU+qKferkk2tCMNGsJwneAZ7xAcO4rKNFMzE/mHeBLe0LKx7XZ6va6QHb12qQ5pzOWpzpcOyo3GOKr/csP8A0LyR3blxI1PRrDkbvzS124OjonDIrpaNDnJpk62kQ4cPaG8Kzsrpv8YIJvYADrD1m+8MQpBp4DIjUHHD/TqauBVUsBh56wt3XXp1zOfEkjS6Ty1ztznCNWBI+in6PtDmVKdopGHsdM7pxady7tsd6lfh94gkEtAGJJxOvPNdLHRAa5vswTxK8qHZU3Wu38ut+O+3J7ny8D2MP2nKnRnRa2ovRP8AleWa9ss8+N/Q/wD5L/yR+M/8UXlf/UIpfCpcCj4k+JfeqR7o8z+iwUKJqObGbTBkx24rK/CN7fJw/UrBZKhFQ74719DXoRrU/hy09s+uVzAsuuuT70jYrNY7mID5OBPNteOwyuKlIgziIkAubAG5lPW5SGQ4B104+4DuOLCPJcWp4GImThABvHDKXdRu9UUoRppQgrLrf73K7mTmxdnVALpO3H7RwzPuBYLUwuBGOQOYZI2uPqM2DWptlZ9mwkiA1omJa3AYMHru3qvtb5N0Zb+kSdp2ndkF2Du+uuu5nCAHtb0cCJwABDP+VTtwXV9QkyTjxjs2DgF1r04k95J8zmeAVloWwc9VDSSGgFziIvXRqaMmySAOKum1GO09xbGN3kY7BY3OvVADdaBexDWuMgAOeehEGcccFY09Hh5LaQZzsSRSeDOImabyQcDmD5qfQtbTZ7QKTWgU6zH3A3C64BplrsxIzwOAOBWbRzObtdOAA0tqPddBE3GGJDiTAJORjJYKlefzPRq9l3JSs9P93NEaUXZcbfdmsNpETdz13B+ai76Lq3IiJGu6LzfmpnFvEQrewkWmg6mQOcpAupumTrcROYBxEajG2FUtqzBcJ2GYd2PH1WyMnJuLWaf6PrIzShazWjOwjA5gZGSQOD+szg7Bd39LNgk+s7oEj4h0H9q5FOTIJLvwVO/qvWakCJjHbdEO+amcHdi6+uur+RWQ3WFt4C6QTqdABn2XDAnw8lkZTuE3cScw3pP7ahwaOCnsALSBF3XAJb8zOsw7wo1SAIdF3VgQ08GDpVOJVNGlTpXUIpX1sus+WqL6+JrV7fFk5WVldt2Xj+r3t5EU0WwYAa3WGmG/PUOfASuhaAIMBpyEENPBnWqcTgpNScMwdUi8/wCVgwYsLoaTJIOuDeqH4n5M7FeuuuuZSdHkkjMHVIBqfKwYUxvXSlQJMNBJJxDSXO385UG4HBuxdH1CcGgNBwwMTPtPOLvAKTWbzbW0RF5wl7hBw1NaRkMPCdajVqKnFt834LNvrwLaVKVR2S8t5EtVNjW3TUBIj7Ng6IxhwJ1mBIcdyxDmXOPSc2SQ0wSA31ZxJnHGD6u9GUWueBk3arPSehaLGBzKrXnWAQT4FYp4+lCUIVNpOXLTvsrLx8y6NJuLcbWXXiQKtjLWtc2XNImRkDj0ZBJBAzjKeE4aLy2XAxw/bB3as9nqQDBI1OAMEjCQDjEgZrvpimxoBYAGOa05k8ZB/fbK00q+1eLWav792azTWpGdO0VLc+vtvO1hMsbGckgDAjEkmmdefVKsXuhj3ZiDJA3f9ynq4hUdHAMGvAn9/wDkFc2ut9k+9N4MMOGDxh3PCskrRM7WZrVMAMpNaBJDQCJ2S447MVns7ftK7Rqu+SUR9u1uplEntJa0fVLA6a1o4gf0hSWqXB28oss3MquYC4U7m9y5WD92L/iGauIw2Od3ET5grFzc1OLVktBkvG+e4z5OKx2Y9Ju4FetbIzlloK3ZseBIMEkkGcgZGojDiArW3VG3TnHsgkz0fWecQ3ctTrPuVm1Bk7ou7cir977zHTmI3zhmBtOG5Uyh8ykRlFMntqksZPstA1QI9UeqN6jvHSHDgO3Y3xK7td0I2doG9x1ncurMwTtGeJ3SNZ2N1KEVYidK9KRP0/KMgN5U3QjoZXaM3U5GubrgSBrecZ2YLGac3p7Zxx972ne6FzZ5Y4OaYcNZ1bn6gPcGajNbUHHriThLZdzjQtcBzmO6lRhpujFovdVxB6TQHQe9XmlX3aYqZONnFPPC9UcQ8B24MdnuVW2lTc4OeHhuMgC9wDKkyAdjslY6QtTarAw0qwLeqZbeE7BdAeDsnFUVc6kZJd/W/n+hdTlaLV+4rNAG5Uc85NpuOOeq7DsiCYChMZq169R7snKbzb7vNtpkCZdhiXD2mHICRAG3WVgq0iMCOzrN28WK+LTk3fN/j9SmWiXAxQMvCPNuY4hZhVwAdiNRJxHwv1cCsFUxHhJ/K9ZmjDf3O7Rk5TZAmU23jIMn8NUfR6wWmnGJJBOM4GqfpTasdI+Hd3Zt7FxVxGP6j9XFQtZ9ddcRYiG0GCG9Ea4OfxPOJ4BR3DV4R5N+pWZ4x1zu636NCxRns1wcPmdr4K9LgdRxQi+Jg7ZJAj3nAG6OAKmVa16o4jEYBu8ZzljJJ71Dj9hH5W6+JWezPLXE9+M47zlO5Yu0KTnQk46208U39jVhJpVY7Wl+Oz3Z7rPMg0rMXODAMXYCcMSsr7FdDg4Q5pcCOEjzB7lItNnOLgIOeH04LreHSG6Bvwdj2k+KqeLnWpqVJ5ZXS1TTzV76O6aXJka8FB7Oru89zW7VJ8btrhuzcewiHYfRZ9KdKg3EGHOaIPSAJPq/38VzQYGYx27FDtIBA1a8cMJ262+9qKhTmq2KnOGiSV+O7rlY0VVsUIJ5vP8AmvZa22bXWfOzztvOod0gPLGN7do2hWWm3XbPUPumNmWr2TuVZZTLxO3gZ+jvNTuUlUNoknKRe34iQ4ait85XXmYUs0VVifNoqnYGM7oJ8SuuiHS+qdtU+H9lj0ITBcc3G+eJl0dy50DiC7a+oe6f1U4LOPi+vMse/wADNfRYpRVXJWMtT7x/A/kWKhmfm8lyi27ioj27IcW+YWxWDqv/APzPkiKM9H4HHoSLP9234x5NXah1mcXoiqlv8fRkCVZs6fF/kVK0b92PjP0RFmraeXqyUNfP8lvZcz83k5V9H7qp8bfyIix0tZdbzTPReHoRtJdalwPm1RKf3zviRFvp/R4P1M09SLV6j/i/3KQ7qM4HzC4RWP8AL9CJ2H3g4N8l2d1xwPkURVPTwOsr/UfwH1XT1afH6oi0vXx/BxnDOvU4HzCO+7p8T5oi6vqXh6AsdbPjp/mXSj12/G7zKIvDof8ADHr+VG+X1dcWRrR1CoAyZxqflRFb2d9FT+9ldfVdyMNkzdwp/lUnlv8AcP8AgZ+Zi4RbZ/8AE+6XoUx+td5X6LyPE/lK45P/AHTf9XzRFpX1x7pfg69H4fkxoiLCWH//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Najibullah Zadran</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024_T20_017</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>60</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>60</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>16</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTGbZlov76mYuItEnvGMPY8-7LbTgVKjqSJ7qULwFXiUaUx-CEXKN0Rsnv2_T4RO7vyy48&amp;usqp=CAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Naveen-ul-Haq</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFRUVGBgYGBkYGBgYGBgYGBIYGBgZGhgZGBgcIS4lHB4rIRgYJjgmKy8xNTY1GiQ7QDszPy40NTEBDAwMEA8QHxISHzQrJSw0NDQ0NDQ0NDQ0NTQ0NDQ0NDQ0NDQ0NDQxMTQ0NDQ0NDQ0NDQ0NDc0NDQ0NDQ0NDQ0NP/AABEIALcBEwMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABAEAACAQMCBAMFBQYFAwUBAAABAhEAAyEEEgUxQVEGImETMnGBkQcUQlKhI2KxwdHwFTNyksKCovEkNESy4Rb/xAAaAQACAwEBAAAAAAAAAAAAAAABAgADBAUG/8QALBEAAgIBBAIBAwMEAwAAAAAAAAECEQMEEiExQVETBWFxFCKRgaHR8COxwf/aAAwDAQACEQMRAD8A0FvRwOVTdJbg8qlJagU9atiuJLPJnRWOKFIlPRRAUcUqzyQuyJHuJUZ7fpVltpGwVJZpMKhEqn0oPSi+4jtVtsoFKr+SQ6UUVH+HL2o00oHSrYJQ9mKjySaJaIaWQOlOBakFKQFqY1cuR1IaKURT0p244AJ7AtHUgc65h4w+0Ftxs6NlgYa5Ekk9EM/r3roQg58REllUVbNnxfiunsQt24iseSzLf7RkVm9fxnSnlfQz2JI+ZAgVzTSbncnmxGeZLd9xmSfmTR37e0S6uk4B88fIHmK2QwKPkxTzuXg21vSBjuQhgeqmR9RWg4fpIjFcy4DrLlp9yHf3U43jt/fKur8C16ahA6fBlPvI3VWFXNtKg46l+S20lmKtLSCo+nSpi1zc+VxNKgqAyCot22BUgg0lrc1leqk+gqESBcthhVdd4Yp6VfiwKI2RVMs0mx9sTH6/gyEe6KxvGOFbJIrqOssGsvxvh7FTArVpszvsoywVHMg5Bq00+sBWOtFd4Jc3GF60E4HdGYrrOcPZiSkvBI02rIcTyrccJO4A1z5NI+8CDzrofArDBRIrHqZxS4NOBO+TTWEEUHsindPbxTzWqwPM10beCubT0a6ep/sqNVoLUyQjjZB2ChU72VCh8zDQanFPWxSAtO2hVdAk+BUUTU4VpDLQaETETRilRRqtSgthRQNLK0RFRoWxvdQpQWjipQ1iYpBSnytJK0egbjCfaTrvYW0dHdL0OF2GJtnb7Td+77ue8YM1xq1qlzKqJ6ncxz3M12L7XNMfuYdVk+0RXb8qHdHy3FR/1Vzq/wCFXWGQ7htUkfiXHOOorsaRr47Mua3IpLUk4Pp1Bj0zU5y20Kh3DuwbB7BjzpDcPvHyMinswXI+aiT8DS9bw64lsRbvDMN5Zt47NGPnWrcirYxnT6n2RM7cryiZ+XIGtV9m3Ez95dDydJH+pDOfWGb6VivuDhVYo2152noYJUj4gg1rvs90E6ljnyWyR6FyoH6TUk0k2NjbUkdh01yRUxardBbIGas0FcbUSs6HgOimjIpLNFY1EgYoMKK280sio0C6I9xagaiwGxFWV2mFUU8HTGq0VX+GL2oXOGrHKrxEFKezVjySE2xRlP8ABlmYq00lgLirM2KSljNLKbl2FJIXbWKcijCUcUlEbEgUIo4ottLRLCoUrbR0dpLG7ZxTyVSaXXTiat9O8itEoUBu0PFqKlRQiq9ooAKUKQxio1zURTJAZLLUktUD78O9NnWgmo4NBikWi0rbUaxdmpINAElQRNJJpxqYdwKm2yIrvEttW0l8OGKm2ZCiT3B+AME+gNc+4dxaySFLW5QwROVjB5kdPWuk69i1m6q5Y23AHclCBXFbvhRr53oVO9pI3ZXJxEcq6OkVRaZTktNNG8vanToocuoQmCxkgHtmR19ar9d4s0ajaHDsTEIqx6k4E034f8NKumuW7hLkvAbPlx+H4ZqLpfAO1iVO5GBDMS5IB6lV5kdJrTSTC91Jk3QPadCqIFWfdKgEkjmfWofhu791W9d2G47uqKi8yqEyQOmW5k9BVw2isaZNlgdskZY9ajeGkS4UZQfae1fOYKe0YknoYgn5Us62saKW5WbzbFC3cp68kiq1/LXM2uZc5UTrt6KhXNVUbUakxVTqtU3SrY6STRV88UaDT3s1YB6zfCnZudaS0kiqZ4ZRZapxkiJq7kCq9NVmKsdfbwaodNbbf86mPBKXgjmkjR6Zqlk0zo7eKmNaxRlp5IRziyMTQWlMkUaCqdrT5GvgG2hS6SwqULY2TQmgVoKKFDh0KXFFTC2cw4XxE74JrecOu7gK5NoLh3bh3mugeH9dIAr0E9JuhuRjjmalTNegoMtM2bs0674rkzxNSo0p3yR9S0CqHXaoiatNbexWW4hqeYFdPSfT9/LM2fUKCoi3dc0mhpded2TVezVGRzvmtOb6fxSRVj1NnQ9BfkDNXFtsVjuGa4YBrS6bUg1x8ukcDdHIpomtULViBM1Ka5VVxHUwDVWPG3IZukQ018PE9ay7apdNqr1pQAjQ6qOShln5Cd30qYhO/dWR+0S+6alH5K9jZI5sCWk/EE/3NdKGBxfHozSylrovGUA2Qtv35DsW9meZzAkn4dq1ul4wpRQt225ZZYI0hW6heu2uY8Pe0ij22svpMFVRAQwj8Jg9+1X68Jsm2NSjagbBvR7jZaDMFQACDEfOpJIsjJ7Sbx/WqjE82g7R69z2FXf2eqq6O20Dc+8loywLtGfhBrkvEeIPqbu1Z3OwUAGQAcfSus8BcW7aWxyQbR8AYFJlxOUaX5FjP91s12+RUW4k0dhwRSiBWfHj2y5HnK1wQrulppeHz0q2RZp5bVdeEVRysk3ZX6bSgcqt9OmKaRINTLdV5MMW7LcWZ1RHv6eairogvSreKbdKWMIotc2yNYSKlRSQsUe+pKCZFJiHSo5MVJ3UxcFcvUwSdo1wdrkTuo5pEU4orGkyxiStIJinqbZaMkRMLfQotlClpjcHGNMm0RV3wnUlGzMVYpwcTyqSOF9q9Pi1UKpnOljl2Xmg1U1YgyKqOHabbzq8toIrHl2b7L4bqKniC4rL6q1ma3F/TTVdq9AI5V09LrIQjRjz4JTZibpFQ3QjNaluD55VIThKxEVbPXQbEjpWkZPT3SGHOtTw/VY50v8AwVe1SbXDdtZNRqMU1wjThwzj2PprPWoPENQCKe1FhUUu7BVHMn+A7mszxPi5dStoFQeTn3/kCIH60NHpvlluS49+AanPHGqbG73FUXcV87CRtE+8PwkgGPXnWM8R6/27hn2hiu0BchQpODPJpmrHV7ras6puONx6gZloHMjPSszxDVNdcswXzCIEYHMZ6nPP1rp51DEqS5/8MWJyyc3wNJxJ7aezIVlmRKgkfAxintd4n1F5AjOdowBOPTFQL6suGE9j1MUq1d242IcZ3KZjvEiuW8cZPh0bLaVNG08DeH9sai57zSEHbuavG4qLTEuDs3sm5c7SOUj44+lUXhbxQistu47RAVJT3CcQWBMj1ik6bXoF1KajEXHYriSrsSNs8zPL5U2lj/ySU6649Bzt/HGUU6T5NxpPFelDKjXShYSCyNtOSPeAIHLrWo0ro43I6sO6kH69q4PcsqNpQyDyPf49jEYPKtP4Z4tctOAreZRich0ByjRzjI/uaH6WOV0nT8egTyuFurR1tEipKmoPB+JpqV3Jhlw6E+ZD/NT0NT4pVcf2z4aKJR3/ALo9CGenkaorrBpy2aLnEkYNE9BSyKaRqcBqtsuSGL9RQ0GpN41CuGlnOojwhbHg9NuxokFKauVmm5M2RikN7qWrURFGtUpDscmkNR0ZpWKImhRzRURioSzUjT6amNO1WtgiKt3tC0iO1iKetKRTrUKDySJSCApFy3NOrSjRWSQHRCexTSaczVgwogKG+XsZNEYWqLUultGdzCqJJ/vr6VKUViftD15L29MpxHtH9TJCD5Qx+Y7Vq0eGWozRhf5/BRqM3xY3IpuK8TbUvuMhB7idFHc92Pem1tio1g/P4ZpdzUgDn8PQjoa9rCEccVCKpI825OcnKTtscNrnnH6x/Uf0rH8Q4d7NyyqCAxkAe6D6fl5/JhWnTWgzme/w5/z/AEqj4zc23MmQyBSIEwCTI9JAn0xWbWR3YzZo5qOTkrLyq5kKQoAEQfKevLlBxy5CjRgD5hKmJ7jmB/Dr2p7TK0bxz5kGPNndmT2Ycun1rR3/AAtdu6JdQg82We0Y3FJI3KdwJkq7RBweZiuXKDVJ9HQjli25XyZzRXIVyAoZW3ghRKcy2foR86jNaZrs3yWHSQD2AJAjvTlhCjA5g45HqBAI/X4VIHncmMhEBGCZETAHP0k8qSOKsjVdl2TU7tOueU6rwHqrIUK0jJEcgCI5xg9uYpxNaV2uTDKymDnepJU7CZmIjpgAZitp4S0qJZJNsPvYQMZdmdfezCbUSB8Z6VUeN+CJZQXLY2q7wyDmjAspgjllSIiMAjnAaE0p7X2uinLJ7FNLh8NemTOH8RazdW9byVXzDo6EmVPocfQGuocP4gl+2ty2ZVvqp6qw6EVxHQ6klQCZhBJnmfdUfMn+FafwXxR7N1kVXe2xO9UUsVEwHAHaRPofhW3X6f58e+HaX8o5+my/FPbLpv8Ag6RcbNBHin2UUgrXl/mmjt7YsWt6nBeqOBQUUf1EgfHEcuvUds0+VpJWllllLsaMUhCtQJo9tFFUvkcUq0IpSCjIqNAsbLUktSmWklaSmNwChRRQqUQqk51Y6WopQTSrOqCOqHBYY+JYL+k/qK0QgpSURJy2xsszZbtPw6USipdzVqqzjHrGO9Q7V8OWIiJ5jIOAf51bmwRirRVDK5OmVXHuMfd9nlBDlgSeQ2gGPiZ/SrLT6hXRXUyrCR/Q+tVvivhY1GmdJAZQXtscbHQEiT2IkH0JrK+BuNMibLklSQcggpIiY7cqqjBSjx2XLlG/NGopIgiQQQcgjkaUtJtBYoCuf8e1ena/cdkZ3HkBGwyF3L5d0gSAMxOZHLOr8TcU+76dmXLt5EHLzsDknoAAT8q5L7dgfwseuD/Ga3aHLHC3Jq/HdBWi/Uqm6S+1lxr2QuWsiFhYGZB2ruXzSTmYM1TcQBk/rHp1Hy/lT51YI5bTHLofgaquMcQCgkc8EfGAI/U16XT6yGXH6a7v/Jx9d9Nyaaadpp9Nf9MVwy5Bg56H1CmP/qagcR891jIldqhpAkrtU59Z7jnUZNYUWB7xMj93dAP8aRw6+QwViclSpkiDuU5O4YxVeTLGSUSmGNxbkXPDrisu1pVgD0HugdSWGQFIEz72K2nCtW2pNzapcPbL22VfNYdUCPaJGV5tt7+0Nc5v6hSYUCIUMe5UZgdMz3mtNwPVaNbf7RtjmFYMr3FbYQZgLABP4c/OqZVJV6LFw7IfF7sFtw23CiM6QBFx7Y3HbPOQCRGN1UybkcsuGMY5AgwxUjrz/SrvxNd0zf5Zi7K7xsdAuPNBMAnl+HqTVRbUw5PNOkHzThYAImCfWg03JfYeLSi0/NM03hniwW6UJhZnYSqBkJB8pwqurIrKeR3OD7wqw+0HiCewS3u3OW3QYDMu7cWKg4GABMSSecGsOtqZbI6T8MfxLdfwnFJ1N0ufMcqpB55OZMchiBA7VVLCnLd5Gjlag8bVq0/wT9ICvlPTaf08o+U1ofDmp9neklgreVip2ttcQdrSIIMGfSsvoXbmxJJHM5OPU1caQzPqsf39a62NKWOvscubayWdM4Z4h/8AUPp7rqxDQjrIUGY9mSeZERu6n5VoTXH9SrErckk4DTneIEfyrpvh26z6a27srllkMDMqfdkjm0c68t9Qx41l/Z/X1Z6bBp8sNOsmR9vheaLMLRxRA0Yrn0METRE0GpNSgilFHtoLRipRATSS1BjSSalEFUe2kqaVUUSCYoUuhUoFlGLmarPE99AiDfsuLDo55AzlSPxDyiR8KsSman6JxyIqyD2ysjpqmYizxLU3AFN2xt5FlYsY9FgZ+la7Q8QtIiou8wOZglj1YmeZqZq+FWLmblq237xUBh8GEEfWqDW8NtWmVrLMQfK6Fi6qDyZWaSDOImM+lX7lPhomPHBOkmFxvjLOpVQAvJgebjt8PT+NZ9eJEGGAA9BgVpBZXEwR8Jpo8OsMf8tf9o/mKdR28IvpLhDXDPEC6dSX3G1gsRn2c82jqMifQE9Kv7niDTLG6+iE8g52n6GqPiOm06WnWFypme0fpVLwq+j6eyHUMfZoGDCSfKBkGpLEpcvszyaUvsQfGXiIam7sttNpJAP52/E49Og+vWqW1dhZxFJ8QcP+73YWdjDchPQHofUf0qse8eXx+BxNUNOLo62Jx+NUSOJayFx0INZXV6gucchyq612kuNZS8yxbdmRT1coBuIHVRIE95HSqm0gG6RyPTM5I5TzzW/T45bbvs5Gs1Kk9i6T/uL0zrEnmIJ/eyvKTnlQZi0YgY/iBmmyjHJEfpH9xU/RuvuuvbI5iGXIyJPoDWyNvj/Wc2XHINFdBG04ba0c/N5T2qVrSqiGGTugQR+Ns5AAHwFI0vDQ9+zbU7w7qpCzIWVDbp90wG+lbDTcNQ6jUumms3Fe3p7li3dhEUXQdwzG0go4juKs3bVtfYu2+UYjS3Ax2sfNzBnmemZwcdxQS1cusqW1Ytu2AqJLmeShfeMdB3rbLw5XRAtmzaVLRf7ySIR72muXGD8yUBKbT+HZ64stHpbgTaqyU1emZLokD2i29LacjIMNL/GM9qXdfAa8mS0fD7zqgS2FGUV2ZVViELEmTgCGY4HzpF/w06KXe4m9A5dF8zJtO0h25d+U8q22stklfYpbuo/sbuxztS+moTWIyzGCQqDA94is7r9TZtpeDBl9omoVAx3FGVbxCuTkkO6IPnNJKUgxijGW9WQ3mYQDA+AOMVcaLiKwQJnpiukeKfs7S8y3dMEtv5VuIRCXBgFxA8rDmfzR3ycf4x8G39EBdtgXLAA3sikMh67wSfLPUGO/rn/XTcdkXV/yb8GnwRksmTmvFf3DS+11CowpESTEgdF/r/5F14R8QfdW9m5Jsv0GfZN+ZR2xkfP44qxxPcsAwBzpzT6ncY6f3H1rmT3N8ncc46hcnoC1dV1DIwZWEhlIIYdwRRkmuJaHX3LZ/Z3WXvtcgH5Awa0Oh8bai3AfbdX97yt8mX+YNV1ZjnpJx6dnTKPbVPwnxDZ1ABBKnltcRnsG90/Wrqhta7MjTTphUkmlUhqjCFNGBRUtRQSIEBRE0oiktRIJ3UKEUKnJCuujNRdW14JNhQzzkEhTtg+6TiZinHeTUnSc6aLa5AzM6774ADcW2N3IPdM45wFBHUdagi4CR7S69xxytWgQrHp5U87H4mPSugXbCPAdFYDIDKGg9xNLs2lQQqqo7KAo+gq5Zq8DbjHnS6obbjKyWzMWkT2lw8oLxOwHOBJ7kUteFay7mVsrGC/nf5opAA+LT6VsgaI0rzSoG5s5R488NXbVr2puXbyBSLgEILbkja5UAk2+YInEzNZzReI2Yj2mYESMEgRAnoK7uygiCJHUd6yXGPs70V+SqtYY/itHapPqhlfoAfWrIZvEimUHdo5RxbjXtrszIRdgPUxJz8yal+FeF/fdSlmTsgvcI5qixMdiSVUf6q0w+x7zf+88k9LPmjt70T6/pW98O+GdPoUK2EMtG93O57kcpPID0AAqTlCrXZbHLKtpiftatoiaS0ihEVboVQICKvsgABXK71lgxMkHuJxy/TnXVvthXzaU9hd/U2/6VzgoWK7SNwBEHIcDIERzia6unhu08X+TmZZVlYjTXGbEKSAejKxWGJyvx6jr1pV+8hOFbcCTuVlYYzK8ieRqLc1APIFSMEgyDiDBAxUnShWUgRIDSMfkfIk1aueExWq5ZN4JrDbvLqLZ33UJYq24FpBUzGfxE47VO4nxtrunNu5uZ22/tGbzbkuu6gjaDgO6/OaqNRa2+YNtYE7SDmdz46zy5SabOoF0yyhSInbyPdiPUkzRaXTXIE/K6L3hviYeyFprIN0ILJcu0NZUk7dmfPnbu7ULviS+ro6FVdEFseWQwDq5dgcbt6KflVQ2hkBlIMdcYiBkSYyD/QUlXLsJ5hQo6zGJg/woKNd9gcr66LSxxC41vYLjgIoEDy7FR9yQRGA7sRJx8MVU6IG45liWuXEEkyW3uASSTkmSTUjXafZbDHBJAHOTAG4iR6/+Kf8ADlpW1WmQAz7e13z+0Xd1HJQaXK6TfpD4lbqz0M5zSWUEEEAgiCCJBB5gjqKNqIV5+zp0cX+0Dwb90b7zYH7B2hkH/wAdmOB/oJ5djjqKzNggYnJ7V6Kv2ldWR1VkYFWVgCrA8wQeYrn/ABj7LbLsW091rBP4GHtE+AkhlHzNXKakqkWYsjxvg57aI6VZcMT2l1LX5miewGWPxgGl8S8CcRsSRbF5RPmstuP+1ob6A1UcK4gdPqE9sjoyyCrqysu4ESQYNFQ9cmp6uLX3Ovezt7QgAUKICxGBTVm/ctf5bmAPcMsv0zHyrP8A/wDSIwEOJEYaDyI686aPGbZM79h+JI+AYfzim2mNyTNaviW4J321YDmVJH6H+VX1nVqbPtrn7Nem4SzDpCrkk9AMmuYXePIine4eBjaCST+UjlPY/WpvEvHdm+9sLvVFTKOu1kaT7y8uURBPWmjji+WiqclaSNy3GLP4WZz/AKSvQH8Ud474NRrnHgIgKJMZJPQn07GsDqfFaWw7JtachTA+h/lTOl8XtcUltMHz+Ijbgcs86Dxxvotg49Pk6XY42jDzAc4lTIn4cxVijq4DKZB5GuF8Q1l1Lw1CsEDsWCCQgKACI9RnHrXUfBvGl1CEZDBQxWD5DgNnlBkEfOknjSjuRJJeDSRQo6FZ7BRROkGpegak6hc0emMGmXRGWkUk0pDQYUGRBAUoUmaLdQIG7VHa/FFqXiqjW34q3HFSYJcIukuzT6mqTh+okVbWrk1JxSYIu0Yj7ULG72A7rdg+oNsiuV6y2oQMDDKwBBGOxz+nLrXYPtEtythx+FnH1Cn/AI1zniPDid2wBlcGRjytGSCeR616HRR3aRV9zkaiW3UO/sUH3cFS6gRkMpHukqYMyDkg/SgUCNKmGBysnInORGDkUWm1JteU5DKYJkABliDnBzz+FPfc58+7cfe3EzJzzP8A+/Ol4a478jttcPocOna6d5MzuPM+TzAx1P4v1pu7oSsMpMryI7ZByCRGIwakWXKHcuMEFTMMAAJBEyMzM0viGq3k7G8v5sEuTMbtxJ/ERzpmotW+xE2nSIjXSw8nlJA3gSFJ3MYEk4zTZBBBXBGfoTz7jH98qW7lM7cg/wDSYPUA+ox/ZTevbhMEA5dvmfLy58qR88vsKC11zeRiFVRAhRE5zAE9frWi+zrTbuIacR/lh3b5W2Ax8WFZlFJYL+cjHoI/lW++y6yPvN1491GSehl7eRGOhrNmbcZN+jVBJJUdaJpJNJVqOuO0bkGDRzSZo1oEFbqY1mlt3V23baXF/K6K4+jA08BREUQUZvU+BNA8n7vs/wBD3EHyUNtA9AKgv9m2iPutqF+Dgx/uU1spoA0d8l5BtXowz/ZpYIgajU/P2bf8Kq/EP2f6gqgsXEuqu0H2gCXVHJtrAhWGBgxyrp1Jpo5JLyK8cWcL4n4I1doybLunPdbl+fdB51PeV+dO6KzdC+zfTX2Cxt22LgaJEgws98124NSt1M8r8oaMdr4OE67RMGAKOEJ9y4jh0VmG5grgHbOJ7iujeBrKozIFcMiFHJVgrsGXadxwTHQdDV74h4QNVa9nvCNuBDlN+0cmAEjmCevOKmaLRpZQJbXao6SSSe5JyTgUZZE40MPUKE0Kz0Syr1N3JpGmuSaZ1LZp3SrmmiuAS7Lq1ypVJtNilbhQkES1JIpZpLCglYSLqaz/ABCrrWMRVDrr1acUGVykkidw1sVd2CKy+hu1e6VzFPkxN8ixyIrvHCA6dWn3Lif9wZP+X6Vz/Xl0V3XKlCCMyrMNoPI9TWr+0bUEWLag5N0N8kUn+JFZbW7XRNrAG4MAkCSCO8cmKnnyBrt/TU46Zp+3Ry9ZTzqvSMZp0WYkbWkwYA/eywABjMdcDriXPsiGtNIbPszIDZnoQVIyPkfWnNdpUQxhgxkQR+zJgqdwxBBHLqpqD93YsWlmLGWEAsROWXoT0j1pdrjwlyHcn5JL6g3eQ2xhl6yTzM5M/wDGo58pkjBABBg9BmJo3tGFdSDGQQD8w09I2g/GmfvbHyoTygq0OJiCVMcs0G65l2FR9E+/r1ChYLMRIwPKpJPrnAxj+teilmlpCDJgcp5Tyk5o9FqwrAPbBk/lgjtmeVL4k5n2YAB/KJhABGZ5mBPzqN2rCo06HCu+4zLhU9zPQHBHP+xW9+yuzH3l8yWRPpvJ/iKxluAgsgEXGxjAjAkmRESV6+9zFdM+z3SbLDNEb7hYDPLYg7Dru6Vl1VbGy7De6jaJS6JRijrjs6CEkUBRxQilCOIKOKJTR1ACWFNxTjUmKhAhQmjAoookCpJFLigRUCIBpxTSNtLAoEBQoRQqWQp9VbEzSdM2aFCmXQPJah4FMXNTFChSrsIuxqJp5rlChTx7BLoq+I38Vl9Zck0KFdPEltMM27H9DcirvTamBQoU0uiIyH2g8RIuWECB5W4SCQIkoJBI54/WsVqjqvLcFsKqSV2so2g84Mg0dCulgheBc+zHldZehtdbaTDBlbntIDDEnmD3H/d6U7duoIa2+QYXDT5cA5AHKKFCl3OwyiuGRtQHdiUTahI/ZhgAcAcxGfiOtRzsxuBgxke8JHOe4mhQqq25Oy/YlBD+rCqIZQXPIziCqnMAfm9aj6O8iEs24nocnOIHOefWhQqZe2Lh7QrT3WLuwIBWGOJCbWhFAPPJk9PjXbvDOlNvT2kMbggLQABubzNEADmTQoVz9S38a/qasXORl3upStQoVzDWOhqBNFQqEGy1DdQoUCDymlTQoUyANMaTNChUCLWnKFCoAaekbqFClYQ99FQoVCH/2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nangyal Kharoti</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024_T20_026</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Allrounder</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxASEhUSEhIVFhUWFhUVFRUXGBUXFRUWFRgWFxcVFhUYHSggGholGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0fHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAPsAyQMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAABAgMEBQYHAAj/xABHEAABBAADAwkFBAYJAwUAAAABAAIDEQQSIQUxQQYTIlFhcYGRoQcyUrHBI0Ji0RRygpKiwjNDY4Oy0uHw8RVTcyQ0o7Pi/8QAGwEAAgMBAQEAAAAAAAAAAAAAAAECAwUEBgf/xAA2EQACAQIDBQYFBAEFAQAAAAAAAQIDEQQhMRJBUWFxBYGRscHwEyIyodFCUuHxFCRicqLCI//aAAwDAQACEQMRAD8A1walAJQaiApERJCTSdpIIQAGpwBJATgCABS9SVS9SAE0jSNJnG4pkUbpZDTWNLnHsCABi8THEwvkcGtbqXE0AsfjPaXhW3zcUr9aumtb33ZPosTyo5Quxj8z9Gtvm2XYbXE/iPErNzvdWt93Cu0qNyeylqdBn9qUt9DDsr8TnE+lUpWD9qTCftcOQOtjr9HAfNcvZYII3f780ouvs6kXDI7pszlngZtBLkd8MnRPXodx81ftIIsGwdxG4r54bE0EX4G6oq72Ry0lwbsrDmZYuN3u1etfCa4jxCEw2TttL1Kn5L8pIMdHnjtpBpzHVmb5aEHrV1SkREUjSNLyQhJCSQnKQIQIZISXBPEJBCBDDgk5U+WpOVAh6kaRRTJnkghOJLggBCcASaS2oAIC9SVSNIARSx3tQxoZhWx3/SvAI62t6R9cvmtmQsF7VMMZP0VgGuaQ34M4pS0JR1RzcQFwc/UNG88N1+evzScZgS4BzAdeNGuHkut7E2FD+jthcwEVr2nr703JyMgF5ZHgHhpS4Fi9TR/xtDjkGDlc7IwEk8AL+i2Ww+RcrxUhFHWq1Hctzsrk3DDu+Q17+tXULA06BVyxbemQ44aMdc2YSb2e2K5wkab2i66rWL5a8mjhS0tstPHqrgu82SN1LJcu8DzuHLa1veiNaUZp3uglSjKLyzKT2M7TiLJMNka2VvTzcZGk0Tr1WBS6XS4X7PmSQ7ThA0zlzD2tLXH6A+C7tS04mY1YTSFJZQpMQkhAhKpAosIRSBCWvJCGiEmk4QkIEOooo0mTAECEqkXBADVJTUaQagB0Ly8EUABZ/lbAHfo7jwmr95jvqAtEqvb7Q6OrGZrmPAvX3gCa7iVCp9D6FlL611Ik2MEQAax73cGMFnvJ4BV2O5XyQU2TBy68aGUd5Fq5mjdkOQhrjxq1jNvcnpZJ2uL3PblojX36317tXrddnasqnspZmtNNvI0Oz+UJkDn8yQARW+yq7aHL0Q6jDuOtdXrVLSYGIxsa3fQGp3mlT8qtkGbm3hpdkdmLNwcOPUfVKm7O7HOGWQ7svb+InGYYXof+RmbwA+qsgRKw2CL3hw1B7Vn+SvJ90TCXSSB2ckanRuvRokjj9Ou9VKzTtUp2ehCKsYrYeyR/1KN9e4yR/jWQf4/RdAVBscNY90r9Bkyg9l24k8BoFoVoYeSlBGdiItT0Er1Ir1K8oElJISyECECEFCkpeSEIKTScIQQIWAvUi1FMmCkaXkUANgL1JVIFACwlBJalgIAFKFjYGgl3xVd7rGljqNfJT1C2vCXMsGsps8bAVOIjtU3lf3+Dowstmqs7bvffYOGZaLoWjcEjCy6BIxuMa2r3ncOJWemtk0ne41I4byQOFKTC4dfDf1rPnAgAZY6uQvJc9xNm+s6DXcpOzomwZ6YQ1xt1Oc4A9gcTl8EJJE6jVi+w8Gt8E3iwAUYZgW6G1Fxk3RJU5NJWRQr7V2NYadhJiO/LYB3ODtdPC1bKvw+DBdG41bGgaVrpVnrVjS6cJFqLbObGSTcUt2vUCCK8uo4hKBRXkCBSBCUgUgGyEEsoUgQoIrzUUyR5FFBMAFApRQKQAYnQmwnGoAKS9gIIO46JSj7Qx0UMbpJXhjG7yb8gBqT2BD5jSbaS1KqF2UFvFtt8tFCxjJXvBY4NoakizR4NN6a8VEn5QYeR5lhfnicQ0upzakAGhzAHUUnsHj25zZ03dnYQseatNpG3C+ypS19Rp8UMeksuY/ic5ldlNoIx7NY854Z3tvQhpzN13+9Z9U/tDZ+CkIMrGuPA/JScIMPE3oANHAD8k77iyVbr4+g5hczWlpO4jXrCffTnNYOJBPcNSqnFbajY4g12ddq32BGSDK4au0A6hv8AX6KyjHamkcdaWzBstI4mtFNAA6glIoLTSsZjd3dgQSkECEoJRQQICCUghiElBKQpIQWbkpIi3J1SJgXgiggDxSSllJIQB5LYUy+Vo3uA7yAmJdrYdvvTR92YE+Q1SlJLVk4QlP6U30V/IsFzz2gS/pIdC11NZoD1PG8/RW+0OWcGrIi7MdA4jot7RxJ8FnnuBG9ZuMxCaUYPr78z1HY3ZdSnN1sRBrck+er4rLJb82Z72cYkB0uElAsnPR+8aAO/9UHxWhx2ynxkmF9fhdZAO/Q7x6rMbS2S4vEkZyyt1Yfir7q2OxsfzzAJRT+PauedW/zrfquZHEYGWHnsPOP6ZcVz5rR8dTPY0bRokR3+q4fUr2zMDtGWicsYu+mbI/ZC2U2Fr3U3ho35qI060lXd7WRyyoq17sZ2TsMNcXvcXuHE8D2DgtjsqRjomlhBaRvG6+PrazW38X+j4WWTiGGv1jo31IWb9m23+bDYXnokcfunr/P/AEXRQq7MtqWjyuReCliKUlT+qOaXHiuu9HUl5eC8tQwgLyKCQCSglFJKAPFBFBBECCKTSLCPQbk6mMOdFITJnl4ryKQCXuABJIAGpJ0A8VmdtcpD7kPi8jd+rfzKx/LTlBLiXuZG6oQcrWjc87g93XZOg3DTiqHC7SkjdlFlprok3oerq4jwVFdVHH/5u3viaXZ7wtOopYiLl4WXNrV+8mXuNke63Ekni7efPeoDJRuJI9QrWF4e0ObuOo+dH1CgYrDNzW3RrhY7ODm+BWG8tT6PQqpq27dYAw16g9xCfZI4DKeCj4cuaS3y6rTuIf7rx4/77ClqWSTbs8x8PDhR0PBTtnt1o6O3g9aq2C9Qe5Jnxj8zWx1mui53usHWa3kIirs48VRjUg4v8tPkbzBszx67wmg0tcAVP2aymghwcCB0hud26KDtEOM8eUaXTvzVkvpuePT+ZoY2/gf0iKSE6BzC2+pxGh8DRXI+T+Jc0lp0cw+QP/6pdtkaRYrebXNeVnJQ4YnFxklpf04+prjrR6rV9Nq0oS36dSzDVnQrwqrRZPo/5zsdH5I7ZEsYje4Zhus7x8PaR8qWiK4fids4VrTC8ucC0GmD3QaLSCeO4ilL5P8AL/E4V3NzuOIh0ok/aBvBzXH3tK0d5hd+EnJwSkreqOTtrC0qeIlOi003mlb5Xwy0v+eSOyoKv2LtvD4tmeCQOHEbnNPU5p1CsF1GKApJSkkoEzyC8vIACCKCCI3hipIUTDKWEEwrN8uNqGKERsNPlsWN4YPe87A8StGuT7b2kcRiHyX0QSyMcMjSQD4mz4oZOCuyqnaAWDrcP4el9FXY1tEHhmo9zjZ8jSn7TkDZIRwzO/wOVbj5LDh2kDv94fM+SiWsteT2KyvMbtxILD20Pnr5KydrzjfhIcP2xr6hZ1utuGlFtHty5lodnSh7nO+JjT47lmY2laW0t/met7AxblSdKWsbNdL+jy6WDJDVdw8DSBiPSHDf9CnmtL3kfdB17SNwT7mEH5H6FZ9j0O3bJ6lVzb26X2g/RR2tcx19fvfmrl8PokOw9iuO8d/5JptMk6kZKz9+/IsdjbUdHpmbV6svQ9ddRWow8rZRmbv4jiO9YOF4A0a4Fu8DIB3WVZ7Nx+uZpyuH3czTYHY0q62V9xh4zCxqye6XGzs+r9fsbWHDWqjlXiWCN0FA5h9pf3W767CfQeCkN5QtERNfa7gK6P619XZ/ysRyjxZykE26Qmyd9feJ793irEtpqMdX9jMpYZ09qtiFaMN3F/jz8TCcoIiZc7BVjcNNBu07tPBLgcHsaDoRp3je3urUeSmS4ck5z3D80xzHX3rYUErW3HnpVpNzb/Vr1ve/j9rrRsOyMTPhZhJC4tcNQeBHFrhxB4hd15N7aZjIGzNFH3Xs35HjeO7cR2ELicEdmjvWv9mOLLMU+G+jJE59fijLAD5Od6KZQzqBSUSgkJnklKQKCIlBFBAhjDFTAoGHKsAUyZC23iDHh5nje2N5HflNetLj7NKHYun8ucRkwUvW7IwftOaD6Wua4HCyTSNjiaXPdo0dfjwFWb7EmWwyRTbdkORr/geD4Gx9VV4qcnN3NeP2TR9HFdF29yOEURhJ52aSFzxlsMDhmLRHxdRZvO+9wXMGu9wncdD3HQqEZJtpbiyrTlBRb/UrrxsTJMcRGKPwuPaPdryKvuTOLyulafdBYR3OzEegCyQBrKfxM8Ru9cpV1yQla5zw81pEPAB4+oVGLV6T7vNGj2HL/XQW53X/AFbt9l3m0wT8xLgKaNB2k7yVYRxl2gFqtm2hBEAM3UOiLVnsPaUfOCnaE0Qeo6XR6rtZCV7I9nXlK0nFXaWnvjmTm7KoZpDQ4JmXZeYWwteBrpVjwWj5lz3uDizLuadM4cCAbsjdrvPUs7t2NkbrjeHVxadW+I6uwneunDUlWg5JWs7anlZ9tVozzs093v7mfx2wmOOsZBHUyIedEFRGbNlYbaxwI3GvytajHyXI79Y13cPRVuI5vi0/us/mVtPESvs5WO3E9nUZJVbtOyeT/KZ7D48FvTBa5u8EV5Dy07VRYibnHl566A30OA/3xtLxLmF1CwTu0YPkEhkNdFdVChGLcl/Rk4/HVKsVSbulq+L3Xtlly35gDPEK+x/s/wAez+qDx+BzSfAEgnyVM1pGhXeY8r443mzbGnS76TQbFK6cnFXX4MiWSPnubZksEg55j2frNLT5HeFeez8D/qIs/wBVMB3uLHD0DvJaH20vPNYRxJDg6TTs+zs/LzWB5L47m8ZBJ1ytae55yfzE+KkneNxLM7mggvKRAFry8gUgCkoWvIIkKA6qzaqqI6qzjOiZMyftOcf0aIcDOy/Bkh+ijeyrDAuxExF5WsYO52YuA78rB3Eqw9osWbB38EjHedt/mUH2VYhpjmZYvPG7W9xDgDpwsa94UZFsL2y5+Rv8U8EdI6tNWANxqxxobx4L589oOzGx4qUMFB2WYNH3S+w4fvtcfFd+lEbRTqsCqJLQbzbheo3ea477U4SNpOGuV+GYWWCLyueDXiD5hSvDO2olGoktpZbjn0vSaSOIDx+szou9CClbCNSZiOi0Eu+g/epJZoa6nX+y8ZT60o8MZJyjrVVRXi0X4Sbp1ozSu07/AI7r68UW0OJzzNPSNdIN+J33VoMBjXMOsJ79LStkbJDG02sx95zgb8CnNoY4RgtIYT+EH5rHqTU5Wij6DhKM6FNyrTzbvLv69N2+5uMJjBKGSOP2ZAY8kGg+qo1uJADvNWG2cn6MRoA0xkEMFU92X3wOGpy8d3UuYbL2sRbH2IpAGkMNUAbD2ngbog/Qq+jngaGN518jRTmg5xThp0mk1faPNddPEKnCzWfqecr9jfGr7VK+w233cOT1tfK1t90WGMxBc9+UD3ncTuvQ7lW4ydw0yu8OccPRLxeIaxttad2lVvP7So34px/qZP3d/lKuem88/f3NnEUvk+Xd74MTj5hYrQjv+qMmM+0DTuIsHio2LBP9W5vfm+riom0z0WHiCFrU2mjxmLjKM3fya9EXplvguybE2iP0bDh9t+wh6RvKTkaKsLgkW0Kvuul2DZW0p44mNLA+FsMTWubbgajaH9JgcBqDvATlNRs2U06bqNqOvVLwvr0MN7aNr85iooAdIo7JBvWQ2f4WtPiFiQ8s5t24iSM91G6+SVtjaZxeMkncA0SPzZRuaxoDWt76a2+1M4+S8nbI0+f+wplC0ufRrXWAesX5opjBPa6NhabaWNIOuooUdU8UiD1PFJRSCgQSgikoAgNOqs4Toqo71ZwHRMkUPtDdWAlPbH/9jVyvZm1pcNIySI04CiDq1wO9rhxBoeQIogFdJ9qEtYEj4pIx6l38q5HK7UdgCGWR0OoRe1ENaA6F4O6mkObw4kjt4eaxHLXlOcZNBKYwwMLme9mJElHU0KGh07TqqSR+7vTGMFscOyx4a/mobKRNzb/pDOLbRvqzNPh0h6hJ2ZiGxyZ6vfQT0zszC7raHeNUUjZOJa1wD2+KrrfQ8rnX2fb/ACItyUc9Wrpe+eRcTbSxTxQBaPXyURmCmJshaiDDh4trkp2DeOF8P9Vkqts/Skj3csBCo18SrKXgjOx4Zzd6m4HBSPOmg+SuoNngnpblJxczY2UwAcPFRc2y2NCnCSjC797yqlJHRuw3QJBlcP6mU93N/wCZNPuvczftNb80yzDknXCt8ZW/5k6ULv8Ar8oWOxUqUbRT8JelOaDiZ4+LZQf7pv8AKoW0yHxEtuxrq4H6BPYsaVzbG9xJ+pTOEN208Vr04KKyPBY3FVKsnGVvD8xT8ipgltzdd+nnohHiZoTmY50ZB95ji12na0gpvF4V0Z7jofkrCeponEbwAa7R+equuZpWYY14+nV9VLlrNHxHON8etQMO7Wyp8VF8QHx35IA+hNiSB0EZBBFaZdw1NDwGngpyyPs1xGbDPb8MrvJzWn52tZaERlqEFAoLyCILXl5eQBWv3lWOGOir5d5UzBnRMkZD2tv/APTQt65x6RyLlb3dJdP9rrvscOP7Rx8mV9Vyh79SkyUdB2Q7u8JObXVJduCbkJQMQ01E4fC4t8yP9V7CSssZx4hN4i7d25Xehv1SYReipqZo7MLKUZJr76M12FhkaM0JBafulSotulukjSD6Kl2c6SOi06fCtDh54Z20QAeorJnGzzzPfUJ7cFZbL4PNd2+3R5cBX/XoiN+qjMxTHP6RBC9iOT7Tq1QJNhyDc5w8MySUHvJ/Er009mCfR2f3NzsnYcc0ZkYWkBxadbroF1mu6k/BycbIIiHsAmYXs6UmpoOy6HU5ST4FZzktyhdgg8TFxa58evMvrICQ+zXUVp8DyywLxGGSOuMxkOLHD3HkFuWv+252q4av+bCpJUk2rqzS5PlulbyPO43G1HJxk0uCag/V/a982U8vJHOInNkbUr5GAjM6sokc02Xah3Nnusb00zkPlfCDP/SOYLybg+OSQn3uHNkLRs5S4QBrAXdHI4Pp1XHMXBmUjeWOdr20mNo8rcGC004hj3kDKRmbzErWi+HSkrs3qVTEdqXahGVru3yrjlue7Ld4mFN05Nt28vLIoJuSRdGXNla6m9JpaRTxzjXMsng+PJfW4LHOy2WsAAo5q3dy3O0uU+HLJTh+cDpGENsU1rjJLJY/amcb/CAsFM3m43fqnz3BbGAniZKTrprPK6SfPRL3octRRVrFPG4UK8+KnYA3K3sHz/4VZGU41/qb8tAtEqOv+yyfXEM/UcP4gfot+uVezHEEYot+OJw8QWu+hXVLQQlqeQKC8gieXkLQtAEKfepGCOij4o6pzAuTLDH+2D+hgP8AaPHm3/RcotdV9sJ+wg/8rv8AAfzXJiUmC0HSdEmR6JGiVI5p6rQMjzOIyuHCx4b69SnMRFlp7f6N95ez8JQlj6BPcezq+qc2ViALikvm3/wn4lTVus17X8GhgtmT+HJ2vo+EufJ6Pue4udnHogq1wGzudlY1hylzgCf1iqXBMMLnRv3Xo7rWj2NiWxTRyOvK1zXGt9NNrHxLlFScM8nbnlke6wqc8M0180U8t6kveppMDsMtIbI8i5HsGl9FjHOa/fxy+qdxuymshEglGYtY8t3Gn6ir3rzeVMT8vOggtksUL6Aje2z2kvGiizco4I8Oxo6ZaYiI5MpYCyydSdWuOlWseM8Ztq6eqysrPvtkub8Vv44vGRkviJ6q9kuLvnbJceBG2jsKP9HbO6Sy8WGZY7PSo04jhv3qng5KjmWYljyA+VseXoaZpObz200Rm4K9xHK3Dfo7MskQcH5nQkNc03Jmr3gABvoHsSRyx2eYmxOflORshLR9m2QTCXmg0WbB47q0td0K2PiklF/X+2/y9LaafNnfjwycdKFm6kVfaebtp3peKvfjfJRdocl5Y4nSCVrg0vFZSLLJxAeOm/N6JnFcjZOeliM4+yZHJmyHpNkMoOmbSjE7rVu7ljgHMdGZtHSPdeSTd+lF/wAPFhB8Eg8tdnFz3ZnDnGmJ4LHk5OdkJdYG7LK9wG8bt+iVPF9puGcJXz/R/wAbfp5SWSevJGHJUuK9/wA2GNn8jBJE14nIzsY9oycHtB+LgTSpeXnJ6HC4clsj3uMmUaANppskir4tG/rKudh8s8NFh4WOLy9kIiNN4nLepPDLfiqLl1ypZi4CxkZDWuaWucRmoEtADRoAQQd+8Lqw0u0ZYhfEvsXe5LLwT7lzIT+Hs5anPGp5psgdoHgEwE/hRbu5bxzG55DYjJjMOeBcWn9trm/MhdmK4JsuXm3xSfC9j/3XA/Rd6tNEZHrXrSUEEBVoWgvIAhYvelYJyRjUMG7VPcTMl7Y//bwH+1cPNhP0XJHOXZPa5DmwAd8E0bvAhzP5guMpMa0J0braiGNI1pRoZKT7XDiPEH6IY0JMbRYaTu8FEkYpgy3o49xCOEZzrSz+sGrfxD4VVUdsztwtL4t6a1enN8Or3FtsTECZnNO95nunrbw8lOitvRKzWzw7N0dHhauCVs7Mw6L2+8PhKzMRDZba08j2nZGJdWklL61kn+5LjzWntnnJpxPUf4/8pXmydn8Jd/AFBxTXjURMP9zMz5KqELuzNHE4hxjeK9+f2HpJ3cR/8pb/ACtUCeVv9p4Ylh+igz4p4OsYH7U38zlHlxBP/Lj8yu+nh1w8/wAnkMb2vKV0pX7l/wCoDsmIZfuyftPB/lTbexMErzHELsSsefnNzd39kl5E9hIXsb/RHw+YTDZErFy2wjsHzCCBWKXgW2e+goikwOIrKaPWmgL5mmlLt+w8TzmGhed7omE9+UX6rg0EYGtuc4+S7NyDmzYGH8Odv7r3AelJkZaGgJQtAoWggFetJtetAEXGpjCO1Cfxm5RMM7UJkxHLnC87s/Et6oy8d8dSD/Cvn+19LvYHtLTucC09zhR+a+aZ4nMc5jt7SWnvaaPySY0LsUL80/A0kdGj2cU3htWkeSaBopDJLc2bdSZY4tdmbva6/VSGzu7+1Rc1PN7idVGWhbSlaXDnw59zzNA4NeG4hg0cTnb8LlIDiwiWPX4gqvZGJ5mQsd7jvK/uuVvJURyu0adyzKicZbOvDmuB7jBVI1qTqP5Xf5v9s/3dJb92o9jeblbmjkYHcRmo/wCJqzk2KuwS2+vNK76kK0ZiDC7PERlPDNX8pT2MwAxAziBhed7hK/XwyqdGSp66dV/BRj6U8VF7FtparZk01xTim/LmZYuCTamYnAlmj4nD9sV6hQyzq+YWgpJq6PH1KE6btLXo/VI9aIaUAa3pTpupSKQsKdHuuHYfko4epEAN+B+SBEBTsJNWlCvVQQn2kBIZZRyveabTR6rrXsylvBlvwSvHmGu/mK49A6gNfJdU9lTzzEwP/cafNg/JSE9Dc2haFoWgrCShaSShaAG8XuVdC7XxU/EblXRb/FMmXkR0XBOX2D5raGIbVBz+cH96A812W4jwXeIdy5B7Xh/62M9cEd9vSeEnoCMXh3nUCr3j8kiSSzurrSE5id/gokh2GSuJSH6m0IEobkpFlNXbRMw7edjr78e/8UfHxb8ldbGxgeOZk372n4ln8M8tlY5pohw18lY7VGR5y6U/T0XHWgpPZ71yPSdnYl04fGWsXsyX7lufW3knvZYzYGMWM3hmVbznNO1JrrbzbvmrbaY+yD/vaa8VTv6W/VVUG2szv7Siqc0qaUXqunP+B6bHwu3yPb3xQu+RaqjEAfdeT4V9UZ4x/slRV3U4KKy9PweWxeJnVfzJd216ya8Eea7rTwGmiYKchOqsOEW2OtSnsNJbvAqK8qRs/ee5MREkFEjtSo3gbxa9ifeKVFuSGPRzs+HyXRfZVjwJZoiffY17QfwWHeNOHkuc4bU6/l8leckpXNx2GINfa14HM0jyNJiO52gSgklSKwkpOZJckpAf/9k=</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024_T20_018</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>37</v>
+      </c>
+      <c r="R34" t="n">
+        <v>24</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFBcVFBUXFxcZGh0ZGRkaGiEZGRoaGhogGiAaGiAdICwjGiApIBodJTYkKS0vMzMzGSI4PjgyPSwyMy8BCwsLDw4PHhISHjIpIykyMjI0MjQyMjIyNDQ0MjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMv/AABEIAKgBLAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAQIDBAUGB//EAEQQAAIBAgMFBQQIBAUDBAMAAAECAAMRBBIhBTFBUWEGEyJxgTKRofAUI0JSYnKxwRWCotEHM7Lh8VNjkhZzs8IkNEP/xAAaAQABBQEAAAAAAAAAAAAAAAAAAQIDBAUG/8QALhEAAgIBBAEDAwMDBQAAAAAAAAECAxEEEiExQSJRcQVhkROBoTKxwRUjQtHw/9oADAMBAAIRAxEAPwDz2JeBEWSCCRLxYgEAFBi3hEIgAQgYpgNEEBARSYDhbQiBrkAAkncALk+QGpm1h+y+Me31WQHcajKnvBOYe6SRrlLoilZGPbMa0W06Oh2LxGb6x6aILlmVhUYWF/CgtmJNhvG+82KPZbBU8nfPUqrUsRUDd0FHLKgPkbnytHqib6RG9TWu2cMBu5k2A4k8gOM3tndj8bV1FLukOoeqe7uDyWxc/wDjPVtmbFoYf/IoU6ZtbOBeofN2ux98u1AfuknzlOVvhIvwpzy2cPs//DykoBrVqlU8Upjuk95u58wVnTYbDLQp93SpLTT7qC1+pO9j1JJmqtRQNVifS0OmkilJy7ZYhCMekVEXMLkQNNuAkdXaQBsLSCrtJwLrrGcEuWW8Ejq/K/OMemxYvhqgDKSGpN7JINiFO9D03eUyf47UDC4A14iXcajf/s0DfQGqnOw9sdQN/QDkbopewko+Tzz/ABJekcTTZEFOq1MtWW1vHmyqW/EQrXPEBZyF52/+IVRMS4q0hdqSBapA9ogkmx+0UW1/dvUicNLkHwZ9ixJhFEQxAI4jHExt4ExsAHXhmjDFgA4GLeMvAQAdeGaNMIAKDHAxkWADw0LxoMLxWA/NC8ZFEQcOvC8bHQAA0W8QCKIqGhEZpf2TsatiT9UvgGjVG8NNehbiei3M7XZvZ/D0ACQK1QampUAKg7/Am5fM3PWWKtPKfRDZfGHfZyOyuz2Ir2ZVFOn/ANSpdVI/BoWf0Fus6DA9kqCa1nasfuIDTT1N859Cs2cTtFAbu5Y8hqffKFTa9S31dKw5nfNOr6eu2v8ACKM9XOT4eDXw9CnS/wAulTpdEQA+p3n1MWpiwN9zOYqY3GH7KypUr4riF+fKXo6VR9v2IH6uWdQ+0yDfcOkxMbUUo6gnwvmX8j3/AEa49ZnjFVvtKLcbCRVcUc17WuCpHn/uJPGqMeSNrPB6d2P2x3mFUMbtTJpseOmq/wBJHuM1K20BPL+y21BSaorMFUrmJJ3FN/8ASzH+URNq9vaa3Wipqte1z4Uv04t7gOs5P6lVs1D2rh8nRaGxSpW58rg9L/iWh0mBVx4L2BnkWP7RYvEEqajAH7FPwLbrbU+pMds7ZeLBvSZ0J3lXK387HWZ8q2/JdjZzxE9VxeOWmM7siLzZgv6nWYON7dYdNFZqh3WRdP8Aya2nlecseyWMqnM5zHm7lj79ZqbM/wAPi/tsUPIi49DfWEa15YSsl4WC3V2ziMQmeitMAbxqzgHnroQCeE6zs9tg0j9YMoG9d9vK15V2B2CorWQhnOXVtSoI4g2PiB5T0RdmUUAIp0xl3HKLjr1jf0XnKY6V3GGjxvAYqpT+kKiZEFdmpU29pafeFwuW+im4XdrmPph7dwiIUqUly0qlwB9kOtiwX8NnXThrN2vs1qeNqLf/ADCW32J0BJN9LZuPWYu3MetRUREWnTpvUCKpuGDFTnJtqSwaWosozRjwtDNCPGiNEitG2gAQMBFgNGxQYkAYALFIjYsAFtFMaDHXgAhELwhmgOFtHAQvEgA4RCYXk+z8I1arTpKbF2C35DezdbKGPpHRWXga3hFjZWx62Iv3ajIDZqjnLTBte197HooJ8p1uG7O4SkAWVq7jeXNkJ6IvDoxaXhWRQKVIZaaDKo6DieZO8niTIqlSbdGhiknLszrL5SfHCLTYokACwUCyqBZQOQA0AkT1L75UNWKK00FUl0isS2UcBEZ5AKup0v0B1kbYtL2Yuh/Emb/SxPwjsY7DgnL9ZXevVHs5XHIqQfeJG1akf/7qPNHB9xSUa+OwyX+tqVD92mrIPUtaNnbVFZbFUZt4iietXTfUw9RbfaRtPjaZONxWHK/V1KhN/ZYX+J3e+UsdtJqhsBkT7tyxP5id/wCkpKtyALkk2AHEk2AHWZV/1F5xDr7lyvS+ZGjtCvakKieFnLDfvAtc9L6+6c3SW7AfiBueV9/7zqe02yKmGpUkqlcxLGwOYLexyE2sTflcdZj7JwLVagRfa/YTItslN5k8mhXUoelLAbD/AMw6byfdaek7KogbwJz9LYHdtnXppyOt/S86DCFtNJUm+TSpjiGDoKdraSWm+/ykGHqKbS5h0Ba3SGR2ws4PEFDp5zaSvmGhmbRdbkEaj5vNCjTFtIqbGTijiNoYcNWJGjK2W/EWtfTrrPL9oC1RlzXCswHkGPz6z1PbFIjGmmL2Zk3c3ABPpv8ASec9p9jnC4hkFQVVYZ0cDLmBZlIIudVZSD6GSQKdkX2ujI4wEW0XLJSEYxiRWWJaACQhCABGiKRFgNEEW8IQABFvEEUQABCKBFgOCLC8IIAmv2Ya1dj/ANp7HiPZGnK4JHlMcmXti1wlZc25vAembcffb4yWmW2yLfuRWrMGjewVVs+W9yTbfNfLcTBxYs99R13aqbXFt2olyltca94bMftjcTzdRqCea6dJ1W/ckzHjw3FlmqLa8PMCRquY2RgzfcPhcfyn2h+W8hz1DdqZR+YUiorDkUtfnvUecqVGzeF6VamV4rTapT04gHxp6EiLKzA5QciWq9iQw1HAjUeh1EdiMU1NMzOSh0CuhqBiNbLmtb0IkdXF4inTqMtVqndqjZXQEhHLAHxDMCMoNjbRpz2NxtSswao2YjduAA/CBoP9pR1evUFjHJPTpW3nPBbxm12qLlVKdMcSikMR1JY29JmWjoCYNls7HmTyX4VxhwkEv9nkBxVEHg2YfmRS6/1KszzLeyT/APk4f/3qX/yrImSrho6ZsMlSiqViLvdgDvzHdbz3+srdm9lFMYSB4O7JB8/+JexGEqd4tXKWpBkpuB7SldNAN4IA+M6rZYQ6WANtfK8himampw8NGJtWq48NJVJ4knScxW2rWpG/eUGPFS4v6C4PpO2xeyVqZrtblMDE9nEXQYek44H2T62EHF55I1nGIlPZvacubNTIO66kMvvvOsTaDd2SqMSANbagcz0nNUex1UurBadMaA2N9PxA3uPnSd7sbs8rU6i5VD2y3AG4j2lIAvfXeNLRjhLwOVm1cs4DH9qqyOFp1KSDdmfMT1vY/tOm7JbcqVHA+lJVNtVTQD+U6ys3YSojG1Kk4JvZhf8A5nWdntjZFBelQQruyINPKwGU+RIPSLGLGzl5yQ9oKyUsUHcGzgEW/CoX3X/WeadtVyVKND/pUiM3PPVdl/pyn+aes9p9nLiDTpsSADmuLX43XXdmsNek8p/xBU/TAGADdzTzDkbNp6DLHRT3DZySpSXucwYixxWAWTFERoyPIhaAEZESPIiWi5AaIoi2jssAGWiESQJArDImCMR9oto7LDIo20MvzaPAhaDBEN44GFooWJkBpMQyTLEIgBsPi+8UMeIBPRiAG/qUn1lnAUe80R1Wp9yoLpU8uRmRg9VK9f10/UD3xwJ8iJ0Gmtcq0zJsjsmzW+nUlfJiMIiP94HICf0luuVCsUqU6NPeQHLnTiAALk8pVo7VV07vEp3i7gw/zF8ifa9ZLhti0nKBq6vTXxWvkb8uQ7vzXPS0uwlHHYcSwO2cy5EZkPd1nCWY+NqVmXMx4Mxd203aW0mHtjZbYepkJzKfFTfdmXryYcR/cTose4Y02XQGooUclUhQB0/vLGOw4r0FBIBDWVm+y4YoCbcCRlPnfhKus0v6kE/JLXbiTfg4gCGWW8XgalIhatNkJ3X1B8mFwfQyACc804vDNBNPoiiqSCCNCCCOhBuI8iEaKd3R24lZMwIVjq6XsVbifyk6g9ZNsavmqU6im6OjqD+SoR/f0tPPConbdmao+iIf+lWqJu4VFVx6XzRMYJ/1XJKLOkarqRJaQb2r7v2lGk92lrHVvqz5cIybwizUV8FjEqVmV3tYWpgmwY63PnutOz2DjEtkJs36zx/aNOqSGXKv3QTbjw4+s6ns/i6gZBUA3e2XXLz111kcbcLA6VW/k6fau0mp4lqYcsGUMovfKToVv6A/zTQ2djC1s05raGDu6VFKsSSbg3vzN+k6PBIAAekdGQxpRjgxdsdp6FLE1adVwppBCNCWuUD+EAeK+a1p5Pt3ajYrEVK7LlzkZVJvlVVCqD1stzbiTNDtxXD7QxJG7vAoP5KaIfiCPSYEel5Kk5uSx7CARbRbGPCRxGRMIWkhpmIUMXDAiKxMseyxFQwwAgEeFj1onlH9weUMAQFYtpN3B5GAw7coYDJCEjpMmGY8JIuCblDAmSpaEvfQG5RPoDcjDApn5YtpMKRPCBonlDAEBiNJWpnlInQwwAYdgGF9x0Pz8Zcq6G/v85nkTQpHMmu+3xFh+lj6TS0NmG4spaqHUhHHER1N7WMZSaxsY5wRu3TXXHKKLXg2EfMyDghuOWhvp7vjNJKgyVUGnicj1IqX/rmLhn8Aa/Ie4gH56yfCV7lvzOPeiS48Swwg8Jo2a1VHUCoudKgGZSSPGtvEpGqk33jjeYtXs7nu9CopTflqEh16EhbHzNuF+cf9I9kHdmUb+vz7pY7xqb3XcbGw471PvGSVb9BXZ32SV3Sjyujm8RhHptlqKVPI8eoIuGHUExgoHkZ1eHrI1w6B0JYKCSCp33UjcSBu3dJbwuDoVFzUjcjUo3tgDiNwYDpMbU/Tp1Ntcou16iMuH2cYMK3IzreyNBkpVw48DFCLney5rkc7XSWlwK6k6KN55f7zN/i1sQctlQUnVRwFrN7yRv6ytDTN1ym+kTfqpTUV2zapOFOnOWHqZkNhfpOU/iWoJNuc2tn49WBF98z7OYmnX6XyV12eVrMxtVD6APoVuQbKd1hytN2vstqgZcPg7McuruEUa7xYm46C19ddZXxFPS4I8juk2wTVdrFtx3Bja3vkSw+0WW012R7G2HiMIV7yqCCQe7UkqpsLkMdSSZ2tWoadJ6iqXZULBALliouAAOZ0kVLBEsGc+Ea6zP7a7QajgKtRCQ2akAQbWvVTl0vJalmePcq3z9LweROhqO1RtWclj1LG5PvMnoYEHhN3a9JKlNcbTAGYhayjcHbdUHLMfCepB4mUKOIUAay7OpweGZkLFNZRJhtlqZcTYwi4XGLzl8Y1ecZgeUv4IsY+xFmj9PXnIam0F5xMAZr7JSQnZoB0l19opzlJ9pqDDAF7C7OXiJe/hacpm4ba6yydsLzhgMlg7OTlIamCQcJXfbSc5SrbcW++GAyXmoKI+jTEwX2veIm2CN8MAdclJSOEXuFnOU9s9Y47eHOLgQpKkcyCZ4xkYcYYmBS7UAlKsokb4yV3rExAHHfNXDUcyeHfvHmJiZpPhseySSuW2Skhs47lhlmqvERyNcQWur3I05jrz9YwCxnQ02KcU0ZU4uLcX4JaBsfnhJdl1Lhz+Nv9IH7SuWj8ALK3VmMs1y9SXyJ/xb+Cwj5so4h1Pxb+00cQ1mTotS/8rUyfgGmXhB4mHLL/AKqkt1q962H10fvQf5lA/eTSl6c/cWK9W37f4HqpQZtdbP5G+o9xiNWak1QroVGYXFxe4A0OhGu6OdiKRUjVWAJ/DeO2uniRgAVcWPmNRf1tH2Jyi4rzlDV7oj2lt2tVAzhBoNKahEvbeAOcw8TW0V78bHyYWmhtTGd0ctShdeDK2UqCb2IIIPG26YtbGU3BQBwSPtAWB9+msytROuFTq6eMdFqiubmp4zz7mnTNxEL1Evka190p4OsVsH068DNnIGE5OUsM6ZQeOVyIu36qrapTYnmLkfCXti9o6gqDu6dRibXUKTp7vm8ZgkUGzbjOlw9ZUHhke/7Cqp+50WFxtWoAKgFMb8oNz5EjT0lX/ERSdl17C5GRrflqLrpyGvpK2Ax9zqZH2yxwODqJe/eLlt03k/D4x8JPORs61taMPsMUq0noVLmm62IBsddbg8CCAR1Eztq9ma1N3WmUqIgLXLpTcD8SuwBPVSQbcN0f2XqjCUlrVs2ViEVVUs7XuSwGlgACdeAnUbR2phCRUGJpAjk/1gPLJ7V+lp0M1Xbh58L8nMzhfRPG18nm7Gqi52R1TTxFSE13eK1vjGNtFt2adLge1matVo0r0QR9WVOQVGG/OgOUFhuAHDnvgx2ILU0yBEvdmQU0XM4JzE5VBJv1tM+SSeEy/FSayc//ABB/vGNfFseM6ALh6mU1KKWa12S9NgdN+Qi/rK+0Oz9IEd3WyZvZ73VD07xdV9VPnG4FaZiHEE8Yw1zzlrbOxa2EcJXTLcXVgcyOOasN/lv6ShaI1gRNPomFY84GsechIiQAlLmNzRhiEwAkDwZzIwYEwFJRUhnkV4XgIPDQLRkUCMHiCSRu6LmhkBrmNJg0baLkaS4atla/vHMTVcXsRuMxry9s+vfwHj7Pnyl/R37JbX0yrqa8rcu0WGOkdTewPkT/AH+esYeIkNd9GtyP6TYUsclNRzwWKNWzVyPsuB7g4/eJUxFmwx5MSf5ny/8A1kY31zzqfs5keL1Sn+FEPvZj+8mhl1/vkn2rd/H8HXY+mMj87RUoB6YQnxBdOh+be6V2xhyAfaIt6SOhiLFeGvz+3ulrbLaU96yRbYUZadRhpco46HS/of1mZX2aCNCAwHhJ9lhwB9OP7TpdoUA9Nx9l19zbwf0mFspu8U0W9tLlDzHEesYoqae5cE6k0sx8GdTp6cBrYqdwPEA/ZPQ6HgZPSYroCR+Eyw9C7cFYixv7Ljhc8COB4iOFPIxSqLre2bip4azK1n0eFnqhw/4ZsaP6v+niNqzH+V8FrCV7AZgQNwPA+vOaAxI4SgcO9MXQ95Tbgdx6W4nysYynWUHMp0vqh3jy5+W8dZzN2lspliccG/D9K+O7Tyyvbyjdw6P7W5RqWO4CNpsazhVBqHgOAA4knQDqZVbE1MSQDanRXco3af62+A/Xotk92ikKLAC5G8tbix4/oOAlnTaGyxbmsR/uQajW6fRL1eqzwvC+Qxexqh7kpld8lQMb2QM+QAIDvsqsM3G58hJV7M0WT6yhTDkeIi6tfnmU39950CHPSVwdQb+7Qj56SCjWz1X18OUDpcXNvif/AB6zR2pw2Y4X57OUt1d1lrtb5f4/B5VtPZ30fEKadMqVqCzEl9L6akkbp09VKNeqcNXBo17k03QhadYHUHxAgMRY9ZZ7W7IZkNReF83lwPpumLhKYxdHuWNq1MfVndmA4dCOBj/9MjKrfCXz9iSH1G3ctzTS8Y4Zd/8ATSK2QvVB6lSPgovMbauyXph6XehqbC6hlIKnoRfS+s6XYO0TiUNCuWp4uluY6F1HHz01lXaWKFSkyOAKtM79xIvbUTKtquonhmrV9V0cp7dRXhe66OnWklek1DEotQDKSDxBQEOp3qwuRca6Tz3tN2NqYcGrRzVaA1On1lMfjA3r+MeoE7dcQCtN13GmFPmgC/tL1DFHffWaUtPvipI5qeqdN0tjzHLx8eDw9WvFM9E7T9jFq3q4RQtS2Z6I0V+Zp8Fb8O48LTzs3uQQQRcEEWIIOoI4G43SjODi8M1Kb4Wx3RY2EWIYwmGxYsQQFC0IsLwAeojiIwGGaMHCNGXgTARUAQtHCBiANjbcpJaIY4bjJppUFRM32ho468COhEjKyphqpRr7xuI5j5tNF0ta2oIBB5gzZ0l2+OH2ihdXslldDKY8L9Wv/T/vJO5ui/lX3DxfqY6gl9+7X3nKP7+6WaQAAA3ATZpj6SCy3HRPh1JHl/wfhGVQQfn56+slwzAGaWKw6lPDv+f9/dJ3PDRXisrJNsjEqy5G3nSZ+H2XUTFI6Usy06gdiwK0xT9s9450UBQ2/gPQ5uHrFH15z07YGNLYeoUNMsAWK1PYcEZWVjya3vA5yjqrJUxcorOeCzU8tJmT2h2GjXxKFDQqkEsmqUqjWsxIOqMTqR7LHdY6Yr4S90qDxJ4TzK7/AF01v5851y7W+rpYTEIqvWQl6YGWmlJndUQLfw3UDrpOZwl+9fBVGvVosRQdt7oNyMeLWtK2lutUcT6XXx0SWRi3mJmYOutMtSqC9NtxPDgDExtBUbxr3ib1bW46Gx8Q85LtahfeNd274GQbPxlvq39n7J+6f7TRlVGxZaz7ohhbOt+ltP3TJKOOWwA05W/blLmxNq9zWzuuemwyuOIB4jylHF7KIOZLeX7iUO+sbNH/AKdc4OPhkM3PdntnrNDEIqDugTTbxZxqBfgLcR/aUamHKPnTVb3ty6fAD0POcjsTG1KZzUGuD7VO+h6gc53uGxCd2j170y4zKqA5ivNgV8MxL6Xp5e+fy/2JIev7FLHVwqBnBCtoTvGu+45TnaGyQmIDoPB7StyPKdm+GoVUYKxynUG2YX5m2omLi9h1KPiU504FTp00vpxi6e+KTjnDfGH/AO7ElXLvs5HtqXo4tMUgIIVfJhqCPdJtoslZErJoxA1G49G/vOt2hs9MRQyPy9rip4GefbLzUKlTC1RxunI2+6eR0tLFarvhskuuBZeuDXlf2NnY2JJDU2PsjMOhHtfC59Jo0cVZgp0vu85z+EqinUV73F7HqDofhL22FyMrqdzW+FwfUESy6YqSiumuP2KbWUb1LHEAj7S6+YmZ2p7OLjaf0nDgCvbxKNBVtvB5VBwPHceBkOIxWV0cbnW/v0Ik2wcfkrvQJ0qDMnSoBu9d3ulPUaTdByS+/wD2JRKdU3KP49zzS28EWINiDvBHAjgYjCejdpOzRxmethk+vRc1RBoKgGmYcnH9Vuc85+fnkZhWQ2y2s6DT3K6CmhphHWiFZGSjYt4pEbYwFAGF4hMBGjgiwgIAOvARBAwAUQMSLeACTa2IO8V0J1QZ10uSpIDD0Nj/ADGYkvbGxPd1qbcCcjflfwG/le/pLGmnssTIbob4NGrWpWAA4H9t/wAYIvz8/PulzGpatk+f8tfn0kaU/Fl5/N/nrznXVdGK8rgqro06TAsHUTLx+CyKCI7ZOJsbcIslujwKntfJDtjAZTmXdNLsdtXu6gDMQreE2NiAdLjkQbG/nLWMpBl6Gcs5NKprzjHFWwcZeSTlPg6jtVsd6b/SEqVHZWUHMGZirsVU5xcHdYXsdbSLtHSLrTxaA5jYVOBWoqgeYzKB6jrLlTbFQ4ZMQpYikQKyLa7UyfC9iLEo/wAGHKZ2z+2jVfqK4Q0W0IC2bkDe+hHTS5lSpX8cJ7cp/Ht/kmccxyi4cQuLpGoABUUWqLz/AO4Oo4+/hOer4cqbeoPOa2Jwb4WotamcyHUMPZdTx8+Y4Hzl3HYRaiCrTH1bcPuMfs/lPD3cJaqsjW1j+l9fb7Feaz8mVgMeB4Km7geIlnF7NDC+++5hMqvQsZZ2dtN6WhGZDvU7vTlJ51v+qH4I4yzwx+x9kOcQgXMVvmYA5TlHoemgHu3jqf8A1SjPVTEKvtlFccFU5R56a+d5HgQlQirhipcfYYAkG3I+e/fCpsmnWplXBWpw03H3fvMfVzU7E58JYT90XtOnLK7eHg6PD4iklC2HVmBGhWx9bXlPZfaCsCVqJfIb3I+z/wAaevSYWA77B5QtPRSwdrk5g1iARuGUA6jnOl2ay1M7G6g6DTrzlKVMK1J4ym+28jaZudyh7L2K20cUKVSopPhzFh5EBv0M4HtdXVu7rJr3b5W/K2ov5FSPUTscfUWs4bwIRYADQNl0tqeWk5LtVss0hfXu3GU21tusfQgTQ0sIrCfEiJP/AHMrozsRXypm33ZwD5H/AHEnw+OapRAc3N8nW4uyH3Z19BMJazHDop4VWHvUGaOy6RdHpje6Ep+dPGnvIt/NNNvK3PxyOdMY8e7N4rnwwP2qZPumLiK5VlcGzKQQfKXuzeMDqyffX4iZ2KTfFqxlrx3+zK2zbJZ+D2bZm0qYw1Kqi2pOR3hHtK7b2Yfdzb9eI4TiO1+wqeOqVKuGCriU9sAgJiBwccn03nfoDwMr9ksYalCphsxF7MBffl3g/CTU8U1OojjeAVYcxyMwZ/TUpyWefHx2h1munU1GKwjzR1KsVYFWU2YEWII3gjgekJ6p2k7O08dT72lZMQBodyvb7D8m5N79J5ZVpsjMlRSrqSrKRZgRvBEy7K3B4ZqafURtjlDbQtHQkZYISIoEIRg5gYQhAUWAhCCEEiQhAQIjg2368IQjkB2WKqZ6yOPt0kqerpf4H9I9zlIYQhOu08nsXwYl/EmXWq503DX51nP58jkHSEJNEX+rs6LA4kOmU75HhNkfS8RTpMDbNd7GxCLq2vA2FvNoQlfUydcJuPsxa+Wvk0+z2wqyYrE0UyVEpPkdHazPSqA24ZSSlid2s4/tL2bfCV2pkED2qZNvEhJtqDvG4+UIStoNVY9WoPppZ/Bba2xbXuX9i7cdE7uoO8Q71PDqPnjNvZW0Epk5bmmx1VuII1+eYPOEJq6nT15fHZScnuJ9r7HFg6HMh3HeVP3W/vOcr4croREhKuitk1hjLYrJXp1HpsGRipHIzrdk9qkcZMSuV7WDjcTwLD94QlnU6au2HqQtc2ujZfadFVGdDV0JzK1t9rctwB+Mjrbbpm4oKUBAsCPZOlxv5X9TCEzFo68Z5/JI7JJ8GDjgjDxD3b79Jz/8Xalmo1bvT1GU7x5HzhCW0ltG1LMjnq7jK4Qkr3txfllMl2ZtVkqLfcCLdLGEJE5tNGg4Jp5LNOv3GKNvYc5l5APrb0uR6TU2gPESNx1HkYQlnTlTUdKRDsbFmjVVxwOvUcR7p1+3qPiFRNVcAxYRup4tiynqEtrG7Mx5Tqp3j+3WP7SbBp45A9MquJVfCdwqAfYfr91vQ6QhM7XVR5ZU01sq7VtPLqqsjFXUqynKysLMCNCCOBkcITAl2dUuYo//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Qais Ahmad</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024_T20_018</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>17</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
         <v>22</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AJ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFRUXFxcVFhgYFxcXGhoXGhgaGh0YFxgYHSggGBolGxUYITEiJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS8tLS0vLS0tLS8tKy0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xABCEAABAwIDBAcGAwYFBAMAAAABAAIRAyEEBTESQVFhBhMiMnGBkQdCobHB8HLR4RQjM1KCwjRikqLxFUOys1Nzg//EABoBAQACAwEAAAAAAAAAAAAAAAABBAIDBQb/xAAzEQABAgQDBgUEAgIDAAAAAAABAAIDESExBEHwElFhcYGxMpGhwdEFEyLhM/FCwhRisv/aAAwDAQACEQMRAD8A7iiIiIiIiIiIiIiIiIiIiIiIiIiL4SiL6i87Q0m69IiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKIzvPKeGYX1HNaBvcbfr5KM6TdM8PhWw4naPdA2ZN7kNJkgcYhcB6ZdKK+MqE1HnYFmtFgNSdNbk3UErJrZq7dJPbHVJLMIA0adY5suPNrZhvnPkqDjOmmOfriq9+FR4+RUThqIIubk+g1P5IcISY5fWFElnQKWy3O8VtS2vVB3kPc31M3VjodO8dR0xbp4Oc2oP9JuFQqrHAhrZvwW1gaLdBtF3EaTviAS75JJQux9EvbC1xFPHNa06ddTadnX32Ekt8RbkAuqYHG06zA+lUbUYdHNcHD1C/KOJovPF/oT5Xkrb6I9KK+X1xUpE7JI62noKjeDhuO8HXyspmoInZfqxFp5Vj2YijTrUzLKjQ9p5EfNbilYIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIqP7T+mbcvw+wwB2JrAik3cBYOe7kJ8z5q8L8z+0jNeux2IqTMPNKnv2abJYRraXNcf6ioKkCZVYxGYVKrjUquL3m8uJPzR+Hc5oIFuK1WDaIXSchwLRRbI3StMR+wrUGFtzXPm0jYRdSGFyiqQXQYF103B5LSJ29gKXo4drbBo9FqMc5BbxhhOq49Tymob7J04cf+Fr4rL3gEwQN8Wtwn738V3BmHaPdF+SwYjL6bhBYI8FAjlDhmrg9Nz2kX2eXa9bXWTGAWdY8wSfmJb4FXnpT0TDQalKeY+qpD2uAId2gJ119RqrDIgfZVnwixde9g/SIuFXAvM7I66lO5pID2jkCQf6iuwr8rdAM0/Zsdhqmg61rHEb21CGEHdaZX6pWwLQ66IiKViiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIi/K3TjJquHxlWnUbsl1R1QHcQ4lwIPC/qCv1SuS+3vJtqjRxbZmmTSfw2XkEE+DhH9RUFZNK4rRw9xBkyP+F0/J/wCG0EbhZUbojlfWOc9xs02HE6qznNH7WzRpOqEWMC3hOiqRpudIZLpYYBjNo5q60MRAAHBbAq3/AEVLwed4lrwKmGLRzN/grTlmKZUaC7sui4O48Oa1lpW5rmmy321Oa2W1ARcLD1bImbBV3MumFGk/ZNOqOB2eyjWk2UOc0KfxNBpBB3rkHTTLOqqkjR1wFesN0spVDF26a/CxWr0vwPXUC9tyO1yIkKWzY6q1vk9lKrlrHEOHiCPHUEea/X+CeXU2OOpY0nxIC/L3Rno7UxuMpUGfiedzabdXepA8SF+pqbIAA0AA9FdC5r17REWSwRERERERERERERERERERERERERERERERERUP2mZo00amD6sv6ynJIcBs3lsWMmWgxZXxcl6WVHOxtdpnslhb+DY/Naozy1tFawkIRHkOsB8KjdFsK5grMNu0G/7f1UzXe+jsspsHaMTIEeZ08Y8lly4TtOIu57ifLs/JoUs7ANcAXXPEqoTMzXRY2TZKptx9Wq6pTezY2Gl211jhGzM6t2SSYgb5txUp0cxTiBt6zHj+qkcRlLDujnc+ix4PDgPADbBQ4g2CzY0i5mpjGVdmmSJkAmFTcZnT6Ya9wd23FovTDQQQLzJ94XsrzXoggeCjK2QM1i07UQDB5TYhGyFwsSDkZKOo5gahFOox0OaHQ9gBAIkTBLTY7jbeFkzRnVYWsDps28CQFKUsva121Jk8bfJY81oB1J7XXBaZ9J+ikX4LEtMuK2PYllzQytiDG249W0T2gwXJjUAuj0XU1zro4wNxdEt7I7TIGhBYTusdF0VXIT9pq5mIhfbdKeSIiLYtCIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLn/ALRMu/fUqoOzttdTc7gWkOaT5SF0BRfSDKhiaWwTBBDmngRx5QsIjdppC3YeJ9uICuOYRxD3gxIe7TTxVmy+HC+5Qud5ecLialMmZDXyJi4HHwK38qrWnkqJBBkV1mODmzC+ZtUdOy0QBckcFr5RmtDbdAcA3skusNrjO8JmObidhrZd9/VaNDBuc8vcWttpP0UgLKdKKyZhnmHAaSKjgSGywbQBO8ncEwtZ21oXUzoTuP5FRTcE5sODmTM9705LOzN3MIZVGtp+9yyKxsrCGN2ZUFm9TsP8CPUQpRz4ZrZRNZhqkU2iS4hovEyeKxnULGd1YuiOXF+I650AUWbAaDP7x1iTzDAP9SvKjMiy80KWyY2i4uMc4HnYBSauQm7LZLl4iJ9yITlYIiIti0oiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLmvtTwuzVo19zmmmfFpLh5w4+ir2VVgd/guh+0bB9ZgKg3tLHtPAhwv6EjwJXFMDmJpuLTIIsQdQfyVSKybqLoYaJJgBVkxuS7R2y5zSdwNvNZcLl9MAh7uHvEfJZ8szAOA2zuXvGYKlVg7AniLX8lrsVda+QostPL6JbaoSbDvuP1WGpkN9prnGJ7JPZPlu8Vt5WynSFmNHgL+qz4zMwJLd0eCm6hzzmsOKqbLQD5rP0Np9bjGn3WAvPoQPiR6KpZjmJcdfAcSZXSvZtl+xh3VHD9490O5Nbo34knxWcNn5CaqxnyYZK4oiK2uaiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIuX+2DpTVw7W08O9zS0h1bZJB2XWAkaWk+izhsLzILB79kTVu6aY2k3C1abqjA9zYa0uG0TI0GpXG8zy4VAHizwLEcOB4qpZbnDquJpySSXGZJJ0OpOu/1XQKTbXVXFSY8bJnRdLAguhHaGfsFVqGYOpGH2GnJTlLP2hohwnxTGZcHWWk3oc43a6PL9Vq2mm63fbe2ykf+vgNEOEeeo+K0KmaGpLWdp0zyE8Tu8FsUOhbh3qkjlI+qnsvyRlMQAm00CigMcbrSybLC39487Tt3AeA4811Xob/AIYfid81SKlGFqYP2ktwNf8AZa1LapQHB7e8C4mZBsRbksoE3ROiwxQDYXVdfRR2T5xRxLOsovDhv3EHgQbgqRVsggyK5oIImEREUKURERERERERERERERERERERERERERERFE550gw+EbtV6gbOjRdzvBoupAJMgoJkJlbWaY1tCk+s/usaXHnG4czp5rg2aF2LFV7+9UcXHz0HgBA8lM9MOnLsax1Gmw06LXNmTLnm5AIFgBYxJ1HBRWWd1djAQNlpc7PsuVjo0yA3LuqT0UwMVXOd3mHZjgZgn4LpeEZIVW/Z+rx5bo2szbH4hqPh8VbMKIXm8WwsjOYcl6nBPa+A1zc16rYfRbGE2mmxkLZDZC80XDeLqvNWVuXPJZKdPesVN4WwCk1hJYcSLLj/ALR6JGIbUG9uyeUX/u+C67WEyFyzp43bxDabbnT+pxWyCfzosI4BhkFT3snxLqBbiHE9ohp/+vaj8yv0GuD4LDClQDBoAGjyC6R0a6Y4d9JlOrUFOq1oB2rB0WkO0vzXosZhiGMIFhI68wvMYTEhz3gmhMx2+FcEWOnUa4S0hwO8GR6hZFzF0URERERERERERERERERERERFpZnmFOhTdVquDWN1J38gN5PBEW6oTOelOFw09ZVBcPcZ2n+g084XNOkvTyviCWUSaNHQQYe4cXOGngPiqoGevzV2FhJ1cqz8RLwq6577Sq9SW4ZgpN/mPaf5e634qiYyq+o4uqPc9xuXOJJ9VsCmvNWnH0V1kFrBIU1x3eo9arohca6/vv5rTwrf3b3D/wCb5UwFL5K6Q5R+U3oE8alU+jtn6LawOIZRaXVHBoJtOp/CBc+StQSBDBO5VIwm5wzms+eYUubTqNs6nUkeB/UBWTAjrKYeBrryKrmXZ1SquLGsqkH3i0BpPASZJ8laskYA2GOEG8Fee+sbBjBzTOYqvSfRmRW4Y7TSAHUOWp3nvWbCgrYNMLJSonWFnNMQuQuqtZoA0WQiQvAImAs7GuI4KQhUZm1bqqZIu42CoWDwG3ietffZl39RsPqrpnIuZMxvKhMI2ZMambfCV1PpMAxY+0bNr1y1wXK+r4gQsMWi7qdM/SnVbGMPYEefJQ2aU46sj+U38I9NVYKjeyFEZ3Baz8Tm/wC2fovTRPCvLQPGvGV5rVpHap1HMI4OifzVty32h4hhAqAVR5B3qI+RVGpCQBpbWPu6+fJVHQ2EfkJ61xJpaSvh7gaHWvIVvNdoynpzha1nONJ3B+nk784VlZUDgC0gg6EGR6hfnQUzwO7VSuT5/icM6aVQxvYbtPKCqb8ED4T569bcVYbiSPFrXnwXekUD0W6SU8ZTkQ2o3vsmY5ji0qeVBzS0yKtggiYRERQpREREREREWrmGMZRpuqvMNaJP5DmVwzpJnNbF1i6o47PuU57LRA0Gk31V29p2bS5uGabNipU5m8DyF/MKg0WbQad/d82uhdbCYYCH9x1z6Bc7EYg/c2BYd1hpUfH73LL1I0M+PFZ3M7RGm/0WR1wPBXANaBrl65BVi7WiOY4056ZpxG/6LDiWkiB89VtuHai1+K8PBjnp5lDrUt9PW6DWp7qjyso7Lw9lHYDbhz4J0h7ibjUkTHklDLpO1UJe7id3Jo0A5KT2IEXXpg01soDQQBut7b7H04BSXSJO+/fhz9LlYKeGbodDExaI0IO4qXwOJcLONxo7+YcfFauzzWaiZi9/0VPGYP77ZtuLfBoPPI8yur9K+qf8R5a+rHeIbv8AsK8ajMHgFa8szQEbLtVsVgToq0xy2TmjmNsC7dA18V5qJDc0kEV3L1MTDtLREgmbTWntwUmCGXcsdbN9zRdRb6xfc+i18RLuwDE6kWgcJ+ysoMF8Q7LRM7tWR0GHCYYuIMgNefAXWLHY8vcabDLvePut5DiVRcdlVTr6jqNSpa5O2QdqNNoaq9uwzaTYaAXbtwH+Z3IKNOGDaYA1f2p/Nd/D4CGxv5VO/wCJkc99DwC8vjvqb47pQxssFh7mQNbi8hPORJi8k6RvtSxB5CoRBHJ0a+Kkc3cA1jZk9YT5BmzPqVq/9PaZDmgjeslDBBpmXE6DacXQOAnRdBsw3YJnrr/UlyC1u3tgS6f15cKcfgZH11XvDd4m0jRZHMvF/sar5QbfxFlJGv7PpkJhTPV/bRM1IVMKXN2gZn4clrGkC07vveVvYY9mLmLrXc2HHdwCxFTLWrG1FFhPXnunMXr28ZTjqmGqCvTsWAuj+ZupaeIMfJduyrHNr0adZnde0OHnu8jZcSLRLh/KAPXX6K8exvMNrCuok3ovLR+EEt/t+KrY6APtCILjtT5C3YSOTELDb30CuhIiLkLqIiIiIvFR4aC46AEnwC9qudPMd1WCqQe0+KY/qN/9srJjNtwaM1i9wa0uOS5RmONNevUqH3y93leB5CAo/BPs4cHNqeThB+K+03dsDiHNHiYA/wDJa+X1wXMJ98Pou8dWz9716cSAAC8/XxHWfspnEM7QtG9fYgi/vcLX3rC7EfuwTqHbJjdHZI9QtqsLNdO75H9FXFTI678VYNK67t4HitN38SBBF4Xyo24tzssltu0fqvhF9CpGtTGVbKJa0DY0vu6+Q3X0/VZW8ZQN+CyALKU7635Zj43qNrdrdnkfncvB8dFlpiLyb6+q+N8TZeiZMTbU+Kgt3jXl1QO3HWX+XTlW6zUzz0WRvJeWDQ8FnqM2hs8bqlisG2MJ2O/5oJ7/ANLrfTPq0TCHZ8TD/jzsQSTKtNxFTVYTU4ffgvTamzYam88F4qMIj79F4LdBxWyDh4cFsmjmc6fF5KvjMfGxb9qIbWAsJ0pztM1zoKDHVHeO8AD1KxVmXiFmfoLbyTziw+qxlnxVkHWj19OCpS16bunrxWLq/ghZ+krNsTu0R1Plrp6pPXrv6nhMJI68t3QcZHitVze1u37ty80z2p8v0W22jJ9Z9V9p4RxNteYTWqHz3SSetEfsz4Iy0EyQs1Slo68i/EaLRxTwGGDtXInS4N1J1HxRLrTv5rC9Na6KbV12nuz3qLbPa5t+MqQ9kuP6rEPk9ipWrNPC7rH/AFCPNROIxAZSc46NZJ8h+i8dHGOZQpHR3fPJzjtfMq1EZttLDmD8fJ6KpDfsfnuI95+ndfoZFp5VixVo06g95oPnv+K3F5YggyK9KCDUIiIoRFz/ANq1bs4enOrnuI8AAP8AyXQFy/2qVJrUxfssmYtJdx8AFbwInHHXsquMMoJ6d1QXtlpI1b2o5d10c96jcW4sqk+5UIrN/wAtQRtD1M+DwpMMJc8A7LgDUpnmDdp5G8rUxlEVaUNsZlg/krAGGHkRLeYLV3HA5X1rmuUwgXtqqz1cRLnN3OAqN8dHD74qZwtXawzXcHEfEqn4HF7TWk95hNt8aOaeYurFlLooOB0Dybcd3zWjaBM8it4aWiWY1Pss9PvR6+KnejWHZ1hdUpBzIIl7wxocdJLrE6281CYcAEbREncrzXcykzqzhG1WtDarHEnZh1Nsl4GtwddVqjuIGwM+nuBfVFnBaCdrd1nfgcvUEKLZkrGEvrPHVtnu2LnX7LTJHmJ+cROILS47ALW6AEyfMqwdJ63cpkdvZY5+4NOyYY0aNADtBwG9QGx8EgEkbbj8cDLV5pGkDstHefET5V9LrCH/AJrJQZr97ll6ud2qyU6JgADmt9NayK0iZ4+/rmAvlME3+9FkfSIt4hbVGnAmNQFr4rhF9ViCMteuSyLSRWvn8Z+mS+ETeFrVaW6OCyNfvhNndHJSKa/eSgjayn7+mYp0Wq8XmDAXwMvvutwUZvBi/wA1sYfDXsLkiPvzWL4mw2euV8jUqNmeWrbs7LFh8C5wkNJiZjwSnhp0Zrb74KXqg0hswDrsuHPvSDv58CFmy3EsY0tdTLpsDIkLniPFLDEDS6tADKmeYF675XVt2HY1wa41lPhUcumpKKw+Di4BtqOazVakNt4W1j7KkcPiGgOaZAN4iSTYRpr9VXMbji1+w4Gf1hbocRznljgeu6/z+1g6HsNBGcxTeJdpg2uqzkD+upuadRiIPIEz/atjF48vNQA9gOFJg3CBLiqvl2Zvo1MQafvPcGg/zbToI8ASpWhFOmNo2aDUeeLnXKu4etTktWIGzTfrvTUl4zmrt9Xh261HAu5Um6+sR5qx7MADgAq30WpGtVdiHjvGGjg0Kz1e8VZh1G1v7ZfPVUo/4kM3X55+Vui6N7OMXtUH0z/23W/C4T85VvXMvZ3idjElhNqjCB+IEEfDaXTV5/HM2Y541XawT9qCOFNdEREVRW0VJzLHNq492FfSa5kBu1HaaSzakOFx98IN2VEzPJTUrVXsqvp1S7bJ92Hdlo1kHZYNy2wtmu1upw4rB4dSW/z4LmuOw5p1XD3qTnecEtcPOFFY9jmucaesB0fzs1B/EFYM6w5ZUcC/aId2iN4OvjcG8DVQuIlokXNMkjiWe+3xHeC9CHTaCuHKT5eiharm7XXCzXmKn+SruqRwOhU5k1WQ4HUEHlMRblAC1cbhrdcwBzXDttGjm8YWtkrDTc++1TLAWHeL9w+RWpwIdrVe/Om9pDm61+vWaY8uq8TAieM2V3wmZV+rZScxrg07Q2oBAGjHEnuzFtTEKnZPWobTQ5hc90CXOLWtdLrkzGyRs7rEHirJRxLQdomjvABIJHamRAEmDv8A5VViu2jKWrUkrDGyqTrqveKoOdLnvDnEy7tS4km5sF5bhDPcMATodOPgvDs4l4b1gjZLTsscCBbjqTAuf0UpWx5E7B7JFzEEkmT4X+ayY+JaXcfGVAtb2Q7z7HVa8lqNogWg3IWQMG4aLROL1EXXsYoHTzW8g6/vdRaZjXa2+vJbLjy10C8Um8hO9eKmJ2dbibIzGAkQRJhKySbZ/wBa5cF9dTB1A5L02gOHBJg6jksPWxv8VFda80/HUtcuC2gwcLLPhgA4AyBI03ADVRf7Xu3WWelW3yZlQ5pIkdfvepDgDP46/pS+MDCLOLiN0h1uPZHLRa2MxNKG7BIMdqTqZ3eXyXg5pLms22tLiZ90Tum2pj7mFFOoB5c1oE7gH0yLG8EwRYcFy2h7WGHEmJc5EV4bx5T3q/iC2KdqEBWU7TmN0pS5X55SGGxRLtoEW4wNZggnfYKBz90v2xuN/Xjv0WHNse3q/wB3tbYb2XNMdjQEx3rtkfFReU5kKjDTdExYq3hgXRPuESyG+QnU2utWI2RDawVlU3ucqlwIGUpca0Fdw9Ka7x7rXv8AUuMn74LLj3OrVG4dnvGXnkPyA+K+uxbGYiswyCHVDO47yveTzTovxDu/U7LPw8fvgrcMAsDAb35C/wAea0RCQ4vzps8zY+VVackpNa3s91tvRS+UvNJ/7SWnZZtFpIOy50bIbOhPamOAKicpbs0SeJgeVvopjCZgaFCo4VthxcwBsgy2HFx2XSDfZExa6sxplspXpLgaHlzVCFSITO1eoqOfJWOvQw+GqUq4DjtONRuyYhrniLHUAOAj/OuhSuT5Vm9PEYZraj27W1VLi512tcIvtd5xcWugT3eS6blbiaNMuEO2GyOBi/xXBxQIA2iSQSOYylrMLuYciZ2RIGR5b5+nkVuIiKorKKvf92v/APl/ciKRmpXJMz7z/wADfkFoO1P4/wC1EXp2eELzrvEeZWjkv8Fn4nLTy3uef1RFpd/GOXwrLP5Hc/lZqHe9fkpvD6H73L4iO8JQeIdO4TB9/wBFZn9weSIsD4uvug8A5eyj397yXrD7/veiKctb1Buef+iz4rRa9DvN+96IoyOs1kLjmOykNwWDEb0RYfvushl0/wDJWmzQrfwv1RFm+56qIeXJvuo/N1iw3f8AvgvqLYy3n7LS/Lp2KgKHfqfhd8yonK/4n9SIkbJZQbnW9Rue/wCJxP8AV/61OY3/AA2H8KfyCIsMPZ624jxsVmofwafifmVF59qPvciK8bFc6H/IFky/uf1D5Fd26M/4Wj+AIi5f1T+NvP2XQ+n/AMj+Q7qVREXFXWX/2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rahmanullah Gurbaz</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>32</v>
+      </c>
+      <c r="X36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Wicketkeeper</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFRUXGBgYGBcYFxgWGBgaGBcXFxUaFRoaHSggHRolHRgYITEhJSkrLi4uGB8zODMsNygtLisBCgoKDg0OGxAQGzAmICUwLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABFEAABAwICBggDBQYEBQUAAAABAAIRAyEEMQUSQVFhgQYTIjJxkaGxB8HwQmKC0eEUIzNScrJzksLxNEOz0uIWJCVTY//EABoBAQADAQEBAAAAAAAAAAAAAAABAwQCBQb/xAA3EQABAgQDBQYFAwQDAAAAAAABAAIDESExQVHwBBJhcYEykaGxwdEFIjNC4ROC8RRSssIVkqL/2gAMAwEAAhEDEQA/AO4oiIiIiIiIiIiIiIiIiIiIiIiIixPrtGbmiM5ICIsqKG3SVEmBVpk7g4T7rPSrsd3XNd4EH2RFlRERERERERERERERERERERERERERERERERERERERERERERFT9JtMswlA1XZyGtAiS47ptYSSTkAURW5K5p04+KtPCl1HDNFWsM3OB6th+9BBPgD5Ln/Sjpg6u0vZWcxzzdraz4bTl4LHMsD2dUl15IN720Kvjpl0ElxuSZm4JJ4qF0Bmtk0509x+IeTUrEfdaNVrYtAgyDNs54rW6+MqHtOcdY53Mb73XqpWl0hwAOc5HyB238fBeTUBEN2HPMW7xEjf8kUpTxMGTMnvEnWnl+qs8Fpvqu5WqN40y5ngSNeA4b7qkq0ybxAJOrO4Qs9PCkkNDSHQd2sdthuhFBC6boD4xYmkxrKjBir95z2sq6u4Bohx8l1bol01w2Pb+6LmVAJNN4AdG0tgkOA2wbSJhflsUAD2oHOCfDNWGhtKPwtdlfD1IqMOZ7UjIg2u0iVKSX67RaB0K+JNLFh9OqAzEMAOo0yKoJiaUwSZ2cQt/RcoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIuZfFYOrVcLh3OLKJdUc8tBJ7DWy62yajW/jXTVyv4xaSdhqTXMcW1i57WG921GBtTxgeRDSikLiunNUVKjGElrSWtMRIaYBjZIGSqBTMBWGFwzqpaxonmfMrbtFdExqjXz3DIfqqnxA260w4Dollouq60yQLZ+g4KQLiIAZOTTOzadv1wXTqHQ2kRebqt0j0BEzTJnkPJcCO0rs7K4WWhPOqLi3kcjYFZaOu0ZuaDckQJudu0hbJU6F1G5zw4ePovT+izxTdrOgNE5TYHb5Lr9Vtlz/TPktNNGT3wecE8s1ldhalOCRAORBz8FaYjQzxrZHqyWujha3lCrH6zC5okDdePAg5GNysDgVS5hapNHEPpuZVaS1zHNLXNzBmWxGVwv090C6SDH4RlaRrjs1ANjxnyOY4FfllucawAzibWOXmfqV1X4DaUayviKTiQKmoGyDBcC+xcLAxMA5wVK5K7qiIpXCIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLhfx+xutiaFHZTpuefF5AEf5V3Rfnj47O/wDkI/8AyZlulygqW3VJ0PAk7zZb1gxBWldDaNi+0ZBblQrMy1hPisESryvZgUhgK/oPACzANKg4SjrKaaO5RVTRHkBVGk6BN2wcwQciCDYxsOXNWzaO9e3U2gZhJFJgLkmkNHYmgw2JZUparjGtYsABkWnITntIlUGNf2WkxrQAbyTAF+a69iKVPutqEN2sBaW+FxIHCfBafpzolR7VSnrNtOoO6I3SJA4K5sQTqqIkEkfLrGi0EXLpsSfnP5Lu3wK0fUp4brC0GniC5xMCQWdlp8CJt+a4mKInft4/V1+h/gnXLtFsB+w+o3lrkj3WkLzit+REXS4RERERERERERERERERERERERERERERERERcB+P1CMdSP8ANQ/teV3uo4AEkwBcncBmuLfGvEUcV+yPovDi19Sk4RBHWamqe0ASOyeF1BIC6a0mwWomm9mHpU6ZDS5oLieIk/ksQ6P4hwOo5w8TbhcfkVs1OhA8LDwAUH9hxDi+HhpHdyM8O1YDksbXysvWfBBEyqKnTxlFwGu4EZQ8+o2rf9AaXqupS8S8WO9ag/DVDTLa1SamsNQBrDbWMkloBECBneMlsWhK5ZAzO/ej3pChUoCOan9JMXiNSKViduZAjy/3Wh18JjXmC8/iqQujaRriowhtjkPFajicE/qiadQisSbQwCIMdpwdJmN24QjHlQ+FO8+iw4bopULdapUDj/MHF3IXj6yU7Qoexxovu0dwk3jaOS94XCYtrGuMEkwRAaQABfWZE3mxbzV07Dy0ONnBHuJoVMOGBUUXJ9N4YUq9Ros3WMcNa/zXevgrRLdHNn7T3uHgXGDO3Jcb6XYV37SYBJe0EAb7ggcwu8/D99GnhKOGpul9Om3W7Lm6xzcRIvclaWOBAXnxmGZIFJra0RFYs6IiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiq+klIuwtdoME0335FcWxmGDaVBokgPYZMk9xxBk8Ysu9VGggg5EQea47pzCFjqlOOzTLr8Wukeg9VnjCoK37G75XN6qHgqfaVu4QMh4KvweYVk8CFmC3lUuLptnISsujqUO5L3i6rA2S7VA7zvkI38FK0LiqHah0nyjxBukqrrekF7fTvZe/2RpEwmOxeH1wOtawuIAEzJjeMuakUqxmDfcUlJc7017o07bfT8lGxbFaU2BRcWBBUkUXE6rXhRDsZh3RMCpORhsCSJ2zHmtt6E6PAx2IrAnuQQTtmOVgPNas5pIqFrZcA1osTEkuJ8g1dC6EURq1an2nOaDyY2fdWQxNwVUc7sJxzp5ey2lERbF5KIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLQuk2g6hrucym57at+yJ7UQQdwtMlb6i5cwOEirIUQwzMLieHBY4scIIJBG4gwVNrV9WMtWOc7Fl6UYXqsZVGxx1x4Ov7yoXU64g/VlgIk4heu1280FV2JxQvq3lZadSf4gERIDtm4gKvfhazKhBLAJsWgk3y3D1WwUMMdUfvapsDBpCNaDObsp2rtoUu4z7lFpVyWhxbrNzysDlabeSscPpNkgFpBWGrg65ux7gLTrwPGA07o2rBhdH1tcl7mkDZqxfeDNkdRJUWydZ2ZGSrcY8kqSOyFBxDtq5KgKbovRdYiW039sy0xLHCImdmW1b/AKFwAoUWs23LjvcblZtH4cU6TGD7LWjyClLYyGG1Xlxo7olMEREVioREREREREREREREREREREREREREREREREREUbGY2nSGtVqMpje5waPVEXOviO6MW3d1TZ/zvVPhan+6sem+NpVsS11Koyo3qmjWa4OE6z5EjateJNM37pyKwxO2V68H6TeSs6+GJyzXl9XFgANa0j1Xmjjezc+ean4Wq0iSZUNVhK+YNmJcBruAG4XVgGwLqL+0AA+nnksGJ0haymS5ms2Jq7FADtZ4GyRPmsfWueYHMqTqhmrwIJ87yuDRdSXXQvq16p020c0ScZQj+sLP0f6UYTG637LWbV1O9EgjkQJHFekQV4YIV0iIoUoiIiIiIiIiIiIiIiIiIiIiIiIiIiIiKn6Tadp4Kg6tUvsYza92wD5nYFIBJkFBIAmVD6YdKKeBpyRr1Xz1dOc4+07c0b1+bemmJqV63X1Xa7394n0A3DgrvSOmauJrurVX6z3cgBsa0bAFWabohzMrfX5L1f6QMgO/u9sAsI2gujDJWfQAfuDH/wBjv7WLc3MDhB8Fq/RQjqmwAJnhk4j2C2vDtXzMQzcSvqobZQwOCqMVhXsPYPJQRjsSw2YT+Ekei2bEU+C+UQAZlA4qC0KkoYjFP/5ZA3kEe6ssNgHu755BXJdrQCVnoUwkygACwUKAYLBRMaQZCsarVW41tiuDVdtzXD61R0kcSPIrcugukKmEcytTPabcjY4E9pp4FV/SbRrOuOrZziCY2y0TbzU/BUdVoC+j+HD9ZxcRSUqr5nbx+jJgNZz7l+jdAaZp4ui2tTNjZzdrHbWu4hWa4b8PNPnC4sMcf3VWGvGwE2Y7zt4FdyWfaoH6L5C2C7gRf1GTx15oiIs6uREREREREREREREREREWqdJem+Hwssaeuq/yNIhp++7Z4ZqWtLjIBQSBUra1rGnenGEw0gv61/8AJThx/EZgea5fprpTi8WSH1Cxhyps7LeZzdzVIKEZLbD2M3cfHVFndtAs3X5W2aa+JmLqSKLWUWbDGu/mTb0WoYjH1a8OrVX1XS673F0b4E25BY8W4NaScrrHTZFNg+1GseBd2iPVb9lgtbEkBh6y7781jjxC5lTjr05KPiKEdoLLSh41TcHP63qQ2/17rM3DMb2rmMyYa0eM281v3JWssZiUrdeeiDY6ymc2Pt/S4BwPnK3Gg1aa39xiaVc/wqoFN52C8td4XzXQmYey+K2yG1kZwaaTpKq+12SI50Fu+CDKoIIPisQbIWI4IHNTKbIWTUWVaFgw2DDVNa0ALGAvcKVCwvUTEUpVmyjKqukmILKTm0odWIhokdmbFztwAv5KJKRMmQEyud4iKmJrPF2sdqN3S0AE+YUhjV56gYekAIqOF3wYAJz7cQV4o6SYQNdr6Otlrgah8HgWPiAvrvh0WAIIa08zIynjXnTLivlfimz7Q2Of1BI5TBMsKAnCsr8FkpNEkk3mAOa2vQPxExdHsvIrsBIh9niDFnDw2grV24Z2ez33XyKxYWmdeq0D7bjwvD/9Sv2qG1wbvCldZ9yy7O8tJkV3XQHTTC4qA1/V1D/y6kNM/dOTuRWyr82OpK+0J0wxeGADamvT/kqdocj3hyPJeXE2IjseOrrczaR92vwu6otP6P8AT/DYiGVP3NQ2hx7BP3X/AJwtwWNzS0yK0gg2RERcqUREREWDFYhlNhfUcGtaJJJgBZ1yz4qY7rKrKANqY1iNmsYmeIBHqrYMIxX7qrixBDbNVvS3p1VxLjToF1KjvBLXv4uIuGn+Xz3LVmUCpGCwpJM24qW6iAYzXsQ4LWCQGtTnW2S86JFLjOevHoZXUFuHOS+lin1aNoAvvWB7ZExEZ/orp6077rAYGyprlruwxONlU4/Bl4kCRa07iD6r1WDT9ipJPeLmi+4Qp8b18ibQoEhMg364czas13UyBHmMeQvSSr2NImGtaBt7/kDAnkVGfgOsk1C5+4OMgAbm930Vu5k22D1WRjbceKFu9evPwzFU3t2uuOVclG0drtp6jmdYwCHMMTH3QbERsWx6D0ywQzWlosJnWb/UDeOKqdTaM7r5Xwof3mj8uI3Lzdo+Gw4lWUPmeInc+S9fZ/jMRjRDjDfaP+zRwMrDI40FFvzIcARcHaLr0aQWj4GpiKR/d1J+6/tA/qrrD6ccYFWmR95naHMd4LwIjHQ3brhXVuC+jZs5iQxEgneae/kQbEYhXhphHVGtEkgAbTkqyvpRos0hzt27xVbiKpfcmeGwfW9cLqDsrohyClY7TjndmlLW7XbT/Tu8VVzUcNWmyZze4Z+efNZBVZ9qY3AZ+JOzgsjsfAs1wOyYXsbJ8OJ+eL3e+PMd+S8vb/jDIE4OyS4vv3TEuRtPs5qG3RYaJqGXZ9o9nhbKVC0rQZU7Be0g2hrJ9TZSMRVc65NzGd/aFFcwiwMeED9V7QbISw8M+4ZTqvlzELiXEzPOuVampxMqKFRwPUgGnUqtGUF0tNtgiAvlOnJJyBMkwBJy2ZCBHJSuqGZudpN/dfDewiEDRSWvOuQsQpLjXXtTPIrGQvnVk+O6FM6iGyY4cVmdTgTaVIadfxbPKwXJfrRvlndVjqS2rol00q4UinVJqUNxJLmD7hOz7vlCgYPA603vuWHFYDVGVwqYkNrxI69vHNWMilpmPx+fDJdywWMZWY2pTcHMcJBH1mpK4T0b01WwlZpY46pcBUYbtcJE22OjIruVGoHNDgZBAIPA3C8qNBMI8MF6EOKH81kREVKtULSuNbQpPquyaCY3nYOZgLg2kcc6piS55kuILvGp1g8l0f4naT7mHB++72aPc+S5JjT/AO5PGlS960r2Ngh7rN/PyC8vbIm8/cy81s+EIDXuIkudI4ACF9rd5s7o9FE0fjespEbQSD/q/wC78SlC7hF7tv6FaHCWtAclUPbWZqKVyXyqOzM3so7m7dm1T8S0wTwCh8JsuwZnXWwwwVdgPWnI1OOKjvZfLw8l4LNm3epAzPp6LyWeEqajR9+/ikhh6e18uCxtZ42WUDbdfQzbC9Bu2DsUSGpd1zzXRnqffQC1kjjmstMgWkQvjQeN16a05XUTGes7YWQg5ayvjcr0Y9LZLI3tZ5rGL2k2CzCzQZvHzVEfZmR27r+hyOGFjitmw/EIuxP34Zobgyk4YzrcWacOVCIA8h81jJ1jnAXotnM+luSPYRI2T81j2XYGwnb8QzOF6cai+QXq/E/jj9pZ+lBBaD2pymSftobZmczagmD7pMbtcbZQ0LFUM31jadyGoTyHyXku2x9SvR1h3W+5fPmep99z2bLC9u26wup7IKkFu8LwRwuuhw1TgcFBnqedcPuwUV1I7I2KThcMBnAF/dfW+tpX1zibA2UyOtHpwQka8Bh+7isdV2s+Js3LiVlqUzAP1mmGYSSb2Kkht5iy4oMPLuwvdSZ5+ffjY0UnCGARzle8Q2WvaLgj3E/IKMXEFwyED1OxSwZki36CFwc/41yXfDPvxEv5E1U1qI1wc5AM+It9cF0/oFj+sw2oT2qZj8Ju35jkuSUa01i45SGN3AAfXotv6C6Q6rFBpPZqdg+P2fW3NTtcCcCWIrroq9njSj8DTXVdTREXgr21w/pVpDrsTVfMguIHg3sj0C1fG2rUT/M0j/K//wA1PrvtPFQtJt7NN38taOT2/m0L6QN3WgDCS8Hem4k4z8QfWS96OeGPq7gWu4QTqu5XB5K7ouyGy3hnZa9SI64jY9jmnnJHsrPR2JkAk3iD4gwfZcvFVY22sadbFX2NaIyEQq+mDly9FY4+pDInMKspFROYn+eV6c1EpEiXSg5ilZWkvrhcHkpWi6NN9Vjar9VhPaIEkWPzgc1ie24IC2bRmCo029ut1NWpSp1GVC2Q0OJ1gzjqgCZm5hcRHhracqfwc5+ishtLnTJ7599SKns8lUY/Q7m1CKYc9hdDSMzOVpkXm5jJedJaKFEDWqNc8x2GgmPF30N0ra8LVY5jnNqvqilqh1arMgONxSacrSZdOQsbRpVRxcSSTJMybnmVVBfEeZE0F7zPhTwK7ishsEwBM2tIeku8TldY2tysvuraIuvo8V6aOImy2fNP+b+yyfLLpwtLz9F9pUjOWSz1jGzaF7oMFrhYsXExIhV9PA2x713PiO8XwNrL5q7xmUFxqxdAPO6+OG0G66AOp39lBLZfxbEWvkvlSnuGxeC0clmB2T7rwRsnb9eygHVbaspIrYf+b4Y2z4rEQPqEayYyn6CytbJ2qbhKQkFwtME8SeyOE/LiqI8cQm1vrhY5YlWQ4Tojg1gvanLI4YZCagdQRJkcl8/ZjED8lc41rC5rQxtsyLA8OO2+++5ZtJ6F6pjXSO0MxvufoLMNtYCxr3Sc6wIHofzWytOzPkSKgcxxN81QUaUbNv5qXh2g+GxWNbR41AWkkECTbgJGzOxCiUqD2utBA5K+HtAiA4d/rx81W6EWmUvKtOEja/EKt0rbrD9y3jeFk0jii2m4nYLc/wDceqdIHQJ3mk3x7Yn3KpNJ4qabr51CB4A/XktEIbzuSriSDef49pjEYqJSqavV8Xj2Kv2VyyprDNrpHiDK1XrNarRbvf8AKPmr6rU7Z8VqNSdYLK8ESOrrq3/rSlvXxcv64L4vO/42HmVu/wCRiZBQagkFQ8SNajVG0Br/APIQfkrfSmCNGpUpHNjoPlI91W4fvEbCCDzELaPmAlj7LNVpM8PRVeJqEajxwP15FS2YoNqgbKhaR4yAfl6qFhBrUyw5tJYeRj3HqsOIJ1GHbTePQ3VD3fLPr7+C1MEnS1w9FubcWHMANiN6z0wDeVSUhJurfB3NhskyQBzJshz14rgCVNeHPO3JSSzyWxYPSdB1AU67CX0xFMgAhwnstdNhE57tqi4TRzmOBeGQJJa6SDBgg7Jk2G1SepbrBsgd4TqyJFhYEkyJI4lZokRj6XliCfRXw2OZW3AgeveOKiY3FgURh6cQXa1RwEBztgYDfUbxuYlVTmHjaPZbQ0tP26hB2tYBIMaxs3iYAmbb1Ddgg8h0OeSwEuvBdDYOYMQHgbO7uKlkYN7Ql33xvL8I6Fvdkz9srHn3qhg53+isjGnO9x8lYYllEtimwzJJcSe7aBE8c+HFYm0hut+i0Agi3gO6+azmf93WZvadkptI33R1KbxcCyytpWy8F9ZSgKNW/OSmep4ZW68lgHaExBGxY9WJN7/XzXpsB/BZalMHd6p08PDvSZzrnPG07KG9sWuvkTaNyzFkjjfcvmpx3LrX5uuKEcOYtK1r4rw3PI7clc4OTSgU3Frg64iDeBImdgyCrAzirTR1PWGprwQT9mTFp1NxtxWDb2ThTAtLO1fWq27A5ojfMRznjQgjdmbDI1Vdg9HvqOLWtJdumN+/wKx0yRf6Mz+Su8RhXNOvTc4m5cdpJvJ1Y2zPJRKVCSBG4ec3PnPmp/qjEk4H5ZifC8wZ53nTDNVRIIhkNbetcDWhEpES4qRo9hLSCbNFgALl2U8LT4wqnFtIMiQNqt6upSa4EOBAkEEt1pNtWLRkDKoRpAOkTlZc7Md6I57ez3YAT8lo2qHutY115WocZis5kXmemCqekOLPVsi7i9oaOIIcOVj5Khxr41WTIbt3naeasekeJ1GtdEkVQB+JrlSYipLvBenClM9FgcDIDnqS96HOvjG7mMLvIfqFeh1yd3ucvmeSo+iYnr634B+K59IV7UsANp7R+Xou4R3m72ZKqjiT93IAJrIvPn5IrZKneV50u/43E/1j+xq1uh3wiLPA+mzk3yV8X6j+Z81T4Pv1v8Sp/cseNyqeKIq3dk9fVaG3HRXNHNbJ0f8A4o/pd/aURcR+yeXsu9nv191a1e+78PuFd6Pyp/j9wiLHG+mNYFXwvqHWIWTC/wAFn+Ez2WGp9j+kf2MXxFQ256rQbjoqWnlyWU93l8kRem6/VecOx+1ZTs8Pkvo/L5oirw6equ+/r/qq2rn5KU/LkURdG/X0XA7PQeaxu7w8fmvjF9RMOnqu/u6/6lfWZD63qRo3+JS/qHuiKInYfyPkqR2mdPMKQcqP4/8AqBbDU7h8PmiLyduuP3f5uW/ZOy7p/i1U2mf4D/Ef3Lnzu+vqL0PhP0jz9li2/tDkfVVPSz+Gz/Fp+z1WVc3c/ZEWyDjyHkVET38wpnRH/hKv+P8A6WK7rd/y+SIrtn+k3kscb6ruZ9EREVyzr//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rashid Khan (Captain)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>32</v>
+      </c>
+      <c r="X37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhYZGBgZGBocGRwaHBgeGhweHBwaHBocGh8cIS4lHB4rHxwYJjgmKy8xNTU2GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQsJSs0MTQ0MT00NjQ6NDQxNjQ3NDQ0MTE0NDg0NDQ0NDQ0NjQ0NDQ/PTY0NDQ0NTY0NjQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAYDBQcBAgj/xABCEAACAQEFBQUECAUDAwUAAAABAgARAwQSITEFQVFhcQYiMoGRE6Gx0QdCUnKCksHwM2Ky4fEUc8IjNFMVFqKz4v/EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAAwEQACAQIFAgMHBAMAAAAAAAAAAQIDEQQSITFBBVETInEyYYGRobHBFELR4SMz8P/aAAwDAQACEQMRAD8A7NERAEREAREQBERAEREAREQBE+GcDUgTE96Qauo6sB8TAJESEu0bPOrqKanEpA4VIOXnM9neFbRlPQg/CAZoiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCInyTTpABNNZXO0PalLujOqM9DhDZKmLSmJiMVM8lroZVu2Pbe0JezugwqtVtLdqBQc8kJyBOdDqdw3zlt7v9pbNitHZzoCzH0UaAcgIBYdqdtr5aOxW1ZFJNBZtSgrkK0DHrUSu3i2tHJZ2Z2OpYlifNszMbMOC1nyLYcxAPnvDSorr0me72zrmpII3g/KYfaZ8R8R85lTI65fDn8IBvNndqrzZsClowI3VOE/eXQ7uc6BsH6SlYYLwhFoPrWYqjeVaqfUTkbvnzEz2NtSh4aQD9FbJ2vY3hMdk4YA0I3qeBH7E2U4D2X2812t1ddCwxgU7yHxKeJGo5gTvVm4IBBqCAQeIOhgGSIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCaLthels7paMxNCFFBSrAsMSiu8rUV3a7pvZy76Zb22CyshkCGZjxzAUdNa+UA5jtbar27ZgBQSVRRRFqdwGppQYjnQDdlIanCK6n9+s8sV1PD3yx7G2HjAe0GvhXgOYnJSUVdkoxcnZFesbq7nuqTJ42BbkVw/OdEuFxRQKKB0E2QshKvFLlR7nIX2XaqKlTQSOAy5EUnZbW6owoVB/fOaW87As2Ylhv0yklURx0HwcyZvl5Gfdm+791Al8vXZmyOYFJXdodniuaGdU0yDpSRrEtKUM7L2H7Tm09hYN/wCGhJ1JUZe4GcRtrNkNDLR2H2t7O9WJbQOi9A3d+Bkys/QkTwGewBERAEREAREQBERAEREAREQBERAEREATkf0vWTm2smamDA4QDWow4ix8xQfy851yc9+lyxrZWLcHYeoHygHKdkXLG4BFc68jL9dLClK7pVezKd8nhWW6wbOZ6ruzVRjpc2NlZiTAnKRrI8BJC2g03yETSe2llwkMJJ1q+UhM060cWxHvKZTU3lJsrw5rkcpr7yZA40VfbVzBBI1lcsXKsCNQfhLptAd0yn3lO8ZppvQx1Urnffo/20LzdVNKMlFbOtTTXiJapyb6GbU4rZa/UU04568v7zrMsKhERAEREAREQBERAEREAREQBERAEREASnfSbd8VzxfYtEP5jg/5CXGVztuK3cL9q2sh6OG/SAc4uN0FilWyqKsTukVe0CV7unHj0HCT9vXf2r4M8INSN3Ksi3bYN20etf5SxPulNlfU0pyt5Tb7P26hyZhnTeMpvbPA4qjqehBlEvXZqzxf9G3IpnhYfOhm22Ncms8lNPPL0jyk4ufJahYCmsh3llU0LD/Eh3x3AIxZ8ZUNrvbO9UVjnuNIsmdcpIs16vCZ0YSC9oDWhlYW4X2mL2b864R+swf6i3s2qyMDvB0PpOOmuGQ8V8o3O064DSVi1Suct11tBaIDx3TS7SuuBiPOThpoV1NdS/8A0OXaiW780XduBJz8xOnSr/R7s72Nys6ijWnfbniphP5cMtEsKRERAEREAREQBERAEREAREQBERAEREA8lR7b2re0uqjwm1JbqBQfEy3Sm9rrY+3sV3Ylp5VNeX9pxslFXZVNplgWwDvGpFZo/wDQO9k6sTjJBQqxCKAcxh1zzzzMtzWSsxrPpbso1HmPlKMzTNaheJT7hcXRWDuzPjqtGrZheHe7w5Z+ssdilCoNa4QW6zYmxXULpny85ETNuM5J3LIxtoa7bd4IKCu/PpPq3tShCpvp3shr/M2QEw7asjjqZs7iivZjiBQ0OfKcRyS1K9e+0Fqlp7IqWbFh7r4gdKEVTCQa7j6TH/rFtSVcUYag5EHgRu6iby+7Pxc+ZFD7prH2ItcVACN6ybkivJI8ulhhIpoTumLad39pbpZjVjZplr3yBlzzmyuKbjxGc1+0EZbdnDYcDrhK+IsACAvA8+cnF8sqkm3ZHbrCxCqqjRVCjoBQTLMN2JKKTrhFetBWZpYUCIiAIiIAiIgCIiAIiIAiIgCIiAIiIB5KV2yI9tY61BUjnlaVr7pdZU+21kK2D7wzDqMJ+B+MjLYlF2ZprJczJdq6qoGrGQktdTNDeNqUYu5J1wKN3XPXlKV7japJJXLFtBwEzPdHiAHykHZl+sS+ppTeCvxEr9ttp3FFBHT4THZM6HE6lgxGKoNDlmRzFBznVHuJTXBudu3uxL0xhct5AnuyrZUdExVV64SDoQK+hlVvrYu+oIqeZPSp1FP1mw2VtJFILKA9KYuX6RKNkcjNNl3trCa28rlPqz2uGFa5HKu6s+Lw8gybloYLtQYjwFfSaLZFr7a8qjiuO1UCu6rgzZ3u3wI/MUHukLslcWe+2LAUVXDZb8Jqx90t4RmW7Z28T2eT2WmcREQBERAEREAREQBERAEREAREQBERAPJXO3FgGuxbejKQeFTQ/GWOQ9qXX2tjaWf2lIHXd76QdRzC7X6uJWyNMueVJpLLZrPiIemFjTIGu/OZy9DVsipKtyp4sjvrlM2yLYUZRTjv6fpKGrGiLzWufWzLJFH/AFWZWG5EFDlqDnvm4C2bKQtuCARRXRj71pIzA07oBO6orPj/AF7JUBBQ7/3+9YWpZZLlmK+XcGql7GgXEPFma6DLWVzal1wNRQGyBHsziGcsKsXqWVR6zA9mAa0pxi9g4p8/Q1V0D2dKjCWNaEg+oEs15cBV5gTTX+0U4Uyri14bz++Uw3q+Fn8WQH+IazEL5dDPeXL1C57hTOpJyA410nQuwOzwth7RkKuapVvsg7huqdeJEqfYW6e0vKcEq5/DQAfmInWpZFFEpHsREmQEREAREQBERAEREAREQBERAEREAREQDyIla7S9qFuzKiqGduJoBkSK5ZmgOUlCEpvLFanJSUVdlH+kK4+wvOIZJbjFuoHGTD4HzlSsL0VYHfX98pa+0e0mvyUcKpSuDCDkTxqZR3qpowoynQzk4OMnGW6JxleKkti4XO+s2VB1/e+Tzd2IzNOVBSvX1ld2PtFQM91aV4/pN8m00oDiBB/dJVlsaYzujDa27JuqBvy6TV3zaOXdFOMl36/qQeYNOcrO0L4K5cyB1nFE5KpoeG9EsTlnl/iZltPjymtsznUyXdFZ2poOJ3Dlzk7Iou2dc+jS40sWtzq7FV+6vx71fSXiUXsT2msCwuIUo6Duk0wvkGIHA0Oh4GXqSICIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgGC8WwRWZjQKCSeQFZxPtXfmYNbnX2oboCcIHkCBL/ANu9rBVFgpzbNqcNy+evlOc7aSt3fkK+hBnqYWi40pVOWtDJVneaifeyrfFXnJG0dli1WoyI3yHsuywYeagyy3NKzxq9ZzqOS5PVo00oKLKHeNm2qHJcXAjWQi7qcy46idKtrrQ1Gk+Dc0NMajr/AIkVVfJx0lwc1a8H7RnyiE5gGX+87Os69xFHQfrI3/pwrpO+Kc8H3lUu9xZjnpNxYWIQCbpriEE0u07bCDOKTkyeVRVyFsa0Y272ymjLa1UjcQcvgJ+gdlXwW1iloPrKCeR3jyNROFbCsMNgCdXJc+Zy9wE6Z9H20gUawY5g4krvB8QHQ5+c9WtQy0Iy5PMjUvUaLtE8nswmgREQBERAEREAREQBETyAIiam+7esbPIvib7K5n5e+djGUnZK5xyUdWbafLMBrKZfe2TaIqrzY1PoMq+srW0Ns2lp4nZh17vkNJqhg5y30KZYiK21Og3/ALR3ey1fEeC5+/T3ysbR7a2jHDZKEH2j3m+Q98pttfEHidQebCfN2vSOTgbFhGdK0zm2lhKKaTd3/wBwUSqzkuyJF4tSzFmJZjqTrMNsuNGX7Skeon1aUpU5DidJrDtEs2GyXFnmxqEHTe56es1VqtOlG0nZEaNGpWmlBXZN2W2NEO/DQ9RkZYbkaTQ7ITC7KxyZqjkTqOlZZbOxppPk52vpsfQZJQ0krMllAwmB7OSrBcp46SAIXsoFlTMyYqSNfdMoFjVX+21lT2ipY4Rqxp6yzXhciTNDe1qSRuBzpkOOW8ydOSTuzvgSqpqPzJiXlKBEdSVAFARXLKSrteGQhlNGUhlPMZyhe1QGhTIHIjJvfvm4ue1ThoWLZilfF0J0M+hhiY1I2lZe48KpRcHpqdh2J24s3AW3GBuIqUP6iW2xtlYVVgwO8EEe6cHu5yGYOQ0I/SbTZ+0LSyNUdk6E0PUSqpg4y1g7Eo12tJHaYlD2d23YZWqhv5lyPnu+EsVx7S3a1oBaAE7m7p+RmKdCcN0XRqxfJu4ngM9lRYIiIAiIgHk0W3+0CXei0xOwqBuA4sdw5b6TYbWvwsbJrQ54RkOJOQHrOKbc26SzMxxO5rSp99NAOFZooUlK8p7IqqTa8sd2WXaPaO0tK427vAHCnoDn5mVm97eQaEvyXT1/zNDZpa27ZVbr4V+Xxm0u2wVGbsW5DIeup90nUx0ILLTSX3L8P0ytX8z277Ig222LRj3aLwAzPqflPhLlb2pqa9XY/CbtlRKKigMeAzpxJmYXjCKACvWYp4mrU/s2/psFhnatPXsl+TSJ2efe6r0BPykm73I2YOG0NPrMFUDLhWslWtszZ1ovLVv7TyzuD2mbGijMKO8w4YlrUe+SowxM5eR/L+Sqtjenw0hTb9Xp8jX2nezYs/AMe76ae6eqznIUHQZzcLs9QKmpp9YUZPMChEl2VktO6opvKAOvmrd4TdHplSTvUl+TzZ9Tq2ahZLslY11gj07ymozz1I88zLBsW+YjgbNqd2v1hw6yKiVHdNR/L3h5q2Y6iR7a7nxJuz7p0I3iua9DK8X05045qevdfk9HA9QjXj4Fd2fD/DLhZDynyHBM1OzNr4+45AYigbc3yb47uEnuDiBG+teeVPWeVZPY0VISpu0kSVpIt5K0JJAAr7pjvV4VFxMaACg1O7cOOsr1+2gXy8KDReJ4txPLdOqDk1GKu3wWUqea8pO0Vu2fO0b0GJpkg9Tz/tNM1sx0Aw/vWbdRTl17tfId49Mp5a2C/WVQN2IBR+Ud8z1YdIllTk1fsediurtSUMPolzy/eaR0B1QeX958i4WR3UPp/aba1uK0rmvNiFXyBqxkO22e+q94cfCPLFSspqdPrQ1S+TK6fVqjf+VKS96RBtNjnVHpyI/USM13vCaFyOKtX3f2k4O6cR10PSZrO+nePSZs1aDsbo1en115k4v6GqTadqhoTXkw/wAGSk22frJ5qc/Q6zaC1RxRqHkw+c+H2fYkVwr5GnwlscdVju39zr6XSqa05p/Q2uw+3D2dFFocP2X08idPWX/ZXbWxtKBxgJ36r67pyS12IhzVmX3j5++a60sbWwNQTh4qcvMSaxNOp7S17rQz1em16CzcfNH6Ts7QMAVIIOhGYmScX7Idsns2CscjqprhPMcDOt7N2glsmJT1G8GclCyutUZoy1s9ybPZ5PZAkUbt3tCpWxU+HvP1I7o9KnzE5nedil7dmJ7hox413qP3pSWO/Xo2toztq7E9OA8hQeUw3jViOGXunsVcI/02WO61+Jmw9eEcQp1VePKMSIqKFUUA0Aka1tGPThJK2JKjmcya5daTZXe5oCKjFrQgZmmpFdFHE6nlPJw+ClU1e3c043q9Wr5IeWPZGsu2zN7kqWAOECr03ADdXWppM9hs9ScRFVHHOvOgoGA/L1k21AAJbIE96mZY8K/W9yzBaszAUGui/VAG9q+L+ngDPcp4SlG1kvU8bM2Y3UMaCgXeTv5VXOnHDQczPt0wgbxuLEsp+6wzWLRQgoTmczqP0r5mZLpdmYgguuLPuoWNOLU7tOFczrpNXlir8BJvYwHUM1RwJzHk65+tZkKg94joxy9HXI/iE+7WzKtRhQkVqoKE7u8rZHMafOEX7Ou/B3W81bI+UX0ucatuGXTFQ8MeR/C65HznrtubXcGyb8LDXzni10HnhGFvNGybyhQDUDTeAPihzHVTOHCPeLti08W9SKN5j63UZ8p7Y7TtEGBgWp4a1qDz4/GSlXLcV4NVkHQ+Jehny6sSM2HBQA1eaNunn1+n06ssydnyerh+qzpxyVFmS2vuviQLVHdsdow5YjT0Az4aCfTJh4gcTRB5asZIWzpWmXHDQt+J2yXygoKYsh/N/wDt/wDiJow+Fp0F5Vr3M+Kx9XEO0nZLZLREZDTwig4qMC+btmYVaCo7o4rl6u+Z8p9k1zAr/Nu/O+nkJ8gE5jM8Vz/+b5DymsxHzhC97Su87/xvmfwifLN9YCv82787/oJ6SBnUV4r3z+d8h5CYWts6hc+J7zerZDyEEkj1qnPIjj3yPztl7qTC1yQ17tDvplSvKtB55HcRPfaPWuI16n9flSfaWo35EcMh5H6vvXpK50oSVpK5LVbERdnsD4xyJBArwb7PnM1ns964cOdNKj3Z5jpJIf6pyoMiRp6eEeq9JPugByOGlMq1KeozQ+7gZjn0+i9VdHfEkaG7BgtBUEVqDyNKUmaxtQ4zyPDcZtrvdwS6FTiBbKoLANRgVb6w72k1KXNlrUd2rAHKuVdaHIzysTgXBXWq7/yeng+qVqDs3ePZ/g1N72ScQay3kZfZNdRy+E6J2Bv+C29mzVDrhBO9lzB6nvSqbLY1UHeT6D+/wme7WpRyymjJaVU8xRh76TXhsLL9O3Ld7egxmIpTrKVJWWl/V7nbp7KT/wC+1/8AG0TL4E+xzxY9ymVy8/lDtn1BHpX5T5Jy8/3+k+bV6AN5/A/OfTLY8xm1uzVUUqPD4XCk5jMg9ZKYirEqxNBUtpyGXi5AakzU3G8jEFzIIyACkmjZZNrlWZre8Giha4jpQYcOVCQPtU37qiUOnrZEGtTKQMRZqMw0U0wrwD8x9kZDmZjNth7xNWbOp8R5gaKvAmR1NchmBlxFR8acZnuliGtFVjXEyg57iwFc/j6CSsoq7OpcE7Z+zgTYtat/EtFCpWlVJzZq5muVBwO6oky+BXx0V0wO69xgoom4KR3arTQHOQ73eGNuXz7jAhRSoCkHw67v3lNtb2ANnbKT3Xt2qcyAjKtox1qO7l5iYqjlmUpPf6F8bWaRivF4Sl2s7RQ3cJK/fyRczUHDv40M0W0rp7O0ZQaqKFd/dYBlqNQaHOky29q1tbYgM2YUGoUZBQCM1oAMjwja9qHtWatVyVSdCFAFVYcSCfOaKMHCSXud177/ANshJqSfqRfbEijUYc8wOjDNZlFGpnXgGOf4HG/kZH9x55HyYa+c9pu38KfFdD5TQ4rgqsS1rXeT+W0+TiCVpqtK55kAnmgzLe4zEttlQ0ZeBOQ6Nqp5TOGGuI/lAfoWOQHPWVtNHLGJlJIFKHcCAX/Cg7q+cxuoBqTn5M/nXurMjWhpRRhB3CufVvE0jum6nu08tB5yUUdsYLS1zyFTxbvEeZ7o8hMYDOwGbEmg3+m70EzvZ1504Zn10HlJdzwqjtiWu7IMwOYGZzzOE5ZZcZ2cssbonCKbI72SIaU9o+VanurSh3jI7qczwBMa1vjE5KijCyUVSO62RFa1rlkfjMtomBQNSTrv5yVsy92KeNGfpT9TMXizyOpGObsuWXuKTUW0iBZ2iMMLrhOXfXjvZt5OZPUCLxdsJO9KmjDPLOhNOIzrkeUlX97NnLWeQrWhFDnqP2Z9XYoWUMCUJ8NSAGNKEgEcKeflJxrvSUk1fh8M5kcrpa2+xCSxXSp4jgPTTqPOTLkSjBTUrXJhTEpO7gVPpnukW2TCWHAmueme/wCfrPBakbq8uPL+2+abKRQ0bR1Atj4CrIGFaghgQrd0Z1oVyGtJGudFVyQoAZh/DyzJpm0+rO9FjZtUEhsJbFhOBhliO8YgBxqJrbzad/AKEs7HIscg2tW/ekritcrOJXPq6J/1iBoqzCT33/3D7go/SSLp/GfosiWRrn9pnbyLGnupJSXC95YiR7Y8J7MWIc4lXhIlqZzoeg+ImO08A/e9oibFsVmG7+Oz8/iZsbLxL9x/6jETjOM8u3gX7n/KTrl/FT/fX4rESup7L+IW5l2lqf8Acf4zd3j+B+Ff6bCImOp+wshyaTZH/cHo/wDSZEsPC/73xE2L236L7lb2Mf1T1E9PgXqZ5EsImVfE33f0E+j4R1MRIgyN4z90/pMb/wAM/e+UROLgGG0/hjqZsLX/ALKz+/8A8jESqv7K9S2ma2/bvP8ASRIicwP+lfE7V9s+rTWSrtov31+MRKsT7MPUvw20/T8o9vf8Q/i+E17aDoP6oiaYbIyvck7P8Sf7zf8A2LIt4/7k/i/qERI/vCM1z8dp+H+mRLt4E+4PhEST/kkhERIEj//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Samiullah Shinwari</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020_T20_025</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>28</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>25</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Allrounder</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhUZGRgaHBoaGRwYHBocHB4eHBoaHBkcGhwhIS4lHB8rIRgaJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzQrJSsxNDQ2NjQ0NDE0NjQ0NDQ0NDQ0NTQ0NDQ0NDQ0NjQ0NDQ0NDQ0NDQ0NDQ9NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABBEAACAQIDBAcEBwcEAgMAAAABAgADEQQSIQUxQVEGIjJhcYGRE1KhsQdCcoKywfAUM2KSotHhFSM0c4PxF1N0/8QAGgEBAAIDAQAAAAAAAAAAAAAAAAIEAQMFBv/EADARAAIBAwMCAwYGAwAAAAAAAAABAgMEERIhMUFxBTKBEyIzUZGxFCM0YaHBNUJD/9oADAMBAAIRAxEAPwD2aIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiVW3Nu0MImevUVBwBPWY8lXexgFrNZ2503wWFuHrBnH1KdnbztoPMieP9NfpDrYwmnTLUqHuqbO/e7D8I08ZpCgbhp5SOTOD1LbX0u12YrhqaU196pd2Ploq/Ga4/0gbRbX9qYdyrTA/DNWWZEW5G7zhskkbts/6TtoJ2nRx/Gg+alZuew/pUpvYYikaf8SHMvmDqPjPIqNC1r7hr4917aekzZbcL28mt4TGozoPpfA41KyB6bq6tuZTcf4PdJM+dujfSupgXDKS1Mt/uIfrrffbg44EfKe+bK2lTxFJK1JgyMLgjhzB5EbiJJPJBrBOiImTAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBRdK+kVPA4dqz6t2UW9i7cB3DiTwE+c9u7arYusatZszHcOCj3UH1RNm+lXbb4jGugP+3h+oo/iIBqN3m+n3ZqmzMJnbXdITlhZNkIOTwiL7E7wJkpUM31TNlp7PHd6fCSMPsgsRwHdr8xK7rltWxrtDZzncLy1wmxXJ3ETbtn7HA36mWyYDWapVn0N0aEVyazhujpI1Pwmb/QABw9Jt6Yaw3TuMN3TU5yZs0RR5vtTYYykqo03g6aeMgbA2/iNn1M1FyyE9ek98reI4N/EJ6diMKOU0rpHsJMrMoIa1wbn0m6lWw8M01qCkso9c6LdKsPjqeek1mHbpt20PeOI7xpNgny50a2u+DxKV1PYYBx7yEgOvp8QJ9O4eurorqQysAykbiCLgy8nk5rWDNERMmBERAEREAREQBERAEREAREQBERAEwYutkR291Wb0BP5TPKvpL/xMR/1VPwmAfLXtmYlmJZmOYk8S2pJ8zNk2HSsvjNaVbW05TZ9iPe0r1vKWrfzFzSTWXmzqQ0JNpWUkljhkJ3G0po6DLsZRuMl0QJV0KDc7yzooRrMdTPQkNaZFxC2taRiCdJ3TDG++N+hHC6mSsqndKjG4QNoRLtqBAkSol5hozFnjvSfZRpVGAHV3jwN/15T2D6Iseamz1VtTSd6Y+yDdR5BreU0fptRuRpwIvNm+hdrUcQnBait5suv4RL9GWYo5txFKTPTIiJvK4iIgCIiAIiIAiIgCIiAIiIAiIgHEibVTNQqrzRx6qZLlXtXbVDD2FZwpYGwszEjwUHTxmG0uTKTbwj5aXcOVh8hNr2DTsgY7zrNc2iirVdUUqmdsgbeEuct/K02jDoRSUKNcoA9N8rV3skW7eOJNvoZcXtUqcqKWbuFwJhG0cSBf2Tn7jfkJ2pn2C3C3c+t+cVcViXQuHYPYZFAFgcwBzX7r7pCKibZuXXPoScD0tqroyAfA+hm27J6To5AYWmqbdRURGRzUYi7EoEZTfS9uq3VtccOc52NSuAT2onhGaal8z0M7RWwYKbfq0pMV07SkSppE2uLg2l1gqS+z3XtNK29RZqoQ5UUkAXtruuW5DXztNcWsk5Rb6lo3Tcv2U0J0sb+vLdO2G6QEuA62VtL8j/aUewExArtSpFNAhGYMAxY6gEadTW977jvmxU8UuJz0aqAVUJBta4Yb7MNGG4gjeOAsZskljdGqDedmVXTNuorjUAgHzBP5TbPojwYTCPU41KhPkqqo+Rmr9IcKUwjq2uW2vg2nwM9D6DYUU8Bh1G8oHbnd7ufi02W/BquuUbFE4nMslQREQBERAEREAREQBERAEREAREQDrPE9p4s18VWrMTYNkQXO4GwnthniFXDtTr1KbCxWo5+djK9w3hFyzS1MqOlezVKGoLXW1t1yCQCDM2GGiiV+0nLg69m1/NgLS2w67pXk/dSLailJvsSqOBVtTaWFPB5R1b927+07YGnmMt/ZWEgTwaxi9ll+2bDlO2FQJa3lM+LxIzkSMisSLAwzKRueyKnUN+MhbW2H7Q5l3/MTJsygwTjeT2xNgcykAC9/nMbhrfYgbLwSoLEC/eJJ/wBOVTmCi++4tJtNcwBU3B4zOqaayRBvDNV6TJmw7juH4hLTBYL9mVSjG65QxYkkra2v9pG2/SBQqdzMg9aiiWG0GurW3sEA8S1pmLwMZZulM3APMAzvMOFUhFB3hQPhM06C4OQ+TmIiZMCIiAIiIAiIgCIiAIiIAiIgHE8++kDZmV0xKjQ9V7c/qk/LynoMwYvDLURkYXVhYiQnHUsGylU0SUjwDaGBZVqMuq2v5Ag/lJ2E1Altt3Y70C1NgchuA9uqwI587cJT7Le6LfkJRkmtmdPUm8rqXmzn1ltiMSqLdvIc+6UuAbrj9cpi2ujM7m+igAeAAJt53+EiiTexgxAQMXv1ib90hJi6ma+cAX7JW+ncRqNZ0osrAXYeuks8EiXHXT1k9kRWXwX2ytsqFylrOR3m/haSMJi3dnV3UoR1LLbxueMosPh7VM+ZF5FW+UuXooetmDfYN/WZeDOGt2S9j5qT+zJuu9b8r7vKX1UDeJrGzqgZrXvZgAd9idLX9PSbAj3EitlghLd5KLpGpKAAas6AW+2D8llzsrCZ6i33IAx8RfL8ST5SLigDVpgi9szeFlKg+ribNsrC5Fue0xufyHpJ0oZaNdappg11ZPnMRLxzhERAEREAREQBERAEREAREQBERAEREAx1KYIsQCORF54ptrDexxdamBYKxK9ytZh8GtPbp5J9J9LJi0e3bQXPepI18rek01o5ib6EsSKzDVcrBvL85L2rW65sdGAv5j/EolxNx+u+ZXr3trqAB/iVNJe1GJKQV8y2VtLmwINjcXB8Jf4HFvdSRSaxY9ZB9bfcac5UUkB5SQ6Kqm7BdN95JNktvkbZg8U+oFLD783ZUcb85HxmFaodQqWJN6Qys176Eg7rn4CVeyVLFcrrfuI+E2PNl3kbt/8AaZk2Fp6Iqej2BNKoyAkoTmF9SNx3zYxVtu5yqw7gMWOlwAOWu7ykn2lhr8ZAi2XWwMMGdqjC5WyC/kx/KbFK7YmGyUVBvc9Y35nh8pYy7Tjpikc2pLVJs5iImwgIiIAiIgCIiAIiIAiIgCIiAIiIAiIgHE81+lWnd6FxoVcX8GQ/nNj6a9Lqez6QZhnqN2KYNi1t5JscqjnPJ8d00q7RYF0RBTuFVST2rXJJ39kTXWT0M3W/xEV1yjFW8jzHAzJ7XXfJGIo51tuI3GVJYqcrCxErRxItzTiy2p1ri15Z7Ow6setrNcoYog8xLnZu0QpvfymZQYjUwbJSorfKoAI5+kzJdb3+Mp6e19TYbxqd1pYttAEALqbakaC44DukdJJzyTKFXMSu7LbU8dAZnwr56qLwzrfTv3SsosXORPFmtu7u8zPVxX7OQ4F8nXtzy67++2+R4aRnTlNnqMSBsfadPE0lrUmujDzB4gjgRJ86GMHLOYiIAiIgCIiAIiIAiIgCIiAIiIAiIgHE6MwAJJsBqb8JyzAC5Nh3zzf6ROmlL2D4fDVQ9R+q7IQQq36wzbsxGmm65koxcnhGG8I816abYOMxFStfqHqoOSLounfv85U9GtC/ivwvO4XhONmdSqync2omy8p4p5RO1l+Ysm1UReY8ThQ2+dsMZZLTDDWcbVpZ1nHUa0+zyDobeO6SsPsqsdwQ+dpcU8Kb7riXWz8Inu/MSbqsh7FFDhtj1r6hB33Y/lLzDbHbTO/koyj+5l5RoAbgPT85lKW3zDqNmVBIwJSVFyqLAcpQdJGK0qjHgj/hM2GqbAnlNS6b4sLhn11eyD7xAPwkYZc13Jy92Df7EDoD0lfCOL3ai1g68t3XXvHxE90oVldQ6kFWAII3EHcZ827LTqzbdh9JcRhlyowZN+Rhcd9jvHlPSVLV1IKceTz3tFGTT4PaonnezvpRolsmIovTPvKc6+NtGHoZt+zekGGxH7qvTY+7mAYeKnX4SjKlOPKNyknwW0TicyBIREQBERAEREAREQDiJT7U6S4XD39pWQMPqg5m/lGs0Lbv0osbrhUyj36gBP3VBsPO/hNkKU58Ii5JHpW0MfSoIXquqKOLG3/szQdufSrRQFcNTNRvee6p427TfCeYbS2nUrvnquztzc3t9kblHhK5zeWY2yj5nk1uo3wXG3eluLxRtUrMF9xCUXzUHred5T0BoJwi6zmj2V8BNsIJEW8mQb51xyEBXG9D8DoZ2BkikmcFeYIk5RUouL6mIScZJlvs2uHUGX2HIsJpGwaxVih4Ej00M3bZ73tPNVYaXg79KWqOSSqEG8t8LWsNZhpUgRu9P1pMuQC3j+vymg2snritNJ0VyxvILvrYHTlLDCKLXMGDHilss8r6Z48vUWmDopufG4npe2sYFRrcjPIsSheozd8s0F72Waa7bhhFps9erJr4kKJAaulAhKgcGyksoBVSdcrDffnJKUg+qMjj+FlPqL3HpPV05JR09Tz0o5eSDiyX1A1BuO/mJh9pYXHiDxlr+yv7jfyt/aVOJpMucEEEHNY6Gzd3jIT23JRxwXexuluNo2CV2ZRwclx5Br28rTd9m/ScRYYiiPtUzb+lv7zy3ZyE3tOMQjZgg1Y6ACaHShJZaJ6mnhM+gNmdMsHXsFrqrH6r9U/HQ+Rl+rAi4N/CfO9DCqgCkZmG/lJuC6SVsOf9moR/CuqeYOh8vWap2W2U/QzGtl8HvsTQNg/SGlTSshQ8SutuZtvI8Ne7jN5w2IWoodGDKwurKQQR3ESk008MsNNGacziczBg1bpP00w2DurHPV4U0Iv947lHj6TynbvTvG4kkZ/ZIdyUzb+Z+03wHdNdRmdizEsxNyTqSe+TUoKd48x+tZ0KVuksvk0SqdCuOczplMsmw9jb5fr4Tj2dzlYa8O/wlhxNWrBXezj2ZteT3wxHeJzUp5aZPPQRp+ZnUQsLTvfuB+U60NFUW4SxwVCyO38Pz0HznWlQKA2HWv1WNiFB424t8JlQeEzGpZwYHogDNUcIN9rXYjuUa+tp0etUNlpH2am2oPXe/Etw+yNPGWZwANibkkak6k+JMyYahYeGh8JJ0lw2Y9oY6GDLVDUBHWtmBGtwACe+9r+c2TB4YjnKr2Z3iWezMfbRhfkeP+Zy72wlLM6fqjoWd7GPuz+peYe/OMU9hpr+uE4ep1c2nMEcdZU4naVgdPPlOHpa2OvlPcs6O8X/AMcJzjNo5BYaASgfajEcfAaCV9auz6C5JkoU5SkorkjOcYrL4JON2g1Q5RqToAJ3w+zRRUudX4n3CdAq83O6/DylpsrZoRcx1c8fdHdMFZ85JAOSmSB/E50J7+XmZ6KzsY0lqnu/scK6vHVemOy+5r2PoBgykXyKSx5u2g9AT6yopYAMhUjrIbjw/VpsyUro7Hez/KRUoZatjucW9dJ0Hh7sqRk1sVWHptkygnMuosTrbeN/EXmPCULu66kOhIvrqNZbpQKv33+M6vQyVka3VLAj72jDyJ+U1yX8E1IgYBSqOeIyj1MnbKw1lase0xKp3AdpvymXF4TItfTdkI86gH5zLti9OmlJO2QqeZ1Y+t/QTC2fYw3n1Kus5qNkTdxI4/4+e+SKmFFMZfrcZYUlXDJlABc8e/j5Dd3kGVNZzqzaknzJO4CbksLL5I5zxwc4dmLhV7R5cLahvEGbTs3bVbBNTcNmV83tKe5WKuQWUbkYix00vK7A4P2CM7j/AHXB09xbXt433zvVpXw1NjqwqVNTyIQn4zmvTOu/llJ/ydapGULWGrl5a7bHof8A8jYX3an8o/vE8oyjkPhEtfgqX7nO9uyupJJ1ITFTpa9x3eI3j8/OWOEo3BHKbI4ayiE8xbT5Mfs7i3oe+cfs4YENpblwPBh+uBHCWlPC3E5bDkda2q77cR3d+7zAkmskNRD2bSBDq46yW8CPeHcRY+cx7awmRFA3Frj0lmaIBD8AAj23GlU0v35WYHwadcfQZsPh83azuh7yrEX/AKbyCl0HXJXthstBBxd/go1+LLO1fC2UeUudpU0T2SuwWy317zy3nsyq2ntVLWQFu8gqPjqZrqXFOC3aN1K2rVd4xePn0Mz0LKNJDbEKhtvPIfnykXE4yo4sXNuQ0HwkZKesoVfEsrEF6stfgHDeb+hYft5OlgB+tLyZhrEXEg0sKz6IhY/wgn15SZRwhQ9eoiHioOdj3FVvY+Mxa3k9WJNvPqV6lF/6rYzft5TS115fmJX4yroCBoSbk7hxF5lqC5klEutgBrob/nLteyp1nnh/MlRu50lp5RVK9xzJlrsqkAb8eMgtQCFgo+t46cPnJuBq5VZm3DdzJ4CLSzjR957sXNzKrsuCy2hjSFyJ2m+HMyjq410GVWuqc9QTuPfp/eWTmkAMzulRwO0mZQOalTcenfK/EbOzDqVKbjucKfR7SpdVauvKTSXBGlS26P1MeG2sBTCuvG4K/mCZkxOKpMFZXAI4N1T8ZFxGyayqD7NiOaWceqEypxNMjRgQeTCx9DNcL2aWG8m12y5w0bW6q/XRgwIBupv1rdYeIPzkjaeBzUiyjUD2i/dF2Hpr92aHRxboLI7pqbhWIv32HhJGH29iUFlrvYG9myuP6gbDwllXia3RrdtJcM32thA6ZrXDohP3alN/kDKirUH7TVrvqtBQBbi7HKoHfe02Po3/ALmBovxyVKZtzUOv5CV+xMAtRMzdl6rVX71RBb+pwZYhNSaZoa05TKP9nbMuftsMx7rDd4DdJ+xMEtmxLjqpf2fyLd54D1k3D4U1qjuNM90TuUfvH+6CAO89xknpAoGTDU9FFr24KLX/AF3zbVrKMW3wtyVCk6tSMF1ZSYioXUsfraD5/lJeJS2GoLxJqP5FgoPos7NRubKNB1R3n9WmfbVvaZBupqlPzAufiT6SjaQfut8tuT7HV8VrKVRwjxFKK/sov2YfoRMn7Snvr6xOvscQw4ClcleO8eP+dR5yyw9PKwvoG08D/wC5Fw6FXBPqNxB3EHlNjbBB07m+B/z85y7Ko3T0y5Wx1fF6MY19cN4y3TOKGH/XeN8zthfrAbt/eOM52WSwIbtpYN327L+Y08R3y4ShxlpyOTg1ulRVay027FQMv3X0t5MR/MJa4XZWc0VPZpmoztwuHK387GYNu4bIgcb6To4+wWCuPAXDfdldjMY7F1LnL7SpZdwsXa2nHfKdzceyWV1Ol4fYu7ljOMclV0sqB8a4TrBEp0wV1v1c5tbfq9vKV52TVyhmTIvvVCEH9WvwkiljH9pUFNiozG5WwZtBvYa2001nKYCrXPURm1sWbdflc7z3C5lSNhKp+ZNpZOjPxGNKKoUo5xtl/c6NhaKkB6pY8qSE/wBT2HwnC4umvYoi441SXP8AKLL8522hs56DBXy3I1CsCR4/rgeUiLTJ19JdpeH0Es7vucyre1ZvfbsZ6+0arjrO2X3V6qj7q2BmDNqLDz5TsVO74zv7Gwvf/MvRpxisRSXYpym28t5OaJ4Ea8+B/wAybhmtoQR4yIi3OvpMqVN6nXTTmJMizvWo9dhfS4+QmZlygNYadlTuPMt+u6diEC5mN72sBvNgBf4b5HqOTYvfu/IGYyCNVJY6nx5k/lI7ki438v8AMlVRr3/rfMQQa338bwZOq3UAq5U8wSPlJVPaVbcahIt2Xs4/qBkcU7jdpymUU72sLnU6cLbzIyp05cpPuiUaklw2dqNTOKiOiMhYFlVFTkdGUXU3G8Tn/S8GzZfZVVzLoVqXKnmAy2PnLjDbOSiHNYkP1WCWIJ33vY7rWYMDY6jeJylWkMpFE6ZhbTQMWKsXBzNa6jKdBl75TlQoy4j9Njeq1SPL+pb9AKFP9nekju2V81qgUEZuq1spNxpfzlZh8yUaGHBClku5P1UW7Ox/mTxyyDtDDhBUqUKjKyPTcZdHUOGBOn1bsq66aceFn0VvWvVqan6507CMQg00GZwXIHuLNccQlpWfUhUTa1Pq+hdYWktCkajDL1eqp3qovlX7RuWP8TGa8CSWY6u53chwX46yy29jMzZPqpqfGc7DwhYmoRoOqviRqfIaecrVpupNUlx1OzY0Va28rua3xhI77PwgQ527KAuT9nX1JmvOhqs7N2bnORvYnUop+Z4DTfu2jbRsnsUazPZqje6g3L3MxGncCZS1EGgXQDRQN06dusty6cLsjiVZPry933ZG9kn/ANaekTt7VPfT+Yf3iW8I0bkF+xT/APJ81m07O/d/r3hETk0fiy9Dr3n6Sl6nGF/5L/YP4ll5R3REtSOSV/SX9xU/6qn4DKCh+/H/AGt+NoicrxDyo9B4FzU7GubJ/eVfFpuWwezT+zV/C0ROhU+Ejk/9GaXid/mvyE5p8fGIl2HCNDOw3N4zip2V8oiSIHatvWZcJ9bxiJhmTEvab7Q/OSq/ZMRMAjpvPl8p1q8IiZMmZZM2T++p/bT5xEjPyszHkl7S7X3KX4RMfFfKIkKXlQqcmPGdvEf/AJn+ayf0N/4tb/sHyERKk/jM3P4K7mDF9up9tvnNp6PfuE8X/EYic+3/AFEj0XiP+Op+n2KfH9rFfbH4Kcr6nYb7DfKcRO5Q8iPLVPMaNERLBE//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sharafuddin Ashraf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024_T20_004</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>250</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>25</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W39" t="n">
+        <v>10</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Allrounder</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEA8QEBAVEBAVFRAVEBUXFRUPEBAVFRcWFhUVFxUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi8lHyUtLS0rKy0tLS0yKystLS0tLS0tLS4tLS0tLS0tLS0tNS0tLS0tLS0tLS0tLS0tLTctLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQMEBQIGB//EAD4QAAIBAgQDBAcFBgYDAAAAAAABAgMRBBIhMQVBUSJhcYEGEzKRobHBM1Jy0fAUQmKCsvEVJEOS0uEWI2P/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIEAwUG/8QAKREAAgIBBAEDAwUBAAAAAAAAAAECEQMEEiExQRMiMgU0UTNSYXHBFP/aAAwDAQACEQMRAD8A+ZgAFioAAAAAAAAAAACGBIEwGKTsrgkAK08dBc7kX+Iq+2nXoRYLoFNcQj0dixHERf7y95AJABMCSAAAAAAAAQDEAAhgAILAAAAAAEoMEAAgGAAAAwBBYYACsczkkrvREWKqWSje13r4czJqyT8Oi2QbJLtfiKWkFfv5FKrUlLWT0fl8EdwouNpW32vscSkr3epUkhBlqTi47WfwIbLfkARgOTEAdwqNcy/Qx13GLW+j8TNsd0amWSlvYA3UgIqOIUrcr7cyYsQIBiBACGAAgQxADOToTAEAwAJQGIAAsMABAAAAJjOK9TLFvoCTK4lUblboQJPZdfcN1c08z6jhUstN+ZUk5nVeuu2iI7ErjfXqSxw0mtvyIslJsqsTLNXDyV7o4UNO8m0KZHGNzklybBKJFiiNMDqUdNPM4JIJaFVxktdL6m3GV9Tz5e4dXs8nXYlBmmAIZJUQmMABAAAAIYgAGIYBKAAAAAAAAAAAU+J3yWXX5FwqY9+yurAM2pDRWNnhPBfWJN7GXKDe236R7f0divVL3HDLKlZpwRUpUytS9HY6X08DWw/CowW2hoUII0IQi0ZN8meisUY+DAxPBoTXspFP/wAcp815XX5HqnR8yvVgTuaDwxfg83LgdLlEzcZwSK2PWuxVxCTViFNh4Y10eEr8Mtexk1qbT1Pb4uhY8zxClbNbc04532Yc2JJcGUdU5Waa5MWUR3Mp6CErpM6K2AleESwWIAAAECGAACYAAAAAAEoAAAAAAAAAABS4gvY8WXSpxNdi/RoMkzXXa0voe29GJv1eux5Pg2AVaqovSOrZ7J4inQVvdFGXM74Rs0yr3M2YNvYngpIxcHxyN1mWVeDPU8OxtGsrRmnLpzOPpyN3rxZWjVaOa07mnPAaXWqIlhLPYpTLqSPP1oyV2UMRKR6nFqEV2mkeV4hxKkm1F3fwLqDKSyxRUqVbmBxV6s0Z4yLb5FLG0M603+Z0iqfJlyvcuDDkcMc4tNpiuajAa3Dfs14stlbhytTj5/MsliAEMAQIAAAAYCAAAAAlAAAAAAAdxDEwAIcbG9OS7iY1+C4WNSM1JbtRb6JplZy2qzpihvlRh+iv2rf8LPXcP4XGbc6ivfXwMXg2BVPEV4raPZXmz1dek50nCm1GTVr8kZZy91m7FCo0V8Vh8DCPbtz1btLybeph/sFGU06GIlT17N7Ne9M2ocEn6qMVSg6kc+ao3nz5otPMpeN10KFDh0qcVTdODay9q+VpJW5aFul2VUW30ev4FUkqbjUnnfJ9TjG47IpJtX1MnA1pRv8ATUzON13m36nG7Zo21Ezcfhalabcq2+y1l8ixhfR6hFJ1Kk7/AIcqK+AqdtXzdHltf4k3GcJF1E4QqJXk75pXs4pJW7pXfmd1b8mWSS5qybE8CpSjenPN01vYwJUnTk4t3XJmnRc4VYxi5TjZXbVteaOuKYdblX/JeuLR5ji9NXUluzORpcW/d8yrg8JKo9Nlu+R2i+DLNNy4NPCRtCK7iYbha3QDqnaOTTTpiQDECoCGAAhMbEwAAAAJbDYCAAdgAAQwCwAkbnozaU3TbtrGS8r3+ZiGl6P1Mtdd6kl7imRWjtgdZEbLjH9qxEo65nT/AKbfQ28FQ0bMbh8JetlnVnpvppfc9HSnp4mNs9RR5ZBWrOKaKFeObV6d3U03QuzmvhbRva72iuviV5LbUjLpQ2SRjcZTzs9Vg8JJys1srsxfSWg1NO25MRLowKMLO6N/BY26tLUysLRvJpq0uXeXnh8uvMs2clGy1Wpx1lFdoxcbJ7M3KOqs9/mZnFKKCDVI8jxmGi8TW4VhctBXVm0n43KuJo55wh1evkXlPLKUO5+R1vijhCPusq1tde+SImdz5Lp83qcHeHRkzNOboQDAschAAACAGAAgAYBKAAAAAAAxAAAFnhn21LW3aiVhxdtUHyi0XTs99i3d07Lub67Oxfw0up5Pg/FqlWcadRppJtO2t9Eens0r8/1oYJxceD1seRTVo0cOlf5kPFK9lZO1veJVcsLrdmROUpN3013Kotdsv4CtKnFyzuV9lLdLx5mNx6c6lpXyW82WatSSSytWXJvQp4ybmtk34l7DjIXDYqUoSlbRe83eI4RJdna10eRpTlF21R6qOKzUlfdKxEmVRQjDR9TJ4pM04zTuzG4tLkShLoxqKbqprkpPz2RPVoZe03eTWr5akNDE5KmqundPuO8VXzWS1Wt/odYptmZyUU+SswBgaTDdiAABACHYQAMQxMAAEABMAAAAJCGAMQAAADAAt8JrZK0HyvZ+Z9Ai7xV+4+aHtuBY/wBbTV/aWkl9TPnjxZs0s69pt4zDudNJO292tGeVip0arz3rQ+7KTXhZrU9hQnoUMbgFP6dxni+TdGvIYLH8PnGSq0pwk0kvaai0t00+tivj8Zw5Qgoesul2t05O3ftdkVTKmk4a9VsyljMDn2ikrnQlxj4ZmQxd6kVTUnHS7lpbqekxitBZdL6mdQ4fl5al3E1Ow0yr5KlLCv6mRxR6s06cssWzD4lW3ZKRzlLgzH7R2VKmJUHeV/Imw9dTV1/Y1Y+jzsvZIwGBc5iEdCAFcTGwsAITGcsAAAACYAQAAAAAADAAEAWAACxgMW6U1KPmuqK4ENWiU6dn0Xh+MUvgaSnY8fgpt0qdRPVJJ95s0MfmSu7PmYXHk9WMuDTqwUtbFdyjbazF+2qxUxddFto3odefMzMZWu7BjMektzCrYqUtkSo0VlL8FrF4tJWuYWJnmd3sXHSb1bu/gZ+Pb9iOsnuXj7nUSkuFbMmu3UnZf2LVCOSSS25k+Hwygure7OMVC2p7ENLtx89nlyyXIugRYepmiiUwtVwXAQwIAhWGIATOWdM5YAAAAEwCGAFgBgAMBAAMGAyAcjACQel9H5XoyXRs1cNhFUitDG9FXf1i8Pqei4RJRbjLTcwz4kz08XMEVq3DGtpNfEqVMFLnNm/Und6bEUolN7OuxM87U4Vz38dTipglFHoaqSRg8UxKX0JgpTltRLUYK2ZWNmoqy3M6GH58yxKd3ruRymfR6TRRxLdLs8bUal5HS6I6tKxVraxdy1UxD57FWpPXMt+nT/s2SMqI8JeK12exbKcajV+epLGVtjz82nvmJ1jP8k4HEZ3OzE4uPDOidiOWdHLKkiYmNiAAAAAmAAAABDJAwENEAAAYAgAG7akxi5OkG6N30RqL1s49y+Z6mdDtN9TwXo1icuLgvvXX1PpFR6IzazHsyUehpHeMjhCyIpyHOdipKtvd2srvuRkpvg13RDxLEqMW27L5nksVXc5Xfl3Fni2P9ZO37q27+8pyqJn0eg0fpR3S7PG1ep9R7V0QuWoqkue3U5ll11aIJXd9ez8z0LMYNuTu9uQpRO8p2qT6auyS1u2xt4IKriEIt3sm/BNmtLCQpe2s9T7t+zD8TW77kUcRUk+dl0XZXuWh5ebXQjLbHk9PF9MzShvlwjn1L7k+l1m8bbgm1uVcrTur6bGhRq5lqvFPl4dxyWoU/kjlLTuL4ZwmJkk6P3dO7/sj8Sjiu4vgrTXDRy2JjOWcyAGIACwCEMAGAhgAMQwAGIABlbF4mMXkbebTRK+5dhRuk27Ld90dvi9DHdLNWqS6PTxexp06d2iJVR3Cu6dek+cZw7ua+jPq1Wr2IvuR81wnDXPEwvqowjKXitPofQVO9KF+4wa53ko9HRL2kmLq9ld5l8Syuk4ylb69xzjsalq9lourfcYdfFObev5RXRHTQaSeWe7pIavURxx2lepDzjyfTuZDUVnqTRvF3Wt1quT8SDE9uyj2V+9r8D6VwZ4m4jpwUnf91adzfMl9VvyXwO4RskunuO8l3+ki6ikijYqVJykowV23p32LEpervGk89R6SmtbPbLT/AOXPkWlQdOKppN1Z2z23intTXf18bFqUVhk4w1xFu3Nf6N94Qa2l1lutlzPKzTyaifpYuvLNennjxe+XL8GWsB6v7eWR8qcbSq/zcoeevcRzxFr+rhGmuTtnm/GUufgkXKGCqVJWhHM+bWqXe2beF9GYpXqzzP7q0Xv5lJQ0mjXv5kaXqdXq+Fwjx1apNtXqSf8AM/kVnUmrvM34ts9pxHC0KVkoR92Z/IyZVcM94x/22Ijqd/KxujlLBt7mjIhX6r8ySyktGn8ybF0qCfZUk+aSt82QLC5lenNS7vZkiJY4PlpxI3Sqk7K81Z2ZyyerSmtJxl42vbzK7RmnDb10QmAABSixYCwACAAYAAhgAJCx1ShmlGK3bSXm7HJZ4dpUi/u5pf7Yt/QmMbdFW6VnWKlfMltey8I6L5FfBYbtXfN5mTxjsun6ZJht34HtafEowRk3Nk2BX+Yj/FCa9zT+pscSxyp00m+5Lmzz2KrZJU5r2oybXRpqz+hDmlWnmk/F9O5GHLoPV1Fvo9DFq/TxUuzuVSVWTb2XuS7iSMErdLaHcFZJLbX+5y3t5+Z7GLHHHGkebPI5u2Rye303OVHbz8BpbDktv0joVOPz8i/gKSu6ktYw7TXV7RXm/kVsPScpZUrttWt15GpGcYONONpZG5zb1UqnLxUb28bmbUZNq2rtkN0W6dL1EHUm/wDMTV4LeVNPecv4nyXmHC+FTxE9OzTTjmfW/TqynhZudpaznNu7d222z2fDqUcLShnaVm5TffzRh1c/+TCo4/nI1aTAskrl8UTVqdHC07aQgue7b+rPLYjjkqs3Gl/64829ZfkccV4g8RVbd1Beyui295l4WLgrJ3cld9eg0X0qKrJn5kzrqdc/hj4RJTUZZvW5pN3yyu03vvZ6mVjaChLKtnr1sayjZxa1S6lfHwu8y0fQ9iUFVJHnqXJmVuu/K5Td001o+40atPZWs+ZSrR3ZmywT7OsGXMJxlx9vXvXPxRzVoQmpTpPbVx6dbGa0d4aq4SUo7/M8zJpVy4dmuOZviQrgaH+K/wDyiBn9DN+0vvx/kiAAOJAAAAAMABIFnA+1L8FX+lgB1w/Ipk+LJHvLzDDbvwAD3cfxRiKvFN4+ZZwPsR8WIAvkdH0Sx2Rz93wYAd2cURR28x1NkAEEmjwD7eH8/wDSyvQ9mp4fUAMOo+4h/X+lJ+DU9Ffbwv4n9Tf9LPsqfi/qAGL6j95hPW0n6GQ8zhvbf65o5w/2j/CAHvx6PIfQ58vP5nPEf9PyACWVRQxe78DPr7e4AM+Q7wKst2cx3QAZfJ0Z0AAdiD//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Usman Ghani</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023_T20_053</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>23</v>
+      </c>
+      <c r="X40" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgVFRUYGBgYGRoaGBgYGBgYGRgZGBgZGhgYGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQhJSsxNTQ0NDE0NDQ0MTc0NDQ0NDY0NDE0NDQ0MTQxNDE0MTQ0ND80NDE0NjQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAABAAIEBQYDB//EAD4QAAEDAQYDBgQDBQgDAAAAAAEAAhEDBAUSITFBUWFxBiKBkaGxMsHR8BNCUjNicuHxBxQ0c4KSssIVIyT/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIEAwUG/8QAJxEBAAICAgIBAwQDAAAAAAAAAAECAxESIQQxQSIyMxNRcYEFQmH/2gAMAwEAAhEDEQA/AJqICQRVgoTggE5AQkiAlCBAIwjCSIEIIpQgQRQnihVqNaCXODQNyYQPCKrKd7sc6GuGsa6HOARtJEeKnNtDf1AeIQdgnKM+202/E9g6uaPcrh/5izxP4rP9wHugsYRCpXdprM0wam+Qwu+kLvZb+s1QwyqwmeOnXggtUU0FOQJCEUJQKEYSRQEBOhNCcgBRShGEASRhBBUQkAjCcAiQATgiEkBARCEpIDKSQShAsXI+S51q2EThJ8vqnVKkSSDA32WDvvtWXuLaWTRo46nmgsr17QgEtZLXD8xAM57AmABHBZy1Xw4mSSXbmZkc9vJVVWqTqVyB4+BUDs61PJkGOELobY8iC4+Z0URsjJdG7jQzI+vRB0NYbeuaf/e5yI06qORllt6fyXMtlSLJlZrjMZbwJ90ytRIILfCNc9ss1Ept4TK6vcPzQDxj6INHcna+pSOGqC9mmwe3px8VvbtvKnXbjpuluXJwJnJw2OS8We9uz55qZdV4vovx03hrog/vDgRuFA9rSAVN2cvkWlkwA8fG0bcxyPBXSlBQiGpNCeAgACSfCUIBCIRhIBAISRhJBTohIJwCJIJFJGEDQnBBEIEAikuNpq4Wk8AdwNkGd7Z28spljXDv5RvESTOy88cd1Y33bzUqOkyAcuHgqzM6/fRQkS/aQutBwnMxzC4QZTmPI29EEivTg5eGWvRcqZ2yPI7dF3eA4ZNM7GcxyhRw7PC7UeBUhzm7g+P80cjMjMaGc4TGPIPL71Ce506COkQiBLiNSANiVyeG/rJ8CFKpxw5CNPquJEnQ8s1G06R3U88oSDPD1nmrSx3a46jLP04p1a63D4RMDPkqc42twnSf2Rvplne4vBgwJGcDOct9l6lZazHsD2OD2nQtMj+q8PALXQQrq476qWZ+JhLmH46ZOThpLZ0cOPgrxKsw9dCeFCsFsZWYyowyx4kHfmCNiN1NapVJFIBFAAE5BFAkkoSQU4CcgEkSKUpspICiAgEYQFxgLK9rL/Yxv4bM3uGRIyAO/Vaa0GGnod42Xj96vP4r5JPeOfHNQIrpMkpzQmPfwEp7D/VEkWmM0GNjdJ4z/n9yn06gGs9ES6U34SJGSFez4ycOe8HWOR3T6b42kc4RcCdGu5KNwaRBRc3OdNBB912oVHfpPUKVSY8/lmctVY2G6H1CA1hz5H1KibxCYpMqynTe8wBmeOZWturs1haHPkmOscMuKvri7Mtp994BdsNcPNamlQaPyhZ75N9Q0Ux67lmKF1Fuwz5yM98tykLrAmefrrktM+i3hHIZKLUYs82mHaIiXmnaW7MJxtHX2+XqqCiM/vRek31ZQWngQRppv8l57Vo4XHrP1WvBflXTLmrxnbSdhrxNOqaLj3KmbP3XjWP4vkF6Q1eN2cuY5jhqxzXD+JhBHyHivXrDXa9jHt+F7Q4dCJWhnSAEUAiEChEJJQgKSSSClRKSICJNRCUIgICAnAJAJxQV19ZUnOIBDRJmM+HqvILT3nEnivWO0OL8F7jhAa0nMcOu68oDJP31USmHLBl99FIs1lc/MAxO3suTW+ZWquWyd0D75ql7cYXrXlKso3E98bK6sPZKfjdlwErRWOkABlpkrai5oGZWW2W0+miuOse1JZuylIfllWVPs3TEDAPvkp77xps+I855IMv2iZAcCdhzVdXlfdUVnZ2m0yGNVrQs7WQAAPmo9C+GOjgRmOH3krBtpYYOIbx4fZUalO4PZTPBPFMjZQ7XfDGEAnUgdZMZeYTBf9OYcQIjPQAkTr0g+KtxRyTX9FDr6Err/wCQY8S17T4pj6jS3UaZrnasrVtCqtLMQMrz29aYa6CNTHjoZ9F6JanQCV572o18Q75FdPHnVlM8bqiNMObJ4yOgg/XwXofYe0F9mwH8j3sB/dJL2+WKPBeTVrQSZ5D2ghemf2bH/wCZ2f53DzAK3sMtinQgE4IgIShFJAISTkkFKAjCQRRIQiAnIAIHAJJJIKHti0my1ADADZdwIaQcM8zAjmvK2VTP3xXsN/0sdnqtiZYY6xlC8Za2Tl96ZKJTCZZs3gc1t7AwMYJOiyFzUZqNHDM+C1ldhIwjf6LNmncxDRijqZcKt9OJwMBG3dPeP0SpvtLxDGnx0HjxVjY7sDGy6MhJjID0zT6lraG4nuwMGgJwk9d/AKsWj1WFuM/7So7bYrS34nA9XZ+SrKTaszByOoP0Wlf2ks+B2FjyGkB7gxkDEctTiOnBCngee5k/UNIwuz4g6hX3aI7V41mepc7tqvBHdj3krRWe7Xkjvxyn7+yqyzkgjKHB0Ec1sLK2e9yXC1u3atOmRvmyPBAJMNIM8YMz6eqzV42qoQWNmCZJ0mdp4LdX20nLWBA5kqhtdFlMDHGI8RJ6NbqValplW1FHdz7T+QExp3pjoNlctvGuJDmuGRH88lwsV9WbE5rmO7oJcfw/hAiXGDIAnXmrhtrY9uKm4PZwmSByOvgV0tMx7hSsRPqUOheriCDoNuHmqTtQ3uBw+5KubVYQ7vMG0gicxCr7xoYrM8bge2arWa7iYWtFtTEsafkvTv7NGn8F86Y8uHwiY9F5jTaV67/Z7Rw2Np3e97j4Owj0atcMctQnJAIqUAnAIIhAkkUkFNCCcEoRJAIgJBOhA2EYToSQcLWwFjpGWE+y8vvm4WtYK1ElzDJdMGDvt6L1Su2WEccvPJY2xUCKbw6T3iI1BG+Xis+W01mNNGKkWrO2b7OtGNx/d+f8lsrpo4qhOw8FnLqswbUqgCADA91r7kbAc7muOWdy64q9aSbzpuw90CduqyVG6Xh5e8YyZGF2gB1wxut5REkyJXOrZmE95h6hc624ulqcmAp3A2S443HXNuskSC48pzWktzvxgBUYwBuHCWth7cOgDpJ68VbNszD8LSf4iY9Ua9nA2k7AZBXnNKK4oU9GmS4Ttp9StbZmd3wVJZaMvzWgptdh6Ln7l01qFJb2EkuETsFUUgGPxhoxzJLxig9ZBAWhtDO91TDYQ4TGfRK24yWrEwwF43K19R7w5oDjMYXES4yQI2180nXa+mWfgAgtgOd+vcyOC3JupnNp5GPRd2XawGTJ6mYXSc0y4/pREq67bLLBiYQdcMzB4iNlU3xZw1lUDdhjyK1dVmAAtKob2Eh3NpHoVSk/UvaPpeX0LJUe8MptLncvcnYL23s/ZRTs7GAzgbHjMn3WX7JUGU7MHhuJ7++ctjk2T4T5rTXGHYX4nSS8+AB0HJa65d24s1sOqcloEUQjC7swAIpIgIAknQkgpUYRRRIAJ4TQigScAgAnAIGvGXkfIgrK3hW/Co5akv8APEQtaQsZ2iYQwjXA909CcQPus2avcNWC30zCmuacdTFriz8lq7qcMOfFZWyTje/9bsTehWjsT+6DO645I7dMctDZxvxU5lOQq6yPBH1U+k+Fyh3dqNkbI5KFeFQSWMAJ3PAKa6vlAWdrW11NzyGYnE92cgY0Eq3Xwjv3KwsVnIOnNXlmDS0yYjjksC2125zsbxSDdgzFMzuZ+Stzf2QAaSSNuPipiOKs9rK1ASY8FNsMOHArD2e9bS2t/wCxjDTeYGAEkTpnJk+C29gpw2TkTn0nZRFe+0zPR1psodtKj/hYRp7qwbV++KiVqmRS1Y9lZlX2l86fe6obccyNoJVzaakEg7fNUF61QA4jZp9lFO7Iv1VaXJTYLJSAGWBpcd5gFx91b3VSws65/wC4l3/YKtuP/Csaf0MbHMgD6q9psgALRhru0y45r6pFT0kgiAtbEATwgAnICkgkgpQikiESSISCCAhPTQnBAgqO9rKDUkjuuZ3o6Ze3qrwKNbbOXiRmdCOI5c1yy1m1enXFaIt2w9Si1hhk4dic9zPqrO7H92Ey9bO9rgXNwgg4c5JjWY6rlYTG+6zTE67aImN9NFYXwcPDTNWTCQMz4eyrLBByOwynUHX6KfWactfXouMx27cunKta8Kr61rJBAE6ptve1roeYHquFG9MRLaTC6BJwjEY4mdFesI3/ANd6Nnc4EmeO8SpFCiTl6rpZv7y4d1jsxMd35qW2lajIbSwkASThHrnz0VuOz6f3VRYWO0PFWVnvLiVFtLrSzvPpkiSMoOYJ4Z7KE21U3yWnCRqDsqzEwRrXUtOy0hyj1nzPyUGzPiN12rO3HP0+wqSmqDXrA5fcKrqU8b2sicTojjKm1CT81wusE1S4GMIJHWIHur167VtO500FkpFpbTiAzM840y4ZeqtQoVlaC4u3jPxU0LXgjVdsmed20ScEAE4Ls4EikiEAhJFJBSohAIokkUgnIEiEEUCTggE5BS9qaU02uH5X59HAj3hZ2zPzW1t1nx03s/U0gddR6wsFQfBz/oVnzV7274rdaaKyvAdInirltSRnwWbs78hmrNlpGFZtdtG3W3WBlRuF7QR68oTbmshs+M0SBjABBAI7kxEdV1bXymJ8M05oI+HP72UxearxFZjtaWa2VxAxsMNA0281MZeNfMQwk9RHLXNZyrUfAjVR2OrzmQukZCa0/Ze1LfXzBczIn8pOpOmeeqzrOzdN1Z1V5diOoDsLNZJjdWLXuAzkmF0ZVy2VJyTPomtY9QaKLWkBsgDmuNutGRymdELTVjOFXPq4jKpMblG9GWisAMssoU7szY2va97hOYAMkZgSYI6hU1tqLZXLZcFFjYgnvHq7P6eS0YaR7lnzWn4TGMAEAQE4JBFamYU4JqKIFIJJIEkikgpgEkkkSITk0JyBIhABOQIJyARQFYS/KIZaHgaGHdMWZ9ZW7hYvtW3/AN/+hnzHyXPJ6Xx+0ezVlMp2jOOKpGPhS6dSRzC4cWja9pVd/LnkpTK+Qw5qlsdpkYSrKz1ADBzz91ztVetllTxu0T/7q/8AVuhTtAHgnMtpOZI2yUR6XmzlaKjhzUNtQk9U+12gHKfL1UJ9bCE0rMjbK+RAzUE1IC4vrE5lR3VZV4qpyWF1WX8au1pzaO87+EEe5geK3oWa7HUYY9+5Ib4AT81pQtVK6hmvbcijCARV3MUUIRCAhJEJBAoSRSQUgRCCUokUQEAngIC1GEgjKAQnBBcbXamU243uwgeM9AMypiJmdQiZiO5d1k+1DJrj/Lb/AMnK9s170H/BVpk8MQB8iqbtDnXb/A3/AJPXPNExXt0wzE26ZupThNZUIVw+yYhl/VVlWzkHRcK2iWiazAtqGctVKbeRAhwz4qvgpzKsJpCxbfB4E/fBON7uP5SFDFobuPRJ1obsE1H7J3KUbxJyznkFze8uzccuH1XAVxsubqxOgTSu3Z7kabZK5MplytKNnwhJnSYiZars0yKA5ucfIx8lbKBcjYoM6E+b3KetNfUM1vukQnBMTwpVEpBFEBAoRCSQQGEkkkFGUgkkiRCe1MC6BAUkpXO0VWsaXO0HryHNTETM6hEzERuTbVaW02F7vAbk8AsreNV1QOc45mYGwHAJW+2uqOk6aNGwH15pNbLY4/fzXr+P40Y67t7eXmz87aj0wlvV/wBl2TTn953yHyVLeNBxquaBofATn81q7joYWNA0A99fdeX59vdXp+DT1ZcUWJlpsYPX08V3oBTQwEcV5HLUvV4xMMw+ywdIQFnHBXlos0qOLPGYE+66xdzmivFiaUTdreAViGAag+UJ7y06H2UcjgpTZGjZBllkq1/AnYqRQsnEffNTzRwQaFkjZdqjYGSmPEZLhVaqcpmV+MRCkde9djyxtVzWN0AgQDnr4qf2P7RVXEiq/E0ugF2ZE7zwmBCyd+2gsqOA1IER0j5K57P2BzGy/U7cOZ56r6bDWuWlYiPjt89mm2O9p389PTwnBV9y2nHTAJlzIB4x+Unw9lYBeZkpNLTWfhtpeLViYPCcU0J0KqxBEIJwQBJFJBQhOCaE4IkgnhBVlsvykzIEvd+lmfm7QKJmIFtKoL1tQfMHuN05u3Py81GpXzVqucC1rGNHeAkuMnIF2gynQLhVqS0Z+HCYPzXp+BgiY/Un+nn+Xm19Ef2it1U+mIHh9PooJc1rXVajsLGanUuJyDWjcmVQWjtjXJIpBtNgPdAEuI/eJOZ6LZm8iuL7nHB41832x0mXlT75cNxE9AFcXE4Fg4qDZqz7RSJqNZjGbXMBBMbOafforC5GQ4g5QN8p8Nl4Hn3pe3Ks+3veJ4+bFWIyRMaWwb/JTKK4vZkjScvMbYd6jJ+5XJtLxUtjk4sGvqNVGxEbZ9tkjRjQfJT2sy1+aYaY4+kKdiAaZldAyFJFMTp5/RcqnLZQmEOpquNRqllq42khrSToASfJXr3PSluoZd1ja+0hzh8AxE8c8gfUq4YPvy+hUGwmS527jPnkPQhWQg7/AHr8yvr/ABcX6WKsT7+Xyvk5f1ckzHp1sFqLH4hpo4cQtexwIBBkHMFYdxzVvdN7sptw1XhjSe4XTEkmWkjTSc8tVn83Dyrzj49uviZeNuM/LShFMY8OALSCDuDI8wnrynoknBAIhAkkkkFCE4IJIlW9ov2J/iHssvZ9EklyyLU9pVm+Cp/E72ai7X74BJJfQeB+CrxfM/NKu7T/AOGp/wCZ8isw79meg9ygksHn/kex/jfwtZcHws6FXFo/aN6fVJJeDb7pfXZ/xR/C0Z8I6JrNfBJJVeNCfTXUIpKAmp70kkDB8lGqIpKEuCh31+xf0SSXbD90fy5ZPtlV3f8AT/qrW27dAkkvtHyEfKJWVZfP7L/WPmkkuPkfhs6Yfywu/wCz34anULahJJeDHp7MeiCcEEkBSSSQf//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ijaz Ahmad Ahmadzai</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>250</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>50</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>9</v>
+      </c>
+      <c r="X41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>Allrounder</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExMVFhUVGBgYGBcYGBUWGBoZHR0XFxgaFxgaHSggGBolGxUWJTEiJSkrLi4uGB8zODMsNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xABEEAABAgMFBAcEBwYGAwEAAAABAAIDBBEFEiExQQZRYXEHEyIygZGhscHR8BQzQlJyguEII0NTYrIWNJKi0vFUg8IV/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAMEAQIFBgf/xAA8EQACAQIDBAYIBAQHAAAAAAAAAQIDEQQhMQUSQVEyYXGBkfATIjNyobHB0QY0suEUQlJiFjVDc5Ki8f/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIvhKpVpdKVkwbwMyHuaaFsNr3EngaUPOtEBdkXErV6dyIjhLyjXQwey+I8tc4bywN7PmVCxOnOfrUQZcAjKjzQ761xQWP0Oi/O8DpwtEAXoUu6mZo9tfI4K22X06SrgBHl4sN+twtiN8DgfRDNjraKu7P7aSE4P3EwxxAqWnsOHNrqeisSGAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCpPSF0gwbMa1t0xY76lkMGgoKVL3aDHLErF0p7cGzIDOra18aKSGhxwaBm4jXEgAL84WxbcxNvvzEQvIrTIUBNSABpVATe1nSDPzzv3kUw4eQhQi5kOnHGrzz8gqq1tcKLPKwmkkYmuGg8cVuGGwNzFcjTMbju09qwbGlAhYiuS9ugkk7sBoPVbsGaYe1QE4FwFSb2RcBuOZHNYXRRcyw3ccQSsgytki28xzDWmGfs1wWSLJNuMI7xoc+VfTE8VijzhFyhqwCgAzFPYViM6Qb3eoSWk8cCOCA8xJRzCSRUVIrw0JPiF1Lor6RHS72yU0XOgOp1cQkkwifsuJOMOtKbqjTLmDZ2sMNqSS0t5ZXa78lsxZuG2hpUtcKUww/QgID9fNcCKjEFely7oq6QGTF2Qi4RWNNx9RR7Rk3H7V018DuXUUNQiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIi0bZtBsvAix3mjYTHPPgCUB+demye660C7t3GMDWXqgOALg4wwfs3gcdSqDDgudk2tPLzW3b9txp2O6Yjuq91MsAABQNaNAFqNiOpStAdFgyjahS7y3HDE4YnL0CS7CXCjb1cNTXzUpY0k94uAkA58McanM+xXeyLAY3IeJ9yjnUUSxSoSmUJtkxAa3XMBOHeoPVbkGynEFpaTXG9ka8ziupQrDh4YKZkrJhtHdB54qH09yz/CpcTkMps25wpQn8oP6LJE2QecSKeFPRdl6kAUAAWvFlgdy1dWRuqEGcOtDZOJDxFeCr8aXeKgg54/Piv0FOSDTmB5BU+2rDocAKEmuHr5LeNe+TIqmE4xOX2daESDFZGhuLXscHNcNCPn1X6t6P9pRPycOORSIQQ8UIF5pLSWk5jBfl2fs4tcTTsk086fFdg/Z4tIXZiWJ7QLXiv3SCKA13hxy1VlMotWyO0IiLJqEREAREQBERAEREAREQBERAEREAVD6arU6iyowBAdGLYQr/AFEF3+0OV8XG/wBpB7uolG/ZMR5PMNFPQlAcIA0piVJSlmlwGOory4FasMXTyx8/09qsNhxw54GWOWnzgsPQkirst9jyQY2gGFMFYJEUp4KOs9mKl5NtSufLNnZp5ImJZzdQtyHFC0paX4rfgyp0SKZrJoyBegWr6Jd25Y3SxUmfIjunxNKbooaaZUHcpmahUUbMMwKhepOmrHOtq5MAtc04nAnQDChI4U9FASM7Fk40GchGjmOyBpeoaua453TkrZtbDwr86qmTkE3QK11pqNf+KvUX6py8SrTP1Vs1awm5WBMgU62G19NxI7Q8DUKUVF6F3E2TBro6IByvGivSlKoREQBERAEREAREQBERAEREAREQBcx6f7OdEs5sVv8AAite7fdd+7w8XBdOUVtPZQmpSPLH+LDc0c6dn1ogPx3eOe8forXstKBretfnpXQY4qrMYbwBBrWhBwNRmCrhGH7kNb9qg8MFHU0sWKOtyVh2vHcCJaHX+t2X5RqvAtKdhipa/mWmlfBb0GMZaBUDBoGOn6rDNbRTcMQnltGxXC4HOa0uBOZGTBniTvUUVfRFiTss3Y1pfbyOxwactxYAuk7LbTda0VFDqqhHgOjwYcZzG3YtLrjdcwu1aXAAsO44grLsgXMjOhEEXdDppRYm7aKxtTW9q7pnRbRtUw2XgMaHD1Cotu9IcSHQMDa6k/DX9FZbZi9mh3ZKnGUF4XYIc5x7PZDnOO5oOA5nBYVS7MunZZZGidrJuOMGGmtIb/Sma2JK1JqG29EhudDOeBvN4rxD2pj9Z1DIf27lb7BVwxuhoZgTUY5KQsq3zGc9j20cMHA4Oadzh7CFtNc0a03ykR1vRBFl+shm9dq7nStQVRDMmI0kYUqPZkr/AApTq3xm0ox3aA0qcHYeAVBdIExDBYMXxbgA4m6B6relldEWI4SP0X0SyZhWVLAil9pieDyXA+RCuK1bPl+rhQ4YFAxjW0H9IA9y2lMUwiIgCIiAIiIAiIgCIiAIiIAiIgCIqht/tk2z2N7Jc5+VBWgyqcfmiw3ZXNoxcnZHB+kuy/o9rzLQKNcRGbTc9odh+avkpywZRrmsvDIKM2+2iM9GhxXCHgwsD2gtLgSDR9TmDXzUvYUTFrQoqjuizRjuyaZZH2M2Kym7KuVfek7YDYwayOwuDcq5eYIKlpV+AovT4x09iq79mdD0aasOrhw4Agn6oNLbtG4g55jPPFQViXRME41pmcTwqdVIT4N0ud88AsGzktUl2VVlyckYUFFkjPG8V6lWGl6HhEGFcK0GgqMAvs7CovEqDXDNaJ2N3FNEdC2Yl2xvpJhu6+t6oGHCjct3ktv/APGHWOjkEOdmdTzCk4c07Jww3rO7EKTf3iJU93gVS1pcAXhnQhU/o8kfpFqy+BIY8xHflq7HhUN81e7YZTDRVnYkGThxZtt90Z7nw4cNmbgDU1rkK0qeAUtKSSbK9em5ySR+gEVc2Jtx81AvRGFkRpo4HP5rVWNWE7q5RnBwk4sIiLJqEREAREQBERAEREAREQBERAFQ+k6WhvZ2mhxuUAI1LqD1V8VI2+lCSx+JFQTyacf7gfNR1eiWML7Rd5+fbclxDj9WBgCCfep6wJmj2/PzksG11nRGR3RaVY7Co8wtWx34qPWJO8pnU5CJhwU5ISgOJyVSsOPUZq2S000NxVeyvmW95uORBbaWsyG6Ew0DcSBy/wC1CbL7WQYkVzWmlDXHBSu0UtBmnUe0Ou5fIVMmNh4vWXoDg0ajHBbqz1Ipb0Wt0vW0m10rDc3rIjW3t1T6DTityzJpj4jXQjeBFTupxUBZmzIZDpFa117Bxdi48OAU5s/KQZWrYYLbxxqS7kKnTgj1N4t2sTseE1wvNAFcwtc5Lbe9oFQcCoydj0C1kjMNCBt6NosmyNlXYD6jtPvOGNcHdoUGnxULbUcmvHJXazoZZDadAKcezhktnpY0XTuWPZOEA17hk4j2A+9T6gtk2EQnV+97h8fRTqtU+ijn4j2sgiItyEIiIAiIgCIiAIiIAiIgCIiAKNtqzuvh3a0cDVp9x4EKSRYaurGU2ndHHNsNnpiN+7ZLxL2QAbhu73dpxqufRbNiSsw+Xi06yEQHXTUVLWuwOuDgv1IuD9LUt1dpl382Gx3iOwfRoUe4oosKq5yzR8smJTxUuyKSaVwCrFnzdAFZoDwRUa5qvJFyDurGhNW5BhxC3vO0AzqtiT2lc3tdVUZEFr6+Bp7l9maVGGWIwFfNZ4E0wCpr6VWU0TwjG3rM+/4oqezCo3PG9XzpgvsPaCXfgTQjMH2rdMxCc2gB54LFCs2G4guY1xGV4A081htGWo2ujeExgKYtIUbaMY5LciANwBFN2Si4z6krXjcj0yMFmWc6YmYUMUxNTXKje0R409Vf2Sz6lghPzyIwH5sqKA6PYV6ce7RkI+bi0D0BXS1YhC8SlUrOMmkjUs6X6uGG65nmVtoinRUbbd2EREMBERAEREAREQBERAEREAREQBERAFx/p5laOlJgadZDPLsuHl2vNdgXJf2gYtIMoN8SJX/SPisS0NodI53Z0yCOCtdnxwRSq5W2ZLT2Spiy9oy0gONFBKFy5CpbU6dAg1W39CYRp7FXLPtppFa4KzSczDuVJzUCg7lv0iaMslJsA3FZ48MAVWLr4V00cFHzloimYWziaqQm4tAomNM3Rmo21rdaDSqg5m17xoD87hxW0YMilVR2forlT1MWOf4j6N/C39SfJXlVXozhkWdBrmb583OVqVmOSKE3eTuERFsaBERAEREAREQBERAEREAREQBERAEREAXHP2gZlpErCr2wYjyP6TRo9QfJdjXAemWaEW0LoIPUwwzDeaucOYqFrJ2RPh6Mqs7R4K5y6K2hWFTc1I1FQoh8Oi0UkySUGjYlLQezAHBTsttW9oGHPcqsWrxeKza5pvWLi3ao0OBWlO7RPcKNNFXGXjgKqVkbGe8jBYaSN4ty0RgD3vOpJVjsOwyP3kTTIKesLZlrAHOz3aqXtGGGsOFABkoZ1OCLMKNldlx6KLVvwoks44wnXmj+h3wdXzXQFwrovnzCnxXKKAw7u1T/AOwF3VT03dWNdqYT+HqpcGk+/R/FBERSHNCIiAIiIAiIgCIiAIiIAiIgCIiAIiICubdW2ZOTiRm9/uM/G7AHwxPgvzfFjONIhJc6pLiTUkmtSTqu09O0UiRZQ/xQfJrviuJQHVbT7v6qGo8z0WyIRjBvi+PZp9yTlYYIw5j8K0rRs2uIC37OFA1v3W/3Y+xTkGAHZqHesRYmlFVJRX/nV3PIoAkXVyU1ZFgw4mDsDxwVki2UNyzS9n5cFl1CqqSvmRkOwGNdRraqes6y6EYAclvSsDRb0JtFFKbZPGCR7bDDRQBQO0cSkN3HBTsWIqntNGq9jK0AxPuqtYrMt4amp1IxfP4LM1bBeWxOsGbLrhzrUeoC/QFlWiyYhMjQzVrxXkdQdxBX5+sdwvOplQD54Kz7HbViTiubEJ6n7QGJaTk4DzBVmnK07czo7awTxNH0kdYXfatX3q10doRVuR25s6LS7NwgTo51w/7qKwQ4gcKtIIORBqPNW5QlHpK3aeITT0MiIi1MhERAEREAREQBERAERYo0VrGlznBrRiSSAAOJKAyoudbS9K0rAvMlh17xrW7DB/Fm7w81y3aDbmenKiJFIZ/LhVYzxoau8SVdoYGrVz0XX9tSGdeMes7pbG2clLVvxmucM2Q+27xu5eNFzXaPpijPqyThCGP5j6Pdzu90eq5w2Gc3HwCxviA4aDQfHcurT2ZSpK8831/b7vuKjxUpZLz3m9HteZmnuExGfFLmG7eNQOQyHgomWdUsH3+y7+0qUsqB1kQCt1wxbu5HnivRstzY90ilHXmHQ3s6H8S4G0Kfo8RJdj+H3Pa7IfpMFTl/S5J+O9nyyv4rmbspCr2t6mpF2K9SclQUWaJKUxp5Lmt3K7bk956sl4UEOA1WaFCAXyy8lv8AVBaGWYOS+0oFmZCWKbbosXMo0osXNc8tyYdEjU0vH0wXR4crganNUmbsONBivIb1kFxvBwIDm8wcwt6bVyzhpRVVb7snlfvXztbvPkrVrS4b1hc9zg6M8G7TOlAa4D2lS8nLXRjjqAdOajbdm73YxIacshXiruAw8sRXUUtM32efidfbO0I4PCyqcX6q621l4Zt9hX5epqA2v5aqSsy35uAf3EzEZwaez/pOHotJrnCt0030y8V6EQHvBe2VHevvJfPz2WPk2/a26XqzOliehUEZsOMBqRcd4luHornY/S1IxaCKHwDxF9v+por6LjjLJqKh10nuiufwWnFl3A0c0Gn5SqNTZ9Gd7R/45eCzRYhiZK2fifqSzbUgx234MVkRu9rgfOmS3V+TZaciQnX4Tnw3DIhzmnzBVzsPpXn4JAi3Y7NzgQ7wePeCudV2XNdB+Nl9bfItRxKep39FSdm+kqSmiGEugxDo/uk8HjDzorrVc6pTnTe7NWZPGSkro+oiLQ2C1Z+ehQWGJFiNhsbm5xAHqoLaLa2FL1YykSLu+y38R9w9Fwray2piZjOMeI54a4hrMmNHBo4KfCUViKm4nor+eHib4ilUo0VWlHJuy8L+GR0faTphgsqyThmK7+Y/ssB4Nzd40XL7c2impx9Y8V0THBuAaPwtGHvWlDhMO9vHMeS2xCazBuJ1d7m/FehoYOFN+rHPr++nh4HHqV3LVmmJY/az3DTn8FkNGr1EiAYBaznGtBnqd36q7aNPrl58CDOeuh5jRCTT2LK2SNBewrkMsN5UjZsk1g614rTIH7R+CwTcepJOZWIwcm97hr28u7iHNJWj56zXggggg61VwhTBe0OIocKjUH3KuQoPVtq7vnIbuPNZZCdLH1OIPe4rn7RwH8XSvTXrR06+a7Ovnxtr29ibWWBr7tX2cspdXKXdxXJ9SLfKvGpz1+KkhLEjeOCg4JBFRkcQtuWnnwjUHDUaeS8U455nuK2z4y9ai+vqfY/K7CwSMpdwIWz9GGYJHqtSTtuHEzo13PDz+K23R1jI5FSnOnK01ZmMt0X0wgcgtWLNNALnG6BhUlR0xbTjUQ6gb6Y+FcuZWEb0cPUqv1F38PEkpqIyGO0cfujM/O9V+cmTFduaNBkOJ3leSTiTXHjU+O9ac3NCGMe8chvUtGjOrNU6au3ojrxpUMFB1qslks5Ph2dfi3wMVpTVxuHeOXDiq0RXl7VtOvRHHHmTl/2vYmGMyF933jkOQ1Xutn4SGDp+jWc3nK3wXUlw53vxPnW19pz2jWU9IRyiny4t/wBz5LTJGqyVNKnst3n3DVfC8AUaM8ycz8F9jRbxqSfFeQFe9HvdPw4fd9/gcrftoYquGdVvQ5sPF1+BGTv+SQpb7LnBpOQPv3LViwSDQihWvqz6L00/bn18OAzWqNuI6G0UbRztXHIcgtSJDJ1XgMOi2vobmirzSuTdf0RxhHpK7fe32ftkLvg7Ij3S5OAr4V9i6J0cbRx5YXIrnOg3gLhobo1LDmKbslR4kVwFALoO7M8yrRJQLjGt34+JxXF23P0dBK1nKWS45Zt/JcddT0f4cwkcViJb+cYxz7Xkvq+1Haf8RSn/AJEPzX1caReX9Oz03+H6X9b+AYVXrclSYxIFbwDvSh/tKk483dFaYDNYbbdehNe04HDzoR6hXdk1XTxcf7rx8dPikS/iLD+lwE/7bS8Nf+rZAZZrwC5xo1bHWB2DxgM3DvfqvDh9lmWpyw3L2jnLo2z+Hj97PqPmaSWZhe0DstxOrvc34rNChtbQa/OaxF9CGsxccBT3L28Bgpm7U8dy0XqOy6T1fLzwXM2d5LPTlz/Yyzc1WldMGjd+qyScvd/ePFSe633ngkhJinWxO6MhvO4e9fZiPUknM/NAtlFS9X+VefF8X9zWT3e1niYiY8SsKywYde27uj1O4LN9JDsHjDQjAt5bwpHUd/VV0vOXPzxyNVGyzZlsyfMM0zbqPgrDCjNcLwxCrf0Id68Lmd4Z8qb17ZPOaRd7IGmn/a420NmQxj36WU+L0T7cul19WfA9Hsfb88ClSrrep8OceznHq8ORYTH4LI2disBLTQAYVxHkcvBaUlaDX4Uo7dp+i2Y0MOGefxXk6+Hq0J7lWLT86cH3Hv6GJw2Mp71NqUfHua1T7bMwvixHG8TU8fcNF6Y5y+RyyGKkngNVoRZl0QYm5DHzTmrWE2bWxK3l6sf6np3LWXd2alPaO3MJgEoNXlwhG17dfCK63rwTNp09Q3WguOtNAoSePbPavcV6izOF1nZb6nmVqkL2GA2fTwq9Ra6t6vt5di722fOtp7Xr4+V6ryWkVovu+t58rLI+wot01WxHgNID2EXTmNWndyWKDLl+Q5k5DmV8fdZUN7VcCdPLVWpytJbub5dXX9O850VdZnn6PxW/BlwIV5h7QPa3gaEcFE9YRqs0tNuaag8xvG4rapHeWX7PqZiN0Z3QBmt6EGxGXHfWNHYdvH3StKOSAHDuu0OY4clh60lZ9WpFOOX088Vx+WlpRdmShisg4Mo5/wB7Qfh3nio+LHOOpKwF5W1ClaAPiGgOTRmfgFj1YZvNvxfZ9tF4szZyy4fA9WdAc94JGAJr5fop98QmJd3N9uKipOYLQ6JiGgCjQaVJOXp6LcgRr0UOIpeaMM147blaVTE7r/lVvHN/TwPpX4XwqpYFT4zbfcsl8m+8kLiLNcCLinoN4gZ36t/IrDE/yA/KiK3g/wAxS9+P6kUtqfk6/wDtz/SyEes0LunkiL6DHU+Ry6KMNhf5jz9i8HvDxRFUo6y7vmyzU+jJqc+rhePuUZFXxFYo+zXf82V5dN+eCNmP3WcisIREodDvfzYnqZm938w9hXk5L6imRHI37IzdyKk7M+rH4veiLzu3vYP3o/pZ6v8ACP51+4/1RIy0frX+PsSb+pZ4oi6lD2WH7F+lnCx35vE+/P8AWR6+FEV4oIkR9R4+9Rj0RQUNJ+8yWpquxE/sP9a5be3Pfh/iCIuXV/Od30L0fYeeaK5aXe8AsELNfUXUwvsodiKNXpMyQu8OYW3aXeH4QiLL9vH3X9DH+m+1GN/1H/sapaH9a3l8F9ReG2n+bq+8z6xsT/L6HuL6k2iIucXT/9k=</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mohammad Ibrahim</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>250</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>50</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>9</v>
+      </c>
+      <c r="X42" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGBcYFxgXGBUXFRgVFxcWFxUXFRcYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAQYAwAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAQMEBQYAB//EAEAQAAEDAgMECAMFBwQCAwAAAAEAAhEDIQQSMQVBUWEGEyJxgZGhsRQy8AdCwdHhFSNSYnKC8SQzorKSwhaTo//EABsBAAEFAQEAAAAAAAAAAAAAAAABAgMEBQYH/8QAOBEAAQMCAwUGBAUDBQAAAAAAAQACEQMEEiExBRNBUWEicYGRobEUwdHwBkJSYrIWMkMVIzPh8f/aAAwDAQACEQMRAD8Aq8eH5yS0gH1TLyacSCFtaO1cM4DQlQ9vPY9mZrQQFmi6dVaKRpmBxUrdnGk81WvknhCqX7c/0/VjVU2Ac19nugzol2ztOlWDGUxlI13brhScDsdxGYNmLyVs7LoMNFzDlmT5KjtMOc5hImMsuqnYulDIGgCo8OJf9cVc0W1C0zcKoYw543q9s10uqAfpWbf0jTAVrVsrPaeGz0cNUmCWuYeYpuhp8iB4Kqw9amyoGVyQCLO1aHbs4F8vGCCrYbZoYhnw5D2ljj8OR2paWiGvvIEwJ4Ac1jOqw4AHTVbNpbPNAlwGYyHEqsrOLYgosUS9kEXCkU8G7f7p5mHhTPJJ7lTZhGZVHh6LiCNEwyq9pIM961DaPd6KLXwuY7kEydE8EKWxmbDNPIKrw2EAJO9XdJkUGjh+agPaARdRgHgpXubMFP4LEuZKjYurndmOqkVGcwodahOhCRzDwUNV4IgLn1SN5TDsQj+GdxCB2DJ4eqj3buSqOQ0nzZI6neU7Swh5InUSBqPVODHzkFGDAldVxjssAKvqOJU5uEO8hC/DRvTgxw4J+9LtVDdWOWEDa5U2pgpi6R2AB+8lwHkhs8EDsTTpuIAEo/2k5oAgwdRMrJbVw7jUc8TruQYfa1VjgXdoDirlXZ1Qdpa9HaLDktESxzicgCnN2pUptyA2VXsvbNGpLXiCT6LTu2MwszUSHGLXkKsCGANzDiYz/tjvVicRJyIjxnuWe+PqiYNu4KO3EGc1p4qwrENtUaWujz5gpj4TMJHhzXS7xlB4a5ggjItE98rnhjuabnYyC0wWvPlBlSv21QouYcSzNTqtcJiYLSJiNDcKRsHbVEirQoCZJLXQQ7LmkE23CPNZfpLgX9TTcRZj8syBGds7/wChTegmH/1TGhwJqAsF8xkiRpYXaBxuuburemKj8JkcPdb1tc1RTa1wA4d3BbFlJ5Gh9Ej8HUj/AAtMzo7iBuCSpsHEaqpjP7vJSbpunZ9FmGYOsNfwQPwlQam3eFeYjB1B8xI8Aob8AXSC8qPft5lPFsf0hMtoudQAaVUs2VVLpJ05hajBbNyMyhxRtwB0DikFwBxKX4aeAWcGzah3+qV+znDf6rRfBRvKR2z53lHxA5lKLboFmTs9x0d6pl+yKu6p6lasbLA0J8137NHE+aBcgc011pPALK09k1Ab1PUpt+y6s/OPM/ktcNmjiUL9lN4nzT/iu9MNl0CyNTZtSPn9Xfkhq4B8RN/Fax2zWjefNMDZ7eJ80vxI6phsj0Wao4R5EE+652znZh2reK1I2aziUP7JbzTfiRPFHwTojJeelMVMM125PQnMJhqlYxTaTzXoNxXpUKeOqYC5KhTqVH4aeqzmMo5TwVt0e2hVa3MHkH37xvVhtfYbqTe0LlQsNRDWgBYmzbulfVXGkJYBn1n0Wne0X29Noee0Tw4LWYbpFTqNyYmmD/MBbxG7wUh2xBlz4Z4LT903HgdyyVOmToFIwuKqUnSxxafQ943q86wNLO1dh/ac2nw1Hgqpu2VhguWh3XRw+vin+l4qOwr2OY4EFriImcpEkRwBPqoXQPZ2IfVpVKLCerex5eZDBlIN3eGmpnRaAdIH1srSwZtJG/N2TbxWs6F4+zqTvmbJAPDf5Fc7ePq06pD2gHoZHet6yo030hgcSOuuunyXobKpNxEG47kQeeCh7JqSwj+EkeBuPf0UqvUyiVC0giU5wwkhQ9u4cOpOteF571lUbpW/xm0GlhAOoVBRa062KoXmEOCvWk4SFS08dUi7E43GvGrVfDBtXHANVZWZVH+0N5aUTdpMVydnNSfsqnwCVEqp/alPiibjafFT3bEpHcEB2FS4IgIlMitT4pczeKdbsNgXP2K3ifNEIlAAziiFFqbo7EaD8xT2IwAaJkoSIBRanGsCCnSA0KZbiDMQiQiCvKcHhXV6zaLd93Hg1epbL2XTosDWtiFj/s0wuY1ax3uyjuaPzJW5xtYMYXHcFQ/GG1Klzem3aewzKOZ5qlse0bRoB/FywfTPFZquX+Ee6zimbUc5zy8gwbz7KCu+/DNibSxbOrs/oud2xcb65IGjclcYFlM/I6H8DvTlZrTao0A8Rp5qmoNk33eC0uC2S+pQdULjF8vcN8qxfbSp2TXPe6QI15nQA8T0UVHZfxWEjIniOQ4kKhwlXLWaG7nN9wtptun8Njg/RrwKgN7ZpzafzB3KCqTA0KZZSDGg1S8WtMzJPHQarfdONlmpgm1AO3R7XPIYDx7HwWPfXYuqTXxBGZ8f+ls2FubWoW4pBy++8q92HiGuuPvAT3j9Co3S/afV0yBqVmug+0MtMB2gkz5J3ppMh0y1wtyO8KnbuB7J6q7dUi04grXZtNr6bXclQdNOkjMIGtAD6z/kZeY0BMaCfZWPRPE5qWXgvKukz3v2vWJMZXADk1rGgfn/AHKsKYe7NSYy1uS0exMVtauS/rBTB0ZFIR4FpI8StdsnatYPFHFMDXn5Xt+V0T4bt3EWCyuytu1aQGSg55ETJLZaT8w7MRzlXvSLaPxFIMFMhxYKtJ5LYzXGQCxLtZjilc1ukAKYCMwSVrQFwUPDOexrRUuYAJ4mLnzUtjwdFTT0UJHIkkJYQuCRc4IUJUJ1TldkhNwn4kJwE5JrlX9SmX4fVSKwANyhkcUyITpWI+zBw+GPHO/3KndMNoZWdWDcrGfZjtXqc9OqcrSczSeYgj09VP6SYkVXktkjcd3gohsK7uNqmqaZLC4OzyB0yVF19Ro2gGMAgRzIOmiT9qxT6t7A4HQix8VSZFJbMQ4pG1KYMFwC9Pt6IpAwA2eE5LjK1YugYi6OMZ+iXB4QOe0OMNJEnlvXqLAwUsrS2I3EcF5y7FYcNPbBPf8Aom8JiGEHt5e6Vk7a2FS2s1gdUc3DJAABBPWVd2ftJ1lJLMUxnyW66BbADqjq7osSG928/gvRatIOaWES0gtI4giCF4hgOkD8PajWtrBiPzV1hun1caljvMKAbDq0mhrCCBzyKtja9J5xPBae4lObEomjiauGcdCQOY3HxEFaGphOto1KDzBaMzXdwJB9wsRX2o6pV66weImN4H1HkrvanSNooCHfvHAtPEUz80+w7+Swq9tUt6xpuGfDx0XTWVRt9Tbg0dl3RrPd7Zproziclfq5+YKo6bYTqsU6q5o7ZDmmBJGUNueSgUtpOy9az52jMAd5bfKe8W8VE6U9LBjXNaymWhjHAF0Zi8lpIsYy9kRv1WlebMqW7w4ZiJJ5c/XTosmz2lTrl4aIhxAHMT2T5a9VZu6RluHNIOa3MQJdAaxrQMxcTpJLRzutJ0b2nDWUzWpV2hhh7cpy8iBpcwF590aq0awLK9N1Rs9prZD4sQRAnUei3vR7ZGFZUYMM1zWvJqOa8PkNpw0BoffLnO/nwWW9sA81qsqF2a2yYfht7TCezQl6wcVUIlOlNNrEWcE81wKZr4mmB2nDzVVi9tYenfrWjlKey3rOPZaT4JC9g1MK9Q5Vmm9NsNFyfIrqXTnDnUuHgVcbsq7IndnyVU31s3/I3zC0TwmqWJg5SqQ9MMMfvHyKrdsdJqQyuYZKG7Lu8WHdlK6+t4kvHmFrsUybwmcn8qxH/wA4dPyDzCKn03qH7g8SrH+hXh/L6hQHa1q0f3+6paGHw9OnmPafwXPrmqQGtgfWqm/suLlsn64oGYW8ZSF1DbqiwYnPBPMkfVczUtqtTstbA8feEuF6OsqfO4juUbbHRajTjJLuKucPWewQ1k98o8dUqubGT3VZ1/TxyXNjqQrAs4pwJnoCsbS2MydIT1TZrDZt1ZVNm1uEocPgMQCYZHNWTtKzaMqjfNUhZ3bnSWuhVX7GOoaYSNwgCvBTxQtHoE5QwFT7w11skbte041G+ae+zusoa7xj6quoENaQJDiCA4aid91l/inuqEzJN+4cI3d3Nei09nZb5R5Ly7F4oh7g20kme87lTrXNpXrCqDJZy66DzmFo2XxVtSfS0x+fI59RkVotl1x8upkCBrJsB4kotq9F62Gq9poFNxBZWEuoh8fK540J0vEqlweOdSY2oyRUJJlokkN7Nx/c7vgr0jZPSLr8JVo4sFpc1wa4ZIqmIaDkkB7TeLDeBIMyXV4HsAERoRxzy49PXpmlsbJxqHCCXZRE8OOQPH08Yxex9mvfWa+i406hcAHNtcXOb0K2WJqmhXDqNZz3Gz3vIcX2N4AAy6aDiqzYuFdRp5vmzOaXyA3MB8wB+6HBwnuK2mC2Ng6lYV3BhzN3Nh2Ytbd76cdYZb94CQQRuWRa0jQqY6+YGIRrOUeHMTGi29rMmkWW4PaIIcNGnJ0dSACCBMCNc1R4vpTXOgHhPsVSYjamIqXNUgcrLUbW6JPYS+hNWnIgAHrGjQ5hlA1m/oqDC4JtVzgDERwM853rcYLGnSNZgEDXLTvGq5J9faDqgpPJk6aCfHKVT1S53zOJ7ySgbQWpp7DANzKJ+x2H/KZ/UNizIP8AIFKdm3b8yPVZkUmoMgWsw+yWAEe6CtsZnAeoUX9TWeKM45x9lO/0e4iZCyzmqPjKDiLFa9mxae/3SO2TT3SpD+IbB2WP0KY3Zl03MAeawww7wNVzKNT+JbsbHpkb0Ltgs3Ep7duWDv8AJ7pxtLv9A9FehklJUpSgYw6pYnevOcK6ZJRwp4oi0zdc0pHgyjCjJFU0QtN4XaJcplJhKSEtQ8krWW0XBiWbowohMOqATZeL4ukC0v7vLevY9q1stGq7e2m8+TSV5DimS0N4j3XS7Aoh9OsT0HjmqN28hzIP3ktLs/o3FGk6o57XdUHnM3921tQ1Hsc42LWCmwuJGa7ogwp42d1Zc0kPY6IqNg3LnhjhyJpvsQPlPBUGE2u8VqHWS/LTzN7RaSKjId2xfWY4LZbO6X0nu/euDKh6zqpY1jGudSiXPOoz9fEkx8SeC0qlFzacObLc+hB98ustSULg06ralN2FwgjiD39/gUzTdWaAIabRLTBMaRmtPir7Y9QC9UtbZs5sjTEC7HTBMtO+2c2tJeFLCva17W/uyxrs1NxbZtAOyvItdjcwJEZmkE3UVuzA9o6suzQ0EPAnOaTqrgC06NDYuB2rbiqrWNNI03uyygxJHlqNNRpA4CN+4u6Nd7arBDs57TQHEjjOhk89SSRmU9ituANLnhjm070g97hSDmttkpM+d5dMF7hYrJ9HK5FZtxLp8QRu8QFVdKdqEPFGBDe06CACZhmnifLirTo9gw+rTIa0kQYaA+AD8weD2Y4THJaLa1BlrVZUcMwR4YcoALtZnhnrCxrnZFw+uz4am6G5uJ/KQc5cQzIAa5g/lkQtaS/gm4I1CmNalcFwWqswo2YiLITXJd8llKOiJoQEQeaZpuETC6QQnSxCAAkhLHVC0DehLgAncsps00mFEI+uQmqgFNcaZTpKbjcjNZEysmm0UQpFEuRjcidU4rhV5IDSS5ESUY3J3rjwTRecw4Ig1AKXBGIoxuUPpHUAwtcx9xw8XdkepC8qxnzRwAHovQumtUikymNXvE/0s7R9ci86xXzu712ewGFto55/M70Aj3WXePxVQ3kPcoqtEltB7fmbnp2/kMiPAqdsrE5hD45ExvA1TeF/23DfTqB/9r2lp9QFIo4IPDtxB133u08xciOQW0KNRr8dI66tOhy95GvDI5AKi6owtLanDQ8RJn5pqpjK+HLmg5WvsbQHgGwcBr3FavZ/SjEFuUPJzhxvOZoeAHOaBbUyTE5jMrN0aRccrrjvu144ct4U3BUX03COzEmmeLSIc0/+Q/8AFV69q97shIJynUHvjTTOeEHiFo7PvqNKW1uAnLQwc4B5tkERBHXCRebR2cHUGvy9ps5ratOh8IHgVb9CNpMDBRDWtNxYATKk0KPZDTcFoBHIiCslsTBuGNa2SAKjhrqG6j2XHGoaz6gd+on1OS3LeuXHPQ+HXTT7hbioMrnNvYkIQ8KdtzDw9pFgRfvH+VWCmeKzXjC4hQVCWuITjnhKyoBuKQgpsgpmI8lHiPJOmq3gUhPJBBhKJRilLiKcLwOKF7ggE8VzyUYkmI8lHFWERrJslIUklMlOfEFK2so8GUoKSSiSpBrFD1iYake5ElKSVJzFEaijZ0balkqJWc6RVc+KDdzKc+Ljf0DVQ0KYdUNhz56j81a7Sd/q6v8AQ3/qFWYEdo8fzv8AivS9ktDbKiByB88/muau3Hf1D3JjDUslTSWEGlUi5A0DiOEZTPepmDokEDf1b2HmaZsfJN43DzUDmGHSMwFjExI8lKweKBOV4io0nTR1oJA4ELQZ2TCrVSXNxDlnz++vKFIbQdAIAHf83hwVnh6bdXAmxF9OUJijVza6cE+Hg8APrenuzKz31XDONPFXzHQAqam7LjmzoTmHiB+qsiVXbYb2qLhrmiTpEE38vVeXWxmsR+qR813rbhtu3eP0Akrb9IqnYYfrRUWY8UtbaDnsaCQQLSDyUfrVFdMc2pB6JlK+pXbBVonLTPWRqE9mPFGXHco5eibUVZPlPZjxSdbCaNRcKgSIThelL01nSioN6EspmN6QtTzl2ZGSRNtvKRlLinWlcZ4oRCBzIKQtT1zdNyiUIci6OSelC48EpKFgdsUH0sTUcZLXEmd3aAME7omL8klQWL28B4EfmPZPbRrv+LrOpvc1zRbKSMwYGhzbcgT4IqmNeSCaVKqHNzNdlNGq4aEF1ItBcN8gyvTLF7m29PKeyND0XPXAa6qc4MlNvmoA5p7bTI013g8lYOwVOu3MWFrxqAYc08WneFUUsZh3EBzatInSzKrRu1BpkeMq3w2CaYLMQe1P3cQ2INwclN0G2hKt71h1keBj0keqq1bZ7YwmI0z9NUxTp1KRvFQd8VB37ne6sKNWdWls7iGn01TWMwLmAObVNSdBTq1e1zBdTHuiwjHC78rBvh0k/wB7tU8Pa4SPn81UqUyM3xPePYE+yvcORlHK2s6W13rqtMk03AgZKjHX0sb+hKh4TaDc/U2HZltiAbnSfRTyw/kvN9o03294+RGZcOUE/YPVdXYVA6gw8QBM8wld0moVsQaD2gsLi1lRtt8NI5GUuIoZHFusGFX0MFGIbWFABwntOeMueRD8jRqBm8SCrN7iSTxJKr3LmGC3XitSuWEA5T0+aZzJCE6GonNVRVoUcNSAyn3tQBm9KhCUsJyLIcspEKQaKQ0k80EcEjp3KOWpZCZ6nmuaxI4nSPxlEQQEB7AiQkLN64UUTJjRKQbmbpQ5qJCEUyuNM6IiDC6+9KS1JIXmuNqGniqjt4qv8RmPuPdW1FjSwtF4PWM5Hf5gjyUDpa2MVV55D/8Amz8k5gMZlgL07ZlTe0KZ/a32XMX9IhxjUEqHt7CgtztESe0N0neOE7/BDsTbL2OIdcO1H81u132upe16uZhgcFnwCDIsrlZpY+QEtECrQwVFrn4t7pcGhoOtyZO85Ack81Iw1ZurteLzJ/TwhZqltCq6GucT3CD4nh3K2wmUjUeBHrrPipWYXDIKpWoFghx8p91c43CCoS9joJaGkuBEQZDgRrutvjVXopjeVV7NpAiCd1phWlC4B+rLkPxPSOCm/g0keeh9PaNVobErNxPpnvHhkR4SPVKafNCKXA96NzhwuuDtYHguPlq6GQmi0osh4oz3Jx7bIkJclHgpaRlETOm5I0IxN5pJC5zN6BrCDbenZ43XN5Ikc0Kc2iCdy5wi0WKMmyEVABMKPCnYUgoWlAWBH1qHOiEkIcotASto8kfWIfiBMJYSEJCDwXO1XCuu6wJYSQsJ0sp0xij1maHU2EFuoPyzcXENdZV9fC02AGnWbUvEAEEAiQSDzDhytxU77QCPiWnjSb/3qLOYd916JsVx+GpGeEeRIWPd/wB7hH3Cs3VnAdmBz1PgFQ4muS45iTff+lldNqdk8gfZMdDtnCviRnAcxgL3AiQdzQfEjwBWptOuKNPGdACfJQWdOSRCpsPUJ7U/W5aHA1HWsf8A7HAfil6R9G/hXh9P/ZeeyN7Xa5DxtMHlfS8bDVhIlpB40/xabHwhQ2NwytSFRhkH7zT7xsEtha3APNhKuNmntOYfD2P4Kh2S8GL+4PkVoeoNOo1/3TN91xb1hR7ZpCva1KfEtJHeMx9PFY1mTSug/kQD3HJTgAgdTEynAeJTjCvLpXaAJks4IW8FJzDd5Jt3dZBQgLZGoSFosUWXeiaEkIhN5UjW7k65qB45olEKUZHJNuedLBO5hKF2XmpJUsoYXQEoA5+SLKOaSQiUFkJYnmOHFdvSyEkqOBdGWcyiypJCJQvP/tIpxVpHjTcPJ0/+yyVF11tPtKHaoHlU96axdBwDhOi73YhmzpeP8ism7H+4774KXXqww89OYK2X2e7My0X1SL1H2/oZYf8AIv8AJYnFMvG4buZ1hep9GWxhKA/kHrJHumfiauRbhvMx7n5BFi0Yp8fom+k+CFXC1RvDc7Y1zM7QjnYjxXl1KovTOkXSBmFGXLmqEZgNABxcfA29l5xi8Q17i9rAJ7WUWAcbmOAmY5KD8Oioyg4vENJlp58Dlrw16J16WucANVd7FxY0d6rVMxDC2AYNoF4XnXxmUWYAeMk+6sdmbWJgQSeC6cVqbyGk5rAubNxl7V6bSaCAQZB3o+riwTeEDmtAdExoNATzR3uvKa4Yyo4MMgEwek5ei66kSWNLhBgT3xn6owziUppoAlE7lFKeldTAXBvBDJ5fXBKXO1hLKVKWd6byiblc5zryuEmNE3EhONaFxHNPikDxRmlySoUYNJ0P1yRNaZ5IurEom6okITbQb2TdR58E+GEW8UOVGSE2CdLIajtxItyT4aRrqhcydfNAhIsL9pFO1B2794PPq/yWGXoP2jkZKLZk5nO8AAPdwXn5bddzsYuFiw9T/IrMuSDUPcE4wOcQ1okuIAG8k2AXsFPGUcNSDXguNOmAGtMCGgCXHcO7VYPoDgA/EmoRIpDN/eTlb6Zj4BanpFhC4vA++yBPEWj8VV2jWpV7tlvUzABPeSMh5SfFTWrCGlw4rz7b21uuqveRBdFhoGgQB5QoFOsE86kWuLHtAe3UfkeC1fRroiKwFaqyKRnKJILyLHQ2aOO9atWtSt6OPRgECPQBUwwufhgzxWVLc4gXOgjjwW26KdE+rirXHb1Yz+GPvPjfy8+V9gOj9Ci7NTphruJzHL3SbHmrOOf5rmr/AG1vRhoAt5nj3CNO+fJXKNphPb8lxmPrRIHJSN65vABYEK6iHp3XSALspgcTbxSOBnikIRKSBO9KRzlEGb/VcliEIHjfKDL9b049vkkZPCyalgKU2lxJJ1Tpg7/O6bA4keSFvHXdr9QnYIySpWZRO+TpouYBrKSrT4aoBTJkzCQMKE9mjQ8CfxSPfBkRCF13XM8+cb0LqYNxr+HNLhKIRB/ErnAxqPFMF2k67oHsiewndoiEQsP9pvz0v6XDyc38wsM4Lb/aWRmoi0wSQOBLcp82u8lh967vZAmyptPI/wAnLJuf+Q/fAL0v7PcIG4d7yP8Acd5tZ2R/yL1dbfI6ocZgd5Bn09kvR6jGFoC3+2wxvOYSfUpvbDSX0QGxd1ufZA9CVzWI1tpFxy7R8mz9FoUm4aQjl7/+odh7Eo1YztBGrnOaXRGp0ICv9p02CqWizWBrGjSAALQOcq36O7PyUGtgtP3tx132vbcVWbdH7555jzyhSbUcd2B1+SmUJkXBk87IoEjmgDLkgfXcnAz+KB56rDh0Qhc4gHXfp+iFzxzvYd6QEkmR/hI55tY8P1SwUI5BNp56eiIv4NO+Ofh4JuOM8Bx/whrA5p3dxSQ7kiEYeIv42RUgDvgawY9E2Cb7wfHyTeQ/UoRCMEa6oi6JBvaYiPVI6keUHdy5IQ3ieQS5oVgcLzTfwx4+/wBblOAQtHdHLgt3ctU+Bqg/DE8I7/0SfCEC3v8ArdWL2cAOf+EjWjf9eiTctSbtvJV3wpAHHhpfgeAROwxi2vfqp5A7+/gh7MaeqNw1BptVZUpPG6e72SOpkG4PqrGRvHl+M70JAjnuTdyOBTTRavLftGI6+mN/Vie7O6O7esgW3Wj6e40VMY8NsKcMOlyyZPmY7gqKiySAAcsySfzK66ypltvTb0+/dYVzAqO7/v2XqPQ7H9bhaZiC0ZCP6NOekKwxrC8WBzAhzdY7vI+yb6FYPqsHTYSJILzF/mcS3/jlV44Qbab7C65q4p4bhxadHFa1CkTTaZ4BT9g7fpup5XkMe2xabEjiPyVVjK5e5zgNTOvhFuScc6bW7iN3miDxoD7b+SifjeO1CsOpA6KHl07PrqfwSFjr9k+f5qe10Dx1tMdwXU3fzTfeBJvvgCEzcpm66quId/Dzm3okyk/irKpTBJggHuJQsogWzDyhN3KTc9VBfTN+0B7c96RlN28/XLwU0tAscsnTW/1ZOUwALgTxmO5ApSl3Kqy1w3n0n0Skkb7eqsXQbhoBjQH8+PeuJI3AfXJBpdUbkDiq6Dp+aQOdNvPn4qcTyHf/AJQCpvI/BM3Y5pNyOas3X703Am828ki5WVaRSOdkD2Xga75J+vRIuSykSuBvpbmUIf8AXDuXLkiIQh86k+iHrPqBvXLk5CwO1Oj9GvXqvzPbLpIEQTpMGYPZVtsb7PKLgagqOAblMEAyT3QFy5bPxFWnSbgMaLMNCnUeQ4aytS3CimOr1DOzvExaYS9VzK5csdxJcSeZWm1oa0AaQPZAIGm764ozVvpyXLkiEjxJiBY7wNbcpSOG6T4aLlyAlXdZHOPrilgSItrEaQuXIKRdnBH6BAXATy5d3PmuXJEJBSZpBvNpslNEaf4SLkITLTDsknSd0WMd8pwnUadx3nvSrkiVf//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mohammad Shahzad</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023_T20_285</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>27</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL30" t="inlineStr">
+      <c r="X43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>Wicketkeeper</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFhUSEhISFRISEhoSEhISGBkYGBgZGRgVGBgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzErJSs0NDQ0NDQ0NDExNDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0PzQ0NDQ0ND80Mf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAQIDBAUGB//EADgQAAIBAgQEBQIEBAcBAQAAAAECAAMRBBIhMQUiQVEGMmFxgRORcqGxwRRCUoIVIzNi0eHwQzT/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAKxEAAgIBBAIBAQgDAAAAAAAAAAECEQMEEiExQVEFEyI0QmFxgZHBFTKx/9oADAMBAAIRAxEAPwCxePWNVZKqywEiiFoQBVixLRYAkWIBHgQAUR4EBFgBAQgIA5Y6NEdACEICAOUSQQURYACLEEdaAIY4RAIsAIl4phAEj420cBAACLaKohBAlokdCAYkURIogkIRYsAUCLaAEWAIBHWhFEAWEIXgBAQEw+M+JadA5Bzv1GwHzIBvLGvWVfMyj3YTzfiXiGq4HOVHZdJi18Q7C7M2vcmLB7CuJQ/zr8EGK2JQC9xb3E8cWsy2AdtezGSNimt53sOlzaLJo9kw1dXUMpBBk0818PeJWoqEYBqZNzpqDtvPQsHikqIHQgqe0EMsxbxojgJLIFEIQgkICEWAKI6NWPgAItoQgBaEIQDDEBCOAgCgRwEQRwgBCKBFgCWiiECIASvjMUtNSzEAC+8sH9pwXjnGnMtMaAjMZDAmM8VuxOTQa+nzMXiuOq1VAdkI08qgH5MoKQF07Suzse+sgksgCwBhiXW4F9AJVCMDJFpkixHreRZIgqWN9wdo9qhIItqIBBcdhJ6iW5ha1pJWxuHfltsZq8G4xUomyk5QbkE3mD9YmT0HPvaCT1Dhniik452FNvWdBQqhhmUhlPVTcTxbPqNre00+HcarUDyMwXte4MkHrcJlcC42mJTMulRdKik6j1AmtaSQIBHQAjoACOEBCAAMBC0daANtCOtCAYccBG2jxACOESEAdCEIACKYghAEdwASfKBdvYTyXxDj/r13ceUHKvsJ3HjTiJp0ci+apy/E86pUOYDToJVslKxcLhXc26G028LwU9rzT4dhFUDvNmig7Tnnko6Y40zKwvAUPmE0f8EpWtl6abTTSnJwkw3s3WKKOB4lwAqSV2mPWwToNQbT1Gvhcw/6lGtwgPv+k1jloylhs8zFNBrqD6wBUHcidzU8KJfcgTC45wD6ZzIpYDebLLFmLwyRjm5Um4tAggC99YiOBoR1kzOLWOo6TS0Zmh4e4iaFdHB0NlcdCCf1nryMCARsRcfM8V4dQNSsiW3ZV/O5ntNNMqhf6QB9hLIqSAR0BFEABFEUQgCwhHWgDYR2WEAwoohaLAAR1o2OgBCELQAgzWF+2sLSvj6uSm7dkaAeb+J+ImrXOvLT5RM7CoS4+DImOZie7E/nLfD1Oa2pMzk+C8Fyddg10HtNWlaZeEW1ppoR/wAzjlydsHwXkeWEaV8PY9RLaKDtKUy9oR3kQqiTmlIUpa66SeRwQ1nEo1wG3mlXRehEo1VtJSoq3Zg47giODYAE9QJyWLw5Riu9p6Jn6dZxHExd39GnRjbZzZYpD/DLqmJpMRYZ+vcz2G08VwjZHQ9Q6m/yJ7TTa6g9wD950I5x4i3hFkgBHRojhAHKI60QRYAQhCAYIixBHCAEBFhACLACFoAWlPjQP0H3PI23tL8hrpmRl/qBH3GkgHjdIf8AjOl4Jgwq52tc7adJhUqBFXIdw5B+DOoq3VbA6AWmGSXg3xLyMxWOyghNW6ntKS8UqINASTvpH06QUFnNuvuJI3ElRbrTLgdbXlVXos79ka+JHXdfympwrjzuR0BNpkHFByf8q9lFQ2F7KessYYICrLcajS8SVeCYt32dsmKsJiY/jpANjtLtBiUNxYTmeJU1LEa2trMovk2knVjB4pa+ov7SwniS/wDLMilVooRmS4bQHe8vpWoNoFCnY+k2pejC37NPCY0VBcaMNxMTjeHKuWtyvY39e0ltkcMNR6TXxVMVKLD+5fSTFpPgh3JcnJgXdR3ZR+YnsuGWyKOyr+k8hwFDPWRNjnH5G89hppYAdgBN0c4+LEAjrSQAjhACLAFEWAhACEW0IBgCOiAR0ADCEUQBVjoQgBM/ifEhSyi2Z2BYC9tJfM53xUnNTI8wBtKSdKy8I7nTONupxLMoKqzlgD0vOhTUdJjYulkxA6ApebGFpFlmE+eTeCpNFfE4fOLG/wARBhbJ9P8A+ZOYjY395p0uHHvrLS8NPWU30aKFmPgMKtO4TlzrlbW9x2jsJgRnFibZrzYfBhQdbW7w4VRzOTbSRKTaLRxpF+mmUdxMXi3D1Zs1rq24Gk6bE0MttJmV2W+Ug/tKJ0zRqzlcVgUfKrZgtPydLet5AeGKFKhhYtmJ3N51jcONrg8p9iJUfAP0yTX6hg8aTMShQKDKTnF9zNjCrykDt+0YeHNudx0EmwxsCOokp2yNtIw/DqD+MDOQq0y5JJ3M9SpVFYXU3HpPN+B4YE1Htc5339J2PhqiVRixJzPcdpsp/aownjqO42BHxsdNDIcIsQRbSQLFESLACEIQDCAixBFkWBVj4wR8AIQgJIFWYPidNUboLgzfEy/ElLNRvbyNf4MpNXFl4OpI86q4kvVudhdd51HC6nKBOTxVMJUIGwP/AHN/AVrAewnPNWjohKpM61cLZQ/fePrV1VbzOTF8o1v6TK4pxZQcp+0xjG2buaS5LlXiCF7uTlAvpG4bj6iplVKiLa+ZgLWnM4zimfQLKqY+rtZm9Mp2m30uDJ5fR6LxDjQCAi7tbQLaZScap1hlyutTsR+85I1qzAAI+vYEQVnQ3IYMO8fT47H1n6O1wuPKMEabLIpW469J52eLlgCfMN50+A4lnQEfMzlBo0jNSL9S529pVxChAT1IjqWK11MqcRxQG5tJxplcklRH4Zfkf8b/ALTteG0stNfXWcP4aQtmt5Wc2+es9CRbKB2Fp0Qjy2YZZXFJBCEJsc9Dlj7Rix4gAIQhACEIQDCEWIIsqAEeDGAR4EkCxQIkcJIFEocaDfSOXuM3tL8U66W0kNWSnTs8i4h/qvrex6yxha+WxO200vGmFCV1KqFWol9O43mKDcWmTjXBopc2jqaD3Unst5zNQZnLNfc39BNTg1fTKbm+m8nwlJc7jft2lIrbZo3uoj4Mi1HCUaYbUgs/ca2951WD8PV2ym9Ncyk7bG+0xaNNUbMG+mb300BM0lroAB9W3s5+ZV0zWMa8miPD9bK7GpTU0yenbtMTiXC6iqzA06qqqMbb66mWqYosDmqk3ubFybyk9NeYI9hoDY72iqJaftHK4lke+VSrg8wtYTQ4HcK4GwtLeIwoyMQBc7mNwxVKWmjGWdONGFOMrFfE5DrM7E1i567wzktrreMq6G4kxVCUrOp8HLa7EXGfL7XG87qcr4Q4aFpLUJbM5LW6TqppFdmUnfQWiERYTQoCx4jY4QAiiJFEALQiwgGDCEJUCrHxix8kABHARojhJAsIRYByvjzCZqK1ANaba27TiKT39v2M9I8T8RSnRdX1aopUL+88uw729AZEostGS8Gjh3IfQ2HeWcJiirnXQneUQ2nfeRpU6bGZ7bLuXo6DF1Q1jf7SjUwec6Ne8gTW19JcouVtqN5Wmi932V14cw/mOkv4N1TS99ryapiAbbFmGp9JlVGGbTQaSHbITro1MTjQUy7bgaTN+rYZb3PSVnr8tr63MWgCdT0lkg5NkoPW+8ZSUu4RdSxA+8bUqWH3m/4DwOesajaimt/k7SyiZtnoeDo5ERP6FUfPWWIwfpHzQpYRwEQRYAtoQhACLaJHAQBLQjrQgGBCEJUCiOEYBHgSQKI4Roj4ASrxDGikhO5sco7mSYmuqLmOwnM42uXYseu07NLp3klb6ObUahY40uzl+N4io7F31vffpMpEuvcidNxHDB1I9JzmFQ2K7FLy+tw7OV0U0WXenfYtN9LGK6Hcbxh0kqt6zzjvIhXIGuh9JN/F3BFz0iZATciKtBL7QCQY0/tIXxdz6xGw69P1iJSsdryLAoBb07SyHsLSJgF3kb1L6CSkOgJLNbp1m3hcU1AHIxQtYcpI6ylw7Cm4MMc166IDpYE/++J0aZrfyZZ09jPUOCcUFVArkfUAHzNkTzjhqMCHBtba156BgKpdFY7ka/E6NVgUPtR8nLpczmqfgnEcIkWcR1hCEIJCPWNEeBAFhEhAOfEUCAimQAjpVr45E8zAnsupmXieNObhFCj+pv2EpKaRZQbN0sALnQTOxfHqFPd8510TX4nO4l3e+d2b0vYfaVGwouB330kRybpKKEoTinKjbxHEPrgNlKL0B1PvK5EkpJYDYAaRxtYmwH4jl/WfTYYrHBI+fyvfKyjUW85/iuGKN9RdtmAE6OpiaY0NWmvzeVaz0nuoq02J23lc/wBPJFxbRbTrJCacUzCNJXFxKj0GXuRLKo1JyrCwvpft6TSVAwuNp85JOMmj6GPKRhLUIjhV6TUrYIHpITgPeRuJ2soM8VK9h6y7/h/vJKXDvSRaG0yyGc31mlhcF1Il6nhANbSQ6Q5eiVEAwUSlhaJeqX30Av6R9d/m/SanD8KQBprbXSehoMO+W59I4Nfm2R2+WaeGSwmjwbjGRzTfVL8p7d5SpKQPaZz+fTveexPFGcaZ5Ecrg00ejU6yP5WVvwkSQTzXFUXRg9NmQtvY/tNDBeJcShs4FZB8NPn8q+nNxZ7eOTnHcd1CYmD8TUHsGzU2P9Y0+4m0jhhdSGB6qbylo0HgR0QCKDACEISQcbV4qNkBb1O0pVXrPqdB6GTKpAvbMtu1o8acwAyhRpmnbHQp9v8Ao5Hr9v8AqkUaeDYi91G++p/OPp4K4uXAlojZ8qhQNrxGGaz8gAubS6+Pw+U/5H+UzeK/gppgbgkEG2m9jKz0crAkm2sv2Js+VQBfS5F5SxNa7ITlVeYEDpEfj8UJqUbJl8tlnBwklyV+J8R+iosM1R/KNLD1M5OtVrVm5ma3YGwmxxEGpUJGoFlHt3k2GwVtAN9jOuWKWSXL4OKOWOON1yYA4Se1/cy5geGsjXyB1OhsLsPUes6fD8PKkXS7E2F9ps4fCGhzFUJLdOnpM56THXfJri12SM1JeDnf4POmVrunQ6ZlPYzPq4R6Jvq1PoRt8zshwktULZhTFQ3FtReVuI4J0BDqHXuuo97TxculzY3xyj6jHrdJq4JSqMjBoVQ8sqg7SgEUNdCD82/Iy/h6lxr/AMzBuuys9PJdcr2SBB2hkHaSBbxjDubCV3EY9PKcqiitWfoN5XZG66e95e+so8i5m9pBWzEjO2+yLqT6SFOTdRPRh8dGEd+V0iioGcHmfKLAKOvvLDcbKNl+iWA1JUmbGD4e4tdMitoL2v8AMgx+FRRkTWoSSx9J7miw5ox5dfkfL/KZtK57cSuvLZFg/ENFtMzUyejrp9xNNMrcwysD1U6TmOI8LUqD8bWIlXANWw3MpLJfVTrpPQ3Tj2rR5WzHNXF0/R2eJAydJQKsN1Pv0linikqUTUXaxzDsbbSzS5xnynKVG36zh1ekWeSldHoaTXLTxcZRsz2pHqpHxJsNUembqzJY9L2PuJazG+rMUtobflJlbMLAnIRuROX/ABrXTNZfJY5dwr9zSwPiIHlqCx05l1HzN6jVVxdCGHoZx7U1Nlsp03GmvYx9JWpkFGKt2B0lXpMsPzC1OGS4tM7DNCcz/i2I9PsYSPpZfQ+rD2Va4CZR5wBtKtVTnzFbrbYS2QobKRy3uDKyIpZszMF6T20keI2OyFbtkOS2gJkeWxz5LJl7ydiuqlmygDpImDEjLmNMdbdoCTZDUdRzAi+nLIcRh8wzMEYW29YqsFNxZ87a5ha0mUZbnkOY9NbS7SRHkoU+Hg21UW1JH6S7hVQrzPZgbj4kq0T5wBpc6+sa+Gd7PZVA6aSE/Ya9D8NiFPmfVSbaSV8SrqQ76g6Sp/Bu4Bsose0F4c79EWx+8VEK+i5w3iCqxDsSqtpNJeM0jcdzy3Ew14TUe45QAbXAl/DcFZyVcjltY2+0pJQfJeDnVGXxThCOWfJlJNwVtMpMCVNjmK9wbW9xO3/gW1QnygXMp43hxLcujBdba5hPL12lU1uh35/Q+l+I+UeKSxZuU+mzFp0bAC+a/WD0lGhDN102j8hBAGUEZhrt06SzQwjNqQRra4P6TxIY5zltR9ZlzYcEHkbSX/TMzVGOWmmToSR0m9wbgKoPqMxNTfMdQPiWaapTJLqbbC+sr18ZmYqgYKR0uJ7+k0Kxq32fF/J/MT1L2w4RZx+LKKCMrHUgf9SlhsA5/wA4gZiCbGWcLw9c92JIy3FyRJKzm5RG5bd56Ce3hHhtXzIwuJUAXJYFVtfSVqGAzAkhin8p6TSrlnb6VxYi5Nug6XltqRH+WrDJl9JpuaRmlb4OaoYGorMqWKPbODp9ps0KdrIuay8pHtLNWiwsoAvbQjQyNyFBszCpYEjeUpN2Xt+Rxa3KDoTY3G0VDksAwKlrX7RwcBcwa5NiwI1hktdyqkNY+0L8yB7oEsAb3Oul41VA/wB2ttDqItFilzk0O0lNIA82mY3BEhpWWTdDrN/u/OEr529YRSFsnxWy/hkOK2+0ISV0UfZFiPKfaanDf/zn2hCRImJhP5B+J/2keH8p+YsJoukV8lmn5B7CT0dh8whMyy7LVDaT0P3hCUkW/EizguvvLFPzH4iwmL6ZtHsKvnb2Eq1f9T+2EJD/AKNF+H9TmcZ53/Ef1E3KfkT8QhCeTo/vDPp/lvuUf2G8X8p9xGYLywhPoI9Hxj7LWM8g/DMI+Y/MWEiJpk6K+A/m9zLq7j2hCXkZQLTeZfYSCr/qf2whIj4Lsgxnm/tX9RH/AMp9xCEMqXank+0jxWye4hCQ+yV0SwhCCT//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mohammmad Saleem</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023_T20_285</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>27</v>
+      </c>
+      <c r="X44" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAPDxAPDxIQDw4OEA8VEBAPDw8PEA8QFhcWGBUWFRYYHSkgGBolHRUVITEhJSorLi4uFx8zODMsNygtLisBCgoKDg0OGhAQFy0dHSUtLS0tLS0rLS0tLS0tLSstLS0tLS0tLSstLS0tKystLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAUGB//EAEgQAAEDAgMEBQgHAwoHAAAAAAEAAhEDEgQhMQUTQVEGImFxkTJCcoGhsbLBFCMzUmLR8CSCwhUWNHOSlKKj4fEHQ1Njg5PS/8QAGwEAAgIDAQAAAAAAAAAAAAAAAAEDBAIFBgf/xAA4EQACAQMCAgcFBwMFAAAAAAAAAQIDBBESITFRBUFhcZGhsRNywdHwBhQiMzRCgTJS4SMkNWKS/9oADAMBAAIRAxEAPwChCaEW1K1WiZg4TwpwntTEQhKES1StQAKEoRLU9qYgUJQi2p7UABhKEW1NCABQlCobQ27h6MguvePMp9bxOgWX/O3P7Ex6efuWLkkLKOjhKFj4fpPh3eXfSPa24eLfyW1Te14DmkOadC0ggppp8BkITQi2pWpgDhMQiFqVqQAYTEI0KJagARChCPaoEIAEQmIRYTFqQwJCRCMWqJCBgoTIkJJZFk0YT2olqVqY2DtT2qdqe1MRC1K1EtTwmIHalaiWp7UADtShEhNCYgVq4/pjtwhxw1FxEfbObkSfuA+/w5rsMVV3dN9Q6MY53gJXklV7nvcYLnOcSYBMuOqiqSwsCYqXAacgFYa/IznETpqrmzej2Mq5sovI5nILpMF/w7xT/LcKY7Jc4/JVXVguLMo0akuCOJe0xrrnnlCs7G2k/C1WvBduyeuwHJ7e7Se1eiN6A0aQl4dUPN5n5LE2r0Wota4slpAOWo9SjVzHJM7Solk3NmbQpYmnvKRkAw4EQ5p5EKzauJ6DYnd4h9B2lVvV9Jsn3E+C7uFsIyyskC4ASExailqa1ZDBwolqNaolqQAYTQilqRCBgS1RIRy1RISHgCQmIRSFEhAA4TIkJIA0rUgESErUwYO1StUwFK1MQO1K1FtTWoEDtShFhK1AmCtStRIStTEUdqUrqFZv3qVQf4SsDofhWWgOaJcSQSBJyXU4p7WsJdocsu1YFN5oto7tt5spgDyRNskmdAqV3usLiT0Npamd1s02iADHYMls0ngNnjyzJXnlHphVpEDdMqiQCKVak5w7xM+ErrMN0gD6O+3bgIJzHHlkta4NcS8qsZcC1tSqSNIXIbTbkRznxUMf0zrVH2toBjfvVH0mA9wJlZr8dUe4B7YJ0cCCO4wn7N8Re2jwMHYuzi3H0/wF5M+iQPeF3MLK2VR+vqVDwaGDtJzPsjxWzC29u8wTNfOOJMFamtRrVG1TGIK1Nai2piEhgS1MWosJEJABLVEtRiFEtQMCQokIxaokJAChJEhJAGlCUItqVqYMHantUw1StTEQtStRLUrUxA7U9qnantQAK1Pap2pQmIqY8gUnmAYzzz8mT8k+D2cyvdScMoaDHK0CO5Ex1G6m4a5J8DibK8RqASD3Ba27jiTfcXbd7Jd5bo9H6bHOqQ0ndhriGkGxoECZy0HgFGT9FjINqVHOtGWUlXtr7SDaJ4B+RI0a2Myf1xVLEVaBwtOo2tSLTOd4jsIOiotyl2lpKMduAKr0ep4mnDg0tdBcw3NJcGlozHCHHLTNU62yG4dr8vKJcRlAcc+qBkPUug2RiGmkGkQ4SWuGjmzqs7b+MFrp5ZJ5eMZFiOW8GTsSjNOpV51HN7uq1XbVQ2ExwpnW17ieyRA/NaVq2dpHEW+0pV3lpdnzBWpQi2prVaIcAYTFqPaokJACLVEhGIUS1IAJCYhGIUSEABLVAtRyFEtQMDakiWpIA07Ug1FtThqYgVqe1EtT2piB2p4U4TwgQKEoRLUoTAhCaEaE0IAFCo7QdbVY7g9oHrbI/JaUKvtDCbxkDJzc2ntUNeGuGDOnLTLJWxuKflYxzmDyrbc/EhZrW4dsvDK7HcWGkIBnMjn3BXNjvdUG7dkQSCDkQVpVNmYmD9ZNMjNpA0Wsj+HYupxlu9ynszHkhwzt825paY9fr8Fl7WxNxdByGSsbRxYpgNGVpOfErED3VHXcBmTyQofuZjr/AGo6vA07aVMfhHjxViFR2Vi2GiyXNDmtgtnMRlotACVto50p9RTystZ3IQmtRbU1qMjBWpi1GLVG1AAS1RLUctUS1AACFEhGLVEhIAJCiQjEKJCAAwkiQkgDVhOApwntQIhCVqJalCAYOE8KcJoWWTEjCUIkJrUZAHantU7U8JZGChNUp3At+8CPFGhV8fiN1Tc/UgGBzPBZJOTwhSaitT4I4zFbUqUXNeGkvblUjzi3KT25I38+HOaWtZULyNLcgVTw1X6SN6cjc5tTLK8cfXkfWtGjh2DT/dayq1GTUlutizSi5RTi9nuZ+HwlbF1JqfVt5TMDt7VrV8K2m0UmDM/qT2I7XFsNYAI15D8z2JxT1zknUnUlXbOxlc4nU2h1Ln8l2lS7vY22YU/xT6+z5vs8SrQoBggcTLncXHt7OxbeAqXMA85oAInOOBWPjK7aQk5k6BZwrlj7g8h8zIjwPZ2LoKltGpT0R/DjgaOjdSp1HOW+eJ2dqVqzNl7abV6tTqP4E5Nf3cj2LXhaWpTlTemSN9TqRqR1RYK1RLUaExCwJABaolqOQokIAAWqBCsEKBCAAEKJCMQhkIAHCSnCSBGtapAIkJ7VjkCEJoRITQnkQOEoRIUoTEChPaiWpWoGDhKESELE1W02F7tG+3sQt3hA3hZZDEVmU2l73BjRqSYC47bfSRjsRh6LPsqwqC5wi5/VtjkDmO8hPtXGPrOl5FvmsGg/M5arA2nsy94qyS6gJptjJrgZB7SSB4BbOlayp4kv6vI1Ve7jUzD9v1juOo6MbMDqmKpzDSWPaIyZdIjt8k+KpbcxrMKHBhbUqMOTBJkAwZI8nlP5QoYrazml7aTnM3rWtfaM4EmJ83yu08gsvDYUufNpa1sDOTEaZfr5qGHRMXcSqS3jnZfF8+7x5Ek+k5RoRpx2eN38F8/Dmb+y8czE021KWhyc05OY7i1w5qeIxIBhoJPPgO8rPoUWMlwDmvyDnDqlxPMA5q2JENaIylxcJBJ+a3Kpv9xp3JcUitiASQTBz4zqmaySXDOAJ6o15BWKgtH3hOQgWhLDToeOmgA/JSPiY5KpoB+ZaGjn2+vVXsDtepRLWVJfS0kzc3uPyKlRY4yTAbxDuCeowSRAJgxGk9qiqUoVFpksklKrOm9UXg6ShWbUaHMIc08R8+SlC5XZ+LdRcHeaYDmzkRn4FdZSeHtDm5hwkFaG5t3RlzT4f5OgtbpV1ya4/PuIEKJCKQokKsWQJCiQikKBCYAiEJwVghDIQIDCSLakgDZhShTAShR5GQhKFOE0LJCIwlaiWp4RkAUJ4RITQkBCFyXTPGHeU8O2chJjiTkB6hPiuwhcR0hw5q7Tp0g4U7mAGoQSKbSBLoGpiYHMK3ZqLqZfUs/D0ZUvW1Twut4B4fZD/ohxTsmtc1oDvKeJDSWcwHHNZtZp4ZHLLkeBPcPbC6zplUsbTw1N004JDmwGuGUACSYBnMwDGQgBc9TADWAiZeXOPIaD2CVuLdupHU+vh3Glr4hLC/kFSw7GdUAyOs55zJP6zVqWiD1pddY1ovqVAPKLGyBAMS5xa0cSE1AX1Otk0u6xgENaNT2wM/UobOnGGmQLXVnBz7XXmmxpcKdJ4gQBdTIgnRxzc5RX947eKUeL+vUsdHWP3uphvb6b/hLdmu3BBzQ4sqNMT1KuHe9o57sHM9gd61RqYO3qB114Dg4A9dhzB7ORHMELosFgaVKtUdc8UaNtN9VxIbVryL4I0Ag5Tw4ysnHNksp5tLGAHhBc59SPVvIjmCqfRd5XrVGqjysdm3Dki503QtKNRQt44wt3vu3vum3jHZjfKfAq0aQbkZsBz0N7tfUFOuA5jniA15ABiBaNT71OthradokhjXERxcdfYqrpqNpjSm2J4AACYW6NKTpP3j4MhtMiZIzec4POBHrJ5BWsQAwXW6zJPHjl3qns1xnrEm4k6ZEnMyr+IxEy3mBn2nL5hYvYZlvYCIgSRMLR6NYzN1I6HNoPA8R+uSq1qEuGYns4ifZoqJqlpDm5ODhmMiDzUdzSVWDiS21V0qikjuCFEhSpuua133mg+IlIhc0dMBITEIpCYtRkCuQmLUYtUS1JseAFqSPamRkeDXhPCJCaFHkMEbUwapwpgJ5MSACVqnalajUPBC1NaiWpWpZDAO1Y+0qdCliPpVR0PFIUwO9xN2WZMSBHbmMit21cf0vYBXb+MAmdBwHuVuxjrrKOeZVvpaKLeDMx+LdXeXHJjZFMQGhrJyy5nKVXfx09UZBEEAaj+00d3NBee7xYfyXSxSisLgc2228tljCNByfIY5r2uIGYa9pa4jtglaWzMBUZQoUqjaj9yIbUom+lm4T1gBGnGCIEhUsOzs9hj2FW2AHkT3gnwKpX1jG6xmWnHYnk2XRfSc7CTlGClldbax2rHgXsdiW9XJgbTjd0mWmmCPPfGRcdYEjnxBy6ld+Zaxz5Ml2ck+tHq1A0SQR2w5UqmIL/ALF9Jz/+nU3l/wAQ9gUtvbU7eOILvZQnOVSWqTyxvpAtDusDdDhMbs8jz18CsvG42w2NJDS15jSNeCnj8fP1demKTnZbwOLqbuEEnMHPisV1Zxe68yRTcATnnBkqwCjzOgoONjc9BGpzk/6q88B1tpGRHHKAJj3eCx8Be+0cLJ7+Df4vBb3RfCvqYlgFPfMZFR9O5oDqbSCfKy0jLisJyUY6mEYtywieJwNVm7LmOax8AOLXBp45EjPJZVXDw54yloce8DP3e5eotw1CvbUmpWw+Jcys0VA+GElzSTnycQPV3rl9tYfDNtduXsrVHCmXHe0mtIaS5wYZBBBDc89SqlK71yUdL+u988lidvpWc7fXIu4YfVs9BvuClanwbfqqc62M9wRLVz8nuzpIrZAbUxaj2qJasdRkogbVEtRi1MWoyZYA2pIsJJagwacJQpwkAotRiRDVMBOAnhGoBoUYRIT2pZAhCUKcJ4T1ADhch0k2bXq4u5lMubFBlxsa0OqOLWiXfiy04rs4WPtsV21aD6L7GGoxta5zt2GC6oHFoBkjdujttCt2NVwrZXJ8Sre01Olh81wOX/k+tbw/owxP2jsqPA+TE9naojYGKe61tMvcHEQKlI5hpcdRyafWIXXOw7bKu6c6pRdhsJh2Vi2qyWOLSZy6pO9p9uR5Kzinne1W0n2V4rVKTS8t3hp1KdcM7ix8HslbiV7Pgks/z2eBqFaw5v6z2HEnZ1em1jn0XhtS3duNKWvkSILTnlmhtxI0Jz5XDL1PErrNkYqo6pgd691Sjh8I7EFpDHDeXVmMNw4w9gHCAFXfs79l2uw+VSrudT8qYp3vIbcD5gdorCuWnia5cO2WPJYZC7dNZg+fHuz1eBiUsQ0iQc+PUc0j+ySq2Nr4Z4irVH72RaewkZJ+mNAUMZVaxjadICkGbttMNndsuyBESZKy6eNeMjT3o5hz2OHg4qeMtUVLmkyKUdMmuQ2KGHe0jf0qgjjbdHIw7rewrmMZhyy0U3B1J28bAc11stMZzMZcV09fE4Zw+sokH8THVPaSsra9HDmm7dBrHMIc0CkWkwcxMcWyq15cqhCLfW165ZsujLCV5KcY7aYt974Jd7foX8G8saGtEuDWiTnJgAe1aWysS6kS9lR1J09VzSQeXuWTsqt1GHU5Hnl3+K1TTl1KBk5zZOXefYFcxlbmqzvk6XZXSN7KjpBqbpxde6o8FznMY1zXQYPkAidCq22NvXRhN2G02imKbw53VAzhwjrEyc5Czdn05Li4/a1CZ4nkqO2XzXdr1HewfoKt93p6tWN+JMqs8YztwO+wrfq2eg33KcIWzDNCkfwD2ZKyQuXqvE5Lk36nU094J9i9ARCYhFIUCFHqJARCgQjEIZCWoCEJKSSeQNSE4CmAnAUGoWCMJ4TwnhGoWCMJ4UoTwlqAjCeE8JQnqAjC5zpPjzhsTgqsOdS/aRWYIO8p2sygkCZII7l0q5X/AIgUwaVEmJ3hGe70LST5QjzVbsWpXEU+Dz6Mr3efYya6vmRw23mto7loqtpDD0wG7l3WxFOwMcS0mBbTYFdxG28JU3lU1S2pSF9FpD6ZqvtrUgzrjIQaTj3di46jRyENHqotPtpvUgSOJb+/Xpex4IXS/c6fHdfW/ic/94nweDrcFj6FKm6q5lPFD6PgqO6DqLy7qmpUmNYcBw1WtiHtp1DVj6uvj6BIioZZUwxDpj0z2LgALo0d/d6n5FWW4cxkzwou/henK0jnOePHy7duHnuZK4kur63+Zb6UYrcbRxLKtxwz3stM9Wmd20GbmxE9qrfRaBAewsg+c1+Ge0+zJG3e8bDmntlmKGXiVSdsl9M3UnOb2N+kt97VNCKjFRzwSRDJ6pNkMRTzOdMgAjKwfCIKrPo3TpnI5qNUYrMktLiZF0OPL80NlOscnOAH4RC5zpirqrqGf6V5vd+WD0L7KW3s7N1XxnJ/+Y7Lz1eJjdH2m11MEDdlzTPOc/cF0FU6gO8hkDlLsh7A7xWJsZrRUrDX64H2DNa1IAlrYLrnSI4wIHun1roLOTlbwk+XpscL0lSVK8qwXBSfnv8AE08LTDQGkZNAEnypOcrLx7us6NS4yeK2cNf1iSCBoInTRZGIF5qEj73+qnxuU8nbdHv6NTn8XvK0CsrooQcJSjTre9axXG3bxXmu1+rOttd6MO5eiBlRKIVEqvqLGARUSiFQKeoMEUk8JI1Bg1VNJJVdRjgSkop0ZEOnTJSjIDpJpSlPUIS5vpzlRpumAKh863Vp4wRz1XRSsTpi2cI48WOacrh2cO9WrKeLiD7SG5jmjJdhxtNgcMgHdtlCp8JBRWgt5t/vFIfxBVqLw4QYceX1L/iAKssEcC3ubWp/ASF2yOXwSvB1cD2byg/4mgqzRog+YD/4aLvhehbw8XR31fk9iMxgPmh3bbhnfMJsSQSlRLT5P+VVHwvVt9QsYTB0iSyu3XLUujiq4oTmKY/9NP8AheobQZawdWJI/wCWWe24rDGqSQ5PSmylXqTH60Qu06BRqOkkkwJVKo91Z1jcmDyj2LjLip7WrOfNv/HkewWNv93tqdL+2KX84388mJ9JtxWIa2DMFvpEHIeAXR4OlbZImxkAgwQdAFzGNI/lCkymBDMjA1tF3vhdayoW08xDyDlplzXT9FT1W6T6m0ebfaOmoX82t87lrBvdl2gT71n4vOo6OY0OvNaQEMDSdWjvGSxnXMc48S73StgaRHZdDhGEaOT3j2rZKxuiIIwrZ1L6hPitclcPey/3FT3n6nYWi/0IdyHKGU5KiVX1FjBEqJUiolGoMDJJpTLLUGDZlPKCHJw5UtYsBpTSoXJXJ6xaQiSHKeU9QYJplGUpRqDBJZnSNl2Erj8E+BB+S0JVHbrv2TEf1NX4SpaNTFSL7V6mFSOYNdj9DzzDu6sE+ouHuePmrdKnoQI7QzP/AC3KrQEAxIzPFwHzCt4cA8Ac9bWO9xC9Aizk5IO1xHEj0n1m/GCEdrgRrP72Hd7wgtGfH1b1g9hIVpjubh/bYfiasmzFIlTpg+YD+5hz81W2uQwNBaGyHmA2m2dPukq2wjnJ76B+So7Vi4c7TIhmc+j3KKrNwhKfKMn4Jli2pe1r06f90orxkkYdRzqjo4ElFxVQUKYZT+0fk3v4ko7WspNL3cv0FnUQaznVXSAcmwYIHErikvA9kk9T7DnqU08bOZ3bH58S8wF0WH2vUqkE03ADVwg/rRYGIpu+m9pZAHMZSupwdImnY0ta/IZNLvbpOq6rol5ofy/RHlf2ijpvp57PiXK7oIc0y2BHDgs97y8GABGeURGat7sU6ZD73OyzLgZ7IjJVG9a8zaHQtkzRo7bou79lZ6T575WmXLB6I1P2aOVR/wAlsl64O+eLmp7z9Ts7NZt6fciRcolyGXqBequSxpCFyg5yGXobnp5HpDXJKvekmGDZD1IPWaMSpDEKhuSeyNC9PeqAxCkK6eReyLt6e9Ut+EvpARkTpF69K9UvpCb6QjIeyL16zukVUDB4k/8AZqDxEfNT+kLC6cYsjA1IObn0R6i9sqxapyrwjzkvUirx0UpS5J+hhUeJ5nt+Ss4cTM8z90+9VMGZa082sPi0K5g9D6Tl6JDqOPkgwbBHDuBHuKthxy/+nfkqrhmFacYj8yszEm18cdfxN+YWdtGsN5LvNAzkcbuSvDP/AHKxdvOkkDgwT2jrKte/p6nuvz2Nl0NHV0hQX/deWWUMQDXfBypN4feR8SQym6MsrWjmexAwdQkcg3idMuJ7Ag4muc35iwEU28Se3tOp9S5DB6vLbYyG4jebSbbmKQfPb5uXiF2WDDg4gA5+HeuJ6M4e6tWqSBbDATJJOro/wrs8FBFzbyZyJtY08+1dZ0ZDTbrtZ5J03W9tezkPtOpfIJzaNfD81QDwGOESYJCu4hgNSSQRnlGRMZ5+tUngOe1rRAdAnnw+avNpLJq0svCOt2FS3WHYDq4XO73f6QrhqKrvgMuSG7ELzqpUdScpvi3nxO+p0lTgoLqWC2aiG6oqhrqDq6RlgtuqoTqqquroLq6ySDBe36Szt+nWQsGqFMJJKoywSCmEkkgEFJJJACTpJIAS57p5/QH+nS+IJJK1Y/qafvIr3n5E+5mds7yGehS+AK9gtD6TveUkl30OCOJZZf5QRTqO8JJKWPEwZOnoVz23PKd6HzcnSVW+/TVO74o2nQX/ACVD3vgylR+x8PjCFV0b6TvjckkuRR6rU4P66jO6D/Zn+v8A4Grsqeg/e95SSXZWf6ePceL3v6mfeVhoPQegYD7Sl3pJKWv+XPufoR2/5sPeXqdAUIp0l55HgegsGUNySSyQmDcoOTJLIxIJJJJmJ//Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sediqullah Atal</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024_T20_027</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>19</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>10</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>Batter</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSEhIVFRUVFRUVFRYVEBUVFRYVFRYXFhYVFRUYHSggGBolGxUVITEhJSkrLi4uFx81ODMwNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAABAAIEBQYDB//EAEAQAAEDAgQDBgMGBAUDBQAAAAEAAhEDIQQFEjFBUXEGEyJhgZEyobEUI0JSwdEzYnLwFRaS4fEHgqIkNEOywv/EABsBAAEFAQEAAAAAAAAAAAAAAAEAAgMEBQYH/8QANhEAAQMCBAIIBgIBBQEAAAAAAQACAwQREiExUQVBExRhcYGRofAVIjKxwdFS4UIGIzOy8ST/2gAMAwEAAhEDEQA/AIVGuCmYoqko4ohSRi5C1HULmusdFSbMHC4VhhQF1cwKvbX5JpxZVpnCsYuCmGpA1Vk2mF20BU4zBH/EU/4I5N661WYpjmiaYVWMwQOYIHgr0eutVqKQT2sCqBmKX+Ipp4I9HrjN1eNhB7QVV0saTcbJ1XMGtEkyZiBBMqvLQNh+twHj7KlZKX/SCu76Si1WJzsWCJDgRbYg3PC3FRn4oc1JHwsyNxMII7Ex9RhNnZJopSnuwchMGIC6fbBzRPB5UOtM3UPEZd5Krq4Azsr92JBTDVal8ImS6wxUdPDOHBTsNhSpmtqe2uAgeEypdYZup2Aw4CtWsComY2OK7NzQc1GeFTcgiKhitn0AkqoZoOaSZ8Lm2T+sMWcTg5NRC6l7GuGYWMCRou7Ky7BwKgpweqjqd7M2FWGzA5OUl9NcyIRp1V1MFTRVhGTwg+EOzauEoSuj6S5wtFj2vFwqrmkGxQT2CSB5piD5gwYJaRPUJzrgG2qTcyn4jESDDoaDaDAt5+o9fRQBpA/UAbnlKpXudPP0spWBe97msAiTEmenHivODIXkvcczqunDbZBWbcSA4F1+ZMm3kJUujWDwSOBjj9DcLSdnOyrWPJrN1WaWB8WkHUI4kGFJ7ZYGg1rX0nUxUnTUptLQ7SQNLi3f8Mequ8JqS2sYG88j771HWU//AM7nHkskkmpLu1zackmpJJJyCCRSSSlJBBNsikimpJIoSimoyqqcknBNBSRQTgntqQuacFG+Jr9U5ry3RSWVV00gqEF0ZUKpvY+D5mnJWGytfk5dX0VxhSadWUnUgVbp65rsnKOSnI+lSq/Z+m6mHUge8LC8XcQ4Dcu4NkggRy24rQ5dlerD0gwNB0tIkCxiZ6+arsmqVW0ntEaQARIkiXOFjyJa638qdkmZ6GCm43bYf0yQJ9lwVdGY6iRl72cc+9dVSvY+NrwLXHqEzC9nK3fa6rgGg73nYbOJneeP+9nnHZcU6eJxAqE6mtc0Sdg8FwI6cfIesbO88LCGAxUiWutobMwSSDM+QKhV82rGjUp1KnezDdTWOaAQWOI1SWvEcgIlPoMRqYyNcQ+6FVgED+4/ZUCanJq9MIsuNRSSCSCSSCSSSSRSSQKCSSSCKaiuIRSRVS6eiEQgEUUEkUEQigUQnBAKTg8C+s7SwcpJIAAmJM/TdRVBDYySckWGxXFkk29lbYLDt1MDnAlzjLRwa34iOfK8DraZmJw7cNTLKY+8f4DUO+k3MD8IgH9VU4AE1XVBs1vdt8hufcyVzlXXBwDIhbt5n9J4ebE3Vm7H6cRVYRAdSoho4DSagA/8lSZvgqrXGpRgjdzZ57wn5hScahcDcNH1KmtxEAg2IF1z0zi2QldNw4B9IwH3mVQUe0jmkiTTdYTEkNaIi+48lOwnaCq54Ie54E7tDGy4EAWECY5Lvi8LTrgM07TUe+BLKbB4iDzO3UhQ8Zg20C0Au7ivSZUAm7JA+bSEmVMeLDz1t752zsoq1zmNwE3BVmMZRq/xaRpOJ+NsAcd+G4UPE0A2C1we1wlrhb3HA+S4VaoNNzXO8bHR/VBBDh5EGfVccNXJOk8R87kfRdHwvikrZWse67CQM+V9LHXVc8YrXFswu8IQiku0soEEEUk1FBKEYSSSTUkYSQSXFFAIqipEQigkjdBFOCC60qZJAG5RvldArrhcOXTeABJOgvi/5RufI8lcHMiGgAt02FmBjuukWg8uCqHvLfhaW2gudI1dBsB8/oq3EYw+n181ynEKvp5TY/KMh+/P0snhmIWV9iMaXRJkCwJ5HqoOOzFtJ4DAXMgzB+J54z/e6r34omG8NJJ9ksnwbsRVp0W2LngTyHE+gWXI8NGIm1syexSMhzF/LvWiwDtLBiarXd0+ab48RYZgFw4jb/UFPq5fTq+OlWoutB+8O3IgCQuvZGuZr4R9B9RjtQeA3wseBpIc82Ej18IWQzXAGlXqUHNEsMACdMRIcfQgrOLJ5JH/ADWGWE2BBBFwOWY01WrDUuhiGEZbdt/yrvN2HD0Iplru9L6VZwPEMMU2+Qknr7KPjg1+Cw9Yz93roPj3YfYfNRsNTDsHUg3o4hro/le0MJjrJ/7V37K16TnHB1mVHNrVGFndls6xsHBw+Ew2SCDZNhhffI3c15udLixH/V2W1gopXmR/zf5D8/0ueZ4AjDsqOGmrTccPVBi/d6xTn+ZukN6HyCz+Dq+IO8wfZbX/AKk5tTDO6DaJq1n95UfTfq0mmGsIsSGu1NI6AzdYjL6Zc4MAkuIaOpMD5wr0LXQk3OjiR2C9/TPwyQlaPQBXbmpqn4vD6XuYd2uLT1BgqM6kvSaesjmAcDqsp8Tmarikn6UCFZUV0xJOQQRQSRKSCKjohOdTI3QAWeDfRSaIpJAJJwQRCssXSfhmMdtUqMDxP4WO+HfiRP8AcpZBghWrsY74Z1P/AKG3I9bD1Wi7VUhixAgVGyGbAPYb93JsHAyWk2uRxC5/jnEegwxDQ/Udhy9dexXaeidLE6UcvXf0XnuKxj3E6iSfNRXuld61ItJBEFpIIIgjyIOx8lDq1YBH9+RWFdOY0HRSKjxIg/gcD1n9ir3sbW0Yqk2mZL9YLth/Df4RxjmVT4mgHUKdWmLbVfJ1hf1+oXHC1XNMh2lwuHCppI5wRfbkogWytIIyzBB8lO5mAjwXrWXYao2S7ECS6QxhqOgG0kjfidli+2jjRxtdurU9xGpw/LoaA23QSndocY6thaVYPcYs+XGAXWOlnCHCJN7qppsD24h9SS8MDmnfxFwv+nQlMFUHxAtbhAJFtje1u5T1TzK7CeefopmRGDiKJv3lCofVt2/UqrwuMNN4qAS6LXcI1NIJBaQZiePFdslxIZWL3G3d1J/0GB7wuOX0NTwDs1uo+kAf+Rb80YInOqXNH+WHzzH4F1VOTGna67sosqP01GN8PhGmWwBwaRwkk3ndaLKKVGiQ5jAD+YkuI6Tt6LP4um4Plo3AvyO36K+yXKw4g1Jd5cPb90Kum6OZ8br2BItfXPmNM+5bNKGPY1+EXsEM/d98XjZ4a71iD8x81AZVVp2m096A0QGtAgdSqYtXZ0MBkpI3g52H6XP1cuCpeOV/7UgtBXNwXEVCE7XKuU88gdgcq0rGFuJqMIQiElqqsgklCKCcrA0g4KLWwcbLswrqH81RfTWPypwqA7J6qXgixTQrWrQDlDq4UjZRYyDZykLMrjNXnZdwp06tXi4tpjyAGp3vLfZHFVXPBLGz6qqwGO0Ncwjwkz6xB/T2U/B1QNiSD8lxvGWPFWXO0Nrd1v3ddPwt7DTtDdRe/eqjNKj306jqtIF1MC7iQ+CQANTT4wJJvO3BZMNJJt8l6fisGyq2CJBkFYnOMrdh3yDY7EceYPms+nDW3aPAe/wo62EtOMaJYAvbg6sNlrntbPWA6PP4fddcgy1tUVe8b8NOQ4mIJm4HO1lJ7Pk1qdTCueQCNbItcEXJ4wQ0+6h5LiO6rNLnGCdFQXMcLzyMFQOuRK1v1XvlzFhbxyIVXFmwnTRSsnGrCYlglxADr7AbktH/AGfJcshZqfUpg/xaD2/9wEt/Vd6jjg8RVEQ17HaQbzqBLPQOBb7qJ2fqRWpHYNdc8YgyT5RKBGNkrho4Bw8v6Tb2c0HUZHzUNsQD5KwylkNLj+I/IT+/yUHDN1uYDsSAY/LxPtKuGNDQANgIXU8DpscxlOjfuf0M/JZ9Q+zMI5ot/iN5Qfktdlf4YEjh14rLUKDqjgxg1PNmi2/Urd5dkVSmGMcWh+mQNcmeNhMjzVTjtOWVZdydmPt+Ft8Jmx04b/HL8rHZ26az+sewUBWef5ZVw9UiqBLpeCDIIJ4Hy5FVi62hsKaMA3+Ufb9rnau/TvxC2Z9+S5VN0+mFzqLpTUsIvIVCdE5JJJXUxBJFJJFSGp8rlKIKVlDZdA9Pa+d1xRCjcwO1TmuLdE59EHZGjQcNiNwAOJJIAA5m6DXK+7OYUPrh77UaDg+o4kNaBTALZcSAPGSd+B5Lm/8AUHRw0xLs9r8rDl9sloUVQ8SjBkfS3aoOFx5YTTqNLXNMEEQQfMFS8RSpVmaXDc/puOR2VN24zFtWuXUnaQ0Q0Bt3A7ufMW2gG/SVX5VnInS8gc+XqDcfNcZC2V0bXvbY2uRsuojrI5CWn+k7E5DVoOFWn+EyHATbk5o5i3Jdszy1tcNxNKo5wqECrTY3U8PFp0NknhPoeK0uDx0OAF2nkZ34hXuHxtJnxW4zp3P/ACk4kva8HMeo2P7TXUDDcA2B5du4K8+zjDvGGa59Go2rRMF1RpBfSP4oPp6g81RYRz6bg/Yi4B/ECCCOhBK9WzHtBR7qr+MBriQbtMC7NJ2B29V53j6VF9cd0DoFMOMVC8anAxBNwAS3wnkVNTRFx6Jovcmw78yPfLuVKtgEVnB2mu/eueAw2locTJc32Em3WIKkJ7kF6JS07aeIRjlr2nn6rnJH43Eq77J4unRqurVCPA06WxJc48B/fFWGV57ULzU1NlztR12iZlodeFkwnsdBlZ3EeEtqS6QO+bK22XLx35HNadFxN1OGsIGHO++fPwWx7T1e9w5eW/ia5rz8UE6Tp5NIPyHVYtWOKzepUp90TaQSeJgQ0HyChUaLnkNaJJUnCIJaemwy5G5Nth4eai4lNHNPij0sBtcqLUXVi12W9j9QBebngp57E0+Z91NHWRMkNyoerSFuiwaS3Z7E0+bvdA9iWfmcrPxGA8/RM6rJssKktv8A5Jb+ZyKPxCD+SXVpNli04JgK6BXlVKKSSIQKaj0XLtVjGPq0jTbV7ptOm9rGnw99HjfUkxr1cYmI4QukqLmFAO9Ljquc4/AXCOUHQkdmeh8Laq1SS4SRv55KBX7t41Fr2yd3MtPHxcSuH2LkZH+qPQr0+hl9DGYQawGh44btqixIi8zJ6Fef4rLO6c5j2ODmmDJIHzO0cVxdHX9Zc9jm4XNNiPfrstOWPogC0mx8VGweJfRcCx5ibtPwkcRB26hbTA5sHM1sdubhzdRBji0n53WPFHyTcRgQ+mTxHLfqFakiDs1NS15iNjmFoO0+YtfRdS1kVXwQS4NYACCQWtmAfNVmXYMtY50gzBIF9PU7G87Ss9QwdUGWjWOkg9eRVzlNNzdVqjAdxPgdzuN+Flc4a1zahmDW/P19Eyvm6UEnTsUuEk5CF291hJJJFJFFNK3HY/KgG6yLlY7C0C9waOJXquWYQspDos+vmwMwg6q1SMxOvsuGMzdlEhp3PBR8R2jhpOlZTOahdjInYLtmf8MqjBSsc4B3NWpJ3BpI5LTM7RSJ0pmF7TB0+HYkKiojwDoFFyn4T/UVb6pFhJtp/ai6d9wFpT2obr0abxKSy5/jn+lJPNJELZJoqH5rPtKeHLinArZCpELqCugK4tRBRTSF0SrtkSNx9E0FPBVepp2zxmN3P2PVBpLTcK47EZr3NXu3EBlUgSROl+zXDlOx9OSvO2+Qh4+0NGp7AO8kEks/N1H06LB1WRcbcQvRexWe/aGFlUzVaLyZ1s21Rz2B6jmvJuN0M3D6oVTRm36tiP5dxGR7bbLcpZGysMTuenZ2LAvpAhHBHSYOxsfVXXaXKPs1aG/wn+Kn5Diz0+hCpy261opWzRiRmhzVF7CxxaVS4iiBVexxLSDuLAzBBHKd1YZYPu7uJ8bo1OJsA324odoMPqY2qN2+F3Q/CfQ29Qll09231PzK1uCx4qrPkD+B+UZ3XiuOa7vprmu4eg5srqnMIVIEFcUIT3UyEE0OSUzJ8QGVATtML1ehXBpCOS8dpDxDqF6tgB90Oiy+JNBwlX6FxuQsDjjONPRTM0/h+oULE/8AvHKZmnweoT6b/lb3BMlP+07vUhvweiiZV8PqVK/B6KPlTfB6lWh9J70y/wA7e5cGfx3dEUaI+/d0QT3cu5MYSbntKzkJ8IBPC0AoiUgEgE5EBFNukESlCJQJTUGlMweMdQqipTN2O/tp8iDCe0KmrY0iqSfhkgsEFzuEuOwiLDf3XO/6iawxMuBckjwtn38lbpGkuNuWfjyXr1Q08wwnhME3ZO7KrfwH6HyM8l5+QQS0iC0kEHcEGCD6o5Pm1SiS6kZpvGw58HCdiP8Any7Zli21H97rGp0awYaZAgEgW2Eei4Ph9NJRyOi1jJu3cHmD9vBaUrRUNDh9QyKZSYHAscLOBaeh/VcnUNEN/KAPbiutGSRAJJ2gT7QnYwEgOM3FrbjYEc9iPRdXwmqZBKcQ+oW996oyUzyLXUVIlc6pcN5Fp24HYqHRxLjYm/ouiHEYybWPp+1GKJ+49f0rJrkH05UQVXc+tlOo1NWwNhJsTAG56IOq4jyPp+0DSSbj1/S5UWnUOo+q9Wwf8MdF5rQA1DqFq35jUayzthyHLosqunabAX9+KuUkLhclU4aPtT12zgeAdQsnXzSq2s5wdc8YH7IYjPKrgA5x35N/ZRw1jGyA2KdLSvdGQLeytk/4PT9FHyv4PdUNPOHlsF52/K39lYZbiXaRe3QK2K1hacjr2ftRGmeHg5adv6UrDD756Ci0qjhUcQfoknSVjCdDoNv2hFAQMyNSqUBPAXMLot8KiUU5NBTkUwohJBGE0oJ2pou52lvEwTA6C5WexOiIZJ5uNp6DePM/JX1c0i1wfqMRIZFjuC5xtHSVn8Q+TK4/jdS2WYMabho9T/4FoUrCGkqXlOLa0PpuJAddpE2cNwQNwR8wFuewGHpO72aIqO1UQ3XR1tM65YXOY4Uw63iMG1juvOMPTLnWExc+QHErSZNhxWZWqeN726GikyvTouLHa9by+o0hwbDRAAu+SYWKFpQgarbZRjsHTOHd9wxwjvHmsxrm1iyq2qHsDbs1EXc7TGnTxXXB4mjiDh2VW0XU24er3vdMb906jVdVM6fhY5jYB2PeHmsth+xzYc5uOpuLHuYR3YmW09cNBqQXGYaCQDzCs8f2do0m1DSrvdBI0yx8tBr3cQWxPdN4HfjIAljGJ4GildcC6jVMfS8BDaI1CqXt7lhAPcM7tt22AqTYcQoYq0C15mmXPpkObppsPe/ZmhpA0SSas/CWtBBJ3V43s7hjTDjVc3wBziarIBOHFSGNDSXEPkFpIMbSoQ7LYZ0f+pu8UDTBe1pcNNN+JMEW8LzpB2LCDK0S6PlfyUTQ5SsdSp0y4RT+OoKbjTZRDXaqf3XjpEENYHQ4gzqcJBImrxuIpmke7NNniIDad9TXPeSDLGvbALdzBAbYRAsMb2fofeacQT92Ps+qs12uoA9z2zpHhAa1uzYc87gXjDJKcYRwcdNU0xWmqzU3WWAlrYs3xGHS7a4BBClY5mRufLsv77UHA6KqwxuOoWhfUlseS60chw+pul7ntLqYLxXpNDWEEvrlpbOlrgW6N/Ab+IK+bkmHMNL3NHhg96zxghhc4eHwgFxF54cioqiZrrJ0TCLryXGM8TuYKrqhXoGK7M0XOqltb/4x9nJqs++rEPcQWxLWgt0QYMuBnguWY9j8G2s5oxOimWup03PrMIdinVXspMnQLBrHOcIG7YdBlVpXAOuFKwEixWOpvsr7LXeELNNfFjY7R58Vd5ZVkC0eadFJlZNkbndWuHu4pJYM3KCuu1VZgyVKCnhNauzQuuCxibJgKIXYMRFNIuUZcFxAXanV0uEBjnbhr3QCP3TiAASdgJVXjMe/QQSBJEN0NkAnfXE7DmsTjFcYo8DD8zvQf3opoI+kdfkuWbZkapAsALDS1o9JAvCrajkCdk3fZceStVrdlbZHhw4VXuMNa0A+cmY92j6J9TBONzDQbhm7vYLqymaFNrD8ZOt3GDsB7Ae5XBzifhuTuSbf8KQsLTZwzUPTODjg0XOsAwDVA5NBk9SrLCw1otvdVVKnqeG2JMAneZMey0jsNK2ODU7JHue/lYDvKjqqtzABfVQnPCjvpyZsrP7Km/ZF0PVafY+aqCuPsKCB0T2OAUs4VD7GndWg7fNHrx3TcG8Oe0cyFs6mUP0Tqbt5/sqTs7lIdUDjsCt9jcNppmOSyK9kQka1v3WjSyucwu5Ly/CYEuqOAIsTvKOYZA52kSyZtv8AsrPKcP43nzP1Kl5gYc3qnVkMbbgJlNUPesviezD2DVqp2naeXRSMFlL4B1N+f7LT12BzD0XbCZeNI6LAiLAbuWnJiIyWey/DkudtYwktDg8tALvMpLRdLATzVJscwGa8+CeHL1E9jWeXsgexjPL2WqOMwqA0D915m2ouzHr0/BdhKLpdVMAbaQJtxkgrjmfY7CUKVSqXOcGMc4CWtlwaSAbGxIHuh8bp9CD5JjuFyWvkvNMxksADZAMvvFgJiVncTUBcY2BH08lZ5zXloiQ4zqFi2J8JaYt+IR/KFSg+J3m0H2suYrKgzzOkPh2DkpaeLAyyLirvIsviKrx/QD/9v2Vv2S7E1a7RXqMIpm9MGxf/ADH+X69N9V/k6pyPurXDo4Q8STHTQdvb3e9E6eOYtwsGqwOdfxBePCL++6gPMCCZ6frC0fa3Auw2IY0jekDBuHDU4EH2VVUwbXN7yi0wd2SIHMEki3zVeseHzvc3QlV2NMYDHajJc8jZNUHgA4/Ij9VoS5cexWTGu6rouGtEji0udYTx+ErU/wCU38j7rW4VPFFD8xzJJUNTSyzODmjKyzgcjqWh/wAqP8/dL/Kr/Nagrqf+SrfDp9vVZ8FEOWhHZZ/ml/lZ/IoGvp/5JfDp9vVV2S4ksqtjYlbrEansMclmsF2cqMeHQbLWU2uDYIWXW1UTnhzFqUVNIxha9ZrKsmeNRI3JKi5xlFQvbpC1NKsRwPshVcSZg+yqTVjpCVahpGsFgsyzLaobsrXC4V4AkKx1+R9k7vo/4WdZXgbKupYV97cUlPGIjn7JJWRuoh7Qu/Kh/mI/lVRCULE67Juo1ocHmve2OxIDhMESRsfRce0lNxw9SnufiA/MAQTHmQCIVNQq6CeRsenkrzF1Q+mC112mzokW5/O/Qq9T1Ae3PVWI2mQfKvF83ota7w/DJ0umZb+U+fW6gYbL3vqsFNocdQBBNi1x4xwF5W+z3s/TqvD2OazUS17Wsc8F3BzWWueI2O+8qRknZ2jh2Go0ufUNi5/hIBvDWCzeO5Jt7yvlAYXhVZaQxvPLcLXYbPqdNjWDZjWtHRoA29F2HaSnyWaLAnBgWeK56cqL/qhjG1qlB420Ob7OB/8A0sfRph/3ZDnTcaHAHzJkwtb21wwNJjtJOlx+HgCBvY8QFimBkwTHWT8gJWhBKZGYlRmYcZIW/wD+ndRmFqv+KHU4IMcHiDbfc35ALeDtDTXnPZfK6lMmo4NDXsEDUS65BFrxbz9Ff6Aqs1ZhfZtrKxAHBnzLT/49TKeM9prMsw4Kc/DgJgrXbKa5Wj/x2kntzylzWUNMId2EuvO2SuVsRndLmEypnVLmFke7CHdJdfdsjcrWDOKPMJ3+L0eYWSNNAUkevO2SuVsBmdE8QnDMKXMLHCkkaaXXzslcrafbKPMIrEhiKPXuxC5XRBWn2ccWx6oDDg7Nn1Wf0ZU3VzuqwhX+RYMVKJa6QHavh3hp4eckqIMCCNo6lTsuqaBoItexFjPPmrFKy0makjY6MkquxmD0kkGw28QaSDYgkcFEzBze8IaCIgGWBskASQOI81d1cK5xvEEzDSA31Gm645rgxrFj8IG8/Db6QpZmf7ZaBzurFW0y2dcHJUSGpWTsIPNMfhB5qj0ZVHq7lWZjg31Gtptpuc95DmNbpnSJ8RmzW+Zsp+D7OU6Glj8NTqPcAS+o5jnEgEvDWR8Ij8Ik7wtnlmFs0wPDTY0WF9I3PO5MKZUwQPid8Q42mFuwNETANU5rLCyxGZ4ANa17dDG6fg8TTI/K0gcIVbK3ONwLKrdDmAHgQ3Y8w4x/fDgsziModTMPBF4nSYPQrOrIPnxNGR+6YYnE5KtBQ1Ke3L+vsj9gKpYCl0L1AlKVM+wlI4EpYCl0L1C1JAqccEeSH2MoYCl0L9lClLUpbsIeR9kDgjyRwlDon7KLKOpShgTyQ+yHkhhKHRP2UYuQUk4M8kEsLkujfsrl1GRy8/8AYoCnyHS4khVmExTjq1PIPh0+JoF3AOm0mxJtyUo1qcEis/ZxaC5s7SNXhte0dDtdaYjKt4lK1QDBnn5HiCZUOpjQHQSOBHG8GT9E0vYZiodn7up3LQdJ+HYkbG9xyKNRlDVHemNQBMMPh0+TTx4/7oiM7pY0G5y1jjqMQJ3EQSRIJO0gjn8ip78ybWY3S11jMlpEz+kjdQsBQa5jXFgJv4tLeDjtZSTRncH5fUXTXTahEHZAPixmd95/uyLKgDhIgahxt1lPFOQbH9vf9UG0LmQT1j6AKHEjdXGIzWiy7qoY2Y+Lwg7G+0Ka/Fvj4dXIgiD0usrVwjXRqYCAQRIBg+UjqlVwjT8Wu4LYFQtEEAEwOnpKtCr3CaW7LRVc3ZSEv0MP89Rur2uZWer9tqVU92wmpqtDGSY2mCQRuLkBQx2ewwiaAd/UNX191Op0GN+Fmm0ANY0Wtbbb9k19TfIIBoCdqg8CI/Kf7/4S7wAmB5yRA6AJNA38W/IcOKLdJ2cZi1reigxJ+JB+ImTB8oEeyeMRJu39/omPLREud/p+pSaGzYv230D+/wDlDGhiThiWjhPE2Te/BvHnsPnIREXGo8d2hNLADOq8RYX6yljSxJ3eCBpEXEyRx9U+RN45iYI6EIE8C/pDTy2R1R+L2aUcYRuVyNUQY3Avu2/t9E8VG8NzxvbrCIf5/X1gJrng7ECImQTI48oKV2pXSfH9z9Uk46Tefkf74JIXCGJMIvsPYJ8bWHsEkkxFIUxyG/JBzRyHHgEkkQgnU9k1+5QSSKKTnGAuTahjfikkm3QK6m49ki83ukkkCinF55pzSkkkkm6ZInkUeJSSTkk2LFPYkkkUkhsf75oDh1KSSCSR3KZU2SSSKCLESLnfYcTySSTQkVwqPNropJIlMX//2Q==</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Shahidullah</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2023_T20_285</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>49</v>
+      </c>
+      <c r="E46" t="n">
+        <v>43</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>114</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="inlineStr">
         <is>
           <t>Allrounder</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFBcUFRUXFxcZGhoZGxkYGSEXFxoZGxkgHBoZGSAaICwjGyApIBoZJDUkKC0vMjIyGSI4PTgxPCwxMi8BCwsLDw4PHRERHTEpIyg0PDEvMzEzMzExOjExMTExMTExOjExMTExLzExMTExMTExMTExNDExMTExMTIxMTIxMv/AABEIAQ8AugMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAwUGBwECBAj/xABDEAACAQIDBQUGBAUDAwIHAAABAhEAAwQSIQUxQVFhBhMicYEHMpGhsfBCUsHRI2JygpIU4fEzU6LC0hUWFyU0Q7L/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEAQUG/8QALREAAgIBAwMDAwIHAAAAAAAAAAECEQMSITEEQVETImEycaEU0QUjgZGxweH/2gAMAwEAAhEDEQA/ALmooooAooooAooooDFaswAkmB1qM9re2FjABBdLF3GZVUfhBEyeE7uJ0PIkUx2s7c4jGIyMQbLMGFvcAR7pOWDGkwWOpngKWdSPQl3aFpUNxriKi72LAKNJ1PlUE7Re1XDWVYYcG9cGkkFLanrPiPkB6iqNN+4VCahN4WTkE8hMb5+db28K5aCDPPfv3H5VGztIsrAe2W8G/jYe26n/ALZa2V145s0iKnWwvaHg8QhLv3DLqVukAR+ZWHhYaHkdN1efFs+OCB7sxw3gR9a7MNCuVBjUjlBB0+eX4V2xSPTmC2lZvAmzet3AN5turx55SYrsry7gcXcs3lvWrjJcQ5gQdTxKt+ZW4g6HWvQHZTtIuLtqWAS4VzZQZVgDlYoTvhtCu9ZHBlJWcaJHRRRXTgUUUUAUUUUAUUUUAUUUUAUUUUAUUUUAUndbKpPIE/AUpXFtW7ks3GiSEMDmY8I9TAoDzJ2p21dxWKuXbpJLN4UklFVdFUAgaATw3ljvJlvsWDqrCOX2PT40kqw8mI11XUR06fpXW79ZHw8q4TNRfjwxBXdxVhxH7UrexYDKynQjKfkQfMeEjyNJXcO1yMqy3AgTPSlsJsO6zBSh14c+dQckicccpcI485Nxn3ZoPTVhP0alLGJ8bseLfIljP0qV2+xN6DA3gb9NQflNc+O7GXFQREjhP39xUfViT/Tz7DINbh4iAR55iAfh9alvZPb5tXMMmYjJiM2vu91cAS5w5AmN2gP4QREcThntmCCOHn60gHbRgYKkR5zvqad8FTTWzPWisCJBkVtTN2YzHDWmYEFkT3tDAQAEjhu+EU81MrCiiigCiiigCiiigCiiigCiiigCiiigCm7bmHa5hryISrtauKrDeGKEAjrNONFAeOQ8H70pz2VgjfaNyjfrW3anD5MbikMDLfujwiB/1DEDgIjSnPs4YXQRrVeWWmOxfggpT3JrsHC27agKoEceJqVWETTRZPTWRr+k1HNlnjuqTYd1jRhXnq7PTdJCt19Kj21R0qQ3SoElgBUd2ptfDDTvFnzqUk2ci0uSKbbsBlOlRSyRbuLcgPkZW7tvdaDuMz8wal20cfaacrjXdPGag+PQrdI8iPI1owWlTMvVJOpI9W7MvK9q26RlZFZY/KQCOPKuyo52BvZ9m4QwR/BQa81EE/KpHWowBRRRQBRRRQBRRRQBRRRQBRRRQBRRRQBRRRQHl/2i4c29pYtSST3peYjS4A/ynLPSixmW2ipoTpPLTX1p+9sOFVNpF1Bl7aM5MRJBQR6LvPGk+z2FVwJE6VRmdKzX0yttDN3zbmxBUSFkSACd3GBuOpgaHWuzZpvWirqXIcB1J3Mp4j4HSpbh+yyySuSCQSrLmWRuJEwfhXbi8GttVBjgJCgAADQKOA3xVEppo1RxtSuxDbC3HsLkJLPAPCJqE3dkvb8Zsm5nmCBMEMo8c+4CCWB190aCSRZRsHulkRB+XCk7ezLd1ZK68wxU+sGoQnpJzgpFcWdmFne2EXT8Q3HqDxpr23hyrBjvCkfA1beJ2batr4Vg8TMn1J1NV72mwoa4ixvaPiJ/SrMc/duU5ca0bF99l8H3ODw9qZyWkEn+kU7U0dlbhbB4cnf3SAnmVGWflTvWxO0ec1TozRRRXTgUUUUAUUUUAUUUUAUUUUAUUUUAUUUUBT/tdwHeXu8iCllAOZ8bmfTWop2WxcQZ4AfvvqzvaTsp3QYi2oZUUrdWSGybwyx+UlpHWeBqm9nfw7j253GR5HWs2SLdp/c24pL2tfZlsbPxQO81wdrdoG3bV0QOZI1MRI0P3zpnt4w20nfAP0/2pkXGXcXcAuC4QDIUDIN/AtAO6s8Y+eDXKW9Lk7x2vvGwbZCi4fxAykczpM7xUk7LbWa5aJcoXnULoIgRoddd9N9jsxKaYTXfme6Ru3Hwnrwpi2hsa6jZbaoHJ4XCAN2+Vjh86k1F/BGpLd7kv2pjJmoRi3zX0kjw5nk8Aqx9WFOuGa4qEXfeHhPmPrwrfsXsNsbjWfw9zZym5mnxZmJCAcZyazw513FBts5mmoxTLh7Pqww1kOIbu103cNPWIpzorNbUqVHlt27CiiiunAooooAooooAooooAooooAooooAooooBO4gYEEAgiCCJBB3gjjVJe2PA28NiMNctW1tq9t1IRQq+BwQYGn4zwq8aqr26YPNYw938lxlP96gj/wDmuPglHkhmz8eDb8RnTf8AQ13Li+8VSpKuANN4n74VXtrHOnhnSnrZu3Cu4wY+RJn9KzTxPlGyGdbJkifGY8wAXA3DKIEV2WWe0pa54nP4iZjSa5bHaTwiSJiSeO/h6A/5HpTFtTa5d3bgZA13DeB8wPhUFBy2oseWMd7O+/tDNaYsZMkknfwI/SrR9kuxzYwPevo+IbvSDwSALY/xGb++qO2R/GxFiwfEt29bRhukNcUEabtDXqe2gUBQAABAA0AA3AVpxw0mPLk10K0UUVYUhRRRQBRRRQBRRRQBRRRQBRRRQBRRRQBRRSNy8qglmChRJJIAA5mdw0NAF66qKzsQqqCzE6AACST6V5w7bbdOOxbXhm7pTktKZ0t/mjgWMsfMDhU+9qPau3dw64fD3g4d/wCLkmCigkLmiCCwEgHWOU1VSjWrlhdPVsRWRWmjOI2XnEjfTNcsspg1OtkKHT5Hofv60htLZQO4VgWRwk4yPRlhjOKlEiKYhwOPx++vxrVg78KdjsvWuhcLlEVN5V2Klgfc6vZxhP8A7lhZ1/iT/ijN+lemK8w7K2m+Du28TbCl7bSA3umQUYHlKsdeFeh+zm3LWMw6Yi0fC2hU+8jj3kbqPmII0NTg7VlOWOlpDxRRRUysKKKKAKKKKAKKKKAKKKKAKKKKAxWKa9tbcs4S2XvNH5VGrueSrx+g4kVUfab2g3sTKIvdWTplVvG4/nYDd/KumupNWY8Tm/C8kJy0rZWWF2n7Z2rCFLLrcvHQZTmVerEaT/LVRYrFXHd7ju7O/vlm1YTIBjcOQG7SN1YweIttzB5bj6V3PgXIByEg7p+9K93BjwYIXqW/d0eJn6jJKdSVfA13cMChj58CN331NNJFSpNnNzEceYH60z7awPdsGHuPu6MN4Pn9R1rN1WfBNrQ02W9HlqTi+/BnYWOFq54/cbRun5W9NZ6HpUpxaDpUEp62RtSALd0+HcjH8P8AKf5eR4eW7x+r6dy98ee59F0mdR9suOx2XLIJrkxSaQBThftlda5ChO+vOTPRaI/tS2AmXp9/On72b9qDgcRDk9xdhbg4Kfw3R/TrP8pO8gUy4kZ7mQa669FB1+J0+NZxWG3so906/wBJj6SPSa2YpKLUX3MmTA8qlKPKV/ueoEcEAgggiQRqCDuIreqc9mvbU2iMJibg7mItu2ndkbrZP5DwncdNxEW/buBgGUggiQQZBB3EHjV8ouPJ56aYrRWKzUToUUUUAUUUUAUUUUBimLtZt5cHYNwgM58KLzbmf5RvPw40+1R3tL2wb2MdAZt2f4YHDNvuHzzeH+yp446mck6RHNq7SuYi41y65djxPAcABuA6DSm8rSsVoTWyiqzTLH39akuxNt//AKrx/pc6kcg3Mdd/DkRH45f80AadPmKhkxqcaZGWOM/qRNg88IjeN8Hz0rnxuGF1GtvuI+B4MPKuvsFaTEuyXSD3aCVkhnUsArA/ynQ/1jnIm+OubPwq5bvcqRDhPfuEjcQurN9K8d9Pl1NWe+p/wzElpxJuv7XyUXessjFHEMuhB+R9a0FWN2rxuzcW7kOEuKqnvmVsl2NCi5fESBHATwmKrfH5lJa37gMDQZo4MQZ0PKvThOSjUlueVkUHK4bLx4HfZu0TAtvJUbmGpQcm/l68PLc7YzE27aZT47jDw2xv14mPdXrx4VDrW1dAtwOQeE6H4EUm+12t3M1okKIIDiSOgmdKx5MalK6o14s+mOlu/nuSzAbNFtCH999Sf08q6zsVhabEb1DLbZeEEe98WVfWt+ze1lxaHMuW4kBo905pgr/iQRU3xG0sJhMCDfEgyO7iXuMxPhUTB04kgACazxxzlJpmuPUwwNTW6v8AHcp3G4U23jgdVPTl6ftUk7K9rcTh4tLc8M+FLniST+HXVQehHzppv423flVVrYzSmY52HIMQBPXT6VyDZt4Kzi34VZUYg6BmBKnyMb+or0cebTCp8rm97MHWdIpz1YHalxXKb7MuTZ/tEtnTEWntHcWXxp5ncR6A1L8BjrV9BctXFdTxU8eR4g9DVIDB3Ftq1xWj3c+UhGMc4g8aU2btG7hmLWHKTwGoMHcwOhqj9Ril2p/ijPPoutw7yjqXlb19y96KivY7tYuMDIyi3etgFlHusp/Gk6xOhB3EjUyDUqqbRFO1Zmiiih0KKKKAxXmDE4rvLly7/wBx3ua/zsW/WvRfaXGrZwmIutuS055ScphR1JgeteabGkDp9Kvw9yEhcNNbZZpIjiNeY59R1pW04Oo+/vlWgiYWV6j/AMh5c/r51tPEaj9Onz+9KUdeNJspHiXzK8+q9frQHRs7HPYuLdtkSJBBkqVZSpDAEZlIJ0n6Vy2TEeYHX8p+lYYTBUjXVeXVT0PypNH19R5jdI9CDUWES3ZOwsPdw7Xbl51cs9tURBAcKrBnYzK+NTAAO+DWU7E4hmCW3w10bmZLuiTMhw6gxoSCoO412dj74OExqsYhrDL/AFFn+oWPSn7ZVoK5VspFy0txZ/MpzIOmqsPKKxZM845HHsetg6PFl6fXupJv+vH+Cr9ubHOHutZdkYA6OhlDI3qeWsEcCDTLiMNGvKvQeycKt5hcNi33DJnyOBcHfMxzkZhI0EEwB7vLSmu0GANjEXcO6wVZsnIoSShHPwlfnyq3HJTW6MOfF6c2k/8AnwKdh7ot3rhZoQ2nYn+ghp+Aaufb3aBsS/eMIRRktoYJVeA/qO8ny4AU1LfZAyj8QK/2n3qTuNBCqJfnwXy6/fSuqCjJvyQc9UUvBrevuvhUsoIhokBuJUxvA00qWdn9s4zB91cYDuCSe78IRxHizQCQ24hjMEDeJFMmEw911NhBmE5o00Mxmk+fExr609//ACzeQEeHOMoKhvHmIVggEbxm5xIImYBqk0pe5pfHwSjde1N/uTC97SbVy5bR8KRazL3puEOyj8yIF1j3tdTGgpwu4jZeLumLoV+7MSDZtsSPCZdRmYcgeHGNKx2heuPc/iiHUKDK5W03ZgeMHeda52QMMp4hh6jX96msMZxVr/ZKOfJil7JNDzdxl/AYwOPDdt5ZUmVZSqkqxEyrKR8QdCKvrYe1UxNhL9v3XEkSCUb8SNHFTIPlXnPau0XxN5r1zKGYLmCyFGVFXQEkgeEcTuNWB7HNsKLl7CtoXHeproWGjr55Sh6helSljqC+CuWRzm5Pu7LeoooqkBRRRQFae2rGsuGs2gYW7cJfqLYBVT0zMG81FU4jeEN+UyfKNflNXJ7a8KWwtm4B7l2D0Dodf8lUetU3hDwPH9K0YuCuXJ1kcaw1v8SaHfB3Hz5HrXTgdm3WlDbZQqPcDXAUQ2kUsWDMNdBGm8xTthez7BbTu6rbuPZBy6slu8728xkAAhrbCNfeXXhVupHKYyWbwPhIKsN4P6cx1odspn8J3/ynn5H5etTPDdm8G7PaLO95HFqHf/T5bnjVu6bIyu2dQFRiARrJqGQys1u4IdSVYcJBhh5yCK7Gd7BqhK8mU/ysf8X4N5H6+dc+aGb0P7/OfjS+XL/DbVTop/8ASevI1xqTmM7wIPmCdfXf60kET32cdo8PhTfGIJUXO6ynIbg8HeSDlBI98R6+s6w3a/Zt0ly6qywAblsho1gqcpMb+XlVHIda6LbwPl9/GqZYoydsnHJKPBeFramGFoizicNbteMT3gBBZREBj4YYsYjdGnOBe0XZIWzhboJkfws5GWVZTctRBIIA7xdDy6TEJ3+hpXFYu66pbe7cZA2is7MqwpCkAmBAYjTga5HCotNMtedyi4y77/NjIwhyeIE+vD/yymlMHhoPPrzNb3Lf8RhyAHxk/oK77G8eU1aluUD/ALCi3YZwPFcuG2WCqQFYEMrkywPEAAaTqdwkdjs0roj98iXLiyqkEhQdVLvmlGOh0EaDQjSolsO9Kta3MWz2znyDvA6iGBYKfDMfi0MTNS/AdoLSoLd9LhNlDBQBoRGjLdDRqphdDqOA1rDP1Fq9OtV3v3RojpdauK/JFtq4fMGDhVuWpGph3GZ84JJysVJY7pO+dYLAW39M5+VSvG4o3HxF4wBcV5UAspzETbDAhQQsHMORIDRrDrr6XD0YfpWjDy0uE/y1uivJbSbEUOn2JI+gH31d+zm0DhcTYxBMZLiluHgbw3P/AAZtP2pttp8B8+XkOnxrN55kDUx8Op+/9r623Kz1VRUa7AbWfFYCzeuDxwyMeDFGKZx55ZPUmpLWJqiwKKKKAj/bbZf+pwOIsgSxQsg/nQ50HqygetU72YtquEDJbzXMQMVbNw6kG2ge3bUcAYknefQV6Bqh+0OJu4F8Ts+0otjvnu27o0dbV5BCWxEJAzJnBnQgAb6nC3sgmluzt7T9orZ0R1xB73EMYZ2tNauXFuW7bG57xlEBCeAKComaal7Wt4e6sWUtKmQWbga8gPem6GYsQxZXMjWBuqMYVtMvLT0pYLBngd/71pjjiVOTHfCbdxNu5cuW7zo91i1wrEMSxYkgiAZYxG6dKbr6ZtTObfJMkniSTvrUaeVKGrEkcEV8SlWGvH964sTZKvm3gjfxkc/SPhXe68RvpHFDwE8v3pJbBGdi4MXsTatEkC5cRCRvhmAMdYmrS2h2M2XbQG4XsgkgN3rEkwNIcNO6dBVcdjCDjsKOPfKfhJ/SrK7fIO7tXCJhmtn+9ZHzT51nlbklZfigpSpiX/02w1xc1rEXQGXwk5LiGdxlQsj1qsMQhUgHhcyz+GRvg+hq4/Z3i0bCBAxJtMyuCIgk5hHSD8jUI7NXLl+xibF1V/0i27l/vSCCt+FKANMHnlAn4weRlJNpnJwSdEKxDBjI06iN3WeHL1rs2dhrlyciM+S2ztlUtlQHVmjcKlWDKXkw+Jv21FnA2nTKAIu3u8HdJqNSTBPUSdCaz2HxgRdo3YAH+luNA3aEmB0lqk58vwQoiKDfvHEcNOY6ftXc+3PDluKtzwsqn3WWYzGV95hEgnUFmJmYp42xgxYubNUiSLOGDcQT3xJB6SzCnPG4zDYrH3MO2XLexlsXGjKDbs2gFXNze6CmnCd0g1CemdNr7eUSi3HgiWI2qbxMKqW1YsFXTWABOsTAHAUzZpT+pvlNWp202mmHW9hr2AtpYa3cTD3baie8yfw/dHgObhoREwRJqql3Io36/tPzqWNRSpKkcm23bFWP4V0+vnr9T86GAVem88z5c/OsBxqBuG88zyH5j1oAzHXcPrwHpx6+VWkC6fY1tI3MCbTAA2bjKI/I/wDEH/kzj+0VYVVT7Em//LEjfa047nExy0q1qyTVSZYuDNFFFROhVR+23AZDh8Yo/NZuRxB8dv4Rc+NW3UB9s0f/AAxp/wC7aj/L/mpRdM4yk0uAnMuvOOI6jga6lcETTNh7AJmSPIwacrKMN506761xbZWzpVq3BpJaVFWIiZpO8kqw5g0pQaAT7PDLi8PcWc63UBHE5jl0njrVubfwpxWEa3b1YuhEnLBVoaTGmhbhVIY68bdzSdYI/wBvUU9bL7VbQtKyIzwTm8Vs3GBJ1hmBPoZ31kyfVae5fjbW6LW2Hsf/AEGCxDs2a4bdy45E5QVtnKqzBIGup3zUa9n+FujD3/8AUon+hNtnlypOdSAzLBlQArEloghSvGo/j+2mNu2nw90oFuCGPd5LhXiAZiDx0qM3Mdda33Ru3DbJgW87d2NZ92cvM7qU6d9zknbtkyxeFW3a2dYuuUt3B3t06SpuuMznTeqs6zuEmte1GDs4KzdSxiUunFDIqpB7u0HDtmYMcxMIkwOJ8o095m8dxmbKoUF2LQq6Kok6Dp50y3HZmJG81NxpIjdlidq8Vbu37GLS6ptpZtEWwfGbisXRFA5sRP5chmmjs/gEvX0tXruQXS2e5AM3GkhddBmYxrxMcaZMJhxbHNzx5TSmIcAZd/PrXVGkGyS9rHxlmw2DxLd4hup3LlszFEDFiuuYL/0xDagsRuqIq3AaTpPIDefnHnW2Lx926w7269zIMiZ2LRPAE9Y16Vsib/gPIf7yaQRyRlE9APr/ALVkaVvECK1irThJfZztkYTGoztlt3F7q4T7ozGUY8gGCieAY16CrywxEEc9Kvb2XYx7mzred85RntgneEUwgPOFj0jzrNlj3JRfYmVFFFUkzFVv7cbxXAIv576D4I7f+mrIqB+2PA95sx3jW1ct3B/lkPycn0rq5BQmFdd7GBvn9KdRrHL730wIJMdZ/ena3iGYwq6c5itUJFckdeb41srcDPnGlIkjcrRziCfnQLbj3Xn+pR+kVbZA6R8axccAa/Hh68qRFxhvhjyUa+pJgUX7pC+LIpP5m4fDXypewJT2LIZrqGdysI56g+X4al3+mHWfOq67E7Vt2bzd5cVUZMoJOgOYZQx5aGDwnWKs8IDrIIiRBmeURpFeN1Uf5jfk9bpX7Er4GPHWFZSrKG6NBHzqL4jYFosGSU6b1k8Bx3TxqeNhgSZgeX+1NF62AxnWs8Zyj9LNMoQn9SIptrY7OkW1QRuyllB5ghiwJ3mQViOM6cj7Kt2bKudbpKiDwPi3Rw049IqXPYG7nSV7CqwIIGnDh98auh1Uk05O6Kp9JBp6drIts3C57gXed7f+3TXqYM5Q0ais9oNlpYTODMzEExvAiGkj3h+I0/ps0Wy3d+DMDu+Gk7jp961H+0Vh1FtHP8ISBlESRrlOum6fTpVy6ic8q0vbx5KJdPDHiernz4Iut/UdDJ6mngHcRuiacMPicKq5cjQd4yr+h1ptKhSQhDKJy/hJG8DXdyrZinJtpqjJkhFJNNM2ZxPWiOdaKkamCTvOn77uQpJ3M6yPgJ+v6VfZSKhvKrY9i+N8OJsHgyXR/cuRo8u7T41UYeRuJ6afI7j6E089kO0TYHEreWChhLqNP/TZhLLyIiRw0iq8m8Tq5PStFahpEjWtqylgUy9sMH3uAxVsb2s3I/qCEr8wKeqQxTqEcsJUKxI5gDUfCgPIZaCD9wadbEKOZPAcOh/Wmq4PCPIUvZuuVVAYBmY0PWTWiMqZBqx5RhuHwFbljXPYUAaCB8z1NKyTu+P7VeisykmtWVAfcDMdxbX66Adfqa3Zgo+9TXI1zfOpJy+nGPp8KMGzoH95QdGjTLHh8IEeROvOu3CdoLtm2LVt/ANQGlioPAGdB0602d5vPIN/k3hHyDGuS481VOMZKmiyEpRdxY9v2nvN+PjEKIMHcd+p6dac9n7ZuXPxhuhGtRLCiM7n8KwP6m8IPoMx9K7cRAVSpytCmeJEKIPPVgfSs2TpYyXt2NWPqpRfu3JyMc0DMvqPL/itxiV1qK7M7SFAFuiQYhhUgtYq1cXQj9fvWvPnjlB00ehDLGa2Y5C8J+/vcaa+1CK2GY8VKMP8wD8mNZuJcXXeOnl+1NW28ZNkrzKiP7gT9K7hXvjXkZmvTlfgjrH7+/SjPp9/e/61q5rSa9k8QUzaUB+e771pLNWualg6VcieYOo58j58J8qxcIZDG+OO/Ubj6Umrag80n1H/ABWgWGMfhJEc1Oo/WjOnrPCpCIN8Ko+Apem7YO0ExGGs30ELcRWA/LI1X0Mj0pxrITCm7bxIwt8gwe6ua/2GnGm3tBbzYTEKN7Wbo+KEUB5PubhRYuFSYOWeMT8K3ZZ16aUg2hmr3zZFDphrhO+fUyT513K1NtlswBG+uvOY6/SrovYgzZ31nloP1P6enWuZjpPE+FfL8TffIVm6/AVzu+s8hA6CjYRtcP4RuX5sf2GnxpMrWneVoblQbR2jryiFQ8TmY8hwHwn/ACFa37+Yz9jWf0UelcrXDWpeuOZ2hZ3kev6R+1dGGdrcFW++lcVthMkxSlzF8FHqaoyvVsXY6juSnZ23/wANz4/vXLt/FK7Kqxp4iR13frUXNwkyTrSi36rxY4xlqLMmeUo6TqZpNYpMTGbgTE8J5TundpRnrXqMtG8UEVgPWc9ds5RsG908pHoa1V/FM8IPp/xWrPUj9nWwzjMfaQrmt2z3lyd2RNwP9TZVjqajJ0dSL19n2Aexs3DW7nv5CxB0K947XAp6gMB6VJqKKzkwpDFWs6Ov5lZfiIpeigPIFtpheIrS+tPG2MDkxmLT8l+6g9Lh1+H1puvWulXreJDuc9rEFfvWu3/WAim57ZrXuzUVNx2OuKZ1PiJpEv1pPuzR3ZrjmztG5brWMwrXuzW/ckHUfOuamDQvWBNdbYJhqPMbqUtoDowIPSDUlFvkWIWMOXnyoWxTtYVV3SSfSK1exqdKnoRGxluJBpOnO7YpJ8KY3fSoSgSssb2IY5Gu4jBXVV7d1BcCOAylkMMII1lWn+yrDx3sw2ZdJbuWtk/9t2QDyWSo9BVB9ldpNg8bYxG4JcGbj4D4XGn8pavWNVnSsMR7GcGZyX8QnQ5HA/8AAH51Hsb7GMQCe6xNp14d4Gtt0nKGFXhRXdTB56u+yXaQIAWy08Rc0HU5lB+E1ans87HDZ1lgzK964QXZfdAHuos6lRJMmJJNTGiuOTYCiiiuA//Z</t>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEBISEhAPEA8QEA8PDw8QEBAPDw8QFREWFhURFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0dHR0rLS0tLS0rKy0tKy0tLS0tKy0tLS0tLS0tLS0tLS0tNzctNystLTcrKzctLS0tKy0rK//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQMEBQIGB//EADQQAAIBAwIFAgYBAgYDAAAAAAABAgMEESFBBRIxUWEicQYTMoGRobEj8FJywdHh8RQVM//EABoBAQADAQEBAAAAAAAAAAAAAAABAwQCBQb/xAAmEQEAAgICAgEEAgMAAAAAAAAAAQIDESExBBJBEzJRYSIzBUJx/9oADAMBAAIRAxEAPwD5sAAdOSaEdCwA0JgGQEAAAAAAAAzly8oDoMkUriK0yiKteRj5fghK1kTKn/nx3yialcRl0kgJADK7oCdIA0IAGxMYmAgAAAAAAABNgMBZACZghZGAAAAAmMAOQGxAApSS6kNzdKC7sza965EbF6d/FeSjc3Tk+yKrY0RLqHcpJ67nDeQCSAcn5Zym0MTA7VZ92SU7qUd8+CAANWlxCO+SzSrKXQwTqnUa6Nk7Rp6ARDbVlJddSbJKAxYOgA5AbEACYwA5wB0AEoAAAAAAAAAJkVxXUFlkrMS+r80vBEphHXrc7b22IkA87EJJIYNIc3nYBDcvGBRf3HlfsAbEdtrBwov8AEo4EA8gIAyAEtCs4l62vcvDMwcXh5QHoGxZI7aeYpkp0ggDABAAAAAAAJmhAAAAZAAAAbwEqt5Wx6V1a19jGlq3sWa1XMn5ZWxqczPKYgkdfLySwpbdi/SopQy8J50I27im2Tv7HXLkluaWMakPTXJMOJHIJxO+fK8CjrpsAJdBSllsXKd04Pr2G06cSQkTqk3l9iNxI2acAD3GkSggG0IDQ4ZV1wzSMK0eJr3NwlAYjo5ZKAAAAAAAShgAAWBgAAQ3ksR99CYqX9TGEQlmzjiWewpU/Xj7klSaem5PZ0uZrwcWnUO6xuU1C0ly8y1fbuVKsJ7p77M9bYQWiwsGmrSMtl+DPOXTfHjxaHzqdGT6p/hnM4paH1WhwynJYcV+CC4+DKNTosPuia59uLeHPw+Y0KTk+WKzl4PUw+EZOCenNjOD1XD/AIRp0WnjVbs2YW2NvuRfL+HVPF1H8nzGPAnF4aefZ6mjZcFbTzHY9/O2Utk/sjiVBdkc/Ul3GCsPndfgry/SynW4JP8Awn0etQ8FWVJExklFsES+W3Fo4vDTT9is9NMH0PinDoy1wsnluI8JalnqsltcjNfx5jph4Bo0Va90VbihynfsqnHMIISw0/JvweV9jzxv230L2LIVJDlnQiUEAAAAAASjTENIAyIYMBGZxKfqXg0zK4xHVPwRKVVLOu+TWsYrHkyoP1aa6GxYRecdZPbsiu88LsUct7hyN+3pmdYW/TTp/JuW0UuphtO3q04hYt4Yx3NW3+xRt5Il+37OqxwTzLTnSUl5K/ySvCs17Ejrbk8GpdumkRSpgrjJzKtr4IgR1KJRuKJpzqooXcyUMq6gYt7TRsXNQybqQRLEr08GZeRNm4iZd3EtrLNkYsl1Nqxl6ImNLc2rOGII1VYE4YGxZJcucANiAAAAJxZBgkAgAbARm8YX0+xpGdxiLxF+cfpkSlnUZNPTqeq+F7XKc5a5PN28c/k9vwCnikjPmnVWvx6+1m1bxS8E8qmNdym6mDI4txCTfJDPlrYzVr7N97RV6ilewjq2vOpfo8Rpy9/0fO4TljMstLbXUKvGpx0jlfYvjFwzWzvpLrwe6T9x8qfR5yj5pT4xOeE8vzHOTT4VxmpGai5N5eFkTjhNfIez+Vjf2OnB5I7C7VTrsaOVjUrmq+L7UKqecEVzR0NKqljueZ45xlU9IrLEUlFrxBVqOplXiWpn3PH5Lr08GXccaUnuWfTUWzws15lWUObPsUp32u+C1b1k9UT66V/UizDqrEmvJuUI4ivYzLqn/Wx3aNZGmrJbiTZy0PIEuHOAwdABzgYwAlAAATEdCwA4okvuGSdPptlI4g8NeGe3VrBU4y3fKtfKKM1prEaa/FxVyTPs+V0oOLS3zhnu+ELFOPsZfxbwdUZRqR+mT9X6NXhy9EfYqy29qtGCnpeYXKsdP4K9lw1pt4Wr1fuattSyizc0Xy4TS0KazrpovXbPrOjTj68ZR5/iPGaEcqNLOzysY8l2fDmq6lJOrFNNxb6+/c4+JVyqtyW8XGvCK9aSdJr/AAmin8u5ZcsTHUMy3uOePPCk+TLWVt79jQso05tLHLJMt8Cu6dO3fNGClNRUoQ10XdEcfl/MjyRkk3usJHN+OpdYYmY/k9Pwmko69c6Gtc0cQT2Mixr8un9onuLtuLSehVFmiKK15xOMPTnY8bxavCTbyvZ5z+iTjVV8zeuTDpw5prLxl9WW0iVGWfhzO2U3rLl9+hwuDwb0qxftkn41a0oNp1J83NT5d4um4vmf5/ks2PD6cqdTV8sH/SqfTzIv1+2Pdd9Myvwxx3UkRW1NwljuWKFzJNxbylonuWJ0c6nE2+JWRSO4Zldf114wzRKro81VvskW0W0najJWY5JIYBk7VEAYAAAAAlAAABMYAC29z39pb/NjHVckYxfuz5+0ez4df8lvDL66FGeOIbvCnmVf4yxKio41U0kKxpelf5Uccelzxg1rFzTZYtXovYyz9rXH3tCjHCJRUti5C2ckc1aNQr04Z7Z/ZLc27nHDS8ZWp07Nx6HLlJLVnfMOJoyJ8JS6dX4OqXDMPK1w8s2KFPm/3Jp0sadVuRPREcsunRwyz8rTqd4xl4OYPJEO+Hl/iGhoeYdDPv7ntPiCHpZ5Tl1LayzZaxMuY2XNhSzhffQsVLdqPLzSwtuiJ6FbHUsJKR17SrjHDGjbJbEs5ZWOxpTo4XQzriOMkR2TXSvTjqzk7T6/Y4NFI4Y889ATGxYLGc2IeRMAAAAkYIYAABkWQGeo4JSjXoKD6xb1R5dm/wDB9zy1Wm9Gv3oV5K7q0eNf1vH7dcStJ0pRg0+VvK+xcorRFv4kk6koSXSDw/vsVaRj/wBXodXadoujybNCehjWeyNejocQuWZxyinO1zuacOhHKGM6Hco9lChHl0+5YbzF565z9ivUevuTul6euv8AwDbOrXW2DmjBy1S0HOUIYym29kss0uG1YfLeYtPs1hkxRM2iHmuOUXyt7HlOTLwe7+IZwVKTeF/0eLik2pRefY6iFVpOjRLEIYLFCn+yWrDCI2VVa9RYwZF6aNxIy7nUmHF5VFL1HRxSjq2dmqnTzcs7sAAMnasCHkTAAAAJQATAAkAADJbes4SUovVEQMJidPVf+9p1KSg44nJrL89yWjLbU8tafUj0djUyl+zJkrETqG/Dkm0blsWkcM2KMsmRbyws7mlbyxjO+GU6afZp0mKuzijnr56Ed1VaTxqyZSqV3qvA6l5haMrV2/z18Fat22EJ3sVKqcubdDrXWNW2v5CnQitW4rtl6mdf83PzKPNHp3O4lFq2mNqnF6uU3JucceleTz1tca9lrotj0NyuajLMcSzpk818rEsd8k74VTuJ5elsqiwvYsXPTYxrGbWjNSpL0lbuLM670Mi7maF7UzoZVw8vBbWFGW2oc0np+xsMAaoefM7kJhgAJQMBgAYBgQABIhiQwBnJ0IBADBvAE1o8TRtWssSxs9UYNConJYaeuzNynHmXnqjNn4s3eNG6zD0FjM04M8xYXmuuhv0K6awVLttWjVz4R3cYSyzNpzwT3E244OZdVlicUq1JZ+Vo+5jyvLiS5cpSXXQ9KqWF/qV52qlrjD2fQms6XRHLJsakcwjXp1U2/wCpUU3JY2eMabFi4nTTfJc+jXljKGqWxowpRwk8Pvkz7u1j2j9i72iSMcfmYefvbhuTXzM4WcpfU+2DPV5F4ynlG5fW8EtFqYLtsy16DjSu9Z/O2xbtSipLTwWZVHgo2c9UtkS3tbbYp+VfUKV3PUovVndSZxFYNOOssea/wbEAF0s8BiyNggFkMjYgDIAAEgxDAGcjDACMziM2+j0L9ZkUqSkvc3ePg96TMuLX1KjwieKmvsewtauifb+Dx1Wg6b5l0PQcEvFJJM8rysVqTy9Hw8kTw2riln1x99C5wu8zo/qS1RXt3yvD1i/0Ktb4fNHRrXTdGetmnJTncN9Vlp/aLKqZWh563u+ZYejW3c1LessCXMTpclJrzqSxx0aI6U0ybOInGlsWZt5R7NmPXtZJ55nh9Uelj5WxTu6O51HCZiJY07fTuZ1xR1NqVTGjMfiE8dGdblXKtCaiVbquc16xV+p+CyldsuTJo4vJ0OKA0xGoY5nc7IAAlADIBgAAAAAAAOhoEMDkAYs64O8eObzqETOo2irQ5ng4jbVFszRtW6esUpPdF+jxGEniUeV/g93Fh9aREyzWvzxDElQco4kilaTdGpjbJ6+tQTWmGYvEeH823sVeZ4n1aftZgzelm5ZVeaKLUez+k8vwa8cJck+qPUReVldD5a9Jx21L36ZIvXcIa9JZytHsO2unnD6o7lHQrVYZfbQiLOLU236Fzp1L1O40R4+nXlF66pGlR4ot3tvsd630r9pjt6aU/wAYKdaZQjxSOPqWOxWueIrZnPq7i8IOJyxuYV1U01LV1ca5bT9zFvrjOi6Fla6UWvtDUnzSxsWUVbaOpZL6Rwy5J5NiADtWAAAAAAAbFkASAMgPAgJEMAA5ZHuAG3/H/wBs/wDHOT7Vm3Irv6o+6AD156hmhuWfQ5udwAuhx8vOVv8A7RPXWH0L7AB8h5/90vf8T+uEq6kNYYGGGqyvLqZ9z9X2ADTi+5m8n7XVE7q7AAlXXpnX2xSqdBgdq47d0epMAFtOlWTsAAHSoAAAAAACGhAAwAAP/9k=</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Zahir Khan</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023_T20_283</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>20</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" t="n">
+        <v>9</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>50</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>Bowler</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMWFhUXGBoYGBYYFxcaFxgdFRYYGBYYGxcYHSggGB0lGxoXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0mICUwLy8tMi0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABCEAABAwIDBQUFBgQFAwUAAAABAAIRAyEEEjEFBkFRYSIycYGRBxNCobFScsHR4fAUM4LxI0NissIIU7MWNHOSov/EABsBAQADAQEBAQAAAAAAAAAAAAADBAUCAQYH/8QAPhEAAgECAwMJBgMGBwEAAAAAAAECAxEEITESQVEFEyIyYXGBkcE0obGy0fAzcuEUQlJic7MjNUNjg8LSBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIiIAiIgCIrdSqG6oC4ix3YymDBqMB5Fwn0lYOI3jwjBLsRSAmO+3XwCAlkWPgsXTqsD6T2vYdHNIIPmFkIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiALExGOYxpe5zQ1upJFo1Wo+07fduz8O4U3NOJeIpMJ0kwajhyF/EwF847R3gxNdxdWxNVxIgkuIB5jK2BHRAdi319szabnUsA0Ofo6rUkMH3W6uOuttNVy3bW++0MUf8XF1I+zTJY2+tmxPnK11xBuSfHiV6WckBW9xcZLjm5kmfXVUsquYZBIPNtp9NVS4cRwVdMzKHpte5HtBxWznO93FSm+7qT5yz9ppHdMcrW0XYd2/a7hcRDa3+C8xzLZOl183MGo4lUk8EPD7Xw+Ia9ocxwcCJBBBBV5fLvs39oNXAVWsqPLsMTdn2bRIgTysvovd/eChjKYqUHhzTyOhGoI4FAS6IiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCj9tbUZhqFStUMNptLj5CYUguVe33aJZg2UZg1qnDiGCSPp6oDh+8+2XYzF1MQ8kl5JEzYcABwAFgFEcUynVVUm35a+oQHhsfBXQZbredPLVVNpi5P9/kqqNEkWtzQ9sy3VqiAWi2n91Ux0QYtcn52V+lsmo7QQCpRm69XLJ49bEcLrh1IrVkkaM3oiApEzI109VUyiSdL3PjHFTL92awNmqmpsSs3tFug6yvOdhxR7zFTgyAXTvY5vI6njGUdBUtqYMa256X6Lm5MGCI5q/hsQ6k9lamSC05mnSCDaD4qQiPtFFr+5e8LMdhKddnEQ4HVrgO0CtgQ8CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAuA/wDUXij/ABWGZNm0nu83Oj8Au+kr5q9vOPfU2l7t0ZadJuWBB7YzGUBzsT++qntm7KL2AkSSYaD1/RQoq2sOS6Vujgoa2o4Xiw+p81XxFTYjct4Ojzk2jXa26eJHZFJjrzmkSByiVtOD3daxo7Mu8NPKdVuFDBjU8VInDMA0VKVSpNZmjGnTpvJGrYbZw+x9FIDCwNApNtMK6QOKr2e8lcuwgKuE6LCOFB1WzVsvEKNrUwDZeSi4klOSkct352OKbm1Wjskw7x4FauWGDOnDkuob70M2Ff0LT6OC5rjK4BAAEDhyvpPEfmtTBzcqee4yOUKShVy3q533/p82e5mAfVcbVahyt5BktJ8zPoF1Rap7NNhHB7Po0XGXEGo7kDU7RaOYExK2tWiiEREAREQBERAEREAREQBERAEREAREQBfNnt+eTtJsiGii3KYue07NPn9V9FY3Ee7YXcBc+HE+QuuE+26tg8SGYijiGmrTIZ7sfE10ku8ncRzQHKcI++XgQfpZdc3deDRYRyH0XGgV1/ZlVtHCMc6wbTBd4xJVDH9WPeanJj6Ur8DZxie6OSkqOHJ46rlzdq46q4uo0XwT2RAgDmZ1P58Eo7d2lSd2g+3NshcRw7S6TR3UxKb6CfkdUGFcq34fgtd3W3oqVBlqsIcOJBHyIU5j9qmnTc/LPLqo3TismyRTk8yzisDaTpzUXWflNyOWq0vbW3cbXeYLmjlLGiPWR4qPpbMr1Bl98y/H3jXR5A3hSfssLX2jhYmonbZubLvhbCVCOAB8wQfquWbOp+8xFNpAOeq0QbA5ngRPDVdAxVGsMBiaVZweWtlrtOzIgeRC07dzCYlj2YylRc9lF4eXZZb2DJ8VNhFsRkm9/oiHHt1JxaW71Z9fUKYa1rW6AACOQCurnW5ftBOJFH3lOG1ajqQeNA9rS9oPQtBv0XRAVcM09REQBERAEREAREQBERAEREAREQBERAQW+e0m4bBV6zhIaxxEgkTFgYvC+f8AdTD+/f72rTYalaobOZ2GMa0FxDOZtF19K4zDNqMcx4Ba4EEHS643tjdn+GxDXNGVpcLjSSC2I4fD81DXvsOxZwludVzTfaNuxSwxbUpty5nQQ2chlpIIHwmbLaNmYLOym12gA15gCNVr/tD2iamVuYlrHd37MOWwbOxOYNg2gfRUqzbhF9/oaFKKjOa7EY9bZtd1Q03VCKZBAbTdkMkWJMXjkrmydgvpNq58jnuJLTLuxeTABg8oNo5rZ8NRkCInhIWS3AONtBxga+JRVJpWR64Qk7s1bZLHU33vblAt0kqc2ti3PpwBw+oVmq0Nc5sieAHBZddnYBUErk6SNNwGzs3vWZW9sWJb2mGQZYc1tPMWWR/6b93QFABpJLXGrlPvBlAa0Nd8IygCOPGVseBwgqTA0No1HNSNTClrbkzzU6qTsQunTT0NWxuDBwz6c3904Tztb5hSO6rKY2VRNMQSzMItLmvym3GSb85UdtnECmyo42Ia6fSyu7lYh5wNFjh2WvaGnmA79AuI/hvv9D2S/wAWL4fVGz7nblOZUp1amRlGk99ShRZMl1TMPeVCeIa4gNFhJXRVaoMhoHIAeiurWMRu7uEREPAiIgCIiAIiIAiIgCIiAIiIAiIgC5Z7U94msrU8PlMNLH1HRZofLWH1XU1zT20btmvh216VNzn0zlqZJLjSN3dj44N+YvC8aumjqEnGSktxqe29lCrTqOc0N7EucLAkC08ySorZFTKA0HTTyWqYnebEOaMO6uTTDg3QBxDTADjr4zdTuEeQb2MSPX81SdJxVmzTjWjN7UToWxcTcF1+X0UntXFOyFrHBrjx5cz4rW9i1rjwUdtrF1HvcROUdkXAAGn1UUU27E0mlmZlXatKkQ0sLo71SQPC2plTOM3hw4pXgSBqD+S0j+Cznt1gJ4DMYtrfivGbBMy7EtLfhnMSfEaDgu9iJy3UbNu2XtFpEtlj+R4x9ZUpisaXMvxC5xUY6nIFRjm62Oh8+H6Kd2Vj3OplrtRdptxn8fquJx2Y5M6Ury6SzI3emu0sIe6Gvc0HoMwmekCFuGB2e4FjaQDmS33bRpEjUdB9FqlDZwxWKZSe0ub2nOaDHdGmaRAkhdh3U3fo4WmG0mACLnmfH96KenQ2opt7yrVxOxJpLcT1PRVoiuGcEREAREQBERAEREAREQBERAEREAREQBeEL1W3vABJMAXJPBAafvZubg8Q2a1OmCDZ0Bpnh2hB8pXFHPyvk3HA+f7K33eEPrmsWVXt94XCWu4EmLG2notBbhHScPWs+Ow74XR+7hSY3CzopTecd/Zfij3AYqnWcoJ2lu7bX07zYtnYiMpB/sV7XqsqAh3ck63PPxN1qzMY6nNOo3K8C17O5ERrHRXdm1y4m4PUlUOa3mjz2iNiwlDDk5XObbnEhZzqOEi9Vp/qGg0tKiWYGlVcWntEgXF9evH9EdsBjDAps0OtusxGngVzZbyfnZW0LQFEucWEOaLTEtGlvGFXTxzDIBvMEjSOnLVY20y1rbAMIkQJ1ki40hRm7GDqYrGMw1I3cZc4jutEZna8uHOF1zW0iCeIad2dh9leyOzUxTxd7srPut1Pm6fRdCAhY2zsEyjSZSYIaxoaP6REnqstWoqysZ8pOTbYREXpyEREAREQBERAEREAREQBERAEREARYuPxtOiw1Krwxg1J/dz0XMt4t76mJllLNSw/E6PqefwjoFPQw86z6OnEirVoUleXkb5j95cNSzA1Wuc34GEOd4QNFpW1dvOxLi1xLKRIytkROgDjxk81qVAcYgaNH4rMq1I4WNirWJ5NnGG1S6XGLXWW9J6p8O08wPKFJ1VCqnB3Vpxk7we5taNcb7idot4cvnwnqVH7Y2Q2q2COoPEHmDwKtUdoxlDjYmA/iHaNa4nRp0nmpmnVm3LXy4rnAY1VIJN3T0b1/LL+ZLf+8lfVMj5Y5Nnh6sqkVZrOSWmvXh/I3lKP+nLLquLfO9r4Nxb7uuJjuVdI5ZiND10K1r+ErUX3aTyI6rs2IwrHiHAEFQdfYop90ZmfZ1jw6dFFisG4JzoLLfH/AM/Ty4HWD5RhXap4h2lul6P0fnxNN2ft33bycsEnkQf3+SzK+9IMHMDrBm4nUR+fRbKdmUnjug9P1UZit3aB/wAsA+A9Vj/tFN5tG7+z1ErJ+aNM2jtQ13QxtiRYCP31XSPYXsmMRVqnUU9eeYgfQFa0dlNacrAAto3M2yMJiSBdpAD/AAJ/C5VrD3r1FTh2vyKeJjzFJ1KnYvNna0VqjVa9oc0y1wBBHEHRXVIVgiIgCIiAIiIAiIgCIiAIiIAiIgCiN4Nv0cJTz1TJPdYIzO8By6q3vJt5mEpye1UdORnE9TyA5rk+MfVxNQ1ari5x9AOAA4BXcJg3W6Uso/HuKuIxSpZLX4DbW2a2NqZqpho7rBOVvhzPVW/dzA4clnUsCANF5Vw0LdhGMVsx0MWdVyd2YhHaA4C6rc2XBp4g+p0SDmJPFUsfDwTzUliMsMYHZqbzYzPQ8Y87qV2finGGu74tm+1GgPisPG0slWPtXH79PRZOCptJ7Xl48uq+QxGFqw5Q2aK6M7SfC18891mrpqzTtY/QMPyhQrckKrXecLxWje0lZJX12otKSeUltbWWalWVLfUclWDKwWP7RB15DiNZCy6R69VuU3K7hPrL3rdL0fBp7rHw2KpQSVWkrQlotdmS60L9msW9YNPW6WNicGR2meYWHUJ46qfLgAS4gAak2A81qeN3lwj6wpU3Oe4mC5g7A14nU+Cz8bybGu9qnlL3P6PtXianJnK9Skubqpyit61ivVdnkVV4voFB7Ne2pWdle0VZiHOAkASC0mxEcJBnmprG0i1hfmBABgjitOqMGem9wsew6eTu6fI281m4SlUo4hRl0ZaefuaZuYqtCth9uFpx177eTTWvHuO07nbbdTIw9aWg9wuEQTqCDwPA6St+XCNn7RDKfuqgNRhGWmJ7VM6ywnRvMaQFtG7O+lWmAyqDVpCBn+No53PaHzW1XwdWV5WV1rbR9q7eKduzswaeKoxSir27c7dl9GuD1Syel309FGbJ21QxIJovDi3vN0cOUg381JrNlFxdmrMvJpq6CIi8PQiIgCIiAIiIAiIgCiNu7ZbQbAh1QiQ06Ac3dFm7SxjaNJ9V2jRK5jWxj601H6vOaOnwj0/BXMJhude1LRe8p4zE80tmOr9xh46o+vUL6ji5x4ngOQHAdFk4bDwq6NHiszDsstpy2VZGFKTbuy2KSt1qYBjms8MVjatOKecatg+QN1EpXlY8sRdTDibrAxWGLSJFjoVP1ac35qwKQcDTdx0PVSxqbwRuOZmo03cWnL1hemhLDlsW6K/hwQ003C7X/oFffT93UBHddr0Xadn2/rf62Dbtb7+8l5Ix8LVDwMw7Q48fVZT6Zy9l1/3zWY9jCe2IPB7R/ubx8RdSYwrGNY1tRgqauJzGQRLYYBMwZhVqlWCaezn6b87PLTt0yLNOlKUWoy6OTee9adF2u83bdrnqa3SIf35PAg8FB7c3PpuOdnZJvIW27Qpsc/NTBIAguiJ8QNPNWKVT4XKVTbV7eBDd05dF+PH9DR6Wzq1OWxMmCOBtNyeEDjyWHtbDRSIAgtBsdRAlpniJGq3/ABOEDrGZ4OGojQ9eIhReMwZ+INPgLEcY5aleYihTxcVGWTWjWqfquwsYfHVMPJtaPVbn9H2/E1fZ1YVQH3u0QOlvmTc9MvJSVOQYE+APoojZEsqVaH/bqQ37sD3f/wCYW0bPwly468DxnmpaU24bT19TmtZStu9De/Zrg6YpPqf5xdlf0AuAPHWVuy5puntAUcQL9irDHGdCD2T5Ex4FdLWFjoyVZye/NfTw+FjWwU06SSytkwiIqZbCIiAIiIAiIgCIiA0P2o47sUcMDes8Nd92b/IFRApq9vU3320hOlBkj7z+yPQZlWxq3sOtijGPj5/pYwMXJSqvy8si2WWAWbQZ2QrBF1lYPuD98UqPIrJZnmVU4gDLfTQ+DrFZDhdUVacgjmFGpHViMoGBlOrbei8xVPiNRf0RrpynmIPi39IWW4WU7dmcWMQtDiHc4+Q/MheupZ2FvEaK+yjfy+p/RW+67oUT4HjLVF0iDqFNOYX1BWY8szsIMCSC1vaaPRRValeQr+FmHQ/LEGD4xbqFHVV1tJ/b89+ehYws7S2Wr7+Dur925veZLqbiGGSDq45T2hMS5gvoOoMdVg7Vw0GQCLSenjyJEK7Xol785dUJAkEcY1FtOF+iqLJBEv5GdLSekiZ1581HB7Ek/Qt1Y85Fr14Lxtf36mDRqZhB1WNiDfKR2TAuNC6fQW+a9ggq86HRzCt2szM7zWKGzQMW+rzotH9TS5p84DVN02QIUBgdomptHE057rWwOrHAO+blsKkTWdvtndRNW2uC8rIhWOcx1XslzWkF0WDQTE+S69urtL+IwzHzJ7pPPLofMQfNcn2lNN4e0wHDK4/DMS0uHEGACIuAei3L2Yh1N2IoHRuRwFrZ2k8NeU8YCyMSrRcH+7mvh8Gn5G1h3t2qrV5PvX2zf0RFnF0IiIAiIgCIiALyV6vCECOb4h+apUf9t5d87D0V3Dt1KtOpwT0MfOFJYbBPc0BrSeug9St6clGJ83synLJZmCNfX6JsmrIc37LvqAVkOpta7LmzGbkd0dAfi8VE4J+Wu5v2h9LJ14vwPGnF2+/v71yJd7vkvcysB3aI5hVtdIBUbieXI3Etj3gGo7Y8tflKyaDpHQgEeaorGKgPRYlB4ZDYdmZnAscuQFpAJ0ByubE6wVO80vA4W8kKbvkY+X6qqowEQsanU1j/ALkekfkVkNd2z4KOLutpHdWm6c3F6r6FNPSDwRoIuCRwkciqqnZkmwTDEkZjadB0Xr0ucRydy5VxImC6R/pb14fmrArtBkB19bwNG8uv4L2q1WHBI042+/Qnlipvh8fiU4iHGQInW834lWgFdXuVTLJWIG23dkRU2Uz+IbiAIqAFriPjaRYHqCBdZrlmUwsSqyCvY2zyDk3a70MXE0Q9paZAIiRqOoWb7OKL6OLynuvY5vjlMtPTjbqsZZ+ya+Sqx3AOB/NRYiltwaLOGxDpStuZ09ERfPn0AREQBERAEREAVLjAlVLF2hUy0qjuTHH5GESu7C9szWsHhGOpPqPJj3hdbiGizfOU2jtJ7xHdb9kfioWm4yBJiRbh4rNxGi2ZUrTu8+HYYDxDcFGOWWfb93MWkbjxUZtA5azXdSPX+6kqPD98VhbeZefAqzDrlbcZlWpD2HnZV0zBcOR+qwnVJpg8lk57h3AgfkuXHL73Znl8ynGiC0/u6ito4w0nPcT2Pc1KhEXJowbGbWdpF4HJS+MEtPS613e50Umm0ZxnJ+xlL3DzygHoSuKlVUqLqP8AdTflmT4TDyxOIhRjrJpef01M3Yz/APDpmoQCIc6+pyxbnclZuCq5nuPP8FGYOTTYQwPJvwtJJlS2DoZGy7U3K5wySw0E/wCGPwRLyo9rHVn/ALk/mZ5i3l720+GrvwUgonZ1S9SodSYHkpIOtdS1Fay4FJFTGAuAOhIHqYViWFxYA4G9yREtkxAHQ8VebwVjFHJXJ4Zg7yMH6FZHKeKq4fm5QeW1aXdr4bzd5FwdHFc7Tmry2bx79PjYtYjEhmUe7aQQZJLp1vEGNCOCqzZWuczKezILhNgLiOcA+ip2pThp/wBL/kZv8grOAd8DhZwOXrmlrgPG/mFBUxdWnjamHnJ7Ml0X/C2rLPcnLLvsX6GBo1uT6WKhFbcH0l/GovpXXHZz7rmS2u73edpAd2dAOoNot+ix6VR1Sc9yT2XQBJAkNtaYVeEvQcOQI9HMP/IrzC/y/B0jyBI/2lVKWIrOvRmpPOkna+Tklmn38eNjQng6CoV6Uoq3OtXsrxUnGzT/AJbrwui12BlDs0um4iBp+YXrKd4sInUwLa3K82i2GSPtiP8A6mfwVeI+In7JPq39Vtxxk41sRBu6glKPim7PxR888BTnQwkkrOpJwl3qSSaTy0Z0fZdXNSYf9InxFisxa5uTXLsPlOrDHkbj5LY1mKW0r2tfdwNGpTdObg3eztfj2+OoREXpyEREAREQBYO2f5FT7pXqLqHWXecT6r7jQ6Oo8Qs/E6FeItur1kfNx0MKnr++ax9vfgvUXceujxmPQ/lLIHcZ4fiERSv1OHqX6/dPgVqO/f8A7P1/2PXqKjjvZKnd6o1+Q/8AMaPe/lZM7M/k0/8A4wpXE9w/dXqKWj+DT7l8EUsd7XW/PL5mRuye4PFSlfun98kRTVev4lVFbeHgsfbffH3Gf7URfPcv+yPv9T6b/wCX9t8Cjamj/wCn8FYqaYf+r/yIir8p+1f8cP7qNTkT2Rf1an9qRXhP5dTxd9Wpgu4/+n/miLih7Thvyy/7kuM9mxf5ofCkU7V7n9f/ABXmM7rvut/4ois1PxMZ/SXyyKdP8PAf1pfOjZdxP83+j6LbkREcV/xH3L5UERF6RBERAf/Z</t>
         </is>
       </c>
     </row>
